--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
@@ -246,11 +246,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -259,6 +255,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -326,15 +326,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -442,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:AJ975"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:Z4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="38:38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.89453125" defaultRowHeight="9.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,117 +451,117 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="4.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -1487,7 +1487,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
@@ -37198,7 +37198,7 @@
     <mergeCell ref="Y47:Z47"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.913888888888889" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.913888888888889" bottom="1.05277777777778" header="0.511805555555555" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
@@ -442,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:AJ975"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="38:38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.89453125" defaultRowHeight="9.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="H:MM;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]H:MM"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]h:mm"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -435,23 +435,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF4F81BD"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AJ975"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.89453125" defaultRowHeight="9.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.71484375" defaultRowHeight="7.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="4.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="4.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -479,7 +479,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -507,7 +507,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -535,7 +535,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -563,7 +563,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -591,7 +591,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -619,7 +619,7 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -647,7 +647,7 @@
       <c r="Y7" s="13"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -675,7 +675,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -703,7 +703,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -731,7 +731,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
@@ -759,7 +759,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="14"/>
     </row>
-    <row r="12" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -787,7 +787,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
@@ -815,7 +815,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -843,7 +843,7 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
@@ -871,7 +871,7 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -899,7 +899,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
@@ -927,7 +927,7 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="14"/>
     </row>
-    <row r="18" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -955,7 +955,7 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -983,7 +983,7 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -1011,7 +1011,7 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -1039,7 +1039,7 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -1067,7 +1067,7 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -1095,7 +1095,7 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -1123,7 +1123,7 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -1151,7 +1151,7 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -1179,7 +1179,7 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -1207,7 +1207,7 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -1235,7 +1235,7 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -1263,7 +1263,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="18"/>
@@ -1291,7 +1291,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -1319,7 +1319,7 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -1347,7 +1347,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -1375,7 +1375,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
@@ -1403,7 +1403,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
@@ -1431,7 +1431,7 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="18"/>
@@ -1459,7 +1459,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -1487,7 +1487,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" s="5" customFormat="true" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" s="5" customFormat="true" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
@@ -1515,7 +1515,7 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1543,7 +1543,7 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
@@ -1571,7 +1571,7 @@
       <c r="Y40" s="26"/>
       <c r="Z40" s="26"/>
     </row>
-    <row r="41" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="12"/>
@@ -1599,7 +1599,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="26"/>
@@ -1627,7 +1627,7 @@
       <c r="Y42" s="26"/>
       <c r="Z42" s="26"/>
     </row>
-    <row r="43" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="12"/>
@@ -1655,7 +1655,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="26"/>
@@ -1683,7 +1683,7 @@
       <c r="Y44" s="26"/>
       <c r="Z44" s="26"/>
     </row>
-    <row r="45" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="12"/>
@@ -1711,7 +1711,7 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="26"/>
@@ -1739,7 +1739,7 @@
       <c r="Y46" s="26"/>
       <c r="Z46" s="26"/>
     </row>
-    <row r="47" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="12"/>
@@ -1767,7 +1767,7 @@
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -1805,7 +1805,7 @@
       <c r="AI48" s="29"/>
       <c r="AJ48" s="30"/>
     </row>
-    <row r="49" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -1843,7 +1843,7 @@
       <c r="AI49" s="29"/>
       <c r="AJ49" s="30"/>
     </row>
-    <row r="50" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -1881,7 +1881,7 @@
       <c r="AI50" s="29"/>
       <c r="AJ50" s="30"/>
     </row>
-    <row r="51" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -1919,7 +1919,7 @@
       <c r="AI51" s="29"/>
       <c r="AJ51" s="30"/>
     </row>
-    <row r="52" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -1957,7 +1957,7 @@
       <c r="AI52" s="29"/>
       <c r="AJ52" s="30"/>
     </row>
-    <row r="53" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -1995,7 +1995,7 @@
       <c r="AI53" s="29"/>
       <c r="AJ53" s="30"/>
     </row>
-    <row r="54" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -2033,7 +2033,7 @@
       <c r="AI54" s="29"/>
       <c r="AJ54" s="30"/>
     </row>
-    <row r="55" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -2071,7 +2071,7 @@
       <c r="AI55" s="29"/>
       <c r="AJ55" s="30"/>
     </row>
-    <row r="56" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -2109,7 +2109,7 @@
       <c r="AI56" s="29"/>
       <c r="AJ56" s="30"/>
     </row>
-    <row r="57" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -2147,7 +2147,7 @@
       <c r="AI57" s="29"/>
       <c r="AJ57" s="30"/>
     </row>
-    <row r="58" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -2185,7 +2185,7 @@
       <c r="AI58" s="29"/>
       <c r="AJ58" s="30"/>
     </row>
-    <row r="59" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -2223,7 +2223,7 @@
       <c r="AI59" s="29"/>
       <c r="AJ59" s="30"/>
     </row>
-    <row r="60" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -2261,7 +2261,7 @@
       <c r="AI60" s="29"/>
       <c r="AJ60" s="30"/>
     </row>
-    <row r="61" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -2299,7 +2299,7 @@
       <c r="AI61" s="29"/>
       <c r="AJ61" s="30"/>
     </row>
-    <row r="62" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -2337,7 +2337,7 @@
       <c r="AI62" s="29"/>
       <c r="AJ62" s="30"/>
     </row>
-    <row r="63" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -2375,7 +2375,7 @@
       <c r="AI63" s="29"/>
       <c r="AJ63" s="30"/>
     </row>
-    <row r="64" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -2413,7 +2413,7 @@
       <c r="AI64" s="29"/>
       <c r="AJ64" s="30"/>
     </row>
-    <row r="65" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -2451,7 +2451,7 @@
       <c r="AI65" s="29"/>
       <c r="AJ65" s="30"/>
     </row>
-    <row r="66" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -2489,7 +2489,7 @@
       <c r="AI66" s="29"/>
       <c r="AJ66" s="30"/>
     </row>
-    <row r="67" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -2527,7 +2527,7 @@
       <c r="AI67" s="29"/>
       <c r="AJ67" s="30"/>
     </row>
-    <row r="68" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -2565,7 +2565,7 @@
       <c r="AI68" s="29"/>
       <c r="AJ68" s="30"/>
     </row>
-    <row r="69" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -2603,7 +2603,7 @@
       <c r="AI69" s="29"/>
       <c r="AJ69" s="30"/>
     </row>
-    <row r="70" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -2641,7 +2641,7 @@
       <c r="AI70" s="29"/>
       <c r="AJ70" s="30"/>
     </row>
-    <row r="71" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -2679,7 +2679,7 @@
       <c r="AI71" s="29"/>
       <c r="AJ71" s="30"/>
     </row>
-    <row r="72" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -2717,7 +2717,7 @@
       <c r="AI72" s="29"/>
       <c r="AJ72" s="30"/>
     </row>
-    <row r="73" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -2755,7 +2755,7 @@
       <c r="AI73" s="29"/>
       <c r="AJ73" s="30"/>
     </row>
-    <row r="74" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -2793,7 +2793,7 @@
       <c r="AI74" s="29"/>
       <c r="AJ74" s="30"/>
     </row>
-    <row r="75" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -2831,7 +2831,7 @@
       <c r="AI75" s="29"/>
       <c r="AJ75" s="30"/>
     </row>
-    <row r="76" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -2869,7 +2869,7 @@
       <c r="AI76" s="29"/>
       <c r="AJ76" s="30"/>
     </row>
-    <row r="77" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -2907,7 +2907,7 @@
       <c r="AI77" s="29"/>
       <c r="AJ77" s="30"/>
     </row>
-    <row r="78" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -2945,7 +2945,7 @@
       <c r="AI78" s="29"/>
       <c r="AJ78" s="30"/>
     </row>
-    <row r="79" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -2983,7 +2983,7 @@
       <c r="AI79" s="29"/>
       <c r="AJ79" s="30"/>
     </row>
-    <row r="80" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -3021,7 +3021,7 @@
       <c r="AI80" s="29"/>
       <c r="AJ80" s="30"/>
     </row>
-    <row r="81" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -3059,7 +3059,7 @@
       <c r="AI81" s="29"/>
       <c r="AJ81" s="30"/>
     </row>
-    <row r="82" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -3097,7 +3097,7 @@
       <c r="AI82" s="29"/>
       <c r="AJ82" s="30"/>
     </row>
-    <row r="83" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -3135,7 +3135,7 @@
       <c r="AI83" s="29"/>
       <c r="AJ83" s="30"/>
     </row>
-    <row r="84" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -3173,7 +3173,7 @@
       <c r="AI84" s="29"/>
       <c r="AJ84" s="30"/>
     </row>
-    <row r="85" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -3211,7 +3211,7 @@
       <c r="AI85" s="29"/>
       <c r="AJ85" s="30"/>
     </row>
-    <row r="86" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -3249,7 +3249,7 @@
       <c r="AI86" s="29"/>
       <c r="AJ86" s="30"/>
     </row>
-    <row r="87" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -3287,7 +3287,7 @@
       <c r="AI87" s="29"/>
       <c r="AJ87" s="30"/>
     </row>
-    <row r="88" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -3325,7 +3325,7 @@
       <c r="AI88" s="29"/>
       <c r="AJ88" s="30"/>
     </row>
-    <row r="89" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -3363,7 +3363,7 @@
       <c r="AI89" s="29"/>
       <c r="AJ89" s="30"/>
     </row>
-    <row r="90" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -3401,7 +3401,7 @@
       <c r="AI90" s="29"/>
       <c r="AJ90" s="30"/>
     </row>
-    <row r="91" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -3439,7 +3439,7 @@
       <c r="AI91" s="29"/>
       <c r="AJ91" s="30"/>
     </row>
-    <row r="92" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -3477,7 +3477,7 @@
       <c r="AI92" s="29"/>
       <c r="AJ92" s="30"/>
     </row>
-    <row r="93" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -3515,7 +3515,7 @@
       <c r="AI93" s="29"/>
       <c r="AJ93" s="30"/>
     </row>
-    <row r="94" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -3553,7 +3553,7 @@
       <c r="AI94" s="29"/>
       <c r="AJ94" s="30"/>
     </row>
-    <row r="95" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -3591,7 +3591,7 @@
       <c r="AI95" s="29"/>
       <c r="AJ95" s="30"/>
     </row>
-    <row r="96" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -3629,7 +3629,7 @@
       <c r="AI96" s="29"/>
       <c r="AJ96" s="30"/>
     </row>
-    <row r="97" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -3667,7 +3667,7 @@
       <c r="AI97" s="29"/>
       <c r="AJ97" s="30"/>
     </row>
-    <row r="98" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -3705,7 +3705,7 @@
       <c r="AI98" s="29"/>
       <c r="AJ98" s="30"/>
     </row>
-    <row r="99" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -3743,7 +3743,7 @@
       <c r="AI99" s="29"/>
       <c r="AJ99" s="30"/>
     </row>
-    <row r="100" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -3781,7 +3781,7 @@
       <c r="AI100" s="29"/>
       <c r="AJ100" s="30"/>
     </row>
-    <row r="101" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -3819,7 +3819,7 @@
       <c r="AI101" s="29"/>
       <c r="AJ101" s="30"/>
     </row>
-    <row r="102" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -3857,7 +3857,7 @@
       <c r="AI102" s="29"/>
       <c r="AJ102" s="30"/>
     </row>
-    <row r="103" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -3895,7 +3895,7 @@
       <c r="AI103" s="29"/>
       <c r="AJ103" s="30"/>
     </row>
-    <row r="104" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -3933,7 +3933,7 @@
       <c r="AI104" s="29"/>
       <c r="AJ104" s="30"/>
     </row>
-    <row r="105" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -3971,7 +3971,7 @@
       <c r="AI105" s="29"/>
       <c r="AJ105" s="30"/>
     </row>
-    <row r="106" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -4009,7 +4009,7 @@
       <c r="AI106" s="29"/>
       <c r="AJ106" s="30"/>
     </row>
-    <row r="107" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -4047,7 +4047,7 @@
       <c r="AI107" s="29"/>
       <c r="AJ107" s="30"/>
     </row>
-    <row r="108" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -4085,7 +4085,7 @@
       <c r="AI108" s="29"/>
       <c r="AJ108" s="30"/>
     </row>
-    <row r="109" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -4123,7 +4123,7 @@
       <c r="AI109" s="29"/>
       <c r="AJ109" s="30"/>
     </row>
-    <row r="110" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -4161,7 +4161,7 @@
       <c r="AI110" s="29"/>
       <c r="AJ110" s="30"/>
     </row>
-    <row r="111" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -4199,7 +4199,7 @@
       <c r="AI111" s="29"/>
       <c r="AJ111" s="30"/>
     </row>
-    <row r="112" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -4237,7 +4237,7 @@
       <c r="AI112" s="29"/>
       <c r="AJ112" s="30"/>
     </row>
-    <row r="113" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -4275,7 +4275,7 @@
       <c r="AI113" s="29"/>
       <c r="AJ113" s="30"/>
     </row>
-    <row r="114" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -4313,7 +4313,7 @@
       <c r="AI114" s="29"/>
       <c r="AJ114" s="30"/>
     </row>
-    <row r="115" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -4351,7 +4351,7 @@
       <c r="AI115" s="29"/>
       <c r="AJ115" s="30"/>
     </row>
-    <row r="116" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -4389,7 +4389,7 @@
       <c r="AI116" s="29"/>
       <c r="AJ116" s="30"/>
     </row>
-    <row r="117" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -4427,7 +4427,7 @@
       <c r="AI117" s="29"/>
       <c r="AJ117" s="30"/>
     </row>
-    <row r="118" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -4465,7 +4465,7 @@
       <c r="AI118" s="29"/>
       <c r="AJ118" s="30"/>
     </row>
-    <row r="119" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -4503,7 +4503,7 @@
       <c r="AI119" s="29"/>
       <c r="AJ119" s="30"/>
     </row>
-    <row r="120" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
@@ -4541,7 +4541,7 @@
       <c r="AI120" s="29"/>
       <c r="AJ120" s="30"/>
     </row>
-    <row r="121" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -4579,7 +4579,7 @@
       <c r="AI121" s="29"/>
       <c r="AJ121" s="30"/>
     </row>
-    <row r="122" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -4617,7 +4617,7 @@
       <c r="AI122" s="29"/>
       <c r="AJ122" s="30"/>
     </row>
-    <row r="123" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -4655,7 +4655,7 @@
       <c r="AI123" s="29"/>
       <c r="AJ123" s="30"/>
     </row>
-    <row r="124" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -4693,7 +4693,7 @@
       <c r="AI124" s="29"/>
       <c r="AJ124" s="30"/>
     </row>
-    <row r="125" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -4731,7 +4731,7 @@
       <c r="AI125" s="29"/>
       <c r="AJ125" s="30"/>
     </row>
-    <row r="126" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -4769,7 +4769,7 @@
       <c r="AI126" s="29"/>
       <c r="AJ126" s="30"/>
     </row>
-    <row r="127" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -4807,7 +4807,7 @@
       <c r="AI127" s="29"/>
       <c r="AJ127" s="30"/>
     </row>
-    <row r="128" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="29"/>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -4845,7 +4845,7 @@
       <c r="AI128" s="29"/>
       <c r="AJ128" s="30"/>
     </row>
-    <row r="129" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -4883,7 +4883,7 @@
       <c r="AI129" s="29"/>
       <c r="AJ129" s="30"/>
     </row>
-    <row r="130" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -4921,7 +4921,7 @@
       <c r="AI130" s="29"/>
       <c r="AJ130" s="30"/>
     </row>
-    <row r="131" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="29"/>
       <c r="B131" s="29"/>
       <c r="C131" s="29"/>
@@ -4959,7 +4959,7 @@
       <c r="AI131" s="29"/>
       <c r="AJ131" s="30"/>
     </row>
-    <row r="132" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -4997,7 +4997,7 @@
       <c r="AI132" s="29"/>
       <c r="AJ132" s="30"/>
     </row>
-    <row r="133" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -5035,7 +5035,7 @@
       <c r="AI133" s="29"/>
       <c r="AJ133" s="30"/>
     </row>
-    <row r="134" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -5073,7 +5073,7 @@
       <c r="AI134" s="29"/>
       <c r="AJ134" s="30"/>
     </row>
-    <row r="135" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -5111,7 +5111,7 @@
       <c r="AI135" s="29"/>
       <c r="AJ135" s="30"/>
     </row>
-    <row r="136" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -5149,7 +5149,7 @@
       <c r="AI136" s="29"/>
       <c r="AJ136" s="30"/>
     </row>
-    <row r="137" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -5187,7 +5187,7 @@
       <c r="AI137" s="29"/>
       <c r="AJ137" s="30"/>
     </row>
-    <row r="138" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -5225,7 +5225,7 @@
       <c r="AI138" s="29"/>
       <c r="AJ138" s="30"/>
     </row>
-    <row r="139" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="29"/>
@@ -5263,7 +5263,7 @@
       <c r="AI139" s="29"/>
       <c r="AJ139" s="30"/>
     </row>
-    <row r="140" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -5301,7 +5301,7 @@
       <c r="AI140" s="29"/>
       <c r="AJ140" s="30"/>
     </row>
-    <row r="141" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -5339,7 +5339,7 @@
       <c r="AI141" s="29"/>
       <c r="AJ141" s="30"/>
     </row>
-    <row r="142" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -5377,7 +5377,7 @@
       <c r="AI142" s="29"/>
       <c r="AJ142" s="30"/>
     </row>
-    <row r="143" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -5415,7 +5415,7 @@
       <c r="AI143" s="29"/>
       <c r="AJ143" s="30"/>
     </row>
-    <row r="144" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -5453,7 +5453,7 @@
       <c r="AI144" s="29"/>
       <c r="AJ144" s="30"/>
     </row>
-    <row r="145" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -5491,7 +5491,7 @@
       <c r="AI145" s="29"/>
       <c r="AJ145" s="30"/>
     </row>
-    <row r="146" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -5529,7 +5529,7 @@
       <c r="AI146" s="29"/>
       <c r="AJ146" s="30"/>
     </row>
-    <row r="147" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -5567,7 +5567,7 @@
       <c r="AI147" s="29"/>
       <c r="AJ147" s="30"/>
     </row>
-    <row r="148" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -5605,7 +5605,7 @@
       <c r="AI148" s="29"/>
       <c r="AJ148" s="30"/>
     </row>
-    <row r="149" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -5643,7 +5643,7 @@
       <c r="AI149" s="29"/>
       <c r="AJ149" s="30"/>
     </row>
-    <row r="150" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -5681,7 +5681,7 @@
       <c r="AI150" s="29"/>
       <c r="AJ150" s="30"/>
     </row>
-    <row r="151" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="29"/>
@@ -5719,7 +5719,7 @@
       <c r="AI151" s="29"/>
       <c r="AJ151" s="30"/>
     </row>
-    <row r="152" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="29"/>
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
@@ -5757,7 +5757,7 @@
       <c r="AI152" s="29"/>
       <c r="AJ152" s="30"/>
     </row>
-    <row r="153" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
@@ -5795,7 +5795,7 @@
       <c r="AI153" s="29"/>
       <c r="AJ153" s="30"/>
     </row>
-    <row r="154" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="29"/>
       <c r="B154" s="29"/>
       <c r="C154" s="29"/>
@@ -5833,7 +5833,7 @@
       <c r="AI154" s="29"/>
       <c r="AJ154" s="30"/>
     </row>
-    <row r="155" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="29"/>
       <c r="B155" s="29"/>
       <c r="C155" s="29"/>
@@ -5871,7 +5871,7 @@
       <c r="AI155" s="29"/>
       <c r="AJ155" s="30"/>
     </row>
-    <row r="156" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="29"/>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -5909,7 +5909,7 @@
       <c r="AI156" s="29"/>
       <c r="AJ156" s="30"/>
     </row>
-    <row r="157" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -5947,7 +5947,7 @@
       <c r="AI157" s="29"/>
       <c r="AJ157" s="30"/>
     </row>
-    <row r="158" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -5985,7 +5985,7 @@
       <c r="AI158" s="29"/>
       <c r="AJ158" s="30"/>
     </row>
-    <row r="159" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="29"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -6023,7 +6023,7 @@
       <c r="AI159" s="29"/>
       <c r="AJ159" s="30"/>
     </row>
-    <row r="160" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="29"/>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -6061,7 +6061,7 @@
       <c r="AI160" s="29"/>
       <c r="AJ160" s="30"/>
     </row>
-    <row r="161" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
@@ -6099,7 +6099,7 @@
       <c r="AI161" s="29"/>
       <c r="AJ161" s="30"/>
     </row>
-    <row r="162" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="29"/>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -6137,7 +6137,7 @@
       <c r="AI162" s="29"/>
       <c r="AJ162" s="30"/>
     </row>
-    <row r="163" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="29"/>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -6175,7 +6175,7 @@
       <c r="AI163" s="29"/>
       <c r="AJ163" s="30"/>
     </row>
-    <row r="164" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="29"/>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -6213,7 +6213,7 @@
       <c r="AI164" s="29"/>
       <c r="AJ164" s="30"/>
     </row>
-    <row r="165" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -6251,7 +6251,7 @@
       <c r="AI165" s="29"/>
       <c r="AJ165" s="30"/>
     </row>
-    <row r="166" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="29"/>
       <c r="B166" s="29"/>
       <c r="C166" s="29"/>
@@ -6289,7 +6289,7 @@
       <c r="AI166" s="29"/>
       <c r="AJ166" s="30"/>
     </row>
-    <row r="167" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="29"/>
       <c r="B167" s="29"/>
       <c r="C167" s="29"/>
@@ -6327,7 +6327,7 @@
       <c r="AI167" s="29"/>
       <c r="AJ167" s="30"/>
     </row>
-    <row r="168" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="29"/>
       <c r="B168" s="29"/>
       <c r="C168" s="29"/>
@@ -6365,7 +6365,7 @@
       <c r="AI168" s="29"/>
       <c r="AJ168" s="30"/>
     </row>
-    <row r="169" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="29"/>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -6403,7 +6403,7 @@
       <c r="AI169" s="29"/>
       <c r="AJ169" s="30"/>
     </row>
-    <row r="170" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="29"/>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -6441,7 +6441,7 @@
       <c r="AI170" s="29"/>
       <c r="AJ170" s="30"/>
     </row>
-    <row r="171" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="29"/>
       <c r="B171" s="29"/>
       <c r="C171" s="29"/>
@@ -6479,7 +6479,7 @@
       <c r="AI171" s="29"/>
       <c r="AJ171" s="30"/>
     </row>
-    <row r="172" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -6517,7 +6517,7 @@
       <c r="AI172" s="29"/>
       <c r="AJ172" s="30"/>
     </row>
-    <row r="173" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="29"/>
       <c r="B173" s="29"/>
       <c r="C173" s="29"/>
@@ -6555,7 +6555,7 @@
       <c r="AI173" s="29"/>
       <c r="AJ173" s="30"/>
     </row>
-    <row r="174" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="29"/>
       <c r="B174" s="29"/>
       <c r="C174" s="29"/>
@@ -6593,7 +6593,7 @@
       <c r="AI174" s="29"/>
       <c r="AJ174" s="30"/>
     </row>
-    <row r="175" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
       <c r="C175" s="29"/>
@@ -6631,7 +6631,7 @@
       <c r="AI175" s="29"/>
       <c r="AJ175" s="30"/>
     </row>
-    <row r="176" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -6669,7 +6669,7 @@
       <c r="AI176" s="29"/>
       <c r="AJ176" s="30"/>
     </row>
-    <row r="177" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="29"/>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
@@ -6707,7 +6707,7 @@
       <c r="AI177" s="29"/>
       <c r="AJ177" s="30"/>
     </row>
-    <row r="178" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="29"/>
       <c r="B178" s="29"/>
       <c r="C178" s="29"/>
@@ -6745,7 +6745,7 @@
       <c r="AI178" s="29"/>
       <c r="AJ178" s="30"/>
     </row>
-    <row r="179" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="29"/>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -6783,7 +6783,7 @@
       <c r="AI179" s="29"/>
       <c r="AJ179" s="30"/>
     </row>
-    <row r="180" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="29"/>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -6821,7 +6821,7 @@
       <c r="AI180" s="29"/>
       <c r="AJ180" s="30"/>
     </row>
-    <row r="181" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
@@ -6859,7 +6859,7 @@
       <c r="AI181" s="29"/>
       <c r="AJ181" s="30"/>
     </row>
-    <row r="182" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="29"/>
       <c r="B182" s="29"/>
       <c r="C182" s="29"/>
@@ -6897,7 +6897,7 @@
       <c r="AI182" s="29"/>
       <c r="AJ182" s="30"/>
     </row>
-    <row r="183" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="29"/>
       <c r="B183" s="29"/>
       <c r="C183" s="29"/>
@@ -6935,7 +6935,7 @@
       <c r="AI183" s="29"/>
       <c r="AJ183" s="30"/>
     </row>
-    <row r="184" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="29"/>
       <c r="B184" s="29"/>
       <c r="C184" s="29"/>
@@ -6973,7 +6973,7 @@
       <c r="AI184" s="29"/>
       <c r="AJ184" s="30"/>
     </row>
-    <row r="185" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="29"/>
       <c r="B185" s="29"/>
       <c r="C185" s="29"/>
@@ -7011,7 +7011,7 @@
       <c r="AI185" s="29"/>
       <c r="AJ185" s="30"/>
     </row>
-    <row r="186" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="29"/>
       <c r="B186" s="29"/>
       <c r="C186" s="29"/>
@@ -7049,7 +7049,7 @@
       <c r="AI186" s="29"/>
       <c r="AJ186" s="30"/>
     </row>
-    <row r="187" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="29"/>
       <c r="B187" s="29"/>
       <c r="C187" s="29"/>
@@ -7087,7 +7087,7 @@
       <c r="AI187" s="29"/>
       <c r="AJ187" s="30"/>
     </row>
-    <row r="188" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="29"/>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -7125,7 +7125,7 @@
       <c r="AI188" s="29"/>
       <c r="AJ188" s="30"/>
     </row>
-    <row r="189" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="29"/>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -7163,7 +7163,7 @@
       <c r="AI189" s="29"/>
       <c r="AJ189" s="30"/>
     </row>
-    <row r="190" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="29"/>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -7201,7 +7201,7 @@
       <c r="AI190" s="29"/>
       <c r="AJ190" s="30"/>
     </row>
-    <row r="191" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="29"/>
       <c r="B191" s="29"/>
       <c r="C191" s="29"/>
@@ -7239,7 +7239,7 @@
       <c r="AI191" s="29"/>
       <c r="AJ191" s="30"/>
     </row>
-    <row r="192" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="29"/>
@@ -7277,7 +7277,7 @@
       <c r="AI192" s="29"/>
       <c r="AJ192" s="30"/>
     </row>
-    <row r="193" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
@@ -7315,7 +7315,7 @@
       <c r="AI193" s="29"/>
       <c r="AJ193" s="30"/>
     </row>
-    <row r="194" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
@@ -7353,7 +7353,7 @@
       <c r="AI194" s="29"/>
       <c r="AJ194" s="30"/>
     </row>
-    <row r="195" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
@@ -7391,7 +7391,7 @@
       <c r="AI195" s="29"/>
       <c r="AJ195" s="30"/>
     </row>
-    <row r="196" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -7429,7 +7429,7 @@
       <c r="AI196" s="29"/>
       <c r="AJ196" s="30"/>
     </row>
-    <row r="197" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -7467,7 +7467,7 @@
       <c r="AI197" s="29"/>
       <c r="AJ197" s="30"/>
     </row>
-    <row r="198" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
@@ -7505,7 +7505,7 @@
       <c r="AI198" s="29"/>
       <c r="AJ198" s="30"/>
     </row>
-    <row r="199" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
@@ -7543,7 +7543,7 @@
       <c r="AI199" s="29"/>
       <c r="AJ199" s="30"/>
     </row>
-    <row r="200" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
@@ -7581,7 +7581,7 @@
       <c r="AI200" s="29"/>
       <c r="AJ200" s="30"/>
     </row>
-    <row r="201" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
@@ -7619,7 +7619,7 @@
       <c r="AI201" s="29"/>
       <c r="AJ201" s="30"/>
     </row>
-    <row r="202" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
@@ -7657,7 +7657,7 @@
       <c r="AI202" s="29"/>
       <c r="AJ202" s="30"/>
     </row>
-    <row r="203" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
@@ -7695,7 +7695,7 @@
       <c r="AI203" s="29"/>
       <c r="AJ203" s="30"/>
     </row>
-    <row r="204" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -7733,7 +7733,7 @@
       <c r="AI204" s="29"/>
       <c r="AJ204" s="30"/>
     </row>
-    <row r="205" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -7771,7 +7771,7 @@
       <c r="AI205" s="29"/>
       <c r="AJ205" s="30"/>
     </row>
-    <row r="206" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
@@ -7809,7 +7809,7 @@
       <c r="AI206" s="29"/>
       <c r="AJ206" s="30"/>
     </row>
-    <row r="207" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -7847,7 +7847,7 @@
       <c r="AI207" s="29"/>
       <c r="AJ207" s="30"/>
     </row>
-    <row r="208" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
@@ -7885,7 +7885,7 @@
       <c r="AI208" s="29"/>
       <c r="AJ208" s="30"/>
     </row>
-    <row r="209" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
@@ -7923,7 +7923,7 @@
       <c r="AI209" s="29"/>
       <c r="AJ209" s="30"/>
     </row>
-    <row r="210" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
@@ -7961,7 +7961,7 @@
       <c r="AI210" s="29"/>
       <c r="AJ210" s="30"/>
     </row>
-    <row r="211" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
@@ -7999,7 +7999,7 @@
       <c r="AI211" s="29"/>
       <c r="AJ211" s="30"/>
     </row>
-    <row r="212" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -8037,7 +8037,7 @@
       <c r="AI212" s="29"/>
       <c r="AJ212" s="30"/>
     </row>
-    <row r="213" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
@@ -8075,7 +8075,7 @@
       <c r="AI213" s="29"/>
       <c r="AJ213" s="30"/>
     </row>
-    <row r="214" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -8113,7 +8113,7 @@
       <c r="AI214" s="29"/>
       <c r="AJ214" s="30"/>
     </row>
-    <row r="215" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
@@ -8151,7 +8151,7 @@
       <c r="AI215" s="29"/>
       <c r="AJ215" s="30"/>
     </row>
-    <row r="216" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -8189,7 +8189,7 @@
       <c r="AI216" s="29"/>
       <c r="AJ216" s="30"/>
     </row>
-    <row r="217" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
@@ -8227,7 +8227,7 @@
       <c r="AI217" s="29"/>
       <c r="AJ217" s="30"/>
     </row>
-    <row r="218" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
@@ -8265,7 +8265,7 @@
       <c r="AI218" s="29"/>
       <c r="AJ218" s="30"/>
     </row>
-    <row r="219" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
@@ -8303,7 +8303,7 @@
       <c r="AI219" s="29"/>
       <c r="AJ219" s="30"/>
     </row>
-    <row r="220" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -8341,7 +8341,7 @@
       <c r="AI220" s="29"/>
       <c r="AJ220" s="30"/>
     </row>
-    <row r="221" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
@@ -8379,7 +8379,7 @@
       <c r="AI221" s="29"/>
       <c r="AJ221" s="30"/>
     </row>
-    <row r="222" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
@@ -8417,7 +8417,7 @@
       <c r="AI222" s="29"/>
       <c r="AJ222" s="30"/>
     </row>
-    <row r="223" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
@@ -8455,7 +8455,7 @@
       <c r="AI223" s="29"/>
       <c r="AJ223" s="30"/>
     </row>
-    <row r="224" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
@@ -8493,7 +8493,7 @@
       <c r="AI224" s="29"/>
       <c r="AJ224" s="30"/>
     </row>
-    <row r="225" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -8531,7 +8531,7 @@
       <c r="AI225" s="29"/>
       <c r="AJ225" s="30"/>
     </row>
-    <row r="226" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -8569,7 +8569,7 @@
       <c r="AI226" s="29"/>
       <c r="AJ226" s="30"/>
     </row>
-    <row r="227" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -8607,7 +8607,7 @@
       <c r="AI227" s="29"/>
       <c r="AJ227" s="30"/>
     </row>
-    <row r="228" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -8645,7 +8645,7 @@
       <c r="AI228" s="29"/>
       <c r="AJ228" s="30"/>
     </row>
-    <row r="229" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
@@ -8683,7 +8683,7 @@
       <c r="AI229" s="29"/>
       <c r="AJ229" s="30"/>
     </row>
-    <row r="230" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -8721,7 +8721,7 @@
       <c r="AI230" s="29"/>
       <c r="AJ230" s="30"/>
     </row>
-    <row r="231" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -8759,7 +8759,7 @@
       <c r="AI231" s="29"/>
       <c r="AJ231" s="30"/>
     </row>
-    <row r="232" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -8797,7 +8797,7 @@
       <c r="AI232" s="29"/>
       <c r="AJ232" s="30"/>
     </row>
-    <row r="233" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -8835,7 +8835,7 @@
       <c r="AI233" s="29"/>
       <c r="AJ233" s="30"/>
     </row>
-    <row r="234" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>
@@ -8873,7 +8873,7 @@
       <c r="AI234" s="29"/>
       <c r="AJ234" s="30"/>
     </row>
-    <row r="235" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="29"/>
@@ -8911,7 +8911,7 @@
       <c r="AI235" s="29"/>
       <c r="AJ235" s="30"/>
     </row>
-    <row r="236" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -8949,7 +8949,7 @@
       <c r="AI236" s="29"/>
       <c r="AJ236" s="30"/>
     </row>
-    <row r="237" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
@@ -8987,7 +8987,7 @@
       <c r="AI237" s="29"/>
       <c r="AJ237" s="30"/>
     </row>
-    <row r="238" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
@@ -9025,7 +9025,7 @@
       <c r="AI238" s="29"/>
       <c r="AJ238" s="30"/>
     </row>
-    <row r="239" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
@@ -9063,7 +9063,7 @@
       <c r="AI239" s="29"/>
       <c r="AJ239" s="30"/>
     </row>
-    <row r="240" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -9101,7 +9101,7 @@
       <c r="AI240" s="29"/>
       <c r="AJ240" s="30"/>
     </row>
-    <row r="241" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -9139,7 +9139,7 @@
       <c r="AI241" s="29"/>
       <c r="AJ241" s="30"/>
     </row>
-    <row r="242" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
@@ -9177,7 +9177,7 @@
       <c r="AI242" s="29"/>
       <c r="AJ242" s="30"/>
     </row>
-    <row r="243" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
@@ -9215,7 +9215,7 @@
       <c r="AI243" s="29"/>
       <c r="AJ243" s="30"/>
     </row>
-    <row r="244" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -9253,7 +9253,7 @@
       <c r="AI244" s="29"/>
       <c r="AJ244" s="30"/>
     </row>
-    <row r="245" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -9291,7 +9291,7 @@
       <c r="AI245" s="29"/>
       <c r="AJ245" s="30"/>
     </row>
-    <row r="246" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="29"/>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -9329,7 +9329,7 @@
       <c r="AI246" s="29"/>
       <c r="AJ246" s="30"/>
     </row>
-    <row r="247" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -9367,7 +9367,7 @@
       <c r="AI247" s="29"/>
       <c r="AJ247" s="30"/>
     </row>
-    <row r="248" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="29"/>
       <c r="B248" s="29"/>
       <c r="C248" s="29"/>
@@ -9405,7 +9405,7 @@
       <c r="AI248" s="29"/>
       <c r="AJ248" s="30"/>
     </row>
-    <row r="249" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="29"/>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
@@ -9443,7 +9443,7 @@
       <c r="AI249" s="29"/>
       <c r="AJ249" s="30"/>
     </row>
-    <row r="250" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
@@ -9481,7 +9481,7 @@
       <c r="AI250" s="29"/>
       <c r="AJ250" s="30"/>
     </row>
-    <row r="251" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
@@ -9519,7 +9519,7 @@
       <c r="AI251" s="29"/>
       <c r="AJ251" s="30"/>
     </row>
-    <row r="252" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
@@ -9557,7 +9557,7 @@
       <c r="AI252" s="29"/>
       <c r="AJ252" s="30"/>
     </row>
-    <row r="253" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -9595,7 +9595,7 @@
       <c r="AI253" s="29"/>
       <c r="AJ253" s="30"/>
     </row>
-    <row r="254" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
@@ -9633,7 +9633,7 @@
       <c r="AI254" s="29"/>
       <c r="AJ254" s="30"/>
     </row>
-    <row r="255" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
@@ -9671,7 +9671,7 @@
       <c r="AI255" s="29"/>
       <c r="AJ255" s="30"/>
     </row>
-    <row r="256" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
@@ -9709,7 +9709,7 @@
       <c r="AI256" s="29"/>
       <c r="AJ256" s="30"/>
     </row>
-    <row r="257" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
@@ -9747,7 +9747,7 @@
       <c r="AI257" s="29"/>
       <c r="AJ257" s="30"/>
     </row>
-    <row r="258" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
@@ -9785,7 +9785,7 @@
       <c r="AI258" s="29"/>
       <c r="AJ258" s="30"/>
     </row>
-    <row r="259" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -9823,7 +9823,7 @@
       <c r="AI259" s="29"/>
       <c r="AJ259" s="30"/>
     </row>
-    <row r="260" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="29"/>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -9861,7 +9861,7 @@
       <c r="AI260" s="29"/>
       <c r="AJ260" s="30"/>
     </row>
-    <row r="261" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
@@ -9899,7 +9899,7 @@
       <c r="AI261" s="29"/>
       <c r="AJ261" s="30"/>
     </row>
-    <row r="262" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="29"/>
       <c r="B262" s="29"/>
       <c r="C262" s="29"/>
@@ -9937,7 +9937,7 @@
       <c r="AI262" s="29"/>
       <c r="AJ262" s="30"/>
     </row>
-    <row r="263" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="29"/>
       <c r="B263" s="29"/>
       <c r="C263" s="29"/>
@@ -9975,7 +9975,7 @@
       <c r="AI263" s="29"/>
       <c r="AJ263" s="30"/>
     </row>
-    <row r="264" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="29"/>
       <c r="B264" s="29"/>
       <c r="C264" s="29"/>
@@ -10013,7 +10013,7 @@
       <c r="AI264" s="29"/>
       <c r="AJ264" s="30"/>
     </row>
-    <row r="265" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="29"/>
       <c r="B265" s="29"/>
       <c r="C265" s="29"/>
@@ -10051,7 +10051,7 @@
       <c r="AI265" s="29"/>
       <c r="AJ265" s="30"/>
     </row>
-    <row r="266" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="29"/>
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
@@ -10089,7 +10089,7 @@
       <c r="AI266" s="29"/>
       <c r="AJ266" s="30"/>
     </row>
-    <row r="267" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="29"/>
@@ -10127,7 +10127,7 @@
       <c r="AI267" s="29"/>
       <c r="AJ267" s="30"/>
     </row>
-    <row r="268" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="29"/>
       <c r="B268" s="29"/>
       <c r="C268" s="29"/>
@@ -10165,7 +10165,7 @@
       <c r="AI268" s="29"/>
       <c r="AJ268" s="30"/>
     </row>
-    <row r="269" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="29"/>
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
@@ -10203,7 +10203,7 @@
       <c r="AI269" s="29"/>
       <c r="AJ269" s="30"/>
     </row>
-    <row r="270" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="29"/>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
@@ -10241,7 +10241,7 @@
       <c r="AI270" s="29"/>
       <c r="AJ270" s="30"/>
     </row>
-    <row r="271" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="29"/>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
@@ -10279,7 +10279,7 @@
       <c r="AI271" s="29"/>
       <c r="AJ271" s="30"/>
     </row>
-    <row r="272" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
@@ -10317,7 +10317,7 @@
       <c r="AI272" s="29"/>
       <c r="AJ272" s="30"/>
     </row>
-    <row r="273" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="29"/>
       <c r="B273" s="29"/>
       <c r="C273" s="29"/>
@@ -10355,7 +10355,7 @@
       <c r="AI273" s="29"/>
       <c r="AJ273" s="30"/>
     </row>
-    <row r="274" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="29"/>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -10393,7 +10393,7 @@
       <c r="AI274" s="29"/>
       <c r="AJ274" s="30"/>
     </row>
-    <row r="275" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="29"/>
       <c r="B275" s="29"/>
       <c r="C275" s="29"/>
@@ -10431,7 +10431,7 @@
       <c r="AI275" s="29"/>
       <c r="AJ275" s="30"/>
     </row>
-    <row r="276" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -10469,7 +10469,7 @@
       <c r="AI276" s="29"/>
       <c r="AJ276" s="30"/>
     </row>
-    <row r="277" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="29"/>
       <c r="B277" s="29"/>
       <c r="C277" s="29"/>
@@ -10507,7 +10507,7 @@
       <c r="AI277" s="29"/>
       <c r="AJ277" s="30"/>
     </row>
-    <row r="278" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="29"/>
       <c r="B278" s="29"/>
       <c r="C278" s="29"/>
@@ -10545,7 +10545,7 @@
       <c r="AI278" s="29"/>
       <c r="AJ278" s="30"/>
     </row>
-    <row r="279" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="29"/>
       <c r="B279" s="29"/>
       <c r="C279" s="29"/>
@@ -10583,7 +10583,7 @@
       <c r="AI279" s="29"/>
       <c r="AJ279" s="30"/>
     </row>
-    <row r="280" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="29"/>
       <c r="B280" s="29"/>
       <c r="C280" s="29"/>
@@ -10621,7 +10621,7 @@
       <c r="AI280" s="29"/>
       <c r="AJ280" s="30"/>
     </row>
-    <row r="281" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="29"/>
       <c r="B281" s="29"/>
       <c r="C281" s="29"/>
@@ -10659,7 +10659,7 @@
       <c r="AI281" s="29"/>
       <c r="AJ281" s="30"/>
     </row>
-    <row r="282" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="29"/>
       <c r="B282" s="29"/>
       <c r="C282" s="29"/>
@@ -10697,7 +10697,7 @@
       <c r="AI282" s="29"/>
       <c r="AJ282" s="30"/>
     </row>
-    <row r="283" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="29"/>
       <c r="B283" s="29"/>
       <c r="C283" s="29"/>
@@ -10735,7 +10735,7 @@
       <c r="AI283" s="29"/>
       <c r="AJ283" s="30"/>
     </row>
-    <row r="284" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="29"/>
       <c r="B284" s="29"/>
       <c r="C284" s="29"/>
@@ -10773,7 +10773,7 @@
       <c r="AI284" s="29"/>
       <c r="AJ284" s="30"/>
     </row>
-    <row r="285" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="29"/>
       <c r="B285" s="29"/>
       <c r="C285" s="29"/>
@@ -10811,7 +10811,7 @@
       <c r="AI285" s="29"/>
       <c r="AJ285" s="30"/>
     </row>
-    <row r="286" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="29"/>
       <c r="B286" s="29"/>
       <c r="C286" s="29"/>
@@ -10849,7 +10849,7 @@
       <c r="AI286" s="29"/>
       <c r="AJ286" s="30"/>
     </row>
-    <row r="287" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="29"/>
       <c r="B287" s="29"/>
       <c r="C287" s="29"/>
@@ -10887,7 +10887,7 @@
       <c r="AI287" s="29"/>
       <c r="AJ287" s="30"/>
     </row>
-    <row r="288" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="29"/>
       <c r="B288" s="29"/>
       <c r="C288" s="29"/>
@@ -10925,7 +10925,7 @@
       <c r="AI288" s="29"/>
       <c r="AJ288" s="30"/>
     </row>
-    <row r="289" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="29"/>
       <c r="B289" s="29"/>
       <c r="C289" s="29"/>
@@ -10963,7 +10963,7 @@
       <c r="AI289" s="29"/>
       <c r="AJ289" s="30"/>
     </row>
-    <row r="290" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="29"/>
       <c r="B290" s="29"/>
       <c r="C290" s="29"/>
@@ -11001,7 +11001,7 @@
       <c r="AI290" s="29"/>
       <c r="AJ290" s="30"/>
     </row>
-    <row r="291" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="29"/>
       <c r="B291" s="29"/>
       <c r="C291" s="29"/>
@@ -11039,7 +11039,7 @@
       <c r="AI291" s="29"/>
       <c r="AJ291" s="30"/>
     </row>
-    <row r="292" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="29"/>
       <c r="B292" s="29"/>
       <c r="C292" s="29"/>
@@ -11077,7 +11077,7 @@
       <c r="AI292" s="29"/>
       <c r="AJ292" s="30"/>
     </row>
-    <row r="293" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="29"/>
       <c r="B293" s="29"/>
       <c r="C293" s="29"/>
@@ -11115,7 +11115,7 @@
       <c r="AI293" s="29"/>
       <c r="AJ293" s="30"/>
     </row>
-    <row r="294" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="29"/>
       <c r="B294" s="29"/>
       <c r="C294" s="29"/>
@@ -11153,7 +11153,7 @@
       <c r="AI294" s="29"/>
       <c r="AJ294" s="30"/>
     </row>
-    <row r="295" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="29"/>
       <c r="B295" s="29"/>
       <c r="C295" s="29"/>
@@ -11191,7 +11191,7 @@
       <c r="AI295" s="29"/>
       <c r="AJ295" s="30"/>
     </row>
-    <row r="296" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -11229,7 +11229,7 @@
       <c r="AI296" s="29"/>
       <c r="AJ296" s="30"/>
     </row>
-    <row r="297" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="29"/>
       <c r="B297" s="29"/>
       <c r="C297" s="29"/>
@@ -11267,7 +11267,7 @@
       <c r="AI297" s="29"/>
       <c r="AJ297" s="30"/>
     </row>
-    <row r="298" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="29"/>
       <c r="B298" s="29"/>
       <c r="C298" s="29"/>
@@ -11305,7 +11305,7 @@
       <c r="AI298" s="29"/>
       <c r="AJ298" s="30"/>
     </row>
-    <row r="299" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="29"/>
       <c r="B299" s="29"/>
       <c r="C299" s="29"/>
@@ -11343,7 +11343,7 @@
       <c r="AI299" s="29"/>
       <c r="AJ299" s="30"/>
     </row>
-    <row r="300" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="29"/>
       <c r="B300" s="29"/>
       <c r="C300" s="29"/>
@@ -11381,7 +11381,7 @@
       <c r="AI300" s="29"/>
       <c r="AJ300" s="30"/>
     </row>
-    <row r="301" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="29"/>
       <c r="B301" s="29"/>
       <c r="C301" s="29"/>
@@ -11419,7 +11419,7 @@
       <c r="AI301" s="29"/>
       <c r="AJ301" s="30"/>
     </row>
-    <row r="302" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="29"/>
       <c r="B302" s="29"/>
       <c r="C302" s="29"/>
@@ -11457,7 +11457,7 @@
       <c r="AI302" s="29"/>
       <c r="AJ302" s="30"/>
     </row>
-    <row r="303" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="29"/>
       <c r="B303" s="29"/>
       <c r="C303" s="29"/>
@@ -11495,7 +11495,7 @@
       <c r="AI303" s="29"/>
       <c r="AJ303" s="30"/>
     </row>
-    <row r="304" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="29"/>
       <c r="B304" s="29"/>
       <c r="C304" s="29"/>
@@ -11533,7 +11533,7 @@
       <c r="AI304" s="29"/>
       <c r="AJ304" s="30"/>
     </row>
-    <row r="305" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="29"/>
       <c r="B305" s="29"/>
       <c r="C305" s="29"/>
@@ -11571,7 +11571,7 @@
       <c r="AI305" s="29"/>
       <c r="AJ305" s="30"/>
     </row>
-    <row r="306" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="29"/>
       <c r="B306" s="29"/>
       <c r="C306" s="29"/>
@@ -11609,7 +11609,7 @@
       <c r="AI306" s="29"/>
       <c r="AJ306" s="30"/>
     </row>
-    <row r="307" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="29"/>
       <c r="B307" s="29"/>
       <c r="C307" s="29"/>
@@ -11647,7 +11647,7 @@
       <c r="AI307" s="29"/>
       <c r="AJ307" s="30"/>
     </row>
-    <row r="308" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="29"/>
       <c r="B308" s="29"/>
       <c r="C308" s="29"/>
@@ -11685,7 +11685,7 @@
       <c r="AI308" s="29"/>
       <c r="AJ308" s="30"/>
     </row>
-    <row r="309" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="29"/>
@@ -11723,7 +11723,7 @@
       <c r="AI309" s="29"/>
       <c r="AJ309" s="30"/>
     </row>
-    <row r="310" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="29"/>
@@ -11761,7 +11761,7 @@
       <c r="AI310" s="29"/>
       <c r="AJ310" s="30"/>
     </row>
-    <row r="311" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="29"/>
@@ -11799,7 +11799,7 @@
       <c r="AI311" s="29"/>
       <c r="AJ311" s="30"/>
     </row>
-    <row r="312" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="29"/>
       <c r="B312" s="29"/>
       <c r="C312" s="29"/>
@@ -11837,7 +11837,7 @@
       <c r="AI312" s="29"/>
       <c r="AJ312" s="30"/>
     </row>
-    <row r="313" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="29"/>
       <c r="B313" s="29"/>
       <c r="C313" s="29"/>
@@ -11875,7 +11875,7 @@
       <c r="AI313" s="29"/>
       <c r="AJ313" s="30"/>
     </row>
-    <row r="314" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="29"/>
       <c r="B314" s="29"/>
       <c r="C314" s="29"/>
@@ -11913,7 +11913,7 @@
       <c r="AI314" s="29"/>
       <c r="AJ314" s="30"/>
     </row>
-    <row r="315" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="29"/>
       <c r="B315" s="29"/>
       <c r="C315" s="29"/>
@@ -11951,7 +11951,7 @@
       <c r="AI315" s="29"/>
       <c r="AJ315" s="30"/>
     </row>
-    <row r="316" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="29"/>
@@ -11989,7 +11989,7 @@
       <c r="AI316" s="29"/>
       <c r="AJ316" s="30"/>
     </row>
-    <row r="317" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="29"/>
       <c r="B317" s="29"/>
       <c r="C317" s="29"/>
@@ -12027,7 +12027,7 @@
       <c r="AI317" s="29"/>
       <c r="AJ317" s="30"/>
     </row>
-    <row r="318" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="29"/>
       <c r="B318" s="29"/>
       <c r="C318" s="29"/>
@@ -12065,7 +12065,7 @@
       <c r="AI318" s="29"/>
       <c r="AJ318" s="30"/>
     </row>
-    <row r="319" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="29"/>
       <c r="B319" s="29"/>
       <c r="C319" s="29"/>
@@ -12103,7 +12103,7 @@
       <c r="AI319" s="29"/>
       <c r="AJ319" s="30"/>
     </row>
-    <row r="320" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="29"/>
       <c r="B320" s="29"/>
       <c r="C320" s="29"/>
@@ -12141,7 +12141,7 @@
       <c r="AI320" s="29"/>
       <c r="AJ320" s="30"/>
     </row>
-    <row r="321" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="29"/>
       <c r="B321" s="29"/>
       <c r="C321" s="29"/>
@@ -12179,7 +12179,7 @@
       <c r="AI321" s="29"/>
       <c r="AJ321" s="30"/>
     </row>
-    <row r="322" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="29"/>
       <c r="B322" s="29"/>
       <c r="C322" s="29"/>
@@ -12217,7 +12217,7 @@
       <c r="AI322" s="29"/>
       <c r="AJ322" s="30"/>
     </row>
-    <row r="323" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="29"/>
       <c r="B323" s="29"/>
       <c r="C323" s="29"/>
@@ -12255,7 +12255,7 @@
       <c r="AI323" s="29"/>
       <c r="AJ323" s="30"/>
     </row>
-    <row r="324" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="29"/>
@@ -12293,7 +12293,7 @@
       <c r="AI324" s="29"/>
       <c r="AJ324" s="30"/>
     </row>
-    <row r="325" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="29"/>
@@ -12331,7 +12331,7 @@
       <c r="AI325" s="29"/>
       <c r="AJ325" s="30"/>
     </row>
-    <row r="326" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="29"/>
       <c r="B326" s="29"/>
       <c r="C326" s="29"/>
@@ -12369,7 +12369,7 @@
       <c r="AI326" s="29"/>
       <c r="AJ326" s="30"/>
     </row>
-    <row r="327" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="29"/>
       <c r="B327" s="29"/>
       <c r="C327" s="29"/>
@@ -12407,7 +12407,7 @@
       <c r="AI327" s="29"/>
       <c r="AJ327" s="30"/>
     </row>
-    <row r="328" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="29"/>
       <c r="B328" s="29"/>
       <c r="C328" s="29"/>
@@ -12445,7 +12445,7 @@
       <c r="AI328" s="29"/>
       <c r="AJ328" s="30"/>
     </row>
-    <row r="329" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="29"/>
       <c r="B329" s="29"/>
       <c r="C329" s="29"/>
@@ -12483,7 +12483,7 @@
       <c r="AI329" s="29"/>
       <c r="AJ329" s="30"/>
     </row>
-    <row r="330" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="29"/>
       <c r="B330" s="29"/>
       <c r="C330" s="29"/>
@@ -12521,7 +12521,7 @@
       <c r="AI330" s="29"/>
       <c r="AJ330" s="30"/>
     </row>
-    <row r="331" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="29"/>
       <c r="B331" s="29"/>
       <c r="C331" s="29"/>
@@ -12559,7 +12559,7 @@
       <c r="AI331" s="29"/>
       <c r="AJ331" s="30"/>
     </row>
-    <row r="332" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="29"/>
       <c r="B332" s="29"/>
       <c r="C332" s="29"/>
@@ -12597,7 +12597,7 @@
       <c r="AI332" s="29"/>
       <c r="AJ332" s="30"/>
     </row>
-    <row r="333" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="29"/>
@@ -12635,7 +12635,7 @@
       <c r="AI333" s="29"/>
       <c r="AJ333" s="30"/>
     </row>
-    <row r="334" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="29"/>
       <c r="B334" s="29"/>
       <c r="C334" s="29"/>
@@ -12673,7 +12673,7 @@
       <c r="AI334" s="29"/>
       <c r="AJ334" s="30"/>
     </row>
-    <row r="335" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="29"/>
       <c r="B335" s="29"/>
       <c r="C335" s="29"/>
@@ -12711,7 +12711,7 @@
       <c r="AI335" s="29"/>
       <c r="AJ335" s="30"/>
     </row>
-    <row r="336" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="29"/>
       <c r="B336" s="29"/>
       <c r="C336" s="29"/>
@@ -12749,7 +12749,7 @@
       <c r="AI336" s="29"/>
       <c r="AJ336" s="30"/>
     </row>
-    <row r="337" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="29"/>
       <c r="B337" s="29"/>
       <c r="C337" s="29"/>
@@ -12787,7 +12787,7 @@
       <c r="AI337" s="29"/>
       <c r="AJ337" s="30"/>
     </row>
-    <row r="338" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="29"/>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -12825,7 +12825,7 @@
       <c r="AI338" s="29"/>
       <c r="AJ338" s="30"/>
     </row>
-    <row r="339" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="29"/>
       <c r="B339" s="29"/>
       <c r="C339" s="29"/>
@@ -12863,7 +12863,7 @@
       <c r="AI339" s="29"/>
       <c r="AJ339" s="30"/>
     </row>
-    <row r="340" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="29"/>
       <c r="B340" s="29"/>
       <c r="C340" s="29"/>
@@ -12901,7 +12901,7 @@
       <c r="AI340" s="29"/>
       <c r="AJ340" s="30"/>
     </row>
-    <row r="341" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="29"/>
       <c r="B341" s="29"/>
       <c r="C341" s="29"/>
@@ -12939,7 +12939,7 @@
       <c r="AI341" s="29"/>
       <c r="AJ341" s="30"/>
     </row>
-    <row r="342" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="29"/>
       <c r="B342" s="29"/>
       <c r="C342" s="29"/>
@@ -12977,7 +12977,7 @@
       <c r="AI342" s="29"/>
       <c r="AJ342" s="30"/>
     </row>
-    <row r="343" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="29"/>
       <c r="B343" s="29"/>
       <c r="C343" s="29"/>
@@ -13015,7 +13015,7 @@
       <c r="AI343" s="29"/>
       <c r="AJ343" s="30"/>
     </row>
-    <row r="344" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="29"/>
       <c r="B344" s="29"/>
       <c r="C344" s="29"/>
@@ -13053,7 +13053,7 @@
       <c r="AI344" s="29"/>
       <c r="AJ344" s="30"/>
     </row>
-    <row r="345" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="29"/>
       <c r="B345" s="29"/>
       <c r="C345" s="29"/>
@@ -13091,7 +13091,7 @@
       <c r="AI345" s="29"/>
       <c r="AJ345" s="30"/>
     </row>
-    <row r="346" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="29"/>
@@ -13129,7 +13129,7 @@
       <c r="AI346" s="29"/>
       <c r="AJ346" s="30"/>
     </row>
-    <row r="347" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="29"/>
       <c r="B347" s="29"/>
       <c r="C347" s="29"/>
@@ -13167,7 +13167,7 @@
       <c r="AI347" s="29"/>
       <c r="AJ347" s="30"/>
     </row>
-    <row r="348" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="29"/>
       <c r="B348" s="29"/>
       <c r="C348" s="29"/>
@@ -13205,7 +13205,7 @@
       <c r="AI348" s="29"/>
       <c r="AJ348" s="30"/>
     </row>
-    <row r="349" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="29"/>
       <c r="B349" s="29"/>
       <c r="C349" s="29"/>
@@ -13243,7 +13243,7 @@
       <c r="AI349" s="29"/>
       <c r="AJ349" s="30"/>
     </row>
-    <row r="350" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="29"/>
       <c r="B350" s="29"/>
       <c r="C350" s="29"/>
@@ -13281,7 +13281,7 @@
       <c r="AI350" s="29"/>
       <c r="AJ350" s="30"/>
     </row>
-    <row r="351" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="29"/>
       <c r="B351" s="29"/>
       <c r="C351" s="29"/>
@@ -13319,7 +13319,7 @@
       <c r="AI351" s="29"/>
       <c r="AJ351" s="30"/>
     </row>
-    <row r="352" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="29"/>
       <c r="B352" s="29"/>
       <c r="C352" s="29"/>
@@ -13357,7 +13357,7 @@
       <c r="AI352" s="29"/>
       <c r="AJ352" s="30"/>
     </row>
-    <row r="353" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="29"/>
       <c r="B353" s="29"/>
       <c r="C353" s="29"/>
@@ -13395,7 +13395,7 @@
       <c r="AI353" s="29"/>
       <c r="AJ353" s="30"/>
     </row>
-    <row r="354" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="29"/>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
@@ -13433,7 +13433,7 @@
       <c r="AI354" s="29"/>
       <c r="AJ354" s="30"/>
     </row>
-    <row r="355" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="29"/>
       <c r="B355" s="29"/>
       <c r="C355" s="29"/>
@@ -13471,7 +13471,7 @@
       <c r="AI355" s="29"/>
       <c r="AJ355" s="30"/>
     </row>
-    <row r="356" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="29"/>
       <c r="B356" s="29"/>
       <c r="C356" s="29"/>
@@ -13509,7 +13509,7 @@
       <c r="AI356" s="29"/>
       <c r="AJ356" s="30"/>
     </row>
-    <row r="357" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="29"/>
       <c r="B357" s="29"/>
       <c r="C357" s="29"/>
@@ -13547,7 +13547,7 @@
       <c r="AI357" s="29"/>
       <c r="AJ357" s="30"/>
     </row>
-    <row r="358" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="29"/>
       <c r="B358" s="29"/>
       <c r="C358" s="29"/>
@@ -13585,7 +13585,7 @@
       <c r="AI358" s="29"/>
       <c r="AJ358" s="30"/>
     </row>
-    <row r="359" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="29"/>
       <c r="B359" s="29"/>
       <c r="C359" s="29"/>
@@ -13623,7 +13623,7 @@
       <c r="AI359" s="29"/>
       <c r="AJ359" s="30"/>
     </row>
-    <row r="360" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="29"/>
       <c r="B360" s="29"/>
       <c r="C360" s="29"/>
@@ -13661,7 +13661,7 @@
       <c r="AI360" s="29"/>
       <c r="AJ360" s="30"/>
     </row>
-    <row r="361" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="29"/>
       <c r="B361" s="29"/>
       <c r="C361" s="29"/>
@@ -13699,7 +13699,7 @@
       <c r="AI361" s="29"/>
       <c r="AJ361" s="30"/>
     </row>
-    <row r="362" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="29"/>
       <c r="B362" s="29"/>
       <c r="C362" s="29"/>
@@ -13737,7 +13737,7 @@
       <c r="AI362" s="29"/>
       <c r="AJ362" s="30"/>
     </row>
-    <row r="363" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="29"/>
       <c r="B363" s="29"/>
       <c r="C363" s="29"/>
@@ -13775,7 +13775,7 @@
       <c r="AI363" s="29"/>
       <c r="AJ363" s="30"/>
     </row>
-    <row r="364" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="29"/>
       <c r="B364" s="29"/>
       <c r="C364" s="29"/>
@@ -13813,7 +13813,7 @@
       <c r="AI364" s="29"/>
       <c r="AJ364" s="30"/>
     </row>
-    <row r="365" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="29"/>
       <c r="B365" s="29"/>
       <c r="C365" s="29"/>
@@ -13851,7 +13851,7 @@
       <c r="AI365" s="29"/>
       <c r="AJ365" s="30"/>
     </row>
-    <row r="366" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="29"/>
       <c r="B366" s="29"/>
       <c r="C366" s="29"/>
@@ -13889,7 +13889,7 @@
       <c r="AI366" s="29"/>
       <c r="AJ366" s="30"/>
     </row>
-    <row r="367" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="29"/>
       <c r="B367" s="29"/>
       <c r="C367" s="29"/>
@@ -13927,7 +13927,7 @@
       <c r="AI367" s="29"/>
       <c r="AJ367" s="30"/>
     </row>
-    <row r="368" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="29"/>
       <c r="B368" s="29"/>
       <c r="C368" s="29"/>
@@ -13965,7 +13965,7 @@
       <c r="AI368" s="29"/>
       <c r="AJ368" s="30"/>
     </row>
-    <row r="369" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="29"/>
       <c r="B369" s="29"/>
       <c r="C369" s="29"/>
@@ -14003,7 +14003,7 @@
       <c r="AI369" s="29"/>
       <c r="AJ369" s="30"/>
     </row>
-    <row r="370" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="29"/>
       <c r="B370" s="29"/>
       <c r="C370" s="29"/>
@@ -14041,7 +14041,7 @@
       <c r="AI370" s="29"/>
       <c r="AJ370" s="30"/>
     </row>
-    <row r="371" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="29"/>
       <c r="B371" s="29"/>
       <c r="C371" s="29"/>
@@ -14079,7 +14079,7 @@
       <c r="AI371" s="29"/>
       <c r="AJ371" s="30"/>
     </row>
-    <row r="372" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="29"/>
       <c r="B372" s="29"/>
       <c r="C372" s="29"/>
@@ -14117,7 +14117,7 @@
       <c r="AI372" s="29"/>
       <c r="AJ372" s="30"/>
     </row>
-    <row r="373" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="29"/>
       <c r="B373" s="29"/>
       <c r="C373" s="29"/>
@@ -14155,7 +14155,7 @@
       <c r="AI373" s="29"/>
       <c r="AJ373" s="30"/>
     </row>
-    <row r="374" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="29"/>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
@@ -14193,7 +14193,7 @@
       <c r="AI374" s="29"/>
       <c r="AJ374" s="30"/>
     </row>
-    <row r="375" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="29"/>
       <c r="B375" s="29"/>
       <c r="C375" s="29"/>
@@ -14231,7 +14231,7 @@
       <c r="AI375" s="29"/>
       <c r="AJ375" s="30"/>
     </row>
-    <row r="376" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="29"/>
       <c r="B376" s="29"/>
       <c r="C376" s="29"/>
@@ -14269,7 +14269,7 @@
       <c r="AI376" s="29"/>
       <c r="AJ376" s="30"/>
     </row>
-    <row r="377" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="29"/>
       <c r="B377" s="29"/>
       <c r="C377" s="29"/>
@@ -14307,7 +14307,7 @@
       <c r="AI377" s="29"/>
       <c r="AJ377" s="30"/>
     </row>
-    <row r="378" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="29"/>
       <c r="B378" s="29"/>
       <c r="C378" s="29"/>
@@ -14345,7 +14345,7 @@
       <c r="AI378" s="29"/>
       <c r="AJ378" s="30"/>
     </row>
-    <row r="379" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="29"/>
       <c r="B379" s="29"/>
       <c r="C379" s="29"/>
@@ -14383,7 +14383,7 @@
       <c r="AI379" s="29"/>
       <c r="AJ379" s="30"/>
     </row>
-    <row r="380" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="29"/>
       <c r="B380" s="29"/>
       <c r="C380" s="29"/>
@@ -14421,7 +14421,7 @@
       <c r="AI380" s="29"/>
       <c r="AJ380" s="30"/>
     </row>
-    <row r="381" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="29"/>
       <c r="B381" s="29"/>
       <c r="C381" s="29"/>
@@ -14459,7 +14459,7 @@
       <c r="AI381" s="29"/>
       <c r="AJ381" s="30"/>
     </row>
-    <row r="382" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="29"/>
       <c r="B382" s="29"/>
       <c r="C382" s="29"/>
@@ -14497,7 +14497,7 @@
       <c r="AI382" s="29"/>
       <c r="AJ382" s="30"/>
     </row>
-    <row r="383" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="29"/>
       <c r="B383" s="29"/>
       <c r="C383" s="29"/>
@@ -14535,7 +14535,7 @@
       <c r="AI383" s="29"/>
       <c r="AJ383" s="30"/>
     </row>
-    <row r="384" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="29"/>
       <c r="B384" s="29"/>
       <c r="C384" s="29"/>
@@ -14573,7 +14573,7 @@
       <c r="AI384" s="29"/>
       <c r="AJ384" s="30"/>
     </row>
-    <row r="385" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="29"/>
       <c r="B385" s="29"/>
       <c r="C385" s="29"/>
@@ -14611,7 +14611,7 @@
       <c r="AI385" s="29"/>
       <c r="AJ385" s="30"/>
     </row>
-    <row r="386" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="29"/>
       <c r="B386" s="29"/>
       <c r="C386" s="29"/>
@@ -14649,7 +14649,7 @@
       <c r="AI386" s="29"/>
       <c r="AJ386" s="30"/>
     </row>
-    <row r="387" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="29"/>
       <c r="B387" s="29"/>
       <c r="C387" s="29"/>
@@ -14687,7 +14687,7 @@
       <c r="AI387" s="29"/>
       <c r="AJ387" s="30"/>
     </row>
-    <row r="388" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="29"/>
       <c r="B388" s="29"/>
       <c r="C388" s="29"/>
@@ -14725,7 +14725,7 @@
       <c r="AI388" s="29"/>
       <c r="AJ388" s="30"/>
     </row>
-    <row r="389" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="29"/>
       <c r="B389" s="29"/>
       <c r="C389" s="29"/>
@@ -14763,7 +14763,7 @@
       <c r="AI389" s="29"/>
       <c r="AJ389" s="30"/>
     </row>
-    <row r="390" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="29"/>
       <c r="B390" s="29"/>
       <c r="C390" s="29"/>
@@ -14801,7 +14801,7 @@
       <c r="AI390" s="29"/>
       <c r="AJ390" s="30"/>
     </row>
-    <row r="391" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="29"/>
       <c r="B391" s="29"/>
       <c r="C391" s="29"/>
@@ -14839,7 +14839,7 @@
       <c r="AI391" s="29"/>
       <c r="AJ391" s="30"/>
     </row>
-    <row r="392" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="29"/>
       <c r="B392" s="29"/>
       <c r="C392" s="29"/>
@@ -14877,7 +14877,7 @@
       <c r="AI392" s="29"/>
       <c r="AJ392" s="30"/>
     </row>
-    <row r="393" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="29"/>
       <c r="B393" s="29"/>
       <c r="C393" s="29"/>
@@ -14915,7 +14915,7 @@
       <c r="AI393" s="29"/>
       <c r="AJ393" s="30"/>
     </row>
-    <row r="394" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="29"/>
       <c r="B394" s="29"/>
       <c r="C394" s="29"/>
@@ -14953,7 +14953,7 @@
       <c r="AI394" s="29"/>
       <c r="AJ394" s="30"/>
     </row>
-    <row r="395" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="29"/>
       <c r="B395" s="29"/>
       <c r="C395" s="29"/>
@@ -14991,7 +14991,7 @@
       <c r="AI395" s="29"/>
       <c r="AJ395" s="30"/>
     </row>
-    <row r="396" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="29"/>
       <c r="B396" s="29"/>
       <c r="C396" s="29"/>
@@ -15029,7 +15029,7 @@
       <c r="AI396" s="29"/>
       <c r="AJ396" s="30"/>
     </row>
-    <row r="397" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="29"/>
       <c r="B397" s="29"/>
       <c r="C397" s="29"/>
@@ -15067,7 +15067,7 @@
       <c r="AI397" s="29"/>
       <c r="AJ397" s="30"/>
     </row>
-    <row r="398" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="29"/>
       <c r="B398" s="29"/>
       <c r="C398" s="29"/>
@@ -15105,7 +15105,7 @@
       <c r="AI398" s="29"/>
       <c r="AJ398" s="30"/>
     </row>
-    <row r="399" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="29"/>
       <c r="B399" s="29"/>
       <c r="C399" s="29"/>
@@ -15143,7 +15143,7 @@
       <c r="AI399" s="29"/>
       <c r="AJ399" s="30"/>
     </row>
-    <row r="400" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="29"/>
       <c r="B400" s="29"/>
       <c r="C400" s="29"/>
@@ -15181,7 +15181,7 @@
       <c r="AI400" s="29"/>
       <c r="AJ400" s="30"/>
     </row>
-    <row r="401" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="29"/>
       <c r="B401" s="29"/>
       <c r="C401" s="29"/>
@@ -15219,7 +15219,7 @@
       <c r="AI401" s="29"/>
       <c r="AJ401" s="30"/>
     </row>
-    <row r="402" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="29"/>
       <c r="B402" s="29"/>
       <c r="C402" s="29"/>
@@ -15257,7 +15257,7 @@
       <c r="AI402" s="29"/>
       <c r="AJ402" s="30"/>
     </row>
-    <row r="403" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="29"/>
       <c r="B403" s="29"/>
       <c r="C403" s="29"/>
@@ -15295,7 +15295,7 @@
       <c r="AI403" s="29"/>
       <c r="AJ403" s="30"/>
     </row>
-    <row r="404" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="29"/>
       <c r="B404" s="29"/>
       <c r="C404" s="29"/>
@@ -15333,7 +15333,7 @@
       <c r="AI404" s="29"/>
       <c r="AJ404" s="30"/>
     </row>
-    <row r="405" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="29"/>
       <c r="B405" s="29"/>
       <c r="C405" s="29"/>
@@ -15371,7 +15371,7 @@
       <c r="AI405" s="29"/>
       <c r="AJ405" s="30"/>
     </row>
-    <row r="406" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="29"/>
       <c r="B406" s="29"/>
       <c r="C406" s="29"/>
@@ -15409,7 +15409,7 @@
       <c r="AI406" s="29"/>
       <c r="AJ406" s="30"/>
     </row>
-    <row r="407" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="29"/>
       <c r="B407" s="29"/>
       <c r="C407" s="29"/>
@@ -15447,7 +15447,7 @@
       <c r="AI407" s="29"/>
       <c r="AJ407" s="30"/>
     </row>
-    <row r="408" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="29"/>
       <c r="B408" s="29"/>
       <c r="C408" s="29"/>
@@ -15485,7 +15485,7 @@
       <c r="AI408" s="29"/>
       <c r="AJ408" s="30"/>
     </row>
-    <row r="409" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="29"/>
@@ -15523,7 +15523,7 @@
       <c r="AI409" s="29"/>
       <c r="AJ409" s="30"/>
     </row>
-    <row r="410" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="29"/>
       <c r="B410" s="29"/>
       <c r="C410" s="29"/>
@@ -15561,7 +15561,7 @@
       <c r="AI410" s="29"/>
       <c r="AJ410" s="30"/>
     </row>
-    <row r="411" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="29"/>
       <c r="B411" s="29"/>
       <c r="C411" s="29"/>
@@ -15599,7 +15599,7 @@
       <c r="AI411" s="29"/>
       <c r="AJ411" s="30"/>
     </row>
-    <row r="412" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="29"/>
       <c r="B412" s="29"/>
       <c r="C412" s="29"/>
@@ -15637,7 +15637,7 @@
       <c r="AI412" s="29"/>
       <c r="AJ412" s="30"/>
     </row>
-    <row r="413" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="29"/>
       <c r="B413" s="29"/>
       <c r="C413" s="29"/>
@@ -15675,7 +15675,7 @@
       <c r="AI413" s="29"/>
       <c r="AJ413" s="30"/>
     </row>
-    <row r="414" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="29"/>
       <c r="B414" s="29"/>
       <c r="C414" s="29"/>
@@ -15713,7 +15713,7 @@
       <c r="AI414" s="29"/>
       <c r="AJ414" s="30"/>
     </row>
-    <row r="415" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="29"/>
       <c r="B415" s="29"/>
       <c r="C415" s="29"/>
@@ -15751,7 +15751,7 @@
       <c r="AI415" s="29"/>
       <c r="AJ415" s="30"/>
     </row>
-    <row r="416" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="29"/>
       <c r="B416" s="29"/>
       <c r="C416" s="29"/>
@@ -15789,7 +15789,7 @@
       <c r="AI416" s="29"/>
       <c r="AJ416" s="30"/>
     </row>
-    <row r="417" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="29"/>
       <c r="B417" s="29"/>
       <c r="C417" s="29"/>
@@ -15827,7 +15827,7 @@
       <c r="AI417" s="29"/>
       <c r="AJ417" s="30"/>
     </row>
-    <row r="418" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="29"/>
       <c r="B418" s="29"/>
       <c r="C418" s="29"/>
@@ -15865,7 +15865,7 @@
       <c r="AI418" s="29"/>
       <c r="AJ418" s="30"/>
     </row>
-    <row r="419" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="29"/>
       <c r="B419" s="29"/>
       <c r="C419" s="29"/>
@@ -15903,7 +15903,7 @@
       <c r="AI419" s="29"/>
       <c r="AJ419" s="30"/>
     </row>
-    <row r="420" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="29"/>
       <c r="B420" s="29"/>
       <c r="C420" s="29"/>
@@ -15941,7 +15941,7 @@
       <c r="AI420" s="29"/>
       <c r="AJ420" s="30"/>
     </row>
-    <row r="421" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="29"/>
       <c r="B421" s="29"/>
       <c r="C421" s="29"/>
@@ -15979,7 +15979,7 @@
       <c r="AI421" s="29"/>
       <c r="AJ421" s="30"/>
     </row>
-    <row r="422" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="29"/>
       <c r="B422" s="29"/>
       <c r="C422" s="29"/>
@@ -16017,7 +16017,7 @@
       <c r="AI422" s="29"/>
       <c r="AJ422" s="30"/>
     </row>
-    <row r="423" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="29"/>
       <c r="B423" s="29"/>
       <c r="C423" s="29"/>
@@ -16055,7 +16055,7 @@
       <c r="AI423" s="29"/>
       <c r="AJ423" s="30"/>
     </row>
-    <row r="424" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="29"/>
       <c r="B424" s="29"/>
       <c r="C424" s="29"/>
@@ -16093,7 +16093,7 @@
       <c r="AI424" s="29"/>
       <c r="AJ424" s="30"/>
     </row>
-    <row r="425" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="29"/>
       <c r="B425" s="29"/>
       <c r="C425" s="29"/>
@@ -16131,7 +16131,7 @@
       <c r="AI425" s="29"/>
       <c r="AJ425" s="30"/>
     </row>
-    <row r="426" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="29"/>
       <c r="B426" s="29"/>
       <c r="C426" s="29"/>
@@ -16169,7 +16169,7 @@
       <c r="AI426" s="29"/>
       <c r="AJ426" s="30"/>
     </row>
-    <row r="427" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="29"/>
       <c r="B427" s="29"/>
       <c r="C427" s="29"/>
@@ -16207,7 +16207,7 @@
       <c r="AI427" s="29"/>
       <c r="AJ427" s="30"/>
     </row>
-    <row r="428" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="29"/>
       <c r="B428" s="29"/>
       <c r="C428" s="29"/>
@@ -16245,7 +16245,7 @@
       <c r="AI428" s="29"/>
       <c r="AJ428" s="30"/>
     </row>
-    <row r="429" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="29"/>
       <c r="B429" s="29"/>
       <c r="C429" s="29"/>
@@ -16283,7 +16283,7 @@
       <c r="AI429" s="29"/>
       <c r="AJ429" s="30"/>
     </row>
-    <row r="430" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="29"/>
       <c r="B430" s="29"/>
       <c r="C430" s="29"/>
@@ -16321,7 +16321,7 @@
       <c r="AI430" s="29"/>
       <c r="AJ430" s="30"/>
     </row>
-    <row r="431" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="29"/>
       <c r="B431" s="29"/>
       <c r="C431" s="29"/>
@@ -16359,7 +16359,7 @@
       <c r="AI431" s="29"/>
       <c r="AJ431" s="30"/>
     </row>
-    <row r="432" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="29"/>
       <c r="B432" s="29"/>
       <c r="C432" s="29"/>
@@ -16397,7 +16397,7 @@
       <c r="AI432" s="29"/>
       <c r="AJ432" s="30"/>
     </row>
-    <row r="433" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="29"/>
       <c r="B433" s="29"/>
       <c r="C433" s="29"/>
@@ -16435,7 +16435,7 @@
       <c r="AI433" s="29"/>
       <c r="AJ433" s="30"/>
     </row>
-    <row r="434" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="29"/>
       <c r="B434" s="29"/>
       <c r="C434" s="29"/>
@@ -16473,7 +16473,7 @@
       <c r="AI434" s="29"/>
       <c r="AJ434" s="30"/>
     </row>
-    <row r="435" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="29"/>
       <c r="B435" s="29"/>
       <c r="C435" s="29"/>
@@ -16511,7 +16511,7 @@
       <c r="AI435" s="29"/>
       <c r="AJ435" s="30"/>
     </row>
-    <row r="436" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="29"/>
       <c r="B436" s="29"/>
       <c r="C436" s="29"/>
@@ -16549,7 +16549,7 @@
       <c r="AI436" s="29"/>
       <c r="AJ436" s="30"/>
     </row>
-    <row r="437" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="29"/>
       <c r="B437" s="29"/>
       <c r="C437" s="29"/>
@@ -16587,7 +16587,7 @@
       <c r="AI437" s="29"/>
       <c r="AJ437" s="30"/>
     </row>
-    <row r="438" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="29"/>
       <c r="B438" s="29"/>
       <c r="C438" s="29"/>
@@ -16625,7 +16625,7 @@
       <c r="AI438" s="29"/>
       <c r="AJ438" s="30"/>
     </row>
-    <row r="439" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="29"/>
       <c r="B439" s="29"/>
       <c r="C439" s="29"/>
@@ -16663,7 +16663,7 @@
       <c r="AI439" s="29"/>
       <c r="AJ439" s="30"/>
     </row>
-    <row r="440" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="29"/>
       <c r="B440" s="29"/>
       <c r="C440" s="29"/>
@@ -16701,7 +16701,7 @@
       <c r="AI440" s="29"/>
       <c r="AJ440" s="30"/>
     </row>
-    <row r="441" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="29"/>
       <c r="B441" s="29"/>
       <c r="C441" s="29"/>
@@ -16739,7 +16739,7 @@
       <c r="AI441" s="29"/>
       <c r="AJ441" s="30"/>
     </row>
-    <row r="442" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="29"/>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
@@ -16777,7 +16777,7 @@
       <c r="AI442" s="29"/>
       <c r="AJ442" s="30"/>
     </row>
-    <row r="443" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="29"/>
@@ -16815,7 +16815,7 @@
       <c r="AI443" s="29"/>
       <c r="AJ443" s="30"/>
     </row>
-    <row r="444" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="29"/>
       <c r="B444" s="29"/>
       <c r="C444" s="29"/>
@@ -16853,7 +16853,7 @@
       <c r="AI444" s="29"/>
       <c r="AJ444" s="30"/>
     </row>
-    <row r="445" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="29"/>
       <c r="B445" s="29"/>
       <c r="C445" s="29"/>
@@ -16891,7 +16891,7 @@
       <c r="AI445" s="29"/>
       <c r="AJ445" s="30"/>
     </row>
-    <row r="446" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="29"/>
       <c r="B446" s="29"/>
       <c r="C446" s="29"/>
@@ -16929,7 +16929,7 @@
       <c r="AI446" s="29"/>
       <c r="AJ446" s="30"/>
     </row>
-    <row r="447" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="29"/>
       <c r="B447" s="29"/>
       <c r="C447" s="29"/>
@@ -16967,7 +16967,7 @@
       <c r="AI447" s="29"/>
       <c r="AJ447" s="30"/>
     </row>
-    <row r="448" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="29"/>
       <c r="B448" s="29"/>
       <c r="C448" s="29"/>
@@ -17005,7 +17005,7 @@
       <c r="AI448" s="29"/>
       <c r="AJ448" s="30"/>
     </row>
-    <row r="449" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="29"/>
       <c r="B449" s="29"/>
       <c r="C449" s="29"/>
@@ -17043,7 +17043,7 @@
       <c r="AI449" s="29"/>
       <c r="AJ449" s="30"/>
     </row>
-    <row r="450" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="29"/>
       <c r="B450" s="29"/>
       <c r="C450" s="29"/>
@@ -17081,7 +17081,7 @@
       <c r="AI450" s="29"/>
       <c r="AJ450" s="30"/>
     </row>
-    <row r="451" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="29"/>
       <c r="B451" s="29"/>
       <c r="C451" s="29"/>
@@ -17119,7 +17119,7 @@
       <c r="AI451" s="29"/>
       <c r="AJ451" s="30"/>
     </row>
-    <row r="452" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="29"/>
       <c r="B452" s="29"/>
       <c r="C452" s="29"/>
@@ -17157,7 +17157,7 @@
       <c r="AI452" s="29"/>
       <c r="AJ452" s="30"/>
     </row>
-    <row r="453" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="29"/>
       <c r="B453" s="29"/>
       <c r="C453" s="29"/>
@@ -17195,7 +17195,7 @@
       <c r="AI453" s="29"/>
       <c r="AJ453" s="30"/>
     </row>
-    <row r="454" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="29"/>
       <c r="B454" s="29"/>
       <c r="C454" s="29"/>
@@ -17233,7 +17233,7 @@
       <c r="AI454" s="29"/>
       <c r="AJ454" s="30"/>
     </row>
-    <row r="455" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="29"/>
       <c r="B455" s="29"/>
       <c r="C455" s="29"/>
@@ -17271,7 +17271,7 @@
       <c r="AI455" s="29"/>
       <c r="AJ455" s="30"/>
     </row>
-    <row r="456" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="29"/>
       <c r="B456" s="29"/>
       <c r="C456" s="29"/>
@@ -17309,7 +17309,7 @@
       <c r="AI456" s="29"/>
       <c r="AJ456" s="30"/>
     </row>
-    <row r="457" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="29"/>
       <c r="B457" s="29"/>
       <c r="C457" s="29"/>
@@ -17347,7 +17347,7 @@
       <c r="AI457" s="29"/>
       <c r="AJ457" s="30"/>
     </row>
-    <row r="458" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="29"/>
       <c r="B458" s="29"/>
       <c r="C458" s="29"/>
@@ -17385,7 +17385,7 @@
       <c r="AI458" s="29"/>
       <c r="AJ458" s="30"/>
     </row>
-    <row r="459" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="29"/>
       <c r="B459" s="29"/>
       <c r="C459" s="29"/>
@@ -17423,7 +17423,7 @@
       <c r="AI459" s="29"/>
       <c r="AJ459" s="30"/>
     </row>
-    <row r="460" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="29"/>
       <c r="B460" s="29"/>
       <c r="C460" s="29"/>
@@ -17461,7 +17461,7 @@
       <c r="AI460" s="29"/>
       <c r="AJ460" s="30"/>
     </row>
-    <row r="461" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="29"/>
       <c r="B461" s="29"/>
       <c r="C461" s="29"/>
@@ -17499,7 +17499,7 @@
       <c r="AI461" s="29"/>
       <c r="AJ461" s="30"/>
     </row>
-    <row r="462" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="29"/>
       <c r="B462" s="29"/>
       <c r="C462" s="29"/>
@@ -17537,7 +17537,7 @@
       <c r="AI462" s="29"/>
       <c r="AJ462" s="30"/>
     </row>
-    <row r="463" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="29"/>
       <c r="B463" s="29"/>
       <c r="C463" s="29"/>
@@ -17575,7 +17575,7 @@
       <c r="AI463" s="29"/>
       <c r="AJ463" s="30"/>
     </row>
-    <row r="464" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="29"/>
       <c r="B464" s="29"/>
       <c r="C464" s="29"/>
@@ -17613,7 +17613,7 @@
       <c r="AI464" s="29"/>
       <c r="AJ464" s="30"/>
     </row>
-    <row r="465" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="29"/>
       <c r="B465" s="29"/>
       <c r="C465" s="29"/>
@@ -17651,7 +17651,7 @@
       <c r="AI465" s="29"/>
       <c r="AJ465" s="30"/>
     </row>
-    <row r="466" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="29"/>
       <c r="B466" s="29"/>
       <c r="C466" s="29"/>
@@ -17689,7 +17689,7 @@
       <c r="AI466" s="29"/>
       <c r="AJ466" s="30"/>
     </row>
-    <row r="467" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="29"/>
       <c r="B467" s="29"/>
       <c r="C467" s="29"/>
@@ -17727,7 +17727,7 @@
       <c r="AI467" s="29"/>
       <c r="AJ467" s="30"/>
     </row>
-    <row r="468" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="29"/>
       <c r="B468" s="29"/>
       <c r="C468" s="29"/>
@@ -17765,7 +17765,7 @@
       <c r="AI468" s="29"/>
       <c r="AJ468" s="30"/>
     </row>
-    <row r="469" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="29"/>
       <c r="B469" s="29"/>
       <c r="C469" s="29"/>
@@ -17803,7 +17803,7 @@
       <c r="AI469" s="29"/>
       <c r="AJ469" s="30"/>
     </row>
-    <row r="470" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="29"/>
       <c r="B470" s="29"/>
       <c r="C470" s="29"/>
@@ -17841,7 +17841,7 @@
       <c r="AI470" s="29"/>
       <c r="AJ470" s="30"/>
     </row>
-    <row r="471" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="29"/>
       <c r="B471" s="29"/>
       <c r="C471" s="29"/>
@@ -17879,7 +17879,7 @@
       <c r="AI471" s="29"/>
       <c r="AJ471" s="30"/>
     </row>
-    <row r="472" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="29"/>
       <c r="B472" s="29"/>
       <c r="C472" s="29"/>
@@ -17917,7 +17917,7 @@
       <c r="AI472" s="29"/>
       <c r="AJ472" s="30"/>
     </row>
-    <row r="473" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="29"/>
       <c r="B473" s="29"/>
       <c r="C473" s="29"/>
@@ -17955,7 +17955,7 @@
       <c r="AI473" s="29"/>
       <c r="AJ473" s="30"/>
     </row>
-    <row r="474" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="29"/>
       <c r="B474" s="29"/>
       <c r="C474" s="29"/>
@@ -17993,7 +17993,7 @@
       <c r="AI474" s="29"/>
       <c r="AJ474" s="30"/>
     </row>
-    <row r="475" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="29"/>
       <c r="B475" s="29"/>
       <c r="C475" s="29"/>
@@ -18031,7 +18031,7 @@
       <c r="AI475" s="29"/>
       <c r="AJ475" s="30"/>
     </row>
-    <row r="476" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="29"/>
       <c r="B476" s="29"/>
       <c r="C476" s="29"/>
@@ -18069,7 +18069,7 @@
       <c r="AI476" s="29"/>
       <c r="AJ476" s="30"/>
     </row>
-    <row r="477" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="29"/>
       <c r="B477" s="29"/>
       <c r="C477" s="29"/>
@@ -18107,7 +18107,7 @@
       <c r="AI477" s="29"/>
       <c r="AJ477" s="30"/>
     </row>
-    <row r="478" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="29"/>
       <c r="B478" s="29"/>
       <c r="C478" s="29"/>
@@ -18145,7 +18145,7 @@
       <c r="AI478" s="29"/>
       <c r="AJ478" s="30"/>
     </row>
-    <row r="479" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="29"/>
       <c r="B479" s="29"/>
       <c r="C479" s="29"/>
@@ -18183,7 +18183,7 @@
       <c r="AI479" s="29"/>
       <c r="AJ479" s="30"/>
     </row>
-    <row r="480" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="29"/>
       <c r="B480" s="29"/>
       <c r="C480" s="29"/>
@@ -18221,7 +18221,7 @@
       <c r="AI480" s="29"/>
       <c r="AJ480" s="30"/>
     </row>
-    <row r="481" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
       <c r="C481" s="29"/>
@@ -18259,7 +18259,7 @@
       <c r="AI481" s="29"/>
       <c r="AJ481" s="30"/>
     </row>
-    <row r="482" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="29"/>
@@ -18297,7 +18297,7 @@
       <c r="AI482" s="29"/>
       <c r="AJ482" s="30"/>
     </row>
-    <row r="483" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
       <c r="C483" s="29"/>
@@ -18335,7 +18335,7 @@
       <c r="AI483" s="29"/>
       <c r="AJ483" s="30"/>
     </row>
-    <row r="484" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="29"/>
       <c r="B484" s="29"/>
       <c r="C484" s="29"/>
@@ -18373,7 +18373,7 @@
       <c r="AI484" s="29"/>
       <c r="AJ484" s="30"/>
     </row>
-    <row r="485" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="29"/>
       <c r="B485" s="29"/>
       <c r="C485" s="29"/>
@@ -18411,7 +18411,7 @@
       <c r="AI485" s="29"/>
       <c r="AJ485" s="30"/>
     </row>
-    <row r="486" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="29"/>
       <c r="B486" s="29"/>
       <c r="C486" s="29"/>
@@ -18449,7 +18449,7 @@
       <c r="AI486" s="29"/>
       <c r="AJ486" s="30"/>
     </row>
-    <row r="487" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="29"/>
       <c r="B487" s="29"/>
       <c r="C487" s="29"/>
@@ -18487,7 +18487,7 @@
       <c r="AI487" s="29"/>
       <c r="AJ487" s="30"/>
     </row>
-    <row r="488" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="29"/>
       <c r="B488" s="29"/>
       <c r="C488" s="29"/>
@@ -18525,7 +18525,7 @@
       <c r="AI488" s="29"/>
       <c r="AJ488" s="30"/>
     </row>
-    <row r="489" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="29"/>
       <c r="B489" s="29"/>
       <c r="C489" s="29"/>
@@ -18563,7 +18563,7 @@
       <c r="AI489" s="29"/>
       <c r="AJ489" s="30"/>
     </row>
-    <row r="490" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="29"/>
       <c r="B490" s="29"/>
       <c r="C490" s="29"/>
@@ -18601,7 +18601,7 @@
       <c r="AI490" s="29"/>
       <c r="AJ490" s="30"/>
     </row>
-    <row r="491" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="29"/>
       <c r="B491" s="29"/>
       <c r="C491" s="29"/>
@@ -18639,7 +18639,7 @@
       <c r="AI491" s="29"/>
       <c r="AJ491" s="30"/>
     </row>
-    <row r="492" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="29"/>
       <c r="B492" s="29"/>
       <c r="C492" s="29"/>
@@ -18677,7 +18677,7 @@
       <c r="AI492" s="29"/>
       <c r="AJ492" s="30"/>
     </row>
-    <row r="493" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="29"/>
       <c r="B493" s="29"/>
       <c r="C493" s="29"/>
@@ -18715,7 +18715,7 @@
       <c r="AI493" s="29"/>
       <c r="AJ493" s="30"/>
     </row>
-    <row r="494" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="29"/>
       <c r="B494" s="29"/>
       <c r="C494" s="29"/>
@@ -18753,7 +18753,7 @@
       <c r="AI494" s="29"/>
       <c r="AJ494" s="30"/>
     </row>
-    <row r="495" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="29"/>
       <c r="B495" s="29"/>
       <c r="C495" s="29"/>
@@ -18791,7 +18791,7 @@
       <c r="AI495" s="29"/>
       <c r="AJ495" s="30"/>
     </row>
-    <row r="496" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="29"/>
       <c r="B496" s="29"/>
       <c r="C496" s="29"/>
@@ -18829,7 +18829,7 @@
       <c r="AI496" s="29"/>
       <c r="AJ496" s="30"/>
     </row>
-    <row r="497" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="29"/>
       <c r="B497" s="29"/>
       <c r="C497" s="29"/>
@@ -18867,7 +18867,7 @@
       <c r="AI497" s="29"/>
       <c r="AJ497" s="30"/>
     </row>
-    <row r="498" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="29"/>
       <c r="B498" s="29"/>
       <c r="C498" s="29"/>
@@ -18905,7 +18905,7 @@
       <c r="AI498" s="29"/>
       <c r="AJ498" s="30"/>
     </row>
-    <row r="499" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="29"/>
       <c r="B499" s="29"/>
       <c r="C499" s="29"/>
@@ -18943,7 +18943,7 @@
       <c r="AI499" s="29"/>
       <c r="AJ499" s="30"/>
     </row>
-    <row r="500" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="29"/>
       <c r="B500" s="29"/>
       <c r="C500" s="29"/>
@@ -18981,7 +18981,7 @@
       <c r="AI500" s="29"/>
       <c r="AJ500" s="30"/>
     </row>
-    <row r="501" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="29"/>
       <c r="B501" s="29"/>
       <c r="C501" s="29"/>
@@ -19019,7 +19019,7 @@
       <c r="AI501" s="29"/>
       <c r="AJ501" s="30"/>
     </row>
-    <row r="502" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="29"/>
       <c r="B502" s="29"/>
       <c r="C502" s="29"/>
@@ -19057,7 +19057,7 @@
       <c r="AI502" s="29"/>
       <c r="AJ502" s="30"/>
     </row>
-    <row r="503" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="29"/>
       <c r="B503" s="29"/>
       <c r="C503" s="29"/>
@@ -19095,7 +19095,7 @@
       <c r="AI503" s="29"/>
       <c r="AJ503" s="30"/>
     </row>
-    <row r="504" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="29"/>
       <c r="B504" s="29"/>
       <c r="C504" s="29"/>
@@ -19133,7 +19133,7 @@
       <c r="AI504" s="29"/>
       <c r="AJ504" s="30"/>
     </row>
-    <row r="505" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="29"/>
       <c r="B505" s="29"/>
       <c r="C505" s="29"/>
@@ -19171,7 +19171,7 @@
       <c r="AI505" s="29"/>
       <c r="AJ505" s="30"/>
     </row>
-    <row r="506" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="29"/>
       <c r="B506" s="29"/>
       <c r="C506" s="29"/>
@@ -19209,7 +19209,7 @@
       <c r="AI506" s="29"/>
       <c r="AJ506" s="30"/>
     </row>
-    <row r="507" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="29"/>
       <c r="B507" s="29"/>
       <c r="C507" s="29"/>
@@ -19247,7 +19247,7 @@
       <c r="AI507" s="29"/>
       <c r="AJ507" s="30"/>
     </row>
-    <row r="508" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="29"/>
       <c r="B508" s="29"/>
       <c r="C508" s="29"/>
@@ -19285,7 +19285,7 @@
       <c r="AI508" s="29"/>
       <c r="AJ508" s="30"/>
     </row>
-    <row r="509" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="29"/>
       <c r="B509" s="29"/>
       <c r="C509" s="29"/>
@@ -19323,7 +19323,7 @@
       <c r="AI509" s="29"/>
       <c r="AJ509" s="30"/>
     </row>
-    <row r="510" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="29"/>
       <c r="B510" s="29"/>
       <c r="C510" s="29"/>
@@ -19361,7 +19361,7 @@
       <c r="AI510" s="29"/>
       <c r="AJ510" s="30"/>
     </row>
-    <row r="511" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="29"/>
       <c r="B511" s="29"/>
       <c r="C511" s="29"/>
@@ -19399,7 +19399,7 @@
       <c r="AI511" s="29"/>
       <c r="AJ511" s="30"/>
     </row>
-    <row r="512" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="29"/>
       <c r="B512" s="29"/>
       <c r="C512" s="29"/>
@@ -19437,7 +19437,7 @@
       <c r="AI512" s="29"/>
       <c r="AJ512" s="30"/>
     </row>
-    <row r="513" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="29"/>
       <c r="B513" s="29"/>
       <c r="C513" s="29"/>
@@ -19475,7 +19475,7 @@
       <c r="AI513" s="29"/>
       <c r="AJ513" s="30"/>
     </row>
-    <row r="514" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="29"/>
       <c r="B514" s="29"/>
       <c r="C514" s="29"/>
@@ -19513,7 +19513,7 @@
       <c r="AI514" s="29"/>
       <c r="AJ514" s="30"/>
     </row>
-    <row r="515" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="29"/>
       <c r="B515" s="29"/>
       <c r="C515" s="29"/>
@@ -19551,7 +19551,7 @@
       <c r="AI515" s="29"/>
       <c r="AJ515" s="30"/>
     </row>
-    <row r="516" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="29"/>
       <c r="B516" s="29"/>
       <c r="C516" s="29"/>
@@ -19589,7 +19589,7 @@
       <c r="AI516" s="29"/>
       <c r="AJ516" s="30"/>
     </row>
-    <row r="517" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="29"/>
       <c r="B517" s="29"/>
       <c r="C517" s="29"/>
@@ -19627,7 +19627,7 @@
       <c r="AI517" s="29"/>
       <c r="AJ517" s="30"/>
     </row>
-    <row r="518" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="29"/>
       <c r="B518" s="29"/>
       <c r="C518" s="29"/>
@@ -19665,7 +19665,7 @@
       <c r="AI518" s="29"/>
       <c r="AJ518" s="30"/>
     </row>
-    <row r="519" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="29"/>
       <c r="B519" s="29"/>
       <c r="C519" s="29"/>
@@ -19703,7 +19703,7 @@
       <c r="AI519" s="29"/>
       <c r="AJ519" s="30"/>
     </row>
-    <row r="520" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="29"/>
       <c r="B520" s="29"/>
       <c r="C520" s="29"/>
@@ -19741,7 +19741,7 @@
       <c r="AI520" s="29"/>
       <c r="AJ520" s="30"/>
     </row>
-    <row r="521" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="29"/>
       <c r="B521" s="29"/>
       <c r="C521" s="29"/>
@@ -19779,7 +19779,7 @@
       <c r="AI521" s="29"/>
       <c r="AJ521" s="30"/>
     </row>
-    <row r="522" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="29"/>
       <c r="B522" s="29"/>
       <c r="C522" s="29"/>
@@ -19817,7 +19817,7 @@
       <c r="AI522" s="29"/>
       <c r="AJ522" s="30"/>
     </row>
-    <row r="523" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="29"/>
       <c r="B523" s="29"/>
       <c r="C523" s="29"/>
@@ -19855,7 +19855,7 @@
       <c r="AI523" s="29"/>
       <c r="AJ523" s="30"/>
     </row>
-    <row r="524" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="29"/>
       <c r="B524" s="29"/>
       <c r="C524" s="29"/>
@@ -19893,7 +19893,7 @@
       <c r="AI524" s="29"/>
       <c r="AJ524" s="30"/>
     </row>
-    <row r="525" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="29"/>
       <c r="B525" s="29"/>
       <c r="C525" s="29"/>
@@ -19931,7 +19931,7 @@
       <c r="AI525" s="29"/>
       <c r="AJ525" s="30"/>
     </row>
-    <row r="526" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="29"/>
       <c r="B526" s="29"/>
       <c r="C526" s="29"/>
@@ -19969,7 +19969,7 @@
       <c r="AI526" s="29"/>
       <c r="AJ526" s="30"/>
     </row>
-    <row r="527" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="29"/>
       <c r="B527" s="29"/>
       <c r="C527" s="29"/>
@@ -20007,7 +20007,7 @@
       <c r="AI527" s="29"/>
       <c r="AJ527" s="30"/>
     </row>
-    <row r="528" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="29"/>
       <c r="B528" s="29"/>
       <c r="C528" s="29"/>
@@ -20045,7 +20045,7 @@
       <c r="AI528" s="29"/>
       <c r="AJ528" s="30"/>
     </row>
-    <row r="529" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="29"/>
       <c r="B529" s="29"/>
       <c r="C529" s="29"/>
@@ -20083,7 +20083,7 @@
       <c r="AI529" s="29"/>
       <c r="AJ529" s="30"/>
     </row>
-    <row r="530" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="29"/>
       <c r="B530" s="29"/>
       <c r="C530" s="29"/>
@@ -20121,7 +20121,7 @@
       <c r="AI530" s="29"/>
       <c r="AJ530" s="30"/>
     </row>
-    <row r="531" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="29"/>
       <c r="B531" s="29"/>
       <c r="C531" s="29"/>
@@ -20159,7 +20159,7 @@
       <c r="AI531" s="29"/>
       <c r="AJ531" s="30"/>
     </row>
-    <row r="532" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="29"/>
       <c r="B532" s="29"/>
       <c r="C532" s="29"/>
@@ -20197,7 +20197,7 @@
       <c r="AI532" s="29"/>
       <c r="AJ532" s="30"/>
     </row>
-    <row r="533" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="29"/>
       <c r="B533" s="29"/>
       <c r="C533" s="29"/>
@@ -20235,7 +20235,7 @@
       <c r="AI533" s="29"/>
       <c r="AJ533" s="30"/>
     </row>
-    <row r="534" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="29"/>
       <c r="B534" s="29"/>
       <c r="C534" s="29"/>
@@ -20273,7 +20273,7 @@
       <c r="AI534" s="29"/>
       <c r="AJ534" s="30"/>
     </row>
-    <row r="535" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="29"/>
       <c r="B535" s="29"/>
       <c r="C535" s="29"/>
@@ -20311,7 +20311,7 @@
       <c r="AI535" s="29"/>
       <c r="AJ535" s="30"/>
     </row>
-    <row r="536" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="29"/>
       <c r="B536" s="29"/>
       <c r="C536" s="29"/>
@@ -20349,7 +20349,7 @@
       <c r="AI536" s="29"/>
       <c r="AJ536" s="30"/>
     </row>
-    <row r="537" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="29"/>
       <c r="B537" s="29"/>
       <c r="C537" s="29"/>
@@ -20387,7 +20387,7 @@
       <c r="AI537" s="29"/>
       <c r="AJ537" s="30"/>
     </row>
-    <row r="538" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="29"/>
       <c r="B538" s="29"/>
       <c r="C538" s="29"/>
@@ -20425,7 +20425,7 @@
       <c r="AI538" s="29"/>
       <c r="AJ538" s="30"/>
     </row>
-    <row r="539" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="29"/>
       <c r="B539" s="29"/>
       <c r="C539" s="29"/>
@@ -20463,7 +20463,7 @@
       <c r="AI539" s="29"/>
       <c r="AJ539" s="30"/>
     </row>
-    <row r="540" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="29"/>
       <c r="B540" s="29"/>
       <c r="C540" s="29"/>
@@ -20501,7 +20501,7 @@
       <c r="AI540" s="29"/>
       <c r="AJ540" s="30"/>
     </row>
-    <row r="541" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="29"/>
       <c r="B541" s="29"/>
       <c r="C541" s="29"/>
@@ -20539,7 +20539,7 @@
       <c r="AI541" s="29"/>
       <c r="AJ541" s="30"/>
     </row>
-    <row r="542" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="29"/>
       <c r="B542" s="29"/>
       <c r="C542" s="29"/>
@@ -20577,7 +20577,7 @@
       <c r="AI542" s="29"/>
       <c r="AJ542" s="30"/>
     </row>
-    <row r="543" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="29"/>
       <c r="B543" s="29"/>
       <c r="C543" s="29"/>
@@ -20615,7 +20615,7 @@
       <c r="AI543" s="29"/>
       <c r="AJ543" s="30"/>
     </row>
-    <row r="544" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="29"/>
       <c r="B544" s="29"/>
       <c r="C544" s="29"/>
@@ -20653,7 +20653,7 @@
       <c r="AI544" s="29"/>
       <c r="AJ544" s="30"/>
     </row>
-    <row r="545" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="29"/>
       <c r="B545" s="29"/>
       <c r="C545" s="29"/>
@@ -20691,7 +20691,7 @@
       <c r="AI545" s="29"/>
       <c r="AJ545" s="30"/>
     </row>
-    <row r="546" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="29"/>
       <c r="B546" s="29"/>
       <c r="C546" s="29"/>
@@ -20729,7 +20729,7 @@
       <c r="AI546" s="29"/>
       <c r="AJ546" s="30"/>
     </row>
-    <row r="547" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="29"/>
       <c r="B547" s="29"/>
       <c r="C547" s="29"/>
@@ -20767,7 +20767,7 @@
       <c r="AI547" s="29"/>
       <c r="AJ547" s="30"/>
     </row>
-    <row r="548" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="29"/>
       <c r="B548" s="29"/>
       <c r="C548" s="29"/>
@@ -20805,7 +20805,7 @@
       <c r="AI548" s="29"/>
       <c r="AJ548" s="30"/>
     </row>
-    <row r="549" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="29"/>
       <c r="B549" s="29"/>
       <c r="C549" s="29"/>
@@ -20843,7 +20843,7 @@
       <c r="AI549" s="29"/>
       <c r="AJ549" s="30"/>
     </row>
-    <row r="550" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="29"/>
       <c r="B550" s="29"/>
       <c r="C550" s="29"/>
@@ -20881,7 +20881,7 @@
       <c r="AI550" s="29"/>
       <c r="AJ550" s="30"/>
     </row>
-    <row r="551" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="29"/>
       <c r="B551" s="29"/>
       <c r="C551" s="29"/>
@@ -20919,7 +20919,7 @@
       <c r="AI551" s="29"/>
       <c r="AJ551" s="30"/>
     </row>
-    <row r="552" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="29"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29"/>
@@ -20957,7 +20957,7 @@
       <c r="AI552" s="29"/>
       <c r="AJ552" s="30"/>
     </row>
-    <row r="553" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="29"/>
       <c r="B553" s="29"/>
       <c r="C553" s="29"/>
@@ -20995,7 +20995,7 @@
       <c r="AI553" s="29"/>
       <c r="AJ553" s="30"/>
     </row>
-    <row r="554" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="29"/>
       <c r="B554" s="29"/>
       <c r="C554" s="29"/>
@@ -21033,7 +21033,7 @@
       <c r="AI554" s="29"/>
       <c r="AJ554" s="30"/>
     </row>
-    <row r="555" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="29"/>
       <c r="B555" s="29"/>
       <c r="C555" s="29"/>
@@ -21071,7 +21071,7 @@
       <c r="AI555" s="29"/>
       <c r="AJ555" s="30"/>
     </row>
-    <row r="556" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="29"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29"/>
@@ -21109,7 +21109,7 @@
       <c r="AI556" s="29"/>
       <c r="AJ556" s="30"/>
     </row>
-    <row r="557" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="29"/>
       <c r="B557" s="29"/>
       <c r="C557" s="29"/>
@@ -21147,7 +21147,7 @@
       <c r="AI557" s="29"/>
       <c r="AJ557" s="30"/>
     </row>
-    <row r="558" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="29"/>
       <c r="B558" s="29"/>
       <c r="C558" s="29"/>
@@ -21185,7 +21185,7 @@
       <c r="AI558" s="29"/>
       <c r="AJ558" s="30"/>
     </row>
-    <row r="559" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="29"/>
       <c r="B559" s="29"/>
       <c r="C559" s="29"/>
@@ -21223,7 +21223,7 @@
       <c r="AI559" s="29"/>
       <c r="AJ559" s="30"/>
     </row>
-    <row r="560" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="29"/>
       <c r="B560" s="29"/>
       <c r="C560" s="29"/>
@@ -21261,7 +21261,7 @@
       <c r="AI560" s="29"/>
       <c r="AJ560" s="30"/>
     </row>
-    <row r="561" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="29"/>
       <c r="B561" s="29"/>
       <c r="C561" s="29"/>
@@ -21299,7 +21299,7 @@
       <c r="AI561" s="29"/>
       <c r="AJ561" s="30"/>
     </row>
-    <row r="562" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="29"/>
       <c r="B562" s="29"/>
       <c r="C562" s="29"/>
@@ -21337,7 +21337,7 @@
       <c r="AI562" s="29"/>
       <c r="AJ562" s="30"/>
     </row>
-    <row r="563" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="29"/>
       <c r="B563" s="29"/>
       <c r="C563" s="29"/>
@@ -21375,7 +21375,7 @@
       <c r="AI563" s="29"/>
       <c r="AJ563" s="30"/>
     </row>
-    <row r="564" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="29"/>
       <c r="B564" s="29"/>
       <c r="C564" s="29"/>
@@ -21413,7 +21413,7 @@
       <c r="AI564" s="29"/>
       <c r="AJ564" s="30"/>
     </row>
-    <row r="565" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="29"/>
       <c r="B565" s="29"/>
       <c r="C565" s="29"/>
@@ -21451,7 +21451,7 @@
       <c r="AI565" s="29"/>
       <c r="AJ565" s="30"/>
     </row>
-    <row r="566" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="29"/>
       <c r="B566" s="29"/>
       <c r="C566" s="29"/>
@@ -21489,7 +21489,7 @@
       <c r="AI566" s="29"/>
       <c r="AJ566" s="30"/>
     </row>
-    <row r="567" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="29"/>
       <c r="B567" s="29"/>
       <c r="C567" s="29"/>
@@ -21527,7 +21527,7 @@
       <c r="AI567" s="29"/>
       <c r="AJ567" s="30"/>
     </row>
-    <row r="568" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="29"/>
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
@@ -21565,7 +21565,7 @@
       <c r="AI568" s="29"/>
       <c r="AJ568" s="30"/>
     </row>
-    <row r="569" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="29"/>
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
@@ -21603,7 +21603,7 @@
       <c r="AI569" s="29"/>
       <c r="AJ569" s="30"/>
     </row>
-    <row r="570" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="29"/>
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
@@ -21641,7 +21641,7 @@
       <c r="AI570" s="29"/>
       <c r="AJ570" s="30"/>
     </row>
-    <row r="571" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="29"/>
       <c r="B571" s="29"/>
       <c r="C571" s="29"/>
@@ -21679,7 +21679,7 @@
       <c r="AI571" s="29"/>
       <c r="AJ571" s="30"/>
     </row>
-    <row r="572" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="29"/>
       <c r="B572" s="29"/>
       <c r="C572" s="29"/>
@@ -21717,7 +21717,7 @@
       <c r="AI572" s="29"/>
       <c r="AJ572" s="30"/>
     </row>
-    <row r="573" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="29"/>
       <c r="B573" s="29"/>
       <c r="C573" s="29"/>
@@ -21755,7 +21755,7 @@
       <c r="AI573" s="29"/>
       <c r="AJ573" s="30"/>
     </row>
-    <row r="574" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="29"/>
       <c r="B574" s="29"/>
       <c r="C574" s="29"/>
@@ -21793,7 +21793,7 @@
       <c r="AI574" s="29"/>
       <c r="AJ574" s="30"/>
     </row>
-    <row r="575" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="29"/>
       <c r="B575" s="29"/>
       <c r="C575" s="29"/>
@@ -21831,7 +21831,7 @@
       <c r="AI575" s="29"/>
       <c r="AJ575" s="30"/>
     </row>
-    <row r="576" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="29"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29"/>
@@ -21869,7 +21869,7 @@
       <c r="AI576" s="29"/>
       <c r="AJ576" s="30"/>
     </row>
-    <row r="577" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="29"/>
       <c r="B577" s="29"/>
       <c r="C577" s="29"/>
@@ -21907,7 +21907,7 @@
       <c r="AI577" s="29"/>
       <c r="AJ577" s="30"/>
     </row>
-    <row r="578" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="29"/>
       <c r="B578" s="29"/>
       <c r="C578" s="29"/>
@@ -21945,7 +21945,7 @@
       <c r="AI578" s="29"/>
       <c r="AJ578" s="30"/>
     </row>
-    <row r="579" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="29"/>
       <c r="B579" s="29"/>
       <c r="C579" s="29"/>
@@ -21983,7 +21983,7 @@
       <c r="AI579" s="29"/>
       <c r="AJ579" s="30"/>
     </row>
-    <row r="580" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="29"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29"/>
@@ -22021,7 +22021,7 @@
       <c r="AI580" s="29"/>
       <c r="AJ580" s="30"/>
     </row>
-    <row r="581" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="29"/>
       <c r="B581" s="29"/>
       <c r="C581" s="29"/>
@@ -22059,7 +22059,7 @@
       <c r="AI581" s="29"/>
       <c r="AJ581" s="30"/>
     </row>
-    <row r="582" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="29"/>
       <c r="B582" s="29"/>
       <c r="C582" s="29"/>
@@ -22097,7 +22097,7 @@
       <c r="AI582" s="29"/>
       <c r="AJ582" s="30"/>
     </row>
-    <row r="583" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="29"/>
       <c r="B583" s="29"/>
       <c r="C583" s="29"/>
@@ -22135,7 +22135,7 @@
       <c r="AI583" s="29"/>
       <c r="AJ583" s="30"/>
     </row>
-    <row r="584" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="29"/>
       <c r="B584" s="29"/>
       <c r="C584" s="29"/>
@@ -22173,7 +22173,7 @@
       <c r="AI584" s="29"/>
       <c r="AJ584" s="30"/>
     </row>
-    <row r="585" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="29"/>
       <c r="B585" s="29"/>
       <c r="C585" s="29"/>
@@ -22211,7 +22211,7 @@
       <c r="AI585" s="29"/>
       <c r="AJ585" s="30"/>
     </row>
-    <row r="586" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="29"/>
       <c r="B586" s="29"/>
       <c r="C586" s="29"/>
@@ -22249,7 +22249,7 @@
       <c r="AI586" s="29"/>
       <c r="AJ586" s="30"/>
     </row>
-    <row r="587" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="29"/>
       <c r="B587" s="29"/>
       <c r="C587" s="29"/>
@@ -22287,7 +22287,7 @@
       <c r="AI587" s="29"/>
       <c r="AJ587" s="30"/>
     </row>
-    <row r="588" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="29"/>
       <c r="B588" s="29"/>
       <c r="C588" s="29"/>
@@ -22325,7 +22325,7 @@
       <c r="AI588" s="29"/>
       <c r="AJ588" s="30"/>
     </row>
-    <row r="589" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="29"/>
       <c r="B589" s="29"/>
       <c r="C589" s="29"/>
@@ -22363,7 +22363,7 @@
       <c r="AI589" s="29"/>
       <c r="AJ589" s="30"/>
     </row>
-    <row r="590" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="29"/>
       <c r="B590" s="29"/>
       <c r="C590" s="29"/>
@@ -22401,7 +22401,7 @@
       <c r="AI590" s="29"/>
       <c r="AJ590" s="30"/>
     </row>
-    <row r="591" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="29"/>
       <c r="B591" s="29"/>
       <c r="C591" s="29"/>
@@ -22439,7 +22439,7 @@
       <c r="AI591" s="29"/>
       <c r="AJ591" s="30"/>
     </row>
-    <row r="592" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="29"/>
       <c r="B592" s="29"/>
       <c r="C592" s="29"/>
@@ -22477,7 +22477,7 @@
       <c r="AI592" s="29"/>
       <c r="AJ592" s="30"/>
     </row>
-    <row r="593" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="29"/>
       <c r="B593" s="29"/>
       <c r="C593" s="29"/>
@@ -22515,7 +22515,7 @@
       <c r="AI593" s="29"/>
       <c r="AJ593" s="30"/>
     </row>
-    <row r="594" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="29"/>
       <c r="B594" s="29"/>
       <c r="C594" s="29"/>
@@ -22553,7 +22553,7 @@
       <c r="AI594" s="29"/>
       <c r="AJ594" s="30"/>
     </row>
-    <row r="595" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="29"/>
       <c r="B595" s="29"/>
       <c r="C595" s="29"/>
@@ -22591,7 +22591,7 @@
       <c r="AI595" s="29"/>
       <c r="AJ595" s="30"/>
     </row>
-    <row r="596" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="29"/>
       <c r="B596" s="29"/>
       <c r="C596" s="29"/>
@@ -22629,7 +22629,7 @@
       <c r="AI596" s="29"/>
       <c r="AJ596" s="30"/>
     </row>
-    <row r="597" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="29"/>
       <c r="B597" s="29"/>
       <c r="C597" s="29"/>
@@ -22667,7 +22667,7 @@
       <c r="AI597" s="29"/>
       <c r="AJ597" s="30"/>
     </row>
-    <row r="598" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="29"/>
       <c r="B598" s="29"/>
       <c r="C598" s="29"/>
@@ -22705,7 +22705,7 @@
       <c r="AI598" s="29"/>
       <c r="AJ598" s="30"/>
     </row>
-    <row r="599" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="29"/>
       <c r="B599" s="29"/>
       <c r="C599" s="29"/>
@@ -22743,7 +22743,7 @@
       <c r="AI599" s="29"/>
       <c r="AJ599" s="30"/>
     </row>
-    <row r="600" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="29"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29"/>
@@ -22781,7 +22781,7 @@
       <c r="AI600" s="29"/>
       <c r="AJ600" s="30"/>
     </row>
-    <row r="601" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="29"/>
       <c r="B601" s="29"/>
       <c r="C601" s="29"/>
@@ -22819,7 +22819,7 @@
       <c r="AI601" s="29"/>
       <c r="AJ601" s="30"/>
     </row>
-    <row r="602" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="29"/>
       <c r="B602" s="29"/>
       <c r="C602" s="29"/>
@@ -22857,7 +22857,7 @@
       <c r="AI602" s="29"/>
       <c r="AJ602" s="30"/>
     </row>
-    <row r="603" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="29"/>
       <c r="B603" s="29"/>
       <c r="C603" s="29"/>
@@ -22895,7 +22895,7 @@
       <c r="AI603" s="29"/>
       <c r="AJ603" s="30"/>
     </row>
-    <row r="604" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="29"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29"/>
@@ -22933,7 +22933,7 @@
       <c r="AI604" s="29"/>
       <c r="AJ604" s="30"/>
     </row>
-    <row r="605" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="29"/>
       <c r="B605" s="29"/>
       <c r="C605" s="29"/>
@@ -22971,7 +22971,7 @@
       <c r="AI605" s="29"/>
       <c r="AJ605" s="30"/>
     </row>
-    <row r="606" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="29"/>
       <c r="B606" s="29"/>
       <c r="C606" s="29"/>
@@ -23009,7 +23009,7 @@
       <c r="AI606" s="29"/>
       <c r="AJ606" s="30"/>
     </row>
-    <row r="607" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="29"/>
       <c r="B607" s="29"/>
       <c r="C607" s="29"/>
@@ -23047,7 +23047,7 @@
       <c r="AI607" s="29"/>
       <c r="AJ607" s="30"/>
     </row>
-    <row r="608" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="29"/>
       <c r="B608" s="29"/>
       <c r="C608" s="29"/>
@@ -23085,7 +23085,7 @@
       <c r="AI608" s="29"/>
       <c r="AJ608" s="30"/>
     </row>
-    <row r="609" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="29"/>
       <c r="B609" s="29"/>
       <c r="C609" s="29"/>
@@ -23123,7 +23123,7 @@
       <c r="AI609" s="29"/>
       <c r="AJ609" s="30"/>
     </row>
-    <row r="610" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="29"/>
       <c r="B610" s="29"/>
       <c r="C610" s="29"/>
@@ -23161,7 +23161,7 @@
       <c r="AI610" s="29"/>
       <c r="AJ610" s="30"/>
     </row>
-    <row r="611" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="29"/>
       <c r="B611" s="29"/>
       <c r="C611" s="29"/>
@@ -23199,7 +23199,7 @@
       <c r="AI611" s="29"/>
       <c r="AJ611" s="30"/>
     </row>
-    <row r="612" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="29"/>
       <c r="B612" s="29"/>
       <c r="C612" s="29"/>
@@ -23237,7 +23237,7 @@
       <c r="AI612" s="29"/>
       <c r="AJ612" s="30"/>
     </row>
-    <row r="613" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="29"/>
       <c r="B613" s="29"/>
       <c r="C613" s="29"/>
@@ -23275,7 +23275,7 @@
       <c r="AI613" s="29"/>
       <c r="AJ613" s="30"/>
     </row>
-    <row r="614" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="29"/>
       <c r="B614" s="29"/>
       <c r="C614" s="29"/>
@@ -23313,7 +23313,7 @@
       <c r="AI614" s="29"/>
       <c r="AJ614" s="30"/>
     </row>
-    <row r="615" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="29"/>
       <c r="B615" s="29"/>
       <c r="C615" s="29"/>
@@ -23351,7 +23351,7 @@
       <c r="AI615" s="29"/>
       <c r="AJ615" s="30"/>
     </row>
-    <row r="616" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="29"/>
       <c r="B616" s="29"/>
       <c r="C616" s="29"/>
@@ -23389,7 +23389,7 @@
       <c r="AI616" s="29"/>
       <c r="AJ616" s="30"/>
     </row>
-    <row r="617" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="29"/>
       <c r="B617" s="29"/>
       <c r="C617" s="29"/>
@@ -23427,7 +23427,7 @@
       <c r="AI617" s="29"/>
       <c r="AJ617" s="30"/>
     </row>
-    <row r="618" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="29"/>
       <c r="B618" s="29"/>
       <c r="C618" s="29"/>
@@ -23465,7 +23465,7 @@
       <c r="AI618" s="29"/>
       <c r="AJ618" s="30"/>
     </row>
-    <row r="619" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="29"/>
       <c r="B619" s="29"/>
       <c r="C619" s="29"/>
@@ -23503,7 +23503,7 @@
       <c r="AI619" s="29"/>
       <c r="AJ619" s="30"/>
     </row>
-    <row r="620" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="29"/>
       <c r="B620" s="29"/>
       <c r="C620" s="29"/>
@@ -23541,7 +23541,7 @@
       <c r="AI620" s="29"/>
       <c r="AJ620" s="30"/>
     </row>
-    <row r="621" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="29"/>
       <c r="B621" s="29"/>
       <c r="C621" s="29"/>
@@ -23579,7 +23579,7 @@
       <c r="AI621" s="29"/>
       <c r="AJ621" s="30"/>
     </row>
-    <row r="622" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="29"/>
       <c r="B622" s="29"/>
       <c r="C622" s="29"/>
@@ -23617,7 +23617,7 @@
       <c r="AI622" s="29"/>
       <c r="AJ622" s="30"/>
     </row>
-    <row r="623" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="29"/>
       <c r="B623" s="29"/>
       <c r="C623" s="29"/>
@@ -23655,7 +23655,7 @@
       <c r="AI623" s="29"/>
       <c r="AJ623" s="30"/>
     </row>
-    <row r="624" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="29"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29"/>
@@ -23693,7 +23693,7 @@
       <c r="AI624" s="29"/>
       <c r="AJ624" s="30"/>
     </row>
-    <row r="625" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="29"/>
       <c r="B625" s="29"/>
       <c r="C625" s="29"/>
@@ -23731,7 +23731,7 @@
       <c r="AI625" s="29"/>
       <c r="AJ625" s="30"/>
     </row>
-    <row r="626" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="29"/>
       <c r="B626" s="29"/>
       <c r="C626" s="29"/>
@@ -23769,7 +23769,7 @@
       <c r="AI626" s="29"/>
       <c r="AJ626" s="30"/>
     </row>
-    <row r="627" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="29"/>
       <c r="B627" s="29"/>
       <c r="C627" s="29"/>
@@ -23807,7 +23807,7 @@
       <c r="AI627" s="29"/>
       <c r="AJ627" s="30"/>
     </row>
-    <row r="628" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="29"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
@@ -23845,7 +23845,7 @@
       <c r="AI628" s="29"/>
       <c r="AJ628" s="30"/>
     </row>
-    <row r="629" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="29"/>
       <c r="B629" s="29"/>
       <c r="C629" s="29"/>
@@ -23883,7 +23883,7 @@
       <c r="AI629" s="29"/>
       <c r="AJ629" s="30"/>
     </row>
-    <row r="630" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="29"/>
       <c r="B630" s="29"/>
       <c r="C630" s="29"/>
@@ -23921,7 +23921,7 @@
       <c r="AI630" s="29"/>
       <c r="AJ630" s="30"/>
     </row>
-    <row r="631" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="29"/>
       <c r="B631" s="29"/>
       <c r="C631" s="29"/>
@@ -23959,7 +23959,7 @@
       <c r="AI631" s="29"/>
       <c r="AJ631" s="30"/>
     </row>
-    <row r="632" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="29"/>
       <c r="B632" s="29"/>
       <c r="C632" s="29"/>
@@ -23997,7 +23997,7 @@
       <c r="AI632" s="29"/>
       <c r="AJ632" s="30"/>
     </row>
-    <row r="633" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="29"/>
       <c r="B633" s="29"/>
       <c r="C633" s="29"/>
@@ -24035,7 +24035,7 @@
       <c r="AI633" s="29"/>
       <c r="AJ633" s="30"/>
     </row>
-    <row r="634" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="29"/>
       <c r="B634" s="29"/>
       <c r="C634" s="29"/>
@@ -24073,7 +24073,7 @@
       <c r="AI634" s="29"/>
       <c r="AJ634" s="30"/>
     </row>
-    <row r="635" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="29"/>
       <c r="B635" s="29"/>
       <c r="C635" s="29"/>
@@ -24111,7 +24111,7 @@
       <c r="AI635" s="29"/>
       <c r="AJ635" s="30"/>
     </row>
-    <row r="636" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="29"/>
       <c r="B636" s="29"/>
       <c r="C636" s="29"/>
@@ -24149,7 +24149,7 @@
       <c r="AI636" s="29"/>
       <c r="AJ636" s="30"/>
     </row>
-    <row r="637" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="29"/>
       <c r="B637" s="29"/>
       <c r="C637" s="29"/>
@@ -24187,7 +24187,7 @@
       <c r="AI637" s="29"/>
       <c r="AJ637" s="30"/>
     </row>
-    <row r="638" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="29"/>
       <c r="B638" s="29"/>
       <c r="C638" s="29"/>
@@ -24225,7 +24225,7 @@
       <c r="AI638" s="29"/>
       <c r="AJ638" s="30"/>
     </row>
-    <row r="639" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="29"/>
       <c r="B639" s="29"/>
       <c r="C639" s="29"/>
@@ -24263,7 +24263,7 @@
       <c r="AI639" s="29"/>
       <c r="AJ639" s="30"/>
     </row>
-    <row r="640" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="29"/>
       <c r="B640" s="29"/>
       <c r="C640" s="29"/>
@@ -24301,7 +24301,7 @@
       <c r="AI640" s="29"/>
       <c r="AJ640" s="30"/>
     </row>
-    <row r="641" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="29"/>
       <c r="B641" s="29"/>
       <c r="C641" s="29"/>
@@ -24339,7 +24339,7 @@
       <c r="AI641" s="29"/>
       <c r="AJ641" s="30"/>
     </row>
-    <row r="642" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="29"/>
       <c r="B642" s="29"/>
       <c r="C642" s="29"/>
@@ -24377,7 +24377,7 @@
       <c r="AI642" s="29"/>
       <c r="AJ642" s="30"/>
     </row>
-    <row r="643" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="29"/>
       <c r="B643" s="29"/>
       <c r="C643" s="29"/>
@@ -24415,7 +24415,7 @@
       <c r="AI643" s="29"/>
       <c r="AJ643" s="30"/>
     </row>
-    <row r="644" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="29"/>
       <c r="B644" s="29"/>
       <c r="C644" s="29"/>
@@ -24453,7 +24453,7 @@
       <c r="AI644" s="29"/>
       <c r="AJ644" s="30"/>
     </row>
-    <row r="645" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="29"/>
       <c r="B645" s="29"/>
       <c r="C645" s="29"/>
@@ -24491,7 +24491,7 @@
       <c r="AI645" s="29"/>
       <c r="AJ645" s="30"/>
     </row>
-    <row r="646" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="29"/>
       <c r="B646" s="29"/>
       <c r="C646" s="29"/>
@@ -24529,7 +24529,7 @@
       <c r="AI646" s="29"/>
       <c r="AJ646" s="30"/>
     </row>
-    <row r="647" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="29"/>
       <c r="B647" s="29"/>
       <c r="C647" s="29"/>
@@ -24567,7 +24567,7 @@
       <c r="AI647" s="29"/>
       <c r="AJ647" s="30"/>
     </row>
-    <row r="648" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="29"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29"/>
@@ -24605,7 +24605,7 @@
       <c r="AI648" s="29"/>
       <c r="AJ648" s="30"/>
     </row>
-    <row r="649" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="29"/>
       <c r="B649" s="29"/>
       <c r="C649" s="29"/>
@@ -24643,7 +24643,7 @@
       <c r="AI649" s="29"/>
       <c r="AJ649" s="30"/>
     </row>
-    <row r="650" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="29"/>
       <c r="B650" s="29"/>
       <c r="C650" s="29"/>
@@ -24681,7 +24681,7 @@
       <c r="AI650" s="29"/>
       <c r="AJ650" s="30"/>
     </row>
-    <row r="651" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="29"/>
       <c r="B651" s="29"/>
       <c r="C651" s="29"/>
@@ -24719,7 +24719,7 @@
       <c r="AI651" s="29"/>
       <c r="AJ651" s="30"/>
     </row>
-    <row r="652" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="29"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
@@ -24757,7 +24757,7 @@
       <c r="AI652" s="29"/>
       <c r="AJ652" s="30"/>
     </row>
-    <row r="653" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="29"/>
       <c r="B653" s="29"/>
       <c r="C653" s="29"/>
@@ -24795,7 +24795,7 @@
       <c r="AI653" s="29"/>
       <c r="AJ653" s="30"/>
     </row>
-    <row r="654" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="29"/>
       <c r="B654" s="29"/>
       <c r="C654" s="29"/>
@@ -24833,7 +24833,7 @@
       <c r="AI654" s="29"/>
       <c r="AJ654" s="30"/>
     </row>
-    <row r="655" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="29"/>
       <c r="B655" s="29"/>
       <c r="C655" s="29"/>
@@ -24871,7 +24871,7 @@
       <c r="AI655" s="29"/>
       <c r="AJ655" s="30"/>
     </row>
-    <row r="656" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="29"/>
       <c r="B656" s="29"/>
       <c r="C656" s="29"/>
@@ -24909,7 +24909,7 @@
       <c r="AI656" s="29"/>
       <c r="AJ656" s="30"/>
     </row>
-    <row r="657" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="29"/>
       <c r="B657" s="29"/>
       <c r="C657" s="29"/>
@@ -24947,7 +24947,7 @@
       <c r="AI657" s="29"/>
       <c r="AJ657" s="30"/>
     </row>
-    <row r="658" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="29"/>
       <c r="B658" s="29"/>
       <c r="C658" s="29"/>
@@ -24985,7 +24985,7 @@
       <c r="AI658" s="29"/>
       <c r="AJ658" s="30"/>
     </row>
-    <row r="659" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="29"/>
       <c r="B659" s="29"/>
       <c r="C659" s="29"/>
@@ -25023,7 +25023,7 @@
       <c r="AI659" s="29"/>
       <c r="AJ659" s="30"/>
     </row>
-    <row r="660" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="29"/>
       <c r="B660" s="29"/>
       <c r="C660" s="29"/>
@@ -25061,7 +25061,7 @@
       <c r="AI660" s="29"/>
       <c r="AJ660" s="30"/>
     </row>
-    <row r="661" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="29"/>
       <c r="B661" s="29"/>
       <c r="C661" s="29"/>
@@ -25099,7 +25099,7 @@
       <c r="AI661" s="29"/>
       <c r="AJ661" s="30"/>
     </row>
-    <row r="662" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="29"/>
       <c r="B662" s="29"/>
       <c r="C662" s="29"/>
@@ -25137,7 +25137,7 @@
       <c r="AI662" s="29"/>
       <c r="AJ662" s="30"/>
     </row>
-    <row r="663" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="29"/>
       <c r="B663" s="29"/>
       <c r="C663" s="29"/>
@@ -25175,7 +25175,7 @@
       <c r="AI663" s="29"/>
       <c r="AJ663" s="30"/>
     </row>
-    <row r="664" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="29"/>
       <c r="B664" s="29"/>
       <c r="C664" s="29"/>
@@ -25213,7 +25213,7 @@
       <c r="AI664" s="29"/>
       <c r="AJ664" s="30"/>
     </row>
-    <row r="665" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="29"/>
       <c r="B665" s="29"/>
       <c r="C665" s="29"/>
@@ -25251,7 +25251,7 @@
       <c r="AI665" s="29"/>
       <c r="AJ665" s="30"/>
     </row>
-    <row r="666" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="29"/>
       <c r="B666" s="29"/>
       <c r="C666" s="29"/>
@@ -25289,7 +25289,7 @@
       <c r="AI666" s="29"/>
       <c r="AJ666" s="30"/>
     </row>
-    <row r="667" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="29"/>
       <c r="B667" s="29"/>
       <c r="C667" s="29"/>
@@ -25327,7 +25327,7 @@
       <c r="AI667" s="29"/>
       <c r="AJ667" s="30"/>
     </row>
-    <row r="668" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="29"/>
       <c r="B668" s="29"/>
       <c r="C668" s="29"/>
@@ -25365,7 +25365,7 @@
       <c r="AI668" s="29"/>
       <c r="AJ668" s="30"/>
     </row>
-    <row r="669" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="29"/>
       <c r="B669" s="29"/>
       <c r="C669" s="29"/>
@@ -25403,7 +25403,7 @@
       <c r="AI669" s="29"/>
       <c r="AJ669" s="30"/>
     </row>
-    <row r="670" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="29"/>
       <c r="B670" s="29"/>
       <c r="C670" s="29"/>
@@ -25441,7 +25441,7 @@
       <c r="AI670" s="29"/>
       <c r="AJ670" s="30"/>
     </row>
-    <row r="671" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="29"/>
       <c r="B671" s="29"/>
       <c r="C671" s="29"/>
@@ -25479,7 +25479,7 @@
       <c r="AI671" s="29"/>
       <c r="AJ671" s="30"/>
     </row>
-    <row r="672" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="29"/>
       <c r="B672" s="29"/>
       <c r="C672" s="29"/>
@@ -25517,7 +25517,7 @@
       <c r="AI672" s="29"/>
       <c r="AJ672" s="30"/>
     </row>
-    <row r="673" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="29"/>
       <c r="B673" s="29"/>
       <c r="C673" s="29"/>
@@ -25555,7 +25555,7 @@
       <c r="AI673" s="29"/>
       <c r="AJ673" s="30"/>
     </row>
-    <row r="674" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="29"/>
       <c r="B674" s="29"/>
       <c r="C674" s="29"/>
@@ -25593,7 +25593,7 @@
       <c r="AI674" s="29"/>
       <c r="AJ674" s="30"/>
     </row>
-    <row r="675" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="29"/>
       <c r="B675" s="29"/>
       <c r="C675" s="29"/>
@@ -25631,7 +25631,7 @@
       <c r="AI675" s="29"/>
       <c r="AJ675" s="30"/>
     </row>
-    <row r="676" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="29"/>
       <c r="B676" s="29"/>
       <c r="C676" s="29"/>
@@ -25669,7 +25669,7 @@
       <c r="AI676" s="29"/>
       <c r="AJ676" s="30"/>
     </row>
-    <row r="677" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="29"/>
       <c r="B677" s="29"/>
       <c r="C677" s="29"/>
@@ -25707,7 +25707,7 @@
       <c r="AI677" s="29"/>
       <c r="AJ677" s="30"/>
     </row>
-    <row r="678" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="29"/>
       <c r="B678" s="29"/>
       <c r="C678" s="29"/>
@@ -25745,7 +25745,7 @@
       <c r="AI678" s="29"/>
       <c r="AJ678" s="30"/>
     </row>
-    <row r="679" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="29"/>
       <c r="B679" s="29"/>
       <c r="C679" s="29"/>
@@ -25783,7 +25783,7 @@
       <c r="AI679" s="29"/>
       <c r="AJ679" s="30"/>
     </row>
-    <row r="680" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="29"/>
       <c r="B680" s="29"/>
       <c r="C680" s="29"/>
@@ -25821,7 +25821,7 @@
       <c r="AI680" s="29"/>
       <c r="AJ680" s="30"/>
     </row>
-    <row r="681" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="29"/>
       <c r="B681" s="29"/>
       <c r="C681" s="29"/>
@@ -25859,7 +25859,7 @@
       <c r="AI681" s="29"/>
       <c r="AJ681" s="30"/>
     </row>
-    <row r="682" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="29"/>
       <c r="B682" s="29"/>
       <c r="C682" s="29"/>
@@ -25897,7 +25897,7 @@
       <c r="AI682" s="29"/>
       <c r="AJ682" s="30"/>
     </row>
-    <row r="683" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="29"/>
       <c r="B683" s="29"/>
       <c r="C683" s="29"/>
@@ -25935,7 +25935,7 @@
       <c r="AI683" s="29"/>
       <c r="AJ683" s="30"/>
     </row>
-    <row r="684" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="29"/>
       <c r="B684" s="29"/>
       <c r="C684" s="29"/>
@@ -25973,7 +25973,7 @@
       <c r="AI684" s="29"/>
       <c r="AJ684" s="30"/>
     </row>
-    <row r="685" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="29"/>
       <c r="B685" s="29"/>
       <c r="C685" s="29"/>
@@ -26011,7 +26011,7 @@
       <c r="AI685" s="29"/>
       <c r="AJ685" s="30"/>
     </row>
-    <row r="686" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="29"/>
       <c r="B686" s="29"/>
       <c r="C686" s="29"/>
@@ -26049,7 +26049,7 @@
       <c r="AI686" s="29"/>
       <c r="AJ686" s="30"/>
     </row>
-    <row r="687" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="29"/>
       <c r="B687" s="29"/>
       <c r="C687" s="29"/>
@@ -26087,7 +26087,7 @@
       <c r="AI687" s="29"/>
       <c r="AJ687" s="30"/>
     </row>
-    <row r="688" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="29"/>
       <c r="B688" s="29"/>
       <c r="C688" s="29"/>
@@ -26125,7 +26125,7 @@
       <c r="AI688" s="29"/>
       <c r="AJ688" s="30"/>
     </row>
-    <row r="689" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="29"/>
       <c r="B689" s="29"/>
       <c r="C689" s="29"/>
@@ -26163,7 +26163,7 @@
       <c r="AI689" s="29"/>
       <c r="AJ689" s="30"/>
     </row>
-    <row r="690" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="29"/>
       <c r="B690" s="29"/>
       <c r="C690" s="29"/>
@@ -26201,7 +26201,7 @@
       <c r="AI690" s="29"/>
       <c r="AJ690" s="30"/>
     </row>
-    <row r="691" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="29"/>
       <c r="B691" s="29"/>
       <c r="C691" s="29"/>
@@ -26239,7 +26239,7 @@
       <c r="AI691" s="29"/>
       <c r="AJ691" s="30"/>
     </row>
-    <row r="692" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="29"/>
       <c r="B692" s="29"/>
       <c r="C692" s="29"/>
@@ -26277,7 +26277,7 @@
       <c r="AI692" s="29"/>
       <c r="AJ692" s="30"/>
     </row>
-    <row r="693" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="29"/>
       <c r="B693" s="29"/>
       <c r="C693" s="29"/>
@@ -26315,7 +26315,7 @@
       <c r="AI693" s="29"/>
       <c r="AJ693" s="30"/>
     </row>
-    <row r="694" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="29"/>
       <c r="B694" s="29"/>
       <c r="C694" s="29"/>
@@ -26353,7 +26353,7 @@
       <c r="AI694" s="29"/>
       <c r="AJ694" s="30"/>
     </row>
-    <row r="695" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="29"/>
       <c r="B695" s="29"/>
       <c r="C695" s="29"/>
@@ -26391,7 +26391,7 @@
       <c r="AI695" s="29"/>
       <c r="AJ695" s="30"/>
     </row>
-    <row r="696" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="29"/>
       <c r="B696" s="29"/>
       <c r="C696" s="29"/>
@@ -26429,7 +26429,7 @@
       <c r="AI696" s="29"/>
       <c r="AJ696" s="30"/>
     </row>
-    <row r="697" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="29"/>
       <c r="B697" s="29"/>
       <c r="C697" s="29"/>
@@ -26467,7 +26467,7 @@
       <c r="AI697" s="29"/>
       <c r="AJ697" s="30"/>
     </row>
-    <row r="698" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="29"/>
       <c r="B698" s="29"/>
       <c r="C698" s="29"/>
@@ -26505,7 +26505,7 @@
       <c r="AI698" s="29"/>
       <c r="AJ698" s="30"/>
     </row>
-    <row r="699" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="29"/>
       <c r="B699" s="29"/>
       <c r="C699" s="29"/>
@@ -26543,7 +26543,7 @@
       <c r="AI699" s="29"/>
       <c r="AJ699" s="30"/>
     </row>
-    <row r="700" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="29"/>
       <c r="B700" s="29"/>
       <c r="C700" s="29"/>
@@ -26581,7 +26581,7 @@
       <c r="AI700" s="29"/>
       <c r="AJ700" s="30"/>
     </row>
-    <row r="701" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="29"/>
       <c r="B701" s="29"/>
       <c r="C701" s="29"/>
@@ -26619,7 +26619,7 @@
       <c r="AI701" s="29"/>
       <c r="AJ701" s="30"/>
     </row>
-    <row r="702" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="29"/>
       <c r="B702" s="29"/>
       <c r="C702" s="29"/>
@@ -26657,7 +26657,7 @@
       <c r="AI702" s="29"/>
       <c r="AJ702" s="30"/>
     </row>
-    <row r="703" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="29"/>
       <c r="B703" s="29"/>
       <c r="C703" s="29"/>
@@ -26695,7 +26695,7 @@
       <c r="AI703" s="29"/>
       <c r="AJ703" s="30"/>
     </row>
-    <row r="704" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="29"/>
       <c r="B704" s="29"/>
       <c r="C704" s="29"/>
@@ -26733,7 +26733,7 @@
       <c r="AI704" s="29"/>
       <c r="AJ704" s="30"/>
     </row>
-    <row r="705" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="29"/>
       <c r="B705" s="29"/>
       <c r="C705" s="29"/>
@@ -26771,7 +26771,7 @@
       <c r="AI705" s="29"/>
       <c r="AJ705" s="30"/>
     </row>
-    <row r="706" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="29"/>
       <c r="B706" s="29"/>
       <c r="C706" s="29"/>
@@ -26809,7 +26809,7 @@
       <c r="AI706" s="29"/>
       <c r="AJ706" s="30"/>
     </row>
-    <row r="707" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="29"/>
       <c r="B707" s="29"/>
       <c r="C707" s="29"/>
@@ -26847,7 +26847,7 @@
       <c r="AI707" s="29"/>
       <c r="AJ707" s="30"/>
     </row>
-    <row r="708" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="29"/>
       <c r="B708" s="29"/>
       <c r="C708" s="29"/>
@@ -26885,7 +26885,7 @@
       <c r="AI708" s="29"/>
       <c r="AJ708" s="30"/>
     </row>
-    <row r="709" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="29"/>
       <c r="B709" s="29"/>
       <c r="C709" s="29"/>
@@ -26923,7 +26923,7 @@
       <c r="AI709" s="29"/>
       <c r="AJ709" s="30"/>
     </row>
-    <row r="710" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="29"/>
       <c r="B710" s="29"/>
       <c r="C710" s="29"/>
@@ -26961,7 +26961,7 @@
       <c r="AI710" s="29"/>
       <c r="AJ710" s="30"/>
     </row>
-    <row r="711" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="29"/>
       <c r="B711" s="29"/>
       <c r="C711" s="29"/>
@@ -26999,7 +26999,7 @@
       <c r="AI711" s="29"/>
       <c r="AJ711" s="30"/>
     </row>
-    <row r="712" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="29"/>
       <c r="B712" s="29"/>
       <c r="C712" s="29"/>
@@ -27037,7 +27037,7 @@
       <c r="AI712" s="29"/>
       <c r="AJ712" s="30"/>
     </row>
-    <row r="713" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="29"/>
       <c r="B713" s="29"/>
       <c r="C713" s="29"/>
@@ -27075,7 +27075,7 @@
       <c r="AI713" s="29"/>
       <c r="AJ713" s="30"/>
     </row>
-    <row r="714" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="29"/>
       <c r="B714" s="29"/>
       <c r="C714" s="29"/>
@@ -27113,7 +27113,7 @@
       <c r="AI714" s="29"/>
       <c r="AJ714" s="30"/>
     </row>
-    <row r="715" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="29"/>
       <c r="B715" s="29"/>
       <c r="C715" s="29"/>
@@ -27151,7 +27151,7 @@
       <c r="AI715" s="29"/>
       <c r="AJ715" s="30"/>
     </row>
-    <row r="716" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="29"/>
       <c r="B716" s="29"/>
       <c r="C716" s="29"/>
@@ -27189,7 +27189,7 @@
       <c r="AI716" s="29"/>
       <c r="AJ716" s="30"/>
     </row>
-    <row r="717" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="29"/>
       <c r="B717" s="29"/>
       <c r="C717" s="29"/>
@@ -27227,7 +27227,7 @@
       <c r="AI717" s="29"/>
       <c r="AJ717" s="30"/>
     </row>
-    <row r="718" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="29"/>
       <c r="B718" s="29"/>
       <c r="C718" s="29"/>
@@ -27265,7 +27265,7 @@
       <c r="AI718" s="29"/>
       <c r="AJ718" s="30"/>
     </row>
-    <row r="719" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="29"/>
       <c r="B719" s="29"/>
       <c r="C719" s="29"/>
@@ -27303,7 +27303,7 @@
       <c r="AI719" s="29"/>
       <c r="AJ719" s="30"/>
     </row>
-    <row r="720" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="29"/>
       <c r="B720" s="29"/>
       <c r="C720" s="29"/>
@@ -27341,7 +27341,7 @@
       <c r="AI720" s="29"/>
       <c r="AJ720" s="30"/>
     </row>
-    <row r="721" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="29"/>
       <c r="B721" s="29"/>
       <c r="C721" s="29"/>
@@ -27379,7 +27379,7 @@
       <c r="AI721" s="29"/>
       <c r="AJ721" s="30"/>
     </row>
-    <row r="722" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="29"/>
       <c r="B722" s="29"/>
       <c r="C722" s="29"/>
@@ -27417,7 +27417,7 @@
       <c r="AI722" s="29"/>
       <c r="AJ722" s="30"/>
     </row>
-    <row r="723" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="29"/>
       <c r="B723" s="29"/>
       <c r="C723" s="29"/>
@@ -27455,7 +27455,7 @@
       <c r="AI723" s="29"/>
       <c r="AJ723" s="30"/>
     </row>
-    <row r="724" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="29"/>
       <c r="B724" s="29"/>
       <c r="C724" s="29"/>
@@ -27493,7 +27493,7 @@
       <c r="AI724" s="29"/>
       <c r="AJ724" s="30"/>
     </row>
-    <row r="725" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="29"/>
       <c r="B725" s="29"/>
       <c r="C725" s="29"/>
@@ -27531,7 +27531,7 @@
       <c r="AI725" s="29"/>
       <c r="AJ725" s="30"/>
     </row>
-    <row r="726" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="29"/>
       <c r="B726" s="29"/>
       <c r="C726" s="29"/>
@@ -27569,7 +27569,7 @@
       <c r="AI726" s="29"/>
       <c r="AJ726" s="30"/>
     </row>
-    <row r="727" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="29"/>
       <c r="B727" s="29"/>
       <c r="C727" s="29"/>
@@ -27607,7 +27607,7 @@
       <c r="AI727" s="29"/>
       <c r="AJ727" s="30"/>
     </row>
-    <row r="728" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="29"/>
       <c r="B728" s="29"/>
       <c r="C728" s="29"/>
@@ -27645,7 +27645,7 @@
       <c r="AI728" s="29"/>
       <c r="AJ728" s="30"/>
     </row>
-    <row r="729" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="29"/>
       <c r="B729" s="29"/>
       <c r="C729" s="29"/>
@@ -27683,7 +27683,7 @@
       <c r="AI729" s="29"/>
       <c r="AJ729" s="30"/>
     </row>
-    <row r="730" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="29"/>
       <c r="B730" s="29"/>
       <c r="C730" s="29"/>
@@ -27721,7 +27721,7 @@
       <c r="AI730" s="29"/>
       <c r="AJ730" s="30"/>
     </row>
-    <row r="731" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="29"/>
       <c r="B731" s="29"/>
       <c r="C731" s="29"/>
@@ -27759,7 +27759,7 @@
       <c r="AI731" s="29"/>
       <c r="AJ731" s="30"/>
     </row>
-    <row r="732" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="29"/>
       <c r="B732" s="29"/>
       <c r="C732" s="29"/>
@@ -27797,7 +27797,7 @@
       <c r="AI732" s="29"/>
       <c r="AJ732" s="30"/>
     </row>
-    <row r="733" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="29"/>
       <c r="B733" s="29"/>
       <c r="C733" s="29"/>
@@ -27835,7 +27835,7 @@
       <c r="AI733" s="29"/>
       <c r="AJ733" s="30"/>
     </row>
-    <row r="734" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="29"/>
       <c r="B734" s="29"/>
       <c r="C734" s="29"/>
@@ -27873,7 +27873,7 @@
       <c r="AI734" s="29"/>
       <c r="AJ734" s="30"/>
     </row>
-    <row r="735" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="29"/>
       <c r="B735" s="29"/>
       <c r="C735" s="29"/>
@@ -27911,7 +27911,7 @@
       <c r="AI735" s="29"/>
       <c r="AJ735" s="30"/>
     </row>
-    <row r="736" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="29"/>
       <c r="B736" s="29"/>
       <c r="C736" s="29"/>
@@ -27949,7 +27949,7 @@
       <c r="AI736" s="29"/>
       <c r="AJ736" s="30"/>
     </row>
-    <row r="737" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="29"/>
       <c r="B737" s="29"/>
       <c r="C737" s="29"/>
@@ -27987,7 +27987,7 @@
       <c r="AI737" s="29"/>
       <c r="AJ737" s="30"/>
     </row>
-    <row r="738" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="29"/>
       <c r="B738" s="29"/>
       <c r="C738" s="29"/>
@@ -28025,7 +28025,7 @@
       <c r="AI738" s="29"/>
       <c r="AJ738" s="30"/>
     </row>
-    <row r="739" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="29"/>
       <c r="B739" s="29"/>
       <c r="C739" s="29"/>
@@ -28063,7 +28063,7 @@
       <c r="AI739" s="29"/>
       <c r="AJ739" s="30"/>
     </row>
-    <row r="740" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="29"/>
       <c r="B740" s="29"/>
       <c r="C740" s="29"/>
@@ -28101,7 +28101,7 @@
       <c r="AI740" s="29"/>
       <c r="AJ740" s="30"/>
     </row>
-    <row r="741" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="29"/>
       <c r="B741" s="29"/>
       <c r="C741" s="29"/>
@@ -28139,7 +28139,7 @@
       <c r="AI741" s="29"/>
       <c r="AJ741" s="30"/>
     </row>
-    <row r="742" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="29"/>
       <c r="B742" s="29"/>
       <c r="C742" s="29"/>
@@ -28177,7 +28177,7 @@
       <c r="AI742" s="29"/>
       <c r="AJ742" s="30"/>
     </row>
-    <row r="743" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="29"/>
       <c r="B743" s="29"/>
       <c r="C743" s="29"/>
@@ -28215,7 +28215,7 @@
       <c r="AI743" s="29"/>
       <c r="AJ743" s="30"/>
     </row>
-    <row r="744" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="29"/>
       <c r="B744" s="29"/>
       <c r="C744" s="29"/>
@@ -28253,7 +28253,7 @@
       <c r="AI744" s="29"/>
       <c r="AJ744" s="30"/>
     </row>
-    <row r="745" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="29"/>
       <c r="B745" s="29"/>
       <c r="C745" s="29"/>
@@ -28291,7 +28291,7 @@
       <c r="AI745" s="29"/>
       <c r="AJ745" s="30"/>
     </row>
-    <row r="746" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="29"/>
       <c r="B746" s="29"/>
       <c r="C746" s="29"/>
@@ -28329,7 +28329,7 @@
       <c r="AI746" s="29"/>
       <c r="AJ746" s="30"/>
     </row>
-    <row r="747" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="29"/>
       <c r="B747" s="29"/>
       <c r="C747" s="29"/>
@@ -28367,7 +28367,7 @@
       <c r="AI747" s="29"/>
       <c r="AJ747" s="30"/>
     </row>
-    <row r="748" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="29"/>
       <c r="B748" s="29"/>
       <c r="C748" s="29"/>
@@ -28405,7 +28405,7 @@
       <c r="AI748" s="29"/>
       <c r="AJ748" s="30"/>
     </row>
-    <row r="749" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="29"/>
       <c r="B749" s="29"/>
       <c r="C749" s="29"/>
@@ -28443,7 +28443,7 @@
       <c r="AI749" s="29"/>
       <c r="AJ749" s="30"/>
     </row>
-    <row r="750" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="29"/>
       <c r="B750" s="29"/>
       <c r="C750" s="29"/>
@@ -28481,7 +28481,7 @@
       <c r="AI750" s="29"/>
       <c r="AJ750" s="30"/>
     </row>
-    <row r="751" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="29"/>
       <c r="B751" s="29"/>
       <c r="C751" s="29"/>
@@ -28519,7 +28519,7 @@
       <c r="AI751" s="29"/>
       <c r="AJ751" s="30"/>
     </row>
-    <row r="752" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="29"/>
       <c r="B752" s="29"/>
       <c r="C752" s="29"/>
@@ -28557,7 +28557,7 @@
       <c r="AI752" s="29"/>
       <c r="AJ752" s="30"/>
     </row>
-    <row r="753" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="29"/>
       <c r="B753" s="29"/>
       <c r="C753" s="29"/>
@@ -28595,7 +28595,7 @@
       <c r="AI753" s="29"/>
       <c r="AJ753" s="30"/>
     </row>
-    <row r="754" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="29"/>
       <c r="B754" s="29"/>
       <c r="C754" s="29"/>
@@ -28633,7 +28633,7 @@
       <c r="AI754" s="29"/>
       <c r="AJ754" s="30"/>
     </row>
-    <row r="755" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="29"/>
       <c r="B755" s="29"/>
       <c r="C755" s="29"/>
@@ -28671,7 +28671,7 @@
       <c r="AI755" s="29"/>
       <c r="AJ755" s="30"/>
     </row>
-    <row r="756" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="29"/>
       <c r="B756" s="29"/>
       <c r="C756" s="29"/>
@@ -28709,7 +28709,7 @@
       <c r="AI756" s="29"/>
       <c r="AJ756" s="30"/>
     </row>
-    <row r="757" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="29"/>
       <c r="B757" s="29"/>
       <c r="C757" s="29"/>
@@ -28747,7 +28747,7 @@
       <c r="AI757" s="29"/>
       <c r="AJ757" s="30"/>
     </row>
-    <row r="758" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="29"/>
       <c r="B758" s="29"/>
       <c r="C758" s="29"/>
@@ -28785,7 +28785,7 @@
       <c r="AI758" s="29"/>
       <c r="AJ758" s="30"/>
     </row>
-    <row r="759" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="29"/>
       <c r="B759" s="29"/>
       <c r="C759" s="29"/>
@@ -28823,7 +28823,7 @@
       <c r="AI759" s="29"/>
       <c r="AJ759" s="30"/>
     </row>
-    <row r="760" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="29"/>
       <c r="B760" s="29"/>
       <c r="C760" s="29"/>
@@ -28861,7 +28861,7 @@
       <c r="AI760" s="29"/>
       <c r="AJ760" s="30"/>
     </row>
-    <row r="761" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="29"/>
       <c r="B761" s="29"/>
       <c r="C761" s="29"/>
@@ -28899,7 +28899,7 @@
       <c r="AI761" s="29"/>
       <c r="AJ761" s="30"/>
     </row>
-    <row r="762" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="29"/>
       <c r="B762" s="29"/>
       <c r="C762" s="29"/>
@@ -28937,7 +28937,7 @@
       <c r="AI762" s="29"/>
       <c r="AJ762" s="30"/>
     </row>
-    <row r="763" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="29"/>
       <c r="B763" s="29"/>
       <c r="C763" s="29"/>
@@ -28975,7 +28975,7 @@
       <c r="AI763" s="29"/>
       <c r="AJ763" s="30"/>
     </row>
-    <row r="764" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="29"/>
       <c r="B764" s="29"/>
       <c r="C764" s="29"/>
@@ -29013,7 +29013,7 @@
       <c r="AI764" s="29"/>
       <c r="AJ764" s="30"/>
     </row>
-    <row r="765" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="29"/>
       <c r="B765" s="29"/>
       <c r="C765" s="29"/>
@@ -29051,7 +29051,7 @@
       <c r="AI765" s="29"/>
       <c r="AJ765" s="30"/>
     </row>
-    <row r="766" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="29"/>
       <c r="B766" s="29"/>
       <c r="C766" s="29"/>
@@ -29089,7 +29089,7 @@
       <c r="AI766" s="29"/>
       <c r="AJ766" s="30"/>
     </row>
-    <row r="767" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="29"/>
       <c r="B767" s="29"/>
       <c r="C767" s="29"/>
@@ -29127,7 +29127,7 @@
       <c r="AI767" s="29"/>
       <c r="AJ767" s="30"/>
     </row>
-    <row r="768" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="29"/>
       <c r="B768" s="29"/>
       <c r="C768" s="29"/>
@@ -29165,7 +29165,7 @@
       <c r="AI768" s="29"/>
       <c r="AJ768" s="30"/>
     </row>
-    <row r="769" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="29"/>
       <c r="B769" s="29"/>
       <c r="C769" s="29"/>
@@ -29203,7 +29203,7 @@
       <c r="AI769" s="29"/>
       <c r="AJ769" s="30"/>
     </row>
-    <row r="770" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="29"/>
       <c r="B770" s="29"/>
       <c r="C770" s="29"/>
@@ -29241,7 +29241,7 @@
       <c r="AI770" s="29"/>
       <c r="AJ770" s="30"/>
     </row>
-    <row r="771" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="29"/>
       <c r="B771" s="29"/>
       <c r="C771" s="29"/>
@@ -29279,7 +29279,7 @@
       <c r="AI771" s="29"/>
       <c r="AJ771" s="30"/>
     </row>
-    <row r="772" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="29"/>
       <c r="B772" s="29"/>
       <c r="C772" s="29"/>
@@ -29317,7 +29317,7 @@
       <c r="AI772" s="29"/>
       <c r="AJ772" s="30"/>
     </row>
-    <row r="773" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="29"/>
       <c r="B773" s="29"/>
       <c r="C773" s="29"/>
@@ -29355,7 +29355,7 @@
       <c r="AI773" s="29"/>
       <c r="AJ773" s="30"/>
     </row>
-    <row r="774" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="29"/>
       <c r="B774" s="29"/>
       <c r="C774" s="29"/>
@@ -29393,7 +29393,7 @@
       <c r="AI774" s="29"/>
       <c r="AJ774" s="30"/>
     </row>
-    <row r="775" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="29"/>
       <c r="B775" s="29"/>
       <c r="C775" s="29"/>
@@ -29431,7 +29431,7 @@
       <c r="AI775" s="29"/>
       <c r="AJ775" s="30"/>
     </row>
-    <row r="776" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="29"/>
       <c r="B776" s="29"/>
       <c r="C776" s="29"/>
@@ -29469,7 +29469,7 @@
       <c r="AI776" s="29"/>
       <c r="AJ776" s="30"/>
     </row>
-    <row r="777" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="29"/>
       <c r="B777" s="29"/>
       <c r="C777" s="29"/>
@@ -29507,7 +29507,7 @@
       <c r="AI777" s="29"/>
       <c r="AJ777" s="30"/>
     </row>
-    <row r="778" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="29"/>
       <c r="B778" s="29"/>
       <c r="C778" s="29"/>
@@ -29545,7 +29545,7 @@
       <c r="AI778" s="29"/>
       <c r="AJ778" s="30"/>
     </row>
-    <row r="779" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="29"/>
       <c r="B779" s="29"/>
       <c r="C779" s="29"/>
@@ -29583,7 +29583,7 @@
       <c r="AI779" s="29"/>
       <c r="AJ779" s="30"/>
     </row>
-    <row r="780" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="29"/>
       <c r="B780" s="29"/>
       <c r="C780" s="29"/>
@@ -29621,7 +29621,7 @@
       <c r="AI780" s="29"/>
       <c r="AJ780" s="30"/>
     </row>
-    <row r="781" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="29"/>
       <c r="B781" s="29"/>
       <c r="C781" s="29"/>
@@ -29659,7 +29659,7 @@
       <c r="AI781" s="29"/>
       <c r="AJ781" s="30"/>
     </row>
-    <row r="782" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="29"/>
       <c r="B782" s="29"/>
       <c r="C782" s="29"/>
@@ -29697,7 +29697,7 @@
       <c r="AI782" s="29"/>
       <c r="AJ782" s="30"/>
     </row>
-    <row r="783" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="29"/>
       <c r="B783" s="29"/>
       <c r="C783" s="29"/>
@@ -29735,7 +29735,7 @@
       <c r="AI783" s="29"/>
       <c r="AJ783" s="30"/>
     </row>
-    <row r="784" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="29"/>
       <c r="B784" s="29"/>
       <c r="C784" s="29"/>
@@ -29773,7 +29773,7 @@
       <c r="AI784" s="29"/>
       <c r="AJ784" s="30"/>
     </row>
-    <row r="785" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="29"/>
       <c r="B785" s="29"/>
       <c r="C785" s="29"/>
@@ -29811,7 +29811,7 @@
       <c r="AI785" s="29"/>
       <c r="AJ785" s="30"/>
     </row>
-    <row r="786" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="29"/>
       <c r="B786" s="29"/>
       <c r="C786" s="29"/>
@@ -29849,7 +29849,7 @@
       <c r="AI786" s="29"/>
       <c r="AJ786" s="30"/>
     </row>
-    <row r="787" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="29"/>
       <c r="B787" s="29"/>
       <c r="C787" s="29"/>
@@ -29887,7 +29887,7 @@
       <c r="AI787" s="29"/>
       <c r="AJ787" s="30"/>
     </row>
-    <row r="788" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="29"/>
       <c r="B788" s="29"/>
       <c r="C788" s="29"/>
@@ -29925,7 +29925,7 @@
       <c r="AI788" s="29"/>
       <c r="AJ788" s="30"/>
     </row>
-    <row r="789" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="29"/>
       <c r="B789" s="29"/>
       <c r="C789" s="29"/>
@@ -29963,7 +29963,7 @@
       <c r="AI789" s="29"/>
       <c r="AJ789" s="30"/>
     </row>
-    <row r="790" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="29"/>
       <c r="B790" s="29"/>
       <c r="C790" s="29"/>
@@ -30001,7 +30001,7 @@
       <c r="AI790" s="29"/>
       <c r="AJ790" s="30"/>
     </row>
-    <row r="791" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="29"/>
       <c r="B791" s="29"/>
       <c r="C791" s="29"/>
@@ -30039,7 +30039,7 @@
       <c r="AI791" s="29"/>
       <c r="AJ791" s="30"/>
     </row>
-    <row r="792" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="29"/>
       <c r="B792" s="29"/>
       <c r="C792" s="29"/>
@@ -30077,7 +30077,7 @@
       <c r="AI792" s="29"/>
       <c r="AJ792" s="30"/>
     </row>
-    <row r="793" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="29"/>
       <c r="B793" s="29"/>
       <c r="C793" s="29"/>
@@ -30115,7 +30115,7 @@
       <c r="AI793" s="29"/>
       <c r="AJ793" s="30"/>
     </row>
-    <row r="794" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="29"/>
       <c r="B794" s="29"/>
       <c r="C794" s="29"/>
@@ -30153,7 +30153,7 @@
       <c r="AI794" s="29"/>
       <c r="AJ794" s="30"/>
     </row>
-    <row r="795" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="29"/>
       <c r="B795" s="29"/>
       <c r="C795" s="29"/>
@@ -30191,7 +30191,7 @@
       <c r="AI795" s="29"/>
       <c r="AJ795" s="30"/>
     </row>
-    <row r="796" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="29"/>
       <c r="B796" s="29"/>
       <c r="C796" s="29"/>
@@ -30229,7 +30229,7 @@
       <c r="AI796" s="29"/>
       <c r="AJ796" s="30"/>
     </row>
-    <row r="797" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="29"/>
       <c r="B797" s="29"/>
       <c r="C797" s="29"/>
@@ -30267,7 +30267,7 @@
       <c r="AI797" s="29"/>
       <c r="AJ797" s="30"/>
     </row>
-    <row r="798" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="29"/>
       <c r="B798" s="29"/>
       <c r="C798" s="29"/>
@@ -30305,7 +30305,7 @@
       <c r="AI798" s="29"/>
       <c r="AJ798" s="30"/>
     </row>
-    <row r="799" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="29"/>
       <c r="B799" s="29"/>
       <c r="C799" s="29"/>
@@ -30343,7 +30343,7 @@
       <c r="AI799" s="29"/>
       <c r="AJ799" s="30"/>
     </row>
-    <row r="800" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="29"/>
       <c r="B800" s="29"/>
       <c r="C800" s="29"/>
@@ -30381,7 +30381,7 @@
       <c r="AI800" s="29"/>
       <c r="AJ800" s="30"/>
     </row>
-    <row r="801" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="29"/>
       <c r="B801" s="29"/>
       <c r="C801" s="29"/>
@@ -30419,7 +30419,7 @@
       <c r="AI801" s="29"/>
       <c r="AJ801" s="30"/>
     </row>
-    <row r="802" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="29"/>
       <c r="B802" s="29"/>
       <c r="C802" s="29"/>
@@ -30457,7 +30457,7 @@
       <c r="AI802" s="29"/>
       <c r="AJ802" s="30"/>
     </row>
-    <row r="803" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="29"/>
       <c r="B803" s="29"/>
       <c r="C803" s="29"/>
@@ -30495,7 +30495,7 @@
       <c r="AI803" s="29"/>
       <c r="AJ803" s="30"/>
     </row>
-    <row r="804" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="29"/>
       <c r="B804" s="29"/>
       <c r="C804" s="29"/>
@@ -30533,7 +30533,7 @@
       <c r="AI804" s="29"/>
       <c r="AJ804" s="30"/>
     </row>
-    <row r="805" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="29"/>
       <c r="B805" s="29"/>
       <c r="C805" s="29"/>
@@ -30571,7 +30571,7 @@
       <c r="AI805" s="29"/>
       <c r="AJ805" s="30"/>
     </row>
-    <row r="806" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="29"/>
       <c r="B806" s="29"/>
       <c r="C806" s="29"/>
@@ -30609,7 +30609,7 @@
       <c r="AI806" s="29"/>
       <c r="AJ806" s="30"/>
     </row>
-    <row r="807" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="29"/>
       <c r="B807" s="29"/>
       <c r="C807" s="29"/>
@@ -30647,7 +30647,7 @@
       <c r="AI807" s="29"/>
       <c r="AJ807" s="30"/>
     </row>
-    <row r="808" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="29"/>
       <c r="B808" s="29"/>
       <c r="C808" s="29"/>
@@ -30685,7 +30685,7 @@
       <c r="AI808" s="29"/>
       <c r="AJ808" s="30"/>
     </row>
-    <row r="809" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="29"/>
       <c r="B809" s="29"/>
       <c r="C809" s="29"/>
@@ -30723,7 +30723,7 @@
       <c r="AI809" s="29"/>
       <c r="AJ809" s="30"/>
     </row>
-    <row r="810" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="29"/>
       <c r="B810" s="29"/>
       <c r="C810" s="29"/>
@@ -30761,7 +30761,7 @@
       <c r="AI810" s="29"/>
       <c r="AJ810" s="30"/>
     </row>
-    <row r="811" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="29"/>
       <c r="B811" s="29"/>
       <c r="C811" s="29"/>
@@ -30799,7 +30799,7 @@
       <c r="AI811" s="29"/>
       <c r="AJ811" s="30"/>
     </row>
-    <row r="812" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="29"/>
       <c r="B812" s="29"/>
       <c r="C812" s="29"/>
@@ -30837,7 +30837,7 @@
       <c r="AI812" s="29"/>
       <c r="AJ812" s="30"/>
     </row>
-    <row r="813" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="29"/>
       <c r="B813" s="29"/>
       <c r="C813" s="29"/>
@@ -30875,7 +30875,7 @@
       <c r="AI813" s="29"/>
       <c r="AJ813" s="30"/>
     </row>
-    <row r="814" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="29"/>
       <c r="B814" s="29"/>
       <c r="C814" s="29"/>
@@ -30913,7 +30913,7 @@
       <c r="AI814" s="29"/>
       <c r="AJ814" s="30"/>
     </row>
-    <row r="815" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="29"/>
       <c r="B815" s="29"/>
       <c r="C815" s="29"/>
@@ -30951,7 +30951,7 @@
       <c r="AI815" s="29"/>
       <c r="AJ815" s="30"/>
     </row>
-    <row r="816" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="29"/>
       <c r="B816" s="29"/>
       <c r="C816" s="29"/>
@@ -30989,7 +30989,7 @@
       <c r="AI816" s="29"/>
       <c r="AJ816" s="30"/>
     </row>
-    <row r="817" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="29"/>
       <c r="B817" s="29"/>
       <c r="C817" s="29"/>
@@ -31027,7 +31027,7 @@
       <c r="AI817" s="29"/>
       <c r="AJ817" s="30"/>
     </row>
-    <row r="818" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="29"/>
       <c r="B818" s="29"/>
       <c r="C818" s="29"/>
@@ -31065,7 +31065,7 @@
       <c r="AI818" s="29"/>
       <c r="AJ818" s="30"/>
     </row>
-    <row r="819" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="29"/>
       <c r="B819" s="29"/>
       <c r="C819" s="29"/>
@@ -31103,7 +31103,7 @@
       <c r="AI819" s="29"/>
       <c r="AJ819" s="30"/>
     </row>
-    <row r="820" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="29"/>
       <c r="B820" s="29"/>
       <c r="C820" s="29"/>
@@ -31141,7 +31141,7 @@
       <c r="AI820" s="29"/>
       <c r="AJ820" s="30"/>
     </row>
-    <row r="821" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="29"/>
       <c r="B821" s="29"/>
       <c r="C821" s="29"/>
@@ -31179,7 +31179,7 @@
       <c r="AI821" s="29"/>
       <c r="AJ821" s="30"/>
     </row>
-    <row r="822" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="29"/>
       <c r="B822" s="29"/>
       <c r="C822" s="29"/>
@@ -31217,7 +31217,7 @@
       <c r="AI822" s="29"/>
       <c r="AJ822" s="30"/>
     </row>
-    <row r="823" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="29"/>
       <c r="B823" s="29"/>
       <c r="C823" s="29"/>
@@ -31255,7 +31255,7 @@
       <c r="AI823" s="29"/>
       <c r="AJ823" s="30"/>
     </row>
-    <row r="824" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="29"/>
       <c r="B824" s="29"/>
       <c r="C824" s="29"/>
@@ -31293,7 +31293,7 @@
       <c r="AI824" s="29"/>
       <c r="AJ824" s="30"/>
     </row>
-    <row r="825" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="29"/>
       <c r="B825" s="29"/>
       <c r="C825" s="29"/>
@@ -31331,7 +31331,7 @@
       <c r="AI825" s="29"/>
       <c r="AJ825" s="30"/>
     </row>
-    <row r="826" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="29"/>
       <c r="B826" s="29"/>
       <c r="C826" s="29"/>
@@ -31369,7 +31369,7 @@
       <c r="AI826" s="29"/>
       <c r="AJ826" s="30"/>
     </row>
-    <row r="827" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="29"/>
       <c r="B827" s="29"/>
       <c r="C827" s="29"/>
@@ -31407,7 +31407,7 @@
       <c r="AI827" s="29"/>
       <c r="AJ827" s="30"/>
     </row>
-    <row r="828" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="29"/>
       <c r="B828" s="29"/>
       <c r="C828" s="29"/>
@@ -31445,7 +31445,7 @@
       <c r="AI828" s="29"/>
       <c r="AJ828" s="30"/>
     </row>
-    <row r="829" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="29"/>
       <c r="B829" s="29"/>
       <c r="C829" s="29"/>
@@ -31483,7 +31483,7 @@
       <c r="AI829" s="29"/>
       <c r="AJ829" s="30"/>
     </row>
-    <row r="830" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="29"/>
       <c r="B830" s="29"/>
       <c r="C830" s="29"/>
@@ -31521,7 +31521,7 @@
       <c r="AI830" s="29"/>
       <c r="AJ830" s="30"/>
     </row>
-    <row r="831" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="29"/>
       <c r="B831" s="29"/>
       <c r="C831" s="29"/>
@@ -31559,7 +31559,7 @@
       <c r="AI831" s="29"/>
       <c r="AJ831" s="30"/>
     </row>
-    <row r="832" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="29"/>
       <c r="B832" s="29"/>
       <c r="C832" s="29"/>
@@ -31597,7 +31597,7 @@
       <c r="AI832" s="29"/>
       <c r="AJ832" s="30"/>
     </row>
-    <row r="833" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="29"/>
       <c r="B833" s="29"/>
       <c r="C833" s="29"/>
@@ -31635,7 +31635,7 @@
       <c r="AI833" s="29"/>
       <c r="AJ833" s="30"/>
     </row>
-    <row r="834" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="29"/>
       <c r="B834" s="29"/>
       <c r="C834" s="29"/>
@@ -31673,7 +31673,7 @@
       <c r="AI834" s="29"/>
       <c r="AJ834" s="30"/>
     </row>
-    <row r="835" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="29"/>
       <c r="B835" s="29"/>
       <c r="C835" s="29"/>
@@ -31711,7 +31711,7 @@
       <c r="AI835" s="29"/>
       <c r="AJ835" s="30"/>
     </row>
-    <row r="836" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="29"/>
       <c r="B836" s="29"/>
       <c r="C836" s="29"/>
@@ -31749,7 +31749,7 @@
       <c r="AI836" s="29"/>
       <c r="AJ836" s="30"/>
     </row>
-    <row r="837" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="29"/>
       <c r="B837" s="29"/>
       <c r="C837" s="29"/>
@@ -31787,7 +31787,7 @@
       <c r="AI837" s="29"/>
       <c r="AJ837" s="30"/>
     </row>
-    <row r="838" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="29"/>
       <c r="B838" s="29"/>
       <c r="C838" s="29"/>
@@ -31825,7 +31825,7 @@
       <c r="AI838" s="29"/>
       <c r="AJ838" s="30"/>
     </row>
-    <row r="839" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="29"/>
       <c r="B839" s="29"/>
       <c r="C839" s="29"/>
@@ -31863,7 +31863,7 @@
       <c r="AI839" s="29"/>
       <c r="AJ839" s="30"/>
     </row>
-    <row r="840" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="29"/>
       <c r="B840" s="29"/>
       <c r="C840" s="29"/>
@@ -31901,7 +31901,7 @@
       <c r="AI840" s="29"/>
       <c r="AJ840" s="30"/>
     </row>
-    <row r="841" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="29"/>
       <c r="B841" s="29"/>
       <c r="C841" s="29"/>
@@ -31939,7 +31939,7 @@
       <c r="AI841" s="29"/>
       <c r="AJ841" s="30"/>
     </row>
-    <row r="842" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="29"/>
       <c r="B842" s="29"/>
       <c r="C842" s="29"/>
@@ -31977,7 +31977,7 @@
       <c r="AI842" s="29"/>
       <c r="AJ842" s="30"/>
     </row>
-    <row r="843" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="29"/>
       <c r="B843" s="29"/>
       <c r="C843" s="29"/>
@@ -32015,7 +32015,7 @@
       <c r="AI843" s="29"/>
       <c r="AJ843" s="30"/>
     </row>
-    <row r="844" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="29"/>
       <c r="B844" s="29"/>
       <c r="C844" s="29"/>
@@ -32053,7 +32053,7 @@
       <c r="AI844" s="29"/>
       <c r="AJ844" s="30"/>
     </row>
-    <row r="845" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="29"/>
       <c r="B845" s="29"/>
       <c r="C845" s="29"/>
@@ -32091,7 +32091,7 @@
       <c r="AI845" s="29"/>
       <c r="AJ845" s="30"/>
     </row>
-    <row r="846" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="29"/>
       <c r="B846" s="29"/>
       <c r="C846" s="29"/>
@@ -32129,7 +32129,7 @@
       <c r="AI846" s="29"/>
       <c r="AJ846" s="30"/>
     </row>
-    <row r="847" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="29"/>
       <c r="B847" s="29"/>
       <c r="C847" s="29"/>
@@ -32167,7 +32167,7 @@
       <c r="AI847" s="29"/>
       <c r="AJ847" s="30"/>
     </row>
-    <row r="848" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="29"/>
       <c r="B848" s="29"/>
       <c r="C848" s="29"/>
@@ -32205,7 +32205,7 @@
       <c r="AI848" s="29"/>
       <c r="AJ848" s="30"/>
     </row>
-    <row r="849" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="29"/>
       <c r="B849" s="29"/>
       <c r="C849" s="29"/>
@@ -32243,7 +32243,7 @@
       <c r="AI849" s="29"/>
       <c r="AJ849" s="30"/>
     </row>
-    <row r="850" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="29"/>
       <c r="B850" s="29"/>
       <c r="C850" s="29"/>
@@ -32281,7 +32281,7 @@
       <c r="AI850" s="29"/>
       <c r="AJ850" s="30"/>
     </row>
-    <row r="851" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="29"/>
       <c r="B851" s="29"/>
       <c r="C851" s="29"/>
@@ -32319,7 +32319,7 @@
       <c r="AI851" s="29"/>
       <c r="AJ851" s="30"/>
     </row>
-    <row r="852" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="29"/>
       <c r="B852" s="29"/>
       <c r="C852" s="29"/>
@@ -32357,7 +32357,7 @@
       <c r="AI852" s="29"/>
       <c r="AJ852" s="30"/>
     </row>
-    <row r="853" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="29"/>
       <c r="B853" s="29"/>
       <c r="C853" s="29"/>
@@ -32395,7 +32395,7 @@
       <c r="AI853" s="29"/>
       <c r="AJ853" s="30"/>
     </row>
-    <row r="854" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="29"/>
       <c r="B854" s="29"/>
       <c r="C854" s="29"/>
@@ -32433,7 +32433,7 @@
       <c r="AI854" s="29"/>
       <c r="AJ854" s="30"/>
     </row>
-    <row r="855" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="29"/>
       <c r="B855" s="29"/>
       <c r="C855" s="29"/>
@@ -32471,7 +32471,7 @@
       <c r="AI855" s="29"/>
       <c r="AJ855" s="30"/>
     </row>
-    <row r="856" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="29"/>
       <c r="B856" s="29"/>
       <c r="C856" s="29"/>
@@ -32509,7 +32509,7 @@
       <c r="AI856" s="29"/>
       <c r="AJ856" s="30"/>
     </row>
-    <row r="857" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="29"/>
       <c r="B857" s="29"/>
       <c r="C857" s="29"/>
@@ -32547,7 +32547,7 @@
       <c r="AI857" s="29"/>
       <c r="AJ857" s="30"/>
     </row>
-    <row r="858" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="29"/>
       <c r="B858" s="29"/>
       <c r="C858" s="29"/>
@@ -32585,7 +32585,7 @@
       <c r="AI858" s="29"/>
       <c r="AJ858" s="30"/>
     </row>
-    <row r="859" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="29"/>
       <c r="B859" s="29"/>
       <c r="C859" s="29"/>
@@ -32623,7 +32623,7 @@
       <c r="AI859" s="29"/>
       <c r="AJ859" s="30"/>
     </row>
-    <row r="860" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="29"/>
       <c r="B860" s="29"/>
       <c r="C860" s="29"/>
@@ -32661,7 +32661,7 @@
       <c r="AI860" s="29"/>
       <c r="AJ860" s="30"/>
     </row>
-    <row r="861" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="29"/>
       <c r="B861" s="29"/>
       <c r="C861" s="29"/>
@@ -32699,7 +32699,7 @@
       <c r="AI861" s="29"/>
       <c r="AJ861" s="30"/>
     </row>
-    <row r="862" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="29"/>
       <c r="B862" s="29"/>
       <c r="C862" s="29"/>
@@ -32737,7 +32737,7 @@
       <c r="AI862" s="29"/>
       <c r="AJ862" s="30"/>
     </row>
-    <row r="863" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="29"/>
       <c r="B863" s="29"/>
       <c r="C863" s="29"/>
@@ -32775,7 +32775,7 @@
       <c r="AI863" s="29"/>
       <c r="AJ863" s="30"/>
     </row>
-    <row r="864" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="29"/>
       <c r="B864" s="29"/>
       <c r="C864" s="29"/>
@@ -32813,7 +32813,7 @@
       <c r="AI864" s="29"/>
       <c r="AJ864" s="30"/>
     </row>
-    <row r="865" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="29"/>
       <c r="B865" s="29"/>
       <c r="C865" s="29"/>
@@ -32851,7 +32851,7 @@
       <c r="AI865" s="29"/>
       <c r="AJ865" s="30"/>
     </row>
-    <row r="866" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="29"/>
       <c r="B866" s="29"/>
       <c r="C866" s="29"/>
@@ -32889,7 +32889,7 @@
       <c r="AI866" s="29"/>
       <c r="AJ866" s="30"/>
     </row>
-    <row r="867" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="29"/>
       <c r="B867" s="29"/>
       <c r="C867" s="29"/>
@@ -32927,7 +32927,7 @@
       <c r="AI867" s="29"/>
       <c r="AJ867" s="30"/>
     </row>
-    <row r="868" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="29"/>
       <c r="B868" s="29"/>
       <c r="C868" s="29"/>
@@ -32965,7 +32965,7 @@
       <c r="AI868" s="29"/>
       <c r="AJ868" s="30"/>
     </row>
-    <row r="869" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="29"/>
       <c r="B869" s="29"/>
       <c r="C869" s="29"/>
@@ -33003,7 +33003,7 @@
       <c r="AI869" s="29"/>
       <c r="AJ869" s="30"/>
     </row>
-    <row r="870" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="29"/>
       <c r="B870" s="29"/>
       <c r="C870" s="29"/>
@@ -33041,7 +33041,7 @@
       <c r="AI870" s="29"/>
       <c r="AJ870" s="30"/>
     </row>
-    <row r="871" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="29"/>
       <c r="B871" s="29"/>
       <c r="C871" s="29"/>
@@ -33079,7 +33079,7 @@
       <c r="AI871" s="29"/>
       <c r="AJ871" s="30"/>
     </row>
-    <row r="872" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="29"/>
       <c r="B872" s="29"/>
       <c r="C872" s="29"/>
@@ -33117,7 +33117,7 @@
       <c r="AI872" s="29"/>
       <c r="AJ872" s="30"/>
     </row>
-    <row r="873" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="29"/>
       <c r="B873" s="29"/>
       <c r="C873" s="29"/>
@@ -33155,7 +33155,7 @@
       <c r="AI873" s="29"/>
       <c r="AJ873" s="30"/>
     </row>
-    <row r="874" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="29"/>
       <c r="B874" s="29"/>
       <c r="C874" s="29"/>
@@ -33193,7 +33193,7 @@
       <c r="AI874" s="29"/>
       <c r="AJ874" s="30"/>
     </row>
-    <row r="875" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="29"/>
       <c r="B875" s="29"/>
       <c r="C875" s="29"/>
@@ -33231,7 +33231,7 @@
       <c r="AI875" s="29"/>
       <c r="AJ875" s="30"/>
     </row>
-    <row r="876" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="29"/>
       <c r="B876" s="29"/>
       <c r="C876" s="29"/>
@@ -33269,7 +33269,7 @@
       <c r="AI876" s="29"/>
       <c r="AJ876" s="30"/>
     </row>
-    <row r="877" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="29"/>
       <c r="B877" s="29"/>
       <c r="C877" s="29"/>
@@ -33307,7 +33307,7 @@
       <c r="AI877" s="29"/>
       <c r="AJ877" s="30"/>
     </row>
-    <row r="878" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="29"/>
       <c r="B878" s="29"/>
       <c r="C878" s="29"/>
@@ -33345,7 +33345,7 @@
       <c r="AI878" s="29"/>
       <c r="AJ878" s="30"/>
     </row>
-    <row r="879" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="29"/>
       <c r="B879" s="29"/>
       <c r="C879" s="29"/>
@@ -33383,7 +33383,7 @@
       <c r="AI879" s="29"/>
       <c r="AJ879" s="30"/>
     </row>
-    <row r="880" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="29"/>
       <c r="B880" s="29"/>
       <c r="C880" s="29"/>
@@ -33421,7 +33421,7 @@
       <c r="AI880" s="29"/>
       <c r="AJ880" s="30"/>
     </row>
-    <row r="881" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="29"/>
       <c r="B881" s="29"/>
       <c r="C881" s="29"/>
@@ -33459,7 +33459,7 @@
       <c r="AI881" s="29"/>
       <c r="AJ881" s="30"/>
     </row>
-    <row r="882" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="29"/>
       <c r="B882" s="29"/>
       <c r="C882" s="29"/>
@@ -33497,7 +33497,7 @@
       <c r="AI882" s="29"/>
       <c r="AJ882" s="30"/>
     </row>
-    <row r="883" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="29"/>
       <c r="B883" s="29"/>
       <c r="C883" s="29"/>
@@ -33535,7 +33535,7 @@
       <c r="AI883" s="29"/>
       <c r="AJ883" s="30"/>
     </row>
-    <row r="884" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="29"/>
       <c r="B884" s="29"/>
       <c r="C884" s="29"/>
@@ -33573,7 +33573,7 @@
       <c r="AI884" s="29"/>
       <c r="AJ884" s="30"/>
     </row>
-    <row r="885" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="29"/>
       <c r="B885" s="29"/>
       <c r="C885" s="29"/>
@@ -33611,7 +33611,7 @@
       <c r="AI885" s="29"/>
       <c r="AJ885" s="30"/>
     </row>
-    <row r="886" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="29"/>
       <c r="B886" s="29"/>
       <c r="C886" s="29"/>
@@ -33649,7 +33649,7 @@
       <c r="AI886" s="29"/>
       <c r="AJ886" s="30"/>
     </row>
-    <row r="887" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="29"/>
       <c r="B887" s="29"/>
       <c r="C887" s="29"/>
@@ -33687,7 +33687,7 @@
       <c r="AI887" s="29"/>
       <c r="AJ887" s="30"/>
     </row>
-    <row r="888" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="29"/>
       <c r="B888" s="29"/>
       <c r="C888" s="29"/>
@@ -33725,7 +33725,7 @@
       <c r="AI888" s="29"/>
       <c r="AJ888" s="30"/>
     </row>
-    <row r="889" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="29"/>
       <c r="B889" s="29"/>
       <c r="C889" s="29"/>
@@ -33763,7 +33763,7 @@
       <c r="AI889" s="29"/>
       <c r="AJ889" s="30"/>
     </row>
-    <row r="890" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="29"/>
       <c r="B890" s="29"/>
       <c r="C890" s="29"/>
@@ -33801,7 +33801,7 @@
       <c r="AI890" s="29"/>
       <c r="AJ890" s="30"/>
     </row>
-    <row r="891" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="29"/>
       <c r="B891" s="29"/>
       <c r="C891" s="29"/>
@@ -33839,7 +33839,7 @@
       <c r="AI891" s="29"/>
       <c r="AJ891" s="30"/>
     </row>
-    <row r="892" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="29"/>
       <c r="B892" s="29"/>
       <c r="C892" s="29"/>
@@ -33877,7 +33877,7 @@
       <c r="AI892" s="29"/>
       <c r="AJ892" s="30"/>
     </row>
-    <row r="893" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="29"/>
       <c r="B893" s="29"/>
       <c r="C893" s="29"/>
@@ -33915,7 +33915,7 @@
       <c r="AI893" s="29"/>
       <c r="AJ893" s="30"/>
     </row>
-    <row r="894" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="29"/>
       <c r="B894" s="29"/>
       <c r="C894" s="29"/>
@@ -33953,7 +33953,7 @@
       <c r="AI894" s="29"/>
       <c r="AJ894" s="30"/>
     </row>
-    <row r="895" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="29"/>
       <c r="B895" s="29"/>
       <c r="C895" s="29"/>
@@ -33991,7 +33991,7 @@
       <c r="AI895" s="29"/>
       <c r="AJ895" s="30"/>
     </row>
-    <row r="896" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="29"/>
       <c r="B896" s="29"/>
       <c r="C896" s="29"/>
@@ -34029,7 +34029,7 @@
       <c r="AI896" s="29"/>
       <c r="AJ896" s="30"/>
     </row>
-    <row r="897" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="29"/>
       <c r="B897" s="29"/>
       <c r="C897" s="29"/>
@@ -34067,7 +34067,7 @@
       <c r="AI897" s="29"/>
       <c r="AJ897" s="30"/>
     </row>
-    <row r="898" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="29"/>
       <c r="B898" s="29"/>
       <c r="C898" s="29"/>
@@ -34105,7 +34105,7 @@
       <c r="AI898" s="29"/>
       <c r="AJ898" s="30"/>
     </row>
-    <row r="899" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="29"/>
       <c r="B899" s="29"/>
       <c r="C899" s="29"/>
@@ -34143,7 +34143,7 @@
       <c r="AI899" s="29"/>
       <c r="AJ899" s="30"/>
     </row>
-    <row r="900" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="29"/>
       <c r="B900" s="29"/>
       <c r="C900" s="29"/>
@@ -34181,7 +34181,7 @@
       <c r="AI900" s="29"/>
       <c r="AJ900" s="30"/>
     </row>
-    <row r="901" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="29"/>
       <c r="B901" s="29"/>
       <c r="C901" s="29"/>
@@ -34219,7 +34219,7 @@
       <c r="AI901" s="29"/>
       <c r="AJ901" s="30"/>
     </row>
-    <row r="902" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="29"/>
       <c r="B902" s="29"/>
       <c r="C902" s="29"/>
@@ -34257,7 +34257,7 @@
       <c r="AI902" s="29"/>
       <c r="AJ902" s="30"/>
     </row>
-    <row r="903" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="29"/>
       <c r="B903" s="29"/>
       <c r="C903" s="29"/>
@@ -34295,7 +34295,7 @@
       <c r="AI903" s="29"/>
       <c r="AJ903" s="30"/>
     </row>
-    <row r="904" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="29"/>
       <c r="B904" s="29"/>
       <c r="C904" s="29"/>
@@ -34333,7 +34333,7 @@
       <c r="AI904" s="29"/>
       <c r="AJ904" s="30"/>
     </row>
-    <row r="905" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="29"/>
       <c r="B905" s="29"/>
       <c r="C905" s="29"/>
@@ -34371,7 +34371,7 @@
       <c r="AI905" s="29"/>
       <c r="AJ905" s="30"/>
     </row>
-    <row r="906" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="29"/>
       <c r="B906" s="29"/>
       <c r="C906" s="29"/>
@@ -34409,7 +34409,7 @@
       <c r="AI906" s="29"/>
       <c r="AJ906" s="30"/>
     </row>
-    <row r="907" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="29"/>
       <c r="B907" s="29"/>
       <c r="C907" s="29"/>
@@ -34447,7 +34447,7 @@
       <c r="AI907" s="29"/>
       <c r="AJ907" s="30"/>
     </row>
-    <row r="908" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="29"/>
       <c r="B908" s="29"/>
       <c r="C908" s="29"/>
@@ -34485,7 +34485,7 @@
       <c r="AI908" s="29"/>
       <c r="AJ908" s="30"/>
     </row>
-    <row r="909" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="29"/>
       <c r="B909" s="29"/>
       <c r="C909" s="29"/>
@@ -34523,7 +34523,7 @@
       <c r="AI909" s="29"/>
       <c r="AJ909" s="30"/>
     </row>
-    <row r="910" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="29"/>
       <c r="B910" s="29"/>
       <c r="C910" s="29"/>
@@ -34561,7 +34561,7 @@
       <c r="AI910" s="29"/>
       <c r="AJ910" s="30"/>
     </row>
-    <row r="911" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="29"/>
       <c r="B911" s="29"/>
       <c r="C911" s="29"/>
@@ -34599,7 +34599,7 @@
       <c r="AI911" s="29"/>
       <c r="AJ911" s="30"/>
     </row>
-    <row r="912" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="29"/>
       <c r="B912" s="29"/>
       <c r="C912" s="29"/>
@@ -34637,7 +34637,7 @@
       <c r="AI912" s="29"/>
       <c r="AJ912" s="30"/>
     </row>
-    <row r="913" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="29"/>
       <c r="B913" s="29"/>
       <c r="C913" s="29"/>
@@ -34675,7 +34675,7 @@
       <c r="AI913" s="29"/>
       <c r="AJ913" s="30"/>
     </row>
-    <row r="914" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="29"/>
       <c r="B914" s="29"/>
       <c r="C914" s="29"/>
@@ -34713,7 +34713,7 @@
       <c r="AI914" s="29"/>
       <c r="AJ914" s="30"/>
     </row>
-    <row r="915" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="29"/>
       <c r="B915" s="29"/>
       <c r="C915" s="29"/>
@@ -34751,7 +34751,7 @@
       <c r="AI915" s="29"/>
       <c r="AJ915" s="30"/>
     </row>
-    <row r="916" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="29"/>
       <c r="B916" s="29"/>
       <c r="C916" s="29"/>
@@ -34789,7 +34789,7 @@
       <c r="AI916" s="29"/>
       <c r="AJ916" s="30"/>
     </row>
-    <row r="917" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="29"/>
       <c r="B917" s="29"/>
       <c r="C917" s="29"/>
@@ -34827,7 +34827,7 @@
       <c r="AI917" s="29"/>
       <c r="AJ917" s="30"/>
     </row>
-    <row r="918" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="29"/>
       <c r="B918" s="29"/>
       <c r="C918" s="29"/>
@@ -34865,7 +34865,7 @@
       <c r="AI918" s="29"/>
       <c r="AJ918" s="30"/>
     </row>
-    <row r="919" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="29"/>
       <c r="B919" s="29"/>
       <c r="C919" s="29"/>
@@ -34903,7 +34903,7 @@
       <c r="AI919" s="29"/>
       <c r="AJ919" s="30"/>
     </row>
-    <row r="920" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="29"/>
       <c r="B920" s="29"/>
       <c r="C920" s="29"/>
@@ -34941,7 +34941,7 @@
       <c r="AI920" s="29"/>
       <c r="AJ920" s="30"/>
     </row>
-    <row r="921" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="29"/>
       <c r="B921" s="29"/>
       <c r="C921" s="29"/>
@@ -34979,7 +34979,7 @@
       <c r="AI921" s="29"/>
       <c r="AJ921" s="30"/>
     </row>
-    <row r="922" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="29"/>
       <c r="B922" s="29"/>
       <c r="C922" s="29"/>
@@ -35017,7 +35017,7 @@
       <c r="AI922" s="29"/>
       <c r="AJ922" s="30"/>
     </row>
-    <row r="923" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="29"/>
       <c r="B923" s="29"/>
       <c r="C923" s="29"/>
@@ -35055,7 +35055,7 @@
       <c r="AI923" s="29"/>
       <c r="AJ923" s="30"/>
     </row>
-    <row r="924" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="29"/>
       <c r="B924" s="29"/>
       <c r="C924" s="29"/>
@@ -35093,7 +35093,7 @@
       <c r="AI924" s="29"/>
       <c r="AJ924" s="30"/>
     </row>
-    <row r="925" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="29"/>
       <c r="B925" s="29"/>
       <c r="C925" s="29"/>
@@ -35131,7 +35131,7 @@
       <c r="AI925" s="29"/>
       <c r="AJ925" s="30"/>
     </row>
-    <row r="926" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="29"/>
       <c r="B926" s="29"/>
       <c r="C926" s="29"/>
@@ -35169,7 +35169,7 @@
       <c r="AI926" s="29"/>
       <c r="AJ926" s="30"/>
     </row>
-    <row r="927" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="29"/>
       <c r="B927" s="29"/>
       <c r="C927" s="29"/>
@@ -35207,7 +35207,7 @@
       <c r="AI927" s="29"/>
       <c r="AJ927" s="30"/>
     </row>
-    <row r="928" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="29"/>
       <c r="B928" s="29"/>
       <c r="C928" s="29"/>
@@ -35245,7 +35245,7 @@
       <c r="AI928" s="29"/>
       <c r="AJ928" s="30"/>
     </row>
-    <row r="929" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="29"/>
       <c r="B929" s="29"/>
       <c r="C929" s="29"/>
@@ -35283,7 +35283,7 @@
       <c r="AI929" s="29"/>
       <c r="AJ929" s="30"/>
     </row>
-    <row r="930" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="29"/>
       <c r="B930" s="29"/>
       <c r="C930" s="29"/>
@@ -35321,7 +35321,7 @@
       <c r="AI930" s="29"/>
       <c r="AJ930" s="30"/>
     </row>
-    <row r="931" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="29"/>
       <c r="B931" s="29"/>
       <c r="C931" s="29"/>
@@ -35359,7 +35359,7 @@
       <c r="AI931" s="29"/>
       <c r="AJ931" s="30"/>
     </row>
-    <row r="932" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="29"/>
       <c r="B932" s="29"/>
       <c r="C932" s="29"/>
@@ -35397,7 +35397,7 @@
       <c r="AI932" s="29"/>
       <c r="AJ932" s="30"/>
     </row>
-    <row r="933" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="29"/>
       <c r="B933" s="29"/>
       <c r="C933" s="29"/>
@@ -35435,7 +35435,7 @@
       <c r="AI933" s="29"/>
       <c r="AJ933" s="30"/>
     </row>
-    <row r="934" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="29"/>
       <c r="B934" s="29"/>
       <c r="C934" s="29"/>
@@ -35473,7 +35473,7 @@
       <c r="AI934" s="29"/>
       <c r="AJ934" s="30"/>
     </row>
-    <row r="935" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="29"/>
       <c r="B935" s="29"/>
       <c r="C935" s="29"/>
@@ -35511,7 +35511,7 @@
       <c r="AI935" s="29"/>
       <c r="AJ935" s="30"/>
     </row>
-    <row r="936" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="29"/>
       <c r="B936" s="29"/>
       <c r="C936" s="29"/>
@@ -35549,7 +35549,7 @@
       <c r="AI936" s="29"/>
       <c r="AJ936" s="30"/>
     </row>
-    <row r="937" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="29"/>
       <c r="B937" s="29"/>
       <c r="C937" s="29"/>
@@ -35587,7 +35587,7 @@
       <c r="AI937" s="29"/>
       <c r="AJ937" s="30"/>
     </row>
-    <row r="938" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="29"/>
       <c r="B938" s="29"/>
       <c r="C938" s="29"/>
@@ -35625,7 +35625,7 @@
       <c r="AI938" s="29"/>
       <c r="AJ938" s="30"/>
     </row>
-    <row r="939" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="29"/>
       <c r="B939" s="29"/>
       <c r="C939" s="29"/>
@@ -35663,7 +35663,7 @@
       <c r="AI939" s="29"/>
       <c r="AJ939" s="30"/>
     </row>
-    <row r="940" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="29"/>
       <c r="B940" s="29"/>
       <c r="C940" s="29"/>
@@ -35701,7 +35701,7 @@
       <c r="AI940" s="29"/>
       <c r="AJ940" s="30"/>
     </row>
-    <row r="941" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="29"/>
       <c r="B941" s="29"/>
       <c r="C941" s="29"/>
@@ -35739,7 +35739,7 @@
       <c r="AI941" s="29"/>
       <c r="AJ941" s="30"/>
     </row>
-    <row r="942" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="29"/>
       <c r="B942" s="29"/>
       <c r="C942" s="29"/>
@@ -35777,7 +35777,7 @@
       <c r="AI942" s="29"/>
       <c r="AJ942" s="30"/>
     </row>
-    <row r="943" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="29"/>
       <c r="B943" s="29"/>
       <c r="C943" s="29"/>
@@ -35815,7 +35815,7 @@
       <c r="AI943" s="29"/>
       <c r="AJ943" s="30"/>
     </row>
-    <row r="944" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="29"/>
       <c r="B944" s="29"/>
       <c r="C944" s="29"/>
@@ -35853,7 +35853,7 @@
       <c r="AI944" s="29"/>
       <c r="AJ944" s="30"/>
     </row>
-    <row r="945" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="29"/>
       <c r="B945" s="29"/>
       <c r="C945" s="29"/>
@@ -35891,7 +35891,7 @@
       <c r="AI945" s="29"/>
       <c r="AJ945" s="30"/>
     </row>
-    <row r="946" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="29"/>
       <c r="B946" s="29"/>
       <c r="C946" s="29"/>
@@ -35929,7 +35929,7 @@
       <c r="AI946" s="29"/>
       <c r="AJ946" s="30"/>
     </row>
-    <row r="947" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="29"/>
       <c r="B947" s="29"/>
       <c r="C947" s="29"/>
@@ -35967,7 +35967,7 @@
       <c r="AI947" s="29"/>
       <c r="AJ947" s="30"/>
     </row>
-    <row r="948" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="29"/>
       <c r="B948" s="29"/>
       <c r="C948" s="29"/>
@@ -36005,7 +36005,7 @@
       <c r="AI948" s="29"/>
       <c r="AJ948" s="30"/>
     </row>
-    <row r="949" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="29"/>
       <c r="B949" s="29"/>
       <c r="C949" s="29"/>
@@ -36043,7 +36043,7 @@
       <c r="AI949" s="29"/>
       <c r="AJ949" s="30"/>
     </row>
-    <row r="950" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="29"/>
       <c r="B950" s="29"/>
       <c r="C950" s="29"/>
@@ -36081,7 +36081,7 @@
       <c r="AI950" s="29"/>
       <c r="AJ950" s="30"/>
     </row>
-    <row r="951" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="29"/>
       <c r="B951" s="29"/>
       <c r="C951" s="29"/>
@@ -36119,7 +36119,7 @@
       <c r="AI951" s="29"/>
       <c r="AJ951" s="30"/>
     </row>
-    <row r="952" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="29"/>
       <c r="B952" s="29"/>
       <c r="C952" s="29"/>
@@ -36157,7 +36157,7 @@
       <c r="AI952" s="29"/>
       <c r="AJ952" s="30"/>
     </row>
-    <row r="953" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="29"/>
       <c r="B953" s="29"/>
       <c r="C953" s="29"/>
@@ -36195,7 +36195,7 @@
       <c r="AI953" s="29"/>
       <c r="AJ953" s="30"/>
     </row>
-    <row r="954" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="29"/>
       <c r="B954" s="29"/>
       <c r="C954" s="29"/>
@@ -36233,7 +36233,7 @@
       <c r="AI954" s="29"/>
       <c r="AJ954" s="30"/>
     </row>
-    <row r="955" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="29"/>
       <c r="B955" s="29"/>
       <c r="C955" s="29"/>
@@ -36271,7 +36271,7 @@
       <c r="AI955" s="29"/>
       <c r="AJ955" s="30"/>
     </row>
-    <row r="956" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="29"/>
       <c r="B956" s="29"/>
       <c r="C956" s="29"/>
@@ -36309,7 +36309,7 @@
       <c r="AI956" s="29"/>
       <c r="AJ956" s="30"/>
     </row>
-    <row r="957" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="29"/>
       <c r="B957" s="29"/>
       <c r="C957" s="29"/>
@@ -36347,7 +36347,7 @@
       <c r="AI957" s="29"/>
       <c r="AJ957" s="30"/>
     </row>
-    <row r="958" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="29"/>
       <c r="B958" s="29"/>
       <c r="C958" s="29"/>
@@ -36385,7 +36385,7 @@
       <c r="AI958" s="29"/>
       <c r="AJ958" s="30"/>
     </row>
-    <row r="959" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="29"/>
       <c r="B959" s="29"/>
       <c r="C959" s="29"/>
@@ -36423,7 +36423,7 @@
       <c r="AI959" s="29"/>
       <c r="AJ959" s="30"/>
     </row>
-    <row r="960" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="29"/>
       <c r="B960" s="29"/>
       <c r="C960" s="29"/>
@@ -36461,7 +36461,7 @@
       <c r="AI960" s="29"/>
       <c r="AJ960" s="30"/>
     </row>
-    <row r="961" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="29"/>
       <c r="B961" s="29"/>
       <c r="C961" s="29"/>
@@ -36499,7 +36499,7 @@
       <c r="AI961" s="29"/>
       <c r="AJ961" s="30"/>
     </row>
-    <row r="962" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="29"/>
       <c r="B962" s="29"/>
       <c r="C962" s="29"/>
@@ -36537,7 +36537,7 @@
       <c r="AI962" s="29"/>
       <c r="AJ962" s="30"/>
     </row>
-    <row r="963" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="29"/>
       <c r="B963" s="29"/>
       <c r="C963" s="29"/>
@@ -36575,7 +36575,7 @@
       <c r="AI963" s="29"/>
       <c r="AJ963" s="30"/>
     </row>
-    <row r="964" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="29"/>
       <c r="B964" s="29"/>
       <c r="C964" s="29"/>
@@ -36613,7 +36613,7 @@
       <c r="AI964" s="29"/>
       <c r="AJ964" s="30"/>
     </row>
-    <row r="965" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="29"/>
       <c r="B965" s="29"/>
       <c r="C965" s="29"/>
@@ -36651,7 +36651,7 @@
       <c r="AI965" s="29"/>
       <c r="AJ965" s="30"/>
     </row>
-    <row r="966" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="29"/>
       <c r="B966" s="29"/>
       <c r="C966" s="29"/>
@@ -36689,7 +36689,7 @@
       <c r="AI966" s="29"/>
       <c r="AJ966" s="30"/>
     </row>
-    <row r="967" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="29"/>
       <c r="B967" s="29"/>
       <c r="C967" s="29"/>
@@ -36727,7 +36727,7 @@
       <c r="AI967" s="29"/>
       <c r="AJ967" s="30"/>
     </row>
-    <row r="968" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="29"/>
       <c r="B968" s="29"/>
       <c r="C968" s="29"/>
@@ -36765,7 +36765,7 @@
       <c r="AI968" s="29"/>
       <c r="AJ968" s="30"/>
     </row>
-    <row r="969" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="29"/>
       <c r="B969" s="29"/>
       <c r="C969" s="29"/>
@@ -36803,7 +36803,7 @@
       <c r="AI969" s="29"/>
       <c r="AJ969" s="30"/>
     </row>
-    <row r="970" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="29"/>
       <c r="B970" s="29"/>
       <c r="C970" s="29"/>
@@ -36841,7 +36841,7 @@
       <c r="AI970" s="29"/>
       <c r="AJ970" s="30"/>
     </row>
-    <row r="971" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="29"/>
       <c r="B971" s="29"/>
       <c r="C971" s="29"/>
@@ -36879,7 +36879,7 @@
       <c r="AI971" s="29"/>
       <c r="AJ971" s="30"/>
     </row>
-    <row r="972" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="29"/>
       <c r="B972" s="29"/>
       <c r="C972" s="29"/>
@@ -36917,7 +36917,7 @@
       <c r="AI972" s="29"/>
       <c r="AJ972" s="30"/>
     </row>
-    <row r="973" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="29"/>
       <c r="B973" s="29"/>
       <c r="C973" s="29"/>
@@ -36955,7 +36955,7 @@
       <c r="AI973" s="29"/>
       <c r="AJ973" s="30"/>
     </row>
-    <row r="974" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="29"/>
       <c r="B974" s="29"/>
       <c r="C974" s="29"/>
@@ -36993,7 +36993,7 @@
       <c r="AI974" s="29"/>
       <c r="AJ974" s="30"/>
     </row>
-    <row r="975" customFormat="false" ht="9.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="29"/>
       <c r="B975" s="29"/>
       <c r="C975" s="29"/>
@@ -37197,9 +37197,9 @@
     <mergeCell ref="W47:X47"/>
     <mergeCell ref="Y47:Z47"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.913888888888889" bottom="1.05277777777778" header="0.511805555555555" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="1" right="1" top="1.3" bottom="2" header="0.511805555555555" footer="1.3"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3AE8C8-D04F-4528-8965-522914F07C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFCD47-4647-421E-A49F-744EA2F5AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,26 +315,11 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -342,8 +327,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,12 +735,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="8.25" customHeight="1"/>
   <cols>
     <col min="1" max="1024" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="7.5" customHeight="1">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -751,12 +751,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -768,7 +768,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="7.5" customHeight="1">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -796,7 +796,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="7.5" customHeight="1">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -824,7 +824,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" ht="7.5" customHeight="1">
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -852,37 +852,37 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-    </row>
-    <row r="6" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+    <row r="5" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -908,9 +908,9 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -936,9 +936,9 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="12"/>
@@ -964,9 +964,9 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
@@ -992,9 +992,9 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
@@ -1020,9 +1020,9 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
@@ -1048,9 +1048,9 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
@@ -1076,9 +1076,9 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
@@ -1104,9 +1104,9 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
@@ -1132,9 +1132,9 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
@@ -1160,9 +1160,9 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -1188,9 +1188,9 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
@@ -1216,9 +1216,9 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
+    <row r="18" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
@@ -1244,9 +1244,9 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
@@ -1272,9 +1272,9 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
@@ -1300,9 +1300,9 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
@@ -1328,9 +1328,9 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
@@ -1356,9 +1356,9 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+    <row r="23" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -1384,9 +1384,9 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
@@ -1412,9 +1412,9 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+    <row r="25" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
@@ -1440,9 +1440,9 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+    <row r="26" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
@@ -1468,9 +1468,9 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
@@ -1496,9 +1496,9 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="9"/>
     </row>
-    <row r="28" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+    <row r="28" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12"/>
@@ -1524,9 +1524,9 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+    <row r="29" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
@@ -1552,9 +1552,9 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
     </row>
-    <row r="30" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+    <row r="30" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="12"/>
@@ -1580,9 +1580,9 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+    <row r="31" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
@@ -1608,9 +1608,9 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
     </row>
-    <row r="32" spans="1:26" ht="7.5" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+    <row r="32" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="12"/>
@@ -1636,9 +1636,9 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+    <row r="33" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
@@ -1664,9 +1664,9 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+    <row r="34" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="12"/>
@@ -1692,9 +1692,9 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+    <row r="35" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="8"/>
@@ -1720,9 +1720,9 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
     </row>
-    <row r="36" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+    <row r="36" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="12"/>
@@ -1748,9 +1748,9 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+    <row r="37" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="8"/>
@@ -1776,7 +1776,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="9"/>
     </row>
-    <row r="38" spans="1:36" s="4" customFormat="1" ht="7.5" customHeight="1">
+    <row r="38" spans="1:36" s="4" customFormat="1" ht="8.25" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -1804,259 +1804,259 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-    </row>
-    <row r="40" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-    </row>
-    <row r="41" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-    </row>
-    <row r="42" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-    </row>
-    <row r="43" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-    </row>
-    <row r="44" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-    </row>
-    <row r="45" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-    </row>
-    <row r="46" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-    </row>
-    <row r="47" spans="1:36" ht="7.5" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-    </row>
-    <row r="48" spans="1:36" ht="7.5" customHeight="1">
+    <row r="39" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+    </row>
+    <row r="40" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+    </row>
+    <row r="41" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+    </row>
+    <row r="42" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+    </row>
+    <row r="43" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+    </row>
+    <row r="44" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+    </row>
+    <row r="45" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+    </row>
+    <row r="46" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+    </row>
+    <row r="47" spans="1:36" ht="8.25" customHeight="1">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+    </row>
+    <row r="48" spans="1:36" ht="8.25" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2094,7 +2094,7 @@
       <c r="AI48" s="19"/>
       <c r="AJ48" s="20"/>
     </row>
-    <row r="49" spans="1:36" ht="7.5" customHeight="1">
+    <row r="49" spans="1:36" ht="8.25" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2132,7 +2132,7 @@
       <c r="AI49" s="19"/>
       <c r="AJ49" s="20"/>
     </row>
-    <row r="50" spans="1:36" ht="7.5" customHeight="1">
+    <row r="50" spans="1:36" ht="8.25" customHeight="1">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2170,7 +2170,7 @@
       <c r="AI50" s="19"/>
       <c r="AJ50" s="20"/>
     </row>
-    <row r="51" spans="1:36" ht="7.5" customHeight="1">
+    <row r="51" spans="1:36" ht="8.25" customHeight="1">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2208,7 +2208,7 @@
       <c r="AI51" s="19"/>
       <c r="AJ51" s="20"/>
     </row>
-    <row r="52" spans="1:36" ht="7.5" customHeight="1">
+    <row r="52" spans="1:36" ht="8.25" customHeight="1">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2246,7 +2246,7 @@
       <c r="AI52" s="19"/>
       <c r="AJ52" s="20"/>
     </row>
-    <row r="53" spans="1:36" ht="7.5" customHeight="1">
+    <row r="53" spans="1:36" ht="8.25" customHeight="1">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2284,7 +2284,7 @@
       <c r="AI53" s="19"/>
       <c r="AJ53" s="20"/>
     </row>
-    <row r="54" spans="1:36" ht="7.5" customHeight="1">
+    <row r="54" spans="1:36" ht="8.25" customHeight="1">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2322,7 +2322,7 @@
       <c r="AI54" s="19"/>
       <c r="AJ54" s="20"/>
     </row>
-    <row r="55" spans="1:36" ht="7.5" customHeight="1">
+    <row r="55" spans="1:36" ht="8.25" customHeight="1">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2360,7 +2360,7 @@
       <c r="AI55" s="19"/>
       <c r="AJ55" s="20"/>
     </row>
-    <row r="56" spans="1:36" ht="7.5" customHeight="1">
+    <row r="56" spans="1:36" ht="8.25" customHeight="1">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -2398,7 +2398,7 @@
       <c r="AI56" s="19"/>
       <c r="AJ56" s="20"/>
     </row>
-    <row r="57" spans="1:36" ht="7.5" customHeight="1">
+    <row r="57" spans="1:36" ht="8.25" customHeight="1">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2436,7 +2436,7 @@
       <c r="AI57" s="19"/>
       <c r="AJ57" s="20"/>
     </row>
-    <row r="58" spans="1:36" ht="7.5" customHeight="1">
+    <row r="58" spans="1:36" ht="8.25" customHeight="1">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -2474,7 +2474,7 @@
       <c r="AI58" s="19"/>
       <c r="AJ58" s="20"/>
     </row>
-    <row r="59" spans="1:36" ht="7.5" customHeight="1">
+    <row r="59" spans="1:36" ht="8.25" customHeight="1">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -2512,7 +2512,7 @@
       <c r="AI59" s="19"/>
       <c r="AJ59" s="20"/>
     </row>
-    <row r="60" spans="1:36" ht="7.5" customHeight="1">
+    <row r="60" spans="1:36" ht="8.25" customHeight="1">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -2550,7 +2550,7 @@
       <c r="AI60" s="19"/>
       <c r="AJ60" s="20"/>
     </row>
-    <row r="61" spans="1:36" ht="7.5" customHeight="1">
+    <row r="61" spans="1:36" ht="8.25" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -2588,7 +2588,7 @@
       <c r="AI61" s="19"/>
       <c r="AJ61" s="20"/>
     </row>
-    <row r="62" spans="1:36" ht="7.5" customHeight="1">
+    <row r="62" spans="1:36" ht="8.25" customHeight="1">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -2626,7 +2626,7 @@
       <c r="AI62" s="19"/>
       <c r="AJ62" s="20"/>
     </row>
-    <row r="63" spans="1:36" ht="7.5" customHeight="1">
+    <row r="63" spans="1:36" ht="8.25" customHeight="1">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -2664,7 +2664,7 @@
       <c r="AI63" s="19"/>
       <c r="AJ63" s="20"/>
     </row>
-    <row r="64" spans="1:36" ht="7.5" customHeight="1">
+    <row r="64" spans="1:36" ht="8.25" customHeight="1">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -2702,7 +2702,7 @@
       <c r="AI64" s="19"/>
       <c r="AJ64" s="20"/>
     </row>
-    <row r="65" spans="1:36" ht="7.5" customHeight="1">
+    <row r="65" spans="1:36" ht="8.25" customHeight="1">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -2740,7 +2740,7 @@
       <c r="AI65" s="19"/>
       <c r="AJ65" s="20"/>
     </row>
-    <row r="66" spans="1:36" ht="7.5" customHeight="1">
+    <row r="66" spans="1:36" ht="8.25" customHeight="1">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -2778,7 +2778,7 @@
       <c r="AI66" s="19"/>
       <c r="AJ66" s="20"/>
     </row>
-    <row r="67" spans="1:36" ht="7.5" customHeight="1">
+    <row r="67" spans="1:36" ht="8.25" customHeight="1">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -2816,7 +2816,7 @@
       <c r="AI67" s="19"/>
       <c r="AJ67" s="20"/>
     </row>
-    <row r="68" spans="1:36" ht="7.5" customHeight="1">
+    <row r="68" spans="1:36" ht="8.25" customHeight="1">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -2854,7 +2854,7 @@
       <c r="AI68" s="19"/>
       <c r="AJ68" s="20"/>
     </row>
-    <row r="69" spans="1:36" ht="7.5" customHeight="1">
+    <row r="69" spans="1:36" ht="8.25" customHeight="1">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -2892,7 +2892,7 @@
       <c r="AI69" s="19"/>
       <c r="AJ69" s="20"/>
     </row>
-    <row r="70" spans="1:36" ht="7.5" customHeight="1">
+    <row r="70" spans="1:36" ht="8.25" customHeight="1">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -2930,7 +2930,7 @@
       <c r="AI70" s="19"/>
       <c r="AJ70" s="20"/>
     </row>
-    <row r="71" spans="1:36" ht="7.5" customHeight="1">
+    <row r="71" spans="1:36" ht="8.25" customHeight="1">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -2968,7 +2968,7 @@
       <c r="AI71" s="19"/>
       <c r="AJ71" s="20"/>
     </row>
-    <row r="72" spans="1:36" ht="7.5" customHeight="1">
+    <row r="72" spans="1:36" ht="8.25" customHeight="1">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -3006,7 +3006,7 @@
       <c r="AI72" s="19"/>
       <c r="AJ72" s="20"/>
     </row>
-    <row r="73" spans="1:36" ht="7.5" customHeight="1">
+    <row r="73" spans="1:36" ht="8.25" customHeight="1">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -3044,7 +3044,7 @@
       <c r="AI73" s="19"/>
       <c r="AJ73" s="20"/>
     </row>
-    <row r="74" spans="1:36" ht="7.5" customHeight="1">
+    <row r="74" spans="1:36" ht="8.25" customHeight="1">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3082,7 +3082,7 @@
       <c r="AI74" s="19"/>
       <c r="AJ74" s="20"/>
     </row>
-    <row r="75" spans="1:36" ht="7.5" customHeight="1">
+    <row r="75" spans="1:36" ht="8.25" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3120,7 +3120,7 @@
       <c r="AI75" s="19"/>
       <c r="AJ75" s="20"/>
     </row>
-    <row r="76" spans="1:36" ht="7.5" customHeight="1">
+    <row r="76" spans="1:36" ht="8.25" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -3158,7 +3158,7 @@
       <c r="AI76" s="19"/>
       <c r="AJ76" s="20"/>
     </row>
-    <row r="77" spans="1:36" ht="7.5" customHeight="1">
+    <row r="77" spans="1:36" ht="8.25" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -3196,7 +3196,7 @@
       <c r="AI77" s="19"/>
       <c r="AJ77" s="20"/>
     </row>
-    <row r="78" spans="1:36" ht="7.5" customHeight="1">
+    <row r="78" spans="1:36" ht="8.25" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -3234,7 +3234,7 @@
       <c r="AI78" s="19"/>
       <c r="AJ78" s="20"/>
     </row>
-    <row r="79" spans="1:36" ht="7.5" customHeight="1">
+    <row r="79" spans="1:36" ht="8.25" customHeight="1">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -3272,7 +3272,7 @@
       <c r="AI79" s="19"/>
       <c r="AJ79" s="20"/>
     </row>
-    <row r="80" spans="1:36" ht="7.5" customHeight="1">
+    <row r="80" spans="1:36" ht="8.25" customHeight="1">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -3310,7 +3310,7 @@
       <c r="AI80" s="19"/>
       <c r="AJ80" s="20"/>
     </row>
-    <row r="81" spans="1:36" ht="7.5" customHeight="1">
+    <row r="81" spans="1:36" ht="8.25" customHeight="1">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -3348,7 +3348,7 @@
       <c r="AI81" s="19"/>
       <c r="AJ81" s="20"/>
     </row>
-    <row r="82" spans="1:36" ht="7.5" customHeight="1">
+    <row r="82" spans="1:36" ht="8.25" customHeight="1">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -3386,7 +3386,7 @@
       <c r="AI82" s="19"/>
       <c r="AJ82" s="20"/>
     </row>
-    <row r="83" spans="1:36" ht="7.5" customHeight="1">
+    <row r="83" spans="1:36" ht="8.25" customHeight="1">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -3424,7 +3424,7 @@
       <c r="AI83" s="19"/>
       <c r="AJ83" s="20"/>
     </row>
-    <row r="84" spans="1:36" ht="7.5" customHeight="1">
+    <row r="84" spans="1:36" ht="8.25" customHeight="1">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -3462,7 +3462,7 @@
       <c r="AI84" s="19"/>
       <c r="AJ84" s="20"/>
     </row>
-    <row r="85" spans="1:36" ht="7.5" customHeight="1">
+    <row r="85" spans="1:36" ht="8.25" customHeight="1">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -3500,7 +3500,7 @@
       <c r="AI85" s="19"/>
       <c r="AJ85" s="20"/>
     </row>
-    <row r="86" spans="1:36" ht="7.5" customHeight="1">
+    <row r="86" spans="1:36" ht="8.25" customHeight="1">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -3538,7 +3538,7 @@
       <c r="AI86" s="19"/>
       <c r="AJ86" s="20"/>
     </row>
-    <row r="87" spans="1:36" ht="7.5" customHeight="1">
+    <row r="87" spans="1:36" ht="8.25" customHeight="1">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -3576,7 +3576,7 @@
       <c r="AI87" s="19"/>
       <c r="AJ87" s="20"/>
     </row>
-    <row r="88" spans="1:36" ht="7.5" customHeight="1">
+    <row r="88" spans="1:36" ht="8.25" customHeight="1">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -3614,7 +3614,7 @@
       <c r="AI88" s="19"/>
       <c r="AJ88" s="20"/>
     </row>
-    <row r="89" spans="1:36" ht="7.5" customHeight="1">
+    <row r="89" spans="1:36" ht="8.25" customHeight="1">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -3652,7 +3652,7 @@
       <c r="AI89" s="19"/>
       <c r="AJ89" s="20"/>
     </row>
-    <row r="90" spans="1:36" ht="7.5" customHeight="1">
+    <row r="90" spans="1:36" ht="8.25" customHeight="1">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -3690,7 +3690,7 @@
       <c r="AI90" s="19"/>
       <c r="AJ90" s="20"/>
     </row>
-    <row r="91" spans="1:36" ht="7.5" customHeight="1">
+    <row r="91" spans="1:36" ht="8.25" customHeight="1">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -3728,7 +3728,7 @@
       <c r="AI91" s="19"/>
       <c r="AJ91" s="20"/>
     </row>
-    <row r="92" spans="1:36" ht="7.5" customHeight="1">
+    <row r="92" spans="1:36" ht="8.25" customHeight="1">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -3766,7 +3766,7 @@
       <c r="AI92" s="19"/>
       <c r="AJ92" s="20"/>
     </row>
-    <row r="93" spans="1:36" ht="7.5" customHeight="1">
+    <row r="93" spans="1:36" ht="8.25" customHeight="1">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -3804,7 +3804,7 @@
       <c r="AI93" s="19"/>
       <c r="AJ93" s="20"/>
     </row>
-    <row r="94" spans="1:36" ht="7.5" customHeight="1">
+    <row r="94" spans="1:36" ht="8.25" customHeight="1">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -3842,7 +3842,7 @@
       <c r="AI94" s="19"/>
       <c r="AJ94" s="20"/>
     </row>
-    <row r="95" spans="1:36" ht="7.5" customHeight="1">
+    <row r="95" spans="1:36" ht="8.25" customHeight="1">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -3880,7 +3880,7 @@
       <c r="AI95" s="19"/>
       <c r="AJ95" s="20"/>
     </row>
-    <row r="96" spans="1:36" ht="7.5" customHeight="1">
+    <row r="96" spans="1:36" ht="8.25" customHeight="1">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -3918,7 +3918,7 @@
       <c r="AI96" s="19"/>
       <c r="AJ96" s="20"/>
     </row>
-    <row r="97" spans="1:36" ht="7.5" customHeight="1">
+    <row r="97" spans="1:36" ht="8.25" customHeight="1">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -3956,7 +3956,7 @@
       <c r="AI97" s="19"/>
       <c r="AJ97" s="20"/>
     </row>
-    <row r="98" spans="1:36" ht="7.5" customHeight="1">
+    <row r="98" spans="1:36" ht="8.25" customHeight="1">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -3994,7 +3994,7 @@
       <c r="AI98" s="19"/>
       <c r="AJ98" s="20"/>
     </row>
-    <row r="99" spans="1:36" ht="7.5" customHeight="1">
+    <row r="99" spans="1:36" ht="8.25" customHeight="1">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -4032,7 +4032,7 @@
       <c r="AI99" s="19"/>
       <c r="AJ99" s="20"/>
     </row>
-    <row r="100" spans="1:36" ht="7.5" customHeight="1">
+    <row r="100" spans="1:36" ht="8.25" customHeight="1">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -4070,7 +4070,7 @@
       <c r="AI100" s="19"/>
       <c r="AJ100" s="20"/>
     </row>
-    <row r="101" spans="1:36" ht="7.5" customHeight="1">
+    <row r="101" spans="1:36" ht="8.25" customHeight="1">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -4108,7 +4108,7 @@
       <c r="AI101" s="19"/>
       <c r="AJ101" s="20"/>
     </row>
-    <row r="102" spans="1:36" ht="7.5" customHeight="1">
+    <row r="102" spans="1:36" ht="8.25" customHeight="1">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -4146,7 +4146,7 @@
       <c r="AI102" s="19"/>
       <c r="AJ102" s="20"/>
     </row>
-    <row r="103" spans="1:36" ht="7.5" customHeight="1">
+    <row r="103" spans="1:36" ht="8.25" customHeight="1">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -4184,7 +4184,7 @@
       <c r="AI103" s="19"/>
       <c r="AJ103" s="20"/>
     </row>
-    <row r="104" spans="1:36" ht="7.5" customHeight="1">
+    <row r="104" spans="1:36" ht="8.25" customHeight="1">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -4222,7 +4222,7 @@
       <c r="AI104" s="19"/>
       <c r="AJ104" s="20"/>
     </row>
-    <row r="105" spans="1:36" ht="7.5" customHeight="1">
+    <row r="105" spans="1:36" ht="8.25" customHeight="1">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -4260,7 +4260,7 @@
       <c r="AI105" s="19"/>
       <c r="AJ105" s="20"/>
     </row>
-    <row r="106" spans="1:36" ht="7.5" customHeight="1">
+    <row r="106" spans="1:36" ht="8.25" customHeight="1">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -4298,7 +4298,7 @@
       <c r="AI106" s="19"/>
       <c r="AJ106" s="20"/>
     </row>
-    <row r="107" spans="1:36" ht="7.5" customHeight="1">
+    <row r="107" spans="1:36" ht="8.25" customHeight="1">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -4336,7 +4336,7 @@
       <c r="AI107" s="19"/>
       <c r="AJ107" s="20"/>
     </row>
-    <row r="108" spans="1:36" ht="7.5" customHeight="1">
+    <row r="108" spans="1:36" ht="8.25" customHeight="1">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -4374,7 +4374,7 @@
       <c r="AI108" s="19"/>
       <c r="AJ108" s="20"/>
     </row>
-    <row r="109" spans="1:36" ht="7.5" customHeight="1">
+    <row r="109" spans="1:36" ht="8.25" customHeight="1">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -4412,7 +4412,7 @@
       <c r="AI109" s="19"/>
       <c r="AJ109" s="20"/>
     </row>
-    <row r="110" spans="1:36" ht="7.5" customHeight="1">
+    <row r="110" spans="1:36" ht="8.25" customHeight="1">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -4450,7 +4450,7 @@
       <c r="AI110" s="19"/>
       <c r="AJ110" s="20"/>
     </row>
-    <row r="111" spans="1:36" ht="7.5" customHeight="1">
+    <row r="111" spans="1:36" ht="8.25" customHeight="1">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -4488,7 +4488,7 @@
       <c r="AI111" s="19"/>
       <c r="AJ111" s="20"/>
     </row>
-    <row r="112" spans="1:36" ht="7.5" customHeight="1">
+    <row r="112" spans="1:36" ht="8.25" customHeight="1">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -4526,7 +4526,7 @@
       <c r="AI112" s="19"/>
       <c r="AJ112" s="20"/>
     </row>
-    <row r="113" spans="1:36" ht="7.5" customHeight="1">
+    <row r="113" spans="1:36" ht="8.25" customHeight="1">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -4564,7 +4564,7 @@
       <c r="AI113" s="19"/>
       <c r="AJ113" s="20"/>
     </row>
-    <row r="114" spans="1:36" ht="7.5" customHeight="1">
+    <row r="114" spans="1:36" ht="8.25" customHeight="1">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -4602,7 +4602,7 @@
       <c r="AI114" s="19"/>
       <c r="AJ114" s="20"/>
     </row>
-    <row r="115" spans="1:36" ht="7.5" customHeight="1">
+    <row r="115" spans="1:36" ht="8.25" customHeight="1">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -4640,7 +4640,7 @@
       <c r="AI115" s="19"/>
       <c r="AJ115" s="20"/>
     </row>
-    <row r="116" spans="1:36" ht="7.5" customHeight="1">
+    <row r="116" spans="1:36" ht="8.25" customHeight="1">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -4678,7 +4678,7 @@
       <c r="AI116" s="19"/>
       <c r="AJ116" s="20"/>
     </row>
-    <row r="117" spans="1:36" ht="7.5" customHeight="1">
+    <row r="117" spans="1:36" ht="8.25" customHeight="1">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -4716,7 +4716,7 @@
       <c r="AI117" s="19"/>
       <c r="AJ117" s="20"/>
     </row>
-    <row r="118" spans="1:36" ht="7.5" customHeight="1">
+    <row r="118" spans="1:36" ht="8.25" customHeight="1">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -4754,7 +4754,7 @@
       <c r="AI118" s="19"/>
       <c r="AJ118" s="20"/>
     </row>
-    <row r="119" spans="1:36" ht="7.5" customHeight="1">
+    <row r="119" spans="1:36" ht="8.25" customHeight="1">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -4792,7 +4792,7 @@
       <c r="AI119" s="19"/>
       <c r="AJ119" s="20"/>
     </row>
-    <row r="120" spans="1:36" ht="7.5" customHeight="1">
+    <row r="120" spans="1:36" ht="8.25" customHeight="1">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -4830,7 +4830,7 @@
       <c r="AI120" s="19"/>
       <c r="AJ120" s="20"/>
     </row>
-    <row r="121" spans="1:36" ht="7.5" customHeight="1">
+    <row r="121" spans="1:36" ht="8.25" customHeight="1">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -4868,7 +4868,7 @@
       <c r="AI121" s="19"/>
       <c r="AJ121" s="20"/>
     </row>
-    <row r="122" spans="1:36" ht="7.5" customHeight="1">
+    <row r="122" spans="1:36" ht="8.25" customHeight="1">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -4906,7 +4906,7 @@
       <c r="AI122" s="19"/>
       <c r="AJ122" s="20"/>
     </row>
-    <row r="123" spans="1:36" ht="7.5" customHeight="1">
+    <row r="123" spans="1:36" ht="8.25" customHeight="1">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -4944,7 +4944,7 @@
       <c r="AI123" s="19"/>
       <c r="AJ123" s="20"/>
     </row>
-    <row r="124" spans="1:36" ht="7.5" customHeight="1">
+    <row r="124" spans="1:36" ht="8.25" customHeight="1">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -4982,7 +4982,7 @@
       <c r="AI124" s="19"/>
       <c r="AJ124" s="20"/>
     </row>
-    <row r="125" spans="1:36" ht="7.5" customHeight="1">
+    <row r="125" spans="1:36" ht="8.25" customHeight="1">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -5020,7 +5020,7 @@
       <c r="AI125" s="19"/>
       <c r="AJ125" s="20"/>
     </row>
-    <row r="126" spans="1:36" ht="7.5" customHeight="1">
+    <row r="126" spans="1:36" ht="8.25" customHeight="1">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -5058,7 +5058,7 @@
       <c r="AI126" s="19"/>
       <c r="AJ126" s="20"/>
     </row>
-    <row r="127" spans="1:36" ht="7.5" customHeight="1">
+    <row r="127" spans="1:36" ht="8.25" customHeight="1">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -5096,7 +5096,7 @@
       <c r="AI127" s="19"/>
       <c r="AJ127" s="20"/>
     </row>
-    <row r="128" spans="1:36" ht="7.5" customHeight="1">
+    <row r="128" spans="1:36" ht="8.25" customHeight="1">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -5134,7 +5134,7 @@
       <c r="AI128" s="19"/>
       <c r="AJ128" s="20"/>
     </row>
-    <row r="129" spans="1:36" ht="7.5" customHeight="1">
+    <row r="129" spans="1:36" ht="8.25" customHeight="1">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -5172,7 +5172,7 @@
       <c r="AI129" s="19"/>
       <c r="AJ129" s="20"/>
     </row>
-    <row r="130" spans="1:36" ht="7.5" customHeight="1">
+    <row r="130" spans="1:36" ht="8.25" customHeight="1">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -5210,7 +5210,7 @@
       <c r="AI130" s="19"/>
       <c r="AJ130" s="20"/>
     </row>
-    <row r="131" spans="1:36" ht="7.5" customHeight="1">
+    <row r="131" spans="1:36" ht="8.25" customHeight="1">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -5248,7 +5248,7 @@
       <c r="AI131" s="19"/>
       <c r="AJ131" s="20"/>
     </row>
-    <row r="132" spans="1:36" ht="7.5" customHeight="1">
+    <row r="132" spans="1:36" ht="8.25" customHeight="1">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -5286,7 +5286,7 @@
       <c r="AI132" s="19"/>
       <c r="AJ132" s="20"/>
     </row>
-    <row r="133" spans="1:36" ht="7.5" customHeight="1">
+    <row r="133" spans="1:36" ht="8.25" customHeight="1">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -5324,7 +5324,7 @@
       <c r="AI133" s="19"/>
       <c r="AJ133" s="20"/>
     </row>
-    <row r="134" spans="1:36" ht="7.5" customHeight="1">
+    <row r="134" spans="1:36" ht="8.25" customHeight="1">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -5362,7 +5362,7 @@
       <c r="AI134" s="19"/>
       <c r="AJ134" s="20"/>
     </row>
-    <row r="135" spans="1:36" ht="7.5" customHeight="1">
+    <row r="135" spans="1:36" ht="8.25" customHeight="1">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -5400,7 +5400,7 @@
       <c r="AI135" s="19"/>
       <c r="AJ135" s="20"/>
     </row>
-    <row r="136" spans="1:36" ht="7.5" customHeight="1">
+    <row r="136" spans="1:36" ht="8.25" customHeight="1">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -5438,7 +5438,7 @@
       <c r="AI136" s="19"/>
       <c r="AJ136" s="20"/>
     </row>
-    <row r="137" spans="1:36" ht="7.5" customHeight="1">
+    <row r="137" spans="1:36" ht="8.25" customHeight="1">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -5476,7 +5476,7 @@
       <c r="AI137" s="19"/>
       <c r="AJ137" s="20"/>
     </row>
-    <row r="138" spans="1:36" ht="7.5" customHeight="1">
+    <row r="138" spans="1:36" ht="8.25" customHeight="1">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -5514,7 +5514,7 @@
       <c r="AI138" s="19"/>
       <c r="AJ138" s="20"/>
     </row>
-    <row r="139" spans="1:36" ht="7.5" customHeight="1">
+    <row r="139" spans="1:36" ht="8.25" customHeight="1">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -5552,7 +5552,7 @@
       <c r="AI139" s="19"/>
       <c r="AJ139" s="20"/>
     </row>
-    <row r="140" spans="1:36" ht="7.5" customHeight="1">
+    <row r="140" spans="1:36" ht="8.25" customHeight="1">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -5590,7 +5590,7 @@
       <c r="AI140" s="19"/>
       <c r="AJ140" s="20"/>
     </row>
-    <row r="141" spans="1:36" ht="7.5" customHeight="1">
+    <row r="141" spans="1:36" ht="8.25" customHeight="1">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -5628,7 +5628,7 @@
       <c r="AI141" s="19"/>
       <c r="AJ141" s="20"/>
     </row>
-    <row r="142" spans="1:36" ht="7.5" customHeight="1">
+    <row r="142" spans="1:36" ht="8.25" customHeight="1">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -5666,7 +5666,7 @@
       <c r="AI142" s="19"/>
       <c r="AJ142" s="20"/>
     </row>
-    <row r="143" spans="1:36" ht="7.5" customHeight="1">
+    <row r="143" spans="1:36" ht="8.25" customHeight="1">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -5704,7 +5704,7 @@
       <c r="AI143" s="19"/>
       <c r="AJ143" s="20"/>
     </row>
-    <row r="144" spans="1:36" ht="7.5" customHeight="1">
+    <row r="144" spans="1:36" ht="8.25" customHeight="1">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -5742,7 +5742,7 @@
       <c r="AI144" s="19"/>
       <c r="AJ144" s="20"/>
     </row>
-    <row r="145" spans="1:36" ht="7.5" customHeight="1">
+    <row r="145" spans="1:36" ht="8.25" customHeight="1">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -5780,7 +5780,7 @@
       <c r="AI145" s="19"/>
       <c r="AJ145" s="20"/>
     </row>
-    <row r="146" spans="1:36" ht="7.5" customHeight="1">
+    <row r="146" spans="1:36" ht="8.25" customHeight="1">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -5818,7 +5818,7 @@
       <c r="AI146" s="19"/>
       <c r="AJ146" s="20"/>
     </row>
-    <row r="147" spans="1:36" ht="7.5" customHeight="1">
+    <row r="147" spans="1:36" ht="8.25" customHeight="1">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -5856,7 +5856,7 @@
       <c r="AI147" s="19"/>
       <c r="AJ147" s="20"/>
     </row>
-    <row r="148" spans="1:36" ht="7.5" customHeight="1">
+    <row r="148" spans="1:36" ht="8.25" customHeight="1">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -5894,7 +5894,7 @@
       <c r="AI148" s="19"/>
       <c r="AJ148" s="20"/>
     </row>
-    <row r="149" spans="1:36" ht="7.5" customHeight="1">
+    <row r="149" spans="1:36" ht="8.25" customHeight="1">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -5932,7 +5932,7 @@
       <c r="AI149" s="19"/>
       <c r="AJ149" s="20"/>
     </row>
-    <row r="150" spans="1:36" ht="7.5" customHeight="1">
+    <row r="150" spans="1:36" ht="8.25" customHeight="1">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -5970,7 +5970,7 @@
       <c r="AI150" s="19"/>
       <c r="AJ150" s="20"/>
     </row>
-    <row r="151" spans="1:36" ht="7.5" customHeight="1">
+    <row r="151" spans="1:36" ht="8.25" customHeight="1">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -6008,7 +6008,7 @@
       <c r="AI151" s="19"/>
       <c r="AJ151" s="20"/>
     </row>
-    <row r="152" spans="1:36" ht="7.5" customHeight="1">
+    <row r="152" spans="1:36" ht="8.25" customHeight="1">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -6046,7 +6046,7 @@
       <c r="AI152" s="19"/>
       <c r="AJ152" s="20"/>
     </row>
-    <row r="153" spans="1:36" ht="7.5" customHeight="1">
+    <row r="153" spans="1:36" ht="8.25" customHeight="1">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -6084,7 +6084,7 @@
       <c r="AI153" s="19"/>
       <c r="AJ153" s="20"/>
     </row>
-    <row r="154" spans="1:36" ht="7.5" customHeight="1">
+    <row r="154" spans="1:36" ht="8.25" customHeight="1">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -6122,7 +6122,7 @@
       <c r="AI154" s="19"/>
       <c r="AJ154" s="20"/>
     </row>
-    <row r="155" spans="1:36" ht="7.5" customHeight="1">
+    <row r="155" spans="1:36" ht="8.25" customHeight="1">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -6160,7 +6160,7 @@
       <c r="AI155" s="19"/>
       <c r="AJ155" s="20"/>
     </row>
-    <row r="156" spans="1:36" ht="7.5" customHeight="1">
+    <row r="156" spans="1:36" ht="8.25" customHeight="1">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -6198,7 +6198,7 @@
       <c r="AI156" s="19"/>
       <c r="AJ156" s="20"/>
     </row>
-    <row r="157" spans="1:36" ht="7.5" customHeight="1">
+    <row r="157" spans="1:36" ht="8.25" customHeight="1">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -6236,7 +6236,7 @@
       <c r="AI157" s="19"/>
       <c r="AJ157" s="20"/>
     </row>
-    <row r="158" spans="1:36" ht="7.5" customHeight="1">
+    <row r="158" spans="1:36" ht="8.25" customHeight="1">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -6274,7 +6274,7 @@
       <c r="AI158" s="19"/>
       <c r="AJ158" s="20"/>
     </row>
-    <row r="159" spans="1:36" ht="7.5" customHeight="1">
+    <row r="159" spans="1:36" ht="8.25" customHeight="1">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -6312,7 +6312,7 @@
       <c r="AI159" s="19"/>
       <c r="AJ159" s="20"/>
     </row>
-    <row r="160" spans="1:36" ht="7.5" customHeight="1">
+    <row r="160" spans="1:36" ht="8.25" customHeight="1">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -6350,7 +6350,7 @@
       <c r="AI160" s="19"/>
       <c r="AJ160" s="20"/>
     </row>
-    <row r="161" spans="1:36" ht="7.5" customHeight="1">
+    <row r="161" spans="1:36" ht="8.25" customHeight="1">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -6388,7 +6388,7 @@
       <c r="AI161" s="19"/>
       <c r="AJ161" s="20"/>
     </row>
-    <row r="162" spans="1:36" ht="7.5" customHeight="1">
+    <row r="162" spans="1:36" ht="8.25" customHeight="1">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -6426,7 +6426,7 @@
       <c r="AI162" s="19"/>
       <c r="AJ162" s="20"/>
     </row>
-    <row r="163" spans="1:36" ht="7.5" customHeight="1">
+    <row r="163" spans="1:36" ht="8.25" customHeight="1">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -6464,7 +6464,7 @@
       <c r="AI163" s="19"/>
       <c r="AJ163" s="20"/>
     </row>
-    <row r="164" spans="1:36" ht="7.5" customHeight="1">
+    <row r="164" spans="1:36" ht="8.25" customHeight="1">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -6502,7 +6502,7 @@
       <c r="AI164" s="19"/>
       <c r="AJ164" s="20"/>
     </row>
-    <row r="165" spans="1:36" ht="7.5" customHeight="1">
+    <row r="165" spans="1:36" ht="8.25" customHeight="1">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -6540,7 +6540,7 @@
       <c r="AI165" s="19"/>
       <c r="AJ165" s="20"/>
     </row>
-    <row r="166" spans="1:36" ht="7.5" customHeight="1">
+    <row r="166" spans="1:36" ht="8.25" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -6578,7 +6578,7 @@
       <c r="AI166" s="19"/>
       <c r="AJ166" s="20"/>
     </row>
-    <row r="167" spans="1:36" ht="7.5" customHeight="1">
+    <row r="167" spans="1:36" ht="8.25" customHeight="1">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -6616,7 +6616,7 @@
       <c r="AI167" s="19"/>
       <c r="AJ167" s="20"/>
     </row>
-    <row r="168" spans="1:36" ht="7.5" customHeight="1">
+    <row r="168" spans="1:36" ht="8.25" customHeight="1">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -6654,7 +6654,7 @@
       <c r="AI168" s="19"/>
       <c r="AJ168" s="20"/>
     </row>
-    <row r="169" spans="1:36" ht="7.5" customHeight="1">
+    <row r="169" spans="1:36" ht="8.25" customHeight="1">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -6692,7 +6692,7 @@
       <c r="AI169" s="19"/>
       <c r="AJ169" s="20"/>
     </row>
-    <row r="170" spans="1:36" ht="7.5" customHeight="1">
+    <row r="170" spans="1:36" ht="8.25" customHeight="1">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -6730,7 +6730,7 @@
       <c r="AI170" s="19"/>
       <c r="AJ170" s="20"/>
     </row>
-    <row r="171" spans="1:36" ht="7.5" customHeight="1">
+    <row r="171" spans="1:36" ht="8.25" customHeight="1">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -6768,7 +6768,7 @@
       <c r="AI171" s="19"/>
       <c r="AJ171" s="20"/>
     </row>
-    <row r="172" spans="1:36" ht="7.5" customHeight="1">
+    <row r="172" spans="1:36" ht="8.25" customHeight="1">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -6806,7 +6806,7 @@
       <c r="AI172" s="19"/>
       <c r="AJ172" s="20"/>
     </row>
-    <row r="173" spans="1:36" ht="7.5" customHeight="1">
+    <row r="173" spans="1:36" ht="8.25" customHeight="1">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -6844,7 +6844,7 @@
       <c r="AI173" s="19"/>
       <c r="AJ173" s="20"/>
     </row>
-    <row r="174" spans="1:36" ht="7.5" customHeight="1">
+    <row r="174" spans="1:36" ht="8.25" customHeight="1">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -6882,7 +6882,7 @@
       <c r="AI174" s="19"/>
       <c r="AJ174" s="20"/>
     </row>
-    <row r="175" spans="1:36" ht="7.5" customHeight="1">
+    <row r="175" spans="1:36" ht="8.25" customHeight="1">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -6920,7 +6920,7 @@
       <c r="AI175" s="19"/>
       <c r="AJ175" s="20"/>
     </row>
-    <row r="176" spans="1:36" ht="7.5" customHeight="1">
+    <row r="176" spans="1:36" ht="8.25" customHeight="1">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -6958,7 +6958,7 @@
       <c r="AI176" s="19"/>
       <c r="AJ176" s="20"/>
     </row>
-    <row r="177" spans="1:36" ht="7.5" customHeight="1">
+    <row r="177" spans="1:36" ht="8.25" customHeight="1">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -6996,7 +6996,7 @@
       <c r="AI177" s="19"/>
       <c r="AJ177" s="20"/>
     </row>
-    <row r="178" spans="1:36" ht="7.5" customHeight="1">
+    <row r="178" spans="1:36" ht="8.25" customHeight="1">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -7034,7 +7034,7 @@
       <c r="AI178" s="19"/>
       <c r="AJ178" s="20"/>
     </row>
-    <row r="179" spans="1:36" ht="7.5" customHeight="1">
+    <row r="179" spans="1:36" ht="8.25" customHeight="1">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -7072,7 +7072,7 @@
       <c r="AI179" s="19"/>
       <c r="AJ179" s="20"/>
     </row>
-    <row r="180" spans="1:36" ht="7.5" customHeight="1">
+    <row r="180" spans="1:36" ht="8.25" customHeight="1">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -7110,7 +7110,7 @@
       <c r="AI180" s="19"/>
       <c r="AJ180" s="20"/>
     </row>
-    <row r="181" spans="1:36" ht="7.5" customHeight="1">
+    <row r="181" spans="1:36" ht="8.25" customHeight="1">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -7148,7 +7148,7 @@
       <c r="AI181" s="19"/>
       <c r="AJ181" s="20"/>
     </row>
-    <row r="182" spans="1:36" ht="7.5" customHeight="1">
+    <row r="182" spans="1:36" ht="8.25" customHeight="1">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -7186,7 +7186,7 @@
       <c r="AI182" s="19"/>
       <c r="AJ182" s="20"/>
     </row>
-    <row r="183" spans="1:36" ht="7.5" customHeight="1">
+    <row r="183" spans="1:36" ht="8.25" customHeight="1">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -7224,7 +7224,7 @@
       <c r="AI183" s="19"/>
       <c r="AJ183" s="20"/>
     </row>
-    <row r="184" spans="1:36" ht="7.5" customHeight="1">
+    <row r="184" spans="1:36" ht="8.25" customHeight="1">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -7262,7 +7262,7 @@
       <c r="AI184" s="19"/>
       <c r="AJ184" s="20"/>
     </row>
-    <row r="185" spans="1:36" ht="7.5" customHeight="1">
+    <row r="185" spans="1:36" ht="8.25" customHeight="1">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -7300,7 +7300,7 @@
       <c r="AI185" s="19"/>
       <c r="AJ185" s="20"/>
     </row>
-    <row r="186" spans="1:36" ht="7.5" customHeight="1">
+    <row r="186" spans="1:36" ht="8.25" customHeight="1">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -7338,7 +7338,7 @@
       <c r="AI186" s="19"/>
       <c r="AJ186" s="20"/>
     </row>
-    <row r="187" spans="1:36" ht="7.5" customHeight="1">
+    <row r="187" spans="1:36" ht="8.25" customHeight="1">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -7376,7 +7376,7 @@
       <c r="AI187" s="19"/>
       <c r="AJ187" s="20"/>
     </row>
-    <row r="188" spans="1:36" ht="7.5" customHeight="1">
+    <row r="188" spans="1:36" ht="8.25" customHeight="1">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -7414,7 +7414,7 @@
       <c r="AI188" s="19"/>
       <c r="AJ188" s="20"/>
     </row>
-    <row r="189" spans="1:36" ht="7.5" customHeight="1">
+    <row r="189" spans="1:36" ht="8.25" customHeight="1">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -7452,7 +7452,7 @@
       <c r="AI189" s="19"/>
       <c r="AJ189" s="20"/>
     </row>
-    <row r="190" spans="1:36" ht="7.5" customHeight="1">
+    <row r="190" spans="1:36" ht="8.25" customHeight="1">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -7490,7 +7490,7 @@
       <c r="AI190" s="19"/>
       <c r="AJ190" s="20"/>
     </row>
-    <row r="191" spans="1:36" ht="7.5" customHeight="1">
+    <row r="191" spans="1:36" ht="8.25" customHeight="1">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -7528,7 +7528,7 @@
       <c r="AI191" s="19"/>
       <c r="AJ191" s="20"/>
     </row>
-    <row r="192" spans="1:36" ht="7.5" customHeight="1">
+    <row r="192" spans="1:36" ht="8.25" customHeight="1">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -7566,7 +7566,7 @@
       <c r="AI192" s="19"/>
       <c r="AJ192" s="20"/>
     </row>
-    <row r="193" spans="1:36" ht="7.5" customHeight="1">
+    <row r="193" spans="1:36" ht="8.25" customHeight="1">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -7604,7 +7604,7 @@
       <c r="AI193" s="19"/>
       <c r="AJ193" s="20"/>
     </row>
-    <row r="194" spans="1:36" ht="7.5" customHeight="1">
+    <row r="194" spans="1:36" ht="8.25" customHeight="1">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -7642,7 +7642,7 @@
       <c r="AI194" s="19"/>
       <c r="AJ194" s="20"/>
     </row>
-    <row r="195" spans="1:36" ht="7.5" customHeight="1">
+    <row r="195" spans="1:36" ht="8.25" customHeight="1">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -7680,7 +7680,7 @@
       <c r="AI195" s="19"/>
       <c r="AJ195" s="20"/>
     </row>
-    <row r="196" spans="1:36" ht="7.5" customHeight="1">
+    <row r="196" spans="1:36" ht="8.25" customHeight="1">
       <c r="A196" s="19"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -7718,7 +7718,7 @@
       <c r="AI196" s="19"/>
       <c r="AJ196" s="20"/>
     </row>
-    <row r="197" spans="1:36" ht="7.5" customHeight="1">
+    <row r="197" spans="1:36" ht="8.25" customHeight="1">
       <c r="A197" s="19"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -7756,7 +7756,7 @@
       <c r="AI197" s="19"/>
       <c r="AJ197" s="20"/>
     </row>
-    <row r="198" spans="1:36" ht="7.5" customHeight="1">
+    <row r="198" spans="1:36" ht="8.25" customHeight="1">
       <c r="A198" s="19"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -7794,7 +7794,7 @@
       <c r="AI198" s="19"/>
       <c r="AJ198" s="20"/>
     </row>
-    <row r="199" spans="1:36" ht="7.5" customHeight="1">
+    <row r="199" spans="1:36" ht="8.25" customHeight="1">
       <c r="A199" s="19"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -7832,7 +7832,7 @@
       <c r="AI199" s="19"/>
       <c r="AJ199" s="20"/>
     </row>
-    <row r="200" spans="1:36" ht="7.5" customHeight="1">
+    <row r="200" spans="1:36" ht="8.25" customHeight="1">
       <c r="A200" s="19"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -7870,7 +7870,7 @@
       <c r="AI200" s="19"/>
       <c r="AJ200" s="20"/>
     </row>
-    <row r="201" spans="1:36" ht="7.5" customHeight="1">
+    <row r="201" spans="1:36" ht="8.25" customHeight="1">
       <c r="A201" s="19"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -7908,7 +7908,7 @@
       <c r="AI201" s="19"/>
       <c r="AJ201" s="20"/>
     </row>
-    <row r="202" spans="1:36" ht="7.5" customHeight="1">
+    <row r="202" spans="1:36" ht="8.25" customHeight="1">
       <c r="A202" s="19"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -7946,7 +7946,7 @@
       <c r="AI202" s="19"/>
       <c r="AJ202" s="20"/>
     </row>
-    <row r="203" spans="1:36" ht="7.5" customHeight="1">
+    <row r="203" spans="1:36" ht="8.25" customHeight="1">
       <c r="A203" s="19"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -7984,7 +7984,7 @@
       <c r="AI203" s="19"/>
       <c r="AJ203" s="20"/>
     </row>
-    <row r="204" spans="1:36" ht="7.5" customHeight="1">
+    <row r="204" spans="1:36" ht="8.25" customHeight="1">
       <c r="A204" s="19"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -8022,7 +8022,7 @@
       <c r="AI204" s="19"/>
       <c r="AJ204" s="20"/>
     </row>
-    <row r="205" spans="1:36" ht="7.5" customHeight="1">
+    <row r="205" spans="1:36" ht="8.25" customHeight="1">
       <c r="A205" s="19"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -8060,7 +8060,7 @@
       <c r="AI205" s="19"/>
       <c r="AJ205" s="20"/>
     </row>
-    <row r="206" spans="1:36" ht="7.5" customHeight="1">
+    <row r="206" spans="1:36" ht="8.25" customHeight="1">
       <c r="A206" s="19"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -8098,7 +8098,7 @@
       <c r="AI206" s="19"/>
       <c r="AJ206" s="20"/>
     </row>
-    <row r="207" spans="1:36" ht="7.5" customHeight="1">
+    <row r="207" spans="1:36" ht="8.25" customHeight="1">
       <c r="A207" s="19"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -8136,7 +8136,7 @@
       <c r="AI207" s="19"/>
       <c r="AJ207" s="20"/>
     </row>
-    <row r="208" spans="1:36" ht="7.5" customHeight="1">
+    <row r="208" spans="1:36" ht="8.25" customHeight="1">
       <c r="A208" s="19"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -8174,7 +8174,7 @@
       <c r="AI208" s="19"/>
       <c r="AJ208" s="20"/>
     </row>
-    <row r="209" spans="1:36" ht="7.5" customHeight="1">
+    <row r="209" spans="1:36" ht="8.25" customHeight="1">
       <c r="A209" s="19"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -8212,7 +8212,7 @@
       <c r="AI209" s="19"/>
       <c r="AJ209" s="20"/>
     </row>
-    <row r="210" spans="1:36" ht="7.5" customHeight="1">
+    <row r="210" spans="1:36" ht="8.25" customHeight="1">
       <c r="A210" s="19"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -8250,7 +8250,7 @@
       <c r="AI210" s="19"/>
       <c r="AJ210" s="20"/>
     </row>
-    <row r="211" spans="1:36" ht="7.5" customHeight="1">
+    <row r="211" spans="1:36" ht="8.25" customHeight="1">
       <c r="A211" s="19"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -8288,7 +8288,7 @@
       <c r="AI211" s="19"/>
       <c r="AJ211" s="20"/>
     </row>
-    <row r="212" spans="1:36" ht="7.5" customHeight="1">
+    <row r="212" spans="1:36" ht="8.25" customHeight="1">
       <c r="A212" s="19"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -8326,7 +8326,7 @@
       <c r="AI212" s="19"/>
       <c r="AJ212" s="20"/>
     </row>
-    <row r="213" spans="1:36" ht="7.5" customHeight="1">
+    <row r="213" spans="1:36" ht="8.25" customHeight="1">
       <c r="A213" s="19"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -8364,7 +8364,7 @@
       <c r="AI213" s="19"/>
       <c r="AJ213" s="20"/>
     </row>
-    <row r="214" spans="1:36" ht="7.5" customHeight="1">
+    <row r="214" spans="1:36" ht="8.25" customHeight="1">
       <c r="A214" s="19"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -8402,7 +8402,7 @@
       <c r="AI214" s="19"/>
       <c r="AJ214" s="20"/>
     </row>
-    <row r="215" spans="1:36" ht="7.5" customHeight="1">
+    <row r="215" spans="1:36" ht="8.25" customHeight="1">
       <c r="A215" s="19"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -8440,7 +8440,7 @@
       <c r="AI215" s="19"/>
       <c r="AJ215" s="20"/>
     </row>
-    <row r="216" spans="1:36" ht="7.5" customHeight="1">
+    <row r="216" spans="1:36" ht="8.25" customHeight="1">
       <c r="A216" s="19"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -8478,7 +8478,7 @@
       <c r="AI216" s="19"/>
       <c r="AJ216" s="20"/>
     </row>
-    <row r="217" spans="1:36" ht="7.5" customHeight="1">
+    <row r="217" spans="1:36" ht="8.25" customHeight="1">
       <c r="A217" s="19"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -8516,7 +8516,7 @@
       <c r="AI217" s="19"/>
       <c r="AJ217" s="20"/>
     </row>
-    <row r="218" spans="1:36" ht="7.5" customHeight="1">
+    <row r="218" spans="1:36" ht="8.25" customHeight="1">
       <c r="A218" s="19"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -8554,7 +8554,7 @@
       <c r="AI218" s="19"/>
       <c r="AJ218" s="20"/>
     </row>
-    <row r="219" spans="1:36" ht="7.5" customHeight="1">
+    <row r="219" spans="1:36" ht="8.25" customHeight="1">
       <c r="A219" s="19"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -8592,7 +8592,7 @@
       <c r="AI219" s="19"/>
       <c r="AJ219" s="20"/>
     </row>
-    <row r="220" spans="1:36" ht="7.5" customHeight="1">
+    <row r="220" spans="1:36" ht="8.25" customHeight="1">
       <c r="A220" s="19"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -8630,7 +8630,7 @@
       <c r="AI220" s="19"/>
       <c r="AJ220" s="20"/>
     </row>
-    <row r="221" spans="1:36" ht="7.5" customHeight="1">
+    <row r="221" spans="1:36" ht="8.25" customHeight="1">
       <c r="A221" s="19"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -8668,7 +8668,7 @@
       <c r="AI221" s="19"/>
       <c r="AJ221" s="20"/>
     </row>
-    <row r="222" spans="1:36" ht="7.5" customHeight="1">
+    <row r="222" spans="1:36" ht="8.25" customHeight="1">
       <c r="A222" s="19"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -8706,7 +8706,7 @@
       <c r="AI222" s="19"/>
       <c r="AJ222" s="20"/>
     </row>
-    <row r="223" spans="1:36" ht="7.5" customHeight="1">
+    <row r="223" spans="1:36" ht="8.25" customHeight="1">
       <c r="A223" s="19"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -8744,7 +8744,7 @@
       <c r="AI223" s="19"/>
       <c r="AJ223" s="20"/>
     </row>
-    <row r="224" spans="1:36" ht="7.5" customHeight="1">
+    <row r="224" spans="1:36" ht="8.25" customHeight="1">
       <c r="A224" s="19"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -8782,7 +8782,7 @@
       <c r="AI224" s="19"/>
       <c r="AJ224" s="20"/>
     </row>
-    <row r="225" spans="1:36" ht="7.5" customHeight="1">
+    <row r="225" spans="1:36" ht="8.25" customHeight="1">
       <c r="A225" s="19"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -8820,7 +8820,7 @@
       <c r="AI225" s="19"/>
       <c r="AJ225" s="20"/>
     </row>
-    <row r="226" spans="1:36" ht="7.5" customHeight="1">
+    <row r="226" spans="1:36" ht="8.25" customHeight="1">
       <c r="A226" s="19"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -8858,7 +8858,7 @@
       <c r="AI226" s="19"/>
       <c r="AJ226" s="20"/>
     </row>
-    <row r="227" spans="1:36" ht="7.5" customHeight="1">
+    <row r="227" spans="1:36" ht="8.25" customHeight="1">
       <c r="A227" s="19"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -8896,7 +8896,7 @@
       <c r="AI227" s="19"/>
       <c r="AJ227" s="20"/>
     </row>
-    <row r="228" spans="1:36" ht="7.5" customHeight="1">
+    <row r="228" spans="1:36" ht="8.25" customHeight="1">
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -8934,7 +8934,7 @@
       <c r="AI228" s="19"/>
       <c r="AJ228" s="20"/>
     </row>
-    <row r="229" spans="1:36" ht="7.5" customHeight="1">
+    <row r="229" spans="1:36" ht="8.25" customHeight="1">
       <c r="A229" s="19"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -8972,7 +8972,7 @@
       <c r="AI229" s="19"/>
       <c r="AJ229" s="20"/>
     </row>
-    <row r="230" spans="1:36" ht="7.5" customHeight="1">
+    <row r="230" spans="1:36" ht="8.25" customHeight="1">
       <c r="A230" s="19"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -9010,7 +9010,7 @@
       <c r="AI230" s="19"/>
       <c r="AJ230" s="20"/>
     </row>
-    <row r="231" spans="1:36" ht="7.5" customHeight="1">
+    <row r="231" spans="1:36" ht="8.25" customHeight="1">
       <c r="A231" s="19"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -9048,7 +9048,7 @@
       <c r="AI231" s="19"/>
       <c r="AJ231" s="20"/>
     </row>
-    <row r="232" spans="1:36" ht="7.5" customHeight="1">
+    <row r="232" spans="1:36" ht="8.25" customHeight="1">
       <c r="A232" s="19"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -9086,7 +9086,7 @@
       <c r="AI232" s="19"/>
       <c r="AJ232" s="20"/>
     </row>
-    <row r="233" spans="1:36" ht="7.5" customHeight="1">
+    <row r="233" spans="1:36" ht="8.25" customHeight="1">
       <c r="A233" s="19"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -9124,7 +9124,7 @@
       <c r="AI233" s="19"/>
       <c r="AJ233" s="20"/>
     </row>
-    <row r="234" spans="1:36" ht="7.5" customHeight="1">
+    <row r="234" spans="1:36" ht="8.25" customHeight="1">
       <c r="A234" s="19"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -9162,7 +9162,7 @@
       <c r="AI234" s="19"/>
       <c r="AJ234" s="20"/>
     </row>
-    <row r="235" spans="1:36" ht="7.5" customHeight="1">
+    <row r="235" spans="1:36" ht="8.25" customHeight="1">
       <c r="A235" s="19"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -9200,7 +9200,7 @@
       <c r="AI235" s="19"/>
       <c r="AJ235" s="20"/>
     </row>
-    <row r="236" spans="1:36" ht="7.5" customHeight="1">
+    <row r="236" spans="1:36" ht="8.25" customHeight="1">
       <c r="A236" s="19"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -9238,7 +9238,7 @@
       <c r="AI236" s="19"/>
       <c r="AJ236" s="20"/>
     </row>
-    <row r="237" spans="1:36" ht="7.5" customHeight="1">
+    <row r="237" spans="1:36" ht="8.25" customHeight="1">
       <c r="A237" s="19"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -9276,7 +9276,7 @@
       <c r="AI237" s="19"/>
       <c r="AJ237" s="20"/>
     </row>
-    <row r="238" spans="1:36" ht="7.5" customHeight="1">
+    <row r="238" spans="1:36" ht="8.25" customHeight="1">
       <c r="A238" s="19"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -9314,7 +9314,7 @@
       <c r="AI238" s="19"/>
       <c r="AJ238" s="20"/>
     </row>
-    <row r="239" spans="1:36" ht="7.5" customHeight="1">
+    <row r="239" spans="1:36" ht="8.25" customHeight="1">
       <c r="A239" s="19"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -9352,7 +9352,7 @@
       <c r="AI239" s="19"/>
       <c r="AJ239" s="20"/>
     </row>
-    <row r="240" spans="1:36" ht="7.5" customHeight="1">
+    <row r="240" spans="1:36" ht="8.25" customHeight="1">
       <c r="A240" s="19"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -9390,7 +9390,7 @@
       <c r="AI240" s="19"/>
       <c r="AJ240" s="20"/>
     </row>
-    <row r="241" spans="1:36" ht="7.5" customHeight="1">
+    <row r="241" spans="1:36" ht="8.25" customHeight="1">
       <c r="A241" s="19"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -9428,7 +9428,7 @@
       <c r="AI241" s="19"/>
       <c r="AJ241" s="20"/>
     </row>
-    <row r="242" spans="1:36" ht="7.5" customHeight="1">
+    <row r="242" spans="1:36" ht="8.25" customHeight="1">
       <c r="A242" s="19"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -9466,7 +9466,7 @@
       <c r="AI242" s="19"/>
       <c r="AJ242" s="20"/>
     </row>
-    <row r="243" spans="1:36" ht="7.5" customHeight="1">
+    <row r="243" spans="1:36" ht="8.25" customHeight="1">
       <c r="A243" s="19"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -9504,7 +9504,7 @@
       <c r="AI243" s="19"/>
       <c r="AJ243" s="20"/>
     </row>
-    <row r="244" spans="1:36" ht="7.5" customHeight="1">
+    <row r="244" spans="1:36" ht="8.25" customHeight="1">
       <c r="A244" s="19"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -9542,7 +9542,7 @@
       <c r="AI244" s="19"/>
       <c r="AJ244" s="20"/>
     </row>
-    <row r="245" spans="1:36" ht="7.5" customHeight="1">
+    <row r="245" spans="1:36" ht="8.25" customHeight="1">
       <c r="A245" s="19"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -9580,7 +9580,7 @@
       <c r="AI245" s="19"/>
       <c r="AJ245" s="20"/>
     </row>
-    <row r="246" spans="1:36" ht="7.5" customHeight="1">
+    <row r="246" spans="1:36" ht="8.25" customHeight="1">
       <c r="A246" s="19"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -9618,7 +9618,7 @@
       <c r="AI246" s="19"/>
       <c r="AJ246" s="20"/>
     </row>
-    <row r="247" spans="1:36" ht="7.5" customHeight="1">
+    <row r="247" spans="1:36" ht="8.25" customHeight="1">
       <c r="A247" s="19"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -9656,7 +9656,7 @@
       <c r="AI247" s="19"/>
       <c r="AJ247" s="20"/>
     </row>
-    <row r="248" spans="1:36" ht="7.5" customHeight="1">
+    <row r="248" spans="1:36" ht="8.25" customHeight="1">
       <c r="A248" s="19"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -9694,7 +9694,7 @@
       <c r="AI248" s="19"/>
       <c r="AJ248" s="20"/>
     </row>
-    <row r="249" spans="1:36" ht="7.5" customHeight="1">
+    <row r="249" spans="1:36" ht="8.25" customHeight="1">
       <c r="A249" s="19"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -9732,7 +9732,7 @@
       <c r="AI249" s="19"/>
       <c r="AJ249" s="20"/>
     </row>
-    <row r="250" spans="1:36" ht="7.5" customHeight="1">
+    <row r="250" spans="1:36" ht="8.25" customHeight="1">
       <c r="A250" s="19"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -9770,7 +9770,7 @@
       <c r="AI250" s="19"/>
       <c r="AJ250" s="20"/>
     </row>
-    <row r="251" spans="1:36" ht="7.5" customHeight="1">
+    <row r="251" spans="1:36" ht="8.25" customHeight="1">
       <c r="A251" s="19"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -9808,7 +9808,7 @@
       <c r="AI251" s="19"/>
       <c r="AJ251" s="20"/>
     </row>
-    <row r="252" spans="1:36" ht="7.5" customHeight="1">
+    <row r="252" spans="1:36" ht="8.25" customHeight="1">
       <c r="A252" s="19"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -9846,7 +9846,7 @@
       <c r="AI252" s="19"/>
       <c r="AJ252" s="20"/>
     </row>
-    <row r="253" spans="1:36" ht="7.5" customHeight="1">
+    <row r="253" spans="1:36" ht="8.25" customHeight="1">
       <c r="A253" s="19"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -9884,7 +9884,7 @@
       <c r="AI253" s="19"/>
       <c r="AJ253" s="20"/>
     </row>
-    <row r="254" spans="1:36" ht="7.5" customHeight="1">
+    <row r="254" spans="1:36" ht="8.25" customHeight="1">
       <c r="A254" s="19"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -9922,7 +9922,7 @@
       <c r="AI254" s="19"/>
       <c r="AJ254" s="20"/>
     </row>
-    <row r="255" spans="1:36" ht="7.5" customHeight="1">
+    <row r="255" spans="1:36" ht="8.25" customHeight="1">
       <c r="A255" s="19"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -9960,7 +9960,7 @@
       <c r="AI255" s="19"/>
       <c r="AJ255" s="20"/>
     </row>
-    <row r="256" spans="1:36" ht="7.5" customHeight="1">
+    <row r="256" spans="1:36" ht="8.25" customHeight="1">
       <c r="A256" s="19"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -9998,7 +9998,7 @@
       <c r="AI256" s="19"/>
       <c r="AJ256" s="20"/>
     </row>
-    <row r="257" spans="1:36" ht="7.5" customHeight="1">
+    <row r="257" spans="1:36" ht="8.25" customHeight="1">
       <c r="A257" s="19"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -10036,7 +10036,7 @@
       <c r="AI257" s="19"/>
       <c r="AJ257" s="20"/>
     </row>
-    <row r="258" spans="1:36" ht="7.5" customHeight="1">
+    <row r="258" spans="1:36" ht="8.25" customHeight="1">
       <c r="A258" s="19"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -10074,7 +10074,7 @@
       <c r="AI258" s="19"/>
       <c r="AJ258" s="20"/>
     </row>
-    <row r="259" spans="1:36" ht="7.5" customHeight="1">
+    <row r="259" spans="1:36" ht="8.25" customHeight="1">
       <c r="A259" s="19"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -10112,7 +10112,7 @@
       <c r="AI259" s="19"/>
       <c r="AJ259" s="20"/>
     </row>
-    <row r="260" spans="1:36" ht="7.5" customHeight="1">
+    <row r="260" spans="1:36" ht="8.25" customHeight="1">
       <c r="A260" s="19"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -10150,7 +10150,7 @@
       <c r="AI260" s="19"/>
       <c r="AJ260" s="20"/>
     </row>
-    <row r="261" spans="1:36" ht="7.5" customHeight="1">
+    <row r="261" spans="1:36" ht="8.25" customHeight="1">
       <c r="A261" s="19"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -10188,7 +10188,7 @@
       <c r="AI261" s="19"/>
       <c r="AJ261" s="20"/>
     </row>
-    <row r="262" spans="1:36" ht="7.5" customHeight="1">
+    <row r="262" spans="1:36" ht="8.25" customHeight="1">
       <c r="A262" s="19"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -10226,7 +10226,7 @@
       <c r="AI262" s="19"/>
       <c r="AJ262" s="20"/>
     </row>
-    <row r="263" spans="1:36" ht="7.5" customHeight="1">
+    <row r="263" spans="1:36" ht="8.25" customHeight="1">
       <c r="A263" s="19"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -10264,7 +10264,7 @@
       <c r="AI263" s="19"/>
       <c r="AJ263" s="20"/>
     </row>
-    <row r="264" spans="1:36" ht="7.5" customHeight="1">
+    <row r="264" spans="1:36" ht="8.25" customHeight="1">
       <c r="A264" s="19"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -10302,7 +10302,7 @@
       <c r="AI264" s="19"/>
       <c r="AJ264" s="20"/>
     </row>
-    <row r="265" spans="1:36" ht="7.5" customHeight="1">
+    <row r="265" spans="1:36" ht="8.25" customHeight="1">
       <c r="A265" s="19"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -10340,7 +10340,7 @@
       <c r="AI265" s="19"/>
       <c r="AJ265" s="20"/>
     </row>
-    <row r="266" spans="1:36" ht="7.5" customHeight="1">
+    <row r="266" spans="1:36" ht="8.25" customHeight="1">
       <c r="A266" s="19"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -10378,7 +10378,7 @@
       <c r="AI266" s="19"/>
       <c r="AJ266" s="20"/>
     </row>
-    <row r="267" spans="1:36" ht="7.5" customHeight="1">
+    <row r="267" spans="1:36" ht="8.25" customHeight="1">
       <c r="A267" s="19"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -10416,7 +10416,7 @@
       <c r="AI267" s="19"/>
       <c r="AJ267" s="20"/>
     </row>
-    <row r="268" spans="1:36" ht="7.5" customHeight="1">
+    <row r="268" spans="1:36" ht="8.25" customHeight="1">
       <c r="A268" s="19"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -10454,7 +10454,7 @@
       <c r="AI268" s="19"/>
       <c r="AJ268" s="20"/>
     </row>
-    <row r="269" spans="1:36" ht="7.5" customHeight="1">
+    <row r="269" spans="1:36" ht="8.25" customHeight="1">
       <c r="A269" s="19"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -10492,7 +10492,7 @@
       <c r="AI269" s="19"/>
       <c r="AJ269" s="20"/>
     </row>
-    <row r="270" spans="1:36" ht="7.5" customHeight="1">
+    <row r="270" spans="1:36" ht="8.25" customHeight="1">
       <c r="A270" s="19"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -10530,7 +10530,7 @@
       <c r="AI270" s="19"/>
       <c r="AJ270" s="20"/>
     </row>
-    <row r="271" spans="1:36" ht="7.5" customHeight="1">
+    <row r="271" spans="1:36" ht="8.25" customHeight="1">
       <c r="A271" s="19"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -10568,7 +10568,7 @@
       <c r="AI271" s="19"/>
       <c r="AJ271" s="20"/>
     </row>
-    <row r="272" spans="1:36" ht="7.5" customHeight="1">
+    <row r="272" spans="1:36" ht="8.25" customHeight="1">
       <c r="A272" s="19"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -10606,7 +10606,7 @@
       <c r="AI272" s="19"/>
       <c r="AJ272" s="20"/>
     </row>
-    <row r="273" spans="1:36" ht="7.5" customHeight="1">
+    <row r="273" spans="1:36" ht="8.25" customHeight="1">
       <c r="A273" s="19"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -10644,7 +10644,7 @@
       <c r="AI273" s="19"/>
       <c r="AJ273" s="20"/>
     </row>
-    <row r="274" spans="1:36" ht="7.5" customHeight="1">
+    <row r="274" spans="1:36" ht="8.25" customHeight="1">
       <c r="A274" s="19"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -10682,7 +10682,7 @@
       <c r="AI274" s="19"/>
       <c r="AJ274" s="20"/>
     </row>
-    <row r="275" spans="1:36" ht="7.5" customHeight="1">
+    <row r="275" spans="1:36" ht="8.25" customHeight="1">
       <c r="A275" s="19"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -10720,7 +10720,7 @@
       <c r="AI275" s="19"/>
       <c r="AJ275" s="20"/>
     </row>
-    <row r="276" spans="1:36" ht="7.5" customHeight="1">
+    <row r="276" spans="1:36" ht="8.25" customHeight="1">
       <c r="A276" s="19"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -10758,7 +10758,7 @@
       <c r="AI276" s="19"/>
       <c r="AJ276" s="20"/>
     </row>
-    <row r="277" spans="1:36" ht="7.5" customHeight="1">
+    <row r="277" spans="1:36" ht="8.25" customHeight="1">
       <c r="A277" s="19"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -10796,7 +10796,7 @@
       <c r="AI277" s="19"/>
       <c r="AJ277" s="20"/>
     </row>
-    <row r="278" spans="1:36" ht="7.5" customHeight="1">
+    <row r="278" spans="1:36" ht="8.25" customHeight="1">
       <c r="A278" s="19"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -10834,7 +10834,7 @@
       <c r="AI278" s="19"/>
       <c r="AJ278" s="20"/>
     </row>
-    <row r="279" spans="1:36" ht="7.5" customHeight="1">
+    <row r="279" spans="1:36" ht="8.25" customHeight="1">
       <c r="A279" s="19"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -10872,7 +10872,7 @@
       <c r="AI279" s="19"/>
       <c r="AJ279" s="20"/>
     </row>
-    <row r="280" spans="1:36" ht="7.5" customHeight="1">
+    <row r="280" spans="1:36" ht="8.25" customHeight="1">
       <c r="A280" s="19"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -10910,7 +10910,7 @@
       <c r="AI280" s="19"/>
       <c r="AJ280" s="20"/>
     </row>
-    <row r="281" spans="1:36" ht="7.5" customHeight="1">
+    <row r="281" spans="1:36" ht="8.25" customHeight="1">
       <c r="A281" s="19"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -10948,7 +10948,7 @@
       <c r="AI281" s="19"/>
       <c r="AJ281" s="20"/>
     </row>
-    <row r="282" spans="1:36" ht="7.5" customHeight="1">
+    <row r="282" spans="1:36" ht="8.25" customHeight="1">
       <c r="A282" s="19"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -10986,7 +10986,7 @@
       <c r="AI282" s="19"/>
       <c r="AJ282" s="20"/>
     </row>
-    <row r="283" spans="1:36" ht="7.5" customHeight="1">
+    <row r="283" spans="1:36" ht="8.25" customHeight="1">
       <c r="A283" s="19"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -11024,7 +11024,7 @@
       <c r="AI283" s="19"/>
       <c r="AJ283" s="20"/>
     </row>
-    <row r="284" spans="1:36" ht="7.5" customHeight="1">
+    <row r="284" spans="1:36" ht="8.25" customHeight="1">
       <c r="A284" s="19"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -11062,7 +11062,7 @@
       <c r="AI284" s="19"/>
       <c r="AJ284" s="20"/>
     </row>
-    <row r="285" spans="1:36" ht="7.5" customHeight="1">
+    <row r="285" spans="1:36" ht="8.25" customHeight="1">
       <c r="A285" s="19"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -11100,7 +11100,7 @@
       <c r="AI285" s="19"/>
       <c r="AJ285" s="20"/>
     </row>
-    <row r="286" spans="1:36" ht="7.5" customHeight="1">
+    <row r="286" spans="1:36" ht="8.25" customHeight="1">
       <c r="A286" s="19"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -11138,7 +11138,7 @@
       <c r="AI286" s="19"/>
       <c r="AJ286" s="20"/>
     </row>
-    <row r="287" spans="1:36" ht="7.5" customHeight="1">
+    <row r="287" spans="1:36" ht="8.25" customHeight="1">
       <c r="A287" s="19"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -11176,7 +11176,7 @@
       <c r="AI287" s="19"/>
       <c r="AJ287" s="20"/>
     </row>
-    <row r="288" spans="1:36" ht="7.5" customHeight="1">
+    <row r="288" spans="1:36" ht="8.25" customHeight="1">
       <c r="A288" s="19"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -11214,7 +11214,7 @@
       <c r="AI288" s="19"/>
       <c r="AJ288" s="20"/>
     </row>
-    <row r="289" spans="1:36" ht="7.5" customHeight="1">
+    <row r="289" spans="1:36" ht="8.25" customHeight="1">
       <c r="A289" s="19"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -11252,7 +11252,7 @@
       <c r="AI289" s="19"/>
       <c r="AJ289" s="20"/>
     </row>
-    <row r="290" spans="1:36" ht="7.5" customHeight="1">
+    <row r="290" spans="1:36" ht="8.25" customHeight="1">
       <c r="A290" s="19"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -11290,7 +11290,7 @@
       <c r="AI290" s="19"/>
       <c r="AJ290" s="20"/>
     </row>
-    <row r="291" spans="1:36" ht="7.5" customHeight="1">
+    <row r="291" spans="1:36" ht="8.25" customHeight="1">
       <c r="A291" s="19"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -11328,7 +11328,7 @@
       <c r="AI291" s="19"/>
       <c r="AJ291" s="20"/>
     </row>
-    <row r="292" spans="1:36" ht="7.5" customHeight="1">
+    <row r="292" spans="1:36" ht="8.25" customHeight="1">
       <c r="A292" s="19"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -11366,7 +11366,7 @@
       <c r="AI292" s="19"/>
       <c r="AJ292" s="20"/>
     </row>
-    <row r="293" spans="1:36" ht="7.5" customHeight="1">
+    <row r="293" spans="1:36" ht="8.25" customHeight="1">
       <c r="A293" s="19"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -11404,7 +11404,7 @@
       <c r="AI293" s="19"/>
       <c r="AJ293" s="20"/>
     </row>
-    <row r="294" spans="1:36" ht="7.5" customHeight="1">
+    <row r="294" spans="1:36" ht="8.25" customHeight="1">
       <c r="A294" s="19"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -11442,7 +11442,7 @@
       <c r="AI294" s="19"/>
       <c r="AJ294" s="20"/>
     </row>
-    <row r="295" spans="1:36" ht="7.5" customHeight="1">
+    <row r="295" spans="1:36" ht="8.25" customHeight="1">
       <c r="A295" s="19"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -11480,7 +11480,7 @@
       <c r="AI295" s="19"/>
       <c r="AJ295" s="20"/>
     </row>
-    <row r="296" spans="1:36" ht="7.5" customHeight="1">
+    <row r="296" spans="1:36" ht="8.25" customHeight="1">
       <c r="A296" s="19"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -11518,7 +11518,7 @@
       <c r="AI296" s="19"/>
       <c r="AJ296" s="20"/>
     </row>
-    <row r="297" spans="1:36" ht="7.5" customHeight="1">
+    <row r="297" spans="1:36" ht="8.25" customHeight="1">
       <c r="A297" s="19"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -11556,7 +11556,7 @@
       <c r="AI297" s="19"/>
       <c r="AJ297" s="20"/>
     </row>
-    <row r="298" spans="1:36" ht="7.5" customHeight="1">
+    <row r="298" spans="1:36" ht="8.25" customHeight="1">
       <c r="A298" s="19"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -11594,7 +11594,7 @@
       <c r="AI298" s="19"/>
       <c r="AJ298" s="20"/>
     </row>
-    <row r="299" spans="1:36" ht="7.5" customHeight="1">
+    <row r="299" spans="1:36" ht="8.25" customHeight="1">
       <c r="A299" s="19"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -11632,7 +11632,7 @@
       <c r="AI299" s="19"/>
       <c r="AJ299" s="20"/>
     </row>
-    <row r="300" spans="1:36" ht="7.5" customHeight="1">
+    <row r="300" spans="1:36" ht="8.25" customHeight="1">
       <c r="A300" s="19"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -11670,7 +11670,7 @@
       <c r="AI300" s="19"/>
       <c r="AJ300" s="20"/>
     </row>
-    <row r="301" spans="1:36" ht="7.5" customHeight="1">
+    <row r="301" spans="1:36" ht="8.25" customHeight="1">
       <c r="A301" s="19"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -11708,7 +11708,7 @@
       <c r="AI301" s="19"/>
       <c r="AJ301" s="20"/>
     </row>
-    <row r="302" spans="1:36" ht="7.5" customHeight="1">
+    <row r="302" spans="1:36" ht="8.25" customHeight="1">
       <c r="A302" s="19"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -11746,7 +11746,7 @@
       <c r="AI302" s="19"/>
       <c r="AJ302" s="20"/>
     </row>
-    <row r="303" spans="1:36" ht="7.5" customHeight="1">
+    <row r="303" spans="1:36" ht="8.25" customHeight="1">
       <c r="A303" s="19"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -11784,7 +11784,7 @@
       <c r="AI303" s="19"/>
       <c r="AJ303" s="20"/>
     </row>
-    <row r="304" spans="1:36" ht="7.5" customHeight="1">
+    <row r="304" spans="1:36" ht="8.25" customHeight="1">
       <c r="A304" s="19"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -11822,7 +11822,7 @@
       <c r="AI304" s="19"/>
       <c r="AJ304" s="20"/>
     </row>
-    <row r="305" spans="1:36" ht="7.5" customHeight="1">
+    <row r="305" spans="1:36" ht="8.25" customHeight="1">
       <c r="A305" s="19"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -11860,7 +11860,7 @@
       <c r="AI305" s="19"/>
       <c r="AJ305" s="20"/>
     </row>
-    <row r="306" spans="1:36" ht="7.5" customHeight="1">
+    <row r="306" spans="1:36" ht="8.25" customHeight="1">
       <c r="A306" s="19"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -11898,7 +11898,7 @@
       <c r="AI306" s="19"/>
       <c r="AJ306" s="20"/>
     </row>
-    <row r="307" spans="1:36" ht="7.5" customHeight="1">
+    <row r="307" spans="1:36" ht="8.25" customHeight="1">
       <c r="A307" s="19"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -11936,7 +11936,7 @@
       <c r="AI307" s="19"/>
       <c r="AJ307" s="20"/>
     </row>
-    <row r="308" spans="1:36" ht="7.5" customHeight="1">
+    <row r="308" spans="1:36" ht="8.25" customHeight="1">
       <c r="A308" s="19"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -11974,7 +11974,7 @@
       <c r="AI308" s="19"/>
       <c r="AJ308" s="20"/>
     </row>
-    <row r="309" spans="1:36" ht="7.5" customHeight="1">
+    <row r="309" spans="1:36" ht="8.25" customHeight="1">
       <c r="A309" s="19"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -12012,7 +12012,7 @@
       <c r="AI309" s="19"/>
       <c r="AJ309" s="20"/>
     </row>
-    <row r="310" spans="1:36" ht="7.5" customHeight="1">
+    <row r="310" spans="1:36" ht="8.25" customHeight="1">
       <c r="A310" s="19"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -12050,7 +12050,7 @@
       <c r="AI310" s="19"/>
       <c r="AJ310" s="20"/>
     </row>
-    <row r="311" spans="1:36" ht="7.5" customHeight="1">
+    <row r="311" spans="1:36" ht="8.25" customHeight="1">
       <c r="A311" s="19"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -12088,7 +12088,7 @@
       <c r="AI311" s="19"/>
       <c r="AJ311" s="20"/>
     </row>
-    <row r="312" spans="1:36" ht="7.5" customHeight="1">
+    <row r="312" spans="1:36" ht="8.25" customHeight="1">
       <c r="A312" s="19"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -12126,7 +12126,7 @@
       <c r="AI312" s="19"/>
       <c r="AJ312" s="20"/>
     </row>
-    <row r="313" spans="1:36" ht="7.5" customHeight="1">
+    <row r="313" spans="1:36" ht="8.25" customHeight="1">
       <c r="A313" s="19"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -12164,7 +12164,7 @@
       <c r="AI313" s="19"/>
       <c r="AJ313" s="20"/>
     </row>
-    <row r="314" spans="1:36" ht="7.5" customHeight="1">
+    <row r="314" spans="1:36" ht="8.25" customHeight="1">
       <c r="A314" s="19"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -12202,7 +12202,7 @@
       <c r="AI314" s="19"/>
       <c r="AJ314" s="20"/>
     </row>
-    <row r="315" spans="1:36" ht="7.5" customHeight="1">
+    <row r="315" spans="1:36" ht="8.25" customHeight="1">
       <c r="A315" s="19"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -12240,7 +12240,7 @@
       <c r="AI315" s="19"/>
       <c r="AJ315" s="20"/>
     </row>
-    <row r="316" spans="1:36" ht="7.5" customHeight="1">
+    <row r="316" spans="1:36" ht="8.25" customHeight="1">
       <c r="A316" s="19"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -12278,7 +12278,7 @@
       <c r="AI316" s="19"/>
       <c r="AJ316" s="20"/>
     </row>
-    <row r="317" spans="1:36" ht="7.5" customHeight="1">
+    <row r="317" spans="1:36" ht="8.25" customHeight="1">
       <c r="A317" s="19"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -12316,7 +12316,7 @@
       <c r="AI317" s="19"/>
       <c r="AJ317" s="20"/>
     </row>
-    <row r="318" spans="1:36" ht="7.5" customHeight="1">
+    <row r="318" spans="1:36" ht="8.25" customHeight="1">
       <c r="A318" s="19"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -12354,7 +12354,7 @@
       <c r="AI318" s="19"/>
       <c r="AJ318" s="20"/>
     </row>
-    <row r="319" spans="1:36" ht="7.5" customHeight="1">
+    <row r="319" spans="1:36" ht="8.25" customHeight="1">
       <c r="A319" s="19"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -12392,7 +12392,7 @@
       <c r="AI319" s="19"/>
       <c r="AJ319" s="20"/>
     </row>
-    <row r="320" spans="1:36" ht="7.5" customHeight="1">
+    <row r="320" spans="1:36" ht="8.25" customHeight="1">
       <c r="A320" s="19"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -12430,7 +12430,7 @@
       <c r="AI320" s="19"/>
       <c r="AJ320" s="20"/>
     </row>
-    <row r="321" spans="1:36" ht="7.5" customHeight="1">
+    <row r="321" spans="1:36" ht="8.25" customHeight="1">
       <c r="A321" s="19"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -12468,7 +12468,7 @@
       <c r="AI321" s="19"/>
       <c r="AJ321" s="20"/>
     </row>
-    <row r="322" spans="1:36" ht="7.5" customHeight="1">
+    <row r="322" spans="1:36" ht="8.25" customHeight="1">
       <c r="A322" s="19"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -12506,7 +12506,7 @@
       <c r="AI322" s="19"/>
       <c r="AJ322" s="20"/>
     </row>
-    <row r="323" spans="1:36" ht="7.5" customHeight="1">
+    <row r="323" spans="1:36" ht="8.25" customHeight="1">
       <c r="A323" s="19"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -12544,7 +12544,7 @@
       <c r="AI323" s="19"/>
       <c r="AJ323" s="20"/>
     </row>
-    <row r="324" spans="1:36" ht="7.5" customHeight="1">
+    <row r="324" spans="1:36" ht="8.25" customHeight="1">
       <c r="A324" s="19"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -12582,7 +12582,7 @@
       <c r="AI324" s="19"/>
       <c r="AJ324" s="20"/>
     </row>
-    <row r="325" spans="1:36" ht="7.5" customHeight="1">
+    <row r="325" spans="1:36" ht="8.25" customHeight="1">
       <c r="A325" s="19"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -12620,7 +12620,7 @@
       <c r="AI325" s="19"/>
       <c r="AJ325" s="20"/>
     </row>
-    <row r="326" spans="1:36" ht="7.5" customHeight="1">
+    <row r="326" spans="1:36" ht="8.25" customHeight="1">
       <c r="A326" s="19"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -12658,7 +12658,7 @@
       <c r="AI326" s="19"/>
       <c r="AJ326" s="20"/>
     </row>
-    <row r="327" spans="1:36" ht="7.5" customHeight="1">
+    <row r="327" spans="1:36" ht="8.25" customHeight="1">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -12696,7 +12696,7 @@
       <c r="AI327" s="19"/>
       <c r="AJ327" s="20"/>
     </row>
-    <row r="328" spans="1:36" ht="7.5" customHeight="1">
+    <row r="328" spans="1:36" ht="8.25" customHeight="1">
       <c r="A328" s="19"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -12734,7 +12734,7 @@
       <c r="AI328" s="19"/>
       <c r="AJ328" s="20"/>
     </row>
-    <row r="329" spans="1:36" ht="7.5" customHeight="1">
+    <row r="329" spans="1:36" ht="8.25" customHeight="1">
       <c r="A329" s="19"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -12772,7 +12772,7 @@
       <c r="AI329" s="19"/>
       <c r="AJ329" s="20"/>
     </row>
-    <row r="330" spans="1:36" ht="7.5" customHeight="1">
+    <row r="330" spans="1:36" ht="8.25" customHeight="1">
       <c r="A330" s="19"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -12810,7 +12810,7 @@
       <c r="AI330" s="19"/>
       <c r="AJ330" s="20"/>
     </row>
-    <row r="331" spans="1:36" ht="7.5" customHeight="1">
+    <row r="331" spans="1:36" ht="8.25" customHeight="1">
       <c r="A331" s="19"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -12848,7 +12848,7 @@
       <c r="AI331" s="19"/>
       <c r="AJ331" s="20"/>
     </row>
-    <row r="332" spans="1:36" ht="7.5" customHeight="1">
+    <row r="332" spans="1:36" ht="8.25" customHeight="1">
       <c r="A332" s="19"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -12886,7 +12886,7 @@
       <c r="AI332" s="19"/>
       <c r="AJ332" s="20"/>
     </row>
-    <row r="333" spans="1:36" ht="7.5" customHeight="1">
+    <row r="333" spans="1:36" ht="8.25" customHeight="1">
       <c r="A333" s="19"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -12924,7 +12924,7 @@
       <c r="AI333" s="19"/>
       <c r="AJ333" s="20"/>
     </row>
-    <row r="334" spans="1:36" ht="7.5" customHeight="1">
+    <row r="334" spans="1:36" ht="8.25" customHeight="1">
       <c r="A334" s="19"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -12962,7 +12962,7 @@
       <c r="AI334" s="19"/>
       <c r="AJ334" s="20"/>
     </row>
-    <row r="335" spans="1:36" ht="7.5" customHeight="1">
+    <row r="335" spans="1:36" ht="8.25" customHeight="1">
       <c r="A335" s="19"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -13000,7 +13000,7 @@
       <c r="AI335" s="19"/>
       <c r="AJ335" s="20"/>
     </row>
-    <row r="336" spans="1:36" ht="7.5" customHeight="1">
+    <row r="336" spans="1:36" ht="8.25" customHeight="1">
       <c r="A336" s="19"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -13038,7 +13038,7 @@
       <c r="AI336" s="19"/>
       <c r="AJ336" s="20"/>
     </row>
-    <row r="337" spans="1:36" ht="7.5" customHeight="1">
+    <row r="337" spans="1:36" ht="8.25" customHeight="1">
       <c r="A337" s="19"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -13076,7 +13076,7 @@
       <c r="AI337" s="19"/>
       <c r="AJ337" s="20"/>
     </row>
-    <row r="338" spans="1:36" ht="7.5" customHeight="1">
+    <row r="338" spans="1:36" ht="8.25" customHeight="1">
       <c r="A338" s="19"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -13114,7 +13114,7 @@
       <c r="AI338" s="19"/>
       <c r="AJ338" s="20"/>
     </row>
-    <row r="339" spans="1:36" ht="7.5" customHeight="1">
+    <row r="339" spans="1:36" ht="8.25" customHeight="1">
       <c r="A339" s="19"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -13152,7 +13152,7 @@
       <c r="AI339" s="19"/>
       <c r="AJ339" s="20"/>
     </row>
-    <row r="340" spans="1:36" ht="7.5" customHeight="1">
+    <row r="340" spans="1:36" ht="8.25" customHeight="1">
       <c r="A340" s="19"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -13190,7 +13190,7 @@
       <c r="AI340" s="19"/>
       <c r="AJ340" s="20"/>
     </row>
-    <row r="341" spans="1:36" ht="7.5" customHeight="1">
+    <row r="341" spans="1:36" ht="8.25" customHeight="1">
       <c r="A341" s="19"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -13228,7 +13228,7 @@
       <c r="AI341" s="19"/>
       <c r="AJ341" s="20"/>
     </row>
-    <row r="342" spans="1:36" ht="7.5" customHeight="1">
+    <row r="342" spans="1:36" ht="8.25" customHeight="1">
       <c r="A342" s="19"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -13266,7 +13266,7 @@
       <c r="AI342" s="19"/>
       <c r="AJ342" s="20"/>
     </row>
-    <row r="343" spans="1:36" ht="7.5" customHeight="1">
+    <row r="343" spans="1:36" ht="8.25" customHeight="1">
       <c r="A343" s="19"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -13304,7 +13304,7 @@
       <c r="AI343" s="19"/>
       <c r="AJ343" s="20"/>
     </row>
-    <row r="344" spans="1:36" ht="7.5" customHeight="1">
+    <row r="344" spans="1:36" ht="8.25" customHeight="1">
       <c r="A344" s="19"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -13342,7 +13342,7 @@
       <c r="AI344" s="19"/>
       <c r="AJ344" s="20"/>
     </row>
-    <row r="345" spans="1:36" ht="7.5" customHeight="1">
+    <row r="345" spans="1:36" ht="8.25" customHeight="1">
       <c r="A345" s="19"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -13380,7 +13380,7 @@
       <c r="AI345" s="19"/>
       <c r="AJ345" s="20"/>
     </row>
-    <row r="346" spans="1:36" ht="7.5" customHeight="1">
+    <row r="346" spans="1:36" ht="8.25" customHeight="1">
       <c r="A346" s="19"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -13418,7 +13418,7 @@
       <c r="AI346" s="19"/>
       <c r="AJ346" s="20"/>
     </row>
-    <row r="347" spans="1:36" ht="7.5" customHeight="1">
+    <row r="347" spans="1:36" ht="8.25" customHeight="1">
       <c r="A347" s="19"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -13456,7 +13456,7 @@
       <c r="AI347" s="19"/>
       <c r="AJ347" s="20"/>
     </row>
-    <row r="348" spans="1:36" ht="7.5" customHeight="1">
+    <row r="348" spans="1:36" ht="8.25" customHeight="1">
       <c r="A348" s="19"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -13494,7 +13494,7 @@
       <c r="AI348" s="19"/>
       <c r="AJ348" s="20"/>
     </row>
-    <row r="349" spans="1:36" ht="7.5" customHeight="1">
+    <row r="349" spans="1:36" ht="8.25" customHeight="1">
       <c r="A349" s="19"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -13532,7 +13532,7 @@
       <c r="AI349" s="19"/>
       <c r="AJ349" s="20"/>
     </row>
-    <row r="350" spans="1:36" ht="7.5" customHeight="1">
+    <row r="350" spans="1:36" ht="8.25" customHeight="1">
       <c r="A350" s="19"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -13570,7 +13570,7 @@
       <c r="AI350" s="19"/>
       <c r="AJ350" s="20"/>
     </row>
-    <row r="351" spans="1:36" ht="7.5" customHeight="1">
+    <row r="351" spans="1:36" ht="8.25" customHeight="1">
       <c r="A351" s="19"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -13608,7 +13608,7 @@
       <c r="AI351" s="19"/>
       <c r="AJ351" s="20"/>
     </row>
-    <row r="352" spans="1:36" ht="7.5" customHeight="1">
+    <row r="352" spans="1:36" ht="8.25" customHeight="1">
       <c r="A352" s="19"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -13646,7 +13646,7 @@
       <c r="AI352" s="19"/>
       <c r="AJ352" s="20"/>
     </row>
-    <row r="353" spans="1:36" ht="7.5" customHeight="1">
+    <row r="353" spans="1:36" ht="8.25" customHeight="1">
       <c r="A353" s="19"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -13684,7 +13684,7 @@
       <c r="AI353" s="19"/>
       <c r="AJ353" s="20"/>
     </row>
-    <row r="354" spans="1:36" ht="7.5" customHeight="1">
+    <row r="354" spans="1:36" ht="8.25" customHeight="1">
       <c r="A354" s="19"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -13722,7 +13722,7 @@
       <c r="AI354" s="19"/>
       <c r="AJ354" s="20"/>
     </row>
-    <row r="355" spans="1:36" ht="7.5" customHeight="1">
+    <row r="355" spans="1:36" ht="8.25" customHeight="1">
       <c r="A355" s="19"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -13760,7 +13760,7 @@
       <c r="AI355" s="19"/>
       <c r="AJ355" s="20"/>
     </row>
-    <row r="356" spans="1:36" ht="7.5" customHeight="1">
+    <row r="356" spans="1:36" ht="8.25" customHeight="1">
       <c r="A356" s="19"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -13798,7 +13798,7 @@
       <c r="AI356" s="19"/>
       <c r="AJ356" s="20"/>
     </row>
-    <row r="357" spans="1:36" ht="7.5" customHeight="1">
+    <row r="357" spans="1:36" ht="8.25" customHeight="1">
       <c r="A357" s="19"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -13836,7 +13836,7 @@
       <c r="AI357" s="19"/>
       <c r="AJ357" s="20"/>
     </row>
-    <row r="358" spans="1:36" ht="7.5" customHeight="1">
+    <row r="358" spans="1:36" ht="8.25" customHeight="1">
       <c r="A358" s="19"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -13874,7 +13874,7 @@
       <c r="AI358" s="19"/>
       <c r="AJ358" s="20"/>
     </row>
-    <row r="359" spans="1:36" ht="7.5" customHeight="1">
+    <row r="359" spans="1:36" ht="8.25" customHeight="1">
       <c r="A359" s="19"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -13912,7 +13912,7 @@
       <c r="AI359" s="19"/>
       <c r="AJ359" s="20"/>
     </row>
-    <row r="360" spans="1:36" ht="7.5" customHeight="1">
+    <row r="360" spans="1:36" ht="8.25" customHeight="1">
       <c r="A360" s="19"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -13950,7 +13950,7 @@
       <c r="AI360" s="19"/>
       <c r="AJ360" s="20"/>
     </row>
-    <row r="361" spans="1:36" ht="7.5" customHeight="1">
+    <row r="361" spans="1:36" ht="8.25" customHeight="1">
       <c r="A361" s="19"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -13988,7 +13988,7 @@
       <c r="AI361" s="19"/>
       <c r="AJ361" s="20"/>
     </row>
-    <row r="362" spans="1:36" ht="7.5" customHeight="1">
+    <row r="362" spans="1:36" ht="8.25" customHeight="1">
       <c r="A362" s="19"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -14026,7 +14026,7 @@
       <c r="AI362" s="19"/>
       <c r="AJ362" s="20"/>
     </row>
-    <row r="363" spans="1:36" ht="7.5" customHeight="1">
+    <row r="363" spans="1:36" ht="8.25" customHeight="1">
       <c r="A363" s="19"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -14064,7 +14064,7 @@
       <c r="AI363" s="19"/>
       <c r="AJ363" s="20"/>
     </row>
-    <row r="364" spans="1:36" ht="7.5" customHeight="1">
+    <row r="364" spans="1:36" ht="8.25" customHeight="1">
       <c r="A364" s="19"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -14102,7 +14102,7 @@
       <c r="AI364" s="19"/>
       <c r="AJ364" s="20"/>
     </row>
-    <row r="365" spans="1:36" ht="7.5" customHeight="1">
+    <row r="365" spans="1:36" ht="8.25" customHeight="1">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -14140,7 +14140,7 @@
       <c r="AI365" s="19"/>
       <c r="AJ365" s="20"/>
     </row>
-    <row r="366" spans="1:36" ht="7.5" customHeight="1">
+    <row r="366" spans="1:36" ht="8.25" customHeight="1">
       <c r="A366" s="19"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -14178,7 +14178,7 @@
       <c r="AI366" s="19"/>
       <c r="AJ366" s="20"/>
     </row>
-    <row r="367" spans="1:36" ht="7.5" customHeight="1">
+    <row r="367" spans="1:36" ht="8.25" customHeight="1">
       <c r="A367" s="19"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -14216,7 +14216,7 @@
       <c r="AI367" s="19"/>
       <c r="AJ367" s="20"/>
     </row>
-    <row r="368" spans="1:36" ht="7.5" customHeight="1">
+    <row r="368" spans="1:36" ht="8.25" customHeight="1">
       <c r="A368" s="19"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -14254,7 +14254,7 @@
       <c r="AI368" s="19"/>
       <c r="AJ368" s="20"/>
     </row>
-    <row r="369" spans="1:36" ht="7.5" customHeight="1">
+    <row r="369" spans="1:36" ht="8.25" customHeight="1">
       <c r="A369" s="19"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -14292,7 +14292,7 @@
       <c r="AI369" s="19"/>
       <c r="AJ369" s="20"/>
     </row>
-    <row r="370" spans="1:36" ht="7.5" customHeight="1">
+    <row r="370" spans="1:36" ht="8.25" customHeight="1">
       <c r="A370" s="19"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -14330,7 +14330,7 @@
       <c r="AI370" s="19"/>
       <c r="AJ370" s="20"/>
     </row>
-    <row r="371" spans="1:36" ht="7.5" customHeight="1">
+    <row r="371" spans="1:36" ht="8.25" customHeight="1">
       <c r="A371" s="19"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -14368,7 +14368,7 @@
       <c r="AI371" s="19"/>
       <c r="AJ371" s="20"/>
     </row>
-    <row r="372" spans="1:36" ht="7.5" customHeight="1">
+    <row r="372" spans="1:36" ht="8.25" customHeight="1">
       <c r="A372" s="19"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -14406,7 +14406,7 @@
       <c r="AI372" s="19"/>
       <c r="AJ372" s="20"/>
     </row>
-    <row r="373" spans="1:36" ht="7.5" customHeight="1">
+    <row r="373" spans="1:36" ht="8.25" customHeight="1">
       <c r="A373" s="19"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -14444,7 +14444,7 @@
       <c r="AI373" s="19"/>
       <c r="AJ373" s="20"/>
     </row>
-    <row r="374" spans="1:36" ht="7.5" customHeight="1">
+    <row r="374" spans="1:36" ht="8.25" customHeight="1">
       <c r="A374" s="19"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -14482,7 +14482,7 @@
       <c r="AI374" s="19"/>
       <c r="AJ374" s="20"/>
     </row>
-    <row r="375" spans="1:36" ht="7.5" customHeight="1">
+    <row r="375" spans="1:36" ht="8.25" customHeight="1">
       <c r="A375" s="19"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -14520,7 +14520,7 @@
       <c r="AI375" s="19"/>
       <c r="AJ375" s="20"/>
     </row>
-    <row r="376" spans="1:36" ht="7.5" customHeight="1">
+    <row r="376" spans="1:36" ht="8.25" customHeight="1">
       <c r="A376" s="19"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -14558,7 +14558,7 @@
       <c r="AI376" s="19"/>
       <c r="AJ376" s="20"/>
     </row>
-    <row r="377" spans="1:36" ht="7.5" customHeight="1">
+    <row r="377" spans="1:36" ht="8.25" customHeight="1">
       <c r="A377" s="19"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -14596,7 +14596,7 @@
       <c r="AI377" s="19"/>
       <c r="AJ377" s="20"/>
     </row>
-    <row r="378" spans="1:36" ht="7.5" customHeight="1">
+    <row r="378" spans="1:36" ht="8.25" customHeight="1">
       <c r="A378" s="19"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -14634,7 +14634,7 @@
       <c r="AI378" s="19"/>
       <c r="AJ378" s="20"/>
     </row>
-    <row r="379" spans="1:36" ht="7.5" customHeight="1">
+    <row r="379" spans="1:36" ht="8.25" customHeight="1">
       <c r="A379" s="19"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -14672,7 +14672,7 @@
       <c r="AI379" s="19"/>
       <c r="AJ379" s="20"/>
     </row>
-    <row r="380" spans="1:36" ht="7.5" customHeight="1">
+    <row r="380" spans="1:36" ht="8.25" customHeight="1">
       <c r="A380" s="19"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -14710,7 +14710,7 @@
       <c r="AI380" s="19"/>
       <c r="AJ380" s="20"/>
     </row>
-    <row r="381" spans="1:36" ht="7.5" customHeight="1">
+    <row r="381" spans="1:36" ht="8.25" customHeight="1">
       <c r="A381" s="19"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -14748,7 +14748,7 @@
       <c r="AI381" s="19"/>
       <c r="AJ381" s="20"/>
     </row>
-    <row r="382" spans="1:36" ht="7.5" customHeight="1">
+    <row r="382" spans="1:36" ht="8.25" customHeight="1">
       <c r="A382" s="19"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -14786,7 +14786,7 @@
       <c r="AI382" s="19"/>
       <c r="AJ382" s="20"/>
     </row>
-    <row r="383" spans="1:36" ht="7.5" customHeight="1">
+    <row r="383" spans="1:36" ht="8.25" customHeight="1">
       <c r="A383" s="19"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -14824,7 +14824,7 @@
       <c r="AI383" s="19"/>
       <c r="AJ383" s="20"/>
     </row>
-    <row r="384" spans="1:36" ht="7.5" customHeight="1">
+    <row r="384" spans="1:36" ht="8.25" customHeight="1">
       <c r="A384" s="19"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -14862,7 +14862,7 @@
       <c r="AI384" s="19"/>
       <c r="AJ384" s="20"/>
     </row>
-    <row r="385" spans="1:36" ht="7.5" customHeight="1">
+    <row r="385" spans="1:36" ht="8.25" customHeight="1">
       <c r="A385" s="19"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -14900,7 +14900,7 @@
       <c r="AI385" s="19"/>
       <c r="AJ385" s="20"/>
     </row>
-    <row r="386" spans="1:36" ht="7.5" customHeight="1">
+    <row r="386" spans="1:36" ht="8.25" customHeight="1">
       <c r="A386" s="19"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
@@ -14938,7 +14938,7 @@
       <c r="AI386" s="19"/>
       <c r="AJ386" s="20"/>
     </row>
-    <row r="387" spans="1:36" ht="7.5" customHeight="1">
+    <row r="387" spans="1:36" ht="8.25" customHeight="1">
       <c r="A387" s="19"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
@@ -14976,7 +14976,7 @@
       <c r="AI387" s="19"/>
       <c r="AJ387" s="20"/>
     </row>
-    <row r="388" spans="1:36" ht="7.5" customHeight="1">
+    <row r="388" spans="1:36" ht="8.25" customHeight="1">
       <c r="A388" s="19"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
@@ -15014,7 +15014,7 @@
       <c r="AI388" s="19"/>
       <c r="AJ388" s="20"/>
     </row>
-    <row r="389" spans="1:36" ht="7.5" customHeight="1">
+    <row r="389" spans="1:36" ht="8.25" customHeight="1">
       <c r="A389" s="19"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -15052,7 +15052,7 @@
       <c r="AI389" s="19"/>
       <c r="AJ389" s="20"/>
     </row>
-    <row r="390" spans="1:36" ht="7.5" customHeight="1">
+    <row r="390" spans="1:36" ht="8.25" customHeight="1">
       <c r="A390" s="19"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
@@ -15090,7 +15090,7 @@
       <c r="AI390" s="19"/>
       <c r="AJ390" s="20"/>
     </row>
-    <row r="391" spans="1:36" ht="7.5" customHeight="1">
+    <row r="391" spans="1:36" ht="8.25" customHeight="1">
       <c r="A391" s="19"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -15128,7 +15128,7 @@
       <c r="AI391" s="19"/>
       <c r="AJ391" s="20"/>
     </row>
-    <row r="392" spans="1:36" ht="7.5" customHeight="1">
+    <row r="392" spans="1:36" ht="8.25" customHeight="1">
       <c r="A392" s="19"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -15166,7 +15166,7 @@
       <c r="AI392" s="19"/>
       <c r="AJ392" s="20"/>
     </row>
-    <row r="393" spans="1:36" ht="7.5" customHeight="1">
+    <row r="393" spans="1:36" ht="8.25" customHeight="1">
       <c r="A393" s="19"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -15204,7 +15204,7 @@
       <c r="AI393" s="19"/>
       <c r="AJ393" s="20"/>
     </row>
-    <row r="394" spans="1:36" ht="7.5" customHeight="1">
+    <row r="394" spans="1:36" ht="8.25" customHeight="1">
       <c r="A394" s="19"/>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
@@ -15242,7 +15242,7 @@
       <c r="AI394" s="19"/>
       <c r="AJ394" s="20"/>
     </row>
-    <row r="395" spans="1:36" ht="7.5" customHeight="1">
+    <row r="395" spans="1:36" ht="8.25" customHeight="1">
       <c r="A395" s="19"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -15280,7 +15280,7 @@
       <c r="AI395" s="19"/>
       <c r="AJ395" s="20"/>
     </row>
-    <row r="396" spans="1:36" ht="7.5" customHeight="1">
+    <row r="396" spans="1:36" ht="8.25" customHeight="1">
       <c r="A396" s="19"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -15318,7 +15318,7 @@
       <c r="AI396" s="19"/>
       <c r="AJ396" s="20"/>
     </row>
-    <row r="397" spans="1:36" ht="7.5" customHeight="1">
+    <row r="397" spans="1:36" ht="8.25" customHeight="1">
       <c r="A397" s="19"/>
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
@@ -15356,7 +15356,7 @@
       <c r="AI397" s="19"/>
       <c r="AJ397" s="20"/>
     </row>
-    <row r="398" spans="1:36" ht="7.5" customHeight="1">
+    <row r="398" spans="1:36" ht="8.25" customHeight="1">
       <c r="A398" s="19"/>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
@@ -15394,7 +15394,7 @@
       <c r="AI398" s="19"/>
       <c r="AJ398" s="20"/>
     </row>
-    <row r="399" spans="1:36" ht="7.5" customHeight="1">
+    <row r="399" spans="1:36" ht="8.25" customHeight="1">
       <c r="A399" s="19"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
@@ -15432,7 +15432,7 @@
       <c r="AI399" s="19"/>
       <c r="AJ399" s="20"/>
     </row>
-    <row r="400" spans="1:36" ht="7.5" customHeight="1">
+    <row r="400" spans="1:36" ht="8.25" customHeight="1">
       <c r="A400" s="19"/>
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
@@ -15470,7 +15470,7 @@
       <c r="AI400" s="19"/>
       <c r="AJ400" s="20"/>
     </row>
-    <row r="401" spans="1:36" ht="7.5" customHeight="1">
+    <row r="401" spans="1:36" ht="8.25" customHeight="1">
       <c r="A401" s="19"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -15508,7 +15508,7 @@
       <c r="AI401" s="19"/>
       <c r="AJ401" s="20"/>
     </row>
-    <row r="402" spans="1:36" ht="7.5" customHeight="1">
+    <row r="402" spans="1:36" ht="8.25" customHeight="1">
       <c r="A402" s="19"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -15546,7 +15546,7 @@
       <c r="AI402" s="19"/>
       <c r="AJ402" s="20"/>
     </row>
-    <row r="403" spans="1:36" ht="7.5" customHeight="1">
+    <row r="403" spans="1:36" ht="8.25" customHeight="1">
       <c r="A403" s="19"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -15584,7 +15584,7 @@
       <c r="AI403" s="19"/>
       <c r="AJ403" s="20"/>
     </row>
-    <row r="404" spans="1:36" ht="7.5" customHeight="1">
+    <row r="404" spans="1:36" ht="8.25" customHeight="1">
       <c r="A404" s="19"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -15622,7 +15622,7 @@
       <c r="AI404" s="19"/>
       <c r="AJ404" s="20"/>
     </row>
-    <row r="405" spans="1:36" ht="7.5" customHeight="1">
+    <row r="405" spans="1:36" ht="8.25" customHeight="1">
       <c r="A405" s="19"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -15660,7 +15660,7 @@
       <c r="AI405" s="19"/>
       <c r="AJ405" s="20"/>
     </row>
-    <row r="406" spans="1:36" ht="7.5" customHeight="1">
+    <row r="406" spans="1:36" ht="8.25" customHeight="1">
       <c r="A406" s="19"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -15698,7 +15698,7 @@
       <c r="AI406" s="19"/>
       <c r="AJ406" s="20"/>
     </row>
-    <row r="407" spans="1:36" ht="7.5" customHeight="1">
+    <row r="407" spans="1:36" ht="8.25" customHeight="1">
       <c r="A407" s="19"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -15736,7 +15736,7 @@
       <c r="AI407" s="19"/>
       <c r="AJ407" s="20"/>
     </row>
-    <row r="408" spans="1:36" ht="7.5" customHeight="1">
+    <row r="408" spans="1:36" ht="8.25" customHeight="1">
       <c r="A408" s="19"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -15774,7 +15774,7 @@
       <c r="AI408" s="19"/>
       <c r="AJ408" s="20"/>
     </row>
-    <row r="409" spans="1:36" ht="7.5" customHeight="1">
+    <row r="409" spans="1:36" ht="8.25" customHeight="1">
       <c r="A409" s="19"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -15812,7 +15812,7 @@
       <c r="AI409" s="19"/>
       <c r="AJ409" s="20"/>
     </row>
-    <row r="410" spans="1:36" ht="7.5" customHeight="1">
+    <row r="410" spans="1:36" ht="8.25" customHeight="1">
       <c r="A410" s="19"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -15850,7 +15850,7 @@
       <c r="AI410" s="19"/>
       <c r="AJ410" s="20"/>
     </row>
-    <row r="411" spans="1:36" ht="7.5" customHeight="1">
+    <row r="411" spans="1:36" ht="8.25" customHeight="1">
       <c r="A411" s="19"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -15888,7 +15888,7 @@
       <c r="AI411" s="19"/>
       <c r="AJ411" s="20"/>
     </row>
-    <row r="412" spans="1:36" ht="7.5" customHeight="1">
+    <row r="412" spans="1:36" ht="8.25" customHeight="1">
       <c r="A412" s="19"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -15926,7 +15926,7 @@
       <c r="AI412" s="19"/>
       <c r="AJ412" s="20"/>
     </row>
-    <row r="413" spans="1:36" ht="7.5" customHeight="1">
+    <row r="413" spans="1:36" ht="8.25" customHeight="1">
       <c r="A413" s="19"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -15964,7 +15964,7 @@
       <c r="AI413" s="19"/>
       <c r="AJ413" s="20"/>
     </row>
-    <row r="414" spans="1:36" ht="7.5" customHeight="1">
+    <row r="414" spans="1:36" ht="8.25" customHeight="1">
       <c r="A414" s="19"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -16002,7 +16002,7 @@
       <c r="AI414" s="19"/>
       <c r="AJ414" s="20"/>
     </row>
-    <row r="415" spans="1:36" ht="7.5" customHeight="1">
+    <row r="415" spans="1:36" ht="8.25" customHeight="1">
       <c r="A415" s="19"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -16040,7 +16040,7 @@
       <c r="AI415" s="19"/>
       <c r="AJ415" s="20"/>
     </row>
-    <row r="416" spans="1:36" ht="7.5" customHeight="1">
+    <row r="416" spans="1:36" ht="8.25" customHeight="1">
       <c r="A416" s="19"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -16078,7 +16078,7 @@
       <c r="AI416" s="19"/>
       <c r="AJ416" s="20"/>
     </row>
-    <row r="417" spans="1:36" ht="7.5" customHeight="1">
+    <row r="417" spans="1:36" ht="8.25" customHeight="1">
       <c r="A417" s="19"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -16116,7 +16116,7 @@
       <c r="AI417" s="19"/>
       <c r="AJ417" s="20"/>
     </row>
-    <row r="418" spans="1:36" ht="7.5" customHeight="1">
+    <row r="418" spans="1:36" ht="8.25" customHeight="1">
       <c r="A418" s="19"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -16154,7 +16154,7 @@
       <c r="AI418" s="19"/>
       <c r="AJ418" s="20"/>
     </row>
-    <row r="419" spans="1:36" ht="7.5" customHeight="1">
+    <row r="419" spans="1:36" ht="8.25" customHeight="1">
       <c r="A419" s="19"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -16192,7 +16192,7 @@
       <c r="AI419" s="19"/>
       <c r="AJ419" s="20"/>
     </row>
-    <row r="420" spans="1:36" ht="7.5" customHeight="1">
+    <row r="420" spans="1:36" ht="8.25" customHeight="1">
       <c r="A420" s="19"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -16230,7 +16230,7 @@
       <c r="AI420" s="19"/>
       <c r="AJ420" s="20"/>
     </row>
-    <row r="421" spans="1:36" ht="7.5" customHeight="1">
+    <row r="421" spans="1:36" ht="8.25" customHeight="1">
       <c r="A421" s="19"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -16268,7 +16268,7 @@
       <c r="AI421" s="19"/>
       <c r="AJ421" s="20"/>
     </row>
-    <row r="422" spans="1:36" ht="7.5" customHeight="1">
+    <row r="422" spans="1:36" ht="8.25" customHeight="1">
       <c r="A422" s="19"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -16306,7 +16306,7 @@
       <c r="AI422" s="19"/>
       <c r="AJ422" s="20"/>
     </row>
-    <row r="423" spans="1:36" ht="7.5" customHeight="1">
+    <row r="423" spans="1:36" ht="8.25" customHeight="1">
       <c r="A423" s="19"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -16344,7 +16344,7 @@
       <c r="AI423" s="19"/>
       <c r="AJ423" s="20"/>
     </row>
-    <row r="424" spans="1:36" ht="7.5" customHeight="1">
+    <row r="424" spans="1:36" ht="8.25" customHeight="1">
       <c r="A424" s="19"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -16382,7 +16382,7 @@
       <c r="AI424" s="19"/>
       <c r="AJ424" s="20"/>
     </row>
-    <row r="425" spans="1:36" ht="7.5" customHeight="1">
+    <row r="425" spans="1:36" ht="8.25" customHeight="1">
       <c r="A425" s="19"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
@@ -16420,7 +16420,7 @@
       <c r="AI425" s="19"/>
       <c r="AJ425" s="20"/>
     </row>
-    <row r="426" spans="1:36" ht="7.5" customHeight="1">
+    <row r="426" spans="1:36" ht="8.25" customHeight="1">
       <c r="A426" s="19"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -16458,7 +16458,7 @@
       <c r="AI426" s="19"/>
       <c r="AJ426" s="20"/>
     </row>
-    <row r="427" spans="1:36" ht="7.5" customHeight="1">
+    <row r="427" spans="1:36" ht="8.25" customHeight="1">
       <c r="A427" s="19"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -16496,7 +16496,7 @@
       <c r="AI427" s="19"/>
       <c r="AJ427" s="20"/>
     </row>
-    <row r="428" spans="1:36" ht="7.5" customHeight="1">
+    <row r="428" spans="1:36" ht="8.25" customHeight="1">
       <c r="A428" s="19"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -16534,7 +16534,7 @@
       <c r="AI428" s="19"/>
       <c r="AJ428" s="20"/>
     </row>
-    <row r="429" spans="1:36" ht="7.5" customHeight="1">
+    <row r="429" spans="1:36" ht="8.25" customHeight="1">
       <c r="A429" s="19"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -16572,7 +16572,7 @@
       <c r="AI429" s="19"/>
       <c r="AJ429" s="20"/>
     </row>
-    <row r="430" spans="1:36" ht="7.5" customHeight="1">
+    <row r="430" spans="1:36" ht="8.25" customHeight="1">
       <c r="A430" s="19"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -16610,7 +16610,7 @@
       <c r="AI430" s="19"/>
       <c r="AJ430" s="20"/>
     </row>
-    <row r="431" spans="1:36" ht="7.5" customHeight="1">
+    <row r="431" spans="1:36" ht="8.25" customHeight="1">
       <c r="A431" s="19"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -16648,7 +16648,7 @@
       <c r="AI431" s="19"/>
       <c r="AJ431" s="20"/>
     </row>
-    <row r="432" spans="1:36" ht="7.5" customHeight="1">
+    <row r="432" spans="1:36" ht="8.25" customHeight="1">
       <c r="A432" s="19"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -16686,7 +16686,7 @@
       <c r="AI432" s="19"/>
       <c r="AJ432" s="20"/>
     </row>
-    <row r="433" spans="1:36" ht="7.5" customHeight="1">
+    <row r="433" spans="1:36" ht="8.25" customHeight="1">
       <c r="A433" s="19"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
@@ -16724,7 +16724,7 @@
       <c r="AI433" s="19"/>
       <c r="AJ433" s="20"/>
     </row>
-    <row r="434" spans="1:36" ht="7.5" customHeight="1">
+    <row r="434" spans="1:36" ht="8.25" customHeight="1">
       <c r="A434" s="19"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -16762,7 +16762,7 @@
       <c r="AI434" s="19"/>
       <c r="AJ434" s="20"/>
     </row>
-    <row r="435" spans="1:36" ht="7.5" customHeight="1">
+    <row r="435" spans="1:36" ht="8.25" customHeight="1">
       <c r="A435" s="19"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
@@ -16800,7 +16800,7 @@
       <c r="AI435" s="19"/>
       <c r="AJ435" s="20"/>
     </row>
-    <row r="436" spans="1:36" ht="7.5" customHeight="1">
+    <row r="436" spans="1:36" ht="8.25" customHeight="1">
       <c r="A436" s="19"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -16838,7 +16838,7 @@
       <c r="AI436" s="19"/>
       <c r="AJ436" s="20"/>
     </row>
-    <row r="437" spans="1:36" ht="7.5" customHeight="1">
+    <row r="437" spans="1:36" ht="8.25" customHeight="1">
       <c r="A437" s="19"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -16876,7 +16876,7 @@
       <c r="AI437" s="19"/>
       <c r="AJ437" s="20"/>
     </row>
-    <row r="438" spans="1:36" ht="7.5" customHeight="1">
+    <row r="438" spans="1:36" ht="8.25" customHeight="1">
       <c r="A438" s="19"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
@@ -16914,7 +16914,7 @@
       <c r="AI438" s="19"/>
       <c r="AJ438" s="20"/>
     </row>
-    <row r="439" spans="1:36" ht="7.5" customHeight="1">
+    <row r="439" spans="1:36" ht="8.25" customHeight="1">
       <c r="A439" s="19"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -16952,7 +16952,7 @@
       <c r="AI439" s="19"/>
       <c r="AJ439" s="20"/>
     </row>
-    <row r="440" spans="1:36" ht="7.5" customHeight="1">
+    <row r="440" spans="1:36" ht="8.25" customHeight="1">
       <c r="A440" s="19"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -16990,7 +16990,7 @@
       <c r="AI440" s="19"/>
       <c r="AJ440" s="20"/>
     </row>
-    <row r="441" spans="1:36" ht="7.5" customHeight="1">
+    <row r="441" spans="1:36" ht="8.25" customHeight="1">
       <c r="A441" s="19"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -17028,7 +17028,7 @@
       <c r="AI441" s="19"/>
       <c r="AJ441" s="20"/>
     </row>
-    <row r="442" spans="1:36" ht="7.5" customHeight="1">
+    <row r="442" spans="1:36" ht="8.25" customHeight="1">
       <c r="A442" s="19"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -17066,7 +17066,7 @@
       <c r="AI442" s="19"/>
       <c r="AJ442" s="20"/>
     </row>
-    <row r="443" spans="1:36" ht="7.5" customHeight="1">
+    <row r="443" spans="1:36" ht="8.25" customHeight="1">
       <c r="A443" s="19"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -17104,7 +17104,7 @@
       <c r="AI443" s="19"/>
       <c r="AJ443" s="20"/>
     </row>
-    <row r="444" spans="1:36" ht="7.5" customHeight="1">
+    <row r="444" spans="1:36" ht="8.25" customHeight="1">
       <c r="A444" s="19"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -17142,7 +17142,7 @@
       <c r="AI444" s="19"/>
       <c r="AJ444" s="20"/>
     </row>
-    <row r="445" spans="1:36" ht="7.5" customHeight="1">
+    <row r="445" spans="1:36" ht="8.25" customHeight="1">
       <c r="A445" s="19"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -17180,7 +17180,7 @@
       <c r="AI445" s="19"/>
       <c r="AJ445" s="20"/>
     </row>
-    <row r="446" spans="1:36" ht="7.5" customHeight="1">
+    <row r="446" spans="1:36" ht="8.25" customHeight="1">
       <c r="A446" s="19"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -17218,7 +17218,7 @@
       <c r="AI446" s="19"/>
       <c r="AJ446" s="20"/>
     </row>
-    <row r="447" spans="1:36" ht="7.5" customHeight="1">
+    <row r="447" spans="1:36" ht="8.25" customHeight="1">
       <c r="A447" s="19"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -17256,7 +17256,7 @@
       <c r="AI447" s="19"/>
       <c r="AJ447" s="20"/>
     </row>
-    <row r="448" spans="1:36" ht="7.5" customHeight="1">
+    <row r="448" spans="1:36" ht="8.25" customHeight="1">
       <c r="A448" s="19"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -17294,7 +17294,7 @@
       <c r="AI448" s="19"/>
       <c r="AJ448" s="20"/>
     </row>
-    <row r="449" spans="1:36" ht="7.5" customHeight="1">
+    <row r="449" spans="1:36" ht="8.25" customHeight="1">
       <c r="A449" s="19"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -17332,7 +17332,7 @@
       <c r="AI449" s="19"/>
       <c r="AJ449" s="20"/>
     </row>
-    <row r="450" spans="1:36" ht="7.5" customHeight="1">
+    <row r="450" spans="1:36" ht="8.25" customHeight="1">
       <c r="A450" s="19"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -17370,7 +17370,7 @@
       <c r="AI450" s="19"/>
       <c r="AJ450" s="20"/>
     </row>
-    <row r="451" spans="1:36" ht="7.5" customHeight="1">
+    <row r="451" spans="1:36" ht="8.25" customHeight="1">
       <c r="A451" s="19"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -17408,7 +17408,7 @@
       <c r="AI451" s="19"/>
       <c r="AJ451" s="20"/>
     </row>
-    <row r="452" spans="1:36" ht="7.5" customHeight="1">
+    <row r="452" spans="1:36" ht="8.25" customHeight="1">
       <c r="A452" s="19"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -17446,7 +17446,7 @@
       <c r="AI452" s="19"/>
       <c r="AJ452" s="20"/>
     </row>
-    <row r="453" spans="1:36" ht="7.5" customHeight="1">
+    <row r="453" spans="1:36" ht="8.25" customHeight="1">
       <c r="A453" s="19"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
@@ -17484,7 +17484,7 @@
       <c r="AI453" s="19"/>
       <c r="AJ453" s="20"/>
     </row>
-    <row r="454" spans="1:36" ht="7.5" customHeight="1">
+    <row r="454" spans="1:36" ht="8.25" customHeight="1">
       <c r="A454" s="19"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -17522,7 +17522,7 @@
       <c r="AI454" s="19"/>
       <c r="AJ454" s="20"/>
     </row>
-    <row r="455" spans="1:36" ht="7.5" customHeight="1">
+    <row r="455" spans="1:36" ht="8.25" customHeight="1">
       <c r="A455" s="19"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
@@ -17560,7 +17560,7 @@
       <c r="AI455" s="19"/>
       <c r="AJ455" s="20"/>
     </row>
-    <row r="456" spans="1:36" ht="7.5" customHeight="1">
+    <row r="456" spans="1:36" ht="8.25" customHeight="1">
       <c r="A456" s="19"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -17598,7 +17598,7 @@
       <c r="AI456" s="19"/>
       <c r="AJ456" s="20"/>
     </row>
-    <row r="457" spans="1:36" ht="7.5" customHeight="1">
+    <row r="457" spans="1:36" ht="8.25" customHeight="1">
       <c r="A457" s="19"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
@@ -17636,7 +17636,7 @@
       <c r="AI457" s="19"/>
       <c r="AJ457" s="20"/>
     </row>
-    <row r="458" spans="1:36" ht="7.5" customHeight="1">
+    <row r="458" spans="1:36" ht="8.25" customHeight="1">
       <c r="A458" s="19"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -17674,7 +17674,7 @@
       <c r="AI458" s="19"/>
       <c r="AJ458" s="20"/>
     </row>
-    <row r="459" spans="1:36" ht="7.5" customHeight="1">
+    <row r="459" spans="1:36" ht="8.25" customHeight="1">
       <c r="A459" s="19"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -17712,7 +17712,7 @@
       <c r="AI459" s="19"/>
       <c r="AJ459" s="20"/>
     </row>
-    <row r="460" spans="1:36" ht="7.5" customHeight="1">
+    <row r="460" spans="1:36" ht="8.25" customHeight="1">
       <c r="A460" s="19"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -17750,7 +17750,7 @@
       <c r="AI460" s="19"/>
       <c r="AJ460" s="20"/>
     </row>
-    <row r="461" spans="1:36" ht="7.5" customHeight="1">
+    <row r="461" spans="1:36" ht="8.25" customHeight="1">
       <c r="A461" s="19"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -17788,7 +17788,7 @@
       <c r="AI461" s="19"/>
       <c r="AJ461" s="20"/>
     </row>
-    <row r="462" spans="1:36" ht="7.5" customHeight="1">
+    <row r="462" spans="1:36" ht="8.25" customHeight="1">
       <c r="A462" s="19"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
@@ -17826,7 +17826,7 @@
       <c r="AI462" s="19"/>
       <c r="AJ462" s="20"/>
     </row>
-    <row r="463" spans="1:36" ht="7.5" customHeight="1">
+    <row r="463" spans="1:36" ht="8.25" customHeight="1">
       <c r="A463" s="19"/>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -17864,7 +17864,7 @@
       <c r="AI463" s="19"/>
       <c r="AJ463" s="20"/>
     </row>
-    <row r="464" spans="1:36" ht="7.5" customHeight="1">
+    <row r="464" spans="1:36" ht="8.25" customHeight="1">
       <c r="A464" s="19"/>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>
@@ -17902,7 +17902,7 @@
       <c r="AI464" s="19"/>
       <c r="AJ464" s="20"/>
     </row>
-    <row r="465" spans="1:36" ht="7.5" customHeight="1">
+    <row r="465" spans="1:36" ht="8.25" customHeight="1">
       <c r="A465" s="19"/>
       <c r="B465" s="19"/>
       <c r="C465" s="19"/>
@@ -17940,7 +17940,7 @@
       <c r="AI465" s="19"/>
       <c r="AJ465" s="20"/>
     </row>
-    <row r="466" spans="1:36" ht="7.5" customHeight="1">
+    <row r="466" spans="1:36" ht="8.25" customHeight="1">
       <c r="A466" s="19"/>
       <c r="B466" s="19"/>
       <c r="C466" s="19"/>
@@ -17978,7 +17978,7 @@
       <c r="AI466" s="19"/>
       <c r="AJ466" s="20"/>
     </row>
-    <row r="467" spans="1:36" ht="7.5" customHeight="1">
+    <row r="467" spans="1:36" ht="8.25" customHeight="1">
       <c r="A467" s="19"/>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
@@ -18016,7 +18016,7 @@
       <c r="AI467" s="19"/>
       <c r="AJ467" s="20"/>
     </row>
-    <row r="468" spans="1:36" ht="7.5" customHeight="1">
+    <row r="468" spans="1:36" ht="8.25" customHeight="1">
       <c r="A468" s="19"/>
       <c r="B468" s="19"/>
       <c r="C468" s="19"/>
@@ -18054,7 +18054,7 @@
       <c r="AI468" s="19"/>
       <c r="AJ468" s="20"/>
     </row>
-    <row r="469" spans="1:36" ht="7.5" customHeight="1">
+    <row r="469" spans="1:36" ht="8.25" customHeight="1">
       <c r="A469" s="19"/>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
@@ -18092,7 +18092,7 @@
       <c r="AI469" s="19"/>
       <c r="AJ469" s="20"/>
     </row>
-    <row r="470" spans="1:36" ht="7.5" customHeight="1">
+    <row r="470" spans="1:36" ht="8.25" customHeight="1">
       <c r="A470" s="19"/>
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
@@ -18130,7 +18130,7 @@
       <c r="AI470" s="19"/>
       <c r="AJ470" s="20"/>
     </row>
-    <row r="471" spans="1:36" ht="7.5" customHeight="1">
+    <row r="471" spans="1:36" ht="8.25" customHeight="1">
       <c r="A471" s="19"/>
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
@@ -18168,7 +18168,7 @@
       <c r="AI471" s="19"/>
       <c r="AJ471" s="20"/>
     </row>
-    <row r="472" spans="1:36" ht="7.5" customHeight="1">
+    <row r="472" spans="1:36" ht="8.25" customHeight="1">
       <c r="A472" s="19"/>
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
@@ -18206,7 +18206,7 @@
       <c r="AI472" s="19"/>
       <c r="AJ472" s="20"/>
     </row>
-    <row r="473" spans="1:36" ht="7.5" customHeight="1">
+    <row r="473" spans="1:36" ht="8.25" customHeight="1">
       <c r="A473" s="19"/>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
@@ -18244,7 +18244,7 @@
       <c r="AI473" s="19"/>
       <c r="AJ473" s="20"/>
     </row>
-    <row r="474" spans="1:36" ht="7.5" customHeight="1">
+    <row r="474" spans="1:36" ht="8.25" customHeight="1">
       <c r="A474" s="19"/>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
@@ -18282,7 +18282,7 @@
       <c r="AI474" s="19"/>
       <c r="AJ474" s="20"/>
     </row>
-    <row r="475" spans="1:36" ht="7.5" customHeight="1">
+    <row r="475" spans="1:36" ht="8.25" customHeight="1">
       <c r="A475" s="19"/>
       <c r="B475" s="19"/>
       <c r="C475" s="19"/>
@@ -18320,7 +18320,7 @@
       <c r="AI475" s="19"/>
       <c r="AJ475" s="20"/>
     </row>
-    <row r="476" spans="1:36" ht="7.5" customHeight="1">
+    <row r="476" spans="1:36" ht="8.25" customHeight="1">
       <c r="A476" s="19"/>
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
@@ -18358,7 +18358,7 @@
       <c r="AI476" s="19"/>
       <c r="AJ476" s="20"/>
     </row>
-    <row r="477" spans="1:36" ht="7.5" customHeight="1">
+    <row r="477" spans="1:36" ht="8.25" customHeight="1">
       <c r="A477" s="19"/>
       <c r="B477" s="19"/>
       <c r="C477" s="19"/>
@@ -18396,7 +18396,7 @@
       <c r="AI477" s="19"/>
       <c r="AJ477" s="20"/>
     </row>
-    <row r="478" spans="1:36" ht="7.5" customHeight="1">
+    <row r="478" spans="1:36" ht="8.25" customHeight="1">
       <c r="A478" s="19"/>
       <c r="B478" s="19"/>
       <c r="C478" s="19"/>
@@ -18434,7 +18434,7 @@
       <c r="AI478" s="19"/>
       <c r="AJ478" s="20"/>
     </row>
-    <row r="479" spans="1:36" ht="7.5" customHeight="1">
+    <row r="479" spans="1:36" ht="8.25" customHeight="1">
       <c r="A479" s="19"/>
       <c r="B479" s="19"/>
       <c r="C479" s="19"/>
@@ -18472,7 +18472,7 @@
       <c r="AI479" s="19"/>
       <c r="AJ479" s="20"/>
     </row>
-    <row r="480" spans="1:36" ht="7.5" customHeight="1">
+    <row r="480" spans="1:36" ht="8.25" customHeight="1">
       <c r="A480" s="19"/>
       <c r="B480" s="19"/>
       <c r="C480" s="19"/>
@@ -18510,7 +18510,7 @@
       <c r="AI480" s="19"/>
       <c r="AJ480" s="20"/>
     </row>
-    <row r="481" spans="1:36" ht="7.5" customHeight="1">
+    <row r="481" spans="1:36" ht="8.25" customHeight="1">
       <c r="A481" s="19"/>
       <c r="B481" s="19"/>
       <c r="C481" s="19"/>
@@ -18548,7 +18548,7 @@
       <c r="AI481" s="19"/>
       <c r="AJ481" s="20"/>
     </row>
-    <row r="482" spans="1:36" ht="7.5" customHeight="1">
+    <row r="482" spans="1:36" ht="8.25" customHeight="1">
       <c r="A482" s="19"/>
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
@@ -18586,7 +18586,7 @@
       <c r="AI482" s="19"/>
       <c r="AJ482" s="20"/>
     </row>
-    <row r="483" spans="1:36" ht="7.5" customHeight="1">
+    <row r="483" spans="1:36" ht="8.25" customHeight="1">
       <c r="A483" s="19"/>
       <c r="B483" s="19"/>
       <c r="C483" s="19"/>
@@ -18624,7 +18624,7 @@
       <c r="AI483" s="19"/>
       <c r="AJ483" s="20"/>
     </row>
-    <row r="484" spans="1:36" ht="7.5" customHeight="1">
+    <row r="484" spans="1:36" ht="8.25" customHeight="1">
       <c r="A484" s="19"/>
       <c r="B484" s="19"/>
       <c r="C484" s="19"/>
@@ -18662,7 +18662,7 @@
       <c r="AI484" s="19"/>
       <c r="AJ484" s="20"/>
     </row>
-    <row r="485" spans="1:36" ht="7.5" customHeight="1">
+    <row r="485" spans="1:36" ht="8.25" customHeight="1">
       <c r="A485" s="19"/>
       <c r="B485" s="19"/>
       <c r="C485" s="19"/>
@@ -18700,7 +18700,7 @@
       <c r="AI485" s="19"/>
       <c r="AJ485" s="20"/>
     </row>
-    <row r="486" spans="1:36" ht="7.5" customHeight="1">
+    <row r="486" spans="1:36" ht="8.25" customHeight="1">
       <c r="A486" s="19"/>
       <c r="B486" s="19"/>
       <c r="C486" s="19"/>
@@ -18738,7 +18738,7 @@
       <c r="AI486" s="19"/>
       <c r="AJ486" s="20"/>
     </row>
-    <row r="487" spans="1:36" ht="7.5" customHeight="1">
+    <row r="487" spans="1:36" ht="8.25" customHeight="1">
       <c r="A487" s="19"/>
       <c r="B487" s="19"/>
       <c r="C487" s="19"/>
@@ -18776,7 +18776,7 @@
       <c r="AI487" s="19"/>
       <c r="AJ487" s="20"/>
     </row>
-    <row r="488" spans="1:36" ht="7.5" customHeight="1">
+    <row r="488" spans="1:36" ht="8.25" customHeight="1">
       <c r="A488" s="19"/>
       <c r="B488" s="19"/>
       <c r="C488" s="19"/>
@@ -18814,7 +18814,7 @@
       <c r="AI488" s="19"/>
       <c r="AJ488" s="20"/>
     </row>
-    <row r="489" spans="1:36" ht="7.5" customHeight="1">
+    <row r="489" spans="1:36" ht="8.25" customHeight="1">
       <c r="A489" s="19"/>
       <c r="B489" s="19"/>
       <c r="C489" s="19"/>
@@ -18852,7 +18852,7 @@
       <c r="AI489" s="19"/>
       <c r="AJ489" s="20"/>
     </row>
-    <row r="490" spans="1:36" ht="7.5" customHeight="1">
+    <row r="490" spans="1:36" ht="8.25" customHeight="1">
       <c r="A490" s="19"/>
       <c r="B490" s="19"/>
       <c r="C490" s="19"/>
@@ -18890,7 +18890,7 @@
       <c r="AI490" s="19"/>
       <c r="AJ490" s="20"/>
     </row>
-    <row r="491" spans="1:36" ht="7.5" customHeight="1">
+    <row r="491" spans="1:36" ht="8.25" customHeight="1">
       <c r="A491" s="19"/>
       <c r="B491" s="19"/>
       <c r="C491" s="19"/>
@@ -18928,7 +18928,7 @@
       <c r="AI491" s="19"/>
       <c r="AJ491" s="20"/>
     </row>
-    <row r="492" spans="1:36" ht="7.5" customHeight="1">
+    <row r="492" spans="1:36" ht="8.25" customHeight="1">
       <c r="A492" s="19"/>
       <c r="B492" s="19"/>
       <c r="C492" s="19"/>
@@ -18966,7 +18966,7 @@
       <c r="AI492" s="19"/>
       <c r="AJ492" s="20"/>
     </row>
-    <row r="493" spans="1:36" ht="7.5" customHeight="1">
+    <row r="493" spans="1:36" ht="8.25" customHeight="1">
       <c r="A493" s="19"/>
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
@@ -19004,7 +19004,7 @@
       <c r="AI493" s="19"/>
       <c r="AJ493" s="20"/>
     </row>
-    <row r="494" spans="1:36" ht="7.5" customHeight="1">
+    <row r="494" spans="1:36" ht="8.25" customHeight="1">
       <c r="A494" s="19"/>
       <c r="B494" s="19"/>
       <c r="C494" s="19"/>
@@ -19042,7 +19042,7 @@
       <c r="AI494" s="19"/>
       <c r="AJ494" s="20"/>
     </row>
-    <row r="495" spans="1:36" ht="7.5" customHeight="1">
+    <row r="495" spans="1:36" ht="8.25" customHeight="1">
       <c r="A495" s="19"/>
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
@@ -19080,7 +19080,7 @@
       <c r="AI495" s="19"/>
       <c r="AJ495" s="20"/>
     </row>
-    <row r="496" spans="1:36" ht="7.5" customHeight="1">
+    <row r="496" spans="1:36" ht="8.25" customHeight="1">
       <c r="A496" s="19"/>
       <c r="B496" s="19"/>
       <c r="C496" s="19"/>
@@ -19118,7 +19118,7 @@
       <c r="AI496" s="19"/>
       <c r="AJ496" s="20"/>
     </row>
-    <row r="497" spans="1:36" ht="7.5" customHeight="1">
+    <row r="497" spans="1:36" ht="8.25" customHeight="1">
       <c r="A497" s="19"/>
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
@@ -19156,7 +19156,7 @@
       <c r="AI497" s="19"/>
       <c r="AJ497" s="20"/>
     </row>
-    <row r="498" spans="1:36" ht="7.5" customHeight="1">
+    <row r="498" spans="1:36" ht="8.25" customHeight="1">
       <c r="A498" s="19"/>
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
@@ -19194,7 +19194,7 @@
       <c r="AI498" s="19"/>
       <c r="AJ498" s="20"/>
     </row>
-    <row r="499" spans="1:36" ht="7.5" customHeight="1">
+    <row r="499" spans="1:36" ht="8.25" customHeight="1">
       <c r="A499" s="19"/>
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
@@ -19232,7 +19232,7 @@
       <c r="AI499" s="19"/>
       <c r="AJ499" s="20"/>
     </row>
-    <row r="500" spans="1:36" ht="7.5" customHeight="1">
+    <row r="500" spans="1:36" ht="8.25" customHeight="1">
       <c r="A500" s="19"/>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -19270,7 +19270,7 @@
       <c r="AI500" s="19"/>
       <c r="AJ500" s="20"/>
     </row>
-    <row r="501" spans="1:36" ht="7.5" customHeight="1">
+    <row r="501" spans="1:36" ht="8.25" customHeight="1">
       <c r="A501" s="19"/>
       <c r="B501" s="19"/>
       <c r="C501" s="19"/>
@@ -19308,7 +19308,7 @@
       <c r="AI501" s="19"/>
       <c r="AJ501" s="20"/>
     </row>
-    <row r="502" spans="1:36" ht="7.5" customHeight="1">
+    <row r="502" spans="1:36" ht="8.25" customHeight="1">
       <c r="A502" s="19"/>
       <c r="B502" s="19"/>
       <c r="C502" s="19"/>
@@ -19346,7 +19346,7 @@
       <c r="AI502" s="19"/>
       <c r="AJ502" s="20"/>
     </row>
-    <row r="503" spans="1:36" ht="7.5" customHeight="1">
+    <row r="503" spans="1:36" ht="8.25" customHeight="1">
       <c r="A503" s="19"/>
       <c r="B503" s="19"/>
       <c r="C503" s="19"/>
@@ -19384,7 +19384,7 @@
       <c r="AI503" s="19"/>
       <c r="AJ503" s="20"/>
     </row>
-    <row r="504" spans="1:36" ht="7.5" customHeight="1">
+    <row r="504" spans="1:36" ht="8.25" customHeight="1">
       <c r="A504" s="19"/>
       <c r="B504" s="19"/>
       <c r="C504" s="19"/>
@@ -19422,7 +19422,7 @@
       <c r="AI504" s="19"/>
       <c r="AJ504" s="20"/>
     </row>
-    <row r="505" spans="1:36" ht="7.5" customHeight="1">
+    <row r="505" spans="1:36" ht="8.25" customHeight="1">
       <c r="A505" s="19"/>
       <c r="B505" s="19"/>
       <c r="C505" s="19"/>
@@ -19460,7 +19460,7 @@
       <c r="AI505" s="19"/>
       <c r="AJ505" s="20"/>
     </row>
-    <row r="506" spans="1:36" ht="7.5" customHeight="1">
+    <row r="506" spans="1:36" ht="8.25" customHeight="1">
       <c r="A506" s="19"/>
       <c r="B506" s="19"/>
       <c r="C506" s="19"/>
@@ -19498,7 +19498,7 @@
       <c r="AI506" s="19"/>
       <c r="AJ506" s="20"/>
     </row>
-    <row r="507" spans="1:36" ht="7.5" customHeight="1">
+    <row r="507" spans="1:36" ht="8.25" customHeight="1">
       <c r="A507" s="19"/>
       <c r="B507" s="19"/>
       <c r="C507" s="19"/>
@@ -19536,7 +19536,7 @@
       <c r="AI507" s="19"/>
       <c r="AJ507" s="20"/>
     </row>
-    <row r="508" spans="1:36" ht="7.5" customHeight="1">
+    <row r="508" spans="1:36" ht="8.25" customHeight="1">
       <c r="A508" s="19"/>
       <c r="B508" s="19"/>
       <c r="C508" s="19"/>
@@ -19574,7 +19574,7 @@
       <c r="AI508" s="19"/>
       <c r="AJ508" s="20"/>
     </row>
-    <row r="509" spans="1:36" ht="7.5" customHeight="1">
+    <row r="509" spans="1:36" ht="8.25" customHeight="1">
       <c r="A509" s="19"/>
       <c r="B509" s="19"/>
       <c r="C509" s="19"/>
@@ -19612,7 +19612,7 @@
       <c r="AI509" s="19"/>
       <c r="AJ509" s="20"/>
     </row>
-    <row r="510" spans="1:36" ht="7.5" customHeight="1">
+    <row r="510" spans="1:36" ht="8.25" customHeight="1">
       <c r="A510" s="19"/>
       <c r="B510" s="19"/>
       <c r="C510" s="19"/>
@@ -19650,7 +19650,7 @@
       <c r="AI510" s="19"/>
       <c r="AJ510" s="20"/>
     </row>
-    <row r="511" spans="1:36" ht="7.5" customHeight="1">
+    <row r="511" spans="1:36" ht="8.25" customHeight="1">
       <c r="A511" s="19"/>
       <c r="B511" s="19"/>
       <c r="C511" s="19"/>
@@ -19688,7 +19688,7 @@
       <c r="AI511" s="19"/>
       <c r="AJ511" s="20"/>
     </row>
-    <row r="512" spans="1:36" ht="7.5" customHeight="1">
+    <row r="512" spans="1:36" ht="8.25" customHeight="1">
       <c r="A512" s="19"/>
       <c r="B512" s="19"/>
       <c r="C512" s="19"/>
@@ -19726,7 +19726,7 @@
       <c r="AI512" s="19"/>
       <c r="AJ512" s="20"/>
     </row>
-    <row r="513" spans="1:36" ht="7.5" customHeight="1">
+    <row r="513" spans="1:36" ht="8.25" customHeight="1">
       <c r="A513" s="19"/>
       <c r="B513" s="19"/>
       <c r="C513" s="19"/>
@@ -19764,7 +19764,7 @@
       <c r="AI513" s="19"/>
       <c r="AJ513" s="20"/>
     </row>
-    <row r="514" spans="1:36" ht="7.5" customHeight="1">
+    <row r="514" spans="1:36" ht="8.25" customHeight="1">
       <c r="A514" s="19"/>
       <c r="B514" s="19"/>
       <c r="C514" s="19"/>
@@ -19802,7 +19802,7 @@
       <c r="AI514" s="19"/>
       <c r="AJ514" s="20"/>
     </row>
-    <row r="515" spans="1:36" ht="7.5" customHeight="1">
+    <row r="515" spans="1:36" ht="8.25" customHeight="1">
       <c r="A515" s="19"/>
       <c r="B515" s="19"/>
       <c r="C515" s="19"/>
@@ -19840,7 +19840,7 @@
       <c r="AI515" s="19"/>
       <c r="AJ515" s="20"/>
     </row>
-    <row r="516" spans="1:36" ht="7.5" customHeight="1">
+    <row r="516" spans="1:36" ht="8.25" customHeight="1">
       <c r="A516" s="19"/>
       <c r="B516" s="19"/>
       <c r="C516" s="19"/>
@@ -19878,7 +19878,7 @@
       <c r="AI516" s="19"/>
       <c r="AJ516" s="20"/>
     </row>
-    <row r="517" spans="1:36" ht="7.5" customHeight="1">
+    <row r="517" spans="1:36" ht="8.25" customHeight="1">
       <c r="A517" s="19"/>
       <c r="B517" s="19"/>
       <c r="C517" s="19"/>
@@ -19916,7 +19916,7 @@
       <c r="AI517" s="19"/>
       <c r="AJ517" s="20"/>
     </row>
-    <row r="518" spans="1:36" ht="7.5" customHeight="1">
+    <row r="518" spans="1:36" ht="8.25" customHeight="1">
       <c r="A518" s="19"/>
       <c r="B518" s="19"/>
       <c r="C518" s="19"/>
@@ -19954,7 +19954,7 @@
       <c r="AI518" s="19"/>
       <c r="AJ518" s="20"/>
     </row>
-    <row r="519" spans="1:36" ht="7.5" customHeight="1">
+    <row r="519" spans="1:36" ht="8.25" customHeight="1">
       <c r="A519" s="19"/>
       <c r="B519" s="19"/>
       <c r="C519" s="19"/>
@@ -19992,7 +19992,7 @@
       <c r="AI519" s="19"/>
       <c r="AJ519" s="20"/>
     </row>
-    <row r="520" spans="1:36" ht="7.5" customHeight="1">
+    <row r="520" spans="1:36" ht="8.25" customHeight="1">
       <c r="A520" s="19"/>
       <c r="B520" s="19"/>
       <c r="C520" s="19"/>
@@ -20030,7 +20030,7 @@
       <c r="AI520" s="19"/>
       <c r="AJ520" s="20"/>
     </row>
-    <row r="521" spans="1:36" ht="7.5" customHeight="1">
+    <row r="521" spans="1:36" ht="8.25" customHeight="1">
       <c r="A521" s="19"/>
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
@@ -20068,7 +20068,7 @@
       <c r="AI521" s="19"/>
       <c r="AJ521" s="20"/>
     </row>
-    <row r="522" spans="1:36" ht="7.5" customHeight="1">
+    <row r="522" spans="1:36" ht="8.25" customHeight="1">
       <c r="A522" s="19"/>
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
@@ -20106,7 +20106,7 @@
       <c r="AI522" s="19"/>
       <c r="AJ522" s="20"/>
     </row>
-    <row r="523" spans="1:36" ht="7.5" customHeight="1">
+    <row r="523" spans="1:36" ht="8.25" customHeight="1">
       <c r="A523" s="19"/>
       <c r="B523" s="19"/>
       <c r="C523" s="19"/>
@@ -20144,7 +20144,7 @@
       <c r="AI523" s="19"/>
       <c r="AJ523" s="20"/>
     </row>
-    <row r="524" spans="1:36" ht="7.5" customHeight="1">
+    <row r="524" spans="1:36" ht="8.25" customHeight="1">
       <c r="A524" s="19"/>
       <c r="B524" s="19"/>
       <c r="C524" s="19"/>
@@ -20182,7 +20182,7 @@
       <c r="AI524" s="19"/>
       <c r="AJ524" s="20"/>
     </row>
-    <row r="525" spans="1:36" ht="7.5" customHeight="1">
+    <row r="525" spans="1:36" ht="8.25" customHeight="1">
       <c r="A525" s="19"/>
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
@@ -20220,7 +20220,7 @@
       <c r="AI525" s="19"/>
       <c r="AJ525" s="20"/>
     </row>
-    <row r="526" spans="1:36" ht="7.5" customHeight="1">
+    <row r="526" spans="1:36" ht="8.25" customHeight="1">
       <c r="A526" s="19"/>
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
@@ -20258,7 +20258,7 @@
       <c r="AI526" s="19"/>
       <c r="AJ526" s="20"/>
     </row>
-    <row r="527" spans="1:36" ht="7.5" customHeight="1">
+    <row r="527" spans="1:36" ht="8.25" customHeight="1">
       <c r="A527" s="19"/>
       <c r="B527" s="19"/>
       <c r="C527" s="19"/>
@@ -20296,7 +20296,7 @@
       <c r="AI527" s="19"/>
       <c r="AJ527" s="20"/>
     </row>
-    <row r="528" spans="1:36" ht="7.5" customHeight="1">
+    <row r="528" spans="1:36" ht="8.25" customHeight="1">
       <c r="A528" s="19"/>
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
@@ -20334,7 +20334,7 @@
       <c r="AI528" s="19"/>
       <c r="AJ528" s="20"/>
     </row>
-    <row r="529" spans="1:36" ht="7.5" customHeight="1">
+    <row r="529" spans="1:36" ht="8.25" customHeight="1">
       <c r="A529" s="19"/>
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
@@ -20372,7 +20372,7 @@
       <c r="AI529" s="19"/>
       <c r="AJ529" s="20"/>
     </row>
-    <row r="530" spans="1:36" ht="7.5" customHeight="1">
+    <row r="530" spans="1:36" ht="8.25" customHeight="1">
       <c r="A530" s="19"/>
       <c r="B530" s="19"/>
       <c r="C530" s="19"/>
@@ -20410,7 +20410,7 @@
       <c r="AI530" s="19"/>
       <c r="AJ530" s="20"/>
     </row>
-    <row r="531" spans="1:36" ht="7.5" customHeight="1">
+    <row r="531" spans="1:36" ht="8.25" customHeight="1">
       <c r="A531" s="19"/>
       <c r="B531" s="19"/>
       <c r="C531" s="19"/>
@@ -20448,7 +20448,7 @@
       <c r="AI531" s="19"/>
       <c r="AJ531" s="20"/>
     </row>
-    <row r="532" spans="1:36" ht="7.5" customHeight="1">
+    <row r="532" spans="1:36" ht="8.25" customHeight="1">
       <c r="A532" s="19"/>
       <c r="B532" s="19"/>
       <c r="C532" s="19"/>
@@ -20486,7 +20486,7 @@
       <c r="AI532" s="19"/>
       <c r="AJ532" s="20"/>
     </row>
-    <row r="533" spans="1:36" ht="7.5" customHeight="1">
+    <row r="533" spans="1:36" ht="8.25" customHeight="1">
       <c r="A533" s="19"/>
       <c r="B533" s="19"/>
       <c r="C533" s="19"/>
@@ -20524,7 +20524,7 @@
       <c r="AI533" s="19"/>
       <c r="AJ533" s="20"/>
     </row>
-    <row r="534" spans="1:36" ht="7.5" customHeight="1">
+    <row r="534" spans="1:36" ht="8.25" customHeight="1">
       <c r="A534" s="19"/>
       <c r="B534" s="19"/>
       <c r="C534" s="19"/>
@@ -20562,7 +20562,7 @@
       <c r="AI534" s="19"/>
       <c r="AJ534" s="20"/>
     </row>
-    <row r="535" spans="1:36" ht="7.5" customHeight="1">
+    <row r="535" spans="1:36" ht="8.25" customHeight="1">
       <c r="A535" s="19"/>
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
@@ -20600,7 +20600,7 @@
       <c r="AI535" s="19"/>
       <c r="AJ535" s="20"/>
     </row>
-    <row r="536" spans="1:36" ht="7.5" customHeight="1">
+    <row r="536" spans="1:36" ht="8.25" customHeight="1">
       <c r="A536" s="19"/>
       <c r="B536" s="19"/>
       <c r="C536" s="19"/>
@@ -20638,7 +20638,7 @@
       <c r="AI536" s="19"/>
       <c r="AJ536" s="20"/>
     </row>
-    <row r="537" spans="1:36" ht="7.5" customHeight="1">
+    <row r="537" spans="1:36" ht="8.25" customHeight="1">
       <c r="A537" s="19"/>
       <c r="B537" s="19"/>
       <c r="C537" s="19"/>
@@ -20676,7 +20676,7 @@
       <c r="AI537" s="19"/>
       <c r="AJ537" s="20"/>
     </row>
-    <row r="538" spans="1:36" ht="7.5" customHeight="1">
+    <row r="538" spans="1:36" ht="8.25" customHeight="1">
       <c r="A538" s="19"/>
       <c r="B538" s="19"/>
       <c r="C538" s="19"/>
@@ -20714,7 +20714,7 @@
       <c r="AI538" s="19"/>
       <c r="AJ538" s="20"/>
     </row>
-    <row r="539" spans="1:36" ht="7.5" customHeight="1">
+    <row r="539" spans="1:36" ht="8.25" customHeight="1">
       <c r="A539" s="19"/>
       <c r="B539" s="19"/>
       <c r="C539" s="19"/>
@@ -20752,7 +20752,7 @@
       <c r="AI539" s="19"/>
       <c r="AJ539" s="20"/>
     </row>
-    <row r="540" spans="1:36" ht="7.5" customHeight="1">
+    <row r="540" spans="1:36" ht="8.25" customHeight="1">
       <c r="A540" s="19"/>
       <c r="B540" s="19"/>
       <c r="C540" s="19"/>
@@ -20790,7 +20790,7 @@
       <c r="AI540" s="19"/>
       <c r="AJ540" s="20"/>
     </row>
-    <row r="541" spans="1:36" ht="7.5" customHeight="1">
+    <row r="541" spans="1:36" ht="8.25" customHeight="1">
       <c r="A541" s="19"/>
       <c r="B541" s="19"/>
       <c r="C541" s="19"/>
@@ -20828,7 +20828,7 @@
       <c r="AI541" s="19"/>
       <c r="AJ541" s="20"/>
     </row>
-    <row r="542" spans="1:36" ht="7.5" customHeight="1">
+    <row r="542" spans="1:36" ht="8.25" customHeight="1">
       <c r="A542" s="19"/>
       <c r="B542" s="19"/>
       <c r="C542" s="19"/>
@@ -20866,7 +20866,7 @@
       <c r="AI542" s="19"/>
       <c r="AJ542" s="20"/>
     </row>
-    <row r="543" spans="1:36" ht="7.5" customHeight="1">
+    <row r="543" spans="1:36" ht="8.25" customHeight="1">
       <c r="A543" s="19"/>
       <c r="B543" s="19"/>
       <c r="C543" s="19"/>
@@ -20904,7 +20904,7 @@
       <c r="AI543" s="19"/>
       <c r="AJ543" s="20"/>
     </row>
-    <row r="544" spans="1:36" ht="7.5" customHeight="1">
+    <row r="544" spans="1:36" ht="8.25" customHeight="1">
       <c r="A544" s="19"/>
       <c r="B544" s="19"/>
       <c r="C544" s="19"/>
@@ -20942,7 +20942,7 @@
       <c r="AI544" s="19"/>
       <c r="AJ544" s="20"/>
     </row>
-    <row r="545" spans="1:36" ht="7.5" customHeight="1">
+    <row r="545" spans="1:36" ht="8.25" customHeight="1">
       <c r="A545" s="19"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19"/>
@@ -20980,7 +20980,7 @@
       <c r="AI545" s="19"/>
       <c r="AJ545" s="20"/>
     </row>
-    <row r="546" spans="1:36" ht="7.5" customHeight="1">
+    <row r="546" spans="1:36" ht="8.25" customHeight="1">
       <c r="A546" s="19"/>
       <c r="B546" s="19"/>
       <c r="C546" s="19"/>
@@ -21018,7 +21018,7 @@
       <c r="AI546" s="19"/>
       <c r="AJ546" s="20"/>
     </row>
-    <row r="547" spans="1:36" ht="7.5" customHeight="1">
+    <row r="547" spans="1:36" ht="8.25" customHeight="1">
       <c r="A547" s="19"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19"/>
@@ -21056,7 +21056,7 @@
       <c r="AI547" s="19"/>
       <c r="AJ547" s="20"/>
     </row>
-    <row r="548" spans="1:36" ht="7.5" customHeight="1">
+    <row r="548" spans="1:36" ht="8.25" customHeight="1">
       <c r="A548" s="19"/>
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
@@ -21094,7 +21094,7 @@
       <c r="AI548" s="19"/>
       <c r="AJ548" s="20"/>
     </row>
-    <row r="549" spans="1:36" ht="7.5" customHeight="1">
+    <row r="549" spans="1:36" ht="8.25" customHeight="1">
       <c r="A549" s="19"/>
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
@@ -21132,7 +21132,7 @@
       <c r="AI549" s="19"/>
       <c r="AJ549" s="20"/>
     </row>
-    <row r="550" spans="1:36" ht="7.5" customHeight="1">
+    <row r="550" spans="1:36" ht="8.25" customHeight="1">
       <c r="A550" s="19"/>
       <c r="B550" s="19"/>
       <c r="C550" s="19"/>
@@ -21170,7 +21170,7 @@
       <c r="AI550" s="19"/>
       <c r="AJ550" s="20"/>
     </row>
-    <row r="551" spans="1:36" ht="7.5" customHeight="1">
+    <row r="551" spans="1:36" ht="8.25" customHeight="1">
       <c r="A551" s="19"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19"/>
@@ -21208,7 +21208,7 @@
       <c r="AI551" s="19"/>
       <c r="AJ551" s="20"/>
     </row>
-    <row r="552" spans="1:36" ht="7.5" customHeight="1">
+    <row r="552" spans="1:36" ht="8.25" customHeight="1">
       <c r="A552" s="19"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19"/>
@@ -21246,7 +21246,7 @@
       <c r="AI552" s="19"/>
       <c r="AJ552" s="20"/>
     </row>
-    <row r="553" spans="1:36" ht="7.5" customHeight="1">
+    <row r="553" spans="1:36" ht="8.25" customHeight="1">
       <c r="A553" s="19"/>
       <c r="B553" s="19"/>
       <c r="C553" s="19"/>
@@ -21284,7 +21284,7 @@
       <c r="AI553" s="19"/>
       <c r="AJ553" s="20"/>
     </row>
-    <row r="554" spans="1:36" ht="7.5" customHeight="1">
+    <row r="554" spans="1:36" ht="8.25" customHeight="1">
       <c r="A554" s="19"/>
       <c r="B554" s="19"/>
       <c r="C554" s="19"/>
@@ -21322,7 +21322,7 @@
       <c r="AI554" s="19"/>
       <c r="AJ554" s="20"/>
     </row>
-    <row r="555" spans="1:36" ht="7.5" customHeight="1">
+    <row r="555" spans="1:36" ht="8.25" customHeight="1">
       <c r="A555" s="19"/>
       <c r="B555" s="19"/>
       <c r="C555" s="19"/>
@@ -21360,7 +21360,7 @@
       <c r="AI555" s="19"/>
       <c r="AJ555" s="20"/>
     </row>
-    <row r="556" spans="1:36" ht="7.5" customHeight="1">
+    <row r="556" spans="1:36" ht="8.25" customHeight="1">
       <c r="A556" s="19"/>
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
@@ -21398,7 +21398,7 @@
       <c r="AI556" s="19"/>
       <c r="AJ556" s="20"/>
     </row>
-    <row r="557" spans="1:36" ht="7.5" customHeight="1">
+    <row r="557" spans="1:36" ht="8.25" customHeight="1">
       <c r="A557" s="19"/>
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
@@ -21436,7 +21436,7 @@
       <c r="AI557" s="19"/>
       <c r="AJ557" s="20"/>
     </row>
-    <row r="558" spans="1:36" ht="7.5" customHeight="1">
+    <row r="558" spans="1:36" ht="8.25" customHeight="1">
       <c r="A558" s="19"/>
       <c r="B558" s="19"/>
       <c r="C558" s="19"/>
@@ -21474,7 +21474,7 @@
       <c r="AI558" s="19"/>
       <c r="AJ558" s="20"/>
     </row>
-    <row r="559" spans="1:36" ht="7.5" customHeight="1">
+    <row r="559" spans="1:36" ht="8.25" customHeight="1">
       <c r="A559" s="19"/>
       <c r="B559" s="19"/>
       <c r="C559" s="19"/>
@@ -21512,7 +21512,7 @@
       <c r="AI559" s="19"/>
       <c r="AJ559" s="20"/>
     </row>
-    <row r="560" spans="1:36" ht="7.5" customHeight="1">
+    <row r="560" spans="1:36" ht="8.25" customHeight="1">
       <c r="A560" s="19"/>
       <c r="B560" s="19"/>
       <c r="C560" s="19"/>
@@ -21550,7 +21550,7 @@
       <c r="AI560" s="19"/>
       <c r="AJ560" s="20"/>
     </row>
-    <row r="561" spans="1:36" ht="7.5" customHeight="1">
+    <row r="561" spans="1:36" ht="8.25" customHeight="1">
       <c r="A561" s="19"/>
       <c r="B561" s="19"/>
       <c r="C561" s="19"/>
@@ -21588,7 +21588,7 @@
       <c r="AI561" s="19"/>
       <c r="AJ561" s="20"/>
     </row>
-    <row r="562" spans="1:36" ht="7.5" customHeight="1">
+    <row r="562" spans="1:36" ht="8.25" customHeight="1">
       <c r="A562" s="19"/>
       <c r="B562" s="19"/>
       <c r="C562" s="19"/>
@@ -21626,7 +21626,7 @@
       <c r="AI562" s="19"/>
       <c r="AJ562" s="20"/>
     </row>
-    <row r="563" spans="1:36" ht="7.5" customHeight="1">
+    <row r="563" spans="1:36" ht="8.25" customHeight="1">
       <c r="A563" s="19"/>
       <c r="B563" s="19"/>
       <c r="C563" s="19"/>
@@ -21664,7 +21664,7 @@
       <c r="AI563" s="19"/>
       <c r="AJ563" s="20"/>
     </row>
-    <row r="564" spans="1:36" ht="7.5" customHeight="1">
+    <row r="564" spans="1:36" ht="8.25" customHeight="1">
       <c r="A564" s="19"/>
       <c r="B564" s="19"/>
       <c r="C564" s="19"/>
@@ -21702,7 +21702,7 @@
       <c r="AI564" s="19"/>
       <c r="AJ564" s="20"/>
     </row>
-    <row r="565" spans="1:36" ht="7.5" customHeight="1">
+    <row r="565" spans="1:36" ht="8.25" customHeight="1">
       <c r="A565" s="19"/>
       <c r="B565" s="19"/>
       <c r="C565" s="19"/>
@@ -21740,7 +21740,7 @@
       <c r="AI565" s="19"/>
       <c r="AJ565" s="20"/>
     </row>
-    <row r="566" spans="1:36" ht="7.5" customHeight="1">
+    <row r="566" spans="1:36" ht="8.25" customHeight="1">
       <c r="A566" s="19"/>
       <c r="B566" s="19"/>
       <c r="C566" s="19"/>
@@ -21778,7 +21778,7 @@
       <c r="AI566" s="19"/>
       <c r="AJ566" s="20"/>
     </row>
-    <row r="567" spans="1:36" ht="7.5" customHeight="1">
+    <row r="567" spans="1:36" ht="8.25" customHeight="1">
       <c r="A567" s="19"/>
       <c r="B567" s="19"/>
       <c r="C567" s="19"/>
@@ -21816,7 +21816,7 @@
       <c r="AI567" s="19"/>
       <c r="AJ567" s="20"/>
     </row>
-    <row r="568" spans="1:36" ht="7.5" customHeight="1">
+    <row r="568" spans="1:36" ht="8.25" customHeight="1">
       <c r="A568" s="19"/>
       <c r="B568" s="19"/>
       <c r="C568" s="19"/>
@@ -21854,7 +21854,7 @@
       <c r="AI568" s="19"/>
       <c r="AJ568" s="20"/>
     </row>
-    <row r="569" spans="1:36" ht="7.5" customHeight="1">
+    <row r="569" spans="1:36" ht="8.25" customHeight="1">
       <c r="A569" s="19"/>
       <c r="B569" s="19"/>
       <c r="C569" s="19"/>
@@ -21892,7 +21892,7 @@
       <c r="AI569" s="19"/>
       <c r="AJ569" s="20"/>
     </row>
-    <row r="570" spans="1:36" ht="7.5" customHeight="1">
+    <row r="570" spans="1:36" ht="8.25" customHeight="1">
       <c r="A570" s="19"/>
       <c r="B570" s="19"/>
       <c r="C570" s="19"/>
@@ -21930,7 +21930,7 @@
       <c r="AI570" s="19"/>
       <c r="AJ570" s="20"/>
     </row>
-    <row r="571" spans="1:36" ht="7.5" customHeight="1">
+    <row r="571" spans="1:36" ht="8.25" customHeight="1">
       <c r="A571" s="19"/>
       <c r="B571" s="19"/>
       <c r="C571" s="19"/>
@@ -21968,7 +21968,7 @@
       <c r="AI571" s="19"/>
       <c r="AJ571" s="20"/>
     </row>
-    <row r="572" spans="1:36" ht="7.5" customHeight="1">
+    <row r="572" spans="1:36" ht="8.25" customHeight="1">
       <c r="A572" s="19"/>
       <c r="B572" s="19"/>
       <c r="C572" s="19"/>
@@ -22006,7 +22006,7 @@
       <c r="AI572" s="19"/>
       <c r="AJ572" s="20"/>
     </row>
-    <row r="573" spans="1:36" ht="7.5" customHeight="1">
+    <row r="573" spans="1:36" ht="8.25" customHeight="1">
       <c r="A573" s="19"/>
       <c r="B573" s="19"/>
       <c r="C573" s="19"/>
@@ -22044,7 +22044,7 @@
       <c r="AI573" s="19"/>
       <c r="AJ573" s="20"/>
     </row>
-    <row r="574" spans="1:36" ht="7.5" customHeight="1">
+    <row r="574" spans="1:36" ht="8.25" customHeight="1">
       <c r="A574" s="19"/>
       <c r="B574" s="19"/>
       <c r="C574" s="19"/>
@@ -22082,7 +22082,7 @@
       <c r="AI574" s="19"/>
       <c r="AJ574" s="20"/>
     </row>
-    <row r="575" spans="1:36" ht="7.5" customHeight="1">
+    <row r="575" spans="1:36" ht="8.25" customHeight="1">
       <c r="A575" s="19"/>
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
@@ -22120,7 +22120,7 @@
       <c r="AI575" s="19"/>
       <c r="AJ575" s="20"/>
     </row>
-    <row r="576" spans="1:36" ht="7.5" customHeight="1">
+    <row r="576" spans="1:36" ht="8.25" customHeight="1">
       <c r="A576" s="19"/>
       <c r="B576" s="19"/>
       <c r="C576" s="19"/>
@@ -22158,7 +22158,7 @@
       <c r="AI576" s="19"/>
       <c r="AJ576" s="20"/>
     </row>
-    <row r="577" spans="1:36" ht="7.5" customHeight="1">
+    <row r="577" spans="1:36" ht="8.25" customHeight="1">
       <c r="A577" s="19"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19"/>
@@ -22196,7 +22196,7 @@
       <c r="AI577" s="19"/>
       <c r="AJ577" s="20"/>
     </row>
-    <row r="578" spans="1:36" ht="7.5" customHeight="1">
+    <row r="578" spans="1:36" ht="8.25" customHeight="1">
       <c r="A578" s="19"/>
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
@@ -22234,7 +22234,7 @@
       <c r="AI578" s="19"/>
       <c r="AJ578" s="20"/>
     </row>
-    <row r="579" spans="1:36" ht="7.5" customHeight="1">
+    <row r="579" spans="1:36" ht="8.25" customHeight="1">
       <c r="A579" s="19"/>
       <c r="B579" s="19"/>
       <c r="C579" s="19"/>
@@ -22272,7 +22272,7 @@
       <c r="AI579" s="19"/>
       <c r="AJ579" s="20"/>
     </row>
-    <row r="580" spans="1:36" ht="7.5" customHeight="1">
+    <row r="580" spans="1:36" ht="8.25" customHeight="1">
       <c r="A580" s="19"/>
       <c r="B580" s="19"/>
       <c r="C580" s="19"/>
@@ -22310,7 +22310,7 @@
       <c r="AI580" s="19"/>
       <c r="AJ580" s="20"/>
     </row>
-    <row r="581" spans="1:36" ht="7.5" customHeight="1">
+    <row r="581" spans="1:36" ht="8.25" customHeight="1">
       <c r="A581" s="19"/>
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
@@ -22348,7 +22348,7 @@
       <c r="AI581" s="19"/>
       <c r="AJ581" s="20"/>
     </row>
-    <row r="582" spans="1:36" ht="7.5" customHeight="1">
+    <row r="582" spans="1:36" ht="8.25" customHeight="1">
       <c r="A582" s="19"/>
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
@@ -22386,7 +22386,7 @@
       <c r="AI582" s="19"/>
       <c r="AJ582" s="20"/>
     </row>
-    <row r="583" spans="1:36" ht="7.5" customHeight="1">
+    <row r="583" spans="1:36" ht="8.25" customHeight="1">
       <c r="A583" s="19"/>
       <c r="B583" s="19"/>
       <c r="C583" s="19"/>
@@ -22424,7 +22424,7 @@
       <c r="AI583" s="19"/>
       <c r="AJ583" s="20"/>
     </row>
-    <row r="584" spans="1:36" ht="7.5" customHeight="1">
+    <row r="584" spans="1:36" ht="8.25" customHeight="1">
       <c r="A584" s="19"/>
       <c r="B584" s="19"/>
       <c r="C584" s="19"/>
@@ -22462,7 +22462,7 @@
       <c r="AI584" s="19"/>
       <c r="AJ584" s="20"/>
     </row>
-    <row r="585" spans="1:36" ht="7.5" customHeight="1">
+    <row r="585" spans="1:36" ht="8.25" customHeight="1">
       <c r="A585" s="19"/>
       <c r="B585" s="19"/>
       <c r="C585" s="19"/>
@@ -22500,7 +22500,7 @@
       <c r="AI585" s="19"/>
       <c r="AJ585" s="20"/>
     </row>
-    <row r="586" spans="1:36" ht="7.5" customHeight="1">
+    <row r="586" spans="1:36" ht="8.25" customHeight="1">
       <c r="A586" s="19"/>
       <c r="B586" s="19"/>
       <c r="C586" s="19"/>
@@ -22538,7 +22538,7 @@
       <c r="AI586" s="19"/>
       <c r="AJ586" s="20"/>
     </row>
-    <row r="587" spans="1:36" ht="7.5" customHeight="1">
+    <row r="587" spans="1:36" ht="8.25" customHeight="1">
       <c r="A587" s="19"/>
       <c r="B587" s="19"/>
       <c r="C587" s="19"/>
@@ -22576,7 +22576,7 @@
       <c r="AI587" s="19"/>
       <c r="AJ587" s="20"/>
     </row>
-    <row r="588" spans="1:36" ht="7.5" customHeight="1">
+    <row r="588" spans="1:36" ht="8.25" customHeight="1">
       <c r="A588" s="19"/>
       <c r="B588" s="19"/>
       <c r="C588" s="19"/>
@@ -22614,7 +22614,7 @@
       <c r="AI588" s="19"/>
       <c r="AJ588" s="20"/>
     </row>
-    <row r="589" spans="1:36" ht="7.5" customHeight="1">
+    <row r="589" spans="1:36" ht="8.25" customHeight="1">
       <c r="A589" s="19"/>
       <c r="B589" s="19"/>
       <c r="C589" s="19"/>
@@ -22652,7 +22652,7 @@
       <c r="AI589" s="19"/>
       <c r="AJ589" s="20"/>
     </row>
-    <row r="590" spans="1:36" ht="7.5" customHeight="1">
+    <row r="590" spans="1:36" ht="8.25" customHeight="1">
       <c r="A590" s="19"/>
       <c r="B590" s="19"/>
       <c r="C590" s="19"/>
@@ -22690,7 +22690,7 @@
       <c r="AI590" s="19"/>
       <c r="AJ590" s="20"/>
     </row>
-    <row r="591" spans="1:36" ht="7.5" customHeight="1">
+    <row r="591" spans="1:36" ht="8.25" customHeight="1">
       <c r="A591" s="19"/>
       <c r="B591" s="19"/>
       <c r="C591" s="19"/>
@@ -22728,7 +22728,7 @@
       <c r="AI591" s="19"/>
       <c r="AJ591" s="20"/>
     </row>
-    <row r="592" spans="1:36" ht="7.5" customHeight="1">
+    <row r="592" spans="1:36" ht="8.25" customHeight="1">
       <c r="A592" s="19"/>
       <c r="B592" s="19"/>
       <c r="C592" s="19"/>
@@ -22766,7 +22766,7 @@
       <c r="AI592" s="19"/>
       <c r="AJ592" s="20"/>
     </row>
-    <row r="593" spans="1:36" ht="7.5" customHeight="1">
+    <row r="593" spans="1:36" ht="8.25" customHeight="1">
       <c r="A593" s="19"/>
       <c r="B593" s="19"/>
       <c r="C593" s="19"/>
@@ -22804,7 +22804,7 @@
       <c r="AI593" s="19"/>
       <c r="AJ593" s="20"/>
     </row>
-    <row r="594" spans="1:36" ht="7.5" customHeight="1">
+    <row r="594" spans="1:36" ht="8.25" customHeight="1">
       <c r="A594" s="19"/>
       <c r="B594" s="19"/>
       <c r="C594" s="19"/>
@@ -22842,7 +22842,7 @@
       <c r="AI594" s="19"/>
       <c r="AJ594" s="20"/>
     </row>
-    <row r="595" spans="1:36" ht="7.5" customHeight="1">
+    <row r="595" spans="1:36" ht="8.25" customHeight="1">
       <c r="A595" s="19"/>
       <c r="B595" s="19"/>
       <c r="C595" s="19"/>
@@ -22880,7 +22880,7 @@
       <c r="AI595" s="19"/>
       <c r="AJ595" s="20"/>
     </row>
-    <row r="596" spans="1:36" ht="7.5" customHeight="1">
+    <row r="596" spans="1:36" ht="8.25" customHeight="1">
       <c r="A596" s="19"/>
       <c r="B596" s="19"/>
       <c r="C596" s="19"/>
@@ -22918,7 +22918,7 @@
       <c r="AI596" s="19"/>
       <c r="AJ596" s="20"/>
     </row>
-    <row r="597" spans="1:36" ht="7.5" customHeight="1">
+    <row r="597" spans="1:36" ht="8.25" customHeight="1">
       <c r="A597" s="19"/>
       <c r="B597" s="19"/>
       <c r="C597" s="19"/>
@@ -22956,7 +22956,7 @@
       <c r="AI597" s="19"/>
       <c r="AJ597" s="20"/>
     </row>
-    <row r="598" spans="1:36" ht="7.5" customHeight="1">
+    <row r="598" spans="1:36" ht="8.25" customHeight="1">
       <c r="A598" s="19"/>
       <c r="B598" s="19"/>
       <c r="C598" s="19"/>
@@ -22994,7 +22994,7 @@
       <c r="AI598" s="19"/>
       <c r="AJ598" s="20"/>
     </row>
-    <row r="599" spans="1:36" ht="7.5" customHeight="1">
+    <row r="599" spans="1:36" ht="8.25" customHeight="1">
       <c r="A599" s="19"/>
       <c r="B599" s="19"/>
       <c r="C599" s="19"/>
@@ -23032,7 +23032,7 @@
       <c r="AI599" s="19"/>
       <c r="AJ599" s="20"/>
     </row>
-    <row r="600" spans="1:36" ht="7.5" customHeight="1">
+    <row r="600" spans="1:36" ht="8.25" customHeight="1">
       <c r="A600" s="19"/>
       <c r="B600" s="19"/>
       <c r="C600" s="19"/>
@@ -23070,7 +23070,7 @@
       <c r="AI600" s="19"/>
       <c r="AJ600" s="20"/>
     </row>
-    <row r="601" spans="1:36" ht="7.5" customHeight="1">
+    <row r="601" spans="1:36" ht="8.25" customHeight="1">
       <c r="A601" s="19"/>
       <c r="B601" s="19"/>
       <c r="C601" s="19"/>
@@ -23108,7 +23108,7 @@
       <c r="AI601" s="19"/>
       <c r="AJ601" s="20"/>
     </row>
-    <row r="602" spans="1:36" ht="7.5" customHeight="1">
+    <row r="602" spans="1:36" ht="8.25" customHeight="1">
       <c r="A602" s="19"/>
       <c r="B602" s="19"/>
       <c r="C602" s="19"/>
@@ -23146,7 +23146,7 @@
       <c r="AI602" s="19"/>
       <c r="AJ602" s="20"/>
     </row>
-    <row r="603" spans="1:36" ht="7.5" customHeight="1">
+    <row r="603" spans="1:36" ht="8.25" customHeight="1">
       <c r="A603" s="19"/>
       <c r="B603" s="19"/>
       <c r="C603" s="19"/>
@@ -23184,7 +23184,7 @@
       <c r="AI603" s="19"/>
       <c r="AJ603" s="20"/>
     </row>
-    <row r="604" spans="1:36" ht="7.5" customHeight="1">
+    <row r="604" spans="1:36" ht="8.25" customHeight="1">
       <c r="A604" s="19"/>
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
@@ -23222,7 +23222,7 @@
       <c r="AI604" s="19"/>
       <c r="AJ604" s="20"/>
     </row>
-    <row r="605" spans="1:36" ht="7.5" customHeight="1">
+    <row r="605" spans="1:36" ht="8.25" customHeight="1">
       <c r="A605" s="19"/>
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
@@ -23260,7 +23260,7 @@
       <c r="AI605" s="19"/>
       <c r="AJ605" s="20"/>
     </row>
-    <row r="606" spans="1:36" ht="7.5" customHeight="1">
+    <row r="606" spans="1:36" ht="8.25" customHeight="1">
       <c r="A606" s="19"/>
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
@@ -23298,7 +23298,7 @@
       <c r="AI606" s="19"/>
       <c r="AJ606" s="20"/>
     </row>
-    <row r="607" spans="1:36" ht="7.5" customHeight="1">
+    <row r="607" spans="1:36" ht="8.25" customHeight="1">
       <c r="A607" s="19"/>
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
@@ -23336,7 +23336,7 @@
       <c r="AI607" s="19"/>
       <c r="AJ607" s="20"/>
     </row>
-    <row r="608" spans="1:36" ht="7.5" customHeight="1">
+    <row r="608" spans="1:36" ht="8.25" customHeight="1">
       <c r="A608" s="19"/>
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
@@ -23374,7 +23374,7 @@
       <c r="AI608" s="19"/>
       <c r="AJ608" s="20"/>
     </row>
-    <row r="609" spans="1:36" ht="7.5" customHeight="1">
+    <row r="609" spans="1:36" ht="8.25" customHeight="1">
       <c r="A609" s="19"/>
       <c r="B609" s="19"/>
       <c r="C609" s="19"/>
@@ -23412,7 +23412,7 @@
       <c r="AI609" s="19"/>
       <c r="AJ609" s="20"/>
     </row>
-    <row r="610" spans="1:36" ht="7.5" customHeight="1">
+    <row r="610" spans="1:36" ht="8.25" customHeight="1">
       <c r="A610" s="19"/>
       <c r="B610" s="19"/>
       <c r="C610" s="19"/>
@@ -23450,7 +23450,7 @@
       <c r="AI610" s="19"/>
       <c r="AJ610" s="20"/>
     </row>
-    <row r="611" spans="1:36" ht="7.5" customHeight="1">
+    <row r="611" spans="1:36" ht="8.25" customHeight="1">
       <c r="A611" s="19"/>
       <c r="B611" s="19"/>
       <c r="C611" s="19"/>
@@ -23488,7 +23488,7 @@
       <c r="AI611" s="19"/>
       <c r="AJ611" s="20"/>
     </row>
-    <row r="612" spans="1:36" ht="7.5" customHeight="1">
+    <row r="612" spans="1:36" ht="8.25" customHeight="1">
       <c r="A612" s="19"/>
       <c r="B612" s="19"/>
       <c r="C612" s="19"/>
@@ -23526,7 +23526,7 @@
       <c r="AI612" s="19"/>
       <c r="AJ612" s="20"/>
     </row>
-    <row r="613" spans="1:36" ht="7.5" customHeight="1">
+    <row r="613" spans="1:36" ht="8.25" customHeight="1">
       <c r="A613" s="19"/>
       <c r="B613" s="19"/>
       <c r="C613" s="19"/>
@@ -23564,7 +23564,7 @@
       <c r="AI613" s="19"/>
       <c r="AJ613" s="20"/>
     </row>
-    <row r="614" spans="1:36" ht="7.5" customHeight="1">
+    <row r="614" spans="1:36" ht="8.25" customHeight="1">
       <c r="A614" s="19"/>
       <c r="B614" s="19"/>
       <c r="C614" s="19"/>
@@ -23602,7 +23602,7 @@
       <c r="AI614" s="19"/>
       <c r="AJ614" s="20"/>
     </row>
-    <row r="615" spans="1:36" ht="7.5" customHeight="1">
+    <row r="615" spans="1:36" ht="8.25" customHeight="1">
       <c r="A615" s="19"/>
       <c r="B615" s="19"/>
       <c r="C615" s="19"/>
@@ -23640,7 +23640,7 @@
       <c r="AI615" s="19"/>
       <c r="AJ615" s="20"/>
     </row>
-    <row r="616" spans="1:36" ht="7.5" customHeight="1">
+    <row r="616" spans="1:36" ht="8.25" customHeight="1">
       <c r="A616" s="19"/>
       <c r="B616" s="19"/>
       <c r="C616" s="19"/>
@@ -23678,7 +23678,7 @@
       <c r="AI616" s="19"/>
       <c r="AJ616" s="20"/>
     </row>
-    <row r="617" spans="1:36" ht="7.5" customHeight="1">
+    <row r="617" spans="1:36" ht="8.25" customHeight="1">
       <c r="A617" s="19"/>
       <c r="B617" s="19"/>
       <c r="C617" s="19"/>
@@ -23716,7 +23716,7 @@
       <c r="AI617" s="19"/>
       <c r="AJ617" s="20"/>
     </row>
-    <row r="618" spans="1:36" ht="7.5" customHeight="1">
+    <row r="618" spans="1:36" ht="8.25" customHeight="1">
       <c r="A618" s="19"/>
       <c r="B618" s="19"/>
       <c r="C618" s="19"/>
@@ -23754,7 +23754,7 @@
       <c r="AI618" s="19"/>
       <c r="AJ618" s="20"/>
     </row>
-    <row r="619" spans="1:36" ht="7.5" customHeight="1">
+    <row r="619" spans="1:36" ht="8.25" customHeight="1">
       <c r="A619" s="19"/>
       <c r="B619" s="19"/>
       <c r="C619" s="19"/>
@@ -23792,7 +23792,7 @@
       <c r="AI619" s="19"/>
       <c r="AJ619" s="20"/>
     </row>
-    <row r="620" spans="1:36" ht="7.5" customHeight="1">
+    <row r="620" spans="1:36" ht="8.25" customHeight="1">
       <c r="A620" s="19"/>
       <c r="B620" s="19"/>
       <c r="C620" s="19"/>
@@ -23830,7 +23830,7 @@
       <c r="AI620" s="19"/>
       <c r="AJ620" s="20"/>
     </row>
-    <row r="621" spans="1:36" ht="7.5" customHeight="1">
+    <row r="621" spans="1:36" ht="8.25" customHeight="1">
       <c r="A621" s="19"/>
       <c r="B621" s="19"/>
       <c r="C621" s="19"/>
@@ -23868,7 +23868,7 @@
       <c r="AI621" s="19"/>
       <c r="AJ621" s="20"/>
     </row>
-    <row r="622" spans="1:36" ht="7.5" customHeight="1">
+    <row r="622" spans="1:36" ht="8.25" customHeight="1">
       <c r="A622" s="19"/>
       <c r="B622" s="19"/>
       <c r="C622" s="19"/>
@@ -23906,7 +23906,7 @@
       <c r="AI622" s="19"/>
       <c r="AJ622" s="20"/>
     </row>
-    <row r="623" spans="1:36" ht="7.5" customHeight="1">
+    <row r="623" spans="1:36" ht="8.25" customHeight="1">
       <c r="A623" s="19"/>
       <c r="B623" s="19"/>
       <c r="C623" s="19"/>
@@ -23944,7 +23944,7 @@
       <c r="AI623" s="19"/>
       <c r="AJ623" s="20"/>
     </row>
-    <row r="624" spans="1:36" ht="7.5" customHeight="1">
+    <row r="624" spans="1:36" ht="8.25" customHeight="1">
       <c r="A624" s="19"/>
       <c r="B624" s="19"/>
       <c r="C624" s="19"/>
@@ -23982,7 +23982,7 @@
       <c r="AI624" s="19"/>
       <c r="AJ624" s="20"/>
     </row>
-    <row r="625" spans="1:36" ht="7.5" customHeight="1">
+    <row r="625" spans="1:36" ht="8.25" customHeight="1">
       <c r="A625" s="19"/>
       <c r="B625" s="19"/>
       <c r="C625" s="19"/>
@@ -24020,7 +24020,7 @@
       <c r="AI625" s="19"/>
       <c r="AJ625" s="20"/>
     </row>
-    <row r="626" spans="1:36" ht="7.5" customHeight="1">
+    <row r="626" spans="1:36" ht="8.25" customHeight="1">
       <c r="A626" s="19"/>
       <c r="B626" s="19"/>
       <c r="C626" s="19"/>
@@ -24058,7 +24058,7 @@
       <c r="AI626" s="19"/>
       <c r="AJ626" s="20"/>
     </row>
-    <row r="627" spans="1:36" ht="7.5" customHeight="1">
+    <row r="627" spans="1:36" ht="8.25" customHeight="1">
       <c r="A627" s="19"/>
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
@@ -24096,7 +24096,7 @@
       <c r="AI627" s="19"/>
       <c r="AJ627" s="20"/>
     </row>
-    <row r="628" spans="1:36" ht="7.5" customHeight="1">
+    <row r="628" spans="1:36" ht="8.25" customHeight="1">
       <c r="A628" s="19"/>
       <c r="B628" s="19"/>
       <c r="C628" s="19"/>
@@ -24134,7 +24134,7 @@
       <c r="AI628" s="19"/>
       <c r="AJ628" s="20"/>
     </row>
-    <row r="629" spans="1:36" ht="7.5" customHeight="1">
+    <row r="629" spans="1:36" ht="8.25" customHeight="1">
       <c r="A629" s="19"/>
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
@@ -24172,7 +24172,7 @@
       <c r="AI629" s="19"/>
       <c r="AJ629" s="20"/>
     </row>
-    <row r="630" spans="1:36" ht="7.5" customHeight="1">
+    <row r="630" spans="1:36" ht="8.25" customHeight="1">
       <c r="A630" s="19"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19"/>
@@ -24210,7 +24210,7 @@
       <c r="AI630" s="19"/>
       <c r="AJ630" s="20"/>
     </row>
-    <row r="631" spans="1:36" ht="7.5" customHeight="1">
+    <row r="631" spans="1:36" ht="8.25" customHeight="1">
       <c r="A631" s="19"/>
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
@@ -24248,7 +24248,7 @@
       <c r="AI631" s="19"/>
       <c r="AJ631" s="20"/>
     </row>
-    <row r="632" spans="1:36" ht="7.5" customHeight="1">
+    <row r="632" spans="1:36" ht="8.25" customHeight="1">
       <c r="A632" s="19"/>
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
@@ -24286,7 +24286,7 @@
       <c r="AI632" s="19"/>
       <c r="AJ632" s="20"/>
     </row>
-    <row r="633" spans="1:36" ht="7.5" customHeight="1">
+    <row r="633" spans="1:36" ht="8.25" customHeight="1">
       <c r="A633" s="19"/>
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
@@ -24324,7 +24324,7 @@
       <c r="AI633" s="19"/>
       <c r="AJ633" s="20"/>
     </row>
-    <row r="634" spans="1:36" ht="7.5" customHeight="1">
+    <row r="634" spans="1:36" ht="8.25" customHeight="1">
       <c r="A634" s="19"/>
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
@@ -24362,7 +24362,7 @@
       <c r="AI634" s="19"/>
       <c r="AJ634" s="20"/>
     </row>
-    <row r="635" spans="1:36" ht="7.5" customHeight="1">
+    <row r="635" spans="1:36" ht="8.25" customHeight="1">
       <c r="A635" s="19"/>
       <c r="B635" s="19"/>
       <c r="C635" s="19"/>
@@ -24400,7 +24400,7 @@
       <c r="AI635" s="19"/>
       <c r="AJ635" s="20"/>
     </row>
-    <row r="636" spans="1:36" ht="7.5" customHeight="1">
+    <row r="636" spans="1:36" ht="8.25" customHeight="1">
       <c r="A636" s="19"/>
       <c r="B636" s="19"/>
       <c r="C636" s="19"/>
@@ -24438,7 +24438,7 @@
       <c r="AI636" s="19"/>
       <c r="AJ636" s="20"/>
     </row>
-    <row r="637" spans="1:36" ht="7.5" customHeight="1">
+    <row r="637" spans="1:36" ht="8.25" customHeight="1">
       <c r="A637" s="19"/>
       <c r="B637" s="19"/>
       <c r="C637" s="19"/>
@@ -24476,7 +24476,7 @@
       <c r="AI637" s="19"/>
       <c r="AJ637" s="20"/>
     </row>
-    <row r="638" spans="1:36" ht="7.5" customHeight="1">
+    <row r="638" spans="1:36" ht="8.25" customHeight="1">
       <c r="A638" s="19"/>
       <c r="B638" s="19"/>
       <c r="C638" s="19"/>
@@ -24514,7 +24514,7 @@
       <c r="AI638" s="19"/>
       <c r="AJ638" s="20"/>
     </row>
-    <row r="639" spans="1:36" ht="7.5" customHeight="1">
+    <row r="639" spans="1:36" ht="8.25" customHeight="1">
       <c r="A639" s="19"/>
       <c r="B639" s="19"/>
       <c r="C639" s="19"/>
@@ -24552,7 +24552,7 @@
       <c r="AI639" s="19"/>
       <c r="AJ639" s="20"/>
     </row>
-    <row r="640" spans="1:36" ht="7.5" customHeight="1">
+    <row r="640" spans="1:36" ht="8.25" customHeight="1">
       <c r="A640" s="19"/>
       <c r="B640" s="19"/>
       <c r="C640" s="19"/>
@@ -24590,7 +24590,7 @@
       <c r="AI640" s="19"/>
       <c r="AJ640" s="20"/>
     </row>
-    <row r="641" spans="1:36" ht="7.5" customHeight="1">
+    <row r="641" spans="1:36" ht="8.25" customHeight="1">
       <c r="A641" s="19"/>
       <c r="B641" s="19"/>
       <c r="C641" s="19"/>
@@ -24628,7 +24628,7 @@
       <c r="AI641" s="19"/>
       <c r="AJ641" s="20"/>
     </row>
-    <row r="642" spans="1:36" ht="7.5" customHeight="1">
+    <row r="642" spans="1:36" ht="8.25" customHeight="1">
       <c r="A642" s="19"/>
       <c r="B642" s="19"/>
       <c r="C642" s="19"/>
@@ -24666,7 +24666,7 @@
       <c r="AI642" s="19"/>
       <c r="AJ642" s="20"/>
     </row>
-    <row r="643" spans="1:36" ht="7.5" customHeight="1">
+    <row r="643" spans="1:36" ht="8.25" customHeight="1">
       <c r="A643" s="19"/>
       <c r="B643" s="19"/>
       <c r="C643" s="19"/>
@@ -24704,7 +24704,7 @@
       <c r="AI643" s="19"/>
       <c r="AJ643" s="20"/>
     </row>
-    <row r="644" spans="1:36" ht="7.5" customHeight="1">
+    <row r="644" spans="1:36" ht="8.25" customHeight="1">
       <c r="A644" s="19"/>
       <c r="B644" s="19"/>
       <c r="C644" s="19"/>
@@ -24742,7 +24742,7 @@
       <c r="AI644" s="19"/>
       <c r="AJ644" s="20"/>
     </row>
-    <row r="645" spans="1:36" ht="7.5" customHeight="1">
+    <row r="645" spans="1:36" ht="8.25" customHeight="1">
       <c r="A645" s="19"/>
       <c r="B645" s="19"/>
       <c r="C645" s="19"/>
@@ -24780,7 +24780,7 @@
       <c r="AI645" s="19"/>
       <c r="AJ645" s="20"/>
     </row>
-    <row r="646" spans="1:36" ht="7.5" customHeight="1">
+    <row r="646" spans="1:36" ht="8.25" customHeight="1">
       <c r="A646" s="19"/>
       <c r="B646" s="19"/>
       <c r="C646" s="19"/>
@@ -24818,7 +24818,7 @@
       <c r="AI646" s="19"/>
       <c r="AJ646" s="20"/>
     </row>
-    <row r="647" spans="1:36" ht="7.5" customHeight="1">
+    <row r="647" spans="1:36" ht="8.25" customHeight="1">
       <c r="A647" s="19"/>
       <c r="B647" s="19"/>
       <c r="C647" s="19"/>
@@ -24856,7 +24856,7 @@
       <c r="AI647" s="19"/>
       <c r="AJ647" s="20"/>
     </row>
-    <row r="648" spans="1:36" ht="7.5" customHeight="1">
+    <row r="648" spans="1:36" ht="8.25" customHeight="1">
       <c r="A648" s="19"/>
       <c r="B648" s="19"/>
       <c r="C648" s="19"/>
@@ -24894,7 +24894,7 @@
       <c r="AI648" s="19"/>
       <c r="AJ648" s="20"/>
     </row>
-    <row r="649" spans="1:36" ht="7.5" customHeight="1">
+    <row r="649" spans="1:36" ht="8.25" customHeight="1">
       <c r="A649" s="19"/>
       <c r="B649" s="19"/>
       <c r="C649" s="19"/>
@@ -24932,7 +24932,7 @@
       <c r="AI649" s="19"/>
       <c r="AJ649" s="20"/>
     </row>
-    <row r="650" spans="1:36" ht="7.5" customHeight="1">
+    <row r="650" spans="1:36" ht="8.25" customHeight="1">
       <c r="A650" s="19"/>
       <c r="B650" s="19"/>
       <c r="C650" s="19"/>
@@ -24970,7 +24970,7 @@
       <c r="AI650" s="19"/>
       <c r="AJ650" s="20"/>
     </row>
-    <row r="651" spans="1:36" ht="7.5" customHeight="1">
+    <row r="651" spans="1:36" ht="8.25" customHeight="1">
       <c r="A651" s="19"/>
       <c r="B651" s="19"/>
       <c r="C651" s="19"/>
@@ -25008,7 +25008,7 @@
       <c r="AI651" s="19"/>
       <c r="AJ651" s="20"/>
     </row>
-    <row r="652" spans="1:36" ht="7.5" customHeight="1">
+    <row r="652" spans="1:36" ht="8.25" customHeight="1">
       <c r="A652" s="19"/>
       <c r="B652" s="19"/>
       <c r="C652" s="19"/>
@@ -25046,7 +25046,7 @@
       <c r="AI652" s="19"/>
       <c r="AJ652" s="20"/>
     </row>
-    <row r="653" spans="1:36" ht="7.5" customHeight="1">
+    <row r="653" spans="1:36" ht="8.25" customHeight="1">
       <c r="A653" s="19"/>
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
@@ -25084,7 +25084,7 @@
       <c r="AI653" s="19"/>
       <c r="AJ653" s="20"/>
     </row>
-    <row r="654" spans="1:36" ht="7.5" customHeight="1">
+    <row r="654" spans="1:36" ht="8.25" customHeight="1">
       <c r="A654" s="19"/>
       <c r="B654" s="19"/>
       <c r="C654" s="19"/>
@@ -25122,7 +25122,7 @@
       <c r="AI654" s="19"/>
       <c r="AJ654" s="20"/>
     </row>
-    <row r="655" spans="1:36" ht="7.5" customHeight="1">
+    <row r="655" spans="1:36" ht="8.25" customHeight="1">
       <c r="A655" s="19"/>
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
@@ -25160,7 +25160,7 @@
       <c r="AI655" s="19"/>
       <c r="AJ655" s="20"/>
     </row>
-    <row r="656" spans="1:36" ht="7.5" customHeight="1">
+    <row r="656" spans="1:36" ht="8.25" customHeight="1">
       <c r="A656" s="19"/>
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
@@ -25198,7 +25198,7 @@
       <c r="AI656" s="19"/>
       <c r="AJ656" s="20"/>
     </row>
-    <row r="657" spans="1:36" ht="7.5" customHeight="1">
+    <row r="657" spans="1:36" ht="8.25" customHeight="1">
       <c r="A657" s="19"/>
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
@@ -25236,7 +25236,7 @@
       <c r="AI657" s="19"/>
       <c r="AJ657" s="20"/>
     </row>
-    <row r="658" spans="1:36" ht="7.5" customHeight="1">
+    <row r="658" spans="1:36" ht="8.25" customHeight="1">
       <c r="A658" s="19"/>
       <c r="B658" s="19"/>
       <c r="C658" s="19"/>
@@ -25274,7 +25274,7 @@
       <c r="AI658" s="19"/>
       <c r="AJ658" s="20"/>
     </row>
-    <row r="659" spans="1:36" ht="7.5" customHeight="1">
+    <row r="659" spans="1:36" ht="8.25" customHeight="1">
       <c r="A659" s="19"/>
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
@@ -25312,7 +25312,7 @@
       <c r="AI659" s="19"/>
       <c r="AJ659" s="20"/>
     </row>
-    <row r="660" spans="1:36" ht="7.5" customHeight="1">
+    <row r="660" spans="1:36" ht="8.25" customHeight="1">
       <c r="A660" s="19"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19"/>
@@ -25350,7 +25350,7 @@
       <c r="AI660" s="19"/>
       <c r="AJ660" s="20"/>
     </row>
-    <row r="661" spans="1:36" ht="7.5" customHeight="1">
+    <row r="661" spans="1:36" ht="8.25" customHeight="1">
       <c r="A661" s="19"/>
       <c r="B661" s="19"/>
       <c r="C661" s="19"/>
@@ -25388,7 +25388,7 @@
       <c r="AI661" s="19"/>
       <c r="AJ661" s="20"/>
     </row>
-    <row r="662" spans="1:36" ht="7.5" customHeight="1">
+    <row r="662" spans="1:36" ht="8.25" customHeight="1">
       <c r="A662" s="19"/>
       <c r="B662" s="19"/>
       <c r="C662" s="19"/>
@@ -25426,7 +25426,7 @@
       <c r="AI662" s="19"/>
       <c r="AJ662" s="20"/>
     </row>
-    <row r="663" spans="1:36" ht="7.5" customHeight="1">
+    <row r="663" spans="1:36" ht="8.25" customHeight="1">
       <c r="A663" s="19"/>
       <c r="B663" s="19"/>
       <c r="C663" s="19"/>
@@ -25464,7 +25464,7 @@
       <c r="AI663" s="19"/>
       <c r="AJ663" s="20"/>
     </row>
-    <row r="664" spans="1:36" ht="7.5" customHeight="1">
+    <row r="664" spans="1:36" ht="8.25" customHeight="1">
       <c r="A664" s="19"/>
       <c r="B664" s="19"/>
       <c r="C664" s="19"/>
@@ -25502,7 +25502,7 @@
       <c r="AI664" s="19"/>
       <c r="AJ664" s="20"/>
     </row>
-    <row r="665" spans="1:36" ht="7.5" customHeight="1">
+    <row r="665" spans="1:36" ht="8.25" customHeight="1">
       <c r="A665" s="19"/>
       <c r="B665" s="19"/>
       <c r="C665" s="19"/>
@@ -25540,7 +25540,7 @@
       <c r="AI665" s="19"/>
       <c r="AJ665" s="20"/>
     </row>
-    <row r="666" spans="1:36" ht="7.5" customHeight="1">
+    <row r="666" spans="1:36" ht="8.25" customHeight="1">
       <c r="A666" s="19"/>
       <c r="B666" s="19"/>
       <c r="C666" s="19"/>
@@ -25578,7 +25578,7 @@
       <c r="AI666" s="19"/>
       <c r="AJ666" s="20"/>
     </row>
-    <row r="667" spans="1:36" ht="7.5" customHeight="1">
+    <row r="667" spans="1:36" ht="8.25" customHeight="1">
       <c r="A667" s="19"/>
       <c r="B667" s="19"/>
       <c r="C667" s="19"/>
@@ -25616,7 +25616,7 @@
       <c r="AI667" s="19"/>
       <c r="AJ667" s="20"/>
     </row>
-    <row r="668" spans="1:36" ht="7.5" customHeight="1">
+    <row r="668" spans="1:36" ht="8.25" customHeight="1">
       <c r="A668" s="19"/>
       <c r="B668" s="19"/>
       <c r="C668" s="19"/>
@@ -25654,7 +25654,7 @@
       <c r="AI668" s="19"/>
       <c r="AJ668" s="20"/>
     </row>
-    <row r="669" spans="1:36" ht="7.5" customHeight="1">
+    <row r="669" spans="1:36" ht="8.25" customHeight="1">
       <c r="A669" s="19"/>
       <c r="B669" s="19"/>
       <c r="C669" s="19"/>
@@ -25692,7 +25692,7 @@
       <c r="AI669" s="19"/>
       <c r="AJ669" s="20"/>
     </row>
-    <row r="670" spans="1:36" ht="7.5" customHeight="1">
+    <row r="670" spans="1:36" ht="8.25" customHeight="1">
       <c r="A670" s="19"/>
       <c r="B670" s="19"/>
       <c r="C670" s="19"/>
@@ -25730,7 +25730,7 @@
       <c r="AI670" s="19"/>
       <c r="AJ670" s="20"/>
     </row>
-    <row r="671" spans="1:36" ht="7.5" customHeight="1">
+    <row r="671" spans="1:36" ht="8.25" customHeight="1">
       <c r="A671" s="19"/>
       <c r="B671" s="19"/>
       <c r="C671" s="19"/>
@@ -25768,7 +25768,7 @@
       <c r="AI671" s="19"/>
       <c r="AJ671" s="20"/>
     </row>
-    <row r="672" spans="1:36" ht="7.5" customHeight="1">
+    <row r="672" spans="1:36" ht="8.25" customHeight="1">
       <c r="A672" s="19"/>
       <c r="B672" s="19"/>
       <c r="C672" s="19"/>
@@ -25806,7 +25806,7 @@
       <c r="AI672" s="19"/>
       <c r="AJ672" s="20"/>
     </row>
-    <row r="673" spans="1:36" ht="7.5" customHeight="1">
+    <row r="673" spans="1:36" ht="8.25" customHeight="1">
       <c r="A673" s="19"/>
       <c r="B673" s="19"/>
       <c r="C673" s="19"/>
@@ -25844,7 +25844,7 @@
       <c r="AI673" s="19"/>
       <c r="AJ673" s="20"/>
     </row>
-    <row r="674" spans="1:36" ht="7.5" customHeight="1">
+    <row r="674" spans="1:36" ht="8.25" customHeight="1">
       <c r="A674" s="19"/>
       <c r="B674" s="19"/>
       <c r="C674" s="19"/>
@@ -25882,7 +25882,7 @@
       <c r="AI674" s="19"/>
       <c r="AJ674" s="20"/>
     </row>
-    <row r="675" spans="1:36" ht="7.5" customHeight="1">
+    <row r="675" spans="1:36" ht="8.25" customHeight="1">
       <c r="A675" s="19"/>
       <c r="B675" s="19"/>
       <c r="C675" s="19"/>
@@ -25920,7 +25920,7 @@
       <c r="AI675" s="19"/>
       <c r="AJ675" s="20"/>
     </row>
-    <row r="676" spans="1:36" ht="7.5" customHeight="1">
+    <row r="676" spans="1:36" ht="8.25" customHeight="1">
       <c r="A676" s="19"/>
       <c r="B676" s="19"/>
       <c r="C676" s="19"/>
@@ -25958,7 +25958,7 @@
       <c r="AI676" s="19"/>
       <c r="AJ676" s="20"/>
     </row>
-    <row r="677" spans="1:36" ht="7.5" customHeight="1">
+    <row r="677" spans="1:36" ht="8.25" customHeight="1">
       <c r="A677" s="19"/>
       <c r="B677" s="19"/>
       <c r="C677" s="19"/>
@@ -25996,7 +25996,7 @@
       <c r="AI677" s="19"/>
       <c r="AJ677" s="20"/>
     </row>
-    <row r="678" spans="1:36" ht="7.5" customHeight="1">
+    <row r="678" spans="1:36" ht="8.25" customHeight="1">
       <c r="A678" s="19"/>
       <c r="B678" s="19"/>
       <c r="C678" s="19"/>
@@ -26034,7 +26034,7 @@
       <c r="AI678" s="19"/>
       <c r="AJ678" s="20"/>
     </row>
-    <row r="679" spans="1:36" ht="7.5" customHeight="1">
+    <row r="679" spans="1:36" ht="8.25" customHeight="1">
       <c r="A679" s="19"/>
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
@@ -26072,7 +26072,7 @@
       <c r="AI679" s="19"/>
       <c r="AJ679" s="20"/>
     </row>
-    <row r="680" spans="1:36" ht="7.5" customHeight="1">
+    <row r="680" spans="1:36" ht="8.25" customHeight="1">
       <c r="A680" s="19"/>
       <c r="B680" s="19"/>
       <c r="C680" s="19"/>
@@ -26110,7 +26110,7 @@
       <c r="AI680" s="19"/>
       <c r="AJ680" s="20"/>
     </row>
-    <row r="681" spans="1:36" ht="7.5" customHeight="1">
+    <row r="681" spans="1:36" ht="8.25" customHeight="1">
       <c r="A681" s="19"/>
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
@@ -26148,7 +26148,7 @@
       <c r="AI681" s="19"/>
       <c r="AJ681" s="20"/>
     </row>
-    <row r="682" spans="1:36" ht="7.5" customHeight="1">
+    <row r="682" spans="1:36" ht="8.25" customHeight="1">
       <c r="A682" s="19"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19"/>
@@ -26186,7 +26186,7 @@
       <c r="AI682" s="19"/>
       <c r="AJ682" s="20"/>
     </row>
-    <row r="683" spans="1:36" ht="7.5" customHeight="1">
+    <row r="683" spans="1:36" ht="8.25" customHeight="1">
       <c r="A683" s="19"/>
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
@@ -26224,7 +26224,7 @@
       <c r="AI683" s="19"/>
       <c r="AJ683" s="20"/>
     </row>
-    <row r="684" spans="1:36" ht="7.5" customHeight="1">
+    <row r="684" spans="1:36" ht="8.25" customHeight="1">
       <c r="A684" s="19"/>
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
@@ -26262,7 +26262,7 @@
       <c r="AI684" s="19"/>
       <c r="AJ684" s="20"/>
     </row>
-    <row r="685" spans="1:36" ht="7.5" customHeight="1">
+    <row r="685" spans="1:36" ht="8.25" customHeight="1">
       <c r="A685" s="19"/>
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
@@ -26300,7 +26300,7 @@
       <c r="AI685" s="19"/>
       <c r="AJ685" s="20"/>
     </row>
-    <row r="686" spans="1:36" ht="7.5" customHeight="1">
+    <row r="686" spans="1:36" ht="8.25" customHeight="1">
       <c r="A686" s="19"/>
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
@@ -26338,7 +26338,7 @@
       <c r="AI686" s="19"/>
       <c r="AJ686" s="20"/>
     </row>
-    <row r="687" spans="1:36" ht="7.5" customHeight="1">
+    <row r="687" spans="1:36" ht="8.25" customHeight="1">
       <c r="A687" s="19"/>
       <c r="B687" s="19"/>
       <c r="C687" s="19"/>
@@ -26376,7 +26376,7 @@
       <c r="AI687" s="19"/>
       <c r="AJ687" s="20"/>
     </row>
-    <row r="688" spans="1:36" ht="7.5" customHeight="1">
+    <row r="688" spans="1:36" ht="8.25" customHeight="1">
       <c r="A688" s="19"/>
       <c r="B688" s="19"/>
       <c r="C688" s="19"/>
@@ -26414,7 +26414,7 @@
       <c r="AI688" s="19"/>
       <c r="AJ688" s="20"/>
     </row>
-    <row r="689" spans="1:36" ht="7.5" customHeight="1">
+    <row r="689" spans="1:36" ht="8.25" customHeight="1">
       <c r="A689" s="19"/>
       <c r="B689" s="19"/>
       <c r="C689" s="19"/>
@@ -26452,7 +26452,7 @@
       <c r="AI689" s="19"/>
       <c r="AJ689" s="20"/>
     </row>
-    <row r="690" spans="1:36" ht="7.5" customHeight="1">
+    <row r="690" spans="1:36" ht="8.25" customHeight="1">
       <c r="A690" s="19"/>
       <c r="B690" s="19"/>
       <c r="C690" s="19"/>
@@ -26490,7 +26490,7 @@
       <c r="AI690" s="19"/>
       <c r="AJ690" s="20"/>
     </row>
-    <row r="691" spans="1:36" ht="7.5" customHeight="1">
+    <row r="691" spans="1:36" ht="8.25" customHeight="1">
       <c r="A691" s="19"/>
       <c r="B691" s="19"/>
       <c r="C691" s="19"/>
@@ -26528,7 +26528,7 @@
       <c r="AI691" s="19"/>
       <c r="AJ691" s="20"/>
     </row>
-    <row r="692" spans="1:36" ht="7.5" customHeight="1">
+    <row r="692" spans="1:36" ht="8.25" customHeight="1">
       <c r="A692" s="19"/>
       <c r="B692" s="19"/>
       <c r="C692" s="19"/>
@@ -26566,7 +26566,7 @@
       <c r="AI692" s="19"/>
       <c r="AJ692" s="20"/>
     </row>
-    <row r="693" spans="1:36" ht="7.5" customHeight="1">
+    <row r="693" spans="1:36" ht="8.25" customHeight="1">
       <c r="A693" s="19"/>
       <c r="B693" s="19"/>
       <c r="C693" s="19"/>
@@ -26604,7 +26604,7 @@
       <c r="AI693" s="19"/>
       <c r="AJ693" s="20"/>
     </row>
-    <row r="694" spans="1:36" ht="7.5" customHeight="1">
+    <row r="694" spans="1:36" ht="8.25" customHeight="1">
       <c r="A694" s="19"/>
       <c r="B694" s="19"/>
       <c r="C694" s="19"/>
@@ -26642,7 +26642,7 @@
       <c r="AI694" s="19"/>
       <c r="AJ694" s="20"/>
     </row>
-    <row r="695" spans="1:36" ht="7.5" customHeight="1">
+    <row r="695" spans="1:36" ht="8.25" customHeight="1">
       <c r="A695" s="19"/>
       <c r="B695" s="19"/>
       <c r="C695" s="19"/>
@@ -26680,7 +26680,7 @@
       <c r="AI695" s="19"/>
       <c r="AJ695" s="20"/>
     </row>
-    <row r="696" spans="1:36" ht="7.5" customHeight="1">
+    <row r="696" spans="1:36" ht="8.25" customHeight="1">
       <c r="A696" s="19"/>
       <c r="B696" s="19"/>
       <c r="C696" s="19"/>
@@ -26718,7 +26718,7 @@
       <c r="AI696" s="19"/>
       <c r="AJ696" s="20"/>
     </row>
-    <row r="697" spans="1:36" ht="7.5" customHeight="1">
+    <row r="697" spans="1:36" ht="8.25" customHeight="1">
       <c r="A697" s="19"/>
       <c r="B697" s="19"/>
       <c r="C697" s="19"/>
@@ -26756,7 +26756,7 @@
       <c r="AI697" s="19"/>
       <c r="AJ697" s="20"/>
     </row>
-    <row r="698" spans="1:36" ht="7.5" customHeight="1">
+    <row r="698" spans="1:36" ht="8.25" customHeight="1">
       <c r="A698" s="19"/>
       <c r="B698" s="19"/>
       <c r="C698" s="19"/>
@@ -26794,7 +26794,7 @@
       <c r="AI698" s="19"/>
       <c r="AJ698" s="20"/>
     </row>
-    <row r="699" spans="1:36" ht="7.5" customHeight="1">
+    <row r="699" spans="1:36" ht="8.25" customHeight="1">
       <c r="A699" s="19"/>
       <c r="B699" s="19"/>
       <c r="C699" s="19"/>
@@ -26832,7 +26832,7 @@
       <c r="AI699" s="19"/>
       <c r="AJ699" s="20"/>
     </row>
-    <row r="700" spans="1:36" ht="7.5" customHeight="1">
+    <row r="700" spans="1:36" ht="8.25" customHeight="1">
       <c r="A700" s="19"/>
       <c r="B700" s="19"/>
       <c r="C700" s="19"/>
@@ -26870,7 +26870,7 @@
       <c r="AI700" s="19"/>
       <c r="AJ700" s="20"/>
     </row>
-    <row r="701" spans="1:36" ht="7.5" customHeight="1">
+    <row r="701" spans="1:36" ht="8.25" customHeight="1">
       <c r="A701" s="19"/>
       <c r="B701" s="19"/>
       <c r="C701" s="19"/>
@@ -26908,7 +26908,7 @@
       <c r="AI701" s="19"/>
       <c r="AJ701" s="20"/>
     </row>
-    <row r="702" spans="1:36" ht="7.5" customHeight="1">
+    <row r="702" spans="1:36" ht="8.25" customHeight="1">
       <c r="A702" s="19"/>
       <c r="B702" s="19"/>
       <c r="C702" s="19"/>
@@ -26946,7 +26946,7 @@
       <c r="AI702" s="19"/>
       <c r="AJ702" s="20"/>
     </row>
-    <row r="703" spans="1:36" ht="7.5" customHeight="1">
+    <row r="703" spans="1:36" ht="8.25" customHeight="1">
       <c r="A703" s="19"/>
       <c r="B703" s="19"/>
       <c r="C703" s="19"/>
@@ -26984,7 +26984,7 @@
       <c r="AI703" s="19"/>
       <c r="AJ703" s="20"/>
     </row>
-    <row r="704" spans="1:36" ht="7.5" customHeight="1">
+    <row r="704" spans="1:36" ht="8.25" customHeight="1">
       <c r="A704" s="19"/>
       <c r="B704" s="19"/>
       <c r="C704" s="19"/>
@@ -27022,7 +27022,7 @@
       <c r="AI704" s="19"/>
       <c r="AJ704" s="20"/>
     </row>
-    <row r="705" spans="1:36" ht="7.5" customHeight="1">
+    <row r="705" spans="1:36" ht="8.25" customHeight="1">
       <c r="A705" s="19"/>
       <c r="B705" s="19"/>
       <c r="C705" s="19"/>
@@ -27060,7 +27060,7 @@
       <c r="AI705" s="19"/>
       <c r="AJ705" s="20"/>
     </row>
-    <row r="706" spans="1:36" ht="7.5" customHeight="1">
+    <row r="706" spans="1:36" ht="8.25" customHeight="1">
       <c r="A706" s="19"/>
       <c r="B706" s="19"/>
       <c r="C706" s="19"/>
@@ -27098,7 +27098,7 @@
       <c r="AI706" s="19"/>
       <c r="AJ706" s="20"/>
     </row>
-    <row r="707" spans="1:36" ht="7.5" customHeight="1">
+    <row r="707" spans="1:36" ht="8.25" customHeight="1">
       <c r="A707" s="19"/>
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
@@ -27136,7 +27136,7 @@
       <c r="AI707" s="19"/>
       <c r="AJ707" s="20"/>
     </row>
-    <row r="708" spans="1:36" ht="7.5" customHeight="1">
+    <row r="708" spans="1:36" ht="8.25" customHeight="1">
       <c r="A708" s="19"/>
       <c r="B708" s="19"/>
       <c r="C708" s="19"/>
@@ -27174,7 +27174,7 @@
       <c r="AI708" s="19"/>
       <c r="AJ708" s="20"/>
     </row>
-    <row r="709" spans="1:36" ht="7.5" customHeight="1">
+    <row r="709" spans="1:36" ht="8.25" customHeight="1">
       <c r="A709" s="19"/>
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
@@ -27212,7 +27212,7 @@
       <c r="AI709" s="19"/>
       <c r="AJ709" s="20"/>
     </row>
-    <row r="710" spans="1:36" ht="7.5" customHeight="1">
+    <row r="710" spans="1:36" ht="8.25" customHeight="1">
       <c r="A710" s="19"/>
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
@@ -27250,7 +27250,7 @@
       <c r="AI710" s="19"/>
       <c r="AJ710" s="20"/>
     </row>
-    <row r="711" spans="1:36" ht="7.5" customHeight="1">
+    <row r="711" spans="1:36" ht="8.25" customHeight="1">
       <c r="A711" s="19"/>
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
@@ -27288,7 +27288,7 @@
       <c r="AI711" s="19"/>
       <c r="AJ711" s="20"/>
     </row>
-    <row r="712" spans="1:36" ht="7.5" customHeight="1">
+    <row r="712" spans="1:36" ht="8.25" customHeight="1">
       <c r="A712" s="19"/>
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
@@ -27326,7 +27326,7 @@
       <c r="AI712" s="19"/>
       <c r="AJ712" s="20"/>
     </row>
-    <row r="713" spans="1:36" ht="7.5" customHeight="1">
+    <row r="713" spans="1:36" ht="8.25" customHeight="1">
       <c r="A713" s="19"/>
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
@@ -27364,7 +27364,7 @@
       <c r="AI713" s="19"/>
       <c r="AJ713" s="20"/>
     </row>
-    <row r="714" spans="1:36" ht="7.5" customHeight="1">
+    <row r="714" spans="1:36" ht="8.25" customHeight="1">
       <c r="A714" s="19"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19"/>
@@ -27402,7 +27402,7 @@
       <c r="AI714" s="19"/>
       <c r="AJ714" s="20"/>
     </row>
-    <row r="715" spans="1:36" ht="7.5" customHeight="1">
+    <row r="715" spans="1:36" ht="8.25" customHeight="1">
       <c r="A715" s="19"/>
       <c r="B715" s="19"/>
       <c r="C715" s="19"/>
@@ -27440,7 +27440,7 @@
       <c r="AI715" s="19"/>
       <c r="AJ715" s="20"/>
     </row>
-    <row r="716" spans="1:36" ht="7.5" customHeight="1">
+    <row r="716" spans="1:36" ht="8.25" customHeight="1">
       <c r="A716" s="19"/>
       <c r="B716" s="19"/>
       <c r="C716" s="19"/>
@@ -27478,7 +27478,7 @@
       <c r="AI716" s="19"/>
       <c r="AJ716" s="20"/>
     </row>
-    <row r="717" spans="1:36" ht="7.5" customHeight="1">
+    <row r="717" spans="1:36" ht="8.25" customHeight="1">
       <c r="A717" s="19"/>
       <c r="B717" s="19"/>
       <c r="C717" s="19"/>
@@ -27516,7 +27516,7 @@
       <c r="AI717" s="19"/>
       <c r="AJ717" s="20"/>
     </row>
-    <row r="718" spans="1:36" ht="7.5" customHeight="1">
+    <row r="718" spans="1:36" ht="8.25" customHeight="1">
       <c r="A718" s="19"/>
       <c r="B718" s="19"/>
       <c r="C718" s="19"/>
@@ -27554,7 +27554,7 @@
       <c r="AI718" s="19"/>
       <c r="AJ718" s="20"/>
     </row>
-    <row r="719" spans="1:36" ht="7.5" customHeight="1">
+    <row r="719" spans="1:36" ht="8.25" customHeight="1">
       <c r="A719" s="19"/>
       <c r="B719" s="19"/>
       <c r="C719" s="19"/>
@@ -27592,7 +27592,7 @@
       <c r="AI719" s="19"/>
       <c r="AJ719" s="20"/>
     </row>
-    <row r="720" spans="1:36" ht="7.5" customHeight="1">
+    <row r="720" spans="1:36" ht="8.25" customHeight="1">
       <c r="A720" s="19"/>
       <c r="B720" s="19"/>
       <c r="C720" s="19"/>
@@ -27630,7 +27630,7 @@
       <c r="AI720" s="19"/>
       <c r="AJ720" s="20"/>
     </row>
-    <row r="721" spans="1:36" ht="7.5" customHeight="1">
+    <row r="721" spans="1:36" ht="8.25" customHeight="1">
       <c r="A721" s="19"/>
       <c r="B721" s="19"/>
       <c r="C721" s="19"/>
@@ -27668,7 +27668,7 @@
       <c r="AI721" s="19"/>
       <c r="AJ721" s="20"/>
     </row>
-    <row r="722" spans="1:36" ht="7.5" customHeight="1">
+    <row r="722" spans="1:36" ht="8.25" customHeight="1">
       <c r="A722" s="19"/>
       <c r="B722" s="19"/>
       <c r="C722" s="19"/>
@@ -27706,7 +27706,7 @@
       <c r="AI722" s="19"/>
       <c r="AJ722" s="20"/>
     </row>
-    <row r="723" spans="1:36" ht="7.5" customHeight="1">
+    <row r="723" spans="1:36" ht="8.25" customHeight="1">
       <c r="A723" s="19"/>
       <c r="B723" s="19"/>
       <c r="C723" s="19"/>
@@ -27744,7 +27744,7 @@
       <c r="AI723" s="19"/>
       <c r="AJ723" s="20"/>
     </row>
-    <row r="724" spans="1:36" ht="7.5" customHeight="1">
+    <row r="724" spans="1:36" ht="8.25" customHeight="1">
       <c r="A724" s="19"/>
       <c r="B724" s="19"/>
       <c r="C724" s="19"/>
@@ -27782,7 +27782,7 @@
       <c r="AI724" s="19"/>
       <c r="AJ724" s="20"/>
     </row>
-    <row r="725" spans="1:36" ht="7.5" customHeight="1">
+    <row r="725" spans="1:36" ht="8.25" customHeight="1">
       <c r="A725" s="19"/>
       <c r="B725" s="19"/>
       <c r="C725" s="19"/>
@@ -27820,7 +27820,7 @@
       <c r="AI725" s="19"/>
       <c r="AJ725" s="20"/>
     </row>
-    <row r="726" spans="1:36" ht="7.5" customHeight="1">
+    <row r="726" spans="1:36" ht="8.25" customHeight="1">
       <c r="A726" s="19"/>
       <c r="B726" s="19"/>
       <c r="C726" s="19"/>
@@ -27858,7 +27858,7 @@
       <c r="AI726" s="19"/>
       <c r="AJ726" s="20"/>
     </row>
-    <row r="727" spans="1:36" ht="7.5" customHeight="1">
+    <row r="727" spans="1:36" ht="8.25" customHeight="1">
       <c r="A727" s="19"/>
       <c r="B727" s="19"/>
       <c r="C727" s="19"/>
@@ -27896,7 +27896,7 @@
       <c r="AI727" s="19"/>
       <c r="AJ727" s="20"/>
     </row>
-    <row r="728" spans="1:36" ht="7.5" customHeight="1">
+    <row r="728" spans="1:36" ht="8.25" customHeight="1">
       <c r="A728" s="19"/>
       <c r="B728" s="19"/>
       <c r="C728" s="19"/>
@@ -27934,7 +27934,7 @@
       <c r="AI728" s="19"/>
       <c r="AJ728" s="20"/>
     </row>
-    <row r="729" spans="1:36" ht="7.5" customHeight="1">
+    <row r="729" spans="1:36" ht="8.25" customHeight="1">
       <c r="A729" s="19"/>
       <c r="B729" s="19"/>
       <c r="C729" s="19"/>
@@ -27972,7 +27972,7 @@
       <c r="AI729" s="19"/>
       <c r="AJ729" s="20"/>
     </row>
-    <row r="730" spans="1:36" ht="7.5" customHeight="1">
+    <row r="730" spans="1:36" ht="8.25" customHeight="1">
       <c r="A730" s="19"/>
       <c r="B730" s="19"/>
       <c r="C730" s="19"/>
@@ -28010,7 +28010,7 @@
       <c r="AI730" s="19"/>
       <c r="AJ730" s="20"/>
     </row>
-    <row r="731" spans="1:36" ht="7.5" customHeight="1">
+    <row r="731" spans="1:36" ht="8.25" customHeight="1">
       <c r="A731" s="19"/>
       <c r="B731" s="19"/>
       <c r="C731" s="19"/>
@@ -28048,7 +28048,7 @@
       <c r="AI731" s="19"/>
       <c r="AJ731" s="20"/>
     </row>
-    <row r="732" spans="1:36" ht="7.5" customHeight="1">
+    <row r="732" spans="1:36" ht="8.25" customHeight="1">
       <c r="A732" s="19"/>
       <c r="B732" s="19"/>
       <c r="C732" s="19"/>
@@ -28086,7 +28086,7 @@
       <c r="AI732" s="19"/>
       <c r="AJ732" s="20"/>
     </row>
-    <row r="733" spans="1:36" ht="7.5" customHeight="1">
+    <row r="733" spans="1:36" ht="8.25" customHeight="1">
       <c r="A733" s="19"/>
       <c r="B733" s="19"/>
       <c r="C733" s="19"/>
@@ -28124,7 +28124,7 @@
       <c r="AI733" s="19"/>
       <c r="AJ733" s="20"/>
     </row>
-    <row r="734" spans="1:36" ht="7.5" customHeight="1">
+    <row r="734" spans="1:36" ht="8.25" customHeight="1">
       <c r="A734" s="19"/>
       <c r="B734" s="19"/>
       <c r="C734" s="19"/>
@@ -28162,7 +28162,7 @@
       <c r="AI734" s="19"/>
       <c r="AJ734" s="20"/>
     </row>
-    <row r="735" spans="1:36" ht="7.5" customHeight="1">
+    <row r="735" spans="1:36" ht="8.25" customHeight="1">
       <c r="A735" s="19"/>
       <c r="B735" s="19"/>
       <c r="C735" s="19"/>
@@ -28200,7 +28200,7 @@
       <c r="AI735" s="19"/>
       <c r="AJ735" s="20"/>
     </row>
-    <row r="736" spans="1:36" ht="7.5" customHeight="1">
+    <row r="736" spans="1:36" ht="8.25" customHeight="1">
       <c r="A736" s="19"/>
       <c r="B736" s="19"/>
       <c r="C736" s="19"/>
@@ -28238,7 +28238,7 @@
       <c r="AI736" s="19"/>
       <c r="AJ736" s="20"/>
     </row>
-    <row r="737" spans="1:36" ht="7.5" customHeight="1">
+    <row r="737" spans="1:36" ht="8.25" customHeight="1">
       <c r="A737" s="19"/>
       <c r="B737" s="19"/>
       <c r="C737" s="19"/>
@@ -28276,7 +28276,7 @@
       <c r="AI737" s="19"/>
       <c r="AJ737" s="20"/>
     </row>
-    <row r="738" spans="1:36" ht="7.5" customHeight="1">
+    <row r="738" spans="1:36" ht="8.25" customHeight="1">
       <c r="A738" s="19"/>
       <c r="B738" s="19"/>
       <c r="C738" s="19"/>
@@ -28314,7 +28314,7 @@
       <c r="AI738" s="19"/>
       <c r="AJ738" s="20"/>
     </row>
-    <row r="739" spans="1:36" ht="7.5" customHeight="1">
+    <row r="739" spans="1:36" ht="8.25" customHeight="1">
       <c r="A739" s="19"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19"/>
@@ -28352,7 +28352,7 @@
       <c r="AI739" s="19"/>
       <c r="AJ739" s="20"/>
     </row>
-    <row r="740" spans="1:36" ht="7.5" customHeight="1">
+    <row r="740" spans="1:36" ht="8.25" customHeight="1">
       <c r="A740" s="19"/>
       <c r="B740" s="19"/>
       <c r="C740" s="19"/>
@@ -28390,7 +28390,7 @@
       <c r="AI740" s="19"/>
       <c r="AJ740" s="20"/>
     </row>
-    <row r="741" spans="1:36" ht="7.5" customHeight="1">
+    <row r="741" spans="1:36" ht="8.25" customHeight="1">
       <c r="A741" s="19"/>
       <c r="B741" s="19"/>
       <c r="C741" s="19"/>
@@ -28428,7 +28428,7 @@
       <c r="AI741" s="19"/>
       <c r="AJ741" s="20"/>
     </row>
-    <row r="742" spans="1:36" ht="7.5" customHeight="1">
+    <row r="742" spans="1:36" ht="8.25" customHeight="1">
       <c r="A742" s="19"/>
       <c r="B742" s="19"/>
       <c r="C742" s="19"/>
@@ -28466,7 +28466,7 @@
       <c r="AI742" s="19"/>
       <c r="AJ742" s="20"/>
     </row>
-    <row r="743" spans="1:36" ht="7.5" customHeight="1">
+    <row r="743" spans="1:36" ht="8.25" customHeight="1">
       <c r="A743" s="19"/>
       <c r="B743" s="19"/>
       <c r="C743" s="19"/>
@@ -28504,7 +28504,7 @@
       <c r="AI743" s="19"/>
       <c r="AJ743" s="20"/>
     </row>
-    <row r="744" spans="1:36" ht="7.5" customHeight="1">
+    <row r="744" spans="1:36" ht="8.25" customHeight="1">
       <c r="A744" s="19"/>
       <c r="B744" s="19"/>
       <c r="C744" s="19"/>
@@ -28542,7 +28542,7 @@
       <c r="AI744" s="19"/>
       <c r="AJ744" s="20"/>
     </row>
-    <row r="745" spans="1:36" ht="7.5" customHeight="1">
+    <row r="745" spans="1:36" ht="8.25" customHeight="1">
       <c r="A745" s="19"/>
       <c r="B745" s="19"/>
       <c r="C745" s="19"/>
@@ -28580,7 +28580,7 @@
       <c r="AI745" s="19"/>
       <c r="AJ745" s="20"/>
     </row>
-    <row r="746" spans="1:36" ht="7.5" customHeight="1">
+    <row r="746" spans="1:36" ht="8.25" customHeight="1">
       <c r="A746" s="19"/>
       <c r="B746" s="19"/>
       <c r="C746" s="19"/>
@@ -28618,7 +28618,7 @@
       <c r="AI746" s="19"/>
       <c r="AJ746" s="20"/>
     </row>
-    <row r="747" spans="1:36" ht="7.5" customHeight="1">
+    <row r="747" spans="1:36" ht="8.25" customHeight="1">
       <c r="A747" s="19"/>
       <c r="B747" s="19"/>
       <c r="C747" s="19"/>
@@ -28656,7 +28656,7 @@
       <c r="AI747" s="19"/>
       <c r="AJ747" s="20"/>
     </row>
-    <row r="748" spans="1:36" ht="7.5" customHeight="1">
+    <row r="748" spans="1:36" ht="8.25" customHeight="1">
       <c r="A748" s="19"/>
       <c r="B748" s="19"/>
       <c r="C748" s="19"/>
@@ -28694,7 +28694,7 @@
       <c r="AI748" s="19"/>
       <c r="AJ748" s="20"/>
     </row>
-    <row r="749" spans="1:36" ht="7.5" customHeight="1">
+    <row r="749" spans="1:36" ht="8.25" customHeight="1">
       <c r="A749" s="19"/>
       <c r="B749" s="19"/>
       <c r="C749" s="19"/>
@@ -28732,7 +28732,7 @@
       <c r="AI749" s="19"/>
       <c r="AJ749" s="20"/>
     </row>
-    <row r="750" spans="1:36" ht="7.5" customHeight="1">
+    <row r="750" spans="1:36" ht="8.25" customHeight="1">
       <c r="A750" s="19"/>
       <c r="B750" s="19"/>
       <c r="C750" s="19"/>
@@ -28770,7 +28770,7 @@
       <c r="AI750" s="19"/>
       <c r="AJ750" s="20"/>
     </row>
-    <row r="751" spans="1:36" ht="7.5" customHeight="1">
+    <row r="751" spans="1:36" ht="8.25" customHeight="1">
       <c r="A751" s="19"/>
       <c r="B751" s="19"/>
       <c r="C751" s="19"/>
@@ -28808,7 +28808,7 @@
       <c r="AI751" s="19"/>
       <c r="AJ751" s="20"/>
     </row>
-    <row r="752" spans="1:36" ht="7.5" customHeight="1">
+    <row r="752" spans="1:36" ht="8.25" customHeight="1">
       <c r="A752" s="19"/>
       <c r="B752" s="19"/>
       <c r="C752" s="19"/>
@@ -28846,7 +28846,7 @@
       <c r="AI752" s="19"/>
       <c r="AJ752" s="20"/>
     </row>
-    <row r="753" spans="1:36" ht="7.5" customHeight="1">
+    <row r="753" spans="1:36" ht="8.25" customHeight="1">
       <c r="A753" s="19"/>
       <c r="B753" s="19"/>
       <c r="C753" s="19"/>
@@ -28884,7 +28884,7 @@
       <c r="AI753" s="19"/>
       <c r="AJ753" s="20"/>
     </row>
-    <row r="754" spans="1:36" ht="7.5" customHeight="1">
+    <row r="754" spans="1:36" ht="8.25" customHeight="1">
       <c r="A754" s="19"/>
       <c r="B754" s="19"/>
       <c r="C754" s="19"/>
@@ -28922,7 +28922,7 @@
       <c r="AI754" s="19"/>
       <c r="AJ754" s="20"/>
     </row>
-    <row r="755" spans="1:36" ht="7.5" customHeight="1">
+    <row r="755" spans="1:36" ht="8.25" customHeight="1">
       <c r="A755" s="19"/>
       <c r="B755" s="19"/>
       <c r="C755" s="19"/>
@@ -28960,7 +28960,7 @@
       <c r="AI755" s="19"/>
       <c r="AJ755" s="20"/>
     </row>
-    <row r="756" spans="1:36" ht="7.5" customHeight="1">
+    <row r="756" spans="1:36" ht="8.25" customHeight="1">
       <c r="A756" s="19"/>
       <c r="B756" s="19"/>
       <c r="C756" s="19"/>
@@ -28998,7 +28998,7 @@
       <c r="AI756" s="19"/>
       <c r="AJ756" s="20"/>
     </row>
-    <row r="757" spans="1:36" ht="7.5" customHeight="1">
+    <row r="757" spans="1:36" ht="8.25" customHeight="1">
       <c r="A757" s="19"/>
       <c r="B757" s="19"/>
       <c r="C757" s="19"/>
@@ -29036,7 +29036,7 @@
       <c r="AI757" s="19"/>
       <c r="AJ757" s="20"/>
     </row>
-    <row r="758" spans="1:36" ht="7.5" customHeight="1">
+    <row r="758" spans="1:36" ht="8.25" customHeight="1">
       <c r="A758" s="19"/>
       <c r="B758" s="19"/>
       <c r="C758" s="19"/>
@@ -29074,7 +29074,7 @@
       <c r="AI758" s="19"/>
       <c r="AJ758" s="20"/>
     </row>
-    <row r="759" spans="1:36" ht="7.5" customHeight="1">
+    <row r="759" spans="1:36" ht="8.25" customHeight="1">
       <c r="A759" s="19"/>
       <c r="B759" s="19"/>
       <c r="C759" s="19"/>
@@ -29112,7 +29112,7 @@
       <c r="AI759" s="19"/>
       <c r="AJ759" s="20"/>
     </row>
-    <row r="760" spans="1:36" ht="7.5" customHeight="1">
+    <row r="760" spans="1:36" ht="8.25" customHeight="1">
       <c r="A760" s="19"/>
       <c r="B760" s="19"/>
       <c r="C760" s="19"/>
@@ -29150,7 +29150,7 @@
       <c r="AI760" s="19"/>
       <c r="AJ760" s="20"/>
     </row>
-    <row r="761" spans="1:36" ht="7.5" customHeight="1">
+    <row r="761" spans="1:36" ht="8.25" customHeight="1">
       <c r="A761" s="19"/>
       <c r="B761" s="19"/>
       <c r="C761" s="19"/>
@@ -29188,7 +29188,7 @@
       <c r="AI761" s="19"/>
       <c r="AJ761" s="20"/>
     </row>
-    <row r="762" spans="1:36" ht="7.5" customHeight="1">
+    <row r="762" spans="1:36" ht="8.25" customHeight="1">
       <c r="A762" s="19"/>
       <c r="B762" s="19"/>
       <c r="C762" s="19"/>
@@ -29226,7 +29226,7 @@
       <c r="AI762" s="19"/>
       <c r="AJ762" s="20"/>
     </row>
-    <row r="763" spans="1:36" ht="7.5" customHeight="1">
+    <row r="763" spans="1:36" ht="8.25" customHeight="1">
       <c r="A763" s="19"/>
       <c r="B763" s="19"/>
       <c r="C763" s="19"/>
@@ -29264,7 +29264,7 @@
       <c r="AI763" s="19"/>
       <c r="AJ763" s="20"/>
     </row>
-    <row r="764" spans="1:36" ht="7.5" customHeight="1">
+    <row r="764" spans="1:36" ht="8.25" customHeight="1">
       <c r="A764" s="19"/>
       <c r="B764" s="19"/>
       <c r="C764" s="19"/>
@@ -29302,7 +29302,7 @@
       <c r="AI764" s="19"/>
       <c r="AJ764" s="20"/>
     </row>
-    <row r="765" spans="1:36" ht="7.5" customHeight="1">
+    <row r="765" spans="1:36" ht="8.25" customHeight="1">
       <c r="A765" s="19"/>
       <c r="B765" s="19"/>
       <c r="C765" s="19"/>
@@ -29340,7 +29340,7 @@
       <c r="AI765" s="19"/>
       <c r="AJ765" s="20"/>
     </row>
-    <row r="766" spans="1:36" ht="7.5" customHeight="1">
+    <row r="766" spans="1:36" ht="8.25" customHeight="1">
       <c r="A766" s="19"/>
       <c r="B766" s="19"/>
       <c r="C766" s="19"/>
@@ -29378,7 +29378,7 @@
       <c r="AI766" s="19"/>
       <c r="AJ766" s="20"/>
     </row>
-    <row r="767" spans="1:36" ht="7.5" customHeight="1">
+    <row r="767" spans="1:36" ht="8.25" customHeight="1">
       <c r="A767" s="19"/>
       <c r="B767" s="19"/>
       <c r="C767" s="19"/>
@@ -29416,7 +29416,7 @@
       <c r="AI767" s="19"/>
       <c r="AJ767" s="20"/>
     </row>
-    <row r="768" spans="1:36" ht="7.5" customHeight="1">
+    <row r="768" spans="1:36" ht="8.25" customHeight="1">
       <c r="A768" s="19"/>
       <c r="B768" s="19"/>
       <c r="C768" s="19"/>
@@ -29454,7 +29454,7 @@
       <c r="AI768" s="19"/>
       <c r="AJ768" s="20"/>
     </row>
-    <row r="769" spans="1:36" ht="7.5" customHeight="1">
+    <row r="769" spans="1:36" ht="8.25" customHeight="1">
       <c r="A769" s="19"/>
       <c r="B769" s="19"/>
       <c r="C769" s="19"/>
@@ -29492,7 +29492,7 @@
       <c r="AI769" s="19"/>
       <c r="AJ769" s="20"/>
     </row>
-    <row r="770" spans="1:36" ht="7.5" customHeight="1">
+    <row r="770" spans="1:36" ht="8.25" customHeight="1">
       <c r="A770" s="19"/>
       <c r="B770" s="19"/>
       <c r="C770" s="19"/>
@@ -29530,7 +29530,7 @@
       <c r="AI770" s="19"/>
       <c r="AJ770" s="20"/>
     </row>
-    <row r="771" spans="1:36" ht="7.5" customHeight="1">
+    <row r="771" spans="1:36" ht="8.25" customHeight="1">
       <c r="A771" s="19"/>
       <c r="B771" s="19"/>
       <c r="C771" s="19"/>
@@ -29568,7 +29568,7 @@
       <c r="AI771" s="19"/>
       <c r="AJ771" s="20"/>
     </row>
-    <row r="772" spans="1:36" ht="7.5" customHeight="1">
+    <row r="772" spans="1:36" ht="8.25" customHeight="1">
       <c r="A772" s="19"/>
       <c r="B772" s="19"/>
       <c r="C772" s="19"/>
@@ -29606,7 +29606,7 @@
       <c r="AI772" s="19"/>
       <c r="AJ772" s="20"/>
     </row>
-    <row r="773" spans="1:36" ht="7.5" customHeight="1">
+    <row r="773" spans="1:36" ht="8.25" customHeight="1">
       <c r="A773" s="19"/>
       <c r="B773" s="19"/>
       <c r="C773" s="19"/>
@@ -29644,7 +29644,7 @@
       <c r="AI773" s="19"/>
       <c r="AJ773" s="20"/>
     </row>
-    <row r="774" spans="1:36" ht="7.5" customHeight="1">
+    <row r="774" spans="1:36" ht="8.25" customHeight="1">
       <c r="A774" s="19"/>
       <c r="B774" s="19"/>
       <c r="C774" s="19"/>
@@ -29682,7 +29682,7 @@
       <c r="AI774" s="19"/>
       <c r="AJ774" s="20"/>
     </row>
-    <row r="775" spans="1:36" ht="7.5" customHeight="1">
+    <row r="775" spans="1:36" ht="8.25" customHeight="1">
       <c r="A775" s="19"/>
       <c r="B775" s="19"/>
       <c r="C775" s="19"/>
@@ -29720,7 +29720,7 @@
       <c r="AI775" s="19"/>
       <c r="AJ775" s="20"/>
     </row>
-    <row r="776" spans="1:36" ht="7.5" customHeight="1">
+    <row r="776" spans="1:36" ht="8.25" customHeight="1">
       <c r="A776" s="19"/>
       <c r="B776" s="19"/>
       <c r="C776" s="19"/>
@@ -29758,7 +29758,7 @@
       <c r="AI776" s="19"/>
       <c r="AJ776" s="20"/>
     </row>
-    <row r="777" spans="1:36" ht="7.5" customHeight="1">
+    <row r="777" spans="1:36" ht="8.25" customHeight="1">
       <c r="A777" s="19"/>
       <c r="B777" s="19"/>
       <c r="C777" s="19"/>
@@ -29796,7 +29796,7 @@
       <c r="AI777" s="19"/>
       <c r="AJ777" s="20"/>
     </row>
-    <row r="778" spans="1:36" ht="7.5" customHeight="1">
+    <row r="778" spans="1:36" ht="8.25" customHeight="1">
       <c r="A778" s="19"/>
       <c r="B778" s="19"/>
       <c r="C778" s="19"/>
@@ -29834,7 +29834,7 @@
       <c r="AI778" s="19"/>
       <c r="AJ778" s="20"/>
     </row>
-    <row r="779" spans="1:36" ht="7.5" customHeight="1">
+    <row r="779" spans="1:36" ht="8.25" customHeight="1">
       <c r="A779" s="19"/>
       <c r="B779" s="19"/>
       <c r="C779" s="19"/>
@@ -29872,7 +29872,7 @@
       <c r="AI779" s="19"/>
       <c r="AJ779" s="20"/>
     </row>
-    <row r="780" spans="1:36" ht="7.5" customHeight="1">
+    <row r="780" spans="1:36" ht="8.25" customHeight="1">
       <c r="A780" s="19"/>
       <c r="B780" s="19"/>
       <c r="C780" s="19"/>
@@ -29910,7 +29910,7 @@
       <c r="AI780" s="19"/>
       <c r="AJ780" s="20"/>
     </row>
-    <row r="781" spans="1:36" ht="7.5" customHeight="1">
+    <row r="781" spans="1:36" ht="8.25" customHeight="1">
       <c r="A781" s="19"/>
       <c r="B781" s="19"/>
       <c r="C781" s="19"/>
@@ -29948,7 +29948,7 @@
       <c r="AI781" s="19"/>
       <c r="AJ781" s="20"/>
     </row>
-    <row r="782" spans="1:36" ht="7.5" customHeight="1">
+    <row r="782" spans="1:36" ht="8.25" customHeight="1">
       <c r="A782" s="19"/>
       <c r="B782" s="19"/>
       <c r="C782" s="19"/>
@@ -29986,7 +29986,7 @@
       <c r="AI782" s="19"/>
       <c r="AJ782" s="20"/>
     </row>
-    <row r="783" spans="1:36" ht="7.5" customHeight="1">
+    <row r="783" spans="1:36" ht="8.25" customHeight="1">
       <c r="A783" s="19"/>
       <c r="B783" s="19"/>
       <c r="C783" s="19"/>
@@ -30024,7 +30024,7 @@
       <c r="AI783" s="19"/>
       <c r="AJ783" s="20"/>
     </row>
-    <row r="784" spans="1:36" ht="7.5" customHeight="1">
+    <row r="784" spans="1:36" ht="8.25" customHeight="1">
       <c r="A784" s="19"/>
       <c r="B784" s="19"/>
       <c r="C784" s="19"/>
@@ -30062,7 +30062,7 @@
       <c r="AI784" s="19"/>
       <c r="AJ784" s="20"/>
     </row>
-    <row r="785" spans="1:36" ht="7.5" customHeight="1">
+    <row r="785" spans="1:36" ht="8.25" customHeight="1">
       <c r="A785" s="19"/>
       <c r="B785" s="19"/>
       <c r="C785" s="19"/>
@@ -30100,7 +30100,7 @@
       <c r="AI785" s="19"/>
       <c r="AJ785" s="20"/>
     </row>
-    <row r="786" spans="1:36" ht="7.5" customHeight="1">
+    <row r="786" spans="1:36" ht="8.25" customHeight="1">
       <c r="A786" s="19"/>
       <c r="B786" s="19"/>
       <c r="C786" s="19"/>
@@ -30138,7 +30138,7 @@
       <c r="AI786" s="19"/>
       <c r="AJ786" s="20"/>
     </row>
-    <row r="787" spans="1:36" ht="7.5" customHeight="1">
+    <row r="787" spans="1:36" ht="8.25" customHeight="1">
       <c r="A787" s="19"/>
       <c r="B787" s="19"/>
       <c r="C787" s="19"/>
@@ -30176,7 +30176,7 @@
       <c r="AI787" s="19"/>
       <c r="AJ787" s="20"/>
     </row>
-    <row r="788" spans="1:36" ht="7.5" customHeight="1">
+    <row r="788" spans="1:36" ht="8.25" customHeight="1">
       <c r="A788" s="19"/>
       <c r="B788" s="19"/>
       <c r="C788" s="19"/>
@@ -30214,7 +30214,7 @@
       <c r="AI788" s="19"/>
       <c r="AJ788" s="20"/>
     </row>
-    <row r="789" spans="1:36" ht="7.5" customHeight="1">
+    <row r="789" spans="1:36" ht="8.25" customHeight="1">
       <c r="A789" s="19"/>
       <c r="B789" s="19"/>
       <c r="C789" s="19"/>
@@ -30252,7 +30252,7 @@
       <c r="AI789" s="19"/>
       <c r="AJ789" s="20"/>
     </row>
-    <row r="790" spans="1:36" ht="7.5" customHeight="1">
+    <row r="790" spans="1:36" ht="8.25" customHeight="1">
       <c r="A790" s="19"/>
       <c r="B790" s="19"/>
       <c r="C790" s="19"/>
@@ -30290,7 +30290,7 @@
       <c r="AI790" s="19"/>
       <c r="AJ790" s="20"/>
     </row>
-    <row r="791" spans="1:36" ht="7.5" customHeight="1">
+    <row r="791" spans="1:36" ht="8.25" customHeight="1">
       <c r="A791" s="19"/>
       <c r="B791" s="19"/>
       <c r="C791" s="19"/>
@@ -30328,7 +30328,7 @@
       <c r="AI791" s="19"/>
       <c r="AJ791" s="20"/>
     </row>
-    <row r="792" spans="1:36" ht="7.5" customHeight="1">
+    <row r="792" spans="1:36" ht="8.25" customHeight="1">
       <c r="A792" s="19"/>
       <c r="B792" s="19"/>
       <c r="C792" s="19"/>
@@ -30366,7 +30366,7 @@
       <c r="AI792" s="19"/>
       <c r="AJ792" s="20"/>
     </row>
-    <row r="793" spans="1:36" ht="7.5" customHeight="1">
+    <row r="793" spans="1:36" ht="8.25" customHeight="1">
       <c r="A793" s="19"/>
       <c r="B793" s="19"/>
       <c r="C793" s="19"/>
@@ -30404,7 +30404,7 @@
       <c r="AI793" s="19"/>
       <c r="AJ793" s="20"/>
     </row>
-    <row r="794" spans="1:36" ht="7.5" customHeight="1">
+    <row r="794" spans="1:36" ht="8.25" customHeight="1">
       <c r="A794" s="19"/>
       <c r="B794" s="19"/>
       <c r="C794" s="19"/>
@@ -30442,7 +30442,7 @@
       <c r="AI794" s="19"/>
       <c r="AJ794" s="20"/>
     </row>
-    <row r="795" spans="1:36" ht="7.5" customHeight="1">
+    <row r="795" spans="1:36" ht="8.25" customHeight="1">
       <c r="A795" s="19"/>
       <c r="B795" s="19"/>
       <c r="C795" s="19"/>
@@ -30480,7 +30480,7 @@
       <c r="AI795" s="19"/>
       <c r="AJ795" s="20"/>
     </row>
-    <row r="796" spans="1:36" ht="7.5" customHeight="1">
+    <row r="796" spans="1:36" ht="8.25" customHeight="1">
       <c r="A796" s="19"/>
       <c r="B796" s="19"/>
       <c r="C796" s="19"/>
@@ -30518,7 +30518,7 @@
       <c r="AI796" s="19"/>
       <c r="AJ796" s="20"/>
     </row>
-    <row r="797" spans="1:36" ht="7.5" customHeight="1">
+    <row r="797" spans="1:36" ht="8.25" customHeight="1">
       <c r="A797" s="19"/>
       <c r="B797" s="19"/>
       <c r="C797" s="19"/>
@@ -30556,7 +30556,7 @@
       <c r="AI797" s="19"/>
       <c r="AJ797" s="20"/>
     </row>
-    <row r="798" spans="1:36" ht="7.5" customHeight="1">
+    <row r="798" spans="1:36" ht="8.25" customHeight="1">
       <c r="A798" s="19"/>
       <c r="B798" s="19"/>
       <c r="C798" s="19"/>
@@ -30594,7 +30594,7 @@
       <c r="AI798" s="19"/>
       <c r="AJ798" s="20"/>
     </row>
-    <row r="799" spans="1:36" ht="7.5" customHeight="1">
+    <row r="799" spans="1:36" ht="8.25" customHeight="1">
       <c r="A799" s="19"/>
       <c r="B799" s="19"/>
       <c r="C799" s="19"/>
@@ -30632,7 +30632,7 @@
       <c r="AI799" s="19"/>
       <c r="AJ799" s="20"/>
     </row>
-    <row r="800" spans="1:36" ht="7.5" customHeight="1">
+    <row r="800" spans="1:36" ht="8.25" customHeight="1">
       <c r="A800" s="19"/>
       <c r="B800" s="19"/>
       <c r="C800" s="19"/>
@@ -30670,7 +30670,7 @@
       <c r="AI800" s="19"/>
       <c r="AJ800" s="20"/>
     </row>
-    <row r="801" spans="1:36" ht="7.5" customHeight="1">
+    <row r="801" spans="1:36" ht="8.25" customHeight="1">
       <c r="A801" s="19"/>
       <c r="B801" s="19"/>
       <c r="C801" s="19"/>
@@ -30708,7 +30708,7 @@
       <c r="AI801" s="19"/>
       <c r="AJ801" s="20"/>
     </row>
-    <row r="802" spans="1:36" ht="7.5" customHeight="1">
+    <row r="802" spans="1:36" ht="8.25" customHeight="1">
       <c r="A802" s="19"/>
       <c r="B802" s="19"/>
       <c r="C802" s="19"/>
@@ -30746,7 +30746,7 @@
       <c r="AI802" s="19"/>
       <c r="AJ802" s="20"/>
     </row>
-    <row r="803" spans="1:36" ht="7.5" customHeight="1">
+    <row r="803" spans="1:36" ht="8.25" customHeight="1">
       <c r="A803" s="19"/>
       <c r="B803" s="19"/>
       <c r="C803" s="19"/>
@@ -30784,7 +30784,7 @@
       <c r="AI803" s="19"/>
       <c r="AJ803" s="20"/>
     </row>
-    <row r="804" spans="1:36" ht="7.5" customHeight="1">
+    <row r="804" spans="1:36" ht="8.25" customHeight="1">
       <c r="A804" s="19"/>
       <c r="B804" s="19"/>
       <c r="C804" s="19"/>
@@ -30822,7 +30822,7 @@
       <c r="AI804" s="19"/>
       <c r="AJ804" s="20"/>
     </row>
-    <row r="805" spans="1:36" ht="7.5" customHeight="1">
+    <row r="805" spans="1:36" ht="8.25" customHeight="1">
       <c r="A805" s="19"/>
       <c r="B805" s="19"/>
       <c r="C805" s="19"/>
@@ -30860,7 +30860,7 @@
       <c r="AI805" s="19"/>
       <c r="AJ805" s="20"/>
     </row>
-    <row r="806" spans="1:36" ht="7.5" customHeight="1">
+    <row r="806" spans="1:36" ht="8.25" customHeight="1">
       <c r="A806" s="19"/>
       <c r="B806" s="19"/>
       <c r="C806" s="19"/>
@@ -30898,7 +30898,7 @@
       <c r="AI806" s="19"/>
       <c r="AJ806" s="20"/>
     </row>
-    <row r="807" spans="1:36" ht="7.5" customHeight="1">
+    <row r="807" spans="1:36" ht="8.25" customHeight="1">
       <c r="A807" s="19"/>
       <c r="B807" s="19"/>
       <c r="C807" s="19"/>
@@ -30936,7 +30936,7 @@
       <c r="AI807" s="19"/>
       <c r="AJ807" s="20"/>
     </row>
-    <row r="808" spans="1:36" ht="7.5" customHeight="1">
+    <row r="808" spans="1:36" ht="8.25" customHeight="1">
       <c r="A808" s="19"/>
       <c r="B808" s="19"/>
       <c r="C808" s="19"/>
@@ -30974,7 +30974,7 @@
       <c r="AI808" s="19"/>
       <c r="AJ808" s="20"/>
     </row>
-    <row r="809" spans="1:36" ht="7.5" customHeight="1">
+    <row r="809" spans="1:36" ht="8.25" customHeight="1">
       <c r="A809" s="19"/>
       <c r="B809" s="19"/>
       <c r="C809" s="19"/>
@@ -31012,7 +31012,7 @@
       <c r="AI809" s="19"/>
       <c r="AJ809" s="20"/>
     </row>
-    <row r="810" spans="1:36" ht="7.5" customHeight="1">
+    <row r="810" spans="1:36" ht="8.25" customHeight="1">
       <c r="A810" s="19"/>
       <c r="B810" s="19"/>
       <c r="C810" s="19"/>
@@ -31050,7 +31050,7 @@
       <c r="AI810" s="19"/>
       <c r="AJ810" s="20"/>
     </row>
-    <row r="811" spans="1:36" ht="7.5" customHeight="1">
+    <row r="811" spans="1:36" ht="8.25" customHeight="1">
       <c r="A811" s="19"/>
       <c r="B811" s="19"/>
       <c r="C811" s="19"/>
@@ -31088,7 +31088,7 @@
       <c r="AI811" s="19"/>
       <c r="AJ811" s="20"/>
     </row>
-    <row r="812" spans="1:36" ht="7.5" customHeight="1">
+    <row r="812" spans="1:36" ht="8.25" customHeight="1">
       <c r="A812" s="19"/>
       <c r="B812" s="19"/>
       <c r="C812" s="19"/>
@@ -31126,7 +31126,7 @@
       <c r="AI812" s="19"/>
       <c r="AJ812" s="20"/>
     </row>
-    <row r="813" spans="1:36" ht="7.5" customHeight="1">
+    <row r="813" spans="1:36" ht="8.25" customHeight="1">
       <c r="A813" s="19"/>
       <c r="B813" s="19"/>
       <c r="C813" s="19"/>
@@ -31164,7 +31164,7 @@
       <c r="AI813" s="19"/>
       <c r="AJ813" s="20"/>
     </row>
-    <row r="814" spans="1:36" ht="7.5" customHeight="1">
+    <row r="814" spans="1:36" ht="8.25" customHeight="1">
       <c r="A814" s="19"/>
       <c r="B814" s="19"/>
       <c r="C814" s="19"/>
@@ -31202,7 +31202,7 @@
       <c r="AI814" s="19"/>
       <c r="AJ814" s="20"/>
     </row>
-    <row r="815" spans="1:36" ht="7.5" customHeight="1">
+    <row r="815" spans="1:36" ht="8.25" customHeight="1">
       <c r="A815" s="19"/>
       <c r="B815" s="19"/>
       <c r="C815" s="19"/>
@@ -31240,7 +31240,7 @@
       <c r="AI815" s="19"/>
       <c r="AJ815" s="20"/>
     </row>
-    <row r="816" spans="1:36" ht="7.5" customHeight="1">
+    <row r="816" spans="1:36" ht="8.25" customHeight="1">
       <c r="A816" s="19"/>
       <c r="B816" s="19"/>
       <c r="C816" s="19"/>
@@ -31278,7 +31278,7 @@
       <c r="AI816" s="19"/>
       <c r="AJ816" s="20"/>
     </row>
-    <row r="817" spans="1:36" ht="7.5" customHeight="1">
+    <row r="817" spans="1:36" ht="8.25" customHeight="1">
       <c r="A817" s="19"/>
       <c r="B817" s="19"/>
       <c r="C817" s="19"/>
@@ -31316,7 +31316,7 @@
       <c r="AI817" s="19"/>
       <c r="AJ817" s="20"/>
     </row>
-    <row r="818" spans="1:36" ht="7.5" customHeight="1">
+    <row r="818" spans="1:36" ht="8.25" customHeight="1">
       <c r="A818" s="19"/>
       <c r="B818" s="19"/>
       <c r="C818" s="19"/>
@@ -31354,7 +31354,7 @@
       <c r="AI818" s="19"/>
       <c r="AJ818" s="20"/>
     </row>
-    <row r="819" spans="1:36" ht="7.5" customHeight="1">
+    <row r="819" spans="1:36" ht="8.25" customHeight="1">
       <c r="A819" s="19"/>
       <c r="B819" s="19"/>
       <c r="C819" s="19"/>
@@ -31392,7 +31392,7 @@
       <c r="AI819" s="19"/>
       <c r="AJ819" s="20"/>
     </row>
-    <row r="820" spans="1:36" ht="7.5" customHeight="1">
+    <row r="820" spans="1:36" ht="8.25" customHeight="1">
       <c r="A820" s="19"/>
       <c r="B820" s="19"/>
       <c r="C820" s="19"/>
@@ -31430,7 +31430,7 @@
       <c r="AI820" s="19"/>
       <c r="AJ820" s="20"/>
     </row>
-    <row r="821" spans="1:36" ht="7.5" customHeight="1">
+    <row r="821" spans="1:36" ht="8.25" customHeight="1">
       <c r="A821" s="19"/>
       <c r="B821" s="19"/>
       <c r="C821" s="19"/>
@@ -31468,7 +31468,7 @@
       <c r="AI821" s="19"/>
       <c r="AJ821" s="20"/>
     </row>
-    <row r="822" spans="1:36" ht="7.5" customHeight="1">
+    <row r="822" spans="1:36" ht="8.25" customHeight="1">
       <c r="A822" s="19"/>
       <c r="B822" s="19"/>
       <c r="C822" s="19"/>
@@ -31506,7 +31506,7 @@
       <c r="AI822" s="19"/>
       <c r="AJ822" s="20"/>
     </row>
-    <row r="823" spans="1:36" ht="7.5" customHeight="1">
+    <row r="823" spans="1:36" ht="8.25" customHeight="1">
       <c r="A823" s="19"/>
       <c r="B823" s="19"/>
       <c r="C823" s="19"/>
@@ -31544,7 +31544,7 @@
       <c r="AI823" s="19"/>
       <c r="AJ823" s="20"/>
     </row>
-    <row r="824" spans="1:36" ht="7.5" customHeight="1">
+    <row r="824" spans="1:36" ht="8.25" customHeight="1">
       <c r="A824" s="19"/>
       <c r="B824" s="19"/>
       <c r="C824" s="19"/>
@@ -31582,7 +31582,7 @@
       <c r="AI824" s="19"/>
       <c r="AJ824" s="20"/>
     </row>
-    <row r="825" spans="1:36" ht="7.5" customHeight="1">
+    <row r="825" spans="1:36" ht="8.25" customHeight="1">
       <c r="A825" s="19"/>
       <c r="B825" s="19"/>
       <c r="C825" s="19"/>
@@ -31620,7 +31620,7 @@
       <c r="AI825" s="19"/>
       <c r="AJ825" s="20"/>
     </row>
-    <row r="826" spans="1:36" ht="7.5" customHeight="1">
+    <row r="826" spans="1:36" ht="8.25" customHeight="1">
       <c r="A826" s="19"/>
       <c r="B826" s="19"/>
       <c r="C826" s="19"/>
@@ -31658,7 +31658,7 @@
       <c r="AI826" s="19"/>
       <c r="AJ826" s="20"/>
     </row>
-    <row r="827" spans="1:36" ht="7.5" customHeight="1">
+    <row r="827" spans="1:36" ht="8.25" customHeight="1">
       <c r="A827" s="19"/>
       <c r="B827" s="19"/>
       <c r="C827" s="19"/>
@@ -31696,7 +31696,7 @@
       <c r="AI827" s="19"/>
       <c r="AJ827" s="20"/>
     </row>
-    <row r="828" spans="1:36" ht="7.5" customHeight="1">
+    <row r="828" spans="1:36" ht="8.25" customHeight="1">
       <c r="A828" s="19"/>
       <c r="B828" s="19"/>
       <c r="C828" s="19"/>
@@ -31734,7 +31734,7 @@
       <c r="AI828" s="19"/>
       <c r="AJ828" s="20"/>
     </row>
-    <row r="829" spans="1:36" ht="7.5" customHeight="1">
+    <row r="829" spans="1:36" ht="8.25" customHeight="1">
       <c r="A829" s="19"/>
       <c r="B829" s="19"/>
       <c r="C829" s="19"/>
@@ -31772,7 +31772,7 @@
       <c r="AI829" s="19"/>
       <c r="AJ829" s="20"/>
     </row>
-    <row r="830" spans="1:36" ht="7.5" customHeight="1">
+    <row r="830" spans="1:36" ht="8.25" customHeight="1">
       <c r="A830" s="19"/>
       <c r="B830" s="19"/>
       <c r="C830" s="19"/>
@@ -31810,7 +31810,7 @@
       <c r="AI830" s="19"/>
       <c r="AJ830" s="20"/>
     </row>
-    <row r="831" spans="1:36" ht="7.5" customHeight="1">
+    <row r="831" spans="1:36" ht="8.25" customHeight="1">
       <c r="A831" s="19"/>
       <c r="B831" s="19"/>
       <c r="C831" s="19"/>
@@ -31848,7 +31848,7 @@
       <c r="AI831" s="19"/>
       <c r="AJ831" s="20"/>
     </row>
-    <row r="832" spans="1:36" ht="7.5" customHeight="1">
+    <row r="832" spans="1:36" ht="8.25" customHeight="1">
       <c r="A832" s="19"/>
       <c r="B832" s="19"/>
       <c r="C832" s="19"/>
@@ -31886,7 +31886,7 @@
       <c r="AI832" s="19"/>
       <c r="AJ832" s="20"/>
     </row>
-    <row r="833" spans="1:36" ht="7.5" customHeight="1">
+    <row r="833" spans="1:36" ht="8.25" customHeight="1">
       <c r="A833" s="19"/>
       <c r="B833" s="19"/>
       <c r="C833" s="19"/>
@@ -31924,7 +31924,7 @@
       <c r="AI833" s="19"/>
       <c r="AJ833" s="20"/>
     </row>
-    <row r="834" spans="1:36" ht="7.5" customHeight="1">
+    <row r="834" spans="1:36" ht="8.25" customHeight="1">
       <c r="A834" s="19"/>
       <c r="B834" s="19"/>
       <c r="C834" s="19"/>
@@ -31962,7 +31962,7 @@
       <c r="AI834" s="19"/>
       <c r="AJ834" s="20"/>
     </row>
-    <row r="835" spans="1:36" ht="7.5" customHeight="1">
+    <row r="835" spans="1:36" ht="8.25" customHeight="1">
       <c r="A835" s="19"/>
       <c r="B835" s="19"/>
       <c r="C835" s="19"/>
@@ -32000,7 +32000,7 @@
       <c r="AI835" s="19"/>
       <c r="AJ835" s="20"/>
     </row>
-    <row r="836" spans="1:36" ht="7.5" customHeight="1">
+    <row r="836" spans="1:36" ht="8.25" customHeight="1">
       <c r="A836" s="19"/>
       <c r="B836" s="19"/>
       <c r="C836" s="19"/>
@@ -32038,7 +32038,7 @@
       <c r="AI836" s="19"/>
       <c r="AJ836" s="20"/>
     </row>
-    <row r="837" spans="1:36" ht="7.5" customHeight="1">
+    <row r="837" spans="1:36" ht="8.25" customHeight="1">
       <c r="A837" s="19"/>
       <c r="B837" s="19"/>
       <c r="C837" s="19"/>
@@ -32076,7 +32076,7 @@
       <c r="AI837" s="19"/>
       <c r="AJ837" s="20"/>
     </row>
-    <row r="838" spans="1:36" ht="7.5" customHeight="1">
+    <row r="838" spans="1:36" ht="8.25" customHeight="1">
       <c r="A838" s="19"/>
       <c r="B838" s="19"/>
       <c r="C838" s="19"/>
@@ -32114,7 +32114,7 @@
       <c r="AI838" s="19"/>
       <c r="AJ838" s="20"/>
     </row>
-    <row r="839" spans="1:36" ht="7.5" customHeight="1">
+    <row r="839" spans="1:36" ht="8.25" customHeight="1">
       <c r="A839" s="19"/>
       <c r="B839" s="19"/>
       <c r="C839" s="19"/>
@@ -32152,7 +32152,7 @@
       <c r="AI839" s="19"/>
       <c r="AJ839" s="20"/>
     </row>
-    <row r="840" spans="1:36" ht="7.5" customHeight="1">
+    <row r="840" spans="1:36" ht="8.25" customHeight="1">
       <c r="A840" s="19"/>
       <c r="B840" s="19"/>
       <c r="C840" s="19"/>
@@ -32190,7 +32190,7 @@
       <c r="AI840" s="19"/>
       <c r="AJ840" s="20"/>
     </row>
-    <row r="841" spans="1:36" ht="7.5" customHeight="1">
+    <row r="841" spans="1:36" ht="8.25" customHeight="1">
       <c r="A841" s="19"/>
       <c r="B841" s="19"/>
       <c r="C841" s="19"/>
@@ -32228,7 +32228,7 @@
       <c r="AI841" s="19"/>
       <c r="AJ841" s="20"/>
     </row>
-    <row r="842" spans="1:36" ht="7.5" customHeight="1">
+    <row r="842" spans="1:36" ht="8.25" customHeight="1">
       <c r="A842" s="19"/>
       <c r="B842" s="19"/>
       <c r="C842" s="19"/>
@@ -32266,7 +32266,7 @@
       <c r="AI842" s="19"/>
       <c r="AJ842" s="20"/>
     </row>
-    <row r="843" spans="1:36" ht="7.5" customHeight="1">
+    <row r="843" spans="1:36" ht="8.25" customHeight="1">
       <c r="A843" s="19"/>
       <c r="B843" s="19"/>
       <c r="C843" s="19"/>
@@ -32304,7 +32304,7 @@
       <c r="AI843" s="19"/>
       <c r="AJ843" s="20"/>
     </row>
-    <row r="844" spans="1:36" ht="7.5" customHeight="1">
+    <row r="844" spans="1:36" ht="8.25" customHeight="1">
       <c r="A844" s="19"/>
       <c r="B844" s="19"/>
       <c r="C844" s="19"/>
@@ -32342,7 +32342,7 @@
       <c r="AI844" s="19"/>
       <c r="AJ844" s="20"/>
     </row>
-    <row r="845" spans="1:36" ht="7.5" customHeight="1">
+    <row r="845" spans="1:36" ht="8.25" customHeight="1">
       <c r="A845" s="19"/>
       <c r="B845" s="19"/>
       <c r="C845" s="19"/>
@@ -32380,7 +32380,7 @@
       <c r="AI845" s="19"/>
       <c r="AJ845" s="20"/>
     </row>
-    <row r="846" spans="1:36" ht="7.5" customHeight="1">
+    <row r="846" spans="1:36" ht="8.25" customHeight="1">
       <c r="A846" s="19"/>
       <c r="B846" s="19"/>
       <c r="C846" s="19"/>
@@ -32418,7 +32418,7 @@
       <c r="AI846" s="19"/>
       <c r="AJ846" s="20"/>
     </row>
-    <row r="847" spans="1:36" ht="7.5" customHeight="1">
+    <row r="847" spans="1:36" ht="8.25" customHeight="1">
       <c r="A847" s="19"/>
       <c r="B847" s="19"/>
       <c r="C847" s="19"/>
@@ -32456,7 +32456,7 @@
       <c r="AI847" s="19"/>
       <c r="AJ847" s="20"/>
     </row>
-    <row r="848" spans="1:36" ht="7.5" customHeight="1">
+    <row r="848" spans="1:36" ht="8.25" customHeight="1">
       <c r="A848" s="19"/>
       <c r="B848" s="19"/>
       <c r="C848" s="19"/>
@@ -32494,7 +32494,7 @@
       <c r="AI848" s="19"/>
       <c r="AJ848" s="20"/>
     </row>
-    <row r="849" spans="1:36" ht="7.5" customHeight="1">
+    <row r="849" spans="1:36" ht="8.25" customHeight="1">
       <c r="A849" s="19"/>
       <c r="B849" s="19"/>
       <c r="C849" s="19"/>
@@ -32532,7 +32532,7 @@
       <c r="AI849" s="19"/>
       <c r="AJ849" s="20"/>
     </row>
-    <row r="850" spans="1:36" ht="7.5" customHeight="1">
+    <row r="850" spans="1:36" ht="8.25" customHeight="1">
       <c r="A850" s="19"/>
       <c r="B850" s="19"/>
       <c r="C850" s="19"/>
@@ -32570,7 +32570,7 @@
       <c r="AI850" s="19"/>
       <c r="AJ850" s="20"/>
     </row>
-    <row r="851" spans="1:36" ht="7.5" customHeight="1">
+    <row r="851" spans="1:36" ht="8.25" customHeight="1">
       <c r="A851" s="19"/>
       <c r="B851" s="19"/>
       <c r="C851" s="19"/>
@@ -32608,7 +32608,7 @@
       <c r="AI851" s="19"/>
       <c r="AJ851" s="20"/>
     </row>
-    <row r="852" spans="1:36" ht="7.5" customHeight="1">
+    <row r="852" spans="1:36" ht="8.25" customHeight="1">
       <c r="A852" s="19"/>
       <c r="B852" s="19"/>
       <c r="C852" s="19"/>
@@ -32646,7 +32646,7 @@
       <c r="AI852" s="19"/>
       <c r="AJ852" s="20"/>
     </row>
-    <row r="853" spans="1:36" ht="7.5" customHeight="1">
+    <row r="853" spans="1:36" ht="8.25" customHeight="1">
       <c r="A853" s="19"/>
       <c r="B853" s="19"/>
       <c r="C853" s="19"/>
@@ -32684,7 +32684,7 @@
       <c r="AI853" s="19"/>
       <c r="AJ853" s="20"/>
     </row>
-    <row r="854" spans="1:36" ht="7.5" customHeight="1">
+    <row r="854" spans="1:36" ht="8.25" customHeight="1">
       <c r="A854" s="19"/>
       <c r="B854" s="19"/>
       <c r="C854" s="19"/>
@@ -32722,7 +32722,7 @@
       <c r="AI854" s="19"/>
       <c r="AJ854" s="20"/>
     </row>
-    <row r="855" spans="1:36" ht="7.5" customHeight="1">
+    <row r="855" spans="1:36" ht="8.25" customHeight="1">
       <c r="A855" s="19"/>
       <c r="B855" s="19"/>
       <c r="C855" s="19"/>
@@ -32760,7 +32760,7 @@
       <c r="AI855" s="19"/>
       <c r="AJ855" s="20"/>
     </row>
-    <row r="856" spans="1:36" ht="7.5" customHeight="1">
+    <row r="856" spans="1:36" ht="8.25" customHeight="1">
       <c r="A856" s="19"/>
       <c r="B856" s="19"/>
       <c r="C856" s="19"/>
@@ -32798,7 +32798,7 @@
       <c r="AI856" s="19"/>
       <c r="AJ856" s="20"/>
     </row>
-    <row r="857" spans="1:36" ht="7.5" customHeight="1">
+    <row r="857" spans="1:36" ht="8.25" customHeight="1">
       <c r="A857" s="19"/>
       <c r="B857" s="19"/>
       <c r="C857" s="19"/>
@@ -32836,7 +32836,7 @@
       <c r="AI857" s="19"/>
       <c r="AJ857" s="20"/>
     </row>
-    <row r="858" spans="1:36" ht="7.5" customHeight="1">
+    <row r="858" spans="1:36" ht="8.25" customHeight="1">
       <c r="A858" s="19"/>
       <c r="B858" s="19"/>
       <c r="C858" s="19"/>
@@ -32874,7 +32874,7 @@
       <c r="AI858" s="19"/>
       <c r="AJ858" s="20"/>
     </row>
-    <row r="859" spans="1:36" ht="7.5" customHeight="1">
+    <row r="859" spans="1:36" ht="8.25" customHeight="1">
       <c r="A859" s="19"/>
       <c r="B859" s="19"/>
       <c r="C859" s="19"/>
@@ -32912,7 +32912,7 @@
       <c r="AI859" s="19"/>
       <c r="AJ859" s="20"/>
     </row>
-    <row r="860" spans="1:36" ht="7.5" customHeight="1">
+    <row r="860" spans="1:36" ht="8.25" customHeight="1">
       <c r="A860" s="19"/>
       <c r="B860" s="19"/>
       <c r="C860" s="19"/>
@@ -32950,7 +32950,7 @@
       <c r="AI860" s="19"/>
       <c r="AJ860" s="20"/>
     </row>
-    <row r="861" spans="1:36" ht="7.5" customHeight="1">
+    <row r="861" spans="1:36" ht="8.25" customHeight="1">
       <c r="A861" s="19"/>
       <c r="B861" s="19"/>
       <c r="C861" s="19"/>
@@ -32988,7 +32988,7 @@
       <c r="AI861" s="19"/>
       <c r="AJ861" s="20"/>
     </row>
-    <row r="862" spans="1:36" ht="7.5" customHeight="1">
+    <row r="862" spans="1:36" ht="8.25" customHeight="1">
       <c r="A862" s="19"/>
       <c r="B862" s="19"/>
       <c r="C862" s="19"/>
@@ -33026,7 +33026,7 @@
       <c r="AI862" s="19"/>
       <c r="AJ862" s="20"/>
     </row>
-    <row r="863" spans="1:36" ht="7.5" customHeight="1">
+    <row r="863" spans="1:36" ht="8.25" customHeight="1">
       <c r="A863" s="19"/>
       <c r="B863" s="19"/>
       <c r="C863" s="19"/>
@@ -33064,7 +33064,7 @@
       <c r="AI863" s="19"/>
       <c r="AJ863" s="20"/>
     </row>
-    <row r="864" spans="1:36" ht="7.5" customHeight="1">
+    <row r="864" spans="1:36" ht="8.25" customHeight="1">
       <c r="A864" s="19"/>
       <c r="B864" s="19"/>
       <c r="C864" s="19"/>
@@ -33102,7 +33102,7 @@
       <c r="AI864" s="19"/>
       <c r="AJ864" s="20"/>
     </row>
-    <row r="865" spans="1:36" ht="7.5" customHeight="1">
+    <row r="865" spans="1:36" ht="8.25" customHeight="1">
       <c r="A865" s="19"/>
       <c r="B865" s="19"/>
       <c r="C865" s="19"/>
@@ -33140,7 +33140,7 @@
       <c r="AI865" s="19"/>
       <c r="AJ865" s="20"/>
     </row>
-    <row r="866" spans="1:36" ht="7.5" customHeight="1">
+    <row r="866" spans="1:36" ht="8.25" customHeight="1">
       <c r="A866" s="19"/>
       <c r="B866" s="19"/>
       <c r="C866" s="19"/>
@@ -33178,7 +33178,7 @@
       <c r="AI866" s="19"/>
       <c r="AJ866" s="20"/>
     </row>
-    <row r="867" spans="1:36" ht="7.5" customHeight="1">
+    <row r="867" spans="1:36" ht="8.25" customHeight="1">
       <c r="A867" s="19"/>
       <c r="B867" s="19"/>
       <c r="C867" s="19"/>
@@ -33216,7 +33216,7 @@
       <c r="AI867" s="19"/>
       <c r="AJ867" s="20"/>
     </row>
-    <row r="868" spans="1:36" ht="7.5" customHeight="1">
+    <row r="868" spans="1:36" ht="8.25" customHeight="1">
       <c r="A868" s="19"/>
       <c r="B868" s="19"/>
       <c r="C868" s="19"/>
@@ -33254,7 +33254,7 @@
       <c r="AI868" s="19"/>
       <c r="AJ868" s="20"/>
     </row>
-    <row r="869" spans="1:36" ht="7.5" customHeight="1">
+    <row r="869" spans="1:36" ht="8.25" customHeight="1">
       <c r="A869" s="19"/>
       <c r="B869" s="19"/>
       <c r="C869" s="19"/>
@@ -33292,7 +33292,7 @@
       <c r="AI869" s="19"/>
       <c r="AJ869" s="20"/>
     </row>
-    <row r="870" spans="1:36" ht="7.5" customHeight="1">
+    <row r="870" spans="1:36" ht="8.25" customHeight="1">
       <c r="A870" s="19"/>
       <c r="B870" s="19"/>
       <c r="C870" s="19"/>
@@ -33330,7 +33330,7 @@
       <c r="AI870" s="19"/>
       <c r="AJ870" s="20"/>
     </row>
-    <row r="871" spans="1:36" ht="7.5" customHeight="1">
+    <row r="871" spans="1:36" ht="8.25" customHeight="1">
       <c r="A871" s="19"/>
       <c r="B871" s="19"/>
       <c r="C871" s="19"/>
@@ -33368,7 +33368,7 @@
       <c r="AI871" s="19"/>
       <c r="AJ871" s="20"/>
     </row>
-    <row r="872" spans="1:36" ht="7.5" customHeight="1">
+    <row r="872" spans="1:36" ht="8.25" customHeight="1">
       <c r="A872" s="19"/>
       <c r="B872" s="19"/>
       <c r="C872" s="19"/>
@@ -33406,7 +33406,7 @@
       <c r="AI872" s="19"/>
       <c r="AJ872" s="20"/>
     </row>
-    <row r="873" spans="1:36" ht="7.5" customHeight="1">
+    <row r="873" spans="1:36" ht="8.25" customHeight="1">
       <c r="A873" s="19"/>
       <c r="B873" s="19"/>
       <c r="C873" s="19"/>
@@ -33444,7 +33444,7 @@
       <c r="AI873" s="19"/>
       <c r="AJ873" s="20"/>
     </row>
-    <row r="874" spans="1:36" ht="7.5" customHeight="1">
+    <row r="874" spans="1:36" ht="8.25" customHeight="1">
       <c r="A874" s="19"/>
       <c r="B874" s="19"/>
       <c r="C874" s="19"/>
@@ -33482,7 +33482,7 @@
       <c r="AI874" s="19"/>
       <c r="AJ874" s="20"/>
     </row>
-    <row r="875" spans="1:36" ht="7.5" customHeight="1">
+    <row r="875" spans="1:36" ht="8.25" customHeight="1">
       <c r="A875" s="19"/>
       <c r="B875" s="19"/>
       <c r="C875" s="19"/>
@@ -33520,7 +33520,7 @@
       <c r="AI875" s="19"/>
       <c r="AJ875" s="20"/>
     </row>
-    <row r="876" spans="1:36" ht="7.5" customHeight="1">
+    <row r="876" spans="1:36" ht="8.25" customHeight="1">
       <c r="A876" s="19"/>
       <c r="B876" s="19"/>
       <c r="C876" s="19"/>
@@ -33558,7 +33558,7 @@
       <c r="AI876" s="19"/>
       <c r="AJ876" s="20"/>
     </row>
-    <row r="877" spans="1:36" ht="7.5" customHeight="1">
+    <row r="877" spans="1:36" ht="8.25" customHeight="1">
       <c r="A877" s="19"/>
       <c r="B877" s="19"/>
       <c r="C877" s="19"/>
@@ -33596,7 +33596,7 @@
       <c r="AI877" s="19"/>
       <c r="AJ877" s="20"/>
     </row>
-    <row r="878" spans="1:36" ht="7.5" customHeight="1">
+    <row r="878" spans="1:36" ht="8.25" customHeight="1">
       <c r="A878" s="19"/>
       <c r="B878" s="19"/>
       <c r="C878" s="19"/>
@@ -33634,7 +33634,7 @@
       <c r="AI878" s="19"/>
       <c r="AJ878" s="20"/>
     </row>
-    <row r="879" spans="1:36" ht="7.5" customHeight="1">
+    <row r="879" spans="1:36" ht="8.25" customHeight="1">
       <c r="A879" s="19"/>
       <c r="B879" s="19"/>
       <c r="C879" s="19"/>
@@ -33672,7 +33672,7 @@
       <c r="AI879" s="19"/>
       <c r="AJ879" s="20"/>
     </row>
-    <row r="880" spans="1:36" ht="7.5" customHeight="1">
+    <row r="880" spans="1:36" ht="8.25" customHeight="1">
       <c r="A880" s="19"/>
       <c r="B880" s="19"/>
       <c r="C880" s="19"/>
@@ -33710,7 +33710,7 @@
       <c r="AI880" s="19"/>
       <c r="AJ880" s="20"/>
     </row>
-    <row r="881" spans="1:36" ht="7.5" customHeight="1">
+    <row r="881" spans="1:36" ht="8.25" customHeight="1">
       <c r="A881" s="19"/>
       <c r="B881" s="19"/>
       <c r="C881" s="19"/>
@@ -33748,7 +33748,7 @@
       <c r="AI881" s="19"/>
       <c r="AJ881" s="20"/>
     </row>
-    <row r="882" spans="1:36" ht="7.5" customHeight="1">
+    <row r="882" spans="1:36" ht="8.25" customHeight="1">
       <c r="A882" s="19"/>
       <c r="B882" s="19"/>
       <c r="C882" s="19"/>
@@ -33786,7 +33786,7 @@
       <c r="AI882" s="19"/>
       <c r="AJ882" s="20"/>
     </row>
-    <row r="883" spans="1:36" ht="7.5" customHeight="1">
+    <row r="883" spans="1:36" ht="8.25" customHeight="1">
       <c r="A883" s="19"/>
       <c r="B883" s="19"/>
       <c r="C883" s="19"/>
@@ -33824,7 +33824,7 @@
       <c r="AI883" s="19"/>
       <c r="AJ883" s="20"/>
     </row>
-    <row r="884" spans="1:36" ht="7.5" customHeight="1">
+    <row r="884" spans="1:36" ht="8.25" customHeight="1">
       <c r="A884" s="19"/>
       <c r="B884" s="19"/>
       <c r="C884" s="19"/>
@@ -33862,7 +33862,7 @@
       <c r="AI884" s="19"/>
       <c r="AJ884" s="20"/>
     </row>
-    <row r="885" spans="1:36" ht="7.5" customHeight="1">
+    <row r="885" spans="1:36" ht="8.25" customHeight="1">
       <c r="A885" s="19"/>
       <c r="B885" s="19"/>
       <c r="C885" s="19"/>
@@ -33900,7 +33900,7 @@
       <c r="AI885" s="19"/>
       <c r="AJ885" s="20"/>
     </row>
-    <row r="886" spans="1:36" ht="7.5" customHeight="1">
+    <row r="886" spans="1:36" ht="8.25" customHeight="1">
       <c r="A886" s="19"/>
       <c r="B886" s="19"/>
       <c r="C886" s="19"/>
@@ -33938,7 +33938,7 @@
       <c r="AI886" s="19"/>
       <c r="AJ886" s="20"/>
     </row>
-    <row r="887" spans="1:36" ht="7.5" customHeight="1">
+    <row r="887" spans="1:36" ht="8.25" customHeight="1">
       <c r="A887" s="19"/>
       <c r="B887" s="19"/>
       <c r="C887" s="19"/>
@@ -33976,7 +33976,7 @@
       <c r="AI887" s="19"/>
       <c r="AJ887" s="20"/>
     </row>
-    <row r="888" spans="1:36" ht="7.5" customHeight="1">
+    <row r="888" spans="1:36" ht="8.25" customHeight="1">
       <c r="A888" s="19"/>
       <c r="B888" s="19"/>
       <c r="C888" s="19"/>
@@ -34014,7 +34014,7 @@
       <c r="AI888" s="19"/>
       <c r="AJ888" s="20"/>
     </row>
-    <row r="889" spans="1:36" ht="7.5" customHeight="1">
+    <row r="889" spans="1:36" ht="8.25" customHeight="1">
       <c r="A889" s="19"/>
       <c r="B889" s="19"/>
       <c r="C889" s="19"/>
@@ -34052,7 +34052,7 @@
       <c r="AI889" s="19"/>
       <c r="AJ889" s="20"/>
     </row>
-    <row r="890" spans="1:36" ht="7.5" customHeight="1">
+    <row r="890" spans="1:36" ht="8.25" customHeight="1">
       <c r="A890" s="19"/>
       <c r="B890" s="19"/>
       <c r="C890" s="19"/>
@@ -34090,7 +34090,7 @@
       <c r="AI890" s="19"/>
       <c r="AJ890" s="20"/>
     </row>
-    <row r="891" spans="1:36" ht="7.5" customHeight="1">
+    <row r="891" spans="1:36" ht="8.25" customHeight="1">
       <c r="A891" s="19"/>
       <c r="B891" s="19"/>
       <c r="C891" s="19"/>
@@ -34128,7 +34128,7 @@
       <c r="AI891" s="19"/>
       <c r="AJ891" s="20"/>
     </row>
-    <row r="892" spans="1:36" ht="7.5" customHeight="1">
+    <row r="892" spans="1:36" ht="8.25" customHeight="1">
       <c r="A892" s="19"/>
       <c r="B892" s="19"/>
       <c r="C892" s="19"/>
@@ -34166,7 +34166,7 @@
       <c r="AI892" s="19"/>
       <c r="AJ892" s="20"/>
     </row>
-    <row r="893" spans="1:36" ht="7.5" customHeight="1">
+    <row r="893" spans="1:36" ht="8.25" customHeight="1">
       <c r="A893" s="19"/>
       <c r="B893" s="19"/>
       <c r="C893" s="19"/>
@@ -34204,7 +34204,7 @@
       <c r="AI893" s="19"/>
       <c r="AJ893" s="20"/>
     </row>
-    <row r="894" spans="1:36" ht="7.5" customHeight="1">
+    <row r="894" spans="1:36" ht="8.25" customHeight="1">
       <c r="A894" s="19"/>
       <c r="B894" s="19"/>
       <c r="C894" s="19"/>
@@ -34242,7 +34242,7 @@
       <c r="AI894" s="19"/>
       <c r="AJ894" s="20"/>
     </row>
-    <row r="895" spans="1:36" ht="7.5" customHeight="1">
+    <row r="895" spans="1:36" ht="8.25" customHeight="1">
       <c r="A895" s="19"/>
       <c r="B895" s="19"/>
       <c r="C895" s="19"/>
@@ -34280,7 +34280,7 @@
       <c r="AI895" s="19"/>
       <c r="AJ895" s="20"/>
     </row>
-    <row r="896" spans="1:36" ht="7.5" customHeight="1">
+    <row r="896" spans="1:36" ht="8.25" customHeight="1">
       <c r="A896" s="19"/>
       <c r="B896" s="19"/>
       <c r="C896" s="19"/>
@@ -34318,7 +34318,7 @@
       <c r="AI896" s="19"/>
       <c r="AJ896" s="20"/>
     </row>
-    <row r="897" spans="1:36" ht="7.5" customHeight="1">
+    <row r="897" spans="1:36" ht="8.25" customHeight="1">
       <c r="A897" s="19"/>
       <c r="B897" s="19"/>
       <c r="C897" s="19"/>
@@ -34356,7 +34356,7 @@
       <c r="AI897" s="19"/>
       <c r="AJ897" s="20"/>
     </row>
-    <row r="898" spans="1:36" ht="7.5" customHeight="1">
+    <row r="898" spans="1:36" ht="8.25" customHeight="1">
       <c r="A898" s="19"/>
       <c r="B898" s="19"/>
       <c r="C898" s="19"/>
@@ -34394,7 +34394,7 @@
       <c r="AI898" s="19"/>
       <c r="AJ898" s="20"/>
     </row>
-    <row r="899" spans="1:36" ht="7.5" customHeight="1">
+    <row r="899" spans="1:36" ht="8.25" customHeight="1">
       <c r="A899" s="19"/>
       <c r="B899" s="19"/>
       <c r="C899" s="19"/>
@@ -34432,7 +34432,7 @@
       <c r="AI899" s="19"/>
       <c r="AJ899" s="20"/>
     </row>
-    <row r="900" spans="1:36" ht="7.5" customHeight="1">
+    <row r="900" spans="1:36" ht="8.25" customHeight="1">
       <c r="A900" s="19"/>
       <c r="B900" s="19"/>
       <c r="C900" s="19"/>
@@ -34470,7 +34470,7 @@
       <c r="AI900" s="19"/>
       <c r="AJ900" s="20"/>
     </row>
-    <row r="901" spans="1:36" ht="7.5" customHeight="1">
+    <row r="901" spans="1:36" ht="8.25" customHeight="1">
       <c r="A901" s="19"/>
       <c r="B901" s="19"/>
       <c r="C901" s="19"/>
@@ -34508,7 +34508,7 @@
       <c r="AI901" s="19"/>
       <c r="AJ901" s="20"/>
     </row>
-    <row r="902" spans="1:36" ht="7.5" customHeight="1">
+    <row r="902" spans="1:36" ht="8.25" customHeight="1">
       <c r="A902" s="19"/>
       <c r="B902" s="19"/>
       <c r="C902" s="19"/>
@@ -34546,7 +34546,7 @@
       <c r="AI902" s="19"/>
       <c r="AJ902" s="20"/>
     </row>
-    <row r="903" spans="1:36" ht="7.5" customHeight="1">
+    <row r="903" spans="1:36" ht="8.25" customHeight="1">
       <c r="A903" s="19"/>
       <c r="B903" s="19"/>
       <c r="C903" s="19"/>
@@ -34584,7 +34584,7 @@
       <c r="AI903" s="19"/>
       <c r="AJ903" s="20"/>
     </row>
-    <row r="904" spans="1:36" ht="7.5" customHeight="1">
+    <row r="904" spans="1:36" ht="8.25" customHeight="1">
       <c r="A904" s="19"/>
       <c r="B904" s="19"/>
       <c r="C904" s="19"/>
@@ -34622,7 +34622,7 @@
       <c r="AI904" s="19"/>
       <c r="AJ904" s="20"/>
     </row>
-    <row r="905" spans="1:36" ht="7.5" customHeight="1">
+    <row r="905" spans="1:36" ht="8.25" customHeight="1">
       <c r="A905" s="19"/>
       <c r="B905" s="19"/>
       <c r="C905" s="19"/>
@@ -34660,7 +34660,7 @@
       <c r="AI905" s="19"/>
       <c r="AJ905" s="20"/>
     </row>
-    <row r="906" spans="1:36" ht="7.5" customHeight="1">
+    <row r="906" spans="1:36" ht="8.25" customHeight="1">
       <c r="A906" s="19"/>
       <c r="B906" s="19"/>
       <c r="C906" s="19"/>
@@ -34698,7 +34698,7 @@
       <c r="AI906" s="19"/>
       <c r="AJ906" s="20"/>
     </row>
-    <row r="907" spans="1:36" ht="7.5" customHeight="1">
+    <row r="907" spans="1:36" ht="8.25" customHeight="1">
       <c r="A907" s="19"/>
       <c r="B907" s="19"/>
       <c r="C907" s="19"/>
@@ -34736,7 +34736,7 @@
       <c r="AI907" s="19"/>
       <c r="AJ907" s="20"/>
     </row>
-    <row r="908" spans="1:36" ht="7.5" customHeight="1">
+    <row r="908" spans="1:36" ht="8.25" customHeight="1">
       <c r="A908" s="19"/>
       <c r="B908" s="19"/>
       <c r="C908" s="19"/>
@@ -34774,7 +34774,7 @@
       <c r="AI908" s="19"/>
       <c r="AJ908" s="20"/>
     </row>
-    <row r="909" spans="1:36" ht="7.5" customHeight="1">
+    <row r="909" spans="1:36" ht="8.25" customHeight="1">
       <c r="A909" s="19"/>
       <c r="B909" s="19"/>
       <c r="C909" s="19"/>
@@ -34812,7 +34812,7 @@
       <c r="AI909" s="19"/>
       <c r="AJ909" s="20"/>
     </row>
-    <row r="910" spans="1:36" ht="7.5" customHeight="1">
+    <row r="910" spans="1:36" ht="8.25" customHeight="1">
       <c r="A910" s="19"/>
       <c r="B910" s="19"/>
       <c r="C910" s="19"/>
@@ -34850,7 +34850,7 @@
       <c r="AI910" s="19"/>
       <c r="AJ910" s="20"/>
     </row>
-    <row r="911" spans="1:36" ht="7.5" customHeight="1">
+    <row r="911" spans="1:36" ht="8.25" customHeight="1">
       <c r="A911" s="19"/>
       <c r="B911" s="19"/>
       <c r="C911" s="19"/>
@@ -34888,7 +34888,7 @@
       <c r="AI911" s="19"/>
       <c r="AJ911" s="20"/>
     </row>
-    <row r="912" spans="1:36" ht="7.5" customHeight="1">
+    <row r="912" spans="1:36" ht="8.25" customHeight="1">
       <c r="A912" s="19"/>
       <c r="B912" s="19"/>
       <c r="C912" s="19"/>
@@ -34926,7 +34926,7 @@
       <c r="AI912" s="19"/>
       <c r="AJ912" s="20"/>
     </row>
-    <row r="913" spans="1:36" ht="7.5" customHeight="1">
+    <row r="913" spans="1:36" ht="8.25" customHeight="1">
       <c r="A913" s="19"/>
       <c r="B913" s="19"/>
       <c r="C913" s="19"/>
@@ -34964,7 +34964,7 @@
       <c r="AI913" s="19"/>
       <c r="AJ913" s="20"/>
     </row>
-    <row r="914" spans="1:36" ht="7.5" customHeight="1">
+    <row r="914" spans="1:36" ht="8.25" customHeight="1">
       <c r="A914" s="19"/>
       <c r="B914" s="19"/>
       <c r="C914" s="19"/>
@@ -35002,7 +35002,7 @@
       <c r="AI914" s="19"/>
       <c r="AJ914" s="20"/>
     </row>
-    <row r="915" spans="1:36" ht="7.5" customHeight="1">
+    <row r="915" spans="1:36" ht="8.25" customHeight="1">
       <c r="A915" s="19"/>
       <c r="B915" s="19"/>
       <c r="C915" s="19"/>
@@ -35040,7 +35040,7 @@
       <c r="AI915" s="19"/>
       <c r="AJ915" s="20"/>
     </row>
-    <row r="916" spans="1:36" ht="7.5" customHeight="1">
+    <row r="916" spans="1:36" ht="8.25" customHeight="1">
       <c r="A916" s="19"/>
       <c r="B916" s="19"/>
       <c r="C916" s="19"/>
@@ -35078,7 +35078,7 @@
       <c r="AI916" s="19"/>
       <c r="AJ916" s="20"/>
     </row>
-    <row r="917" spans="1:36" ht="7.5" customHeight="1">
+    <row r="917" spans="1:36" ht="8.25" customHeight="1">
       <c r="A917" s="19"/>
       <c r="B917" s="19"/>
       <c r="C917" s="19"/>
@@ -35116,7 +35116,7 @@
       <c r="AI917" s="19"/>
       <c r="AJ917" s="20"/>
     </row>
-    <row r="918" spans="1:36" ht="7.5" customHeight="1">
+    <row r="918" spans="1:36" ht="8.25" customHeight="1">
       <c r="A918" s="19"/>
       <c r="B918" s="19"/>
       <c r="C918" s="19"/>
@@ -35154,7 +35154,7 @@
       <c r="AI918" s="19"/>
       <c r="AJ918" s="20"/>
     </row>
-    <row r="919" spans="1:36" ht="7.5" customHeight="1">
+    <row r="919" spans="1:36" ht="8.25" customHeight="1">
       <c r="A919" s="19"/>
       <c r="B919" s="19"/>
       <c r="C919" s="19"/>
@@ -35192,7 +35192,7 @@
       <c r="AI919" s="19"/>
       <c r="AJ919" s="20"/>
     </row>
-    <row r="920" spans="1:36" ht="7.5" customHeight="1">
+    <row r="920" spans="1:36" ht="8.25" customHeight="1">
       <c r="A920" s="19"/>
       <c r="B920" s="19"/>
       <c r="C920" s="19"/>
@@ -35230,7 +35230,7 @@
       <c r="AI920" s="19"/>
       <c r="AJ920" s="20"/>
     </row>
-    <row r="921" spans="1:36" ht="7.5" customHeight="1">
+    <row r="921" spans="1:36" ht="8.25" customHeight="1">
       <c r="A921" s="19"/>
       <c r="B921" s="19"/>
       <c r="C921" s="19"/>
@@ -35268,7 +35268,7 @@
       <c r="AI921" s="19"/>
       <c r="AJ921" s="20"/>
     </row>
-    <row r="922" spans="1:36" ht="7.5" customHeight="1">
+    <row r="922" spans="1:36" ht="8.25" customHeight="1">
       <c r="A922" s="19"/>
       <c r="B922" s="19"/>
       <c r="C922" s="19"/>
@@ -35306,7 +35306,7 @@
       <c r="AI922" s="19"/>
       <c r="AJ922" s="20"/>
     </row>
-    <row r="923" spans="1:36" ht="7.5" customHeight="1">
+    <row r="923" spans="1:36" ht="8.25" customHeight="1">
       <c r="A923" s="19"/>
       <c r="B923" s="19"/>
       <c r="C923" s="19"/>
@@ -35344,7 +35344,7 @@
       <c r="AI923" s="19"/>
       <c r="AJ923" s="20"/>
     </row>
-    <row r="924" spans="1:36" ht="7.5" customHeight="1">
+    <row r="924" spans="1:36" ht="8.25" customHeight="1">
       <c r="A924" s="19"/>
       <c r="B924" s="19"/>
       <c r="C924" s="19"/>
@@ -35382,7 +35382,7 @@
       <c r="AI924" s="19"/>
       <c r="AJ924" s="20"/>
     </row>
-    <row r="925" spans="1:36" ht="7.5" customHeight="1">
+    <row r="925" spans="1:36" ht="8.25" customHeight="1">
       <c r="A925" s="19"/>
       <c r="B925" s="19"/>
       <c r="C925" s="19"/>
@@ -35420,7 +35420,7 @@
       <c r="AI925" s="19"/>
       <c r="AJ925" s="20"/>
     </row>
-    <row r="926" spans="1:36" ht="7.5" customHeight="1">
+    <row r="926" spans="1:36" ht="8.25" customHeight="1">
       <c r="A926" s="19"/>
       <c r="B926" s="19"/>
       <c r="C926" s="19"/>
@@ -35458,7 +35458,7 @@
       <c r="AI926" s="19"/>
       <c r="AJ926" s="20"/>
     </row>
-    <row r="927" spans="1:36" ht="7.5" customHeight="1">
+    <row r="927" spans="1:36" ht="8.25" customHeight="1">
       <c r="A927" s="19"/>
       <c r="B927" s="19"/>
       <c r="C927" s="19"/>
@@ -35496,7 +35496,7 @@
       <c r="AI927" s="19"/>
       <c r="AJ927" s="20"/>
     </row>
-    <row r="928" spans="1:36" ht="7.5" customHeight="1">
+    <row r="928" spans="1:36" ht="8.25" customHeight="1">
       <c r="A928" s="19"/>
       <c r="B928" s="19"/>
       <c r="C928" s="19"/>
@@ -35534,7 +35534,7 @@
       <c r="AI928" s="19"/>
       <c r="AJ928" s="20"/>
     </row>
-    <row r="929" spans="1:36" ht="7.5" customHeight="1">
+    <row r="929" spans="1:36" ht="8.25" customHeight="1">
       <c r="A929" s="19"/>
       <c r="B929" s="19"/>
       <c r="C929" s="19"/>
@@ -35572,7 +35572,7 @@
       <c r="AI929" s="19"/>
       <c r="AJ929" s="20"/>
     </row>
-    <row r="930" spans="1:36" ht="7.5" customHeight="1">
+    <row r="930" spans="1:36" ht="8.25" customHeight="1">
       <c r="A930" s="19"/>
       <c r="B930" s="19"/>
       <c r="C930" s="19"/>
@@ -35610,7 +35610,7 @@
       <c r="AI930" s="19"/>
       <c r="AJ930" s="20"/>
     </row>
-    <row r="931" spans="1:36" ht="7.5" customHeight="1">
+    <row r="931" spans="1:36" ht="8.25" customHeight="1">
       <c r="A931" s="19"/>
       <c r="B931" s="19"/>
       <c r="C931" s="19"/>
@@ -35648,7 +35648,7 @@
       <c r="AI931" s="19"/>
       <c r="AJ931" s="20"/>
     </row>
-    <row r="932" spans="1:36" ht="7.5" customHeight="1">
+    <row r="932" spans="1:36" ht="8.25" customHeight="1">
       <c r="A932" s="19"/>
       <c r="B932" s="19"/>
       <c r="C932" s="19"/>
@@ -35686,7 +35686,7 @@
       <c r="AI932" s="19"/>
       <c r="AJ932" s="20"/>
     </row>
-    <row r="933" spans="1:36" ht="7.5" customHeight="1">
+    <row r="933" spans="1:36" ht="8.25" customHeight="1">
       <c r="A933" s="19"/>
       <c r="B933" s="19"/>
       <c r="C933" s="19"/>
@@ -35724,7 +35724,7 @@
       <c r="AI933" s="19"/>
       <c r="AJ933" s="20"/>
     </row>
-    <row r="934" spans="1:36" ht="7.5" customHeight="1">
+    <row r="934" spans="1:36" ht="8.25" customHeight="1">
       <c r="A934" s="19"/>
       <c r="B934" s="19"/>
       <c r="C934" s="19"/>
@@ -35762,7 +35762,7 @@
       <c r="AI934" s="19"/>
       <c r="AJ934" s="20"/>
     </row>
-    <row r="935" spans="1:36" ht="7.5" customHeight="1">
+    <row r="935" spans="1:36" ht="8.25" customHeight="1">
       <c r="A935" s="19"/>
       <c r="B935" s="19"/>
       <c r="C935" s="19"/>
@@ -35800,7 +35800,7 @@
       <c r="AI935" s="19"/>
       <c r="AJ935" s="20"/>
     </row>
-    <row r="936" spans="1:36" ht="7.5" customHeight="1">
+    <row r="936" spans="1:36" ht="8.25" customHeight="1">
       <c r="A936" s="19"/>
       <c r="B936" s="19"/>
       <c r="C936" s="19"/>
@@ -35838,7 +35838,7 @@
       <c r="AI936" s="19"/>
       <c r="AJ936" s="20"/>
     </row>
-    <row r="937" spans="1:36" ht="7.5" customHeight="1">
+    <row r="937" spans="1:36" ht="8.25" customHeight="1">
       <c r="A937" s="19"/>
       <c r="B937" s="19"/>
       <c r="C937" s="19"/>
@@ -35876,7 +35876,7 @@
       <c r="AI937" s="19"/>
       <c r="AJ937" s="20"/>
     </row>
-    <row r="938" spans="1:36" ht="7.5" customHeight="1">
+    <row r="938" spans="1:36" ht="8.25" customHeight="1">
       <c r="A938" s="19"/>
       <c r="B938" s="19"/>
       <c r="C938" s="19"/>
@@ -35914,7 +35914,7 @@
       <c r="AI938" s="19"/>
       <c r="AJ938" s="20"/>
     </row>
-    <row r="939" spans="1:36" ht="7.5" customHeight="1">
+    <row r="939" spans="1:36" ht="8.25" customHeight="1">
       <c r="A939" s="19"/>
       <c r="B939" s="19"/>
       <c r="C939" s="19"/>
@@ -35952,7 +35952,7 @@
       <c r="AI939" s="19"/>
       <c r="AJ939" s="20"/>
     </row>
-    <row r="940" spans="1:36" ht="7.5" customHeight="1">
+    <row r="940" spans="1:36" ht="8.25" customHeight="1">
       <c r="A940" s="19"/>
       <c r="B940" s="19"/>
       <c r="C940" s="19"/>
@@ -35990,7 +35990,7 @@
       <c r="AI940" s="19"/>
       <c r="AJ940" s="20"/>
     </row>
-    <row r="941" spans="1:36" ht="7.5" customHeight="1">
+    <row r="941" spans="1:36" ht="8.25" customHeight="1">
       <c r="A941" s="19"/>
       <c r="B941" s="19"/>
       <c r="C941" s="19"/>
@@ -36028,7 +36028,7 @@
       <c r="AI941" s="19"/>
       <c r="AJ941" s="20"/>
     </row>
-    <row r="942" spans="1:36" ht="7.5" customHeight="1">
+    <row r="942" spans="1:36" ht="8.25" customHeight="1">
       <c r="A942" s="19"/>
       <c r="B942" s="19"/>
       <c r="C942" s="19"/>
@@ -36066,7 +36066,7 @@
       <c r="AI942" s="19"/>
       <c r="AJ942" s="20"/>
     </row>
-    <row r="943" spans="1:36" ht="7.5" customHeight="1">
+    <row r="943" spans="1:36" ht="8.25" customHeight="1">
       <c r="A943" s="19"/>
       <c r="B943" s="19"/>
       <c r="C943" s="19"/>
@@ -36104,7 +36104,7 @@
       <c r="AI943" s="19"/>
       <c r="AJ943" s="20"/>
     </row>
-    <row r="944" spans="1:36" ht="7.5" customHeight="1">
+    <row r="944" spans="1:36" ht="8.25" customHeight="1">
       <c r="A944" s="19"/>
       <c r="B944" s="19"/>
       <c r="C944" s="19"/>
@@ -36142,7 +36142,7 @@
       <c r="AI944" s="19"/>
       <c r="AJ944" s="20"/>
     </row>
-    <row r="945" spans="1:36" ht="7.5" customHeight="1">
+    <row r="945" spans="1:36" ht="8.25" customHeight="1">
       <c r="A945" s="19"/>
       <c r="B945" s="19"/>
       <c r="C945" s="19"/>
@@ -36180,7 +36180,7 @@
       <c r="AI945" s="19"/>
       <c r="AJ945" s="20"/>
     </row>
-    <row r="946" spans="1:36" ht="7.5" customHeight="1">
+    <row r="946" spans="1:36" ht="8.25" customHeight="1">
       <c r="A946" s="19"/>
       <c r="B946" s="19"/>
       <c r="C946" s="19"/>
@@ -36218,7 +36218,7 @@
       <c r="AI946" s="19"/>
       <c r="AJ946" s="20"/>
     </row>
-    <row r="947" spans="1:36" ht="7.5" customHeight="1">
+    <row r="947" spans="1:36" ht="8.25" customHeight="1">
       <c r="A947" s="19"/>
       <c r="B947" s="19"/>
       <c r="C947" s="19"/>
@@ -36256,7 +36256,7 @@
       <c r="AI947" s="19"/>
       <c r="AJ947" s="20"/>
     </row>
-    <row r="948" spans="1:36" ht="7.5" customHeight="1">
+    <row r="948" spans="1:36" ht="8.25" customHeight="1">
       <c r="A948" s="19"/>
       <c r="B948" s="19"/>
       <c r="C948" s="19"/>
@@ -36294,7 +36294,7 @@
       <c r="AI948" s="19"/>
       <c r="AJ948" s="20"/>
     </row>
-    <row r="949" spans="1:36" ht="7.5" customHeight="1">
+    <row r="949" spans="1:36" ht="8.25" customHeight="1">
       <c r="A949" s="19"/>
       <c r="B949" s="19"/>
       <c r="C949" s="19"/>
@@ -36332,7 +36332,7 @@
       <c r="AI949" s="19"/>
       <c r="AJ949" s="20"/>
     </row>
-    <row r="950" spans="1:36" ht="7.5" customHeight="1">
+    <row r="950" spans="1:36" ht="8.25" customHeight="1">
       <c r="A950" s="19"/>
       <c r="B950" s="19"/>
       <c r="C950" s="19"/>
@@ -36370,7 +36370,7 @@
       <c r="AI950" s="19"/>
       <c r="AJ950" s="20"/>
     </row>
-    <row r="951" spans="1:36" ht="7.5" customHeight="1">
+    <row r="951" spans="1:36" ht="8.25" customHeight="1">
       <c r="A951" s="19"/>
       <c r="B951" s="19"/>
       <c r="C951" s="19"/>
@@ -36408,7 +36408,7 @@
       <c r="AI951" s="19"/>
       <c r="AJ951" s="20"/>
     </row>
-    <row r="952" spans="1:36" ht="7.5" customHeight="1">
+    <row r="952" spans="1:36" ht="8.25" customHeight="1">
       <c r="A952" s="19"/>
       <c r="B952" s="19"/>
       <c r="C952" s="19"/>
@@ -36446,7 +36446,7 @@
       <c r="AI952" s="19"/>
       <c r="AJ952" s="20"/>
     </row>
-    <row r="953" spans="1:36" ht="7.5" customHeight="1">
+    <row r="953" spans="1:36" ht="8.25" customHeight="1">
       <c r="A953" s="19"/>
       <c r="B953" s="19"/>
       <c r="C953" s="19"/>
@@ -36484,7 +36484,7 @@
       <c r="AI953" s="19"/>
       <c r="AJ953" s="20"/>
     </row>
-    <row r="954" spans="1:36" ht="7.5" customHeight="1">
+    <row r="954" spans="1:36" ht="8.25" customHeight="1">
       <c r="A954" s="19"/>
       <c r="B954" s="19"/>
       <c r="C954" s="19"/>
@@ -36522,7 +36522,7 @@
       <c r="AI954" s="19"/>
       <c r="AJ954" s="20"/>
     </row>
-    <row r="955" spans="1:36" ht="7.5" customHeight="1">
+    <row r="955" spans="1:36" ht="8.25" customHeight="1">
       <c r="A955" s="19"/>
       <c r="B955" s="19"/>
       <c r="C955" s="19"/>
@@ -36560,7 +36560,7 @@
       <c r="AI955" s="19"/>
       <c r="AJ955" s="20"/>
     </row>
-    <row r="956" spans="1:36" ht="7.5" customHeight="1">
+    <row r="956" spans="1:36" ht="8.25" customHeight="1">
       <c r="A956" s="19"/>
       <c r="B956" s="19"/>
       <c r="C956" s="19"/>
@@ -36598,7 +36598,7 @@
       <c r="AI956" s="19"/>
       <c r="AJ956" s="20"/>
     </row>
-    <row r="957" spans="1:36" ht="7.5" customHeight="1">
+    <row r="957" spans="1:36" ht="8.25" customHeight="1">
       <c r="A957" s="19"/>
       <c r="B957" s="19"/>
       <c r="C957" s="19"/>
@@ -36636,7 +36636,7 @@
       <c r="AI957" s="19"/>
       <c r="AJ957" s="20"/>
     </row>
-    <row r="958" spans="1:36" ht="7.5" customHeight="1">
+    <row r="958" spans="1:36" ht="8.25" customHeight="1">
       <c r="A958" s="19"/>
       <c r="B958" s="19"/>
       <c r="C958" s="19"/>
@@ -36674,7 +36674,7 @@
       <c r="AI958" s="19"/>
       <c r="AJ958" s="20"/>
     </row>
-    <row r="959" spans="1:36" ht="7.5" customHeight="1">
+    <row r="959" spans="1:36" ht="8.25" customHeight="1">
       <c r="A959" s="19"/>
       <c r="B959" s="19"/>
       <c r="C959" s="19"/>
@@ -36712,7 +36712,7 @@
       <c r="AI959" s="19"/>
       <c r="AJ959" s="20"/>
     </row>
-    <row r="960" spans="1:36" ht="7.5" customHeight="1">
+    <row r="960" spans="1:36" ht="8.25" customHeight="1">
       <c r="A960" s="19"/>
       <c r="B960" s="19"/>
       <c r="C960" s="19"/>
@@ -36750,7 +36750,7 @@
       <c r="AI960" s="19"/>
       <c r="AJ960" s="20"/>
     </row>
-    <row r="961" spans="1:36" ht="7.5" customHeight="1">
+    <row r="961" spans="1:36" ht="8.25" customHeight="1">
       <c r="A961" s="19"/>
       <c r="B961" s="19"/>
       <c r="C961" s="19"/>
@@ -36788,7 +36788,7 @@
       <c r="AI961" s="19"/>
       <c r="AJ961" s="20"/>
     </row>
-    <row r="962" spans="1:36" ht="7.5" customHeight="1">
+    <row r="962" spans="1:36" ht="8.25" customHeight="1">
       <c r="A962" s="19"/>
       <c r="B962" s="19"/>
       <c r="C962" s="19"/>
@@ -36826,7 +36826,7 @@
       <c r="AI962" s="19"/>
       <c r="AJ962" s="20"/>
     </row>
-    <row r="963" spans="1:36" ht="7.5" customHeight="1">
+    <row r="963" spans="1:36" ht="8.25" customHeight="1">
       <c r="A963" s="19"/>
       <c r="B963" s="19"/>
       <c r="C963" s="19"/>
@@ -36864,7 +36864,7 @@
       <c r="AI963" s="19"/>
       <c r="AJ963" s="20"/>
     </row>
-    <row r="964" spans="1:36" ht="7.5" customHeight="1">
+    <row r="964" spans="1:36" ht="8.25" customHeight="1">
       <c r="A964" s="19"/>
       <c r="B964" s="19"/>
       <c r="C964" s="19"/>
@@ -36902,7 +36902,7 @@
       <c r="AI964" s="19"/>
       <c r="AJ964" s="20"/>
     </row>
-    <row r="965" spans="1:36" ht="7.5" customHeight="1">
+    <row r="965" spans="1:36" ht="8.25" customHeight="1">
       <c r="A965" s="19"/>
       <c r="B965" s="19"/>
       <c r="C965" s="19"/>
@@ -36940,7 +36940,7 @@
       <c r="AI965" s="19"/>
       <c r="AJ965" s="20"/>
     </row>
-    <row r="966" spans="1:36" ht="7.5" customHeight="1">
+    <row r="966" spans="1:36" ht="8.25" customHeight="1">
       <c r="A966" s="19"/>
       <c r="B966" s="19"/>
       <c r="C966" s="19"/>
@@ -36978,7 +36978,7 @@
       <c r="AI966" s="19"/>
       <c r="AJ966" s="20"/>
     </row>
-    <row r="967" spans="1:36" ht="7.5" customHeight="1">
+    <row r="967" spans="1:36" ht="8.25" customHeight="1">
       <c r="A967" s="19"/>
       <c r="B967" s="19"/>
       <c r="C967" s="19"/>
@@ -37016,7 +37016,7 @@
       <c r="AI967" s="19"/>
       <c r="AJ967" s="20"/>
     </row>
-    <row r="968" spans="1:36" ht="7.5" customHeight="1">
+    <row r="968" spans="1:36" ht="8.25" customHeight="1">
       <c r="A968" s="19"/>
       <c r="B968" s="19"/>
       <c r="C968" s="19"/>
@@ -37054,7 +37054,7 @@
       <c r="AI968" s="19"/>
       <c r="AJ968" s="20"/>
     </row>
-    <row r="969" spans="1:36" ht="7.5" customHeight="1">
+    <row r="969" spans="1:36" ht="8.25" customHeight="1">
       <c r="A969" s="19"/>
       <c r="B969" s="19"/>
       <c r="C969" s="19"/>
@@ -37092,7 +37092,7 @@
       <c r="AI969" s="19"/>
       <c r="AJ969" s="20"/>
     </row>
-    <row r="970" spans="1:36" ht="7.5" customHeight="1">
+    <row r="970" spans="1:36" ht="8.25" customHeight="1">
       <c r="A970" s="19"/>
       <c r="B970" s="19"/>
       <c r="C970" s="19"/>
@@ -37130,7 +37130,7 @@
       <c r="AI970" s="19"/>
       <c r="AJ970" s="20"/>
     </row>
-    <row r="971" spans="1:36" ht="7.5" customHeight="1">
+    <row r="971" spans="1:36" ht="8.25" customHeight="1">
       <c r="A971" s="19"/>
       <c r="B971" s="19"/>
       <c r="C971" s="19"/>
@@ -37168,7 +37168,7 @@
       <c r="AI971" s="19"/>
       <c r="AJ971" s="20"/>
     </row>
-    <row r="972" spans="1:36" ht="7.5" customHeight="1">
+    <row r="972" spans="1:36" ht="8.25" customHeight="1">
       <c r="A972" s="19"/>
       <c r="B972" s="19"/>
       <c r="C972" s="19"/>
@@ -37206,7 +37206,7 @@
       <c r="AI972" s="19"/>
       <c r="AJ972" s="20"/>
     </row>
-    <row r="973" spans="1:36" ht="7.5" customHeight="1">
+    <row r="973" spans="1:36" ht="8.25" customHeight="1">
       <c r="A973" s="19"/>
       <c r="B973" s="19"/>
       <c r="C973" s="19"/>
@@ -37244,7 +37244,7 @@
       <c r="AI973" s="19"/>
       <c r="AJ973" s="20"/>
     </row>
-    <row r="974" spans="1:36" ht="7.5" customHeight="1">
+    <row r="974" spans="1:36" ht="8.25" customHeight="1">
       <c r="A974" s="19"/>
       <c r="B974" s="19"/>
       <c r="C974" s="19"/>
@@ -37282,7 +37282,7 @@
       <c r="AI974" s="19"/>
       <c r="AJ974" s="20"/>
     </row>
-    <row r="975" spans="1:36" ht="7.5" customHeight="1">
+    <row r="975" spans="1:36" ht="8.25" customHeight="1">
       <c r="A975" s="19"/>
       <c r="B975" s="19"/>
       <c r="C975" s="19"/>
@@ -37322,84 +37322,67 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="Y46:Z46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="O43:P43"/>
@@ -37424,67 +37407,84 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="Y46:Z46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFFCD47-4647-421E-A49F-744EA2F5AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -62,7 +56,7 @@
     <definedName name="関連表" localSheetId="0">#REF!</definedName>
     <definedName name="電子帳票仕様" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -72,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm"/>
@@ -315,11 +309,26 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -327,28 +336,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_年間勤務台帳" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_年間勤務台帳" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -526,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -720,20 +714,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
   <dimension ref="A1:AMJ975"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="8.25" customHeight="1"/>
   <cols>
@@ -751,12 +745,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -853,36 +847,36 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -909,8 +903,8 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
@@ -937,8 +931,8 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="12"/>
@@ -965,8 +959,8 @@
       <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
@@ -993,8 +987,8 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
@@ -1021,8 +1015,8 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
@@ -1049,8 +1043,8 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
       <c r="E12" s="12"/>
@@ -1077,8 +1071,8 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
@@ -1105,8 +1099,8 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
@@ -1133,8 +1127,8 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
@@ -1161,8 +1155,8 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
@@ -1189,8 +1183,8 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
@@ -1217,8 +1211,8 @@
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
       <c r="E18" s="12"/>
@@ -1245,8 +1239,8 @@
       <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
@@ -1273,8 +1267,8 @@
       <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="12"/>
@@ -1301,8 +1295,8 @@
       <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
@@ -1329,8 +1323,8 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
       <c r="E22" s="12"/>
@@ -1357,8 +1351,8 @@
       <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
@@ -1385,8 +1379,8 @@
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
@@ -1413,8 +1407,8 @@
       <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
@@ -1441,8 +1435,8 @@
       <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
@@ -1469,8 +1463,8 @@
       <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
@@ -1497,8 +1491,8 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="12"/>
@@ -1525,8 +1519,8 @@
       <c r="Z28" s="13"/>
     </row>
     <row r="29" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="8"/>
@@ -1553,8 +1547,8 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="12"/>
@@ -1581,8 +1575,8 @@
       <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
@@ -1609,8 +1603,8 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="12"/>
@@ -1637,8 +1631,8 @@
       <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
@@ -1665,8 +1659,8 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="12"/>
@@ -1693,8 +1687,8 @@
       <c r="Z34" s="13"/>
     </row>
     <row r="35" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="8"/>
@@ -1721,8 +1715,8 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="12"/>
@@ -1749,8 +1743,8 @@
       <c r="Z36" s="13"/>
     </row>
     <row r="37" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="8"/>
@@ -1805,256 +1799,256 @@
       <c r="Z38" s="18"/>
     </row>
     <row r="39" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
     </row>
     <row r="40" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
     </row>
     <row r="41" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
     </row>
     <row r="42" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
     </row>
     <row r="43" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
     </row>
     <row r="44" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
     </row>
     <row r="45" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
     </row>
     <row r="46" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
     </row>
     <row r="47" spans="1:36" ht="8.25" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
     </row>
     <row r="48" spans="1:36" ht="8.25" customHeight="1">
       <c r="A48" s="19"/>
@@ -37322,19 +37316,132 @@
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="S45:T45"/>
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="W45:X45"/>
@@ -37359,132 +37466,19 @@
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR0004.xlsx
@@ -56,7 +56,7 @@
     <definedName name="関連表" localSheetId="0">#REF!</definedName>
     <definedName name="電子帳票仕様" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -729,12 +729,12 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="8.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="10.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1024" width="4.7109375" style="1"/>
+    <col min="1" max="1024" width="5.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="10.5" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -762,7 +762,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="10.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -790,7 +790,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="10.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -818,7 +818,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" ht="8.25" customHeight="1">
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="10.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -846,7 +846,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="8.25" customHeight="1">
+    <row r="5" spans="1:26" ht="10.5" customHeight="1">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="28"/>
@@ -874,7 +874,7 @@
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
     </row>
-    <row r="6" spans="1:26" ht="8.25" customHeight="1">
+    <row r="6" spans="1:26" ht="10.5" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="6"/>
@@ -902,7 +902,7 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="8.25" customHeight="1">
+    <row r="7" spans="1:26" ht="10.5" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="8"/>
@@ -930,7 +930,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="8.25" customHeight="1">
+    <row r="8" spans="1:26" ht="10.5" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="12"/>
@@ -958,7 +958,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:26" ht="8.25" customHeight="1">
+    <row r="9" spans="1:26" ht="10.5" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="8"/>
@@ -986,7 +986,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="8.25" customHeight="1">
+    <row r="10" spans="1:26" ht="10.5" customHeight="1">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="12"/>
@@ -1014,7 +1014,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="8.25" customHeight="1">
+    <row r="11" spans="1:26" ht="10.5" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="8"/>
@@ -1042,7 +1042,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="8.25" customHeight="1">
+    <row r="12" spans="1:26" ht="10.5" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="12"/>
@@ -1070,7 +1070,7 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:26" ht="8.25" customHeight="1">
+    <row r="13" spans="1:26" ht="10.5" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="8"/>
@@ -1098,7 +1098,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="8.25" customHeight="1">
+    <row r="14" spans="1:26" ht="10.5" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="12"/>
@@ -1126,7 +1126,7 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" spans="1:26" ht="8.25" customHeight="1">
+    <row r="15" spans="1:26" ht="10.5" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="8"/>
@@ -1154,7 +1154,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="8.25" customHeight="1">
+    <row r="16" spans="1:26" ht="10.5" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="12"/>
@@ -1182,7 +1182,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:26" ht="8.25" customHeight="1">
+    <row r="17" spans="1:26" ht="10.5" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="8"/>
@@ -1210,7 +1210,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" ht="8.25" customHeight="1">
+    <row r="18" spans="1:26" ht="10.5" customHeight="1">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="12"/>
@@ -1238,7 +1238,7 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" ht="8.25" customHeight="1">
+    <row r="19" spans="1:26" ht="10.5" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="8"/>
@@ -1266,7 +1266,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="8.25" customHeight="1">
+    <row r="20" spans="1:26" ht="10.5" customHeight="1">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="12"/>
@@ -1294,7 +1294,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:26" ht="8.25" customHeight="1">
+    <row r="21" spans="1:26" ht="10.5" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="8"/>
@@ -1322,7 +1322,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="1:26" ht="8.25" customHeight="1">
+    <row r="22" spans="1:26" ht="10.5" customHeight="1">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="12"/>
@@ -1350,7 +1350,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" spans="1:26" ht="8.25" customHeight="1">
+    <row r="23" spans="1:26" ht="10.5" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="8"/>
@@ -1378,7 +1378,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:26" ht="8.25" customHeight="1">
+    <row r="24" spans="1:26" ht="10.5" customHeight="1">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="12"/>
@@ -1406,7 +1406,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" spans="1:26" ht="8.25" customHeight="1">
+    <row r="25" spans="1:26" ht="10.5" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="8"/>
@@ -1434,7 +1434,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:26" ht="8.25" customHeight="1">
+    <row r="26" spans="1:26" ht="10.5" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="12"/>
@@ -1462,7 +1462,7 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:26" ht="8.25" customHeight="1">
+    <row r="27" spans="1:26" ht="10.5" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="8"/>
@@ -1490,7 +1490,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="9"/>
     </row>
-    <row r="28" spans="1:26" ht="8.25" customHeight="1">
+    <row r="28" spans="1:26" ht="10.5" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="12"/>
@@ -1518,7 +1518,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" spans="1:26" ht="8.25" customHeight="1">
+    <row r="29" spans="1:26" ht="10.5" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="8"/>
@@ -1546,7 +1546,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="9"/>
     </row>
-    <row r="30" spans="1:26" ht="8.25" customHeight="1">
+    <row r="30" spans="1:26" ht="10.5" customHeight="1">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="12"/>
@@ -1574,7 +1574,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" ht="8.25" customHeight="1">
+    <row r="31" spans="1:26" ht="10.5" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="8"/>
@@ -1602,7 +1602,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="9"/>
     </row>
-    <row r="32" spans="1:26" ht="8.25" customHeight="1">
+    <row r="32" spans="1:26" ht="10.5" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="12"/>
@@ -1630,7 +1630,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33" spans="1:36" ht="8.25" customHeight="1">
+    <row r="33" spans="1:36" ht="10.5" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="8"/>
@@ -1658,7 +1658,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="1:36" ht="8.25" customHeight="1">
+    <row r="34" spans="1:36" ht="10.5" customHeight="1">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="12"/>
@@ -1686,7 +1686,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35" spans="1:36" ht="8.25" customHeight="1">
+    <row r="35" spans="1:36" ht="10.5" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="8"/>
@@ -1714,7 +1714,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="9"/>
     </row>
-    <row r="36" spans="1:36" ht="8.25" customHeight="1">
+    <row r="36" spans="1:36" ht="10.5" customHeight="1">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="12"/>
@@ -1742,7 +1742,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:36" ht="8.25" customHeight="1">
+    <row r="37" spans="1:36" ht="10.5" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="8"/>
@@ -1770,7 +1770,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="9"/>
     </row>
-    <row r="38" spans="1:36" s="4" customFormat="1" ht="8.25" customHeight="1">
+    <row r="38" spans="1:36" s="4" customFormat="1" ht="10.5" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="18"/>
@@ -1798,7 +1798,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:36" ht="8.25" customHeight="1">
+    <row r="39" spans="1:36" ht="10.5" customHeight="1">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -1826,7 +1826,7 @@
       <c r="Y39" s="25"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:36" ht="8.25" customHeight="1">
+    <row r="40" spans="1:36" ht="10.5" customHeight="1">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="24"/>
@@ -1854,7 +1854,7 @@
       <c r="Y40" s="24"/>
       <c r="Z40" s="24"/>
     </row>
-    <row r="41" spans="1:36" ht="8.25" customHeight="1">
+    <row r="41" spans="1:36" ht="10.5" customHeight="1">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -1882,7 +1882,7 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
     </row>
-    <row r="42" spans="1:36" ht="8.25" customHeight="1">
+    <row r="42" spans="1:36" ht="10.5" customHeight="1">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="24"/>
@@ -1910,7 +1910,7 @@
       <c r="Y42" s="24"/>
       <c r="Z42" s="24"/>
     </row>
-    <row r="43" spans="1:36" ht="8.25" customHeight="1">
+    <row r="43" spans="1:36" ht="10.5" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -1938,7 +1938,7 @@
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
     </row>
-    <row r="44" spans="1:36" ht="8.25" customHeight="1">
+    <row r="44" spans="1:36" ht="10.5" customHeight="1">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
@@ -1966,7 +1966,7 @@
       <c r="Y44" s="24"/>
       <c r="Z44" s="24"/>
     </row>
-    <row r="45" spans="1:36" ht="8.25" customHeight="1">
+    <row r="45" spans="1:36" ht="10.5" customHeight="1">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -1994,7 +1994,7 @@
       <c r="Y45" s="21"/>
       <c r="Z45" s="21"/>
     </row>
-    <row r="46" spans="1:36" ht="8.25" customHeight="1">
+    <row r="46" spans="1:36" ht="10.5" customHeight="1">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
@@ -2022,7 +2022,7 @@
       <c r="Y46" s="24"/>
       <c r="Z46" s="24"/>
     </row>
-    <row r="47" spans="1:36" ht="8.25" customHeight="1">
+    <row r="47" spans="1:36" ht="10.5" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2050,7 +2050,7 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="21"/>
     </row>
-    <row r="48" spans="1:36" ht="8.25" customHeight="1">
+    <row r="48" spans="1:36" ht="10.5" customHeight="1">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -2088,7 +2088,7 @@
       <c r="AI48" s="19"/>
       <c r="AJ48" s="20"/>
     </row>
-    <row r="49" spans="1:36" ht="8.25" customHeight="1">
+    <row r="49" spans="1:36" ht="10.5" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2126,7 +2126,7 @@
       <c r="AI49" s="19"/>
       <c r="AJ49" s="20"/>
     </row>
-    <row r="50" spans="1:36" ht="8.25" customHeight="1">
+    <row r="50" spans="1:36" ht="10.5" customHeight="1">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2164,7 +2164,7 @@
       <c r="AI50" s="19"/>
       <c r="AJ50" s="20"/>
     </row>
-    <row r="51" spans="1:36" ht="8.25" customHeight="1">
+    <row r="51" spans="1:36" ht="10.5" customHeight="1">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2202,7 +2202,7 @@
       <c r="AI51" s="19"/>
       <c r="AJ51" s="20"/>
     </row>
-    <row r="52" spans="1:36" ht="8.25" customHeight="1">
+    <row r="52" spans="1:36" ht="10.5" customHeight="1">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2240,7 +2240,7 @@
       <c r="AI52" s="19"/>
       <c r="AJ52" s="20"/>
     </row>
-    <row r="53" spans="1:36" ht="8.25" customHeight="1">
+    <row r="53" spans="1:36" ht="10.5" customHeight="1">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2278,7 +2278,7 @@
       <c r="AI53" s="19"/>
       <c r="AJ53" s="20"/>
     </row>
-    <row r="54" spans="1:36" ht="8.25" customHeight="1">
+    <row r="54" spans="1:36" ht="10.5" customHeight="1">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2316,7 +2316,7 @@
       <c r="AI54" s="19"/>
       <c r="AJ54" s="20"/>
     </row>
-    <row r="55" spans="1:36" ht="8.25" customHeight="1">
+    <row r="55" spans="1:36" ht="10.5" customHeight="1">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2354,7 +2354,7 @@
       <c r="AI55" s="19"/>
       <c r="AJ55" s="20"/>
     </row>
-    <row r="56" spans="1:36" ht="8.25" customHeight="1">
+    <row r="56" spans="1:36" ht="10.5" customHeight="1">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -2392,7 +2392,7 @@
       <c r="AI56" s="19"/>
       <c r="AJ56" s="20"/>
     </row>
-    <row r="57" spans="1:36" ht="8.25" customHeight="1">
+    <row r="57" spans="1:36" ht="10.5" customHeight="1">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2430,7 +2430,7 @@
       <c r="AI57" s="19"/>
       <c r="AJ57" s="20"/>
     </row>
-    <row r="58" spans="1:36" ht="8.25" customHeight="1">
+    <row r="58" spans="1:36" ht="10.5" customHeight="1">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -2468,7 +2468,7 @@
       <c r="AI58" s="19"/>
       <c r="AJ58" s="20"/>
     </row>
-    <row r="59" spans="1:36" ht="8.25" customHeight="1">
+    <row r="59" spans="1:36" ht="10.5" customHeight="1">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -2506,7 +2506,7 @@
       <c r="AI59" s="19"/>
       <c r="AJ59" s="20"/>
     </row>
-    <row r="60" spans="1:36" ht="8.25" customHeight="1">
+    <row r="60" spans="1:36" ht="10.5" customHeight="1">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -2544,7 +2544,7 @@
       <c r="AI60" s="19"/>
       <c r="AJ60" s="20"/>
     </row>
-    <row r="61" spans="1:36" ht="8.25" customHeight="1">
+    <row r="61" spans="1:36" ht="10.5" customHeight="1">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -2582,7 +2582,7 @@
       <c r="AI61" s="19"/>
       <c r="AJ61" s="20"/>
     </row>
-    <row r="62" spans="1:36" ht="8.25" customHeight="1">
+    <row r="62" spans="1:36" ht="10.5" customHeight="1">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -2620,7 +2620,7 @@
       <c r="AI62" s="19"/>
       <c r="AJ62" s="20"/>
     </row>
-    <row r="63" spans="1:36" ht="8.25" customHeight="1">
+    <row r="63" spans="1:36" ht="10.5" customHeight="1">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -2658,7 +2658,7 @@
       <c r="AI63" s="19"/>
       <c r="AJ63" s="20"/>
     </row>
-    <row r="64" spans="1:36" ht="8.25" customHeight="1">
+    <row r="64" spans="1:36" ht="10.5" customHeight="1">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -2696,7 +2696,7 @@
       <c r="AI64" s="19"/>
       <c r="AJ64" s="20"/>
     </row>
-    <row r="65" spans="1:36" ht="8.25" customHeight="1">
+    <row r="65" spans="1:36" ht="10.5" customHeight="1">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -2734,7 +2734,7 @@
       <c r="AI65" s="19"/>
       <c r="AJ65" s="20"/>
     </row>
-    <row r="66" spans="1:36" ht="8.25" customHeight="1">
+    <row r="66" spans="1:36" ht="10.5" customHeight="1">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -2772,7 +2772,7 @@
       <c r="AI66" s="19"/>
       <c r="AJ66" s="20"/>
     </row>
-    <row r="67" spans="1:36" ht="8.25" customHeight="1">
+    <row r="67" spans="1:36" ht="10.5" customHeight="1">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -2810,7 +2810,7 @@
       <c r="AI67" s="19"/>
       <c r="AJ67" s="20"/>
     </row>
-    <row r="68" spans="1:36" ht="8.25" customHeight="1">
+    <row r="68" spans="1:36" ht="10.5" customHeight="1">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -2848,7 +2848,7 @@
       <c r="AI68" s="19"/>
       <c r="AJ68" s="20"/>
     </row>
-    <row r="69" spans="1:36" ht="8.25" customHeight="1">
+    <row r="69" spans="1:36" ht="10.5" customHeight="1">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -2886,7 +2886,7 @@
       <c r="AI69" s="19"/>
       <c r="AJ69" s="20"/>
     </row>
-    <row r="70" spans="1:36" ht="8.25" customHeight="1">
+    <row r="70" spans="1:36" ht="10.5" customHeight="1">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -2924,7 +2924,7 @@
       <c r="AI70" s="19"/>
       <c r="AJ70" s="20"/>
     </row>
-    <row r="71" spans="1:36" ht="8.25" customHeight="1">
+    <row r="71" spans="1:36" ht="10.5" customHeight="1">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -2962,7 +2962,7 @@
       <c r="AI71" s="19"/>
       <c r="AJ71" s="20"/>
     </row>
-    <row r="72" spans="1:36" ht="8.25" customHeight="1">
+    <row r="72" spans="1:36" ht="10.5" customHeight="1">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -3000,7 +3000,7 @@
       <c r="AI72" s="19"/>
       <c r="AJ72" s="20"/>
     </row>
-    <row r="73" spans="1:36" ht="8.25" customHeight="1">
+    <row r="73" spans="1:36" ht="10.5" customHeight="1">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -3038,7 +3038,7 @@
       <c r="AI73" s="19"/>
       <c r="AJ73" s="20"/>
     </row>
-    <row r="74" spans="1:36" ht="8.25" customHeight="1">
+    <row r="74" spans="1:36" ht="10.5" customHeight="1">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3076,7 +3076,7 @@
       <c r="AI74" s="19"/>
       <c r="AJ74" s="20"/>
     </row>
-    <row r="75" spans="1:36" ht="8.25" customHeight="1">
+    <row r="75" spans="1:36" ht="10.5" customHeight="1">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -3114,7 +3114,7 @@
       <c r="AI75" s="19"/>
       <c r="AJ75" s="20"/>
     </row>
-    <row r="76" spans="1:36" ht="8.25" customHeight="1">
+    <row r="76" spans="1:36" ht="10.5" customHeight="1">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -3152,7 +3152,7 @@
       <c r="AI76" s="19"/>
       <c r="AJ76" s="20"/>
     </row>
-    <row r="77" spans="1:36" ht="8.25" customHeight="1">
+    <row r="77" spans="1:36" ht="10.5" customHeight="1">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -3190,7 +3190,7 @@
       <c r="AI77" s="19"/>
       <c r="AJ77" s="20"/>
     </row>
-    <row r="78" spans="1:36" ht="8.25" customHeight="1">
+    <row r="78" spans="1:36" ht="10.5" customHeight="1">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -3228,7 +3228,7 @@
       <c r="AI78" s="19"/>
       <c r="AJ78" s="20"/>
     </row>
-    <row r="79" spans="1:36" ht="8.25" customHeight="1">
+    <row r="79" spans="1:36" ht="10.5" customHeight="1">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -3266,7 +3266,7 @@
       <c r="AI79" s="19"/>
       <c r="AJ79" s="20"/>
     </row>
-    <row r="80" spans="1:36" ht="8.25" customHeight="1">
+    <row r="80" spans="1:36" ht="10.5" customHeight="1">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -3304,7 +3304,7 @@
       <c r="AI80" s="19"/>
       <c r="AJ80" s="20"/>
     </row>
-    <row r="81" spans="1:36" ht="8.25" customHeight="1">
+    <row r="81" spans="1:36" ht="10.5" customHeight="1">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -3342,7 +3342,7 @@
       <c r="AI81" s="19"/>
       <c r="AJ81" s="20"/>
     </row>
-    <row r="82" spans="1:36" ht="8.25" customHeight="1">
+    <row r="82" spans="1:36" ht="10.5" customHeight="1">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -3380,7 +3380,7 @@
       <c r="AI82" s="19"/>
       <c r="AJ82" s="20"/>
     </row>
-    <row r="83" spans="1:36" ht="8.25" customHeight="1">
+    <row r="83" spans="1:36" ht="10.5" customHeight="1">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -3418,7 +3418,7 @@
       <c r="AI83" s="19"/>
       <c r="AJ83" s="20"/>
     </row>
-    <row r="84" spans="1:36" ht="8.25" customHeight="1">
+    <row r="84" spans="1:36" ht="10.5" customHeight="1">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -3456,7 +3456,7 @@
       <c r="AI84" s="19"/>
       <c r="AJ84" s="20"/>
     </row>
-    <row r="85" spans="1:36" ht="8.25" customHeight="1">
+    <row r="85" spans="1:36" ht="10.5" customHeight="1">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -3494,7 +3494,7 @@
       <c r="AI85" s="19"/>
       <c r="AJ85" s="20"/>
     </row>
-    <row r="86" spans="1:36" ht="8.25" customHeight="1">
+    <row r="86" spans="1:36" ht="10.5" customHeight="1">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -3532,7 +3532,7 @@
       <c r="AI86" s="19"/>
       <c r="AJ86" s="20"/>
     </row>
-    <row r="87" spans="1:36" ht="8.25" customHeight="1">
+    <row r="87" spans="1:36" ht="10.5" customHeight="1">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -3570,7 +3570,7 @@
       <c r="AI87" s="19"/>
       <c r="AJ87" s="20"/>
     </row>
-    <row r="88" spans="1:36" ht="8.25" customHeight="1">
+    <row r="88" spans="1:36" ht="10.5" customHeight="1">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -3608,7 +3608,7 @@
       <c r="AI88" s="19"/>
       <c r="AJ88" s="20"/>
     </row>
-    <row r="89" spans="1:36" ht="8.25" customHeight="1">
+    <row r="89" spans="1:36" ht="10.5" customHeight="1">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -3646,7 +3646,7 @@
       <c r="AI89" s="19"/>
       <c r="AJ89" s="20"/>
     </row>
-    <row r="90" spans="1:36" ht="8.25" customHeight="1">
+    <row r="90" spans="1:36" ht="10.5" customHeight="1">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -3684,7 +3684,7 @@
       <c r="AI90" s="19"/>
       <c r="AJ90" s="20"/>
     </row>
-    <row r="91" spans="1:36" ht="8.25" customHeight="1">
+    <row r="91" spans="1:36" ht="10.5" customHeight="1">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -3722,7 +3722,7 @@
       <c r="AI91" s="19"/>
       <c r="AJ91" s="20"/>
     </row>
-    <row r="92" spans="1:36" ht="8.25" customHeight="1">
+    <row r="92" spans="1:36" ht="10.5" customHeight="1">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -3760,7 +3760,7 @@
       <c r="AI92" s="19"/>
       <c r="AJ92" s="20"/>
     </row>
-    <row r="93" spans="1:36" ht="8.25" customHeight="1">
+    <row r="93" spans="1:36" ht="10.5" customHeight="1">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -3798,7 +3798,7 @@
       <c r="AI93" s="19"/>
       <c r="AJ93" s="20"/>
     </row>
-    <row r="94" spans="1:36" ht="8.25" customHeight="1">
+    <row r="94" spans="1:36" ht="10.5" customHeight="1">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -3836,7 +3836,7 @@
       <c r="AI94" s="19"/>
       <c r="AJ94" s="20"/>
     </row>
-    <row r="95" spans="1:36" ht="8.25" customHeight="1">
+    <row r="95" spans="1:36" ht="10.5" customHeight="1">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -3874,7 +3874,7 @@
       <c r="AI95" s="19"/>
       <c r="AJ95" s="20"/>
     </row>
-    <row r="96" spans="1:36" ht="8.25" customHeight="1">
+    <row r="96" spans="1:36" ht="10.5" customHeight="1">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -3912,7 +3912,7 @@
       <c r="AI96" s="19"/>
       <c r="AJ96" s="20"/>
     </row>
-    <row r="97" spans="1:36" ht="8.25" customHeight="1">
+    <row r="97" spans="1:36" ht="10.5" customHeight="1">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -3950,7 +3950,7 @@
       <c r="AI97" s="19"/>
       <c r="AJ97" s="20"/>
     </row>
-    <row r="98" spans="1:36" ht="8.25" customHeight="1">
+    <row r="98" spans="1:36" ht="10.5" customHeight="1">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
@@ -3988,7 +3988,7 @@
       <c r="AI98" s="19"/>
       <c r="AJ98" s="20"/>
     </row>
-    <row r="99" spans="1:36" ht="8.25" customHeight="1">
+    <row r="99" spans="1:36" ht="10.5" customHeight="1">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -4026,7 +4026,7 @@
       <c r="AI99" s="19"/>
       <c r="AJ99" s="20"/>
     </row>
-    <row r="100" spans="1:36" ht="8.25" customHeight="1">
+    <row r="100" spans="1:36" ht="10.5" customHeight="1">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -4064,7 +4064,7 @@
       <c r="AI100" s="19"/>
       <c r="AJ100" s="20"/>
     </row>
-    <row r="101" spans="1:36" ht="8.25" customHeight="1">
+    <row r="101" spans="1:36" ht="10.5" customHeight="1">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -4102,7 +4102,7 @@
       <c r="AI101" s="19"/>
       <c r="AJ101" s="20"/>
     </row>
-    <row r="102" spans="1:36" ht="8.25" customHeight="1">
+    <row r="102" spans="1:36" ht="10.5" customHeight="1">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -4140,7 +4140,7 @@
       <c r="AI102" s="19"/>
       <c r="AJ102" s="20"/>
     </row>
-    <row r="103" spans="1:36" ht="8.25" customHeight="1">
+    <row r="103" spans="1:36" ht="10.5" customHeight="1">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -4178,7 +4178,7 @@
       <c r="AI103" s="19"/>
       <c r="AJ103" s="20"/>
     </row>
-    <row r="104" spans="1:36" ht="8.25" customHeight="1">
+    <row r="104" spans="1:36" ht="10.5" customHeight="1">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -4216,7 +4216,7 @@
       <c r="AI104" s="19"/>
       <c r="AJ104" s="20"/>
     </row>
-    <row r="105" spans="1:36" ht="8.25" customHeight="1">
+    <row r="105" spans="1:36" ht="10.5" customHeight="1">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -4254,7 +4254,7 @@
       <c r="AI105" s="19"/>
       <c r="AJ105" s="20"/>
     </row>
-    <row r="106" spans="1:36" ht="8.25" customHeight="1">
+    <row r="106" spans="1:36" ht="10.5" customHeight="1">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -4292,7 +4292,7 @@
       <c r="AI106" s="19"/>
       <c r="AJ106" s="20"/>
     </row>
-    <row r="107" spans="1:36" ht="8.25" customHeight="1">
+    <row r="107" spans="1:36" ht="10.5" customHeight="1">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -4330,7 +4330,7 @@
       <c r="AI107" s="19"/>
       <c r="AJ107" s="20"/>
     </row>
-    <row r="108" spans="1:36" ht="8.25" customHeight="1">
+    <row r="108" spans="1:36" ht="10.5" customHeight="1">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -4368,7 +4368,7 @@
       <c r="AI108" s="19"/>
       <c r="AJ108" s="20"/>
     </row>
-    <row r="109" spans="1:36" ht="8.25" customHeight="1">
+    <row r="109" spans="1:36" ht="10.5" customHeight="1">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -4406,7 +4406,7 @@
       <c r="AI109" s="19"/>
       <c r="AJ109" s="20"/>
     </row>
-    <row r="110" spans="1:36" ht="8.25" customHeight="1">
+    <row r="110" spans="1:36" ht="10.5" customHeight="1">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -4444,7 +4444,7 @@
       <c r="AI110" s="19"/>
       <c r="AJ110" s="20"/>
     </row>
-    <row r="111" spans="1:36" ht="8.25" customHeight="1">
+    <row r="111" spans="1:36" ht="10.5" customHeight="1">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -4482,7 +4482,7 @@
       <c r="AI111" s="19"/>
       <c r="AJ111" s="20"/>
     </row>
-    <row r="112" spans="1:36" ht="8.25" customHeight="1">
+    <row r="112" spans="1:36" ht="10.5" customHeight="1">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -4520,7 +4520,7 @@
       <c r="AI112" s="19"/>
       <c r="AJ112" s="20"/>
     </row>
-    <row r="113" spans="1:36" ht="8.25" customHeight="1">
+    <row r="113" spans="1:36" ht="10.5" customHeight="1">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -4558,7 +4558,7 @@
       <c r="AI113" s="19"/>
       <c r="AJ113" s="20"/>
     </row>
-    <row r="114" spans="1:36" ht="8.25" customHeight="1">
+    <row r="114" spans="1:36" ht="10.5" customHeight="1">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -4596,7 +4596,7 @@
       <c r="AI114" s="19"/>
       <c r="AJ114" s="20"/>
     </row>
-    <row r="115" spans="1:36" ht="8.25" customHeight="1">
+    <row r="115" spans="1:36" ht="10.5" customHeight="1">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -4634,7 +4634,7 @@
       <c r="AI115" s="19"/>
       <c r="AJ115" s="20"/>
     </row>
-    <row r="116" spans="1:36" ht="8.25" customHeight="1">
+    <row r="116" spans="1:36" ht="10.5" customHeight="1">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -4672,7 +4672,7 @@
       <c r="AI116" s="19"/>
       <c r="AJ116" s="20"/>
     </row>
-    <row r="117" spans="1:36" ht="8.25" customHeight="1">
+    <row r="117" spans="1:36" ht="10.5" customHeight="1">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -4710,7 +4710,7 @@
       <c r="AI117" s="19"/>
       <c r="AJ117" s="20"/>
     </row>
-    <row r="118" spans="1:36" ht="8.25" customHeight="1">
+    <row r="118" spans="1:36" ht="10.5" customHeight="1">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -4748,7 +4748,7 @@
       <c r="AI118" s="19"/>
       <c r="AJ118" s="20"/>
     </row>
-    <row r="119" spans="1:36" ht="8.25" customHeight="1">
+    <row r="119" spans="1:36" ht="10.5" customHeight="1">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -4786,7 +4786,7 @@
       <c r="AI119" s="19"/>
       <c r="AJ119" s="20"/>
     </row>
-    <row r="120" spans="1:36" ht="8.25" customHeight="1">
+    <row r="120" spans="1:36" ht="10.5" customHeight="1">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -4824,7 +4824,7 @@
       <c r="AI120" s="19"/>
       <c r="AJ120" s="20"/>
     </row>
-    <row r="121" spans="1:36" ht="8.25" customHeight="1">
+    <row r="121" spans="1:36" ht="10.5" customHeight="1">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -4862,7 +4862,7 @@
       <c r="AI121" s="19"/>
       <c r="AJ121" s="20"/>
     </row>
-    <row r="122" spans="1:36" ht="8.25" customHeight="1">
+    <row r="122" spans="1:36" ht="10.5" customHeight="1">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -4900,7 +4900,7 @@
       <c r="AI122" s="19"/>
       <c r="AJ122" s="20"/>
     </row>
-    <row r="123" spans="1:36" ht="8.25" customHeight="1">
+    <row r="123" spans="1:36" ht="10.5" customHeight="1">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -4938,7 +4938,7 @@
       <c r="AI123" s="19"/>
       <c r="AJ123" s="20"/>
     </row>
-    <row r="124" spans="1:36" ht="8.25" customHeight="1">
+    <row r="124" spans="1:36" ht="10.5" customHeight="1">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -4976,7 +4976,7 @@
       <c r="AI124" s="19"/>
       <c r="AJ124" s="20"/>
     </row>
-    <row r="125" spans="1:36" ht="8.25" customHeight="1">
+    <row r="125" spans="1:36" ht="10.5" customHeight="1">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -5014,7 +5014,7 @@
       <c r="AI125" s="19"/>
       <c r="AJ125" s="20"/>
     </row>
-    <row r="126" spans="1:36" ht="8.25" customHeight="1">
+    <row r="126" spans="1:36" ht="10.5" customHeight="1">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -5052,7 +5052,7 @@
       <c r="AI126" s="19"/>
       <c r="AJ126" s="20"/>
     </row>
-    <row r="127" spans="1:36" ht="8.25" customHeight="1">
+    <row r="127" spans="1:36" ht="10.5" customHeight="1">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -5090,7 +5090,7 @@
       <c r="AI127" s="19"/>
       <c r="AJ127" s="20"/>
     </row>
-    <row r="128" spans="1:36" ht="8.25" customHeight="1">
+    <row r="128" spans="1:36" ht="10.5" customHeight="1">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -5128,7 +5128,7 @@
       <c r="AI128" s="19"/>
       <c r="AJ128" s="20"/>
     </row>
-    <row r="129" spans="1:36" ht="8.25" customHeight="1">
+    <row r="129" spans="1:36" ht="10.5" customHeight="1">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -5166,7 +5166,7 @@
       <c r="AI129" s="19"/>
       <c r="AJ129" s="20"/>
     </row>
-    <row r="130" spans="1:36" ht="8.25" customHeight="1">
+    <row r="130" spans="1:36" ht="10.5" customHeight="1">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -5204,7 +5204,7 @@
       <c r="AI130" s="19"/>
       <c r="AJ130" s="20"/>
     </row>
-    <row r="131" spans="1:36" ht="8.25" customHeight="1">
+    <row r="131" spans="1:36" ht="10.5" customHeight="1">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -5242,7 +5242,7 @@
       <c r="AI131" s="19"/>
       <c r="AJ131" s="20"/>
     </row>
-    <row r="132" spans="1:36" ht="8.25" customHeight="1">
+    <row r="132" spans="1:36" ht="10.5" customHeight="1">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -5280,7 +5280,7 @@
       <c r="AI132" s="19"/>
       <c r="AJ132" s="20"/>
     </row>
-    <row r="133" spans="1:36" ht="8.25" customHeight="1">
+    <row r="133" spans="1:36" ht="10.5" customHeight="1">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -5318,7 +5318,7 @@
       <c r="AI133" s="19"/>
       <c r="AJ133" s="20"/>
     </row>
-    <row r="134" spans="1:36" ht="8.25" customHeight="1">
+    <row r="134" spans="1:36" ht="10.5" customHeight="1">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -5356,7 +5356,7 @@
       <c r="AI134" s="19"/>
       <c r="AJ134" s="20"/>
     </row>
-    <row r="135" spans="1:36" ht="8.25" customHeight="1">
+    <row r="135" spans="1:36" ht="10.5" customHeight="1">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -5394,7 +5394,7 @@
       <c r="AI135" s="19"/>
       <c r="AJ135" s="20"/>
     </row>
-    <row r="136" spans="1:36" ht="8.25" customHeight="1">
+    <row r="136" spans="1:36" ht="10.5" customHeight="1">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -5432,7 +5432,7 @@
       <c r="AI136" s="19"/>
       <c r="AJ136" s="20"/>
     </row>
-    <row r="137" spans="1:36" ht="8.25" customHeight="1">
+    <row r="137" spans="1:36" ht="10.5" customHeight="1">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -5470,7 +5470,7 @@
       <c r="AI137" s="19"/>
       <c r="AJ137" s="20"/>
     </row>
-    <row r="138" spans="1:36" ht="8.25" customHeight="1">
+    <row r="138" spans="1:36" ht="10.5" customHeight="1">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -5508,7 +5508,7 @@
       <c r="AI138" s="19"/>
       <c r="AJ138" s="20"/>
     </row>
-    <row r="139" spans="1:36" ht="8.25" customHeight="1">
+    <row r="139" spans="1:36" ht="10.5" customHeight="1">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -5546,7 +5546,7 @@
       <c r="AI139" s="19"/>
       <c r="AJ139" s="20"/>
     </row>
-    <row r="140" spans="1:36" ht="8.25" customHeight="1">
+    <row r="140" spans="1:36" ht="10.5" customHeight="1">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -5584,7 +5584,7 @@
       <c r="AI140" s="19"/>
       <c r="AJ140" s="20"/>
     </row>
-    <row r="141" spans="1:36" ht="8.25" customHeight="1">
+    <row r="141" spans="1:36" ht="10.5" customHeight="1">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -5622,7 +5622,7 @@
       <c r="AI141" s="19"/>
       <c r="AJ141" s="20"/>
     </row>
-    <row r="142" spans="1:36" ht="8.25" customHeight="1">
+    <row r="142" spans="1:36" ht="10.5" customHeight="1">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -5660,7 +5660,7 @@
       <c r="AI142" s="19"/>
       <c r="AJ142" s="20"/>
     </row>
-    <row r="143" spans="1:36" ht="8.25" customHeight="1">
+    <row r="143" spans="1:36" ht="10.5" customHeight="1">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -5698,7 +5698,7 @@
       <c r="AI143" s="19"/>
       <c r="AJ143" s="20"/>
     </row>
-    <row r="144" spans="1:36" ht="8.25" customHeight="1">
+    <row r="144" spans="1:36" ht="10.5" customHeight="1">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -5736,7 +5736,7 @@
       <c r="AI144" s="19"/>
       <c r="AJ144" s="20"/>
     </row>
-    <row r="145" spans="1:36" ht="8.25" customHeight="1">
+    <row r="145" spans="1:36" ht="10.5" customHeight="1">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -5774,7 +5774,7 @@
       <c r="AI145" s="19"/>
       <c r="AJ145" s="20"/>
     </row>
-    <row r="146" spans="1:36" ht="8.25" customHeight="1">
+    <row r="146" spans="1:36" ht="10.5" customHeight="1">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -5812,7 +5812,7 @@
       <c r="AI146" s="19"/>
       <c r="AJ146" s="20"/>
     </row>
-    <row r="147" spans="1:36" ht="8.25" customHeight="1">
+    <row r="147" spans="1:36" ht="10.5" customHeight="1">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -5850,7 +5850,7 @@
       <c r="AI147" s="19"/>
       <c r="AJ147" s="20"/>
     </row>
-    <row r="148" spans="1:36" ht="8.25" customHeight="1">
+    <row r="148" spans="1:36" ht="10.5" customHeight="1">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -5888,7 +5888,7 @@
       <c r="AI148" s="19"/>
       <c r="AJ148" s="20"/>
     </row>
-    <row r="149" spans="1:36" ht="8.25" customHeight="1">
+    <row r="149" spans="1:36" ht="10.5" customHeight="1">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -5926,7 +5926,7 @@
       <c r="AI149" s="19"/>
       <c r="AJ149" s="20"/>
     </row>
-    <row r="150" spans="1:36" ht="8.25" customHeight="1">
+    <row r="150" spans="1:36" ht="10.5" customHeight="1">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -5964,7 +5964,7 @@
       <c r="AI150" s="19"/>
       <c r="AJ150" s="20"/>
     </row>
-    <row r="151" spans="1:36" ht="8.25" customHeight="1">
+    <row r="151" spans="1:36" ht="10.5" customHeight="1">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -6002,7 +6002,7 @@
       <c r="AI151" s="19"/>
       <c r="AJ151" s="20"/>
     </row>
-    <row r="152" spans="1:36" ht="8.25" customHeight="1">
+    <row r="152" spans="1:36" ht="10.5" customHeight="1">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
@@ -6040,7 +6040,7 @@
       <c r="AI152" s="19"/>
       <c r="AJ152" s="20"/>
     </row>
-    <row r="153" spans="1:36" ht="8.25" customHeight="1">
+    <row r="153" spans="1:36" ht="10.5" customHeight="1">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -6078,7 +6078,7 @@
       <c r="AI153" s="19"/>
       <c r="AJ153" s="20"/>
     </row>
-    <row r="154" spans="1:36" ht="8.25" customHeight="1">
+    <row r="154" spans="1:36" ht="10.5" customHeight="1">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -6116,7 +6116,7 @@
       <c r="AI154" s="19"/>
       <c r="AJ154" s="20"/>
     </row>
-    <row r="155" spans="1:36" ht="8.25" customHeight="1">
+    <row r="155" spans="1:36" ht="10.5" customHeight="1">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
@@ -6154,7 +6154,7 @@
       <c r="AI155" s="19"/>
       <c r="AJ155" s="20"/>
     </row>
-    <row r="156" spans="1:36" ht="8.25" customHeight="1">
+    <row r="156" spans="1:36" ht="10.5" customHeight="1">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -6192,7 +6192,7 @@
       <c r="AI156" s="19"/>
       <c r="AJ156" s="20"/>
     </row>
-    <row r="157" spans="1:36" ht="8.25" customHeight="1">
+    <row r="157" spans="1:36" ht="10.5" customHeight="1">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -6230,7 +6230,7 @@
       <c r="AI157" s="19"/>
       <c r="AJ157" s="20"/>
     </row>
-    <row r="158" spans="1:36" ht="8.25" customHeight="1">
+    <row r="158" spans="1:36" ht="10.5" customHeight="1">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
@@ -6268,7 +6268,7 @@
       <c r="AI158" s="19"/>
       <c r="AJ158" s="20"/>
     </row>
-    <row r="159" spans="1:36" ht="8.25" customHeight="1">
+    <row r="159" spans="1:36" ht="10.5" customHeight="1">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -6306,7 +6306,7 @@
       <c r="AI159" s="19"/>
       <c r="AJ159" s="20"/>
     </row>
-    <row r="160" spans="1:36" ht="8.25" customHeight="1">
+    <row r="160" spans="1:36" ht="10.5" customHeight="1">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -6344,7 +6344,7 @@
       <c r="AI160" s="19"/>
       <c r="AJ160" s="20"/>
     </row>
-    <row r="161" spans="1:36" ht="8.25" customHeight="1">
+    <row r="161" spans="1:36" ht="10.5" customHeight="1">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -6382,7 +6382,7 @@
       <c r="AI161" s="19"/>
       <c r="AJ161" s="20"/>
     </row>
-    <row r="162" spans="1:36" ht="8.25" customHeight="1">
+    <row r="162" spans="1:36" ht="10.5" customHeight="1">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -6420,7 +6420,7 @@
       <c r="AI162" s="19"/>
       <c r="AJ162" s="20"/>
     </row>
-    <row r="163" spans="1:36" ht="8.25" customHeight="1">
+    <row r="163" spans="1:36" ht="10.5" customHeight="1">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -6458,7 +6458,7 @@
       <c r="AI163" s="19"/>
       <c r="AJ163" s="20"/>
     </row>
-    <row r="164" spans="1:36" ht="8.25" customHeight="1">
+    <row r="164" spans="1:36" ht="10.5" customHeight="1">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -6496,7 +6496,7 @@
       <c r="AI164" s="19"/>
       <c r="AJ164" s="20"/>
     </row>
-    <row r="165" spans="1:36" ht="8.25" customHeight="1">
+    <row r="165" spans="1:36" ht="10.5" customHeight="1">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -6534,7 +6534,7 @@
       <c r="AI165" s="19"/>
       <c r="AJ165" s="20"/>
     </row>
-    <row r="166" spans="1:36" ht="8.25" customHeight="1">
+    <row r="166" spans="1:36" ht="10.5" customHeight="1">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -6572,7 +6572,7 @@
       <c r="AI166" s="19"/>
       <c r="AJ166" s="20"/>
     </row>
-    <row r="167" spans="1:36" ht="8.25" customHeight="1">
+    <row r="167" spans="1:36" ht="10.5" customHeight="1">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -6610,7 +6610,7 @@
       <c r="AI167" s="19"/>
       <c r="AJ167" s="20"/>
     </row>
-    <row r="168" spans="1:36" ht="8.25" customHeight="1">
+    <row r="168" spans="1:36" ht="10.5" customHeight="1">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -6648,7 +6648,7 @@
       <c r="AI168" s="19"/>
       <c r="AJ168" s="20"/>
     </row>
-    <row r="169" spans="1:36" ht="8.25" customHeight="1">
+    <row r="169" spans="1:36" ht="10.5" customHeight="1">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -6686,7 +6686,7 @@
       <c r="AI169" s="19"/>
       <c r="AJ169" s="20"/>
     </row>
-    <row r="170" spans="1:36" ht="8.25" customHeight="1">
+    <row r="170" spans="1:36" ht="10.5" customHeight="1">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -6724,7 +6724,7 @@
       <c r="AI170" s="19"/>
       <c r="AJ170" s="20"/>
     </row>
-    <row r="171" spans="1:36" ht="8.25" customHeight="1">
+    <row r="171" spans="1:36" ht="10.5" customHeight="1">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -6762,7 +6762,7 @@
       <c r="AI171" s="19"/>
       <c r="AJ171" s="20"/>
     </row>
-    <row r="172" spans="1:36" ht="8.25" customHeight="1">
+    <row r="172" spans="1:36" ht="10.5" customHeight="1">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -6800,7 +6800,7 @@
       <c r="AI172" s="19"/>
       <c r="AJ172" s="20"/>
     </row>
-    <row r="173" spans="1:36" ht="8.25" customHeight="1">
+    <row r="173" spans="1:36" ht="10.5" customHeight="1">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -6838,7 +6838,7 @@
       <c r="AI173" s="19"/>
       <c r="AJ173" s="20"/>
     </row>
-    <row r="174" spans="1:36" ht="8.25" customHeight="1">
+    <row r="174" spans="1:36" ht="10.5" customHeight="1">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -6876,7 +6876,7 @@
       <c r="AI174" s="19"/>
       <c r="AJ174" s="20"/>
     </row>
-    <row r="175" spans="1:36" ht="8.25" customHeight="1">
+    <row r="175" spans="1:36" ht="10.5" customHeight="1">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
@@ -6914,7 +6914,7 @@
       <c r="AI175" s="19"/>
       <c r="AJ175" s="20"/>
     </row>
-    <row r="176" spans="1:36" ht="8.25" customHeight="1">
+    <row r="176" spans="1:36" ht="10.5" customHeight="1">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -6952,7 +6952,7 @@
       <c r="AI176" s="19"/>
       <c r="AJ176" s="20"/>
     </row>
-    <row r="177" spans="1:36" ht="8.25" customHeight="1">
+    <row r="177" spans="1:36" ht="10.5" customHeight="1">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -6990,7 +6990,7 @@
       <c r="AI177" s="19"/>
       <c r="AJ177" s="20"/>
     </row>
-    <row r="178" spans="1:36" ht="8.25" customHeight="1">
+    <row r="178" spans="1:36" ht="10.5" customHeight="1">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -7028,7 +7028,7 @@
       <c r="AI178" s="19"/>
       <c r="AJ178" s="20"/>
     </row>
-    <row r="179" spans="1:36" ht="8.25" customHeight="1">
+    <row r="179" spans="1:36" ht="10.5" customHeight="1">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -7066,7 +7066,7 @@
       <c r="AI179" s="19"/>
       <c r="AJ179" s="20"/>
     </row>
-    <row r="180" spans="1:36" ht="8.25" customHeight="1">
+    <row r="180" spans="1:36" ht="10.5" customHeight="1">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
@@ -7104,7 +7104,7 @@
       <c r="AI180" s="19"/>
       <c r="AJ180" s="20"/>
     </row>
-    <row r="181" spans="1:36" ht="8.25" customHeight="1">
+    <row r="181" spans="1:36" ht="10.5" customHeight="1">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -7142,7 +7142,7 @@
       <c r="AI181" s="19"/>
       <c r="AJ181" s="20"/>
     </row>
-    <row r="182" spans="1:36" ht="8.25" customHeight="1">
+    <row r="182" spans="1:36" ht="10.5" customHeight="1">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -7180,7 +7180,7 @@
       <c r="AI182" s="19"/>
       <c r="AJ182" s="20"/>
     </row>
-    <row r="183" spans="1:36" ht="8.25" customHeight="1">
+    <row r="183" spans="1:36" ht="10.5" customHeight="1">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
@@ -7218,7 +7218,7 @@
       <c r="AI183" s="19"/>
       <c r="AJ183" s="20"/>
     </row>
-    <row r="184" spans="1:36" ht="8.25" customHeight="1">
+    <row r="184" spans="1:36" ht="10.5" customHeight="1">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -7256,7 +7256,7 @@
       <c r="AI184" s="19"/>
       <c r="AJ184" s="20"/>
     </row>
-    <row r="185" spans="1:36" ht="8.25" customHeight="1">
+    <row r="185" spans="1:36" ht="10.5" customHeight="1">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -7294,7 +7294,7 @@
       <c r="AI185" s="19"/>
       <c r="AJ185" s="20"/>
     </row>
-    <row r="186" spans="1:36" ht="8.25" customHeight="1">
+    <row r="186" spans="1:36" ht="10.5" customHeight="1">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
@@ -7332,7 +7332,7 @@
       <c r="AI186" s="19"/>
       <c r="AJ186" s="20"/>
     </row>
-    <row r="187" spans="1:36" ht="8.25" customHeight="1">
+    <row r="187" spans="1:36" ht="10.5" customHeight="1">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -7370,7 +7370,7 @@
       <c r="AI187" s="19"/>
       <c r="AJ187" s="20"/>
     </row>
-    <row r="188" spans="1:36" ht="8.25" customHeight="1">
+    <row r="188" spans="1:36" ht="10.5" customHeight="1">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -7408,7 +7408,7 @@
       <c r="AI188" s="19"/>
       <c r="AJ188" s="20"/>
     </row>
-    <row r="189" spans="1:36" ht="8.25" customHeight="1">
+    <row r="189" spans="1:36" ht="10.5" customHeight="1">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
@@ -7446,7 +7446,7 @@
       <c r="AI189" s="19"/>
       <c r="AJ189" s="20"/>
     </row>
-    <row r="190" spans="1:36" ht="8.25" customHeight="1">
+    <row r="190" spans="1:36" ht="10.5" customHeight="1">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -7484,7 +7484,7 @@
       <c r="AI190" s="19"/>
       <c r="AJ190" s="20"/>
     </row>
-    <row r="191" spans="1:36" ht="8.25" customHeight="1">
+    <row r="191" spans="1:36" ht="10.5" customHeight="1">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -7522,7 +7522,7 @@
       <c r="AI191" s="19"/>
       <c r="AJ191" s="20"/>
     </row>
-    <row r="192" spans="1:36" ht="8.25" customHeight="1">
+    <row r="192" spans="1:36" ht="10.5" customHeight="1">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -7560,7 +7560,7 @@
       <c r="AI192" s="19"/>
       <c r="AJ192" s="20"/>
     </row>
-    <row r="193" spans="1:36" ht="8.25" customHeight="1">
+    <row r="193" spans="1:36" ht="10.5" customHeight="1">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -7598,7 +7598,7 @@
       <c r="AI193" s="19"/>
       <c r="AJ193" s="20"/>
     </row>
-    <row r="194" spans="1:36" ht="8.25" customHeight="1">
+    <row r="194" spans="1:36" ht="10.5" customHeight="1">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
@@ -7636,7 +7636,7 @@
       <c r="AI194" s="19"/>
       <c r="AJ194" s="20"/>
     </row>
-    <row r="195" spans="1:36" ht="8.25" customHeight="1">
+    <row r="195" spans="1:36" ht="10.5" customHeight="1">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -7674,7 +7674,7 @@
       <c r="AI195" s="19"/>
       <c r="AJ195" s="20"/>
     </row>
-    <row r="196" spans="1:36" ht="8.25" customHeight="1">
+    <row r="196" spans="1:36" ht="10.5" customHeight="1">
       <c r="A196" s="19"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -7712,7 +7712,7 @@
       <c r="AI196" s="19"/>
       <c r="AJ196" s="20"/>
     </row>
-    <row r="197" spans="1:36" ht="8.25" customHeight="1">
+    <row r="197" spans="1:36" ht="10.5" customHeight="1">
       <c r="A197" s="19"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -7750,7 +7750,7 @@
       <c r="AI197" s="19"/>
       <c r="AJ197" s="20"/>
     </row>
-    <row r="198" spans="1:36" ht="8.25" customHeight="1">
+    <row r="198" spans="1:36" ht="10.5" customHeight="1">
       <c r="A198" s="19"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -7788,7 +7788,7 @@
       <c r="AI198" s="19"/>
       <c r="AJ198" s="20"/>
     </row>
-    <row r="199" spans="1:36" ht="8.25" customHeight="1">
+    <row r="199" spans="1:36" ht="10.5" customHeight="1">
       <c r="A199" s="19"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -7826,7 +7826,7 @@
       <c r="AI199" s="19"/>
       <c r="AJ199" s="20"/>
     </row>
-    <row r="200" spans="1:36" ht="8.25" customHeight="1">
+    <row r="200" spans="1:36" ht="10.5" customHeight="1">
       <c r="A200" s="19"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -7864,7 +7864,7 @@
       <c r="AI200" s="19"/>
       <c r="AJ200" s="20"/>
     </row>
-    <row r="201" spans="1:36" ht="8.25" customHeight="1">
+    <row r="201" spans="1:36" ht="10.5" customHeight="1">
       <c r="A201" s="19"/>
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
@@ -7902,7 +7902,7 @@
       <c r="AI201" s="19"/>
       <c r="AJ201" s="20"/>
     </row>
-    <row r="202" spans="1:36" ht="8.25" customHeight="1">
+    <row r="202" spans="1:36" ht="10.5" customHeight="1">
       <c r="A202" s="19"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -7940,7 +7940,7 @@
       <c r="AI202" s="19"/>
       <c r="AJ202" s="20"/>
     </row>
-    <row r="203" spans="1:36" ht="8.25" customHeight="1">
+    <row r="203" spans="1:36" ht="10.5" customHeight="1">
       <c r="A203" s="19"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -7978,7 +7978,7 @@
       <c r="AI203" s="19"/>
       <c r="AJ203" s="20"/>
     </row>
-    <row r="204" spans="1:36" ht="8.25" customHeight="1">
+    <row r="204" spans="1:36" ht="10.5" customHeight="1">
       <c r="A204" s="19"/>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -8016,7 +8016,7 @@
       <c r="AI204" s="19"/>
       <c r="AJ204" s="20"/>
     </row>
-    <row r="205" spans="1:36" ht="8.25" customHeight="1">
+    <row r="205" spans="1:36" ht="10.5" customHeight="1">
       <c r="A205" s="19"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -8054,7 +8054,7 @@
       <c r="AI205" s="19"/>
       <c r="AJ205" s="20"/>
     </row>
-    <row r="206" spans="1:36" ht="8.25" customHeight="1">
+    <row r="206" spans="1:36" ht="10.5" customHeight="1">
       <c r="A206" s="19"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -8092,7 +8092,7 @@
       <c r="AI206" s="19"/>
       <c r="AJ206" s="20"/>
     </row>
-    <row r="207" spans="1:36" ht="8.25" customHeight="1">
+    <row r="207" spans="1:36" ht="10.5" customHeight="1">
       <c r="A207" s="19"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -8130,7 +8130,7 @@
       <c r="AI207" s="19"/>
       <c r="AJ207" s="20"/>
     </row>
-    <row r="208" spans="1:36" ht="8.25" customHeight="1">
+    <row r="208" spans="1:36" ht="10.5" customHeight="1">
       <c r="A208" s="19"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -8168,7 +8168,7 @@
       <c r="AI208" s="19"/>
       <c r="AJ208" s="20"/>
     </row>
-    <row r="209" spans="1:36" ht="8.25" customHeight="1">
+    <row r="209" spans="1:36" ht="10.5" customHeight="1">
       <c r="A209" s="19"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -8206,7 +8206,7 @@
       <c r="AI209" s="19"/>
       <c r="AJ209" s="20"/>
     </row>
-    <row r="210" spans="1:36" ht="8.25" customHeight="1">
+    <row r="210" spans="1:36" ht="10.5" customHeight="1">
       <c r="A210" s="19"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -8244,7 +8244,7 @@
       <c r="AI210" s="19"/>
       <c r="AJ210" s="20"/>
     </row>
-    <row r="211" spans="1:36" ht="8.25" customHeight="1">
+    <row r="211" spans="1:36" ht="10.5" customHeight="1">
       <c r="A211" s="19"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -8282,7 +8282,7 @@
       <c r="AI211" s="19"/>
       <c r="AJ211" s="20"/>
     </row>
-    <row r="212" spans="1:36" ht="8.25" customHeight="1">
+    <row r="212" spans="1:36" ht="10.5" customHeight="1">
       <c r="A212" s="19"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -8320,7 +8320,7 @@
       <c r="AI212" s="19"/>
       <c r="AJ212" s="20"/>
     </row>
-    <row r="213" spans="1:36" ht="8.25" customHeight="1">
+    <row r="213" spans="1:36" ht="10.5" customHeight="1">
       <c r="A213" s="19"/>
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
@@ -8358,7 +8358,7 @@
       <c r="AI213" s="19"/>
       <c r="AJ213" s="20"/>
     </row>
-    <row r="214" spans="1:36" ht="8.25" customHeight="1">
+    <row r="214" spans="1:36" ht="10.5" customHeight="1">
       <c r="A214" s="19"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -8396,7 +8396,7 @@
       <c r="AI214" s="19"/>
       <c r="AJ214" s="20"/>
     </row>
-    <row r="215" spans="1:36" ht="8.25" customHeight="1">
+    <row r="215" spans="1:36" ht="10.5" customHeight="1">
       <c r="A215" s="19"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -8434,7 +8434,7 @@
       <c r="AI215" s="19"/>
       <c r="AJ215" s="20"/>
     </row>
-    <row r="216" spans="1:36" ht="8.25" customHeight="1">
+    <row r="216" spans="1:36" ht="10.5" customHeight="1">
       <c r="A216" s="19"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -8472,7 +8472,7 @@
       <c r="AI216" s="19"/>
       <c r="AJ216" s="20"/>
     </row>
-    <row r="217" spans="1:36" ht="8.25" customHeight="1">
+    <row r="217" spans="1:36" ht="10.5" customHeight="1">
       <c r="A217" s="19"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -8510,7 +8510,7 @@
       <c r="AI217" s="19"/>
       <c r="AJ217" s="20"/>
     </row>
-    <row r="218" spans="1:36" ht="8.25" customHeight="1">
+    <row r="218" spans="1:36" ht="10.5" customHeight="1">
       <c r="A218" s="19"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -8548,7 +8548,7 @@
       <c r="AI218" s="19"/>
       <c r="AJ218" s="20"/>
     </row>
-    <row r="219" spans="1:36" ht="8.25" customHeight="1">
+    <row r="219" spans="1:36" ht="10.5" customHeight="1">
       <c r="A219" s="19"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -8586,7 +8586,7 @@
       <c r="AI219" s="19"/>
       <c r="AJ219" s="20"/>
     </row>
-    <row r="220" spans="1:36" ht="8.25" customHeight="1">
+    <row r="220" spans="1:36" ht="10.5" customHeight="1">
       <c r="A220" s="19"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -8624,7 +8624,7 @@
       <c r="AI220" s="19"/>
       <c r="AJ220" s="20"/>
     </row>
-    <row r="221" spans="1:36" ht="8.25" customHeight="1">
+    <row r="221" spans="1:36" ht="10.5" customHeight="1">
       <c r="A221" s="19"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -8662,7 +8662,7 @@
       <c r="AI221" s="19"/>
       <c r="AJ221" s="20"/>
     </row>
-    <row r="222" spans="1:36" ht="8.25" customHeight="1">
+    <row r="222" spans="1:36" ht="10.5" customHeight="1">
       <c r="A222" s="19"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -8700,7 +8700,7 @@
       <c r="AI222" s="19"/>
       <c r="AJ222" s="20"/>
     </row>
-    <row r="223" spans="1:36" ht="8.25" customHeight="1">
+    <row r="223" spans="1:36" ht="10.5" customHeight="1">
       <c r="A223" s="19"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -8738,7 +8738,7 @@
       <c r="AI223" s="19"/>
       <c r="AJ223" s="20"/>
     </row>
-    <row r="224" spans="1:36" ht="8.25" customHeight="1">
+    <row r="224" spans="1:36" ht="10.5" customHeight="1">
       <c r="A224" s="19"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -8776,7 +8776,7 @@
       <c r="AI224" s="19"/>
       <c r="AJ224" s="20"/>
     </row>
-    <row r="225" spans="1:36" ht="8.25" customHeight="1">
+    <row r="225" spans="1:36" ht="10.5" customHeight="1">
       <c r="A225" s="19"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -8814,7 +8814,7 @@
       <c r="AI225" s="19"/>
       <c r="AJ225" s="20"/>
     </row>
-    <row r="226" spans="1:36" ht="8.25" customHeight="1">
+    <row r="226" spans="1:36" ht="10.5" customHeight="1">
       <c r="A226" s="19"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -8852,7 +8852,7 @@
       <c r="AI226" s="19"/>
       <c r="AJ226" s="20"/>
     </row>
-    <row r="227" spans="1:36" ht="8.25" customHeight="1">
+    <row r="227" spans="1:36" ht="10.5" customHeight="1">
       <c r="A227" s="19"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -8890,7 +8890,7 @@
       <c r="AI227" s="19"/>
       <c r="AJ227" s="20"/>
     </row>
-    <row r="228" spans="1:36" ht="8.25" customHeight="1">
+    <row r="228" spans="1:36" ht="10.5" customHeight="1">
       <c r="A228" s="19"/>
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
@@ -8928,7 +8928,7 @@
       <c r="AI228" s="19"/>
       <c r="AJ228" s="20"/>
     </row>
-    <row r="229" spans="1:36" ht="8.25" customHeight="1">
+    <row r="229" spans="1:36" ht="10.5" customHeight="1">
       <c r="A229" s="19"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -8966,7 +8966,7 @@
       <c r="AI229" s="19"/>
       <c r="AJ229" s="20"/>
     </row>
-    <row r="230" spans="1:36" ht="8.25" customHeight="1">
+    <row r="230" spans="1:36" ht="10.5" customHeight="1">
       <c r="A230" s="19"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -9004,7 +9004,7 @@
       <c r="AI230" s="19"/>
       <c r="AJ230" s="20"/>
     </row>
-    <row r="231" spans="1:36" ht="8.25" customHeight="1">
+    <row r="231" spans="1:36" ht="10.5" customHeight="1">
       <c r="A231" s="19"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -9042,7 +9042,7 @@
       <c r="AI231" s="19"/>
       <c r="AJ231" s="20"/>
     </row>
-    <row r="232" spans="1:36" ht="8.25" customHeight="1">
+    <row r="232" spans="1:36" ht="10.5" customHeight="1">
       <c r="A232" s="19"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -9080,7 +9080,7 @@
       <c r="AI232" s="19"/>
       <c r="AJ232" s="20"/>
     </row>
-    <row r="233" spans="1:36" ht="8.25" customHeight="1">
+    <row r="233" spans="1:36" ht="10.5" customHeight="1">
       <c r="A233" s="19"/>
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
@@ -9118,7 +9118,7 @@
       <c r="AI233" s="19"/>
       <c r="AJ233" s="20"/>
     </row>
-    <row r="234" spans="1:36" ht="8.25" customHeight="1">
+    <row r="234" spans="1:36" ht="10.5" customHeight="1">
       <c r="A234" s="19"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -9156,7 +9156,7 @@
       <c r="AI234" s="19"/>
       <c r="AJ234" s="20"/>
     </row>
-    <row r="235" spans="1:36" ht="8.25" customHeight="1">
+    <row r="235" spans="1:36" ht="10.5" customHeight="1">
       <c r="A235" s="19"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -9194,7 +9194,7 @@
       <c r="AI235" s="19"/>
       <c r="AJ235" s="20"/>
     </row>
-    <row r="236" spans="1:36" ht="8.25" customHeight="1">
+    <row r="236" spans="1:36" ht="10.5" customHeight="1">
       <c r="A236" s="19"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -9232,7 +9232,7 @@
       <c r="AI236" s="19"/>
       <c r="AJ236" s="20"/>
     </row>
-    <row r="237" spans="1:36" ht="8.25" customHeight="1">
+    <row r="237" spans="1:36" ht="10.5" customHeight="1">
       <c r="A237" s="19"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -9270,7 +9270,7 @@
       <c r="AI237" s="19"/>
       <c r="AJ237" s="20"/>
     </row>
-    <row r="238" spans="1:36" ht="8.25" customHeight="1">
+    <row r="238" spans="1:36" ht="10.5" customHeight="1">
       <c r="A238" s="19"/>
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
@@ -9308,7 +9308,7 @@
       <c r="AI238" s="19"/>
       <c r="AJ238" s="20"/>
     </row>
-    <row r="239" spans="1:36" ht="8.25" customHeight="1">
+    <row r="239" spans="1:36" ht="10.5" customHeight="1">
       <c r="A239" s="19"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -9346,7 +9346,7 @@
       <c r="AI239" s="19"/>
       <c r="AJ239" s="20"/>
     </row>
-    <row r="240" spans="1:36" ht="8.25" customHeight="1">
+    <row r="240" spans="1:36" ht="10.5" customHeight="1">
       <c r="A240" s="19"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -9384,7 +9384,7 @@
       <c r="AI240" s="19"/>
       <c r="AJ240" s="20"/>
     </row>
-    <row r="241" spans="1:36" ht="8.25" customHeight="1">
+    <row r="241" spans="1:36" ht="10.5" customHeight="1">
       <c r="A241" s="19"/>
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
@@ -9422,7 +9422,7 @@
       <c r="AI241" s="19"/>
       <c r="AJ241" s="20"/>
     </row>
-    <row r="242" spans="1:36" ht="8.25" customHeight="1">
+    <row r="242" spans="1:36" ht="10.5" customHeight="1">
       <c r="A242" s="19"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -9460,7 +9460,7 @@
       <c r="AI242" s="19"/>
       <c r="AJ242" s="20"/>
     </row>
-    <row r="243" spans="1:36" ht="8.25" customHeight="1">
+    <row r="243" spans="1:36" ht="10.5" customHeight="1">
       <c r="A243" s="19"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -9498,7 +9498,7 @@
       <c r="AI243" s="19"/>
       <c r="AJ243" s="20"/>
     </row>
-    <row r="244" spans="1:36" ht="8.25" customHeight="1">
+    <row r="244" spans="1:36" ht="10.5" customHeight="1">
       <c r="A244" s="19"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -9536,7 +9536,7 @@
       <c r="AI244" s="19"/>
       <c r="AJ244" s="20"/>
     </row>
-    <row r="245" spans="1:36" ht="8.25" customHeight="1">
+    <row r="245" spans="1:36" ht="10.5" customHeight="1">
       <c r="A245" s="19"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -9574,7 +9574,7 @@
       <c r="AI245" s="19"/>
       <c r="AJ245" s="20"/>
     </row>
-    <row r="246" spans="1:36" ht="8.25" customHeight="1">
+    <row r="246" spans="1:36" ht="10.5" customHeight="1">
       <c r="A246" s="19"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -9612,7 +9612,7 @@
       <c r="AI246" s="19"/>
       <c r="AJ246" s="20"/>
     </row>
-    <row r="247" spans="1:36" ht="8.25" customHeight="1">
+    <row r="247" spans="1:36" ht="10.5" customHeight="1">
       <c r="A247" s="19"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -9650,7 +9650,7 @@
       <c r="AI247" s="19"/>
       <c r="AJ247" s="20"/>
     </row>
-    <row r="248" spans="1:36" ht="8.25" customHeight="1">
+    <row r="248" spans="1:36" ht="10.5" customHeight="1">
       <c r="A248" s="19"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -9688,7 +9688,7 @@
       <c r="AI248" s="19"/>
       <c r="AJ248" s="20"/>
     </row>
-    <row r="249" spans="1:36" ht="8.25" customHeight="1">
+    <row r="249" spans="1:36" ht="10.5" customHeight="1">
       <c r="A249" s="19"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -9726,7 +9726,7 @@
       <c r="AI249" s="19"/>
       <c r="AJ249" s="20"/>
     </row>
-    <row r="250" spans="1:36" ht="8.25" customHeight="1">
+    <row r="250" spans="1:36" ht="10.5" customHeight="1">
       <c r="A250" s="19"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -9764,7 +9764,7 @@
       <c r="AI250" s="19"/>
       <c r="AJ250" s="20"/>
     </row>
-    <row r="251" spans="1:36" ht="8.25" customHeight="1">
+    <row r="251" spans="1:36" ht="10.5" customHeight="1">
       <c r="A251" s="19"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -9802,7 +9802,7 @@
       <c r="AI251" s="19"/>
       <c r="AJ251" s="20"/>
     </row>
-    <row r="252" spans="1:36" ht="8.25" customHeight="1">
+    <row r="252" spans="1:36" ht="10.5" customHeight="1">
       <c r="A252" s="19"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -9840,7 +9840,7 @@
       <c r="AI252" s="19"/>
       <c r="AJ252" s="20"/>
     </row>
-    <row r="253" spans="1:36" ht="8.25" customHeight="1">
+    <row r="253" spans="1:36" ht="10.5" customHeight="1">
       <c r="A253" s="19"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -9878,7 +9878,7 @@
       <c r="AI253" s="19"/>
       <c r="AJ253" s="20"/>
     </row>
-    <row r="254" spans="1:36" ht="8.25" customHeight="1">
+    <row r="254" spans="1:36" ht="10.5" customHeight="1">
       <c r="A254" s="19"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -9916,7 +9916,7 @@
       <c r="AI254" s="19"/>
       <c r="AJ254" s="20"/>
     </row>
-    <row r="255" spans="1:36" ht="8.25" customHeight="1">
+    <row r="255" spans="1:36" ht="10.5" customHeight="1">
       <c r="A255" s="19"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -9954,7 +9954,7 @@
       <c r="AI255" s="19"/>
       <c r="AJ255" s="20"/>
     </row>
-    <row r="256" spans="1:36" ht="8.25" customHeight="1">
+    <row r="256" spans="1:36" ht="10.5" customHeight="1">
       <c r="A256" s="19"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -9992,7 +9992,7 @@
       <c r="AI256" s="19"/>
       <c r="AJ256" s="20"/>
     </row>
-    <row r="257" spans="1:36" ht="8.25" customHeight="1">
+    <row r="257" spans="1:36" ht="10.5" customHeight="1">
       <c r="A257" s="19"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -10030,7 +10030,7 @@
       <c r="AI257" s="19"/>
       <c r="AJ257" s="20"/>
     </row>
-    <row r="258" spans="1:36" ht="8.25" customHeight="1">
+    <row r="258" spans="1:36" ht="10.5" customHeight="1">
       <c r="A258" s="19"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -10068,7 +10068,7 @@
       <c r="AI258" s="19"/>
       <c r="AJ258" s="20"/>
     </row>
-    <row r="259" spans="1:36" ht="8.25" customHeight="1">
+    <row r="259" spans="1:36" ht="10.5" customHeight="1">
       <c r="A259" s="19"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -10106,7 +10106,7 @@
       <c r="AI259" s="19"/>
       <c r="AJ259" s="20"/>
     </row>
-    <row r="260" spans="1:36" ht="8.25" customHeight="1">
+    <row r="260" spans="1:36" ht="10.5" customHeight="1">
       <c r="A260" s="19"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -10144,7 +10144,7 @@
       <c r="AI260" s="19"/>
       <c r="AJ260" s="20"/>
     </row>
-    <row r="261" spans="1:36" ht="8.25" customHeight="1">
+    <row r="261" spans="1:36" ht="10.5" customHeight="1">
       <c r="A261" s="19"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -10182,7 +10182,7 @@
       <c r="AI261" s="19"/>
       <c r="AJ261" s="20"/>
     </row>
-    <row r="262" spans="1:36" ht="8.25" customHeight="1">
+    <row r="262" spans="1:36" ht="10.5" customHeight="1">
       <c r="A262" s="19"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -10220,7 +10220,7 @@
       <c r="AI262" s="19"/>
       <c r="AJ262" s="20"/>
     </row>
-    <row r="263" spans="1:36" ht="8.25" customHeight="1">
+    <row r="263" spans="1:36" ht="10.5" customHeight="1">
       <c r="A263" s="19"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -10258,7 +10258,7 @@
       <c r="AI263" s="19"/>
       <c r="AJ263" s="20"/>
     </row>
-    <row r="264" spans="1:36" ht="8.25" customHeight="1">
+    <row r="264" spans="1:36" ht="10.5" customHeight="1">
       <c r="A264" s="19"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -10296,7 +10296,7 @@
       <c r="AI264" s="19"/>
       <c r="AJ264" s="20"/>
     </row>
-    <row r="265" spans="1:36" ht="8.25" customHeight="1">
+    <row r="265" spans="1:36" ht="10.5" customHeight="1">
       <c r="A265" s="19"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -10334,7 +10334,7 @@
       <c r="AI265" s="19"/>
       <c r="AJ265" s="20"/>
     </row>
-    <row r="266" spans="1:36" ht="8.25" customHeight="1">
+    <row r="266" spans="1:36" ht="10.5" customHeight="1">
       <c r="A266" s="19"/>
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
@@ -10372,7 +10372,7 @@
       <c r="AI266" s="19"/>
       <c r="AJ266" s="20"/>
     </row>
-    <row r="267" spans="1:36" ht="8.25" customHeight="1">
+    <row r="267" spans="1:36" ht="10.5" customHeight="1">
       <c r="A267" s="19"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -10410,7 +10410,7 @@
       <c r="AI267" s="19"/>
       <c r="AJ267" s="20"/>
     </row>
-    <row r="268" spans="1:36" ht="8.25" customHeight="1">
+    <row r="268" spans="1:36" ht="10.5" customHeight="1">
       <c r="A268" s="19"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -10448,7 +10448,7 @@
       <c r="AI268" s="19"/>
       <c r="AJ268" s="20"/>
     </row>
-    <row r="269" spans="1:36" ht="8.25" customHeight="1">
+    <row r="269" spans="1:36" ht="10.5" customHeight="1">
       <c r="A269" s="19"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -10486,7 +10486,7 @@
       <c r="AI269" s="19"/>
       <c r="AJ269" s="20"/>
     </row>
-    <row r="270" spans="1:36" ht="8.25" customHeight="1">
+    <row r="270" spans="1:36" ht="10.5" customHeight="1">
       <c r="A270" s="19"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -10524,7 +10524,7 @@
       <c r="AI270" s="19"/>
       <c r="AJ270" s="20"/>
     </row>
-    <row r="271" spans="1:36" ht="8.25" customHeight="1">
+    <row r="271" spans="1:36" ht="10.5" customHeight="1">
       <c r="A271" s="19"/>
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
@@ -10562,7 +10562,7 @@
       <c r="AI271" s="19"/>
       <c r="AJ271" s="20"/>
     </row>
-    <row r="272" spans="1:36" ht="8.25" customHeight="1">
+    <row r="272" spans="1:36" ht="10.5" customHeight="1">
       <c r="A272" s="19"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -10600,7 +10600,7 @@
       <c r="AI272" s="19"/>
       <c r="AJ272" s="20"/>
     </row>
-    <row r="273" spans="1:36" ht="8.25" customHeight="1">
+    <row r="273" spans="1:36" ht="10.5" customHeight="1">
       <c r="A273" s="19"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -10638,7 +10638,7 @@
       <c r="AI273" s="19"/>
       <c r="AJ273" s="20"/>
     </row>
-    <row r="274" spans="1:36" ht="8.25" customHeight="1">
+    <row r="274" spans="1:36" ht="10.5" customHeight="1">
       <c r="A274" s="19"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -10676,7 +10676,7 @@
       <c r="AI274" s="19"/>
       <c r="AJ274" s="20"/>
     </row>
-    <row r="275" spans="1:36" ht="8.25" customHeight="1">
+    <row r="275" spans="1:36" ht="10.5" customHeight="1">
       <c r="A275" s="19"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -10714,7 +10714,7 @@
       <c r="AI275" s="19"/>
       <c r="AJ275" s="20"/>
     </row>
-    <row r="276" spans="1:36" ht="8.25" customHeight="1">
+    <row r="276" spans="1:36" ht="10.5" customHeight="1">
       <c r="A276" s="19"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -10752,7 +10752,7 @@
       <c r="AI276" s="19"/>
       <c r="AJ276" s="20"/>
     </row>
-    <row r="277" spans="1:36" ht="8.25" customHeight="1">
+    <row r="277" spans="1:36" ht="10.5" customHeight="1">
       <c r="A277" s="19"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -10790,7 +10790,7 @@
       <c r="AI277" s="19"/>
       <c r="AJ277" s="20"/>
     </row>
-    <row r="278" spans="1:36" ht="8.25" customHeight="1">
+    <row r="278" spans="1:36" ht="10.5" customHeight="1">
       <c r="A278" s="19"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -10828,7 +10828,7 @@
       <c r="AI278" s="19"/>
       <c r="AJ278" s="20"/>
     </row>
-    <row r="279" spans="1:36" ht="8.25" customHeight="1">
+    <row r="279" spans="1:36" ht="10.5" customHeight="1">
       <c r="A279" s="19"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -10866,7 +10866,7 @@
       <c r="AI279" s="19"/>
       <c r="AJ279" s="20"/>
     </row>
-    <row r="280" spans="1:36" ht="8.25" customHeight="1">
+    <row r="280" spans="1:36" ht="10.5" customHeight="1">
       <c r="A280" s="19"/>
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
@@ -10904,7 +10904,7 @@
       <c r="AI280" s="19"/>
       <c r="AJ280" s="20"/>
     </row>
-    <row r="281" spans="1:36" ht="8.25" customHeight="1">
+    <row r="281" spans="1:36" ht="10.5" customHeight="1">
       <c r="A281" s="19"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -10942,7 +10942,7 @@
       <c r="AI281" s="19"/>
       <c r="AJ281" s="20"/>
     </row>
-    <row r="282" spans="1:36" ht="8.25" customHeight="1">
+    <row r="282" spans="1:36" ht="10.5" customHeight="1">
       <c r="A282" s="19"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -10980,7 +10980,7 @@
       <c r="AI282" s="19"/>
       <c r="AJ282" s="20"/>
     </row>
-    <row r="283" spans="1:36" ht="8.25" customHeight="1">
+    <row r="283" spans="1:36" ht="10.5" customHeight="1">
       <c r="A283" s="19"/>
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
@@ -11018,7 +11018,7 @@
       <c r="AI283" s="19"/>
       <c r="AJ283" s="20"/>
     </row>
-    <row r="284" spans="1:36" ht="8.25" customHeight="1">
+    <row r="284" spans="1:36" ht="10.5" customHeight="1">
       <c r="A284" s="19"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -11056,7 +11056,7 @@
       <c r="AI284" s="19"/>
       <c r="AJ284" s="20"/>
     </row>
-    <row r="285" spans="1:36" ht="8.25" customHeight="1">
+    <row r="285" spans="1:36" ht="10.5" customHeight="1">
       <c r="A285" s="19"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -11094,7 +11094,7 @@
       <c r="AI285" s="19"/>
       <c r="AJ285" s="20"/>
     </row>
-    <row r="286" spans="1:36" ht="8.25" customHeight="1">
+    <row r="286" spans="1:36" ht="10.5" customHeight="1">
       <c r="A286" s="19"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -11132,7 +11132,7 @@
       <c r="AI286" s="19"/>
       <c r="AJ286" s="20"/>
     </row>
-    <row r="287" spans="1:36" ht="8.25" customHeight="1">
+    <row r="287" spans="1:36" ht="10.5" customHeight="1">
       <c r="A287" s="19"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -11170,7 +11170,7 @@
       <c r="AI287" s="19"/>
       <c r="AJ287" s="20"/>
     </row>
-    <row r="288" spans="1:36" ht="8.25" customHeight="1">
+    <row r="288" spans="1:36" ht="10.5" customHeight="1">
       <c r="A288" s="19"/>
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
@@ -11208,7 +11208,7 @@
       <c r="AI288" s="19"/>
       <c r="AJ288" s="20"/>
     </row>
-    <row r="289" spans="1:36" ht="8.25" customHeight="1">
+    <row r="289" spans="1:36" ht="10.5" customHeight="1">
       <c r="A289" s="19"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -11246,7 +11246,7 @@
       <c r="AI289" s="19"/>
       <c r="AJ289" s="20"/>
     </row>
-    <row r="290" spans="1:36" ht="8.25" customHeight="1">
+    <row r="290" spans="1:36" ht="10.5" customHeight="1">
       <c r="A290" s="19"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -11284,7 +11284,7 @@
       <c r="AI290" s="19"/>
       <c r="AJ290" s="20"/>
     </row>
-    <row r="291" spans="1:36" ht="8.25" customHeight="1">
+    <row r="291" spans="1:36" ht="10.5" customHeight="1">
       <c r="A291" s="19"/>
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
@@ -11322,7 +11322,7 @@
       <c r="AI291" s="19"/>
       <c r="AJ291" s="20"/>
     </row>
-    <row r="292" spans="1:36" ht="8.25" customHeight="1">
+    <row r="292" spans="1:36" ht="10.5" customHeight="1">
       <c r="A292" s="19"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -11360,7 +11360,7 @@
       <c r="AI292" s="19"/>
       <c r="AJ292" s="20"/>
     </row>
-    <row r="293" spans="1:36" ht="8.25" customHeight="1">
+    <row r="293" spans="1:36" ht="10.5" customHeight="1">
       <c r="A293" s="19"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -11398,7 +11398,7 @@
       <c r="AI293" s="19"/>
       <c r="AJ293" s="20"/>
     </row>
-    <row r="294" spans="1:36" ht="8.25" customHeight="1">
+    <row r="294" spans="1:36" ht="10.5" customHeight="1">
       <c r="A294" s="19"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -11436,7 +11436,7 @@
       <c r="AI294" s="19"/>
       <c r="AJ294" s="20"/>
     </row>
-    <row r="295" spans="1:36" ht="8.25" customHeight="1">
+    <row r="295" spans="1:36" ht="10.5" customHeight="1">
       <c r="A295" s="19"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -11474,7 +11474,7 @@
       <c r="AI295" s="19"/>
       <c r="AJ295" s="20"/>
     </row>
-    <row r="296" spans="1:36" ht="8.25" customHeight="1">
+    <row r="296" spans="1:36" ht="10.5" customHeight="1">
       <c r="A296" s="19"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -11512,7 +11512,7 @@
       <c r="AI296" s="19"/>
       <c r="AJ296" s="20"/>
     </row>
-    <row r="297" spans="1:36" ht="8.25" customHeight="1">
+    <row r="297" spans="1:36" ht="10.5" customHeight="1">
       <c r="A297" s="19"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -11550,7 +11550,7 @@
       <c r="AI297" s="19"/>
       <c r="AJ297" s="20"/>
     </row>
-    <row r="298" spans="1:36" ht="8.25" customHeight="1">
+    <row r="298" spans="1:36" ht="10.5" customHeight="1">
       <c r="A298" s="19"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -11588,7 +11588,7 @@
       <c r="AI298" s="19"/>
       <c r="AJ298" s="20"/>
     </row>
-    <row r="299" spans="1:36" ht="8.25" customHeight="1">
+    <row r="299" spans="1:36" ht="10.5" customHeight="1">
       <c r="A299" s="19"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -11626,7 +11626,7 @@
       <c r="AI299" s="19"/>
       <c r="AJ299" s="20"/>
     </row>
-    <row r="300" spans="1:36" ht="8.25" customHeight="1">
+    <row r="300" spans="1:36" ht="10.5" customHeight="1">
       <c r="A300" s="19"/>
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
@@ -11664,7 +11664,7 @@
       <c r="AI300" s="19"/>
       <c r="AJ300" s="20"/>
     </row>
-    <row r="301" spans="1:36" ht="8.25" customHeight="1">
+    <row r="301" spans="1:36" ht="10.5" customHeight="1">
       <c r="A301" s="19"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -11702,7 +11702,7 @@
       <c r="AI301" s="19"/>
       <c r="AJ301" s="20"/>
     </row>
-    <row r="302" spans="1:36" ht="8.25" customHeight="1">
+    <row r="302" spans="1:36" ht="10.5" customHeight="1">
       <c r="A302" s="19"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -11740,7 +11740,7 @@
       <c r="AI302" s="19"/>
       <c r="AJ302" s="20"/>
     </row>
-    <row r="303" spans="1:36" ht="8.25" customHeight="1">
+    <row r="303" spans="1:36" ht="10.5" customHeight="1">
       <c r="A303" s="19"/>
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
@@ -11778,7 +11778,7 @@
       <c r="AI303" s="19"/>
       <c r="AJ303" s="20"/>
     </row>
-    <row r="304" spans="1:36" ht="8.25" customHeight="1">
+    <row r="304" spans="1:36" ht="10.5" customHeight="1">
       <c r="A304" s="19"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -11816,7 +11816,7 @@
       <c r="AI304" s="19"/>
       <c r="AJ304" s="20"/>
     </row>
-    <row r="305" spans="1:36" ht="8.25" customHeight="1">
+    <row r="305" spans="1:36" ht="10.5" customHeight="1">
       <c r="A305" s="19"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -11854,7 +11854,7 @@
       <c r="AI305" s="19"/>
       <c r="AJ305" s="20"/>
     </row>
-    <row r="306" spans="1:36" ht="8.25" customHeight="1">
+    <row r="306" spans="1:36" ht="10.5" customHeight="1">
       <c r="A306" s="19"/>
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
@@ -11892,7 +11892,7 @@
       <c r="AI306" s="19"/>
       <c r="AJ306" s="20"/>
     </row>
-    <row r="307" spans="1:36" ht="8.25" customHeight="1">
+    <row r="307" spans="1:36" ht="10.5" customHeight="1">
       <c r="A307" s="19"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -11930,7 +11930,7 @@
       <c r="AI307" s="19"/>
       <c r="AJ307" s="20"/>
     </row>
-    <row r="308" spans="1:36" ht="8.25" customHeight="1">
+    <row r="308" spans="1:36" ht="10.5" customHeight="1">
       <c r="A308" s="19"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -11968,7 +11968,7 @@
       <c r="AI308" s="19"/>
       <c r="AJ308" s="20"/>
     </row>
-    <row r="309" spans="1:36" ht="8.25" customHeight="1">
+    <row r="309" spans="1:36" ht="10.5" customHeight="1">
       <c r="A309" s="19"/>
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
@@ -12006,7 +12006,7 @@
       <c r="AI309" s="19"/>
       <c r="AJ309" s="20"/>
     </row>
-    <row r="310" spans="1:36" ht="8.25" customHeight="1">
+    <row r="310" spans="1:36" ht="10.5" customHeight="1">
       <c r="A310" s="19"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -12044,7 +12044,7 @@
       <c r="AI310" s="19"/>
       <c r="AJ310" s="20"/>
     </row>
-    <row r="311" spans="1:36" ht="8.25" customHeight="1">
+    <row r="311" spans="1:36" ht="10.5" customHeight="1">
       <c r="A311" s="19"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -12082,7 +12082,7 @@
       <c r="AI311" s="19"/>
       <c r="AJ311" s="20"/>
     </row>
-    <row r="312" spans="1:36" ht="8.25" customHeight="1">
+    <row r="312" spans="1:36" ht="10.5" customHeight="1">
       <c r="A312" s="19"/>
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
@@ -12120,7 +12120,7 @@
       <c r="AI312" s="19"/>
       <c r="AJ312" s="20"/>
     </row>
-    <row r="313" spans="1:36" ht="8.25" customHeight="1">
+    <row r="313" spans="1:36" ht="10.5" customHeight="1">
       <c r="A313" s="19"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -12158,7 +12158,7 @@
       <c r="AI313" s="19"/>
       <c r="AJ313" s="20"/>
     </row>
-    <row r="314" spans="1:36" ht="8.25" customHeight="1">
+    <row r="314" spans="1:36" ht="10.5" customHeight="1">
       <c r="A314" s="19"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -12196,7 +12196,7 @@
       <c r="AI314" s="19"/>
       <c r="AJ314" s="20"/>
     </row>
-    <row r="315" spans="1:36" ht="8.25" customHeight="1">
+    <row r="315" spans="1:36" ht="10.5" customHeight="1">
       <c r="A315" s="19"/>
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
@@ -12234,7 +12234,7 @@
       <c r="AI315" s="19"/>
       <c r="AJ315" s="20"/>
     </row>
-    <row r="316" spans="1:36" ht="8.25" customHeight="1">
+    <row r="316" spans="1:36" ht="10.5" customHeight="1">
       <c r="A316" s="19"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -12272,7 +12272,7 @@
       <c r="AI316" s="19"/>
       <c r="AJ316" s="20"/>
     </row>
-    <row r="317" spans="1:36" ht="8.25" customHeight="1">
+    <row r="317" spans="1:36" ht="10.5" customHeight="1">
       <c r="A317" s="19"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -12310,7 +12310,7 @@
       <c r="AI317" s="19"/>
       <c r="AJ317" s="20"/>
     </row>
-    <row r="318" spans="1:36" ht="8.25" customHeight="1">
+    <row r="318" spans="1:36" ht="10.5" customHeight="1">
       <c r="A318" s="19"/>
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
@@ -12348,7 +12348,7 @@
       <c r="AI318" s="19"/>
       <c r="AJ318" s="20"/>
     </row>
-    <row r="319" spans="1:36" ht="8.25" customHeight="1">
+    <row r="319" spans="1:36" ht="10.5" customHeight="1">
       <c r="A319" s="19"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -12386,7 +12386,7 @@
       <c r="AI319" s="19"/>
       <c r="AJ319" s="20"/>
     </row>
-    <row r="320" spans="1:36" ht="8.25" customHeight="1">
+    <row r="320" spans="1:36" ht="10.5" customHeight="1">
       <c r="A320" s="19"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -12424,7 +12424,7 @@
       <c r="AI320" s="19"/>
       <c r="AJ320" s="20"/>
     </row>
-    <row r="321" spans="1:36" ht="8.25" customHeight="1">
+    <row r="321" spans="1:36" ht="10.5" customHeight="1">
       <c r="A321" s="19"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -12462,7 +12462,7 @@
       <c r="AI321" s="19"/>
       <c r="AJ321" s="20"/>
     </row>
-    <row r="322" spans="1:36" ht="8.25" customHeight="1">
+    <row r="322" spans="1:36" ht="10.5" customHeight="1">
       <c r="A322" s="19"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -12500,7 +12500,7 @@
       <c r="AI322" s="19"/>
       <c r="AJ322" s="20"/>
     </row>
-    <row r="323" spans="1:36" ht="8.25" customHeight="1">
+    <row r="323" spans="1:36" ht="10.5" customHeight="1">
       <c r="A323" s="19"/>
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
@@ -12538,7 +12538,7 @@
       <c r="AI323" s="19"/>
       <c r="AJ323" s="20"/>
     </row>
-    <row r="324" spans="1:36" ht="8.25" customHeight="1">
+    <row r="324" spans="1:36" ht="10.5" customHeight="1">
       <c r="A324" s="19"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -12576,7 +12576,7 @@
       <c r="AI324" s="19"/>
       <c r="AJ324" s="20"/>
     </row>
-    <row r="325" spans="1:36" ht="8.25" customHeight="1">
+    <row r="325" spans="1:36" ht="10.5" customHeight="1">
       <c r="A325" s="19"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -12614,7 +12614,7 @@
       <c r="AI325" s="19"/>
       <c r="AJ325" s="20"/>
     </row>
-    <row r="326" spans="1:36" ht="8.25" customHeight="1">
+    <row r="326" spans="1:36" ht="10.5" customHeight="1">
       <c r="A326" s="19"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -12652,7 +12652,7 @@
       <c r="AI326" s="19"/>
       <c r="AJ326" s="20"/>
     </row>
-    <row r="327" spans="1:36" ht="8.25" customHeight="1">
+    <row r="327" spans="1:36" ht="10.5" customHeight="1">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -12690,7 +12690,7 @@
       <c r="AI327" s="19"/>
       <c r="AJ327" s="20"/>
     </row>
-    <row r="328" spans="1:36" ht="8.25" customHeight="1">
+    <row r="328" spans="1:36" ht="10.5" customHeight="1">
       <c r="A328" s="19"/>
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
@@ -12728,7 +12728,7 @@
       <c r="AI328" s="19"/>
       <c r="AJ328" s="20"/>
     </row>
-    <row r="329" spans="1:36" ht="8.25" customHeight="1">
+    <row r="329" spans="1:36" ht="10.5" customHeight="1">
       <c r="A329" s="19"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -12766,7 +12766,7 @@
       <c r="AI329" s="19"/>
       <c r="AJ329" s="20"/>
     </row>
-    <row r="330" spans="1:36" ht="8.25" customHeight="1">
+    <row r="330" spans="1:36" ht="10.5" customHeight="1">
       <c r="A330" s="19"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -12804,7 +12804,7 @@
       <c r="AI330" s="19"/>
       <c r="AJ330" s="20"/>
     </row>
-    <row r="331" spans="1:36" ht="8.25" customHeight="1">
+    <row r="331" spans="1:36" ht="10.5" customHeight="1">
       <c r="A331" s="19"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -12842,7 +12842,7 @@
       <c r="AI331" s="19"/>
       <c r="AJ331" s="20"/>
     </row>
-    <row r="332" spans="1:36" ht="8.25" customHeight="1">
+    <row r="332" spans="1:36" ht="10.5" customHeight="1">
       <c r="A332" s="19"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -12880,7 +12880,7 @@
       <c r="AI332" s="19"/>
       <c r="AJ332" s="20"/>
     </row>
-    <row r="333" spans="1:36" ht="8.25" customHeight="1">
+    <row r="333" spans="1:36" ht="10.5" customHeight="1">
       <c r="A333" s="19"/>
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
@@ -12918,7 +12918,7 @@
       <c r="AI333" s="19"/>
       <c r="AJ333" s="20"/>
     </row>
-    <row r="334" spans="1:36" ht="8.25" customHeight="1">
+    <row r="334" spans="1:36" ht="10.5" customHeight="1">
       <c r="A334" s="19"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -12956,7 +12956,7 @@
       <c r="AI334" s="19"/>
       <c r="AJ334" s="20"/>
     </row>
-    <row r="335" spans="1:36" ht="8.25" customHeight="1">
+    <row r="335" spans="1:36" ht="10.5" customHeight="1">
       <c r="A335" s="19"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -12994,7 +12994,7 @@
       <c r="AI335" s="19"/>
       <c r="AJ335" s="20"/>
     </row>
-    <row r="336" spans="1:36" ht="8.25" customHeight="1">
+    <row r="336" spans="1:36" ht="10.5" customHeight="1">
       <c r="A336" s="19"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -13032,7 +13032,7 @@
       <c r="AI336" s="19"/>
       <c r="AJ336" s="20"/>
     </row>
-    <row r="337" spans="1:36" ht="8.25" customHeight="1">
+    <row r="337" spans="1:36" ht="10.5" customHeight="1">
       <c r="A337" s="19"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -13070,7 +13070,7 @@
       <c r="AI337" s="19"/>
       <c r="AJ337" s="20"/>
     </row>
-    <row r="338" spans="1:36" ht="8.25" customHeight="1">
+    <row r="338" spans="1:36" ht="10.5" customHeight="1">
       <c r="A338" s="19"/>
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
@@ -13108,7 +13108,7 @@
       <c r="AI338" s="19"/>
       <c r="AJ338" s="20"/>
     </row>
-    <row r="339" spans="1:36" ht="8.25" customHeight="1">
+    <row r="339" spans="1:36" ht="10.5" customHeight="1">
       <c r="A339" s="19"/>
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
@@ -13146,7 +13146,7 @@
       <c r="AI339" s="19"/>
       <c r="AJ339" s="20"/>
     </row>
-    <row r="340" spans="1:36" ht="8.25" customHeight="1">
+    <row r="340" spans="1:36" ht="10.5" customHeight="1">
       <c r="A340" s="19"/>
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
@@ -13184,7 +13184,7 @@
       <c r="AI340" s="19"/>
       <c r="AJ340" s="20"/>
     </row>
-    <row r="341" spans="1:36" ht="8.25" customHeight="1">
+    <row r="341" spans="1:36" ht="10.5" customHeight="1">
       <c r="A341" s="19"/>
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
@@ -13222,7 +13222,7 @@
       <c r="AI341" s="19"/>
       <c r="AJ341" s="20"/>
     </row>
-    <row r="342" spans="1:36" ht="8.25" customHeight="1">
+    <row r="342" spans="1:36" ht="10.5" customHeight="1">
       <c r="A342" s="19"/>
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
@@ -13260,7 +13260,7 @@
       <c r="AI342" s="19"/>
       <c r="AJ342" s="20"/>
     </row>
-    <row r="343" spans="1:36" ht="8.25" customHeight="1">
+    <row r="343" spans="1:36" ht="10.5" customHeight="1">
       <c r="A343" s="19"/>
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
@@ -13298,7 +13298,7 @@
       <c r="AI343" s="19"/>
       <c r="AJ343" s="20"/>
     </row>
-    <row r="344" spans="1:36" ht="8.25" customHeight="1">
+    <row r="344" spans="1:36" ht="10.5" customHeight="1">
       <c r="A344" s="19"/>
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
@@ -13336,7 +13336,7 @@
       <c r="AI344" s="19"/>
       <c r="AJ344" s="20"/>
     </row>
-    <row r="345" spans="1:36" ht="8.25" customHeight="1">
+    <row r="345" spans="1:36" ht="10.5" customHeight="1">
       <c r="A345" s="19"/>
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
@@ -13374,7 +13374,7 @@
       <c r="AI345" s="19"/>
       <c r="AJ345" s="20"/>
     </row>
-    <row r="346" spans="1:36" ht="8.25" customHeight="1">
+    <row r="346" spans="1:36" ht="10.5" customHeight="1">
       <c r="A346" s="19"/>
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
@@ -13412,7 +13412,7 @@
       <c r="AI346" s="19"/>
       <c r="AJ346" s="20"/>
     </row>
-    <row r="347" spans="1:36" ht="8.25" customHeight="1">
+    <row r="347" spans="1:36" ht="10.5" customHeight="1">
       <c r="A347" s="19"/>
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
@@ -13450,7 +13450,7 @@
       <c r="AI347" s="19"/>
       <c r="AJ347" s="20"/>
     </row>
-    <row r="348" spans="1:36" ht="8.25" customHeight="1">
+    <row r="348" spans="1:36" ht="10.5" customHeight="1">
       <c r="A348" s="19"/>
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
@@ -13488,7 +13488,7 @@
       <c r="AI348" s="19"/>
       <c r="AJ348" s="20"/>
     </row>
-    <row r="349" spans="1:36" ht="8.25" customHeight="1">
+    <row r="349" spans="1:36" ht="10.5" customHeight="1">
       <c r="A349" s="19"/>
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
@@ -13526,7 +13526,7 @@
       <c r="AI349" s="19"/>
       <c r="AJ349" s="20"/>
     </row>
-    <row r="350" spans="1:36" ht="8.25" customHeight="1">
+    <row r="350" spans="1:36" ht="10.5" customHeight="1">
       <c r="A350" s="19"/>
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
@@ -13564,7 +13564,7 @@
       <c r="AI350" s="19"/>
       <c r="AJ350" s="20"/>
     </row>
-    <row r="351" spans="1:36" ht="8.25" customHeight="1">
+    <row r="351" spans="1:36" ht="10.5" customHeight="1">
       <c r="A351" s="19"/>
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
@@ -13602,7 +13602,7 @@
       <c r="AI351" s="19"/>
       <c r="AJ351" s="20"/>
     </row>
-    <row r="352" spans="1:36" ht="8.25" customHeight="1">
+    <row r="352" spans="1:36" ht="10.5" customHeight="1">
       <c r="A352" s="19"/>
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
@@ -13640,7 +13640,7 @@
       <c r="AI352" s="19"/>
       <c r="AJ352" s="20"/>
     </row>
-    <row r="353" spans="1:36" ht="8.25" customHeight="1">
+    <row r="353" spans="1:36" ht="10.5" customHeight="1">
       <c r="A353" s="19"/>
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
@@ -13678,7 +13678,7 @@
       <c r="AI353" s="19"/>
       <c r="AJ353" s="20"/>
     </row>
-    <row r="354" spans="1:36" ht="8.25" customHeight="1">
+    <row r="354" spans="1:36" ht="10.5" customHeight="1">
       <c r="A354" s="19"/>
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
@@ -13716,7 +13716,7 @@
       <c r="AI354" s="19"/>
       <c r="AJ354" s="20"/>
     </row>
-    <row r="355" spans="1:36" ht="8.25" customHeight="1">
+    <row r="355" spans="1:36" ht="10.5" customHeight="1">
       <c r="A355" s="19"/>
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
@@ -13754,7 +13754,7 @@
       <c r="AI355" s="19"/>
       <c r="AJ355" s="20"/>
     </row>
-    <row r="356" spans="1:36" ht="8.25" customHeight="1">
+    <row r="356" spans="1:36" ht="10.5" customHeight="1">
       <c r="A356" s="19"/>
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
@@ -13792,7 +13792,7 @@
       <c r="AI356" s="19"/>
       <c r="AJ356" s="20"/>
     </row>
-    <row r="357" spans="1:36" ht="8.25" customHeight="1">
+    <row r="357" spans="1:36" ht="10.5" customHeight="1">
       <c r="A357" s="19"/>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
@@ -13830,7 +13830,7 @@
       <c r="AI357" s="19"/>
       <c r="AJ357" s="20"/>
     </row>
-    <row r="358" spans="1:36" ht="8.25" customHeight="1">
+    <row r="358" spans="1:36" ht="10.5" customHeight="1">
       <c r="A358" s="19"/>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
@@ -13868,7 +13868,7 @@
       <c r="AI358" s="19"/>
       <c r="AJ358" s="20"/>
     </row>
-    <row r="359" spans="1:36" ht="8.25" customHeight="1">
+    <row r="359" spans="1:36" ht="10.5" customHeight="1">
       <c r="A359" s="19"/>
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
@@ -13906,7 +13906,7 @@
       <c r="AI359" s="19"/>
       <c r="AJ359" s="20"/>
     </row>
-    <row r="360" spans="1:36" ht="8.25" customHeight="1">
+    <row r="360" spans="1:36" ht="10.5" customHeight="1">
       <c r="A360" s="19"/>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
@@ -13944,7 +13944,7 @@
       <c r="AI360" s="19"/>
       <c r="AJ360" s="20"/>
     </row>
-    <row r="361" spans="1:36" ht="8.25" customHeight="1">
+    <row r="361" spans="1:36" ht="10.5" customHeight="1">
       <c r="A361" s="19"/>
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
@@ -13982,7 +13982,7 @@
       <c r="AI361" s="19"/>
       <c r="AJ361" s="20"/>
     </row>
-    <row r="362" spans="1:36" ht="8.25" customHeight="1">
+    <row r="362" spans="1:36" ht="10.5" customHeight="1">
       <c r="A362" s="19"/>
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
@@ -14020,7 +14020,7 @@
       <c r="AI362" s="19"/>
       <c r="AJ362" s="20"/>
     </row>
-    <row r="363" spans="1:36" ht="8.25" customHeight="1">
+    <row r="363" spans="1:36" ht="10.5" customHeight="1">
       <c r="A363" s="19"/>
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
@@ -14058,7 +14058,7 @@
       <c r="AI363" s="19"/>
       <c r="AJ363" s="20"/>
     </row>
-    <row r="364" spans="1:36" ht="8.25" customHeight="1">
+    <row r="364" spans="1:36" ht="10.5" customHeight="1">
       <c r="A364" s="19"/>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
@@ -14096,7 +14096,7 @@
       <c r="AI364" s="19"/>
       <c r="AJ364" s="20"/>
     </row>
-    <row r="365" spans="1:36" ht="8.25" customHeight="1">
+    <row r="365" spans="1:36" ht="10.5" customHeight="1">
       <c r="A365" s="19"/>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
@@ -14134,7 +14134,7 @@
       <c r="AI365" s="19"/>
       <c r="AJ365" s="20"/>
     </row>
-    <row r="366" spans="1:36" ht="8.25" customHeight="1">
+    <row r="366" spans="1:36" ht="10.5" customHeight="1">
       <c r="A366" s="19"/>
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
@@ -14172,7 +14172,7 @@
       <c r="AI366" s="19"/>
       <c r="AJ366" s="20"/>
     </row>
-    <row r="367" spans="1:36" ht="8.25" customHeight="1">
+    <row r="367" spans="1:36" ht="10.5" customHeight="1">
       <c r="A367" s="19"/>
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
@@ -14210,7 +14210,7 @@
       <c r="AI367" s="19"/>
       <c r="AJ367" s="20"/>
     </row>
-    <row r="368" spans="1:36" ht="8.25" customHeight="1">
+    <row r="368" spans="1:36" ht="10.5" customHeight="1">
       <c r="A368" s="19"/>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
@@ -14248,7 +14248,7 @@
       <c r="AI368" s="19"/>
       <c r="AJ368" s="20"/>
     </row>
-    <row r="369" spans="1:36" ht="8.25" customHeight="1">
+    <row r="369" spans="1:36" ht="10.5" customHeight="1">
       <c r="A369" s="19"/>
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
@@ -14286,7 +14286,7 @@
       <c r="AI369" s="19"/>
       <c r="AJ369" s="20"/>
     </row>
-    <row r="370" spans="1:36" ht="8.25" customHeight="1">
+    <row r="370" spans="1:36" ht="10.5" customHeight="1">
       <c r="A370" s="19"/>
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
@@ -14324,7 +14324,7 @@
       <c r="AI370" s="19"/>
       <c r="AJ370" s="20"/>
     </row>
-    <row r="371" spans="1:36" ht="8.25" customHeight="1">
+    <row r="371" spans="1:36" ht="10.5" customHeight="1">
       <c r="A371" s="19"/>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
@@ -14362,7 +14362,7 @@
       <c r="AI371" s="19"/>
       <c r="AJ371" s="20"/>
     </row>
-    <row r="372" spans="1:36" ht="8.25" customHeight="1">
+    <row r="372" spans="1:36" ht="10.5" customHeight="1">
       <c r="A372" s="19"/>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
@@ -14400,7 +14400,7 @@
       <c r="AI372" s="19"/>
       <c r="AJ372" s="20"/>
     </row>
-    <row r="373" spans="1:36" ht="8.25" customHeight="1">
+    <row r="373" spans="1:36" ht="10.5" customHeight="1">
       <c r="A373" s="19"/>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
@@ -14438,7 +14438,7 @@
       <c r="AI373" s="19"/>
       <c r="AJ373" s="20"/>
     </row>
-    <row r="374" spans="1:36" ht="8.25" customHeight="1">
+    <row r="374" spans="1:36" ht="10.5" customHeight="1">
       <c r="A374" s="19"/>
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
@@ -14476,7 +14476,7 @@
       <c r="AI374" s="19"/>
       <c r="AJ374" s="20"/>
     </row>
-    <row r="375" spans="1:36" ht="8.25" customHeight="1">
+    <row r="375" spans="1:36" ht="10.5" customHeight="1">
       <c r="A375" s="19"/>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
@@ -14514,7 +14514,7 @@
       <c r="AI375" s="19"/>
       <c r="AJ375" s="20"/>
     </row>
-    <row r="376" spans="1:36" ht="8.25" customHeight="1">
+    <row r="376" spans="1:36" ht="10.5" customHeight="1">
       <c r="A376" s="19"/>
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
@@ -14552,7 +14552,7 @@
       <c r="AI376" s="19"/>
       <c r="AJ376" s="20"/>
     </row>
-    <row r="377" spans="1:36" ht="8.25" customHeight="1">
+    <row r="377" spans="1:36" ht="10.5" customHeight="1">
       <c r="A377" s="19"/>
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
@@ -14590,7 +14590,7 @@
       <c r="AI377" s="19"/>
       <c r="AJ377" s="20"/>
     </row>
-    <row r="378" spans="1:36" ht="8.25" customHeight="1">
+    <row r="378" spans="1:36" ht="10.5" customHeight="1">
       <c r="A378" s="19"/>
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
@@ -14628,7 +14628,7 @@
       <c r="AI378" s="19"/>
       <c r="AJ378" s="20"/>
     </row>
-    <row r="379" spans="1:36" ht="8.25" customHeight="1">
+    <row r="379" spans="1:36" ht="10.5" customHeight="1">
       <c r="A379" s="19"/>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
@@ -14666,7 +14666,7 @@
       <c r="AI379" s="19"/>
       <c r="AJ379" s="20"/>
     </row>
-    <row r="380" spans="1:36" ht="8.25" customHeight="1">
+    <row r="380" spans="1:36" ht="10.5" customHeight="1">
       <c r="A380" s="19"/>
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
@@ -14704,7 +14704,7 @@
       <c r="AI380" s="19"/>
       <c r="AJ380" s="20"/>
     </row>
-    <row r="381" spans="1:36" ht="8.25" customHeight="1">
+    <row r="381" spans="1:36" ht="10.5" customHeight="1">
       <c r="A381" s="19"/>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
@@ -14742,7 +14742,7 @@
       <c r="AI381" s="19"/>
       <c r="AJ381" s="20"/>
     </row>
-    <row r="382" spans="1:36" ht="8.25" customHeight="1">
+    <row r="382" spans="1:36" ht="10.5" customHeight="1">
       <c r="A382" s="19"/>
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
@@ -14780,7 +14780,7 @@
       <c r="AI382" s="19"/>
       <c r="AJ382" s="20"/>
     </row>
-    <row r="383" spans="1:36" ht="8.25" customHeight="1">
+    <row r="383" spans="1:36" ht="10.5" customHeight="1">
       <c r="A383" s="19"/>
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
@@ -14818,7 +14818,7 @@
       <c r="AI383" s="19"/>
       <c r="AJ383" s="20"/>
     </row>
-    <row r="384" spans="1:36" ht="8.25" customHeight="1">
+    <row r="384" spans="1:36" ht="10.5" customHeight="1">
       <c r="A384" s="19"/>
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
@@ -14856,7 +14856,7 @@
       <c r="AI384" s="19"/>
       <c r="AJ384" s="20"/>
     </row>
-    <row r="385" spans="1:36" ht="8.25" customHeight="1">
+    <row r="385" spans="1:36" ht="10.5" customHeight="1">
       <c r="A385" s="19"/>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
@@ -14894,7 +14894,7 @@
       <c r="AI385" s="19"/>
       <c r="AJ385" s="20"/>
     </row>
-    <row r="386" spans="1:36" ht="8.25" customHeight="1">
+    <row r="386" spans="1:36" ht="10.5" customHeight="1">
       <c r="A386" s="19"/>
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
@@ -14932,7 +14932,7 @@
       <c r="AI386" s="19"/>
       <c r="AJ386" s="20"/>
     </row>
-    <row r="387" spans="1:36" ht="8.25" customHeight="1">
+    <row r="387" spans="1:36" ht="10.5" customHeight="1">
       <c r="A387" s="19"/>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
@@ -14970,7 +14970,7 @@
       <c r="AI387" s="19"/>
       <c r="AJ387" s="20"/>
     </row>
-    <row r="388" spans="1:36" ht="8.25" customHeight="1">
+    <row r="388" spans="1:36" ht="10.5" customHeight="1">
       <c r="A388" s="19"/>
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
@@ -15008,7 +15008,7 @@
       <c r="AI388" s="19"/>
       <c r="AJ388" s="20"/>
     </row>
-    <row r="389" spans="1:36" ht="8.25" customHeight="1">
+    <row r="389" spans="1:36" ht="10.5" customHeight="1">
       <c r="A389" s="19"/>
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
@@ -15046,7 +15046,7 @@
       <c r="AI389" s="19"/>
       <c r="AJ389" s="20"/>
     </row>
-    <row r="390" spans="1:36" ht="8.25" customHeight="1">
+    <row r="390" spans="1:36" ht="10.5" customHeight="1">
       <c r="A390" s="19"/>
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
@@ -15084,7 +15084,7 @@
       <c r="AI390" s="19"/>
       <c r="AJ390" s="20"/>
     </row>
-    <row r="391" spans="1:36" ht="8.25" customHeight="1">
+    <row r="391" spans="1:36" ht="10.5" customHeight="1">
       <c r="A391" s="19"/>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
@@ -15122,7 +15122,7 @@
       <c r="AI391" s="19"/>
       <c r="AJ391" s="20"/>
     </row>
-    <row r="392" spans="1:36" ht="8.25" customHeight="1">
+    <row r="392" spans="1:36" ht="10.5" customHeight="1">
       <c r="A392" s="19"/>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
@@ -15160,7 +15160,7 @@
       <c r="AI392" s="19"/>
       <c r="AJ392" s="20"/>
     </row>
-    <row r="393" spans="1:36" ht="8.25" customHeight="1">
+    <row r="393" spans="1:36" ht="10.5" customHeight="1">
       <c r="A393" s="19"/>
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
@@ -15198,7 +15198,7 @@
       <c r="AI393" s="19"/>
       <c r="AJ393" s="20"/>
     </row>
-    <row r="394" spans="1:36" ht="8.25" customHeight="1">
+    <row r="394" spans="1:36" ht="10.5" customHeight="1">
       <c r="A394" s="19"/>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
@@ -15236,7 +15236,7 @@
       <c r="AI394" s="19"/>
       <c r="AJ394" s="20"/>
     </row>
-    <row r="395" spans="1:36" ht="8.25" customHeight="1">
+    <row r="395" spans="1:36" ht="10.5" customHeight="1">
       <c r="A395" s="19"/>
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
@@ -15274,7 +15274,7 @@
       <c r="AI395" s="19"/>
       <c r="AJ395" s="20"/>
     </row>
-    <row r="396" spans="1:36" ht="8.25" customHeight="1">
+    <row r="396" spans="1:36" ht="10.5" customHeight="1">
       <c r="A396" s="19"/>
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
@@ -15312,7 +15312,7 @@
       <c r="AI396" s="19"/>
       <c r="AJ396" s="20"/>
     </row>
-    <row r="397" spans="1:36" ht="8.25" customHeight="1">
+    <row r="397" spans="1:36" ht="10.5" customHeight="1">
       <c r="A397" s="19"/>
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
@@ -15350,7 +15350,7 @@
       <c r="AI397" s="19"/>
       <c r="AJ397" s="20"/>
     </row>
-    <row r="398" spans="1:36" ht="8.25" customHeight="1">
+    <row r="398" spans="1:36" ht="10.5" customHeight="1">
       <c r="A398" s="19"/>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
@@ -15388,7 +15388,7 @@
       <c r="AI398" s="19"/>
       <c r="AJ398" s="20"/>
     </row>
-    <row r="399" spans="1:36" ht="8.25" customHeight="1">
+    <row r="399" spans="1:36" ht="10.5" customHeight="1">
       <c r="A399" s="19"/>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
@@ -15426,7 +15426,7 @@
       <c r="AI399" s="19"/>
       <c r="AJ399" s="20"/>
     </row>
-    <row r="400" spans="1:36" ht="8.25" customHeight="1">
+    <row r="400" spans="1:36" ht="10.5" customHeight="1">
       <c r="A400" s="19"/>
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
@@ -15464,7 +15464,7 @@
       <c r="AI400" s="19"/>
       <c r="AJ400" s="20"/>
     </row>
-    <row r="401" spans="1:36" ht="8.25" customHeight="1">
+    <row r="401" spans="1:36" ht="10.5" customHeight="1">
       <c r="A401" s="19"/>
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
@@ -15502,7 +15502,7 @@
       <c r="AI401" s="19"/>
       <c r="AJ401" s="20"/>
     </row>
-    <row r="402" spans="1:36" ht="8.25" customHeight="1">
+    <row r="402" spans="1:36" ht="10.5" customHeight="1">
       <c r="A402" s="19"/>
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
@@ -15540,7 +15540,7 @@
       <c r="AI402" s="19"/>
       <c r="AJ402" s="20"/>
     </row>
-    <row r="403" spans="1:36" ht="8.25" customHeight="1">
+    <row r="403" spans="1:36" ht="10.5" customHeight="1">
       <c r="A403" s="19"/>
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
@@ -15578,7 +15578,7 @@
       <c r="AI403" s="19"/>
       <c r="AJ403" s="20"/>
     </row>
-    <row r="404" spans="1:36" ht="8.25" customHeight="1">
+    <row r="404" spans="1:36" ht="10.5" customHeight="1">
       <c r="A404" s="19"/>
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
@@ -15616,7 +15616,7 @@
       <c r="AI404" s="19"/>
       <c r="AJ404" s="20"/>
     </row>
-    <row r="405" spans="1:36" ht="8.25" customHeight="1">
+    <row r="405" spans="1:36" ht="10.5" customHeight="1">
       <c r="A405" s="19"/>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
@@ -15654,7 +15654,7 @@
       <c r="AI405" s="19"/>
       <c r="AJ405" s="20"/>
     </row>
-    <row r="406" spans="1:36" ht="8.25" customHeight="1">
+    <row r="406" spans="1:36" ht="10.5" customHeight="1">
       <c r="A406" s="19"/>
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
@@ -15692,7 +15692,7 @@
       <c r="AI406" s="19"/>
       <c r="AJ406" s="20"/>
     </row>
-    <row r="407" spans="1:36" ht="8.25" customHeight="1">
+    <row r="407" spans="1:36" ht="10.5" customHeight="1">
       <c r="A407" s="19"/>
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
@@ -15730,7 +15730,7 @@
       <c r="AI407" s="19"/>
       <c r="AJ407" s="20"/>
     </row>
-    <row r="408" spans="1:36" ht="8.25" customHeight="1">
+    <row r="408" spans="1:36" ht="10.5" customHeight="1">
       <c r="A408" s="19"/>
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
@@ -15768,7 +15768,7 @@
       <c r="AI408" s="19"/>
       <c r="AJ408" s="20"/>
     </row>
-    <row r="409" spans="1:36" ht="8.25" customHeight="1">
+    <row r="409" spans="1:36" ht="10.5" customHeight="1">
       <c r="A409" s="19"/>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -15806,7 +15806,7 @@
       <c r="AI409" s="19"/>
       <c r="AJ409" s="20"/>
     </row>
-    <row r="410" spans="1:36" ht="8.25" customHeight="1">
+    <row r="410" spans="1:36" ht="10.5" customHeight="1">
       <c r="A410" s="19"/>
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
@@ -15844,7 +15844,7 @@
       <c r="AI410" s="19"/>
       <c r="AJ410" s="20"/>
     </row>
-    <row r="411" spans="1:36" ht="8.25" customHeight="1">
+    <row r="411" spans="1:36" ht="10.5" customHeight="1">
       <c r="A411" s="19"/>
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
@@ -15882,7 +15882,7 @@
       <c r="AI411" s="19"/>
       <c r="AJ411" s="20"/>
     </row>
-    <row r="412" spans="1:36" ht="8.25" customHeight="1">
+    <row r="412" spans="1:36" ht="10.5" customHeight="1">
       <c r="A412" s="19"/>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -15920,7 +15920,7 @@
       <c r="AI412" s="19"/>
       <c r="AJ412" s="20"/>
     </row>
-    <row r="413" spans="1:36" ht="8.25" customHeight="1">
+    <row r="413" spans="1:36" ht="10.5" customHeight="1">
       <c r="A413" s="19"/>
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
@@ -15958,7 +15958,7 @@
       <c r="AI413" s="19"/>
       <c r="AJ413" s="20"/>
     </row>
-    <row r="414" spans="1:36" ht="8.25" customHeight="1">
+    <row r="414" spans="1:36" ht="10.5" customHeight="1">
       <c r="A414" s="19"/>
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
@@ -15996,7 +15996,7 @@
       <c r="AI414" s="19"/>
       <c r="AJ414" s="20"/>
     </row>
-    <row r="415" spans="1:36" ht="8.25" customHeight="1">
+    <row r="415" spans="1:36" ht="10.5" customHeight="1">
       <c r="A415" s="19"/>
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
@@ -16034,7 +16034,7 @@
       <c r="AI415" s="19"/>
       <c r="AJ415" s="20"/>
     </row>
-    <row r="416" spans="1:36" ht="8.25" customHeight="1">
+    <row r="416" spans="1:36" ht="10.5" customHeight="1">
       <c r="A416" s="19"/>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -16072,7 +16072,7 @@
       <c r="AI416" s="19"/>
       <c r="AJ416" s="20"/>
     </row>
-    <row r="417" spans="1:36" ht="8.25" customHeight="1">
+    <row r="417" spans="1:36" ht="10.5" customHeight="1">
       <c r="A417" s="19"/>
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
@@ -16110,7 +16110,7 @@
       <c r="AI417" s="19"/>
       <c r="AJ417" s="20"/>
     </row>
-    <row r="418" spans="1:36" ht="8.25" customHeight="1">
+    <row r="418" spans="1:36" ht="10.5" customHeight="1">
       <c r="A418" s="19"/>
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
@@ -16148,7 +16148,7 @@
       <c r="AI418" s="19"/>
       <c r="AJ418" s="20"/>
     </row>
-    <row r="419" spans="1:36" ht="8.25" customHeight="1">
+    <row r="419" spans="1:36" ht="10.5" customHeight="1">
       <c r="A419" s="19"/>
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
@@ -16186,7 +16186,7 @@
       <c r="AI419" s="19"/>
       <c r="AJ419" s="20"/>
     </row>
-    <row r="420" spans="1:36" ht="8.25" customHeight="1">
+    <row r="420" spans="1:36" ht="10.5" customHeight="1">
       <c r="A420" s="19"/>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -16224,7 +16224,7 @@
       <c r="AI420" s="19"/>
       <c r="AJ420" s="20"/>
     </row>
-    <row r="421" spans="1:36" ht="8.25" customHeight="1">
+    <row r="421" spans="1:36" ht="10.5" customHeight="1">
       <c r="A421" s="19"/>
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
@@ -16262,7 +16262,7 @@
       <c r="AI421" s="19"/>
       <c r="AJ421" s="20"/>
     </row>
-    <row r="422" spans="1:36" ht="8.25" customHeight="1">
+    <row r="422" spans="1:36" ht="10.5" customHeight="1">
       <c r="A422" s="19"/>
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
@@ -16300,7 +16300,7 @@
       <c r="AI422" s="19"/>
       <c r="AJ422" s="20"/>
     </row>
-    <row r="423" spans="1:36" ht="8.25" customHeight="1">
+    <row r="423" spans="1:36" ht="10.5" customHeight="1">
       <c r="A423" s="19"/>
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
@@ -16338,7 +16338,7 @@
       <c r="AI423" s="19"/>
       <c r="AJ423" s="20"/>
     </row>
-    <row r="424" spans="1:36" ht="8.25" customHeight="1">
+    <row r="424" spans="1:36" ht="10.5" customHeight="1">
       <c r="A424" s="19"/>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
@@ -16376,7 +16376,7 @@
       <c r="AI424" s="19"/>
       <c r="AJ424" s="20"/>
     </row>
-    <row r="425" spans="1:36" ht="8.25" customHeight="1">
+    <row r="425" spans="1:36" ht="10.5" customHeight="1">
       <c r="A425" s="19"/>
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
@@ -16414,7 +16414,7 @@
       <c r="AI425" s="19"/>
       <c r="AJ425" s="20"/>
     </row>
-    <row r="426" spans="1:36" ht="8.25" customHeight="1">
+    <row r="426" spans="1:36" ht="10.5" customHeight="1">
       <c r="A426" s="19"/>
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
@@ -16452,7 +16452,7 @@
       <c r="AI426" s="19"/>
       <c r="AJ426" s="20"/>
     </row>
-    <row r="427" spans="1:36" ht="8.25" customHeight="1">
+    <row r="427" spans="1:36" ht="10.5" customHeight="1">
       <c r="A427" s="19"/>
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
@@ -16490,7 +16490,7 @@
       <c r="AI427" s="19"/>
       <c r="AJ427" s="20"/>
     </row>
-    <row r="428" spans="1:36" ht="8.25" customHeight="1">
+    <row r="428" spans="1:36" ht="10.5" customHeight="1">
       <c r="A428" s="19"/>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
@@ -16528,7 +16528,7 @@
       <c r="AI428" s="19"/>
       <c r="AJ428" s="20"/>
     </row>
-    <row r="429" spans="1:36" ht="8.25" customHeight="1">
+    <row r="429" spans="1:36" ht="10.5" customHeight="1">
       <c r="A429" s="19"/>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
@@ -16566,7 +16566,7 @@
       <c r="AI429" s="19"/>
       <c r="AJ429" s="20"/>
     </row>
-    <row r="430" spans="1:36" ht="8.25" customHeight="1">
+    <row r="430" spans="1:36" ht="10.5" customHeight="1">
       <c r="A430" s="19"/>
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
@@ -16604,7 +16604,7 @@
       <c r="AI430" s="19"/>
       <c r="AJ430" s="20"/>
     </row>
-    <row r="431" spans="1:36" ht="8.25" customHeight="1">
+    <row r="431" spans="1:36" ht="10.5" customHeight="1">
       <c r="A431" s="19"/>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
@@ -16642,7 +16642,7 @@
       <c r="AI431" s="19"/>
       <c r="AJ431" s="20"/>
     </row>
-    <row r="432" spans="1:36" ht="8.25" customHeight="1">
+    <row r="432" spans="1:36" ht="10.5" customHeight="1">
       <c r="A432" s="19"/>
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
@@ -16680,7 +16680,7 @@
       <c r="AI432" s="19"/>
       <c r="AJ432" s="20"/>
     </row>
-    <row r="433" spans="1:36" ht="8.25" customHeight="1">
+    <row r="433" spans="1:36" ht="10.5" customHeight="1">
       <c r="A433" s="19"/>
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
@@ -16718,7 +16718,7 @@
       <c r="AI433" s="19"/>
       <c r="AJ433" s="20"/>
     </row>
-    <row r="434" spans="1:36" ht="8.25" customHeight="1">
+    <row r="434" spans="1:36" ht="10.5" customHeight="1">
       <c r="A434" s="19"/>
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
@@ -16756,7 +16756,7 @@
       <c r="AI434" s="19"/>
       <c r="AJ434" s="20"/>
     </row>
-    <row r="435" spans="1:36" ht="8.25" customHeight="1">
+    <row r="435" spans="1:36" ht="10.5" customHeight="1">
       <c r="A435" s="19"/>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
@@ -16794,7 +16794,7 @@
       <c r="AI435" s="19"/>
       <c r="AJ435" s="20"/>
     </row>
-    <row r="436" spans="1:36" ht="8.25" customHeight="1">
+    <row r="436" spans="1:36" ht="10.5" customHeight="1">
       <c r="A436" s="19"/>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
@@ -16832,7 +16832,7 @@
       <c r="AI436" s="19"/>
       <c r="AJ436" s="20"/>
     </row>
-    <row r="437" spans="1:36" ht="8.25" customHeight="1">
+    <row r="437" spans="1:36" ht="10.5" customHeight="1">
       <c r="A437" s="19"/>
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
@@ -16870,7 +16870,7 @@
       <c r="AI437" s="19"/>
       <c r="AJ437" s="20"/>
     </row>
-    <row r="438" spans="1:36" ht="8.25" customHeight="1">
+    <row r="438" spans="1:36" ht="10.5" customHeight="1">
       <c r="A438" s="19"/>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
@@ -16908,7 +16908,7 @@
       <c r="AI438" s="19"/>
       <c r="AJ438" s="20"/>
     </row>
-    <row r="439" spans="1:36" ht="8.25" customHeight="1">
+    <row r="439" spans="1:36" ht="10.5" customHeight="1">
       <c r="A439" s="19"/>
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
@@ -16946,7 +16946,7 @@
       <c r="AI439" s="19"/>
       <c r="AJ439" s="20"/>
     </row>
-    <row r="440" spans="1:36" ht="8.25" customHeight="1">
+    <row r="440" spans="1:36" ht="10.5" customHeight="1">
       <c r="A440" s="19"/>
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
@@ -16984,7 +16984,7 @@
       <c r="AI440" s="19"/>
       <c r="AJ440" s="20"/>
     </row>
-    <row r="441" spans="1:36" ht="8.25" customHeight="1">
+    <row r="441" spans="1:36" ht="10.5" customHeight="1">
       <c r="A441" s="19"/>
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
@@ -17022,7 +17022,7 @@
       <c r="AI441" s="19"/>
       <c r="AJ441" s="20"/>
     </row>
-    <row r="442" spans="1:36" ht="8.25" customHeight="1">
+    <row r="442" spans="1:36" ht="10.5" customHeight="1">
       <c r="A442" s="19"/>
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
@@ -17060,7 +17060,7 @@
       <c r="AI442" s="19"/>
       <c r="AJ442" s="20"/>
     </row>
-    <row r="443" spans="1:36" ht="8.25" customHeight="1">
+    <row r="443" spans="1:36" ht="10.5" customHeight="1">
       <c r="A443" s="19"/>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
@@ -17098,7 +17098,7 @@
       <c r="AI443" s="19"/>
       <c r="AJ443" s="20"/>
     </row>
-    <row r="444" spans="1:36" ht="8.25" customHeight="1">
+    <row r="444" spans="1:36" ht="10.5" customHeight="1">
       <c r="A444" s="19"/>
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
@@ -17136,7 +17136,7 @@
       <c r="AI444" s="19"/>
       <c r="AJ444" s="20"/>
     </row>
-    <row r="445" spans="1:36" ht="8.25" customHeight="1">
+    <row r="445" spans="1:36" ht="10.5" customHeight="1">
       <c r="A445" s="19"/>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
@@ -17174,7 +17174,7 @@
       <c r="AI445" s="19"/>
       <c r="AJ445" s="20"/>
     </row>
-    <row r="446" spans="1:36" ht="8.25" customHeight="1">
+    <row r="446" spans="1:36" ht="10.5" customHeight="1">
       <c r="A446" s="19"/>
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
@@ -17212,7 +17212,7 @@
       <c r="AI446" s="19"/>
       <c r="AJ446" s="20"/>
     </row>
-    <row r="447" spans="1:36" ht="8.25" customHeight="1">
+    <row r="447" spans="1:36" ht="10.5" customHeight="1">
       <c r="A447" s="19"/>
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
@@ -17250,7 +17250,7 @@
       <c r="AI447" s="19"/>
       <c r="AJ447" s="20"/>
     </row>
-    <row r="448" spans="1:36" ht="8.25" customHeight="1">
+    <row r="448" spans="1:36" ht="10.5" customHeight="1">
       <c r="A448" s="19"/>
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
@@ -17288,7 +17288,7 @@
       <c r="AI448" s="19"/>
       <c r="AJ448" s="20"/>
     </row>
-    <row r="449" spans="1:36" ht="8.25" customHeight="1">
+    <row r="449" spans="1:36" ht="10.5" customHeight="1">
       <c r="A449" s="19"/>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
@@ -17326,7 +17326,7 @@
       <c r="AI449" s="19"/>
       <c r="AJ449" s="20"/>
     </row>
-    <row r="450" spans="1:36" ht="8.25" customHeight="1">
+    <row r="450" spans="1:36" ht="10.5" customHeight="1">
       <c r="A450" s="19"/>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
@@ -17364,7 +17364,7 @@
       <c r="AI450" s="19"/>
       <c r="AJ450" s="20"/>
     </row>
-    <row r="451" spans="1:36" ht="8.25" customHeight="1">
+    <row r="451" spans="1:36" ht="10.5" customHeight="1">
       <c r="A451" s="19"/>
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
@@ -17402,7 +17402,7 @@
       <c r="AI451" s="19"/>
       <c r="AJ451" s="20"/>
     </row>
-    <row r="452" spans="1:36" ht="8.25" customHeight="1">
+    <row r="452" spans="1:36" ht="10.5" customHeight="1">
       <c r="A452" s="19"/>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
@@ -17440,7 +17440,7 @@
       <c r="AI452" s="19"/>
       <c r="AJ452" s="20"/>
     </row>
-    <row r="453" spans="1:36" ht="8.25" customHeight="1">
+    <row r="453" spans="1:36" ht="10.5" customHeight="1">
       <c r="A453" s="19"/>
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
@@ -17478,7 +17478,7 @@
       <c r="AI453" s="19"/>
       <c r="AJ453" s="20"/>
     </row>
-    <row r="454" spans="1:36" ht="8.25" customHeight="1">
+    <row r="454" spans="1:36" ht="10.5" customHeight="1">
       <c r="A454" s="19"/>
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
@@ -17516,7 +17516,7 @@
       <c r="AI454" s="19"/>
       <c r="AJ454" s="20"/>
     </row>
-    <row r="455" spans="1:36" ht="8.25" customHeight="1">
+    <row r="455" spans="1:36" ht="10.5" customHeight="1">
       <c r="A455" s="19"/>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
@@ -17554,7 +17554,7 @@
       <c r="AI455" s="19"/>
       <c r="AJ455" s="20"/>
     </row>
-    <row r="456" spans="1:36" ht="8.25" customHeight="1">
+    <row r="456" spans="1:36" ht="10.5" customHeight="1">
       <c r="A456" s="19"/>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
@@ -17592,7 +17592,7 @@
       <c r="AI456" s="19"/>
       <c r="AJ456" s="20"/>
     </row>
-    <row r="457" spans="1:36" ht="8.25" customHeight="1">
+    <row r="457" spans="1:36" ht="10.5" customHeight="1">
       <c r="A457" s="19"/>
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
@@ -17630,7 +17630,7 @@
       <c r="AI457" s="19"/>
       <c r="AJ457" s="20"/>
     </row>
-    <row r="458" spans="1:36" ht="8.25" customHeight="1">
+    <row r="458" spans="1:36" ht="10.5" customHeight="1">
       <c r="A458" s="19"/>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
@@ -17668,7 +17668,7 @@
       <c r="AI458" s="19"/>
       <c r="AJ458" s="20"/>
     </row>
-    <row r="459" spans="1:36" ht="8.25" customHeight="1">
+    <row r="459" spans="1:36" ht="10.5" customHeight="1">
       <c r="A459" s="19"/>
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
@@ -17706,7 +17706,7 @@
       <c r="AI459" s="19"/>
       <c r="AJ459" s="20"/>
     </row>
-    <row r="460" spans="1:36" ht="8.25" customHeight="1">
+    <row r="460" spans="1:36" ht="10.5" customHeight="1">
       <c r="A460" s="19"/>
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
@@ -17744,7 +17744,7 @@
       <c r="AI460" s="19"/>
       <c r="AJ460" s="20"/>
     </row>
-    <row r="461" spans="1:36" ht="8.25" customHeight="1">
+    <row r="461" spans="1:36" ht="10.5" customHeight="1">
       <c r="A461" s="19"/>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
@@ -17782,7 +17782,7 @@
       <c r="AI461" s="19"/>
       <c r="AJ461" s="20"/>
     </row>
-    <row r="462" spans="1:36" ht="8.25" customHeight="1">
+    <row r="462" spans="1:36" ht="10.5" customHeight="1">
       <c r="A462" s="19"/>
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
@@ -17820,7 +17820,7 @@
       <c r="AI462" s="19"/>
       <c r="AJ462" s="20"/>
     </row>
-    <row r="463" spans="1:36" ht="8.25" customHeight="1">
+    <row r="463" spans="1:36" ht="10.5" customHeight="1">
       <c r="A463" s="19"/>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
@@ -17858,7 +17858,7 @@
       <c r="AI463" s="19"/>
       <c r="AJ463" s="20"/>
     </row>
-    <row r="464" spans="1:36" ht="8.25" customHeight="1">
+    <row r="464" spans="1:36" ht="10.5" customHeight="1">
       <c r="A464" s="19"/>
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>
@@ -17896,7 +17896,7 @@
       <c r="AI464" s="19"/>
       <c r="AJ464" s="20"/>
     </row>
-    <row r="465" spans="1:36" ht="8.25" customHeight="1">
+    <row r="465" spans="1:36" ht="10.5" customHeight="1">
       <c r="A465" s="19"/>
       <c r="B465" s="19"/>
       <c r="C465" s="19"/>
@@ -17934,7 +17934,7 @@
       <c r="AI465" s="19"/>
       <c r="AJ465" s="20"/>
     </row>
-    <row r="466" spans="1:36" ht="8.25" customHeight="1">
+    <row r="466" spans="1:36" ht="10.5" customHeight="1">
       <c r="A466" s="19"/>
       <c r="B466" s="19"/>
       <c r="C466" s="19"/>
@@ -17972,7 +17972,7 @@
       <c r="AI466" s="19"/>
       <c r="AJ466" s="20"/>
     </row>
-    <row r="467" spans="1:36" ht="8.25" customHeight="1">
+    <row r="467" spans="1:36" ht="10.5" customHeight="1">
       <c r="A467" s="19"/>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
@@ -18010,7 +18010,7 @@
       <c r="AI467" s="19"/>
       <c r="AJ467" s="20"/>
     </row>
-    <row r="468" spans="1:36" ht="8.25" customHeight="1">
+    <row r="468" spans="1:36" ht="10.5" customHeight="1">
       <c r="A468" s="19"/>
       <c r="B468" s="19"/>
       <c r="C468" s="19"/>
@@ -18048,7 +18048,7 @@
       <c r="AI468" s="19"/>
       <c r="AJ468" s="20"/>
     </row>
-    <row r="469" spans="1:36" ht="8.25" customHeight="1">
+    <row r="469" spans="1:36" ht="10.5" customHeight="1">
       <c r="A469" s="19"/>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
@@ -18086,7 +18086,7 @@
       <c r="AI469" s="19"/>
       <c r="AJ469" s="20"/>
     </row>
-    <row r="470" spans="1:36" ht="8.25" customHeight="1">
+    <row r="470" spans="1:36" ht="10.5" customHeight="1">
       <c r="A470" s="19"/>
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
@@ -18124,7 +18124,7 @@
       <c r="AI470" s="19"/>
       <c r="AJ470" s="20"/>
     </row>
-    <row r="471" spans="1:36" ht="8.25" customHeight="1">
+    <row r="471" spans="1:36" ht="10.5" customHeight="1">
       <c r="A471" s="19"/>
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
@@ -18162,7 +18162,7 @@
       <c r="AI471" s="19"/>
       <c r="AJ471" s="20"/>
     </row>
-    <row r="472" spans="1:36" ht="8.25" customHeight="1">
+    <row r="472" spans="1:36" ht="10.5" customHeight="1">
       <c r="A472" s="19"/>
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
@@ -18200,7 +18200,7 @@
       <c r="AI472" s="19"/>
       <c r="AJ472" s="20"/>
     </row>
-    <row r="473" spans="1:36" ht="8.25" customHeight="1">
+    <row r="473" spans="1:36" ht="10.5" customHeight="1">
       <c r="A473" s="19"/>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
@@ -18238,7 +18238,7 @@
       <c r="AI473" s="19"/>
       <c r="AJ473" s="20"/>
     </row>
-    <row r="474" spans="1:36" ht="8.25" customHeight="1">
+    <row r="474" spans="1:36" ht="10.5" customHeight="1">
       <c r="A474" s="19"/>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
@@ -18276,7 +18276,7 @@
       <c r="AI474" s="19"/>
       <c r="AJ474" s="20"/>
     </row>
-    <row r="475" spans="1:36" ht="8.25" customHeight="1">
+    <row r="475" spans="1:36" ht="10.5" customHeight="1">
       <c r="A475" s="19"/>
       <c r="B475" s="19"/>
       <c r="C475" s="19"/>
@@ -18314,7 +18314,7 @@
       <c r="AI475" s="19"/>
       <c r="AJ475" s="20"/>
     </row>
-    <row r="476" spans="1:36" ht="8.25" customHeight="1">
+    <row r="476" spans="1:36" ht="10.5" customHeight="1">
       <c r="A476" s="19"/>
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
@@ -18352,7 +18352,7 @@
       <c r="AI476" s="19"/>
       <c r="AJ476" s="20"/>
     </row>
-    <row r="477" spans="1:36" ht="8.25" customHeight="1">
+    <row r="477" spans="1:36" ht="10.5" customHeight="1">
       <c r="A477" s="19"/>
       <c r="B477" s="19"/>
       <c r="C477" s="19"/>
@@ -18390,7 +18390,7 @@
       <c r="AI477" s="19"/>
       <c r="AJ477" s="20"/>
     </row>
-    <row r="478" spans="1:36" ht="8.25" customHeight="1">
+    <row r="478" spans="1:36" ht="10.5" customHeight="1">
       <c r="A478" s="19"/>
       <c r="B478" s="19"/>
       <c r="C478" s="19"/>
@@ -18428,7 +18428,7 @@
       <c r="AI478" s="19"/>
       <c r="AJ478" s="20"/>
     </row>
-    <row r="479" spans="1:36" ht="8.25" customHeight="1">
+    <row r="479" spans="1:36" ht="10.5" customHeight="1">
       <c r="A479" s="19"/>
       <c r="B479" s="19"/>
       <c r="C479" s="19"/>
@@ -18466,7 +18466,7 @@
       <c r="AI479" s="19"/>
       <c r="AJ479" s="20"/>
     </row>
-    <row r="480" spans="1:36" ht="8.25" customHeight="1">
+    <row r="480" spans="1:36" ht="10.5" customHeight="1">
       <c r="A480" s="19"/>
       <c r="B480" s="19"/>
       <c r="C480" s="19"/>
@@ -18504,7 +18504,7 @@
       <c r="AI480" s="19"/>
       <c r="AJ480" s="20"/>
     </row>
-    <row r="481" spans="1:36" ht="8.25" customHeight="1">
+    <row r="481" spans="1:36" ht="10.5" customHeight="1">
       <c r="A481" s="19"/>
       <c r="B481" s="19"/>
       <c r="C481" s="19"/>
@@ -18542,7 +18542,7 @@
       <c r="AI481" s="19"/>
       <c r="AJ481" s="20"/>
     </row>
-    <row r="482" spans="1:36" ht="8.25" customHeight="1">
+    <row r="482" spans="1:36" ht="10.5" customHeight="1">
       <c r="A482" s="19"/>
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
@@ -18580,7 +18580,7 @@
       <c r="AI482" s="19"/>
       <c r="AJ482" s="20"/>
     </row>
-    <row r="483" spans="1:36" ht="8.25" customHeight="1">
+    <row r="483" spans="1:36" ht="10.5" customHeight="1">
       <c r="A483" s="19"/>
       <c r="B483" s="19"/>
       <c r="C483" s="19"/>
@@ -18618,7 +18618,7 @@
       <c r="AI483" s="19"/>
       <c r="AJ483" s="20"/>
     </row>
-    <row r="484" spans="1:36" ht="8.25" customHeight="1">
+    <row r="484" spans="1:36" ht="10.5" customHeight="1">
       <c r="A484" s="19"/>
       <c r="B484" s="19"/>
       <c r="C484" s="19"/>
@@ -18656,7 +18656,7 @@
       <c r="AI484" s="19"/>
       <c r="AJ484" s="20"/>
     </row>
-    <row r="485" spans="1:36" ht="8.25" customHeight="1">
+    <row r="485" spans="1:36" ht="10.5" customHeight="1">
       <c r="A485" s="19"/>
       <c r="B485" s="19"/>
       <c r="C485" s="19"/>
@@ -18694,7 +18694,7 @@
       <c r="AI485" s="19"/>
       <c r="AJ485" s="20"/>
     </row>
-    <row r="486" spans="1:36" ht="8.25" customHeight="1">
+    <row r="486" spans="1:36" ht="10.5" customHeight="1">
       <c r="A486" s="19"/>
       <c r="B486" s="19"/>
       <c r="C486" s="19"/>
@@ -18732,7 +18732,7 @@
       <c r="AI486" s="19"/>
       <c r="AJ486" s="20"/>
     </row>
-    <row r="487" spans="1:36" ht="8.25" customHeight="1">
+    <row r="487" spans="1:36" ht="10.5" customHeight="1">
       <c r="A487" s="19"/>
       <c r="B487" s="19"/>
       <c r="C487" s="19"/>
@@ -18770,7 +18770,7 @@
       <c r="AI487" s="19"/>
       <c r="AJ487" s="20"/>
     </row>
-    <row r="488" spans="1:36" ht="8.25" customHeight="1">
+    <row r="488" spans="1:36" ht="10.5" customHeight="1">
       <c r="A488" s="19"/>
       <c r="B488" s="19"/>
       <c r="C488" s="19"/>
@@ -18808,7 +18808,7 @@
       <c r="AI488" s="19"/>
       <c r="AJ488" s="20"/>
     </row>
-    <row r="489" spans="1:36" ht="8.25" customHeight="1">
+    <row r="489" spans="1:36" ht="10.5" customHeight="1">
       <c r="A489" s="19"/>
       <c r="B489" s="19"/>
       <c r="C489" s="19"/>
@@ -18846,7 +18846,7 @@
       <c r="AI489" s="19"/>
       <c r="AJ489" s="20"/>
     </row>
-    <row r="490" spans="1:36" ht="8.25" customHeight="1">
+    <row r="490" spans="1:36" ht="10.5" customHeight="1">
       <c r="A490" s="19"/>
       <c r="B490" s="19"/>
       <c r="C490" s="19"/>
@@ -18884,7 +18884,7 @@
       <c r="AI490" s="19"/>
       <c r="AJ490" s="20"/>
     </row>
-    <row r="491" spans="1:36" ht="8.25" customHeight="1">
+    <row r="491" spans="1:36" ht="10.5" customHeight="1">
       <c r="A491" s="19"/>
       <c r="B491" s="19"/>
       <c r="C491" s="19"/>
@@ -18922,7 +18922,7 @@
       <c r="AI491" s="19"/>
       <c r="AJ491" s="20"/>
     </row>
-    <row r="492" spans="1:36" ht="8.25" customHeight="1">
+    <row r="492" spans="1:36" ht="10.5" customHeight="1">
       <c r="A492" s="19"/>
       <c r="B492" s="19"/>
       <c r="C492" s="19"/>
@@ -18960,7 +18960,7 @@
       <c r="AI492" s="19"/>
       <c r="AJ492" s="20"/>
     </row>
-    <row r="493" spans="1:36" ht="8.25" customHeight="1">
+    <row r="493" spans="1:36" ht="10.5" customHeight="1">
       <c r="A493" s="19"/>
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
@@ -18998,7 +18998,7 @@
       <c r="AI493" s="19"/>
       <c r="AJ493" s="20"/>
     </row>
-    <row r="494" spans="1:36" ht="8.25" customHeight="1">
+    <row r="494" spans="1:36" ht="10.5" customHeight="1">
       <c r="A494" s="19"/>
       <c r="B494" s="19"/>
       <c r="C494" s="19"/>
@@ -19036,7 +19036,7 @@
       <c r="AI494" s="19"/>
       <c r="AJ494" s="20"/>
     </row>
-    <row r="495" spans="1:36" ht="8.25" customHeight="1">
+    <row r="495" spans="1:36" ht="10.5" customHeight="1">
       <c r="A495" s="19"/>
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
@@ -19074,7 +19074,7 @@
       <c r="AI495" s="19"/>
       <c r="AJ495" s="20"/>
     </row>
-    <row r="496" spans="1:36" ht="8.25" customHeight="1">
+    <row r="496" spans="1:36" ht="10.5" customHeight="1">
       <c r="A496" s="19"/>
       <c r="B496" s="19"/>
       <c r="C496" s="19"/>
@@ -19112,7 +19112,7 @@
       <c r="AI496" s="19"/>
       <c r="AJ496" s="20"/>
     </row>
-    <row r="497" spans="1:36" ht="8.25" customHeight="1">
+    <row r="497" spans="1:36" ht="10.5" customHeight="1">
       <c r="A497" s="19"/>
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
@@ -19150,7 +19150,7 @@
       <c r="AI497" s="19"/>
       <c r="AJ497" s="20"/>
     </row>
-    <row r="498" spans="1:36" ht="8.25" customHeight="1">
+    <row r="498" spans="1:36" ht="10.5" customHeight="1">
       <c r="A498" s="19"/>
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
@@ -19188,7 +19188,7 @@
       <c r="AI498" s="19"/>
       <c r="AJ498" s="20"/>
     </row>
-    <row r="499" spans="1:36" ht="8.25" customHeight="1">
+    <row r="499" spans="1:36" ht="10.5" customHeight="1">
       <c r="A499" s="19"/>
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
@@ -19226,7 +19226,7 @@
       <c r="AI499" s="19"/>
       <c r="AJ499" s="20"/>
     </row>
-    <row r="500" spans="1:36" ht="8.25" customHeight="1">
+    <row r="500" spans="1:36" ht="10.5" customHeight="1">
       <c r="A500" s="19"/>
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
@@ -19264,7 +19264,7 @@
       <c r="AI500" s="19"/>
       <c r="AJ500" s="20"/>
     </row>
-    <row r="501" spans="1:36" ht="8.25" customHeight="1">
+    <row r="501" spans="1:36" ht="10.5" customHeight="1">
       <c r="A501" s="19"/>
       <c r="B501" s="19"/>
       <c r="C501" s="19"/>
@@ -19302,7 +19302,7 @@
       <c r="AI501" s="19"/>
       <c r="AJ501" s="20"/>
     </row>
-    <row r="502" spans="1:36" ht="8.25" customHeight="1">
+    <row r="502" spans="1:36" ht="10.5" customHeight="1">
       <c r="A502" s="19"/>
       <c r="B502" s="19"/>
       <c r="C502" s="19"/>
@@ -19340,7 +19340,7 @@
       <c r="AI502" s="19"/>
       <c r="AJ502" s="20"/>
     </row>
-    <row r="503" spans="1:36" ht="8.25" customHeight="1">
+    <row r="503" spans="1:36" ht="10.5" customHeight="1">
       <c r="A503" s="19"/>
       <c r="B503" s="19"/>
       <c r="C503" s="19"/>
@@ -19378,7 +19378,7 @@
       <c r="AI503" s="19"/>
       <c r="AJ503" s="20"/>
     </row>
-    <row r="504" spans="1:36" ht="8.25" customHeight="1">
+    <row r="504" spans="1:36" ht="10.5" customHeight="1">
       <c r="A504" s="19"/>
       <c r="B504" s="19"/>
       <c r="C504" s="19"/>
@@ -19416,7 +19416,7 @@
       <c r="AI504" s="19"/>
       <c r="AJ504" s="20"/>
     </row>
-    <row r="505" spans="1:36" ht="8.25" customHeight="1">
+    <row r="505" spans="1:36" ht="10.5" customHeight="1">
       <c r="A505" s="19"/>
       <c r="B505" s="19"/>
       <c r="C505" s="19"/>
@@ -19454,7 +19454,7 @@
       <c r="AI505" s="19"/>
       <c r="AJ505" s="20"/>
     </row>
-    <row r="506" spans="1:36" ht="8.25" customHeight="1">
+    <row r="506" spans="1:36" ht="10.5" customHeight="1">
       <c r="A506" s="19"/>
       <c r="B506" s="19"/>
       <c r="C506" s="19"/>
@@ -19492,7 +19492,7 @@
       <c r="AI506" s="19"/>
       <c r="AJ506" s="20"/>
     </row>
-    <row r="507" spans="1:36" ht="8.25" customHeight="1">
+    <row r="507" spans="1:36" ht="10.5" customHeight="1">
       <c r="A507" s="19"/>
       <c r="B507" s="19"/>
       <c r="C507" s="19"/>
@@ -19530,7 +19530,7 @@
       <c r="AI507" s="19"/>
       <c r="AJ507" s="20"/>
     </row>
-    <row r="508" spans="1:36" ht="8.25" customHeight="1">
+    <row r="508" spans="1:36" ht="10.5" customHeight="1">
       <c r="A508" s="19"/>
       <c r="B508" s="19"/>
       <c r="C508" s="19"/>
@@ -19568,7 +19568,7 @@
       <c r="AI508" s="19"/>
       <c r="AJ508" s="20"/>
     </row>
-    <row r="509" spans="1:36" ht="8.25" customHeight="1">
+    <row r="509" spans="1:36" ht="10.5" customHeight="1">
       <c r="A509" s="19"/>
       <c r="B509" s="19"/>
       <c r="C509" s="19"/>
@@ -19606,7 +19606,7 @@
       <c r="AI509" s="19"/>
       <c r="AJ509" s="20"/>
     </row>
-    <row r="510" spans="1:36" ht="8.25" customHeight="1">
+    <row r="510" spans="1:36" ht="10.5" customHeight="1">
       <c r="A510" s="19"/>
       <c r="B510" s="19"/>
       <c r="C510" s="19"/>
@@ -19644,7 +19644,7 @@
       <c r="AI510" s="19"/>
       <c r="AJ510" s="20"/>
     </row>
-    <row r="511" spans="1:36" ht="8.25" customHeight="1">
+    <row r="511" spans="1:36" ht="10.5" customHeight="1">
       <c r="A511" s="19"/>
       <c r="B511" s="19"/>
       <c r="C511" s="19"/>
@@ -19682,7 +19682,7 @@
       <c r="AI511" s="19"/>
       <c r="AJ511" s="20"/>
     </row>
-    <row r="512" spans="1:36" ht="8.25" customHeight="1">
+    <row r="512" spans="1:36" ht="10.5" customHeight="1">
       <c r="A512" s="19"/>
       <c r="B512" s="19"/>
       <c r="C512" s="19"/>
@@ -19720,7 +19720,7 @@
       <c r="AI512" s="19"/>
       <c r="AJ512" s="20"/>
     </row>
-    <row r="513" spans="1:36" ht="8.25" customHeight="1">
+    <row r="513" spans="1:36" ht="10.5" customHeight="1">
       <c r="A513" s="19"/>
       <c r="B513" s="19"/>
       <c r="C513" s="19"/>
@@ -19758,7 +19758,7 @@
       <c r="AI513" s="19"/>
       <c r="AJ513" s="20"/>
     </row>
-    <row r="514" spans="1:36" ht="8.25" customHeight="1">
+    <row r="514" spans="1:36" ht="10.5" customHeight="1">
       <c r="A514" s="19"/>
       <c r="B514" s="19"/>
       <c r="C514" s="19"/>
@@ -19796,7 +19796,7 @@
       <c r="AI514" s="19"/>
       <c r="AJ514" s="20"/>
     </row>
-    <row r="515" spans="1:36" ht="8.25" customHeight="1">
+    <row r="515" spans="1:36" ht="10.5" customHeight="1">
       <c r="A515" s="19"/>
       <c r="B515" s="19"/>
       <c r="C515" s="19"/>
@@ -19834,7 +19834,7 @@
       <c r="AI515" s="19"/>
       <c r="AJ515" s="20"/>
     </row>
-    <row r="516" spans="1:36" ht="8.25" customHeight="1">
+    <row r="516" spans="1:36" ht="10.5" customHeight="1">
       <c r="A516" s="19"/>
       <c r="B516" s="19"/>
       <c r="C516" s="19"/>
@@ -19872,7 +19872,7 @@
       <c r="AI516" s="19"/>
       <c r="AJ516" s="20"/>
     </row>
-    <row r="517" spans="1:36" ht="8.25" customHeight="1">
+    <row r="517" spans="1:36" ht="10.5" customHeight="1">
       <c r="A517" s="19"/>
       <c r="B517" s="19"/>
       <c r="C517" s="19"/>
@@ -19910,7 +19910,7 @@
       <c r="AI517" s="19"/>
       <c r="AJ517" s="20"/>
     </row>
-    <row r="518" spans="1:36" ht="8.25" customHeight="1">
+    <row r="518" spans="1:36" ht="10.5" customHeight="1">
       <c r="A518" s="19"/>
       <c r="B518" s="19"/>
       <c r="C518" s="19"/>
@@ -19948,7 +19948,7 @@
       <c r="AI518" s="19"/>
       <c r="AJ518" s="20"/>
     </row>
-    <row r="519" spans="1:36" ht="8.25" customHeight="1">
+    <row r="519" spans="1:36" ht="10.5" customHeight="1">
       <c r="A519" s="19"/>
       <c r="B519" s="19"/>
       <c r="C519" s="19"/>
@@ -19986,7 +19986,7 @@
       <c r="AI519" s="19"/>
       <c r="AJ519" s="20"/>
     </row>
-    <row r="520" spans="1:36" ht="8.25" customHeight="1">
+    <row r="520" spans="1:36" ht="10.5" customHeight="1">
       <c r="A520" s="19"/>
       <c r="B520" s="19"/>
       <c r="C520" s="19"/>
@@ -20024,7 +20024,7 @@
       <c r="AI520" s="19"/>
       <c r="AJ520" s="20"/>
     </row>
-    <row r="521" spans="1:36" ht="8.25" customHeight="1">
+    <row r="521" spans="1:36" ht="10.5" customHeight="1">
       <c r="A521" s="19"/>
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
@@ -20062,7 +20062,7 @@
       <c r="AI521" s="19"/>
       <c r="AJ521" s="20"/>
     </row>
-    <row r="522" spans="1:36" ht="8.25" customHeight="1">
+    <row r="522" spans="1:36" ht="10.5" customHeight="1">
       <c r="A522" s="19"/>
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
@@ -20100,7 +20100,7 @@
       <c r="AI522" s="19"/>
       <c r="AJ522" s="20"/>
     </row>
-    <row r="523" spans="1:36" ht="8.25" customHeight="1">
+    <row r="523" spans="1:36" ht="10.5" customHeight="1">
       <c r="A523" s="19"/>
       <c r="B523" s="19"/>
       <c r="C523" s="19"/>
@@ -20138,7 +20138,7 @@
       <c r="AI523" s="19"/>
       <c r="AJ523" s="20"/>
     </row>
-    <row r="524" spans="1:36" ht="8.25" customHeight="1">
+    <row r="524" spans="1:36" ht="10.5" customHeight="1">
       <c r="A524" s="19"/>
       <c r="B524" s="19"/>
       <c r="C524" s="19"/>
@@ -20176,7 +20176,7 @@
       <c r="AI524" s="19"/>
       <c r="AJ524" s="20"/>
     </row>
-    <row r="525" spans="1:36" ht="8.25" customHeight="1">
+    <row r="525" spans="1:36" ht="10.5" customHeight="1">
       <c r="A525" s="19"/>
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
@@ -20214,7 +20214,7 @@
       <c r="AI525" s="19"/>
       <c r="AJ525" s="20"/>
     </row>
-    <row r="526" spans="1:36" ht="8.25" customHeight="1">
+    <row r="526" spans="1:36" ht="10.5" customHeight="1">
       <c r="A526" s="19"/>
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
@@ -20252,7 +20252,7 @@
       <c r="AI526" s="19"/>
       <c r="AJ526" s="20"/>
     </row>
-    <row r="527" spans="1:36" ht="8.25" customHeight="1">
+    <row r="527" spans="1:36" ht="10.5" customHeight="1">
       <c r="A527" s="19"/>
       <c r="B527" s="19"/>
       <c r="C527" s="19"/>
@@ -20290,7 +20290,7 @@
       <c r="AI527" s="19"/>
       <c r="AJ527" s="20"/>
     </row>
-    <row r="528" spans="1:36" ht="8.25" customHeight="1">
+    <row r="528" spans="1:36" ht="10.5" customHeight="1">
       <c r="A528" s="19"/>
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
@@ -20328,7 +20328,7 @@
       <c r="AI528" s="19"/>
       <c r="AJ528" s="20"/>
     </row>
-    <row r="529" spans="1:36" ht="8.25" customHeight="1">
+    <row r="529" spans="1:36" ht="10.5" customHeight="1">
       <c r="A529" s="19"/>
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
@@ -20366,7 +20366,7 @@
       <c r="AI529" s="19"/>
       <c r="AJ529" s="20"/>
     </row>
-    <row r="530" spans="1:36" ht="8.25" customHeight="1">
+    <row r="530" spans="1:36" ht="10.5" customHeight="1">
       <c r="A530" s="19"/>
       <c r="B530" s="19"/>
       <c r="C530" s="19"/>
@@ -20404,7 +20404,7 @@
       <c r="AI530" s="19"/>
       <c r="AJ530" s="20"/>
     </row>
-    <row r="531" spans="1:36" ht="8.25" customHeight="1">
+    <row r="531" spans="1:36" ht="10.5" customHeight="1">
       <c r="A531" s="19"/>
       <c r="B531" s="19"/>
       <c r="C531" s="19"/>
@@ -20442,7 +20442,7 @@
       <c r="AI531" s="19"/>
       <c r="AJ531" s="20"/>
     </row>
-    <row r="532" spans="1:36" ht="8.25" customHeight="1">
+    <row r="532" spans="1:36" ht="10.5" customHeight="1">
       <c r="A532" s="19"/>
       <c r="B532" s="19"/>
       <c r="C532" s="19"/>
@@ -20480,7 +20480,7 @@
       <c r="AI532" s="19"/>
       <c r="AJ532" s="20"/>
     </row>
-    <row r="533" spans="1:36" ht="8.25" customHeight="1">
+    <row r="533" spans="1:36" ht="10.5" customHeight="1">
       <c r="A533" s="19"/>
       <c r="B533" s="19"/>
       <c r="C533" s="19"/>
@@ -20518,7 +20518,7 @@
       <c r="AI533" s="19"/>
       <c r="AJ533" s="20"/>
     </row>
-    <row r="534" spans="1:36" ht="8.25" customHeight="1">
+    <row r="534" spans="1:36" ht="10.5" customHeight="1">
       <c r="A534" s="19"/>
       <c r="B534" s="19"/>
       <c r="C534" s="19"/>
@@ -20556,7 +20556,7 @@
       <c r="AI534" s="19"/>
       <c r="AJ534" s="20"/>
     </row>
-    <row r="535" spans="1:36" ht="8.25" customHeight="1">
+    <row r="535" spans="1:36" ht="10.5" customHeight="1">
       <c r="A535" s="19"/>
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
@@ -20594,7 +20594,7 @@
       <c r="AI535" s="19"/>
       <c r="AJ535" s="20"/>
     </row>
-    <row r="536" spans="1:36" ht="8.25" customHeight="1">
+    <row r="536" spans="1:36" ht="10.5" customHeight="1">
       <c r="A536" s="19"/>
       <c r="B536" s="19"/>
       <c r="C536" s="19"/>
@@ -20632,7 +20632,7 @@
       <c r="AI536" s="19"/>
       <c r="AJ536" s="20"/>
     </row>
-    <row r="537" spans="1:36" ht="8.25" customHeight="1">
+    <row r="537" spans="1:36" ht="10.5" customHeight="1">
       <c r="A537" s="19"/>
       <c r="B537" s="19"/>
       <c r="C537" s="19"/>
@@ -20670,7 +20670,7 @@
       <c r="AI537" s="19"/>
       <c r="AJ537" s="20"/>
     </row>
-    <row r="538" spans="1:36" ht="8.25" customHeight="1">
+    <row r="538" spans="1:36" ht="10.5" customHeight="1">
       <c r="A538" s="19"/>
       <c r="B538" s="19"/>
       <c r="C538" s="19"/>
@@ -20708,7 +20708,7 @@
       <c r="AI538" s="19"/>
       <c r="AJ538" s="20"/>
     </row>
-    <row r="539" spans="1:36" ht="8.25" customHeight="1">
+    <row r="539" spans="1:36" ht="10.5" customHeight="1">
       <c r="A539" s="19"/>
       <c r="B539" s="19"/>
       <c r="C539" s="19"/>
@@ -20746,7 +20746,7 @@
       <c r="AI539" s="19"/>
       <c r="AJ539" s="20"/>
     </row>
-    <row r="540" spans="1:36" ht="8.25" customHeight="1">
+    <row r="540" spans="1:36" ht="10.5" customHeight="1">
       <c r="A540" s="19"/>
       <c r="B540" s="19"/>
       <c r="C540" s="19"/>
@@ -20784,7 +20784,7 @@
       <c r="AI540" s="19"/>
       <c r="AJ540" s="20"/>
     </row>
-    <row r="541" spans="1:36" ht="8.25" customHeight="1">
+    <row r="541" spans="1:36" ht="10.5" customHeight="1">
       <c r="A541" s="19"/>
       <c r="B541" s="19"/>
       <c r="C541" s="19"/>
@@ -20822,7 +20822,7 @@
       <c r="AI541" s="19"/>
       <c r="AJ541" s="20"/>
     </row>
-    <row r="542" spans="1:36" ht="8.25" customHeight="1">
+    <row r="542" spans="1:36" ht="10.5" customHeight="1">
       <c r="A542" s="19"/>
       <c r="B542" s="19"/>
       <c r="C542" s="19"/>
@@ -20860,7 +20860,7 @@
       <c r="AI542" s="19"/>
       <c r="AJ542" s="20"/>
     </row>
-    <row r="543" spans="1:36" ht="8.25" customHeight="1">
+    <row r="543" spans="1:36" ht="10.5" customHeight="1">
       <c r="A543" s="19"/>
       <c r="B543" s="19"/>
       <c r="C543" s="19"/>
@@ -20898,7 +20898,7 @@
       <c r="AI543" s="19"/>
       <c r="AJ543" s="20"/>
     </row>
-    <row r="544" spans="1:36" ht="8.25" customHeight="1">
+    <row r="544" spans="1:36" ht="10.5" customHeight="1">
       <c r="A544" s="19"/>
       <c r="B544" s="19"/>
       <c r="C544" s="19"/>
@@ -20936,7 +20936,7 @@
       <c r="AI544" s="19"/>
       <c r="AJ544" s="20"/>
     </row>
-    <row r="545" spans="1:36" ht="8.25" customHeight="1">
+    <row r="545" spans="1:36" ht="10.5" customHeight="1">
       <c r="A545" s="19"/>
       <c r="B545" s="19"/>
       <c r="C545" s="19"/>
@@ -20974,7 +20974,7 @@
       <c r="AI545" s="19"/>
       <c r="AJ545" s="20"/>
     </row>
-    <row r="546" spans="1:36" ht="8.25" customHeight="1">
+    <row r="546" spans="1:36" ht="10.5" customHeight="1">
       <c r="A546" s="19"/>
       <c r="B546" s="19"/>
       <c r="C546" s="19"/>
@@ -21012,7 +21012,7 @@
       <c r="AI546" s="19"/>
       <c r="AJ546" s="20"/>
     </row>
-    <row r="547" spans="1:36" ht="8.25" customHeight="1">
+    <row r="547" spans="1:36" ht="10.5" customHeight="1">
       <c r="A547" s="19"/>
       <c r="B547" s="19"/>
       <c r="C547" s="19"/>
@@ -21050,7 +21050,7 @@
       <c r="AI547" s="19"/>
       <c r="AJ547" s="20"/>
     </row>
-    <row r="548" spans="1:36" ht="8.25" customHeight="1">
+    <row r="548" spans="1:36" ht="10.5" customHeight="1">
       <c r="A548" s="19"/>
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
@@ -21088,7 +21088,7 @@
       <c r="AI548" s="19"/>
       <c r="AJ548" s="20"/>
     </row>
-    <row r="549" spans="1:36" ht="8.25" customHeight="1">
+    <row r="549" spans="1:36" ht="10.5" customHeight="1">
       <c r="A549" s="19"/>
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
@@ -21126,7 +21126,7 @@
       <c r="AI549" s="19"/>
       <c r="AJ549" s="20"/>
     </row>
-    <row r="550" spans="1:36" ht="8.25" customHeight="1">
+    <row r="550" spans="1:36" ht="10.5" customHeight="1">
       <c r="A550" s="19"/>
       <c r="B550" s="19"/>
       <c r="C550" s="19"/>
@@ -21164,7 +21164,7 @@
       <c r="AI550" s="19"/>
       <c r="AJ550" s="20"/>
     </row>
-    <row r="551" spans="1:36" ht="8.25" customHeight="1">
+    <row r="551" spans="1:36" ht="10.5" customHeight="1">
       <c r="A551" s="19"/>
       <c r="B551" s="19"/>
       <c r="C551" s="19"/>
@@ -21202,7 +21202,7 @@
       <c r="AI551" s="19"/>
       <c r="AJ551" s="20"/>
     </row>
-    <row r="552" spans="1:36" ht="8.25" customHeight="1">
+    <row r="552" spans="1:36" ht="10.5" customHeight="1">
       <c r="A552" s="19"/>
       <c r="B552" s="19"/>
       <c r="C552" s="19"/>
@@ -21240,7 +21240,7 @@
       <c r="AI552" s="19"/>
       <c r="AJ552" s="20"/>
     </row>
-    <row r="553" spans="1:36" ht="8.25" customHeight="1">
+    <row r="553" spans="1:36" ht="10.5" customHeight="1">
       <c r="A553" s="19"/>
       <c r="B553" s="19"/>
       <c r="C553" s="19"/>
@@ -21278,7 +21278,7 @@
       <c r="AI553" s="19"/>
       <c r="AJ553" s="20"/>
     </row>
-    <row r="554" spans="1:36" ht="8.25" customHeight="1">
+    <row r="554" spans="1:36" ht="10.5" customHeight="1">
       <c r="A554" s="19"/>
       <c r="B554" s="19"/>
       <c r="C554" s="19"/>
@@ -21316,7 +21316,7 @@
       <c r="AI554" s="19"/>
       <c r="AJ554" s="20"/>
     </row>
-    <row r="555" spans="1:36" ht="8.25" customHeight="1">
+    <row r="555" spans="1:36" ht="10.5" customHeight="1">
       <c r="A555" s="19"/>
       <c r="B555" s="19"/>
       <c r="C555" s="19"/>
@@ -21354,7 +21354,7 @@
       <c r="AI555" s="19"/>
       <c r="AJ555" s="20"/>
     </row>
-    <row r="556" spans="1:36" ht="8.25" customHeight="1">
+    <row r="556" spans="1:36" ht="10.5" customHeight="1">
       <c r="A556" s="19"/>
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
@@ -21392,7 +21392,7 @@
       <c r="AI556" s="19"/>
       <c r="AJ556" s="20"/>
     </row>
-    <row r="557" spans="1:36" ht="8.25" customHeight="1">
+    <row r="557" spans="1:36" ht="10.5" customHeight="1">
       <c r="A557" s="19"/>
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
@@ -21430,7 +21430,7 @@
       <c r="AI557" s="19"/>
       <c r="AJ557" s="20"/>
     </row>
-    <row r="558" spans="1:36" ht="8.25" customHeight="1">
+    <row r="558" spans="1:36" ht="10.5" customHeight="1">
       <c r="A558" s="19"/>
       <c r="B558" s="19"/>
       <c r="C558" s="19"/>
@@ -21468,7 +21468,7 @@
       <c r="AI558" s="19"/>
       <c r="AJ558" s="20"/>
     </row>
-    <row r="559" spans="1:36" ht="8.25" customHeight="1">
+    <row r="559" spans="1:36" ht="10.5" customHeight="1">
       <c r="A559" s="19"/>
       <c r="B559" s="19"/>
       <c r="C559" s="19"/>
@@ -21506,7 +21506,7 @@
       <c r="AI559" s="19"/>
       <c r="AJ559" s="20"/>
     </row>
-    <row r="560" spans="1:36" ht="8.25" customHeight="1">
+    <row r="560" spans="1:36" ht="10.5" customHeight="1">
       <c r="A560" s="19"/>
       <c r="B560" s="19"/>
       <c r="C560" s="19"/>
@@ -21544,7 +21544,7 @@
       <c r="AI560" s="19"/>
       <c r="AJ560" s="20"/>
     </row>
-    <row r="561" spans="1:36" ht="8.25" customHeight="1">
+    <row r="561" spans="1:36" ht="10.5" customHeight="1">
       <c r="A561" s="19"/>
       <c r="B561" s="19"/>
       <c r="C561" s="19"/>
@@ -21582,7 +21582,7 @@
       <c r="AI561" s="19"/>
       <c r="AJ561" s="20"/>
     </row>
-    <row r="562" spans="1:36" ht="8.25" customHeight="1">
+    <row r="562" spans="1:36" ht="10.5" customHeight="1">
       <c r="A562" s="19"/>
       <c r="B562" s="19"/>
       <c r="C562" s="19"/>
@@ -21620,7 +21620,7 @@
       <c r="AI562" s="19"/>
       <c r="AJ562" s="20"/>
     </row>
-    <row r="563" spans="1:36" ht="8.25" customHeight="1">
+    <row r="563" spans="1:36" ht="10.5" customHeight="1">
       <c r="A563" s="19"/>
       <c r="B563" s="19"/>
       <c r="C563" s="19"/>
@@ -21658,7 +21658,7 @@
       <c r="AI563" s="19"/>
       <c r="AJ563" s="20"/>
     </row>
-    <row r="564" spans="1:36" ht="8.25" customHeight="1">
+    <row r="564" spans="1:36" ht="10.5" customHeight="1">
       <c r="A564" s="19"/>
       <c r="B564" s="19"/>
       <c r="C564" s="19"/>
@@ -21696,7 +21696,7 @@
       <c r="AI564" s="19"/>
       <c r="AJ564" s="20"/>
     </row>
-    <row r="565" spans="1:36" ht="8.25" customHeight="1">
+    <row r="565" spans="1:36" ht="10.5" customHeight="1">
       <c r="A565" s="19"/>
       <c r="B565" s="19"/>
       <c r="C565" s="19"/>
@@ -21734,7 +21734,7 @@
       <c r="AI565" s="19"/>
       <c r="AJ565" s="20"/>
     </row>
-    <row r="566" spans="1:36" ht="8.25" customHeight="1">
+    <row r="566" spans="1:36" ht="10.5" customHeight="1">
       <c r="A566" s="19"/>
       <c r="B566" s="19"/>
       <c r="C566" s="19"/>
@@ -21772,7 +21772,7 @@
       <c r="AI566" s="19"/>
       <c r="AJ566" s="20"/>
     </row>
-    <row r="567" spans="1:36" ht="8.25" customHeight="1">
+    <row r="567" spans="1:36" ht="10.5" customHeight="1">
       <c r="A567" s="19"/>
       <c r="B567" s="19"/>
       <c r="C567" s="19"/>
@@ -21810,7 +21810,7 @@
       <c r="AI567" s="19"/>
       <c r="AJ567" s="20"/>
     </row>
-    <row r="568" spans="1:36" ht="8.25" customHeight="1">
+    <row r="568" spans="1:36" ht="10.5" customHeight="1">
       <c r="A568" s="19"/>
       <c r="B568" s="19"/>
       <c r="C568" s="19"/>
@@ -21848,7 +21848,7 @@
       <c r="AI568" s="19"/>
       <c r="AJ568" s="20"/>
     </row>
-    <row r="569" spans="1:36" ht="8.25" customHeight="1">
+    <row r="569" spans="1:36" ht="10.5" customHeight="1">
       <c r="A569" s="19"/>
       <c r="B569" s="19"/>
       <c r="C569" s="19"/>
@@ -21886,7 +21886,7 @@
       <c r="AI569" s="19"/>
       <c r="AJ569" s="20"/>
     </row>
-    <row r="570" spans="1:36" ht="8.25" customHeight="1">
+    <row r="570" spans="1:36" ht="10.5" customHeight="1">
       <c r="A570" s="19"/>
       <c r="B570" s="19"/>
       <c r="C570" s="19"/>
@@ -21924,7 +21924,7 @@
       <c r="AI570" s="19"/>
       <c r="AJ570" s="20"/>
     </row>
-    <row r="571" spans="1:36" ht="8.25" customHeight="1">
+    <row r="571" spans="1:36" ht="10.5" customHeight="1">
       <c r="A571" s="19"/>
       <c r="B571" s="19"/>
       <c r="C571" s="19"/>
@@ -21962,7 +21962,7 @@
       <c r="AI571" s="19"/>
       <c r="AJ571" s="20"/>
     </row>
-    <row r="572" spans="1:36" ht="8.25" customHeight="1">
+    <row r="572" spans="1:36" ht="10.5" customHeight="1">
       <c r="A572" s="19"/>
       <c r="B572" s="19"/>
       <c r="C572" s="19"/>
@@ -22000,7 +22000,7 @@
       <c r="AI572" s="19"/>
       <c r="AJ572" s="20"/>
     </row>
-    <row r="573" spans="1:36" ht="8.25" customHeight="1">
+    <row r="573" spans="1:36" ht="10.5" customHeight="1">
       <c r="A573" s="19"/>
       <c r="B573" s="19"/>
       <c r="C573" s="19"/>
@@ -22038,7 +22038,7 @@
       <c r="AI573" s="19"/>
       <c r="AJ573" s="20"/>
     </row>
-    <row r="574" spans="1:36" ht="8.25" customHeight="1">
+    <row r="574" spans="1:36" ht="10.5" customHeight="1">
       <c r="A574" s="19"/>
       <c r="B574" s="19"/>
       <c r="C574" s="19"/>
@@ -22076,7 +22076,7 @@
       <c r="AI574" s="19"/>
       <c r="AJ574" s="20"/>
     </row>
-    <row r="575" spans="1:36" ht="8.25" customHeight="1">
+    <row r="575" spans="1:36" ht="10.5" customHeight="1">
       <c r="A575" s="19"/>
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
@@ -22114,7 +22114,7 @@
       <c r="AI575" s="19"/>
       <c r="AJ575" s="20"/>
     </row>
-    <row r="576" spans="1:36" ht="8.25" customHeight="1">
+    <row r="576" spans="1:36" ht="10.5" customHeight="1">
       <c r="A576" s="19"/>
       <c r="B576" s="19"/>
       <c r="C576" s="19"/>
@@ -22152,7 +22152,7 @@
       <c r="AI576" s="19"/>
       <c r="AJ576" s="20"/>
     </row>
-    <row r="577" spans="1:36" ht="8.25" customHeight="1">
+    <row r="577" spans="1:36" ht="10.5" customHeight="1">
       <c r="A577" s="19"/>
       <c r="B577" s="19"/>
       <c r="C577" s="19"/>
@@ -22190,7 +22190,7 @@
       <c r="AI577" s="19"/>
       <c r="AJ577" s="20"/>
     </row>
-    <row r="578" spans="1:36" ht="8.25" customHeight="1">
+    <row r="578" spans="1:36" ht="10.5" customHeight="1">
       <c r="A578" s="19"/>
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
@@ -22228,7 +22228,7 @@
       <c r="AI578" s="19"/>
       <c r="AJ578" s="20"/>
     </row>
-    <row r="579" spans="1:36" ht="8.25" customHeight="1">
+    <row r="579" spans="1:36" ht="10.5" customHeight="1">
       <c r="A579" s="19"/>
       <c r="B579" s="19"/>
       <c r="C579" s="19"/>
@@ -22266,7 +22266,7 @@
       <c r="AI579" s="19"/>
       <c r="AJ579" s="20"/>
     </row>
-    <row r="580" spans="1:36" ht="8.25" customHeight="1">
+    <row r="580" spans="1:36" ht="10.5" customHeight="1">
       <c r="A580" s="19"/>
       <c r="B580" s="19"/>
       <c r="C580" s="19"/>
@@ -22304,7 +22304,7 @@
       <c r="AI580" s="19"/>
       <c r="AJ580" s="20"/>
     </row>
-    <row r="581" spans="1:36" ht="8.25" customHeight="1">
+    <row r="581" spans="1:36" ht="10.5" customHeight="1">
       <c r="A581" s="19"/>
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
@@ -22342,7 +22342,7 @@
       <c r="AI581" s="19"/>
       <c r="AJ581" s="20"/>
     </row>
-    <row r="582" spans="1:36" ht="8.25" customHeight="1">
+    <row r="582" spans="1:36" ht="10.5" customHeight="1">
       <c r="A582" s="19"/>
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
@@ -22380,7 +22380,7 @@
       <c r="AI582" s="19"/>
       <c r="AJ582" s="20"/>
     </row>
-    <row r="583" spans="1:36" ht="8.25" customHeight="1">
+    <row r="583" spans="1:36" ht="10.5" customHeight="1">
       <c r="A583" s="19"/>
       <c r="B583" s="19"/>
       <c r="C583" s="19"/>
@@ -22418,7 +22418,7 @@
       <c r="AI583" s="19"/>
       <c r="AJ583" s="20"/>
     </row>
-    <row r="584" spans="1:36" ht="8.25" customHeight="1">
+    <row r="584" spans="1:36" ht="10.5" customHeight="1">
       <c r="A584" s="19"/>
       <c r="B584" s="19"/>
       <c r="C584" s="19"/>
@@ -22456,7 +22456,7 @@
       <c r="AI584" s="19"/>
       <c r="AJ584" s="20"/>
     </row>
-    <row r="585" spans="1:36" ht="8.25" customHeight="1">
+    <row r="585" spans="1:36" ht="10.5" customHeight="1">
       <c r="A585" s="19"/>
       <c r="B585" s="19"/>
       <c r="C585" s="19"/>
@@ -22494,7 +22494,7 @@
       <c r="AI585" s="19"/>
       <c r="AJ585" s="20"/>
     </row>
-    <row r="586" spans="1:36" ht="8.25" customHeight="1">
+    <row r="586" spans="1:36" ht="10.5" customHeight="1">
       <c r="A586" s="19"/>
       <c r="B586" s="19"/>
       <c r="C586" s="19"/>
@@ -22532,7 +22532,7 @@
       <c r="AI586" s="19"/>
       <c r="AJ586" s="20"/>
     </row>
-    <row r="587" spans="1:36" ht="8.25" customHeight="1">
+    <row r="587" spans="1:36" ht="10.5" customHeight="1">
       <c r="A587" s="19"/>
       <c r="B587" s="19"/>
       <c r="C587" s="19"/>
@@ -22570,7 +22570,7 @@
       <c r="AI587" s="19"/>
       <c r="AJ587" s="20"/>
     </row>
-    <row r="588" spans="1:36" ht="8.25" customHeight="1">
+    <row r="588" spans="1:36" ht="10.5" customHeight="1">
       <c r="A588" s="19"/>
       <c r="B588" s="19"/>
       <c r="C588" s="19"/>
@@ -22608,7 +22608,7 @@
       <c r="AI588" s="19"/>
       <c r="AJ588" s="20"/>
     </row>
-    <row r="589" spans="1:36" ht="8.25" customHeight="1">
+    <row r="589" spans="1:36" ht="10.5" customHeight="1">
       <c r="A589" s="19"/>
       <c r="B589" s="19"/>
       <c r="C589" s="19"/>
@@ -22646,7 +22646,7 @@
       <c r="AI589" s="19"/>
       <c r="AJ589" s="20"/>
     </row>
-    <row r="590" spans="1:36" ht="8.25" customHeight="1">
+    <row r="590" spans="1:36" ht="10.5" customHeight="1">
       <c r="A590" s="19"/>
       <c r="B590" s="19"/>
       <c r="C590" s="19"/>
@@ -22684,7 +22684,7 @@
       <c r="AI590" s="19"/>
       <c r="AJ590" s="20"/>
     </row>
-    <row r="591" spans="1:36" ht="8.25" customHeight="1">
+    <row r="591" spans="1:36" ht="10.5" customHeight="1">
       <c r="A591" s="19"/>
       <c r="B591" s="19"/>
       <c r="C591" s="19"/>
@@ -22722,7 +22722,7 @@
       <c r="AI591" s="19"/>
       <c r="AJ591" s="20"/>
     </row>
-    <row r="592" spans="1:36" ht="8.25" customHeight="1">
+    <row r="592" spans="1:36" ht="10.5" customHeight="1">
       <c r="A592" s="19"/>
       <c r="B592" s="19"/>
       <c r="C592" s="19"/>
@@ -22760,7 +22760,7 @@
       <c r="AI592" s="19"/>
       <c r="AJ592" s="20"/>
     </row>
-    <row r="593" spans="1:36" ht="8.25" customHeight="1">
+    <row r="593" spans="1:36" ht="10.5" customHeight="1">
       <c r="A593" s="19"/>
       <c r="B593" s="19"/>
       <c r="C593" s="19"/>
@@ -22798,7 +22798,7 @@
       <c r="AI593" s="19"/>
       <c r="AJ593" s="20"/>
     </row>
-    <row r="594" spans="1:36" ht="8.25" customHeight="1">
+    <row r="594" spans="1:36" ht="10.5" customHeight="1">
       <c r="A594" s="19"/>
       <c r="B594" s="19"/>
       <c r="C594" s="19"/>
@@ -22836,7 +22836,7 @@
       <c r="AI594" s="19"/>
       <c r="AJ594" s="20"/>
     </row>
-    <row r="595" spans="1:36" ht="8.25" customHeight="1">
+    <row r="595" spans="1:36" ht="10.5" customHeight="1">
       <c r="A595" s="19"/>
       <c r="B595" s="19"/>
       <c r="C595" s="19"/>
@@ -22874,7 +22874,7 @@
       <c r="AI595" s="19"/>
       <c r="AJ595" s="20"/>
     </row>
-    <row r="596" spans="1:36" ht="8.25" customHeight="1">
+    <row r="596" spans="1:36" ht="10.5" customHeight="1">
       <c r="A596" s="19"/>
       <c r="B596" s="19"/>
       <c r="C596" s="19"/>
@@ -22912,7 +22912,7 @@
       <c r="AI596" s="19"/>
       <c r="AJ596" s="20"/>
     </row>
-    <row r="597" spans="1:36" ht="8.25" customHeight="1">
+    <row r="597" spans="1:36" ht="10.5" customHeight="1">
       <c r="A597" s="19"/>
       <c r="B597" s="19"/>
       <c r="C597" s="19"/>
@@ -22950,7 +22950,7 @@
       <c r="AI597" s="19"/>
       <c r="AJ597" s="20"/>
     </row>
-    <row r="598" spans="1:36" ht="8.25" customHeight="1">
+    <row r="598" spans="1:36" ht="10.5" customHeight="1">
       <c r="A598" s="19"/>
       <c r="B598" s="19"/>
       <c r="C598" s="19"/>
@@ -22988,7 +22988,7 @@
       <c r="AI598" s="19"/>
       <c r="AJ598" s="20"/>
     </row>
-    <row r="599" spans="1:36" ht="8.25" customHeight="1">
+    <row r="599" spans="1:36" ht="10.5" customHeight="1">
       <c r="A599" s="19"/>
       <c r="B599" s="19"/>
       <c r="C599" s="19"/>
@@ -23026,7 +23026,7 @@
       <c r="AI599" s="19"/>
       <c r="AJ599" s="20"/>
     </row>
-    <row r="600" spans="1:36" ht="8.25" customHeight="1">
+    <row r="600" spans="1:36" ht="10.5" customHeight="1">
       <c r="A600" s="19"/>
       <c r="B600" s="19"/>
       <c r="C600" s="19"/>
@@ -23064,7 +23064,7 @@
       <c r="AI600" s="19"/>
       <c r="AJ600" s="20"/>
     </row>
-    <row r="601" spans="1:36" ht="8.25" customHeight="1">
+    <row r="601" spans="1:36" ht="10.5" customHeight="1">
       <c r="A601" s="19"/>
       <c r="B601" s="19"/>
       <c r="C601" s="19"/>
@@ -23102,7 +23102,7 @@
       <c r="AI601" s="19"/>
       <c r="AJ601" s="20"/>
     </row>
-    <row r="602" spans="1:36" ht="8.25" customHeight="1">
+    <row r="602" spans="1:36" ht="10.5" customHeight="1">
       <c r="A602" s="19"/>
       <c r="B602" s="19"/>
       <c r="C602" s="19"/>
@@ -23140,7 +23140,7 @@
       <c r="AI602" s="19"/>
       <c r="AJ602" s="20"/>
     </row>
-    <row r="603" spans="1:36" ht="8.25" customHeight="1">
+    <row r="603" spans="1:36" ht="10.5" customHeight="1">
       <c r="A603" s="19"/>
       <c r="B603" s="19"/>
       <c r="C603" s="19"/>
@@ -23178,7 +23178,7 @@
       <c r="AI603" s="19"/>
       <c r="AJ603" s="20"/>
     </row>
-    <row r="604" spans="1:36" ht="8.25" customHeight="1">
+    <row r="604" spans="1:36" ht="10.5" customHeight="1">
       <c r="A604" s="19"/>
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
@@ -23216,7 +23216,7 @@
       <c r="AI604" s="19"/>
       <c r="AJ604" s="20"/>
     </row>
-    <row r="605" spans="1:36" ht="8.25" customHeight="1">
+    <row r="605" spans="1:36" ht="10.5" customHeight="1">
       <c r="A605" s="19"/>
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
@@ -23254,7 +23254,7 @@
       <c r="AI605" s="19"/>
       <c r="AJ605" s="20"/>
     </row>
-    <row r="606" spans="1:36" ht="8.25" customHeight="1">
+    <row r="606" spans="1:36" ht="10.5" customHeight="1">
       <c r="A606" s="19"/>
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
@@ -23292,7 +23292,7 @@
       <c r="AI606" s="19"/>
       <c r="AJ606" s="20"/>
     </row>
-    <row r="607" spans="1:36" ht="8.25" customHeight="1">
+    <row r="607" spans="1:36" ht="10.5" customHeight="1">
       <c r="A607" s="19"/>
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
@@ -23330,7 +23330,7 @@
       <c r="AI607" s="19"/>
       <c r="AJ607" s="20"/>
     </row>
-    <row r="608" spans="1:36" ht="8.25" customHeight="1">
+    <row r="608" spans="1:36" ht="10.5" customHeight="1">
       <c r="A608" s="19"/>
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
@@ -23368,7 +23368,7 @@
       <c r="AI608" s="19"/>
       <c r="AJ608" s="20"/>
     </row>
-    <row r="609" spans="1:36" ht="8.25" customHeight="1">
+    <row r="609" spans="1:36" ht="10.5" customHeight="1">
       <c r="A609" s="19"/>
       <c r="B609" s="19"/>
       <c r="C609" s="19"/>
@@ -23406,7 +23406,7 @@
       <c r="AI609" s="19"/>
       <c r="AJ609" s="20"/>
     </row>
-    <row r="610" spans="1:36" ht="8.25" customHeight="1">
+    <row r="610" spans="1:36" ht="10.5" customHeight="1">
       <c r="A610" s="19"/>
       <c r="B610" s="19"/>
       <c r="C610" s="19"/>
@@ -23444,7 +23444,7 @@
       <c r="AI610" s="19"/>
       <c r="AJ610" s="20"/>
     </row>
-    <row r="611" spans="1:36" ht="8.25" customHeight="1">
+    <row r="611" spans="1:36" ht="10.5" customHeight="1">
       <c r="A611" s="19"/>
       <c r="B611" s="19"/>
       <c r="C611" s="19"/>
@@ -23482,7 +23482,7 @@
       <c r="AI611" s="19"/>
       <c r="AJ611" s="20"/>
     </row>
-    <row r="612" spans="1:36" ht="8.25" customHeight="1">
+    <row r="612" spans="1:36" ht="10.5" customHeight="1">
       <c r="A612" s="19"/>
       <c r="B612" s="19"/>
       <c r="C612" s="19"/>
@@ -23520,7 +23520,7 @@
       <c r="AI612" s="19"/>
       <c r="AJ612" s="20"/>
     </row>
-    <row r="613" spans="1:36" ht="8.25" customHeight="1">
+    <row r="613" spans="1:36" ht="10.5" customHeight="1">
       <c r="A613" s="19"/>
       <c r="B613" s="19"/>
       <c r="C613" s="19"/>
@@ -23558,7 +23558,7 @@
       <c r="AI613" s="19"/>
       <c r="AJ613" s="20"/>
     </row>
-    <row r="614" spans="1:36" ht="8.25" customHeight="1">
+    <row r="614" spans="1:36" ht="10.5" customHeight="1">
       <c r="A614" s="19"/>
       <c r="B614" s="19"/>
       <c r="C614" s="19"/>
@@ -23596,7 +23596,7 @@
       <c r="AI614" s="19"/>
       <c r="AJ614" s="20"/>
     </row>
-    <row r="615" spans="1:36" ht="8.25" customHeight="1">
+    <row r="615" spans="1:36" ht="10.5" customHeight="1">
       <c r="A615" s="19"/>
       <c r="B615" s="19"/>
       <c r="C615" s="19"/>
@@ -23634,7 +23634,7 @@
       <c r="AI615" s="19"/>
       <c r="AJ615" s="20"/>
     </row>
-    <row r="616" spans="1:36" ht="8.25" customHeight="1">
+    <row r="616" spans="1:36" ht="10.5" customHeight="1">
       <c r="A616" s="19"/>
       <c r="B616" s="19"/>
       <c r="C616" s="19"/>
@@ -23672,7 +23672,7 @@
       <c r="AI616" s="19"/>
       <c r="AJ616" s="20"/>
     </row>
-    <row r="617" spans="1:36" ht="8.25" customHeight="1">
+    <row r="617" spans="1:36" ht="10.5" customHeight="1">
       <c r="A617" s="19"/>
       <c r="B617" s="19"/>
       <c r="C617" s="19"/>
@@ -23710,7 +23710,7 @@
       <c r="AI617" s="19"/>
       <c r="AJ617" s="20"/>
     </row>
-    <row r="618" spans="1:36" ht="8.25" customHeight="1">
+    <row r="618" spans="1:36" ht="10.5" customHeight="1">
       <c r="A618" s="19"/>
       <c r="B618" s="19"/>
       <c r="C618" s="19"/>
@@ -23748,7 +23748,7 @@
       <c r="AI618" s="19"/>
       <c r="AJ618" s="20"/>
     </row>
-    <row r="619" spans="1:36" ht="8.25" customHeight="1">
+    <row r="619" spans="1:36" ht="10.5" customHeight="1">
       <c r="A619" s="19"/>
       <c r="B619" s="19"/>
       <c r="C619" s="19"/>
@@ -23786,7 +23786,7 @@
       <c r="AI619" s="19"/>
       <c r="AJ619" s="20"/>
     </row>
-    <row r="620" spans="1:36" ht="8.25" customHeight="1">
+    <row r="620" spans="1:36" ht="10.5" customHeight="1">
       <c r="A620" s="19"/>
       <c r="B620" s="19"/>
       <c r="C620" s="19"/>
@@ -23824,7 +23824,7 @@
       <c r="AI620" s="19"/>
       <c r="AJ620" s="20"/>
     </row>
-    <row r="621" spans="1:36" ht="8.25" customHeight="1">
+    <row r="621" spans="1:36" ht="10.5" customHeight="1">
       <c r="A621" s="19"/>
       <c r="B621" s="19"/>
       <c r="C621" s="19"/>
@@ -23862,7 +23862,7 @@
       <c r="AI621" s="19"/>
       <c r="AJ621" s="20"/>
     </row>
-    <row r="622" spans="1:36" ht="8.25" customHeight="1">
+    <row r="622" spans="1:36" ht="10.5" customHeight="1">
       <c r="A622" s="19"/>
       <c r="B622" s="19"/>
       <c r="C622" s="19"/>
@@ -23900,7 +23900,7 @@
       <c r="AI622" s="19"/>
       <c r="AJ622" s="20"/>
     </row>
-    <row r="623" spans="1:36" ht="8.25" customHeight="1">
+    <row r="623" spans="1:36" ht="10.5" customHeight="1">
       <c r="A623" s="19"/>
       <c r="B623" s="19"/>
       <c r="C623" s="19"/>
@@ -23938,7 +23938,7 @@
       <c r="AI623" s="19"/>
       <c r="AJ623" s="20"/>
     </row>
-    <row r="624" spans="1:36" ht="8.25" customHeight="1">
+    <row r="624" spans="1:36" ht="10.5" customHeight="1">
       <c r="A624" s="19"/>
       <c r="B624" s="19"/>
       <c r="C624" s="19"/>
@@ -23976,7 +23976,7 @@
       <c r="AI624" s="19"/>
       <c r="AJ624" s="20"/>
     </row>
-    <row r="625" spans="1:36" ht="8.25" customHeight="1">
+    <row r="625" spans="1:36" ht="10.5" customHeight="1">
       <c r="A625" s="19"/>
       <c r="B625" s="19"/>
       <c r="C625" s="19"/>
@@ -24014,7 +24014,7 @@
       <c r="AI625" s="19"/>
       <c r="AJ625" s="20"/>
     </row>
-    <row r="626" spans="1:36" ht="8.25" customHeight="1">
+    <row r="626" spans="1:36" ht="10.5" customHeight="1">
       <c r="A626" s="19"/>
       <c r="B626" s="19"/>
       <c r="C626" s="19"/>
@@ -24052,7 +24052,7 @@
       <c r="AI626" s="19"/>
       <c r="AJ626" s="20"/>
     </row>
-    <row r="627" spans="1:36" ht="8.25" customHeight="1">
+    <row r="627" spans="1:36" ht="10.5" customHeight="1">
       <c r="A627" s="19"/>
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
@@ -24090,7 +24090,7 @@
       <c r="AI627" s="19"/>
       <c r="AJ627" s="20"/>
     </row>
-    <row r="628" spans="1:36" ht="8.25" customHeight="1">
+    <row r="628" spans="1:36" ht="10.5" customHeight="1">
       <c r="A628" s="19"/>
       <c r="B628" s="19"/>
       <c r="C628" s="19"/>
@@ -24128,7 +24128,7 @@
       <c r="AI628" s="19"/>
       <c r="AJ628" s="20"/>
     </row>
-    <row r="629" spans="1:36" ht="8.25" customHeight="1">
+    <row r="629" spans="1:36" ht="10.5" customHeight="1">
       <c r="A629" s="19"/>
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
@@ -24166,7 +24166,7 @@
       <c r="AI629" s="19"/>
       <c r="AJ629" s="20"/>
     </row>
-    <row r="630" spans="1:36" ht="8.25" customHeight="1">
+    <row r="630" spans="1:36" ht="10.5" customHeight="1">
       <c r="A630" s="19"/>
       <c r="B630" s="19"/>
       <c r="C630" s="19"/>
@@ -24204,7 +24204,7 @@
       <c r="AI630" s="19"/>
       <c r="AJ630" s="20"/>
     </row>
-    <row r="631" spans="1:36" ht="8.25" customHeight="1">
+    <row r="631" spans="1:36" ht="10.5" customHeight="1">
       <c r="A631" s="19"/>
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
@@ -24242,7 +24242,7 @@
       <c r="AI631" s="19"/>
       <c r="AJ631" s="20"/>
     </row>
-    <row r="632" spans="1:36" ht="8.25" customHeight="1">
+    <row r="632" spans="1:36" ht="10.5" customHeight="1">
       <c r="A632" s="19"/>
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
@@ -24280,7 +24280,7 @@
       <c r="AI632" s="19"/>
       <c r="AJ632" s="20"/>
     </row>
-    <row r="633" spans="1:36" ht="8.25" customHeight="1">
+    <row r="633" spans="1:36" ht="10.5" customHeight="1">
       <c r="A633" s="19"/>
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
@@ -24318,7 +24318,7 @@
       <c r="AI633" s="19"/>
       <c r="AJ633" s="20"/>
     </row>
-    <row r="634" spans="1:36" ht="8.25" customHeight="1">
+    <row r="634" spans="1:36" ht="10.5" customHeight="1">
       <c r="A634" s="19"/>
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
@@ -24356,7 +24356,7 @@
       <c r="AI634" s="19"/>
       <c r="AJ634" s="20"/>
     </row>
-    <row r="635" spans="1:36" ht="8.25" customHeight="1">
+    <row r="635" spans="1:36" ht="10.5" customHeight="1">
       <c r="A635" s="19"/>
       <c r="B635" s="19"/>
       <c r="C635" s="19"/>
@@ -24394,7 +24394,7 @@
       <c r="AI635" s="19"/>
       <c r="AJ635" s="20"/>
     </row>
-    <row r="636" spans="1:36" ht="8.25" customHeight="1">
+    <row r="636" spans="1:36" ht="10.5" customHeight="1">
       <c r="A636" s="19"/>
       <c r="B636" s="19"/>
       <c r="C636" s="19"/>
@@ -24432,7 +24432,7 @@
       <c r="AI636" s="19"/>
       <c r="AJ636" s="20"/>
     </row>
-    <row r="637" spans="1:36" ht="8.25" customHeight="1">
+    <row r="637" spans="1:36" ht="10.5" customHeight="1">
       <c r="A637" s="19"/>
       <c r="B637" s="19"/>
       <c r="C637" s="19"/>
@@ -24470,7 +24470,7 @@
       <c r="AI637" s="19"/>
       <c r="AJ637" s="20"/>
     </row>
-    <row r="638" spans="1:36" ht="8.25" customHeight="1">
+    <row r="638" spans="1:36" ht="10.5" customHeight="1">
       <c r="A638" s="19"/>
       <c r="B638" s="19"/>
       <c r="C638" s="19"/>
@@ -24508,7 +24508,7 @@
       <c r="AI638" s="19"/>
       <c r="AJ638" s="20"/>
     </row>
-    <row r="639" spans="1:36" ht="8.25" customHeight="1">
+    <row r="639" spans="1:36" ht="10.5" customHeight="1">
       <c r="A639" s="19"/>
       <c r="B639" s="19"/>
       <c r="C639" s="19"/>
@@ -24546,7 +24546,7 @@
       <c r="AI639" s="19"/>
       <c r="AJ639" s="20"/>
     </row>
-    <row r="640" spans="1:36" ht="8.25" customHeight="1">
+    <row r="640" spans="1:36" ht="10.5" customHeight="1">
       <c r="A640" s="19"/>
       <c r="B640" s="19"/>
       <c r="C640" s="19"/>
@@ -24584,7 +24584,7 @@
       <c r="AI640" s="19"/>
       <c r="AJ640" s="20"/>
     </row>
-    <row r="641" spans="1:36" ht="8.25" customHeight="1">
+    <row r="641" spans="1:36" ht="10.5" customHeight="1">
       <c r="A641" s="19"/>
       <c r="B641" s="19"/>
       <c r="C641" s="19"/>
@@ -24622,7 +24622,7 @@
       <c r="AI641" s="19"/>
       <c r="AJ641" s="20"/>
     </row>
-    <row r="642" spans="1:36" ht="8.25" customHeight="1">
+    <row r="642" spans="1:36" ht="10.5" customHeight="1">
       <c r="A642" s="19"/>
       <c r="B642" s="19"/>
       <c r="C642" s="19"/>
@@ -24660,7 +24660,7 @@
       <c r="AI642" s="19"/>
       <c r="AJ642" s="20"/>
     </row>
-    <row r="643" spans="1:36" ht="8.25" customHeight="1">
+    <row r="643" spans="1:36" ht="10.5" customHeight="1">
       <c r="A643" s="19"/>
       <c r="B643" s="19"/>
       <c r="C643" s="19"/>
@@ -24698,7 +24698,7 @@
       <c r="AI643" s="19"/>
       <c r="AJ643" s="20"/>
     </row>
-    <row r="644" spans="1:36" ht="8.25" customHeight="1">
+    <row r="644" spans="1:36" ht="10.5" customHeight="1">
       <c r="A644" s="19"/>
       <c r="B644" s="19"/>
       <c r="C644" s="19"/>
@@ -24736,7 +24736,7 @@
       <c r="AI644" s="19"/>
       <c r="AJ644" s="20"/>
     </row>
-    <row r="645" spans="1:36" ht="8.25" customHeight="1">
+    <row r="645" spans="1:36" ht="10.5" customHeight="1">
       <c r="A645" s="19"/>
       <c r="B645" s="19"/>
       <c r="C645" s="19"/>
@@ -24774,7 +24774,7 @@
       <c r="AI645" s="19"/>
       <c r="AJ645" s="20"/>
     </row>
-    <row r="646" spans="1:36" ht="8.25" customHeight="1">
+    <row r="646" spans="1:36" ht="10.5" customHeight="1">
       <c r="A646" s="19"/>
       <c r="B646" s="19"/>
       <c r="C646" s="19"/>
@@ -24812,7 +24812,7 @@
       <c r="AI646" s="19"/>
       <c r="AJ646" s="20"/>
     </row>
-    <row r="647" spans="1:36" ht="8.25" customHeight="1">
+    <row r="647" spans="1:36" ht="10.5" customHeight="1">
       <c r="A647" s="19"/>
       <c r="B647" s="19"/>
       <c r="C647" s="19"/>
@@ -24850,7 +24850,7 @@
       <c r="AI647" s="19"/>
       <c r="AJ647" s="20"/>
     </row>
-    <row r="648" spans="1:36" ht="8.25" customHeight="1">
+    <row r="648" spans="1:36" ht="10.5" customHeight="1">
       <c r="A648" s="19"/>
       <c r="B648" s="19"/>
       <c r="C648" s="19"/>
@@ -24888,7 +24888,7 @@
       <c r="AI648" s="19"/>
       <c r="AJ648" s="20"/>
     </row>
-    <row r="649" spans="1:36" ht="8.25" customHeight="1">
+    <row r="649" spans="1:36" ht="10.5" customHeight="1">
       <c r="A649" s="19"/>
       <c r="B649" s="19"/>
       <c r="C649" s="19"/>
@@ -24926,7 +24926,7 @@
       <c r="AI649" s="19"/>
       <c r="AJ649" s="20"/>
     </row>
-    <row r="650" spans="1:36" ht="8.25" customHeight="1">
+    <row r="650" spans="1:36" ht="10.5" customHeight="1">
       <c r="A650" s="19"/>
       <c r="B650" s="19"/>
       <c r="C650" s="19"/>
@@ -24964,7 +24964,7 @@
       <c r="AI650" s="19"/>
       <c r="AJ650" s="20"/>
     </row>
-    <row r="651" spans="1:36" ht="8.25" customHeight="1">
+    <row r="651" spans="1:36" ht="10.5" customHeight="1">
       <c r="A651" s="19"/>
       <c r="B651" s="19"/>
       <c r="C651" s="19"/>
@@ -25002,7 +25002,7 @@
       <c r="AI651" s="19"/>
       <c r="AJ651" s="20"/>
     </row>
-    <row r="652" spans="1:36" ht="8.25" customHeight="1">
+    <row r="652" spans="1:36" ht="10.5" customHeight="1">
       <c r="A652" s="19"/>
       <c r="B652" s="19"/>
       <c r="C652" s="19"/>
@@ -25040,7 +25040,7 @@
       <c r="AI652" s="19"/>
       <c r="AJ652" s="20"/>
     </row>
-    <row r="653" spans="1:36" ht="8.25" customHeight="1">
+    <row r="653" spans="1:36" ht="10.5" customHeight="1">
       <c r="A653" s="19"/>
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
@@ -25078,7 +25078,7 @@
       <c r="AI653" s="19"/>
       <c r="AJ653" s="20"/>
     </row>
-    <row r="654" spans="1:36" ht="8.25" customHeight="1">
+    <row r="654" spans="1:36" ht="10.5" customHeight="1">
       <c r="A654" s="19"/>
       <c r="B654" s="19"/>
       <c r="C654" s="19"/>
@@ -25116,7 +25116,7 @@
       <c r="AI654" s="19"/>
       <c r="AJ654" s="20"/>
     </row>
-    <row r="655" spans="1:36" ht="8.25" customHeight="1">
+    <row r="655" spans="1:36" ht="10.5" customHeight="1">
       <c r="A655" s="19"/>
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
@@ -25154,7 +25154,7 @@
       <c r="AI655" s="19"/>
       <c r="AJ655" s="20"/>
     </row>
-    <row r="656" spans="1:36" ht="8.25" customHeight="1">
+    <row r="656" spans="1:36" ht="10.5" customHeight="1">
       <c r="A656" s="19"/>
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
@@ -25192,7 +25192,7 @@
       <c r="AI656" s="19"/>
       <c r="AJ656" s="20"/>
     </row>
-    <row r="657" spans="1:36" ht="8.25" customHeight="1">
+    <row r="657" spans="1:36" ht="10.5" customHeight="1">
       <c r="A657" s="19"/>
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
@@ -25230,7 +25230,7 @@
       <c r="AI657" s="19"/>
       <c r="AJ657" s="20"/>
     </row>
-    <row r="658" spans="1:36" ht="8.25" customHeight="1">
+    <row r="658" spans="1:36" ht="10.5" customHeight="1">
       <c r="A658" s="19"/>
       <c r="B658" s="19"/>
       <c r="C658" s="19"/>
@@ -25268,7 +25268,7 @@
       <c r="AI658" s="19"/>
       <c r="AJ658" s="20"/>
     </row>
-    <row r="659" spans="1:36" ht="8.25" customHeight="1">
+    <row r="659" spans="1:36" ht="10.5" customHeight="1">
       <c r="A659" s="19"/>
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
@@ -25306,7 +25306,7 @@
       <c r="AI659" s="19"/>
       <c r="AJ659" s="20"/>
     </row>
-    <row r="660" spans="1:36" ht="8.25" customHeight="1">
+    <row r="660" spans="1:36" ht="10.5" customHeight="1">
       <c r="A660" s="19"/>
       <c r="B660" s="19"/>
       <c r="C660" s="19"/>
@@ -25344,7 +25344,7 @@
       <c r="AI660" s="19"/>
       <c r="AJ660" s="20"/>
     </row>
-    <row r="661" spans="1:36" ht="8.25" customHeight="1">
+    <row r="661" spans="1:36" ht="10.5" customHeight="1">
       <c r="A661" s="19"/>
       <c r="B661" s="19"/>
       <c r="C661" s="19"/>
@@ -25382,7 +25382,7 @@
       <c r="AI661" s="19"/>
       <c r="AJ661" s="20"/>
     </row>
-    <row r="662" spans="1:36" ht="8.25" customHeight="1">
+    <row r="662" spans="1:36" ht="10.5" customHeight="1">
       <c r="A662" s="19"/>
       <c r="B662" s="19"/>
       <c r="C662" s="19"/>
@@ -25420,7 +25420,7 @@
       <c r="AI662" s="19"/>
       <c r="AJ662" s="20"/>
     </row>
-    <row r="663" spans="1:36" ht="8.25" customHeight="1">
+    <row r="663" spans="1:36" ht="10.5" customHeight="1">
       <c r="A663" s="19"/>
       <c r="B663" s="19"/>
       <c r="C663" s="19"/>
@@ -25458,7 +25458,7 @@
       <c r="AI663" s="19"/>
       <c r="AJ663" s="20"/>
     </row>
-    <row r="664" spans="1:36" ht="8.25" customHeight="1">
+    <row r="664" spans="1:36" ht="10.5" customHeight="1">
       <c r="A664" s="19"/>
       <c r="B664" s="19"/>
       <c r="C664" s="19"/>
@@ -25496,7 +25496,7 @@
       <c r="AI664" s="19"/>
       <c r="AJ664" s="20"/>
     </row>
-    <row r="665" spans="1:36" ht="8.25" customHeight="1">
+    <row r="665" spans="1:36" ht="10.5" customHeight="1">
       <c r="A665" s="19"/>
       <c r="B665" s="19"/>
       <c r="C665" s="19"/>
@@ -25534,7 +25534,7 @@
       <c r="AI665" s="19"/>
       <c r="AJ665" s="20"/>
     </row>
-    <row r="666" spans="1:36" ht="8.25" customHeight="1">
+    <row r="666" spans="1:36" ht="10.5" customHeight="1">
       <c r="A666" s="19"/>
       <c r="B666" s="19"/>
       <c r="C666" s="19"/>
@@ -25572,7 +25572,7 @@
       <c r="AI666" s="19"/>
       <c r="AJ666" s="20"/>
     </row>
-    <row r="667" spans="1:36" ht="8.25" customHeight="1">
+    <row r="667" spans="1:36" ht="10.5" customHeight="1">
       <c r="A667" s="19"/>
       <c r="B667" s="19"/>
       <c r="C667" s="19"/>
@@ -25610,7 +25610,7 @@
       <c r="AI667" s="19"/>
       <c r="AJ667" s="20"/>
     </row>
-    <row r="668" spans="1:36" ht="8.25" customHeight="1">
+    <row r="668" spans="1:36" ht="10.5" customHeight="1">
       <c r="A668" s="19"/>
       <c r="B668" s="19"/>
       <c r="C668" s="19"/>
@@ -25648,7 +25648,7 @@
       <c r="AI668" s="19"/>
       <c r="AJ668" s="20"/>
     </row>
-    <row r="669" spans="1:36" ht="8.25" customHeight="1">
+    <row r="669" spans="1:36" ht="10.5" customHeight="1">
       <c r="A669" s="19"/>
       <c r="B669" s="19"/>
       <c r="C669" s="19"/>
@@ -25686,7 +25686,7 @@
       <c r="AI669" s="19"/>
       <c r="AJ669" s="20"/>
     </row>
-    <row r="670" spans="1:36" ht="8.25" customHeight="1">
+    <row r="670" spans="1:36" ht="10.5" customHeight="1">
       <c r="A670" s="19"/>
       <c r="B670" s="19"/>
       <c r="C670" s="19"/>
@@ -25724,7 +25724,7 @@
       <c r="AI670" s="19"/>
       <c r="AJ670" s="20"/>
     </row>
-    <row r="671" spans="1:36" ht="8.25" customHeight="1">
+    <row r="671" spans="1:36" ht="10.5" customHeight="1">
       <c r="A671" s="19"/>
       <c r="B671" s="19"/>
       <c r="C671" s="19"/>
@@ -25762,7 +25762,7 @@
       <c r="AI671" s="19"/>
       <c r="AJ671" s="20"/>
     </row>
-    <row r="672" spans="1:36" ht="8.25" customHeight="1">
+    <row r="672" spans="1:36" ht="10.5" customHeight="1">
       <c r="A672" s="19"/>
       <c r="B672" s="19"/>
       <c r="C672" s="19"/>
@@ -25800,7 +25800,7 @@
       <c r="AI672" s="19"/>
       <c r="AJ672" s="20"/>
     </row>
-    <row r="673" spans="1:36" ht="8.25" customHeight="1">
+    <row r="673" spans="1:36" ht="10.5" customHeight="1">
       <c r="A673" s="19"/>
       <c r="B673" s="19"/>
       <c r="C673" s="19"/>
@@ -25838,7 +25838,7 @@
       <c r="AI673" s="19"/>
       <c r="AJ673" s="20"/>
     </row>
-    <row r="674" spans="1:36" ht="8.25" customHeight="1">
+    <row r="674" spans="1:36" ht="10.5" customHeight="1">
       <c r="A674" s="19"/>
       <c r="B674" s="19"/>
       <c r="C674" s="19"/>
@@ -25876,7 +25876,7 @@
       <c r="AI674" s="19"/>
       <c r="AJ674" s="20"/>
     </row>
-    <row r="675" spans="1:36" ht="8.25" customHeight="1">
+    <row r="675" spans="1:36" ht="10.5" customHeight="1">
       <c r="A675" s="19"/>
       <c r="B675" s="19"/>
       <c r="C675" s="19"/>
@@ -25914,7 +25914,7 @@
       <c r="AI675" s="19"/>
       <c r="AJ675" s="20"/>
     </row>
-    <row r="676" spans="1:36" ht="8.25" customHeight="1">
+    <row r="676" spans="1:36" ht="10.5" customHeight="1">
       <c r="A676" s="19"/>
       <c r="B676" s="19"/>
       <c r="C676" s="19"/>
@@ -25952,7 +25952,7 @@
       <c r="AI676" s="19"/>
       <c r="AJ676" s="20"/>
     </row>
-    <row r="677" spans="1:36" ht="8.25" customHeight="1">
+    <row r="677" spans="1:36" ht="10.5" customHeight="1">
       <c r="A677" s="19"/>
       <c r="B677" s="19"/>
       <c r="C677" s="19"/>
@@ -25990,7 +25990,7 @@
       <c r="AI677" s="19"/>
       <c r="AJ677" s="20"/>
     </row>
-    <row r="678" spans="1:36" ht="8.25" customHeight="1">
+    <row r="678" spans="1:36" ht="10.5" customHeight="1">
       <c r="A678" s="19"/>
       <c r="B678" s="19"/>
       <c r="C678" s="19"/>
@@ -26028,7 +26028,7 @@
       <c r="AI678" s="19"/>
       <c r="AJ678" s="20"/>
     </row>
-    <row r="679" spans="1:36" ht="8.25" customHeight="1">
+    <row r="679" spans="1:36" ht="10.5" customHeight="1">
       <c r="A679" s="19"/>
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
@@ -26066,7 +26066,7 @@
       <c r="AI679" s="19"/>
       <c r="AJ679" s="20"/>
     </row>
-    <row r="680" spans="1:36" ht="8.25" customHeight="1">
+    <row r="680" spans="1:36" ht="10.5" customHeight="1">
       <c r="A680" s="19"/>
       <c r="B680" s="19"/>
       <c r="C680" s="19"/>
@@ -26104,7 +26104,7 @@
       <c r="AI680" s="19"/>
       <c r="AJ680" s="20"/>
     </row>
-    <row r="681" spans="1:36" ht="8.25" customHeight="1">
+    <row r="681" spans="1:36" ht="10.5" customHeight="1">
       <c r="A681" s="19"/>
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
@@ -26142,7 +26142,7 @@
       <c r="AI681" s="19"/>
       <c r="AJ681" s="20"/>
     </row>
-    <row r="682" spans="1:36" ht="8.25" customHeight="1">
+    <row r="682" spans="1:36" ht="10.5" customHeight="1">
       <c r="A682" s="19"/>
       <c r="B682" s="19"/>
       <c r="C682" s="19"/>
@@ -26180,7 +26180,7 @@
       <c r="AI682" s="19"/>
       <c r="AJ682" s="20"/>
     </row>
-    <row r="683" spans="1:36" ht="8.25" customHeight="1">
+    <row r="683" spans="1:36" ht="10.5" customHeight="1">
       <c r="A683" s="19"/>
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
@@ -26218,7 +26218,7 @@
       <c r="AI683" s="19"/>
       <c r="AJ683" s="20"/>
     </row>
-    <row r="684" spans="1:36" ht="8.25" customHeight="1">
+    <row r="684" spans="1:36" ht="10.5" customHeight="1">
       <c r="A684" s="19"/>
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
@@ -26256,7 +26256,7 @@
       <c r="AI684" s="19"/>
       <c r="AJ684" s="20"/>
     </row>
-    <row r="685" spans="1:36" ht="8.25" customHeight="1">
+    <row r="685" spans="1:36" ht="10.5" customHeight="1">
       <c r="A685" s="19"/>
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
@@ -26294,7 +26294,7 @@
       <c r="AI685" s="19"/>
       <c r="AJ685" s="20"/>
     </row>
-    <row r="686" spans="1:36" ht="8.25" customHeight="1">
+    <row r="686" spans="1:36" ht="10.5" customHeight="1">
       <c r="A686" s="19"/>
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
@@ -26332,7 +26332,7 @@
       <c r="AI686" s="19"/>
       <c r="AJ686" s="20"/>
     </row>
-    <row r="687" spans="1:36" ht="8.25" customHeight="1">
+    <row r="687" spans="1:36" ht="10.5" customHeight="1">
       <c r="A687" s="19"/>
       <c r="B687" s="19"/>
       <c r="C687" s="19"/>
@@ -26370,7 +26370,7 @@
       <c r="AI687" s="19"/>
       <c r="AJ687" s="20"/>
     </row>
-    <row r="688" spans="1:36" ht="8.25" customHeight="1">
+    <row r="688" spans="1:36" ht="10.5" customHeight="1">
       <c r="A688" s="19"/>
       <c r="B688" s="19"/>
       <c r="C688" s="19"/>
@@ -26408,7 +26408,7 @@
       <c r="AI688" s="19"/>
       <c r="AJ688" s="20"/>
     </row>
-    <row r="689" spans="1:36" ht="8.25" customHeight="1">
+    <row r="689" spans="1:36" ht="10.5" customHeight="1">
       <c r="A689" s="19"/>
       <c r="B689" s="19"/>
       <c r="C689" s="19"/>
@@ -26446,7 +26446,7 @@
       <c r="AI689" s="19"/>
       <c r="AJ689" s="20"/>
     </row>
-    <row r="690" spans="1:36" ht="8.25" customHeight="1">
+    <row r="690" spans="1:36" ht="10.5" customHeight="1">
       <c r="A690" s="19"/>
       <c r="B690" s="19"/>
       <c r="C690" s="19"/>
@@ -26484,7 +26484,7 @@
       <c r="AI690" s="19"/>
       <c r="AJ690" s="20"/>
     </row>
-    <row r="691" spans="1:36" ht="8.25" customHeight="1">
+    <row r="691" spans="1:36" ht="10.5" customHeight="1">
       <c r="A691" s="19"/>
       <c r="B691" s="19"/>
       <c r="C691" s="19"/>
@@ -26522,7 +26522,7 @@
       <c r="AI691" s="19"/>
       <c r="AJ691" s="20"/>
     </row>
-    <row r="692" spans="1:36" ht="8.25" customHeight="1">
+    <row r="692" spans="1:36" ht="10.5" customHeight="1">
       <c r="A692" s="19"/>
       <c r="B692" s="19"/>
       <c r="C692" s="19"/>
@@ -26560,7 +26560,7 @@
       <c r="AI692" s="19"/>
       <c r="AJ692" s="20"/>
     </row>
-    <row r="693" spans="1:36" ht="8.25" customHeight="1">
+    <row r="693" spans="1:36" ht="10.5" customHeight="1">
       <c r="A693" s="19"/>
       <c r="B693" s="19"/>
       <c r="C693" s="19"/>
@@ -26598,7 +26598,7 @@
       <c r="AI693" s="19"/>
       <c r="AJ693" s="20"/>
     </row>
-    <row r="694" spans="1:36" ht="8.25" customHeight="1">
+    <row r="694" spans="1:36" ht="10.5" customHeight="1">
       <c r="A694" s="19"/>
       <c r="B694" s="19"/>
       <c r="C694" s="19"/>
@@ -26636,7 +26636,7 @@
       <c r="AI694" s="19"/>
       <c r="AJ694" s="20"/>
     </row>
-    <row r="695" spans="1:36" ht="8.25" customHeight="1">
+    <row r="695" spans="1:36" ht="10.5" customHeight="1">
       <c r="A695" s="19"/>
       <c r="B695" s="19"/>
       <c r="C695" s="19"/>
@@ -26674,7 +26674,7 @@
       <c r="AI695" s="19"/>
       <c r="AJ695" s="20"/>
     </row>
-    <row r="696" spans="1:36" ht="8.25" customHeight="1">
+    <row r="696" spans="1:36" ht="10.5" customHeight="1">
       <c r="A696" s="19"/>
       <c r="B696" s="19"/>
       <c r="C696" s="19"/>
@@ -26712,7 +26712,7 @@
       <c r="AI696" s="19"/>
       <c r="AJ696" s="20"/>
     </row>
-    <row r="697" spans="1:36" ht="8.25" customHeight="1">
+    <row r="697" spans="1:36" ht="10.5" customHeight="1">
       <c r="A697" s="19"/>
       <c r="B697" s="19"/>
       <c r="C697" s="19"/>
@@ -26750,7 +26750,7 @@
       <c r="AI697" s="19"/>
       <c r="AJ697" s="20"/>
     </row>
-    <row r="698" spans="1:36" ht="8.25" customHeight="1">
+    <row r="698" spans="1:36" ht="10.5" customHeight="1">
       <c r="A698" s="19"/>
       <c r="B698" s="19"/>
       <c r="C698" s="19"/>
@@ -26788,7 +26788,7 @@
       <c r="AI698" s="19"/>
       <c r="AJ698" s="20"/>
     </row>
-    <row r="699" spans="1:36" ht="8.25" customHeight="1">
+    <row r="699" spans="1:36" ht="10.5" customHeight="1">
       <c r="A699" s="19"/>
       <c r="B699" s="19"/>
       <c r="C699" s="19"/>
@@ -26826,7 +26826,7 @@
       <c r="AI699" s="19"/>
       <c r="AJ699" s="20"/>
     </row>
-    <row r="700" spans="1:36" ht="8.25" customHeight="1">
+    <row r="700" spans="1:36" ht="10.5" customHeight="1">
       <c r="A700" s="19"/>
       <c r="B700" s="19"/>
       <c r="C700" s="19"/>
@@ -26864,7 +26864,7 @@
       <c r="AI700" s="19"/>
       <c r="AJ700" s="20"/>
     </row>
-    <row r="701" spans="1:36" ht="8.25" customHeight="1">
+    <row r="701" spans="1:36" ht="10.5" customHeight="1">
       <c r="A701" s="19"/>
       <c r="B701" s="19"/>
       <c r="C701" s="19"/>
@@ -26902,7 +26902,7 @@
       <c r="AI701" s="19"/>
       <c r="AJ701" s="20"/>
     </row>
-    <row r="702" spans="1:36" ht="8.25" customHeight="1">
+    <row r="702" spans="1:36" ht="10.5" customHeight="1">
       <c r="A702" s="19"/>
       <c r="B702" s="19"/>
       <c r="C702" s="19"/>
@@ -26940,7 +26940,7 @@
       <c r="AI702" s="19"/>
       <c r="AJ702" s="20"/>
     </row>
-    <row r="703" spans="1:36" ht="8.25" customHeight="1">
+    <row r="703" spans="1:36" ht="10.5" customHeight="1">
       <c r="A703" s="19"/>
       <c r="B703" s="19"/>
       <c r="C703" s="19"/>
@@ -26978,7 +26978,7 @@
       <c r="AI703" s="19"/>
       <c r="AJ703" s="20"/>
     </row>
-    <row r="704" spans="1:36" ht="8.25" customHeight="1">
+    <row r="704" spans="1:36" ht="10.5" customHeight="1">
       <c r="A704" s="19"/>
       <c r="B704" s="19"/>
       <c r="C704" s="19"/>
@@ -27016,7 +27016,7 @@
       <c r="AI704" s="19"/>
       <c r="AJ704" s="20"/>
     </row>
-    <row r="705" spans="1:36" ht="8.25" customHeight="1">
+    <row r="705" spans="1:36" ht="10.5" customHeight="1">
       <c r="A705" s="19"/>
       <c r="B705" s="19"/>
       <c r="C705" s="19"/>
@@ -27054,7 +27054,7 @@
       <c r="AI705" s="19"/>
       <c r="AJ705" s="20"/>
     </row>
-    <row r="706" spans="1:36" ht="8.25" customHeight="1">
+    <row r="706" spans="1:36" ht="10.5" customHeight="1">
       <c r="A706" s="19"/>
       <c r="B706" s="19"/>
       <c r="C706" s="19"/>
@@ -27092,7 +27092,7 @@
       <c r="AI706" s="19"/>
       <c r="AJ706" s="20"/>
     </row>
-    <row r="707" spans="1:36" ht="8.25" customHeight="1">
+    <row r="707" spans="1:36" ht="10.5" customHeight="1">
       <c r="A707" s="19"/>
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
@@ -27130,7 +27130,7 @@
       <c r="AI707" s="19"/>
       <c r="AJ707" s="20"/>
     </row>
-    <row r="708" spans="1:36" ht="8.25" customHeight="1">
+    <row r="708" spans="1:36" ht="10.5" customHeight="1">
       <c r="A708" s="19"/>
       <c r="B708" s="19"/>
       <c r="C708" s="19"/>
@@ -27168,7 +27168,7 @@
       <c r="AI708" s="19"/>
       <c r="AJ708" s="20"/>
     </row>
-    <row r="709" spans="1:36" ht="8.25" customHeight="1">
+    <row r="709" spans="1:36" ht="10.5" customHeight="1">
       <c r="A709" s="19"/>
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
@@ -27206,7 +27206,7 @@
       <c r="AI709" s="19"/>
       <c r="AJ709" s="20"/>
     </row>
-    <row r="710" spans="1:36" ht="8.25" customHeight="1">
+    <row r="710" spans="1:36" ht="10.5" customHeight="1">
       <c r="A710" s="19"/>
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
@@ -27244,7 +27244,7 @@
       <c r="AI710" s="19"/>
       <c r="AJ710" s="20"/>
     </row>
-    <row r="711" spans="1:36" ht="8.25" customHeight="1">
+    <row r="711" spans="1:36" ht="10.5" customHeight="1">
       <c r="A711" s="19"/>
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
@@ -27282,7 +27282,7 @@
       <c r="AI711" s="19"/>
       <c r="AJ711" s="20"/>
     </row>
-    <row r="712" spans="1:36" ht="8.25" customHeight="1">
+    <row r="712" spans="1:36" ht="10.5" customHeight="1">
       <c r="A712" s="19"/>
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
@@ -27320,7 +27320,7 @@
       <c r="AI712" s="19"/>
       <c r="AJ712" s="20"/>
     </row>
-    <row r="713" spans="1:36" ht="8.25" customHeight="1">
+    <row r="713" spans="1:36" ht="10.5" customHeight="1">
       <c r="A713" s="19"/>
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
@@ -27358,7 +27358,7 @@
       <c r="AI713" s="19"/>
       <c r="AJ713" s="20"/>
     </row>
-    <row r="714" spans="1:36" ht="8.25" customHeight="1">
+    <row r="714" spans="1:36" ht="10.5" customHeight="1">
       <c r="A714" s="19"/>
       <c r="B714" s="19"/>
       <c r="C714" s="19"/>
@@ -27396,7 +27396,7 @@
       <c r="AI714" s="19"/>
       <c r="AJ714" s="20"/>
     </row>
-    <row r="715" spans="1:36" ht="8.25" customHeight="1">
+    <row r="715" spans="1:36" ht="10.5" customHeight="1">
       <c r="A715" s="19"/>
       <c r="B715" s="19"/>
       <c r="C715" s="19"/>
@@ -27434,7 +27434,7 @@
       <c r="AI715" s="19"/>
       <c r="AJ715" s="20"/>
     </row>
-    <row r="716" spans="1:36" ht="8.25" customHeight="1">
+    <row r="716" spans="1:36" ht="10.5" customHeight="1">
       <c r="A716" s="19"/>
       <c r="B716" s="19"/>
       <c r="C716" s="19"/>
@@ -27472,7 +27472,7 @@
       <c r="AI716" s="19"/>
       <c r="AJ716" s="20"/>
     </row>
-    <row r="717" spans="1:36" ht="8.25" customHeight="1">
+    <row r="717" spans="1:36" ht="10.5" customHeight="1">
       <c r="A717" s="19"/>
       <c r="B717" s="19"/>
       <c r="C717" s="19"/>
@@ -27510,7 +27510,7 @@
       <c r="AI717" s="19"/>
       <c r="AJ717" s="20"/>
     </row>
-    <row r="718" spans="1:36" ht="8.25" customHeight="1">
+    <row r="718" spans="1:36" ht="10.5" customHeight="1">
       <c r="A718" s="19"/>
       <c r="B718" s="19"/>
       <c r="C718" s="19"/>
@@ -27548,7 +27548,7 @@
       <c r="AI718" s="19"/>
       <c r="AJ718" s="20"/>
     </row>
-    <row r="719" spans="1:36" ht="8.25" customHeight="1">
+    <row r="719" spans="1:36" ht="10.5" customHeight="1">
       <c r="A719" s="19"/>
       <c r="B719" s="19"/>
       <c r="C719" s="19"/>
@@ -27586,7 +27586,7 @@
       <c r="AI719" s="19"/>
       <c r="AJ719" s="20"/>
     </row>
-    <row r="720" spans="1:36" ht="8.25" customHeight="1">
+    <row r="720" spans="1:36" ht="10.5" customHeight="1">
       <c r="A720" s="19"/>
       <c r="B720" s="19"/>
       <c r="C720" s="19"/>
@@ -27624,7 +27624,7 @@
       <c r="AI720" s="19"/>
       <c r="AJ720" s="20"/>
     </row>
-    <row r="721" spans="1:36" ht="8.25" customHeight="1">
+    <row r="721" spans="1:36" ht="10.5" customHeight="1">
       <c r="A721" s="19"/>
       <c r="B721" s="19"/>
       <c r="C721" s="19"/>
@@ -27662,7 +27662,7 @@
       <c r="AI721" s="19"/>
       <c r="AJ721" s="20"/>
     </row>
-    <row r="722" spans="1:36" ht="8.25" customHeight="1">
+    <row r="722" spans="1:36" ht="10.5" customHeight="1">
       <c r="A722" s="19"/>
       <c r="B722" s="19"/>
       <c r="C722" s="19"/>
@@ -27700,7 +27700,7 @@
       <c r="AI722" s="19"/>
       <c r="AJ722" s="20"/>
     </row>
-    <row r="723" spans="1:36" ht="8.25" customHeight="1">
+    <row r="723" spans="1:36" ht="10.5" customHeight="1">
       <c r="A723" s="19"/>
       <c r="B723" s="19"/>
       <c r="C723" s="19"/>
@@ -27738,7 +27738,7 @@
       <c r="AI723" s="19"/>
       <c r="AJ723" s="20"/>
     </row>
-    <row r="724" spans="1:36" ht="8.25" customHeight="1">
+    <row r="724" spans="1:36" ht="10.5" customHeight="1">
       <c r="A724" s="19"/>
       <c r="B724" s="19"/>
       <c r="C724" s="19"/>
@@ -27776,7 +27776,7 @@
       <c r="AI724" s="19"/>
       <c r="AJ724" s="20"/>
     </row>
-    <row r="725" spans="1:36" ht="8.25" customHeight="1">
+    <row r="725" spans="1:36" ht="10.5" customHeight="1">
       <c r="A725" s="19"/>
       <c r="B725" s="19"/>
       <c r="C725" s="19"/>
@@ -27814,7 +27814,7 @@
       <c r="AI725" s="19"/>
       <c r="AJ725" s="20"/>
     </row>
-    <row r="726" spans="1:36" ht="8.25" customHeight="1">
+    <row r="726" spans="1:36" ht="10.5" customHeight="1">
       <c r="A726" s="19"/>
       <c r="B726" s="19"/>
       <c r="C726" s="19"/>
@@ -27852,7 +27852,7 @@
       <c r="AI726" s="19"/>
       <c r="AJ726" s="20"/>
     </row>
-    <row r="727" spans="1:36" ht="8.25" customHeight="1">
+    <row r="727" spans="1:36" ht="10.5" customHeight="1">
       <c r="A727" s="19"/>
       <c r="B727" s="19"/>
       <c r="C727" s="19"/>
@@ -27890,7 +27890,7 @@
       <c r="AI727" s="19"/>
       <c r="AJ727" s="20"/>
     </row>
-    <row r="728" spans="1:36" ht="8.25" customHeight="1">
+    <row r="728" spans="1:36" ht="10.5" customHeight="1">
       <c r="A728" s="19"/>
       <c r="B728" s="19"/>
       <c r="C728" s="19"/>
@@ -27928,7 +27928,7 @@
       <c r="AI728" s="19"/>
       <c r="AJ728" s="20"/>
     </row>
-    <row r="729" spans="1:36" ht="8.25" customHeight="1">
+    <row r="729" spans="1:36" ht="10.5" customHeight="1">
       <c r="A729" s="19"/>
       <c r="B729" s="19"/>
       <c r="C729" s="19"/>
@@ -27966,7 +27966,7 @@
       <c r="AI729" s="19"/>
       <c r="AJ729" s="20"/>
     </row>
-    <row r="730" spans="1:36" ht="8.25" customHeight="1">
+    <row r="730" spans="1:36" ht="10.5" customHeight="1">
       <c r="A730" s="19"/>
       <c r="B730" s="19"/>
       <c r="C730" s="19"/>
@@ -28004,7 +28004,7 @@
       <c r="AI730" s="19"/>
       <c r="AJ730" s="20"/>
     </row>
-    <row r="731" spans="1:36" ht="8.25" customHeight="1">
+    <row r="731" spans="1:36" ht="10.5" customHeight="1">
       <c r="A731" s="19"/>
       <c r="B731" s="19"/>
       <c r="C731" s="19"/>
@@ -28042,7 +28042,7 @@
       <c r="AI731" s="19"/>
       <c r="AJ731" s="20"/>
     </row>
-    <row r="732" spans="1:36" ht="8.25" customHeight="1">
+    <row r="732" spans="1:36" ht="10.5" customHeight="1">
       <c r="A732" s="19"/>
       <c r="B732" s="19"/>
       <c r="C732" s="19"/>
@@ -28080,7 +28080,7 @@
       <c r="AI732" s="19"/>
       <c r="AJ732" s="20"/>
     </row>
-    <row r="733" spans="1:36" ht="8.25" customHeight="1">
+    <row r="733" spans="1:36" ht="10.5" customHeight="1">
       <c r="A733" s="19"/>
       <c r="B733" s="19"/>
       <c r="C733" s="19"/>
@@ -28118,7 +28118,7 @@
       <c r="AI733" s="19"/>
       <c r="AJ733" s="20"/>
     </row>
-    <row r="734" spans="1:36" ht="8.25" customHeight="1">
+    <row r="734" spans="1:36" ht="10.5" customHeight="1">
       <c r="A734" s="19"/>
       <c r="B734" s="19"/>
       <c r="C734" s="19"/>
@@ -28156,7 +28156,7 @@
       <c r="AI734" s="19"/>
       <c r="AJ734" s="20"/>
     </row>
-    <row r="735" spans="1:36" ht="8.25" customHeight="1">
+    <row r="735" spans="1:36" ht="10.5" customHeight="1">
       <c r="A735" s="19"/>
       <c r="B735" s="19"/>
       <c r="C735" s="19"/>
@@ -28194,7 +28194,7 @@
       <c r="AI735" s="19"/>
       <c r="AJ735" s="20"/>
     </row>
-    <row r="736" spans="1:36" ht="8.25" customHeight="1">
+    <row r="736" spans="1:36" ht="10.5" customHeight="1">
       <c r="A736" s="19"/>
       <c r="B736" s="19"/>
       <c r="C736" s="19"/>
@@ -28232,7 +28232,7 @@
       <c r="AI736" s="19"/>
       <c r="AJ736" s="20"/>
     </row>
-    <row r="737" spans="1:36" ht="8.25" customHeight="1">
+    <row r="737" spans="1:36" ht="10.5" customHeight="1">
       <c r="A737" s="19"/>
       <c r="B737" s="19"/>
       <c r="C737" s="19"/>
@@ -28270,7 +28270,7 @@
       <c r="AI737" s="19"/>
       <c r="AJ737" s="20"/>
     </row>
-    <row r="738" spans="1:36" ht="8.25" customHeight="1">
+    <row r="738" spans="1:36" ht="10.5" customHeight="1">
       <c r="A738" s="19"/>
       <c r="B738" s="19"/>
       <c r="C738" s="19"/>
@@ -28308,7 +28308,7 @@
       <c r="AI738" s="19"/>
       <c r="AJ738" s="20"/>
     </row>
-    <row r="739" spans="1:36" ht="8.25" customHeight="1">
+    <row r="739" spans="1:36" ht="10.5" customHeight="1">
       <c r="A739" s="19"/>
       <c r="B739" s="19"/>
       <c r="C739" s="19"/>
@@ -28346,7 +28346,7 @@
       <c r="AI739" s="19"/>
       <c r="AJ739" s="20"/>
     </row>
-    <row r="740" spans="1:36" ht="8.25" customHeight="1">
+    <row r="740" spans="1:36" ht="10.5" customHeight="1">
       <c r="A740" s="19"/>
       <c r="B740" s="19"/>
       <c r="C740" s="19"/>
@@ -28384,7 +28384,7 @@
       <c r="AI740" s="19"/>
       <c r="AJ740" s="20"/>
     </row>
-    <row r="741" spans="1:36" ht="8.25" customHeight="1">
+    <row r="741" spans="1:36" ht="10.5" customHeight="1">
       <c r="A741" s="19"/>
       <c r="B741" s="19"/>
       <c r="C741" s="19"/>
@@ -28422,7 +28422,7 @@
       <c r="AI741" s="19"/>
       <c r="AJ741" s="20"/>
     </row>
-    <row r="742" spans="1:36" ht="8.25" customHeight="1">
+    <row r="742" spans="1:36" ht="10.5" customHeight="1">
       <c r="A742" s="19"/>
       <c r="B742" s="19"/>
       <c r="C742" s="19"/>
@@ -28460,7 +28460,7 @@
       <c r="AI742" s="19"/>
       <c r="AJ742" s="20"/>
     </row>
-    <row r="743" spans="1:36" ht="8.25" customHeight="1">
+    <row r="743" spans="1:36" ht="10.5" customHeight="1">
       <c r="A743" s="19"/>
       <c r="B743" s="19"/>
       <c r="C743" s="19"/>
@@ -28498,7 +28498,7 @@
       <c r="AI743" s="19"/>
       <c r="AJ743" s="20"/>
     </row>
-    <row r="744" spans="1:36" ht="8.25" customHeight="1">
+    <row r="744" spans="1:36" ht="10.5" customHeight="1">
       <c r="A744" s="19"/>
       <c r="B744" s="19"/>
       <c r="C744" s="19"/>
@@ -28536,7 +28536,7 @@
       <c r="AI744" s="19"/>
       <c r="AJ744" s="20"/>
     </row>
-    <row r="745" spans="1:36" ht="8.25" customHeight="1">
+    <row r="745" spans="1:36" ht="10.5" customHeight="1">
       <c r="A745" s="19"/>
       <c r="B745" s="19"/>
       <c r="C745" s="19"/>
@@ -28574,7 +28574,7 @@
       <c r="AI745" s="19"/>
       <c r="AJ745" s="20"/>
     </row>
-    <row r="746" spans="1:36" ht="8.25" customHeight="1">
+    <row r="746" spans="1:36" ht="10.5" customHeight="1">
       <c r="A746" s="19"/>
       <c r="B746" s="19"/>
       <c r="C746" s="19"/>
@@ -28612,7 +28612,7 @@
       <c r="AI746" s="19"/>
       <c r="AJ746" s="20"/>
     </row>
-    <row r="747" spans="1:36" ht="8.25" customHeight="1">
+    <row r="747" spans="1:36" ht="10.5" customHeight="1">
       <c r="A747" s="19"/>
       <c r="B747" s="19"/>
       <c r="C747" s="19"/>
@@ -28650,7 +28650,7 @@
       <c r="AI747" s="19"/>
       <c r="AJ747" s="20"/>
     </row>
-    <row r="748" spans="1:36" ht="8.25" customHeight="1">
+    <row r="748" spans="1:36" ht="10.5" customHeight="1">
       <c r="A748" s="19"/>
       <c r="B748" s="19"/>
       <c r="C748" s="19"/>
@@ -28688,7 +28688,7 @@
       <c r="AI748" s="19"/>
       <c r="AJ748" s="20"/>
     </row>
-    <row r="749" spans="1:36" ht="8.25" customHeight="1">
+    <row r="749" spans="1:36" ht="10.5" customHeight="1">
       <c r="A749" s="19"/>
       <c r="B749" s="19"/>
       <c r="C749" s="19"/>
@@ -28726,7 +28726,7 @@
       <c r="AI749" s="19"/>
       <c r="AJ749" s="20"/>
     </row>
-    <row r="750" spans="1:36" ht="8.25" customHeight="1">
+    <row r="750" spans="1:36" ht="10.5" customHeight="1">
       <c r="A750" s="19"/>
       <c r="B750" s="19"/>
       <c r="C750" s="19"/>
@@ -28764,7 +28764,7 @@
       <c r="AI750" s="19"/>
       <c r="AJ750" s="20"/>
     </row>
-    <row r="751" spans="1:36" ht="8.25" customHeight="1">
+    <row r="751" spans="1:36" ht="10.5" customHeight="1">
       <c r="A751" s="19"/>
       <c r="B751" s="19"/>
       <c r="C751" s="19"/>
@@ -28802,7 +28802,7 @@
       <c r="AI751" s="19"/>
       <c r="AJ751" s="20"/>
     </row>
-    <row r="752" spans="1:36" ht="8.25" customHeight="1">
+    <row r="752" spans="1:36" ht="10.5" customHeight="1">
       <c r="A752" s="19"/>
       <c r="B752" s="19"/>
       <c r="C752" s="19"/>
@@ -28840,7 +28840,7 @@
       <c r="AI752" s="19"/>
       <c r="AJ752" s="20"/>
     </row>
-    <row r="753" spans="1:36" ht="8.25" customHeight="1">
+    <row r="753" spans="1:36" ht="10.5" customHeight="1">
       <c r="A753" s="19"/>
       <c r="B753" s="19"/>
       <c r="C753" s="19"/>
@@ -28878,7 +28878,7 @@
       <c r="AI753" s="19"/>
       <c r="AJ753" s="20"/>
     </row>
-    <row r="754" spans="1:36" ht="8.25" customHeight="1">
+    <row r="754" spans="1:36" ht="10.5" customHeight="1">
       <c r="A754" s="19"/>
       <c r="B754" s="19"/>
       <c r="C754" s="19"/>
@@ -28916,7 +28916,7 @@
       <c r="AI754" s="19"/>
       <c r="AJ754" s="20"/>
     </row>
-    <row r="755" spans="1:36" ht="8.25" customHeight="1">
+    <row r="755" spans="1:36" ht="10.5" customHeight="1">
       <c r="A755" s="19"/>
       <c r="B755" s="19"/>
       <c r="C755" s="19"/>
@@ -28954,7 +28954,7 @@
       <c r="AI755" s="19"/>
       <c r="AJ755" s="20"/>
     </row>
-    <row r="756" spans="1:36" ht="8.25" customHeight="1">
+    <row r="756" spans="1:36" ht="10.5" customHeight="1">
       <c r="A756" s="19"/>
       <c r="B756" s="19"/>
       <c r="C756" s="19"/>
@@ -28992,7 +28992,7 @@
       <c r="AI756" s="19"/>
       <c r="AJ756" s="20"/>
     </row>
-    <row r="757" spans="1:36" ht="8.25" customHeight="1">
+    <row r="757" spans="1:36" ht="10.5" customHeight="1">
       <c r="A757" s="19"/>
       <c r="B757" s="19"/>
       <c r="C757" s="19"/>
@@ -29030,7 +29030,7 @@
       <c r="AI757" s="19"/>
       <c r="AJ757" s="20"/>
     </row>
-    <row r="758" spans="1:36" ht="8.25" customHeight="1">
+    <row r="758" spans="1:36" ht="10.5" customHeight="1">
       <c r="A758" s="19"/>
       <c r="B758" s="19"/>
       <c r="C758" s="19"/>
@@ -29068,7 +29068,7 @@
       <c r="AI758" s="19"/>
       <c r="AJ758" s="20"/>
     </row>
-    <row r="759" spans="1:36" ht="8.25" customHeight="1">
+    <row r="759" spans="1:36" ht="10.5" customHeight="1">
       <c r="A759" s="19"/>
       <c r="B759" s="19"/>
       <c r="C759" s="19"/>
@@ -29106,7 +29106,7 @@
       <c r="AI759" s="19"/>
       <c r="AJ759" s="20"/>
     </row>
-    <row r="760" spans="1:36" ht="8.25" customHeight="1">
+    <row r="760" spans="1:36" ht="10.5" customHeight="1">
       <c r="A760" s="19"/>
       <c r="B760" s="19"/>
       <c r="C760" s="19"/>
@@ -29144,7 +29144,7 @@
       <c r="AI760" s="19"/>
       <c r="AJ760" s="20"/>
     </row>
-    <row r="761" spans="1:36" ht="8.25" customHeight="1">
+    <row r="761" spans="1:36" ht="10.5" customHeight="1">
       <c r="A761" s="19"/>
       <c r="B761" s="19"/>
       <c r="C761" s="19"/>
@@ -29182,7 +29182,7 @@
       <c r="AI761" s="19"/>
       <c r="AJ761" s="20"/>
     </row>
-    <row r="762" spans="1:36" ht="8.25" customHeight="1">
+    <row r="762" spans="1:36" ht="10.5" customHeight="1">
       <c r="A762" s="19"/>
       <c r="B762" s="19"/>
       <c r="C762" s="19"/>
@@ -29220,7 +29220,7 @@
       <c r="AI762" s="19"/>
       <c r="AJ762" s="20"/>
     </row>
-    <row r="763" spans="1:36" ht="8.25" customHeight="1">
+    <row r="763" spans="1:36" ht="10.5" customHeight="1">
       <c r="A763" s="19"/>
       <c r="B763" s="19"/>
       <c r="C763" s="19"/>
@@ -29258,7 +29258,7 @@
       <c r="AI763" s="19"/>
       <c r="AJ763" s="20"/>
     </row>
-    <row r="764" spans="1:36" ht="8.25" customHeight="1">
+    <row r="764" spans="1:36" ht="10.5" customHeight="1">
       <c r="A764" s="19"/>
       <c r="B764" s="19"/>
       <c r="C764" s="19"/>
@@ -29296,7 +29296,7 @@
       <c r="AI764" s="19"/>
       <c r="AJ764" s="20"/>
     </row>
-    <row r="765" spans="1:36" ht="8.25" customHeight="1">
+    <row r="765" spans="1:36" ht="10.5" customHeight="1">
       <c r="A765" s="19"/>
       <c r="B765" s="19"/>
       <c r="C765" s="19"/>
@@ -29334,7 +29334,7 @@
       <c r="AI765" s="19"/>
       <c r="AJ765" s="20"/>
     </row>
-    <row r="766" spans="1:36" ht="8.25" customHeight="1">
+    <row r="766" spans="1:36" ht="10.5" customHeight="1">
       <c r="A766" s="19"/>
       <c r="B766" s="19"/>
       <c r="C766" s="19"/>
@@ -29372,7 +29372,7 @@
       <c r="AI766" s="19"/>
       <c r="AJ766" s="20"/>
     </row>
-    <row r="767" spans="1:36" ht="8.25" customHeight="1">
+    <row r="767" spans="1:36" ht="10.5" customHeight="1">
       <c r="A767" s="19"/>
       <c r="B767" s="19"/>
       <c r="C767" s="19"/>
@@ -29410,7 +29410,7 @@
       <c r="AI767" s="19"/>
       <c r="AJ767" s="20"/>
     </row>
-    <row r="768" spans="1:36" ht="8.25" customHeight="1">
+    <row r="768" spans="1:36" ht="10.5" customHeight="1">
       <c r="A768" s="19"/>
       <c r="B768" s="19"/>
       <c r="C768" s="19"/>
@@ -29448,7 +29448,7 @@
       <c r="AI768" s="19"/>
       <c r="AJ768" s="20"/>
     </row>
-    <row r="769" spans="1:36" ht="8.25" customHeight="1">
+    <row r="769" spans="1:36" ht="10.5" customHeight="1">
       <c r="A769" s="19"/>
       <c r="B769" s="19"/>
       <c r="C769" s="19"/>
@@ -29486,7 +29486,7 @@
       <c r="AI769" s="19"/>
       <c r="AJ769" s="20"/>
     </row>
-    <row r="770" spans="1:36" ht="8.25" customHeight="1">
+    <row r="770" spans="1:36" ht="10.5" customHeight="1">
       <c r="A770" s="19"/>
       <c r="B770" s="19"/>
       <c r="C770" s="19"/>
@@ -29524,7 +29524,7 @@
       <c r="AI770" s="19"/>
       <c r="AJ770" s="20"/>
     </row>
-    <row r="771" spans="1:36" ht="8.25" customHeight="1">
+    <row r="771" spans="1:36" ht="10.5" customHeight="1">
       <c r="A771" s="19"/>
       <c r="B771" s="19"/>
       <c r="C771" s="19"/>
@@ -29562,7 +29562,7 @@
       <c r="AI771" s="19"/>
       <c r="AJ771" s="20"/>
     </row>
-    <row r="772" spans="1:36" ht="8.25" customHeight="1">
+    <row r="772" spans="1:36" ht="10.5" customHeight="1">
       <c r="A772" s="19"/>
       <c r="B772" s="19"/>
       <c r="C772" s="19"/>
@@ -29600,7 +29600,7 @@
       <c r="AI772" s="19"/>
       <c r="AJ772" s="20"/>
     </row>
-    <row r="773" spans="1:36" ht="8.25" customHeight="1">
+    <row r="773" spans="1:36" ht="10.5" customHeight="1">
       <c r="A773" s="19"/>
       <c r="B773" s="19"/>
       <c r="C773" s="19"/>
@@ -29638,7 +29638,7 @@
       <c r="AI773" s="19"/>
       <c r="AJ773" s="20"/>
     </row>
-    <row r="774" spans="1:36" ht="8.25" customHeight="1">
+    <row r="774" spans="1:36" ht="10.5" customHeight="1">
       <c r="A774" s="19"/>
       <c r="B774" s="19"/>
       <c r="C774" s="19"/>
@@ -29676,7 +29676,7 @@
       <c r="AI774" s="19"/>
       <c r="AJ774" s="20"/>
     </row>
-    <row r="775" spans="1:36" ht="8.25" customHeight="1">
+    <row r="775" spans="1:36" ht="10.5" customHeight="1">
       <c r="A775" s="19"/>
       <c r="B775" s="19"/>
       <c r="C775" s="19"/>
@@ -29714,7 +29714,7 @@
       <c r="AI775" s="19"/>
       <c r="AJ775" s="20"/>
     </row>
-    <row r="776" spans="1:36" ht="8.25" customHeight="1">
+    <row r="776" spans="1:36" ht="10.5" customHeight="1">
       <c r="A776" s="19"/>
       <c r="B776" s="19"/>
       <c r="C776" s="19"/>
@@ -29752,7 +29752,7 @@
       <c r="AI776" s="19"/>
       <c r="AJ776" s="20"/>
     </row>
-    <row r="777" spans="1:36" ht="8.25" customHeight="1">
+    <row r="777" spans="1:36" ht="10.5" customHeight="1">
       <c r="A777" s="19"/>
       <c r="B777" s="19"/>
       <c r="C777" s="19"/>
@@ -29790,7 +29790,7 @@
       <c r="AI777" s="19"/>
       <c r="AJ777" s="20"/>
     </row>
-    <row r="778" spans="1:36" ht="8.25" customHeight="1">
+    <row r="778" spans="1:36" ht="10.5" customHeight="1">
       <c r="A778" s="19"/>
       <c r="B778" s="19"/>
       <c r="C778" s="19"/>
@@ -29828,7 +29828,7 @@
       <c r="AI778" s="19"/>
       <c r="AJ778" s="20"/>
     </row>
-    <row r="779" spans="1:36" ht="8.25" customHeight="1">
+    <row r="779" spans="1:36" ht="10.5" customHeight="1">
       <c r="A779" s="19"/>
       <c r="B779" s="19"/>
       <c r="C779" s="19"/>
@@ -29866,7 +29866,7 @@
       <c r="AI779" s="19"/>
       <c r="AJ779" s="20"/>
     </row>
-    <row r="780" spans="1:36" ht="8.25" customHeight="1">
+    <row r="780" spans="1:36" ht="10.5" customHeight="1">
       <c r="A780" s="19"/>
       <c r="B780" s="19"/>
       <c r="C780" s="19"/>
@@ -29904,7 +29904,7 @@
       <c r="AI780" s="19"/>
       <c r="AJ780" s="20"/>
     </row>
-    <row r="781" spans="1:36" ht="8.25" customHeight="1">
+    <row r="781" spans="1:36" ht="10.5" customHeight="1">
       <c r="A781" s="19"/>
       <c r="B781" s="19"/>
       <c r="C781" s="19"/>
@@ -29942,7 +29942,7 @@
       <c r="AI781" s="19"/>
       <c r="AJ781" s="20"/>
     </row>
-    <row r="782" spans="1:36" ht="8.25" customHeight="1">
+    <row r="782" spans="1:36" ht="10.5" customHeight="1">
       <c r="A782" s="19"/>
       <c r="B782" s="19"/>
       <c r="C782" s="19"/>
@@ -29980,7 +29980,7 @@
       <c r="AI782" s="19"/>
       <c r="AJ782" s="20"/>
     </row>
-    <row r="783" spans="1:36" ht="8.25" customHeight="1">
+    <row r="783" spans="1:36" ht="10.5" customHeight="1">
       <c r="A783" s="19"/>
       <c r="B783" s="19"/>
       <c r="C783" s="19"/>
@@ -30018,7 +30018,7 @@
       <c r="AI783" s="19"/>
       <c r="AJ783" s="20"/>
     </row>
-    <row r="784" spans="1:36" ht="8.25" customHeight="1">
+    <row r="784" spans="1:36" ht="10.5" customHeight="1">
       <c r="A784" s="19"/>
       <c r="B784" s="19"/>
       <c r="C784" s="19"/>
@@ -30056,7 +30056,7 @@
       <c r="AI784" s="19"/>
       <c r="AJ784" s="20"/>
     </row>
-    <row r="785" spans="1:36" ht="8.25" customHeight="1">
+    <row r="785" spans="1:36" ht="10.5" customHeight="1">
       <c r="A785" s="19"/>
       <c r="B785" s="19"/>
       <c r="C785" s="19"/>
@@ -30094,7 +30094,7 @@
       <c r="AI785" s="19"/>
       <c r="AJ785" s="20"/>
     </row>
-    <row r="786" spans="1:36" ht="8.25" customHeight="1">
+    <row r="786" spans="1:36" ht="10.5" customHeight="1">
       <c r="A786" s="19"/>
       <c r="B786" s="19"/>
       <c r="C786" s="19"/>
@@ -30132,7 +30132,7 @@
       <c r="AI786" s="19"/>
       <c r="AJ786" s="20"/>
     </row>
-    <row r="787" spans="1:36" ht="8.25" customHeight="1">
+    <row r="787" spans="1:36" ht="10.5" customHeight="1">
       <c r="A787" s="19"/>
       <c r="B787" s="19"/>
       <c r="C787" s="19"/>
@@ -30170,7 +30170,7 @@
       <c r="AI787" s="19"/>
       <c r="AJ787" s="20"/>
     </row>
-    <row r="788" spans="1:36" ht="8.25" customHeight="1">
+    <row r="788" spans="1:36" ht="10.5" customHeight="1">
       <c r="A788" s="19"/>
       <c r="B788" s="19"/>
       <c r="C788" s="19"/>
@@ -30208,7 +30208,7 @@
       <c r="AI788" s="19"/>
       <c r="AJ788" s="20"/>
     </row>
-    <row r="789" spans="1:36" ht="8.25" customHeight="1">
+    <row r="789" spans="1:36" ht="10.5" customHeight="1">
       <c r="A789" s="19"/>
       <c r="B789" s="19"/>
       <c r="C789" s="19"/>
@@ -30246,7 +30246,7 @@
       <c r="AI789" s="19"/>
       <c r="AJ789" s="20"/>
     </row>
-    <row r="790" spans="1:36" ht="8.25" customHeight="1">
+    <row r="790" spans="1:36" ht="10.5" customHeight="1">
       <c r="A790" s="19"/>
       <c r="B790" s="19"/>
       <c r="C790" s="19"/>
@@ -30284,7 +30284,7 @@
       <c r="AI790" s="19"/>
       <c r="AJ790" s="20"/>
     </row>
-    <row r="791" spans="1:36" ht="8.25" customHeight="1">
+    <row r="791" spans="1:36" ht="10.5" customHeight="1">
       <c r="A791" s="19"/>
       <c r="B791" s="19"/>
       <c r="C791" s="19"/>
@@ -30322,7 +30322,7 @@
       <c r="AI791" s="19"/>
       <c r="AJ791" s="20"/>
     </row>
-    <row r="792" spans="1:36" ht="8.25" customHeight="1">
+    <row r="792" spans="1:36" ht="10.5" customHeight="1">
       <c r="A792" s="19"/>
       <c r="B792" s="19"/>
       <c r="C792" s="19"/>
@@ -30360,7 +30360,7 @@
       <c r="AI792" s="19"/>
       <c r="AJ792" s="20"/>
     </row>
-    <row r="793" spans="1:36" ht="8.25" customHeight="1">
+    <row r="793" spans="1:36" ht="10.5" customHeight="1">
       <c r="A793" s="19"/>
       <c r="B793" s="19"/>
       <c r="C793" s="19"/>
@@ -30398,7 +30398,7 @@
       <c r="AI793" s="19"/>
       <c r="AJ793" s="20"/>
     </row>
-    <row r="794" spans="1:36" ht="8.25" customHeight="1">
+    <row r="794" spans="1:36" ht="10.5" customHeight="1">
       <c r="A794" s="19"/>
       <c r="B794" s="19"/>
       <c r="C794" s="19"/>
@@ -30436,7 +30436,7 @@
       <c r="AI794" s="19"/>
       <c r="AJ794" s="20"/>
     </row>
-    <row r="795" spans="1:36" ht="8.25" customHeight="1">
+    <row r="795" spans="1:36" ht="10.5" customHeight="1">
       <c r="A795" s="19"/>
       <c r="B795" s="19"/>
       <c r="C795" s="19"/>
@@ -30474,7 +30474,7 @@
       <c r="AI795" s="19"/>
       <c r="AJ795" s="20"/>
     </row>
-    <row r="796" spans="1:36" ht="8.25" customHeight="1">
+    <row r="796" spans="1:36" ht="10.5" customHeight="1">
       <c r="A796" s="19"/>
       <c r="B796" s="19"/>
       <c r="C796" s="19"/>
@@ -30512,7 +30512,7 @@
       <c r="AI796" s="19"/>
       <c r="AJ796" s="20"/>
     </row>
-    <row r="797" spans="1:36" ht="8.25" customHeight="1">
+    <row r="797" spans="1:36" ht="10.5" customHeight="1">
       <c r="A797" s="19"/>
       <c r="B797" s="19"/>
       <c r="C797" s="19"/>
@@ -30550,7 +30550,7 @@
       <c r="AI797" s="19"/>
       <c r="AJ797" s="20"/>
     </row>
-    <row r="798" spans="1:36" ht="8.25" customHeight="1">
+    <row r="798" spans="1:36" ht="10.5" customHeight="1">
       <c r="A798" s="19"/>
       <c r="B798" s="19"/>
       <c r="C798" s="19"/>
@@ -30588,7 +30588,7 @@
       <c r="AI798" s="19"/>
       <c r="AJ798" s="20"/>
     </row>
-    <row r="799" spans="1:36" ht="8.25" customHeight="1">
+    <row r="799" spans="1:36" ht="10.5" customHeight="1">
       <c r="A799" s="19"/>
       <c r="B799" s="19"/>
       <c r="C799" s="19"/>
@@ -30626,7 +30626,7 @@
       <c r="AI799" s="19"/>
       <c r="AJ799" s="20"/>
     </row>
-    <row r="800" spans="1:36" ht="8.25" customHeight="1">
+    <row r="800" spans="1:36" ht="10.5" customHeight="1">
       <c r="A800" s="19"/>
       <c r="B800" s="19"/>
       <c r="C800" s="19"/>
@@ -30664,7 +30664,7 @@
       <c r="AI800" s="19"/>
       <c r="AJ800" s="20"/>
     </row>
-    <row r="801" spans="1:36" ht="8.25" customHeight="1">
+    <row r="801" spans="1:36" ht="10.5" customHeight="1">
       <c r="A801" s="19"/>
       <c r="B801" s="19"/>
       <c r="C801" s="19"/>
@@ -30702,7 +30702,7 @@
       <c r="AI801" s="19"/>
       <c r="AJ801" s="20"/>
     </row>
-    <row r="802" spans="1:36" ht="8.25" customHeight="1">
+    <row r="802" spans="1:36" ht="10.5" customHeight="1">
       <c r="A802" s="19"/>
       <c r="B802" s="19"/>
       <c r="C802" s="19"/>
@@ -30740,7 +30740,7 @@
       <c r="AI802" s="19"/>
       <c r="AJ802" s="20"/>
     </row>
-    <row r="803" spans="1:36" ht="8.25" customHeight="1">
+    <row r="803" spans="1:36" ht="10.5" customHeight="1">
       <c r="A803" s="19"/>
       <c r="B803" s="19"/>
       <c r="C803" s="19"/>
@@ -30778,7 +30778,7 @@
       <c r="AI803" s="19"/>
       <c r="AJ803" s="20"/>
     </row>
-    <row r="804" spans="1:36" ht="8.25" customHeight="1">
+    <row r="804" spans="1:36" ht="10.5" customHeight="1">
       <c r="A804" s="19"/>
       <c r="B804" s="19"/>
       <c r="C804" s="19"/>
@@ -30816,7 +30816,7 @@
       <c r="AI804" s="19"/>
       <c r="AJ804" s="20"/>
     </row>
-    <row r="805" spans="1:36" ht="8.25" customHeight="1">
+    <row r="805" spans="1:36" ht="10.5" customHeight="1">
       <c r="A805" s="19"/>
       <c r="B805" s="19"/>
       <c r="C805" s="19"/>
@@ -30854,7 +30854,7 @@
       <c r="AI805" s="19"/>
       <c r="AJ805" s="20"/>
     </row>
-    <row r="806" spans="1:36" ht="8.25" customHeight="1">
+    <row r="806" spans="1:36" ht="10.5" customHeight="1">
       <c r="A806" s="19"/>
       <c r="B806" s="19"/>
       <c r="C806" s="19"/>
@@ -30892,7 +30892,7 @@
       <c r="AI806" s="19"/>
       <c r="AJ806" s="20"/>
     </row>
-    <row r="807" spans="1:36" ht="8.25" customHeight="1">
+    <row r="807" spans="1:36" ht="10.5" customHeight="1">
       <c r="A807" s="19"/>
       <c r="B807" s="19"/>
       <c r="C807" s="19"/>
@@ -30930,7 +30930,7 @@
       <c r="AI807" s="19"/>
       <c r="AJ807" s="20"/>
     </row>
-    <row r="808" spans="1:36" ht="8.25" customHeight="1">
+    <row r="808" spans="1:36" ht="10.5" customHeight="1">
       <c r="A808" s="19"/>
       <c r="B808" s="19"/>
       <c r="C808" s="19"/>
@@ -30968,7 +30968,7 @@
       <c r="AI808" s="19"/>
       <c r="AJ808" s="20"/>
     </row>
-    <row r="809" spans="1:36" ht="8.25" customHeight="1">
+    <row r="809" spans="1:36" ht="10.5" customHeight="1">
       <c r="A809" s="19"/>
       <c r="B809" s="19"/>
       <c r="C809" s="19"/>
@@ -31006,7 +31006,7 @@
       <c r="AI809" s="19"/>
       <c r="AJ809" s="20"/>
     </row>
-    <row r="810" spans="1:36" ht="8.25" customHeight="1">
+    <row r="810" spans="1:36" ht="10.5" customHeight="1">
       <c r="A810" s="19"/>
       <c r="B810" s="19"/>
       <c r="C810" s="19"/>
@@ -31044,7 +31044,7 @@
       <c r="AI810" s="19"/>
       <c r="AJ810" s="20"/>
     </row>
-    <row r="811" spans="1:36" ht="8.25" customHeight="1">
+    <row r="811" spans="1:36" ht="10.5" customHeight="1">
       <c r="A811" s="19"/>
       <c r="B811" s="19"/>
       <c r="C811" s="19"/>
@@ -31082,7 +31082,7 @@
       <c r="AI811" s="19"/>
       <c r="AJ811" s="20"/>
     </row>
-    <row r="812" spans="1:36" ht="8.25" customHeight="1">
+    <row r="812" spans="1:36" ht="10.5" customHeight="1">
       <c r="A812" s="19"/>
       <c r="B812" s="19"/>
       <c r="C812" s="19"/>
@@ -31120,7 +31120,7 @@
       <c r="AI812" s="19"/>
       <c r="AJ812" s="20"/>
     </row>
-    <row r="813" spans="1:36" ht="8.25" customHeight="1">
+    <row r="813" spans="1:36" ht="10.5" customHeight="1">
       <c r="A813" s="19"/>
       <c r="B813" s="19"/>
       <c r="C813" s="19"/>
@@ -31158,7 +31158,7 @@
       <c r="AI813" s="19"/>
       <c r="AJ813" s="20"/>
     </row>
-    <row r="814" spans="1:36" ht="8.25" customHeight="1">
+    <row r="814" spans="1:36" ht="10.5" customHeight="1">
       <c r="A814" s="19"/>
       <c r="B814" s="19"/>
       <c r="C814" s="19"/>
@@ -31196,7 +31196,7 @@
       <c r="AI814" s="19"/>
       <c r="AJ814" s="20"/>
     </row>
-    <row r="815" spans="1:36" ht="8.25" customHeight="1">
+    <row r="815" spans="1:36" ht="10.5" customHeight="1">
       <c r="A815" s="19"/>
       <c r="B815" s="19"/>
       <c r="C815" s="19"/>
@@ -31234,7 +31234,7 @@
       <c r="AI815" s="19"/>
       <c r="AJ815" s="20"/>
     </row>
-    <row r="816" spans="1:36" ht="8.25" customHeight="1">
+    <row r="816" spans="1:36" ht="10.5" customHeight="1">
       <c r="A816" s="19"/>
       <c r="B816" s="19"/>
       <c r="C816" s="19"/>
@@ -31272,7 +31272,7 @@
       <c r="AI816" s="19"/>
       <c r="AJ816" s="20"/>
     </row>
-    <row r="817" spans="1:36" ht="8.25" customHeight="1">
+    <row r="817" spans="1:36" ht="10.5" customHeight="1">
       <c r="A817" s="19"/>
       <c r="B817" s="19"/>
       <c r="C817" s="19"/>
@@ -31310,7 +31310,7 @@
       <c r="AI817" s="19"/>
       <c r="AJ817" s="20"/>
     </row>
-    <row r="818" spans="1:36" ht="8.25" customHeight="1">
+    <row r="818" spans="1:36" ht="10.5" customHeight="1">
       <c r="A818" s="19"/>
       <c r="B818" s="19"/>
       <c r="C818" s="19"/>
@@ -31348,7 +31348,7 @@
       <c r="AI818" s="19"/>
       <c r="AJ818" s="20"/>
     </row>
-    <row r="819" spans="1:36" ht="8.25" customHeight="1">
+    <row r="819" spans="1:36" ht="10.5" customHeight="1">
       <c r="A819" s="19"/>
       <c r="B819" s="19"/>
       <c r="C819" s="19"/>
@@ -31386,7 +31386,7 @@
       <c r="AI819" s="19"/>
       <c r="AJ819" s="20"/>
     </row>
-    <row r="820" spans="1:36" ht="8.25" customHeight="1">
+    <row r="820" spans="1:36" ht="10.5" customHeight="1">
       <c r="A820" s="19"/>
       <c r="B820" s="19"/>
       <c r="C820" s="19"/>
@@ -31424,7 +31424,7 @@
       <c r="AI820" s="19"/>
       <c r="AJ820" s="20"/>
     </row>
-    <row r="821" spans="1:36" ht="8.25" customHeight="1">
+    <row r="821" spans="1:36" ht="10.5" customHeight="1">
       <c r="A821" s="19"/>
       <c r="B821" s="19"/>
       <c r="C821" s="19"/>
@@ -31462,7 +31462,7 @@
       <c r="AI821" s="19"/>
       <c r="AJ821" s="20"/>
     </row>
-    <row r="822" spans="1:36" ht="8.25" customHeight="1">
+    <row r="822" spans="1:36" ht="10.5" customHeight="1">
       <c r="A822" s="19"/>
       <c r="B822" s="19"/>
       <c r="C822" s="19"/>
@@ -31500,7 +31500,7 @@
       <c r="AI822" s="19"/>
       <c r="AJ822" s="20"/>
     </row>
-    <row r="823" spans="1:36" ht="8.25" customHeight="1">
+    <row r="823" spans="1:36" ht="10.5" customHeight="1">
       <c r="A823" s="19"/>
       <c r="B823" s="19"/>
       <c r="C823" s="19"/>
@@ -31538,7 +31538,7 @@
       <c r="AI823" s="19"/>
       <c r="AJ823" s="20"/>
     </row>
-    <row r="824" spans="1:36" ht="8.25" customHeight="1">
+    <row r="824" spans="1:36" ht="10.5" customHeight="1">
       <c r="A824" s="19"/>
       <c r="B824" s="19"/>
       <c r="C824" s="19"/>
@@ -31576,7 +31576,7 @@
       <c r="AI824" s="19"/>
       <c r="AJ824" s="20"/>
     </row>
-    <row r="825" spans="1:36" ht="8.25" customHeight="1">
+    <row r="825" spans="1:36" ht="10.5" customHeight="1">
       <c r="A825" s="19"/>
       <c r="B825" s="19"/>
       <c r="C825" s="19"/>
@@ -31614,7 +31614,7 @@
       <c r="AI825" s="19"/>
       <c r="AJ825" s="20"/>
     </row>
-    <row r="826" spans="1:36" ht="8.25" customHeight="1">
+    <row r="826" spans="1:36" ht="10.5" customHeight="1">
       <c r="A826" s="19"/>
       <c r="B826" s="19"/>
       <c r="C826" s="19"/>
@@ -31652,7 +31652,7 @@
       <c r="AI826" s="19"/>
       <c r="AJ826" s="20"/>
     </row>
-    <row r="827" spans="1:36" ht="8.25" customHeight="1">
+    <row r="827" spans="1:36" ht="10.5" customHeight="1">
       <c r="A827" s="19"/>
       <c r="B827" s="19"/>
       <c r="C827" s="19"/>
@@ -31690,7 +31690,7 @@
       <c r="AI827" s="19"/>
       <c r="AJ827" s="20"/>
     </row>
-    <row r="828" spans="1:36" ht="8.25" customHeight="1">
+    <row r="828" spans="1:36" ht="10.5" customHeight="1">
       <c r="A828" s="19"/>
       <c r="B828" s="19"/>
       <c r="C828" s="19"/>
@@ -31728,7 +31728,7 @@
       <c r="AI828" s="19"/>
       <c r="AJ828" s="20"/>
     </row>
-    <row r="829" spans="1:36" ht="8.25" customHeight="1">
+    <row r="829" spans="1:36" ht="10.5" customHeight="1">
       <c r="A829" s="19"/>
       <c r="B829" s="19"/>
       <c r="C829" s="19"/>
@@ -31766,7 +31766,7 @@
       <c r="AI829" s="19"/>
       <c r="AJ829" s="20"/>
     </row>
-    <row r="830" spans="1:36" ht="8.25" customHeight="1">
+    <row r="830" spans="1:36" ht="10.5" customHeight="1">
       <c r="A830" s="19"/>
       <c r="B830" s="19"/>
       <c r="C830" s="19"/>
@@ -31804,7 +31804,7 @@
       <c r="AI830" s="19"/>
       <c r="AJ830" s="20"/>
     </row>
-    <row r="831" spans="1:36" ht="8.25" customHeight="1">
+    <row r="831" spans="1:36" ht="10.5" customHeight="1">
       <c r="A831" s="19"/>
       <c r="B831" s="19"/>
       <c r="C831" s="19"/>
@@ -31842,7 +31842,7 @@
       <c r="AI831" s="19"/>
       <c r="AJ831" s="20"/>
     </row>
-    <row r="832" spans="1:36" ht="8.25" customHeight="1">
+    <row r="832" spans="1:36" ht="10.5" customHeight="1">
       <c r="A832" s="19"/>
       <c r="B832" s="19"/>
       <c r="C832" s="19"/>
@@ -31880,7 +31880,7 @@
       <c r="AI832" s="19"/>
       <c r="AJ832" s="20"/>
     </row>
-    <row r="833" spans="1:36" ht="8.25" customHeight="1">
+    <row r="833" spans="1:36" ht="10.5" customHeight="1">
       <c r="A833" s="19"/>
       <c r="B833" s="19"/>
       <c r="C833" s="19"/>
@@ -31918,7 +31918,7 @@
       <c r="AI833" s="19"/>
       <c r="AJ833" s="20"/>
     </row>
-    <row r="834" spans="1:36" ht="8.25" customHeight="1">
+    <row r="834" spans="1:36" ht="10.5" customHeight="1">
       <c r="A834" s="19"/>
       <c r="B834" s="19"/>
       <c r="C834" s="19"/>
@@ -31956,7 +31956,7 @@
       <c r="AI834" s="19"/>
       <c r="AJ834" s="20"/>
     </row>
-    <row r="835" spans="1:36" ht="8.25" customHeight="1">
+    <row r="835" spans="1:36" ht="10.5" customHeight="1">
       <c r="A835" s="19"/>
       <c r="B835" s="19"/>
       <c r="C835" s="19"/>
@@ -31994,7 +31994,7 @@
       <c r="AI835" s="19"/>
       <c r="AJ835" s="20"/>
     </row>
-    <row r="836" spans="1:36" ht="8.25" customHeight="1">
+    <row r="836" spans="1:36" ht="10.5" customHeight="1">
       <c r="A836" s="19"/>
       <c r="B836" s="19"/>
       <c r="C836" s="19"/>
@@ -32032,7 +32032,7 @@
       <c r="AI836" s="19"/>
       <c r="AJ836" s="20"/>
     </row>
-    <row r="837" spans="1:36" ht="8.25" customHeight="1">
+    <row r="837" spans="1:36" ht="10.5" customHeight="1">
       <c r="A837" s="19"/>
       <c r="B837" s="19"/>
       <c r="C837" s="19"/>
@@ -32070,7 +32070,7 @@
       <c r="AI837" s="19"/>
       <c r="AJ837" s="20"/>
     </row>
-    <row r="838" spans="1:36" ht="8.25" customHeight="1">
+    <row r="838" spans="1:36" ht="10.5" customHeight="1">
       <c r="A838" s="19"/>
       <c r="B838" s="19"/>
       <c r="C838" s="19"/>
@@ -32108,7 +32108,7 @@
       <c r="AI838" s="19"/>
       <c r="AJ838" s="20"/>
     </row>
-    <row r="839" spans="1:36" ht="8.25" customHeight="1">
+    <row r="839" spans="1:36" ht="10.5" customHeight="1">
       <c r="A839" s="19"/>
       <c r="B839" s="19"/>
       <c r="C839" s="19"/>
@@ -32146,7 +32146,7 @@
       <c r="AI839" s="19"/>
       <c r="AJ839" s="20"/>
     </row>
-    <row r="840" spans="1:36" ht="8.25" customHeight="1">
+    <row r="840" spans="1:36" ht="10.5" customHeight="1">
       <c r="A840" s="19"/>
       <c r="B840" s="19"/>
       <c r="C840" s="19"/>
@@ -32184,7 +32184,7 @@
       <c r="AI840" s="19"/>
       <c r="AJ840" s="20"/>
     </row>
-    <row r="841" spans="1:36" ht="8.25" customHeight="1">
+    <row r="841" spans="1:36" ht="10.5" customHeight="1">
       <c r="A841" s="19"/>
       <c r="B841" s="19"/>
       <c r="C841" s="19"/>
@@ -32222,7 +32222,7 @@
       <c r="AI841" s="19"/>
       <c r="AJ841" s="20"/>
     </row>
-    <row r="842" spans="1:36" ht="8.25" customHeight="1">
+    <row r="842" spans="1:36" ht="10.5" customHeight="1">
       <c r="A842" s="19"/>
       <c r="B842" s="19"/>
       <c r="C842" s="19"/>
@@ -32260,7 +32260,7 @@
       <c r="AI842" s="19"/>
       <c r="AJ842" s="20"/>
     </row>
-    <row r="843" spans="1:36" ht="8.25" customHeight="1">
+    <row r="843" spans="1:36" ht="10.5" customHeight="1">
       <c r="A843" s="19"/>
       <c r="B843" s="19"/>
       <c r="C843" s="19"/>
@@ -32298,7 +32298,7 @@
       <c r="AI843" s="19"/>
       <c r="AJ843" s="20"/>
     </row>
-    <row r="844" spans="1:36" ht="8.25" customHeight="1">
+    <row r="844" spans="1:36" ht="10.5" customHeight="1">
       <c r="A844" s="19"/>
       <c r="B844" s="19"/>
       <c r="C844" s="19"/>
@@ -32336,7 +32336,7 @@
       <c r="AI844" s="19"/>
       <c r="AJ844" s="20"/>
     </row>
-    <row r="845" spans="1:36" ht="8.25" customHeight="1">
+    <row r="845" spans="1:36" ht="10.5" customHeight="1">
       <c r="A845" s="19"/>
       <c r="B845" s="19"/>
       <c r="C845" s="19"/>
@@ -32374,7 +32374,7 @@
       <c r="AI845" s="19"/>
       <c r="AJ845" s="20"/>
     </row>
-    <row r="846" spans="1:36" ht="8.25" customHeight="1">
+    <row r="846" spans="1:36" ht="10.5" customHeight="1">
       <c r="A846" s="19"/>
       <c r="B846" s="19"/>
       <c r="C846" s="19"/>
@@ -32412,7 +32412,7 @@
       <c r="AI846" s="19"/>
       <c r="AJ846" s="20"/>
     </row>
-    <row r="847" spans="1:36" ht="8.25" customHeight="1">
+    <row r="847" spans="1:36" ht="10.5" customHeight="1">
       <c r="A847" s="19"/>
       <c r="B847" s="19"/>
       <c r="C847" s="19"/>
@@ -32450,7 +32450,7 @@
       <c r="AI847" s="19"/>
       <c r="AJ847" s="20"/>
     </row>
-    <row r="848" spans="1:36" ht="8.25" customHeight="1">
+    <row r="848" spans="1:36" ht="10.5" customHeight="1">
       <c r="A848" s="19"/>
       <c r="B848" s="19"/>
       <c r="C848" s="19"/>
@@ -32488,7 +32488,7 @@
       <c r="AI848" s="19"/>
       <c r="AJ848" s="20"/>
     </row>
-    <row r="849" spans="1:36" ht="8.25" customHeight="1">
+    <row r="849" spans="1:36" ht="10.5" customHeight="1">
       <c r="A849" s="19"/>
       <c r="B849" s="19"/>
       <c r="C849" s="19"/>
@@ -32526,7 +32526,7 @@
       <c r="AI849" s="19"/>
       <c r="AJ849" s="20"/>
     </row>
-    <row r="850" spans="1:36" ht="8.25" customHeight="1">
+    <row r="850" spans="1:36" ht="10.5" customHeight="1">
       <c r="A850" s="19"/>
       <c r="B850" s="19"/>
       <c r="C850" s="19"/>
@@ -32564,7 +32564,7 @@
       <c r="AI850" s="19"/>
       <c r="AJ850" s="20"/>
     </row>
-    <row r="851" spans="1:36" ht="8.25" customHeight="1">
+    <row r="851" spans="1:36" ht="10.5" customHeight="1">
       <c r="A851" s="19"/>
       <c r="B851" s="19"/>
       <c r="C851" s="19"/>
@@ -32602,7 +32602,7 @@
       <c r="AI851" s="19"/>
       <c r="AJ851" s="20"/>
     </row>
-    <row r="852" spans="1:36" ht="8.25" customHeight="1">
+    <row r="852" spans="1:36" ht="10.5" customHeight="1">
       <c r="A852" s="19"/>
       <c r="B852" s="19"/>
       <c r="C852" s="19"/>
@@ -32640,7 +32640,7 @@
       <c r="AI852" s="19"/>
       <c r="AJ852" s="20"/>
     </row>
-    <row r="853" spans="1:36" ht="8.25" customHeight="1">
+    <row r="853" spans="1:36" ht="10.5" customHeight="1">
       <c r="A853" s="19"/>
       <c r="B853" s="19"/>
       <c r="C853" s="19"/>
@@ -32678,7 +32678,7 @@
       <c r="AI853" s="19"/>
       <c r="AJ853" s="20"/>
     </row>
-    <row r="854" spans="1:36" ht="8.25" customHeight="1">
+    <row r="854" spans="1:36" ht="10.5" customHeight="1">
       <c r="A854" s="19"/>
       <c r="B854" s="19"/>
       <c r="C854" s="19"/>
@@ -32716,7 +32716,7 @@
       <c r="AI854" s="19"/>
       <c r="AJ854" s="20"/>
     </row>
-    <row r="855" spans="1:36" ht="8.25" customHeight="1">
+    <row r="855" spans="1:36" ht="10.5" customHeight="1">
       <c r="A855" s="19"/>
       <c r="B855" s="19"/>
       <c r="C855" s="19"/>
@@ -32754,7 +32754,7 @@
       <c r="AI855" s="19"/>
       <c r="AJ855" s="20"/>
     </row>
-    <row r="856" spans="1:36" ht="8.25" customHeight="1">
+    <row r="856" spans="1:36" ht="10.5" customHeight="1">
       <c r="A856" s="19"/>
       <c r="B856" s="19"/>
       <c r="C856" s="19"/>
@@ -32792,7 +32792,7 @@
       <c r="AI856" s="19"/>
       <c r="AJ856" s="20"/>
     </row>
-    <row r="857" spans="1:36" ht="8.25" customHeight="1">
+    <row r="857" spans="1:36" ht="10.5" customHeight="1">
       <c r="A857" s="19"/>
       <c r="B857" s="19"/>
       <c r="C857" s="19"/>
@@ -32830,7 +32830,7 @@
       <c r="AI857" s="19"/>
       <c r="AJ857" s="20"/>
     </row>
-    <row r="858" spans="1:36" ht="8.25" customHeight="1">
+    <row r="858" spans="1:36" ht="10.5" customHeight="1">
       <c r="A858" s="19"/>
       <c r="B858" s="19"/>
       <c r="C858" s="19"/>
@@ -32868,7 +32868,7 @@
       <c r="AI858" s="19"/>
       <c r="AJ858" s="20"/>
     </row>
-    <row r="859" spans="1:36" ht="8.25" customHeight="1">
+    <row r="859" spans="1:36" ht="10.5" customHeight="1">
       <c r="A859" s="19"/>
       <c r="B859" s="19"/>
       <c r="C859" s="19"/>
@@ -32906,7 +32906,7 @@
       <c r="AI859" s="19"/>
       <c r="AJ859" s="20"/>
     </row>
-    <row r="860" spans="1:36" ht="8.25" customHeight="1">
+    <row r="860" spans="1:36" ht="10.5" customHeight="1">
       <c r="A860" s="19"/>
       <c r="B860" s="19"/>
       <c r="C860" s="19"/>
@@ -32944,7 +32944,7 @@
       <c r="AI860" s="19"/>
       <c r="AJ860" s="20"/>
     </row>
-    <row r="861" spans="1:36" ht="8.25" customHeight="1">
+    <row r="861" spans="1:36" ht="10.5" customHeight="1">
       <c r="A861" s="19"/>
       <c r="B861" s="19"/>
       <c r="C861" s="19"/>
@@ -32982,7 +32982,7 @@
       <c r="AI861" s="19"/>
       <c r="AJ861" s="20"/>
     </row>
-    <row r="862" spans="1:36" ht="8.25" customHeight="1">
+    <row r="862" spans="1:36" ht="10.5" customHeight="1">
       <c r="A862" s="19"/>
       <c r="B862" s="19"/>
       <c r="C862" s="19"/>
@@ -33020,7 +33020,7 @@
       <c r="AI862" s="19"/>
       <c r="AJ862" s="20"/>
     </row>
-    <row r="863" spans="1:36" ht="8.25" customHeight="1">
+    <row r="863" spans="1:36" ht="10.5" customHeight="1">
       <c r="A863" s="19"/>
       <c r="B863" s="19"/>
       <c r="C863" s="19"/>
@@ -33058,7 +33058,7 @@
       <c r="AI863" s="19"/>
       <c r="AJ863" s="20"/>
     </row>
-    <row r="864" spans="1:36" ht="8.25" customHeight="1">
+    <row r="864" spans="1:36" ht="10.5" customHeight="1">
       <c r="A864" s="19"/>
       <c r="B864" s="19"/>
       <c r="C864" s="19"/>
@@ -33096,7 +33096,7 @@
       <c r="AI864" s="19"/>
       <c r="AJ864" s="20"/>
     </row>
-    <row r="865" spans="1:36" ht="8.25" customHeight="1">
+    <row r="865" spans="1:36" ht="10.5" customHeight="1">
       <c r="A865" s="19"/>
       <c r="B865" s="19"/>
       <c r="C865" s="19"/>
@@ -33134,7 +33134,7 @@
       <c r="AI865" s="19"/>
       <c r="AJ865" s="20"/>
     </row>
-    <row r="866" spans="1:36" ht="8.25" customHeight="1">
+    <row r="866" spans="1:36" ht="10.5" customHeight="1">
       <c r="A866" s="19"/>
       <c r="B866" s="19"/>
       <c r="C866" s="19"/>
@@ -33172,7 +33172,7 @@
       <c r="AI866" s="19"/>
       <c r="AJ866" s="20"/>
     </row>
-    <row r="867" spans="1:36" ht="8.25" customHeight="1">
+    <row r="867" spans="1:36" ht="10.5" customHeight="1">
       <c r="A867" s="19"/>
       <c r="B867" s="19"/>
       <c r="C867" s="19"/>
@@ -33210,7 +33210,7 @@
       <c r="AI867" s="19"/>
       <c r="AJ867" s="20"/>
     </row>
-    <row r="868" spans="1:36" ht="8.25" customHeight="1">
+    <row r="868" spans="1:36" ht="10.5" customHeight="1">
       <c r="A868" s="19"/>
       <c r="B868" s="19"/>
       <c r="C868" s="19"/>
@@ -33248,7 +33248,7 @@
       <c r="AI868" s="19"/>
       <c r="AJ868" s="20"/>
     </row>
-    <row r="869" spans="1:36" ht="8.25" customHeight="1">
+    <row r="869" spans="1:36" ht="10.5" customHeight="1">
       <c r="A869" s="19"/>
       <c r="B869" s="19"/>
       <c r="C869" s="19"/>
@@ -33286,7 +33286,7 @@
       <c r="AI869" s="19"/>
       <c r="AJ869" s="20"/>
     </row>
-    <row r="870" spans="1:36" ht="8.25" customHeight="1">
+    <row r="870" spans="1:36" ht="10.5" customHeight="1">
       <c r="A870" s="19"/>
       <c r="B870" s="19"/>
       <c r="C870" s="19"/>
@@ -33324,7 +33324,7 @@
       <c r="AI870" s="19"/>
       <c r="AJ870" s="20"/>
     </row>
-    <row r="871" spans="1:36" ht="8.25" customHeight="1">
+    <row r="871" spans="1:36" ht="10.5" customHeight="1">
       <c r="A871" s="19"/>
       <c r="B871" s="19"/>
       <c r="C871" s="19"/>
@@ -33362,7 +33362,7 @@
       <c r="AI871" s="19"/>
       <c r="AJ871" s="20"/>
     </row>
-    <row r="872" spans="1:36" ht="8.25" customHeight="1">
+    <row r="872" spans="1:36" ht="10.5" customHeight="1">
       <c r="A872" s="19"/>
       <c r="B872" s="19"/>
       <c r="C872" s="19"/>
@@ -33400,7 +33400,7 @@
       <c r="AI872" s="19"/>
       <c r="AJ872" s="20"/>
     </row>
-    <row r="873" spans="1:36" ht="8.25" customHeight="1">
+    <row r="873" spans="1:36" ht="10.5" customHeight="1">
       <c r="A873" s="19"/>
       <c r="B873" s="19"/>
       <c r="C873" s="19"/>
@@ -33438,7 +33438,7 @@
       <c r="AI873" s="19"/>
       <c r="AJ873" s="20"/>
     </row>
-    <row r="874" spans="1:36" ht="8.25" customHeight="1">
+    <row r="874" spans="1:36" ht="10.5" customHeight="1">
       <c r="A874" s="19"/>
       <c r="B874" s="19"/>
       <c r="C874" s="19"/>
@@ -33476,7 +33476,7 @@
       <c r="AI874" s="19"/>
       <c r="AJ874" s="20"/>
     </row>
-    <row r="875" spans="1:36" ht="8.25" customHeight="1">
+    <row r="875" spans="1:36" ht="10.5" customHeight="1">
       <c r="A875" s="19"/>
       <c r="B875" s="19"/>
       <c r="C875" s="19"/>
@@ -33514,7 +33514,7 @@
       <c r="AI875" s="19"/>
       <c r="AJ875" s="20"/>
     </row>
-    <row r="876" spans="1:36" ht="8.25" customHeight="1">
+    <row r="876" spans="1:36" ht="10.5" customHeight="1">
       <c r="A876" s="19"/>
       <c r="B876" s="19"/>
       <c r="C876" s="19"/>
@@ -33552,7 +33552,7 @@
       <c r="AI876" s="19"/>
       <c r="AJ876" s="20"/>
     </row>
-    <row r="877" spans="1:36" ht="8.25" customHeight="1">
+    <row r="877" spans="1:36" ht="10.5" customHeight="1">
       <c r="A877" s="19"/>
       <c r="B877" s="19"/>
       <c r="C877" s="19"/>
@@ -33590,7 +33590,7 @@
       <c r="AI877" s="19"/>
       <c r="AJ877" s="20"/>
     </row>
-    <row r="878" spans="1:36" ht="8.25" customHeight="1">
+    <row r="878" spans="1:36" ht="10.5" customHeight="1">
       <c r="A878" s="19"/>
       <c r="B878" s="19"/>
       <c r="C878" s="19"/>
@@ -33628,7 +33628,7 @@
       <c r="AI878" s="19"/>
       <c r="AJ878" s="20"/>
     </row>
-    <row r="879" spans="1:36" ht="8.25" customHeight="1">
+    <row r="879" spans="1:36" ht="10.5" customHeight="1">
       <c r="A879" s="19"/>
       <c r="B879" s="19"/>
       <c r="C879" s="19"/>
@@ -33666,7 +33666,7 @@
       <c r="AI879" s="19"/>
       <c r="AJ879" s="20"/>
     </row>
-    <row r="880" spans="1:36" ht="8.25" customHeight="1">
+    <row r="880" spans="1:36" ht="10.5" customHeight="1">
       <c r="A880" s="19"/>
       <c r="B880" s="19"/>
       <c r="C880" s="19"/>
@@ -33704,7 +33704,7 @@
       <c r="AI880" s="19"/>
       <c r="AJ880" s="20"/>
     </row>
-    <row r="881" spans="1:36" ht="8.25" customHeight="1">
+    <row r="881" spans="1:36" ht="10.5" customHeight="1">
       <c r="A881" s="19"/>
       <c r="B881" s="19"/>
       <c r="C881" s="19"/>
@@ -33742,7 +33742,7 @@
       <c r="AI881" s="19"/>
       <c r="AJ881" s="20"/>
     </row>
-    <row r="882" spans="1:36" ht="8.25" customHeight="1">
+    <row r="882" spans="1:36" ht="10.5" customHeight="1">
       <c r="A882" s="19"/>
       <c r="B882" s="19"/>
       <c r="C882" s="19"/>
@@ -33780,7 +33780,7 @@
       <c r="AI882" s="19"/>
       <c r="AJ882" s="20"/>
     </row>
-    <row r="883" spans="1:36" ht="8.25" customHeight="1">
+    <row r="883" spans="1:36" ht="10.5" customHeight="1">
       <c r="A883" s="19"/>
       <c r="B883" s="19"/>
       <c r="C883" s="19"/>
@@ -33818,7 +33818,7 @@
       <c r="AI883" s="19"/>
       <c r="AJ883" s="20"/>
     </row>
-    <row r="884" spans="1:36" ht="8.25" customHeight="1">
+    <row r="884" spans="1:36" ht="10.5" customHeight="1">
       <c r="A884" s="19"/>
       <c r="B884" s="19"/>
       <c r="C884" s="19"/>
@@ -33856,7 +33856,7 @@
       <c r="AI884" s="19"/>
       <c r="AJ884" s="20"/>
     </row>
-    <row r="885" spans="1:36" ht="8.25" customHeight="1">
+    <row r="885" spans="1:36" ht="10.5" customHeight="1">
       <c r="A885" s="19"/>
       <c r="B885" s="19"/>
       <c r="C885" s="19"/>
@@ -33894,7 +33894,7 @@
       <c r="AI885" s="19"/>
       <c r="AJ885" s="20"/>
     </row>
-    <row r="886" spans="1:36" ht="8.25" customHeight="1">
+    <row r="886" spans="1:36" ht="10.5" customHeight="1">
       <c r="A886" s="19"/>
       <c r="B886" s="19"/>
       <c r="C886" s="19"/>
@@ -33932,7 +33932,7 @@
       <c r="AI886" s="19"/>
       <c r="AJ886" s="20"/>
     </row>
-    <row r="887" spans="1:36" ht="8.25" customHeight="1">
+    <row r="887" spans="1:36" ht="10.5" customHeight="1">
       <c r="A887" s="19"/>
       <c r="B887" s="19"/>
       <c r="C887" s="19"/>
@@ -33970,7 +33970,7 @@
       <c r="AI887" s="19"/>
       <c r="AJ887" s="20"/>
     </row>
-    <row r="888" spans="1:36" ht="8.25" customHeight="1">
+    <row r="888" spans="1:36" ht="10.5" customHeight="1">
       <c r="A888" s="19"/>
       <c r="B888" s="19"/>
       <c r="C888" s="19"/>
@@ -34008,7 +34008,7 @@
       <c r="AI888" s="19"/>
       <c r="AJ888" s="20"/>
     </row>
-    <row r="889" spans="1:36" ht="8.25" customHeight="1">
+    <row r="889" spans="1:36" ht="10.5" customHeight="1">
       <c r="A889" s="19"/>
       <c r="B889" s="19"/>
       <c r="C889" s="19"/>
@@ -34046,7 +34046,7 @@
       <c r="AI889" s="19"/>
       <c r="AJ889" s="20"/>
     </row>
-    <row r="890" spans="1:36" ht="8.25" customHeight="1">
+    <row r="890" spans="1:36" ht="10.5" customHeight="1">
       <c r="A890" s="19"/>
       <c r="B890" s="19"/>
       <c r="C890" s="19"/>
@@ -34084,7 +34084,7 @@
       <c r="AI890" s="19"/>
       <c r="AJ890" s="20"/>
     </row>
-    <row r="891" spans="1:36" ht="8.25" customHeight="1">
+    <row r="891" spans="1:36" ht="10.5" customHeight="1">
       <c r="A891" s="19"/>
       <c r="B891" s="19"/>
       <c r="C891" s="19"/>
@@ -34122,7 +34122,7 @@
       <c r="AI891" s="19"/>
       <c r="AJ891" s="20"/>
     </row>
-    <row r="892" spans="1:36" ht="8.25" customHeight="1">
+    <row r="892" spans="1:36" ht="10.5" customHeight="1">
       <c r="A892" s="19"/>
       <c r="B892" s="19"/>
       <c r="C892" s="19"/>
@@ -34160,7 +34160,7 @@
       <c r="AI892" s="19"/>
       <c r="AJ892" s="20"/>
     </row>
-    <row r="893" spans="1:36" ht="8.25" customHeight="1">
+    <row r="893" spans="1:36" ht="10.5" customHeight="1">
       <c r="A893" s="19"/>
       <c r="B893" s="19"/>
       <c r="C893" s="19"/>
@@ -34198,7 +34198,7 @@
       <c r="AI893" s="19"/>
       <c r="AJ893" s="20"/>
     </row>
-    <row r="894" spans="1:36" ht="8.25" customHeight="1">
+    <row r="894" spans="1:36" ht="10.5" customHeight="1">
       <c r="A894" s="19"/>
       <c r="B894" s="19"/>
       <c r="C894" s="19"/>
@@ -34236,7 +34236,7 @@
       <c r="AI894" s="19"/>
       <c r="AJ894" s="20"/>
     </row>
-    <row r="895" spans="1:36" ht="8.25" customHeight="1">
+    <row r="895" spans="1:36" ht="10.5" customHeight="1">
       <c r="A895" s="19"/>
       <c r="B895" s="19"/>
       <c r="C895" s="19"/>
@@ -34274,7 +34274,7 @@
       <c r="AI895" s="19"/>
       <c r="AJ895" s="20"/>
     </row>
-    <row r="896" spans="1:36" ht="8.25" customHeight="1">
+    <row r="896" spans="1:36" ht="10.5" customHeight="1">
       <c r="A896" s="19"/>
       <c r="B896" s="19"/>
       <c r="C896" s="19"/>
@@ -34312,7 +34312,7 @@
       <c r="AI896" s="19"/>
       <c r="AJ896" s="20"/>
     </row>
-    <row r="897" spans="1:36" ht="8.25" customHeight="1">
+    <row r="897" spans="1:36" ht="10.5" customHeight="1">
       <c r="A897" s="19"/>
       <c r="B897" s="19"/>
       <c r="C897" s="19"/>
@@ -34350,7 +34350,7 @@
       <c r="AI897" s="19"/>
       <c r="AJ897" s="20"/>
     </row>
-    <row r="898" spans="1:36" ht="8.25" customHeight="1">
+    <row r="898" spans="1:36" ht="10.5" customHeight="1">
       <c r="A898" s="19"/>
       <c r="B898" s="19"/>
       <c r="C898" s="19"/>
@@ -34388,7 +34388,7 @@
       <c r="AI898" s="19"/>
       <c r="AJ898" s="20"/>
     </row>
-    <row r="899" spans="1:36" ht="8.25" customHeight="1">
+    <row r="899" spans="1:36" ht="10.5" customHeight="1">
       <c r="A899" s="19"/>
       <c r="B899" s="19"/>
       <c r="C899" s="19"/>
@@ -34426,7 +34426,7 @@
       <c r="AI899" s="19"/>
       <c r="AJ899" s="20"/>
     </row>
-    <row r="900" spans="1:36" ht="8.25" customHeight="1">
+    <row r="900" spans="1:36" ht="10.5" customHeight="1">
       <c r="A900" s="19"/>
       <c r="B900" s="19"/>
       <c r="C900" s="19"/>
@@ -34464,7 +34464,7 @@
       <c r="AI900" s="19"/>
       <c r="AJ900" s="20"/>
     </row>
-    <row r="901" spans="1:36" ht="8.25" customHeight="1">
+    <row r="901" spans="1:36" ht="10.5" customHeight="1">
       <c r="A901" s="19"/>
       <c r="B901" s="19"/>
       <c r="C901" s="19"/>
@@ -34502,7 +34502,7 @@
       <c r="AI901" s="19"/>
       <c r="AJ901" s="20"/>
     </row>
-    <row r="902" spans="1:36" ht="8.25" customHeight="1">
+    <row r="902" spans="1:36" ht="10.5" customHeight="1">
       <c r="A902" s="19"/>
       <c r="B902" s="19"/>
       <c r="C902" s="19"/>
@@ -34540,7 +34540,7 @@
       <c r="AI902" s="19"/>
       <c r="AJ902" s="20"/>
     </row>
-    <row r="903" spans="1:36" ht="8.25" customHeight="1">
+    <row r="903" spans="1:36" ht="10.5" customHeight="1">
       <c r="A903" s="19"/>
       <c r="B903" s="19"/>
       <c r="C903" s="19"/>
@@ -34578,7 +34578,7 @@
       <c r="AI903" s="19"/>
       <c r="AJ903" s="20"/>
     </row>
-    <row r="904" spans="1:36" ht="8.25" customHeight="1">
+    <row r="904" spans="1:36" ht="10.5" customHeight="1">
       <c r="A904" s="19"/>
       <c r="B904" s="19"/>
       <c r="C904" s="19"/>
@@ -34616,7 +34616,7 @@
       <c r="AI904" s="19"/>
       <c r="AJ904" s="20"/>
     </row>
-    <row r="905" spans="1:36" ht="8.25" customHeight="1">
+    <row r="905" spans="1:36" ht="10.5" customHeight="1">
       <c r="A905" s="19"/>
       <c r="B905" s="19"/>
       <c r="C905" s="19"/>
@@ -34654,7 +34654,7 @@
       <c r="AI905" s="19"/>
       <c r="AJ905" s="20"/>
     </row>
-    <row r="906" spans="1:36" ht="8.25" customHeight="1">
+    <row r="906" spans="1:36" ht="10.5" customHeight="1">
       <c r="A906" s="19"/>
       <c r="B906" s="19"/>
       <c r="C906" s="19"/>
@@ -34692,7 +34692,7 @@
       <c r="AI906" s="19"/>
       <c r="AJ906" s="20"/>
     </row>
-    <row r="907" spans="1:36" ht="8.25" customHeight="1">
+    <row r="907" spans="1:36" ht="10.5" customHeight="1">
       <c r="A907" s="19"/>
       <c r="B907" s="19"/>
       <c r="C907" s="19"/>
@@ -34730,7 +34730,7 @@
       <c r="AI907" s="19"/>
       <c r="AJ907" s="20"/>
     </row>
-    <row r="908" spans="1:36" ht="8.25" customHeight="1">
+    <row r="908" spans="1:36" ht="10.5" customHeight="1">
       <c r="A908" s="19"/>
       <c r="B908" s="19"/>
       <c r="C908" s="19"/>
@@ -34768,7 +34768,7 @@
       <c r="AI908" s="19"/>
       <c r="AJ908" s="20"/>
     </row>
-    <row r="909" spans="1:36" ht="8.25" customHeight="1">
+    <row r="909" spans="1:36" ht="10.5" customHeight="1">
       <c r="A909" s="19"/>
       <c r="B909" s="19"/>
       <c r="C909" s="19"/>
@@ -34806,7 +34806,7 @@
       <c r="AI909" s="19"/>
       <c r="AJ909" s="20"/>
     </row>
-    <row r="910" spans="1:36" ht="8.25" customHeight="1">
+    <row r="910" spans="1:36" ht="10.5" customHeight="1">
       <c r="A910" s="19"/>
       <c r="B910" s="19"/>
       <c r="C910" s="19"/>
@@ -34844,7 +34844,7 @@
       <c r="AI910" s="19"/>
       <c r="AJ910" s="20"/>
     </row>
-    <row r="911" spans="1:36" ht="8.25" customHeight="1">
+    <row r="911" spans="1:36" ht="10.5" customHeight="1">
       <c r="A911" s="19"/>
       <c r="B911" s="19"/>
       <c r="C911" s="19"/>
@@ -34882,7 +34882,7 @@
       <c r="AI911" s="19"/>
       <c r="AJ911" s="20"/>
     </row>
-    <row r="912" spans="1:36" ht="8.25" customHeight="1">
+    <row r="912" spans="1:36" ht="10.5" customHeight="1">
       <c r="A912" s="19"/>
       <c r="B912" s="19"/>
       <c r="C912" s="19"/>
@@ -34920,7 +34920,7 @@
       <c r="AI912" s="19"/>
       <c r="AJ912" s="20"/>
     </row>
-    <row r="913" spans="1:36" ht="8.25" customHeight="1">
+    <row r="913" spans="1:36" ht="10.5" customHeight="1">
       <c r="A913" s="19"/>
       <c r="B913" s="19"/>
       <c r="C913" s="19"/>
@@ -34958,7 +34958,7 @@
       <c r="AI913" s="19"/>
       <c r="AJ913" s="20"/>
     </row>
-    <row r="914" spans="1:36" ht="8.25" customHeight="1">
+    <row r="914" spans="1:36" ht="10.5" customHeight="1">
       <c r="A914" s="19"/>
       <c r="B914" s="19"/>
       <c r="C914" s="19"/>
@@ -34996,7 +34996,7 @@
       <c r="AI914" s="19"/>
       <c r="AJ914" s="20"/>
     </row>
-    <row r="915" spans="1:36" ht="8.25" customHeight="1">
+    <row r="915" spans="1:36" ht="10.5" customHeight="1">
       <c r="A915" s="19"/>
       <c r="B915" s="19"/>
       <c r="C915" s="19"/>
@@ -35034,7 +35034,7 @@
       <c r="AI915" s="19"/>
       <c r="AJ915" s="20"/>
     </row>
-    <row r="916" spans="1:36" ht="8.25" customHeight="1">
+    <row r="916" spans="1:36" ht="10.5" customHeight="1">
       <c r="A916" s="19"/>
       <c r="B916" s="19"/>
       <c r="C916" s="19"/>
@@ -35072,7 +35072,7 @@
       <c r="AI916" s="19"/>
       <c r="AJ916" s="20"/>
     </row>
-    <row r="917" spans="1:36" ht="8.25" customHeight="1">
+    <row r="917" spans="1:36" ht="10.5" customHeight="1">
       <c r="A917" s="19"/>
       <c r="B917" s="19"/>
       <c r="C917" s="19"/>
@@ -35110,7 +35110,7 @@
       <c r="AI917" s="19"/>
       <c r="AJ917" s="20"/>
     </row>
-    <row r="918" spans="1:36" ht="8.25" customHeight="1">
+    <row r="918" spans="1:36" ht="10.5" customHeight="1">
       <c r="A918" s="19"/>
       <c r="B918" s="19"/>
       <c r="C918" s="19"/>
@@ -35148,7 +35148,7 @@
       <c r="AI918" s="19"/>
       <c r="AJ918" s="20"/>
     </row>
-    <row r="919" spans="1:36" ht="8.25" customHeight="1">
+    <row r="919" spans="1:36" ht="10.5" customHeight="1">
       <c r="A919" s="19"/>
       <c r="B919" s="19"/>
       <c r="C919" s="19"/>
@@ -35186,7 +35186,7 @@
       <c r="AI919" s="19"/>
       <c r="AJ919" s="20"/>
     </row>
-    <row r="920" spans="1:36" ht="8.25" customHeight="1">
+    <row r="920" spans="1:36" ht="10.5" customHeight="1">
       <c r="A920" s="19"/>
       <c r="B920" s="19"/>
       <c r="C920" s="19"/>
@@ -35224,7 +35224,7 @@
       <c r="AI920" s="19"/>
       <c r="AJ920" s="20"/>
     </row>
-    <row r="921" spans="1:36" ht="8.25" customHeight="1">
+    <row r="921" spans="1:36" ht="10.5" customHeight="1">
       <c r="A921" s="19"/>
       <c r="B921" s="19"/>
       <c r="C921" s="19"/>
@@ -35262,7 +35262,7 @@
       <c r="AI921" s="19"/>
       <c r="AJ921" s="20"/>
     </row>
-    <row r="922" spans="1:36" ht="8.25" customHeight="1">
+    <row r="922" spans="1:36" ht="10.5" customHeight="1">
       <c r="A922" s="19"/>
       <c r="B922" s="19"/>
       <c r="C922" s="19"/>
@@ -35300,7 +35300,7 @@
       <c r="AI922" s="19"/>
       <c r="AJ922" s="20"/>
     </row>
-    <row r="923" spans="1:36" ht="8.25" customHeight="1">
+    <row r="923" spans="1:36" ht="10.5" customHeight="1">
       <c r="A923" s="19"/>
       <c r="B923" s="19"/>
       <c r="C923" s="19"/>
@@ -35338,7 +35338,7 @@
       <c r="AI923" s="19"/>
       <c r="AJ923" s="20"/>
     </row>
-    <row r="924" spans="1:36" ht="8.25" customHeight="1">
+    <row r="924" spans="1:36" ht="10.5" customHeight="1">
       <c r="A924" s="19"/>
       <c r="B924" s="19"/>
       <c r="C924" s="19"/>
@@ -35376,7 +35376,7 @@
       <c r="AI924" s="19"/>
       <c r="AJ924" s="20"/>
     </row>
-    <row r="925" spans="1:36" ht="8.25" customHeight="1">
+    <row r="925" spans="1:36" ht="10.5" customHeight="1">
       <c r="A925" s="19"/>
       <c r="B925" s="19"/>
       <c r="C925" s="19"/>
@@ -35414,7 +35414,7 @@
       <c r="AI925" s="19"/>
       <c r="AJ925" s="20"/>
     </row>
-    <row r="926" spans="1:36" ht="8.25" customHeight="1">
+    <row r="926" spans="1:36" ht="10.5" customHeight="1">
       <c r="A926" s="19"/>
       <c r="B926" s="19"/>
       <c r="C926" s="19"/>
@@ -35452,7 +35452,7 @@
       <c r="AI926" s="19"/>
       <c r="AJ926" s="20"/>
     </row>
-    <row r="927" spans="1:36" ht="8.25" customHeight="1">
+    <row r="927" spans="1:36" ht="10.5" customHeight="1">
       <c r="A927" s="19"/>
       <c r="B927" s="19"/>
       <c r="C927" s="19"/>
@@ -35490,7 +35490,7 @@
       <c r="AI927" s="19"/>
       <c r="AJ927" s="20"/>
     </row>
-    <row r="928" spans="1:36" ht="8.25" customHeight="1">
+    <row r="928" spans="1:36" ht="10.5" customHeight="1">
       <c r="A928" s="19"/>
       <c r="B928" s="19"/>
       <c r="C928" s="19"/>
@@ -35528,7 +35528,7 @@
       <c r="AI928" s="19"/>
       <c r="AJ928" s="20"/>
     </row>
-    <row r="929" spans="1:36" ht="8.25" customHeight="1">
+    <row r="929" spans="1:36" ht="10.5" customHeight="1">
       <c r="A929" s="19"/>
       <c r="B929" s="19"/>
       <c r="C929" s="19"/>
@@ -35566,7 +35566,7 @@
       <c r="AI929" s="19"/>
       <c r="AJ929" s="20"/>
     </row>
-    <row r="930" spans="1:36" ht="8.25" customHeight="1">
+    <row r="930" spans="1:36" ht="10.5" customHeight="1">
       <c r="A930" s="19"/>
       <c r="B930" s="19"/>
       <c r="C930" s="19"/>
@@ -35604,7 +35604,7 @@
       <c r="AI930" s="19"/>
       <c r="AJ930" s="20"/>
     </row>
-    <row r="931" spans="1:36" ht="8.25" customHeight="1">
+    <row r="931" spans="1:36" ht="10.5" customHeight="1">
       <c r="A931" s="19"/>
       <c r="B931" s="19"/>
       <c r="C931" s="19"/>
@@ -35642,7 +35642,7 @@
       <c r="AI931" s="19"/>
       <c r="AJ931" s="20"/>
     </row>
-    <row r="932" spans="1:36" ht="8.25" customHeight="1">
+    <row r="932" spans="1:36" ht="10.5" customHeight="1">
       <c r="A932" s="19"/>
       <c r="B932" s="19"/>
       <c r="C932" s="19"/>
@@ -35680,7 +35680,7 @@
       <c r="AI932" s="19"/>
       <c r="AJ932" s="20"/>
     </row>
-    <row r="933" spans="1:36" ht="8.25" customHeight="1">
+    <row r="933" spans="1:36" ht="10.5" customHeight="1">
       <c r="A933" s="19"/>
       <c r="B933" s="19"/>
       <c r="C933" s="19"/>
@@ -35718,7 +35718,7 @@
       <c r="AI933" s="19"/>
       <c r="AJ933" s="20"/>
     </row>
-    <row r="934" spans="1:36" ht="8.25" customHeight="1">
+    <row r="934" spans="1:36" ht="10.5" customHeight="1">
       <c r="A934" s="19"/>
       <c r="B934" s="19"/>
       <c r="C934" s="19"/>
@@ -35756,7 +35756,7 @@
       <c r="AI934" s="19"/>
       <c r="AJ934" s="20"/>
     </row>
-    <row r="935" spans="1:36" ht="8.25" customHeight="1">
+    <row r="935" spans="1:36" ht="10.5" customHeight="1">
       <c r="A935" s="19"/>
       <c r="B935" s="19"/>
       <c r="C935" s="19"/>
@@ -35794,7 +35794,7 @@
       <c r="AI935" s="19"/>
       <c r="AJ935" s="20"/>
     </row>
-    <row r="936" spans="1:36" ht="8.25" customHeight="1">
+    <row r="936" spans="1:36" ht="10.5" customHeight="1">
       <c r="A936" s="19"/>
       <c r="B936" s="19"/>
       <c r="C936" s="19"/>
@@ -35832,7 +35832,7 @@
       <c r="AI936" s="19"/>
       <c r="AJ936" s="20"/>
     </row>
-    <row r="937" spans="1:36" ht="8.25" customHeight="1">
+    <row r="937" spans="1:36" ht="10.5" customHeight="1">
       <c r="A937" s="19"/>
       <c r="B937" s="19"/>
       <c r="C937" s="19"/>
@@ -35870,7 +35870,7 @@
       <c r="AI937" s="19"/>
       <c r="AJ937" s="20"/>
     </row>
-    <row r="938" spans="1:36" ht="8.25" customHeight="1">
+    <row r="938" spans="1:36" ht="10.5" customHeight="1">
       <c r="A938" s="19"/>
       <c r="B938" s="19"/>
       <c r="C938" s="19"/>
@@ -35908,7 +35908,7 @@
       <c r="AI938" s="19"/>
       <c r="AJ938" s="20"/>
     </row>
-    <row r="939" spans="1:36" ht="8.25" customHeight="1">
+    <row r="939" spans="1:36" ht="10.5" customHeight="1">
       <c r="A939" s="19"/>
       <c r="B939" s="19"/>
       <c r="C939" s="19"/>
@@ -35946,7 +35946,7 @@
       <c r="AI939" s="19"/>
       <c r="AJ939" s="20"/>
     </row>
-    <row r="940" spans="1:36" ht="8.25" customHeight="1">
+    <row r="940" spans="1:36" ht="10.5" customHeight="1">
       <c r="A940" s="19"/>
       <c r="B940" s="19"/>
       <c r="C940" s="19"/>
@@ -35984,7 +35984,7 @@
       <c r="AI940" s="19"/>
       <c r="AJ940" s="20"/>
     </row>
-    <row r="941" spans="1:36" ht="8.25" customHeight="1">
+    <row r="941" spans="1:36" ht="10.5" customHeight="1">
       <c r="A941" s="19"/>
       <c r="B941" s="19"/>
       <c r="C941" s="19"/>
@@ -36022,7 +36022,7 @@
       <c r="AI941" s="19"/>
       <c r="AJ941" s="20"/>
     </row>
-    <row r="942" spans="1:36" ht="8.25" customHeight="1">
+    <row r="942" spans="1:36" ht="10.5" customHeight="1">
       <c r="A942" s="19"/>
       <c r="B942" s="19"/>
       <c r="C942" s="19"/>
@@ -36060,7 +36060,7 @@
       <c r="AI942" s="19"/>
       <c r="AJ942" s="20"/>
     </row>
-    <row r="943" spans="1:36" ht="8.25" customHeight="1">
+    <row r="943" spans="1:36" ht="10.5" customHeight="1">
       <c r="A943" s="19"/>
       <c r="B943" s="19"/>
       <c r="C943" s="19"/>
@@ -36098,7 +36098,7 @@
       <c r="AI943" s="19"/>
       <c r="AJ943" s="20"/>
     </row>
-    <row r="944" spans="1:36" ht="8.25" customHeight="1">
+    <row r="944" spans="1:36" ht="10.5" customHeight="1">
       <c r="A944" s="19"/>
       <c r="B944" s="19"/>
       <c r="C944" s="19"/>
@@ -36136,7 +36136,7 @@
       <c r="AI944" s="19"/>
       <c r="AJ944" s="20"/>
     </row>
-    <row r="945" spans="1:36" ht="8.25" customHeight="1">
+    <row r="945" spans="1:36" ht="10.5" customHeight="1">
       <c r="A945" s="19"/>
       <c r="B945" s="19"/>
       <c r="C945" s="19"/>
@@ -36174,7 +36174,7 @@
       <c r="AI945" s="19"/>
       <c r="AJ945" s="20"/>
     </row>
-    <row r="946" spans="1:36" ht="8.25" customHeight="1">
+    <row r="946" spans="1:36" ht="10.5" customHeight="1">
       <c r="A946" s="19"/>
       <c r="B946" s="19"/>
       <c r="C946" s="19"/>
@@ -36212,7 +36212,7 @@
       <c r="AI946" s="19"/>
       <c r="AJ946" s="20"/>
     </row>
-    <row r="947" spans="1:36" ht="8.25" customHeight="1">
+    <row r="947" spans="1:36" ht="10.5" customHeight="1">
       <c r="A947" s="19"/>
       <c r="B947" s="19"/>
       <c r="C947" s="19"/>
@@ -36250,7 +36250,7 @@
       <c r="AI947" s="19"/>
       <c r="AJ947" s="20"/>
     </row>
-    <row r="948" spans="1:36" ht="8.25" customHeight="1">
+    <row r="948" spans="1:36" ht="10.5" customHeight="1">
       <c r="A948" s="19"/>
       <c r="B948" s="19"/>
       <c r="C948" s="19"/>
@@ -36288,7 +36288,7 @@
       <c r="AI948" s="19"/>
       <c r="AJ948" s="20"/>
     </row>
-    <row r="949" spans="1:36" ht="8.25" customHeight="1">
+    <row r="949" spans="1:36" ht="10.5" customHeight="1">
       <c r="A949" s="19"/>
       <c r="B949" s="19"/>
       <c r="C949" s="19"/>
@@ -36326,7 +36326,7 @@
       <c r="AI949" s="19"/>
       <c r="AJ949" s="20"/>
     </row>
-    <row r="950" spans="1:36" ht="8.25" customHeight="1">
+    <row r="950" spans="1:36" ht="10.5" customHeight="1">
       <c r="A950" s="19"/>
       <c r="B950" s="19"/>
       <c r="C950" s="19"/>
@@ -36364,7 +36364,7 @@
       <c r="AI950" s="19"/>
       <c r="AJ950" s="20"/>
     </row>
-    <row r="951" spans="1:36" ht="8.25" customHeight="1">
+    <row r="951" spans="1:36" ht="10.5" customHeight="1">
       <c r="A951" s="19"/>
       <c r="B951" s="19"/>
       <c r="C951" s="19"/>
@@ -36402,7 +36402,7 @@
       <c r="AI951" s="19"/>
       <c r="AJ951" s="20"/>
     </row>
-    <row r="952" spans="1:36" ht="8.25" customHeight="1">
+    <row r="952" spans="1:36" ht="10.5" customHeight="1">
       <c r="A952" s="19"/>
       <c r="B952" s="19"/>
       <c r="C952" s="19"/>
@@ -36440,7 +36440,7 @@
       <c r="AI952" s="19"/>
       <c r="AJ952" s="20"/>
     </row>
-    <row r="953" spans="1:36" ht="8.25" customHeight="1">
+    <row r="953" spans="1:36" ht="10.5" customHeight="1">
       <c r="A953" s="19"/>
       <c r="B953" s="19"/>
       <c r="C953" s="19"/>
@@ -36478,7 +36478,7 @@
       <c r="AI953" s="19"/>
       <c r="AJ953" s="20"/>
     </row>
-    <row r="954" spans="1:36" ht="8.25" customHeight="1">
+    <row r="954" spans="1:36" ht="10.5" customHeight="1">
       <c r="A954" s="19"/>
       <c r="B954" s="19"/>
       <c r="C954" s="19"/>
@@ -36516,7 +36516,7 @@
       <c r="AI954" s="19"/>
       <c r="AJ954" s="20"/>
     </row>
-    <row r="955" spans="1:36" ht="8.25" customHeight="1">
+    <row r="955" spans="1:36" ht="10.5" customHeight="1">
       <c r="A955" s="19"/>
       <c r="B955" s="19"/>
       <c r="C955" s="19"/>
@@ -36554,7 +36554,7 @@
       <c r="AI955" s="19"/>
       <c r="AJ955" s="20"/>
     </row>
-    <row r="956" spans="1:36" ht="8.25" customHeight="1">
+    <row r="956" spans="1:36" ht="10.5" customHeight="1">
       <c r="A956" s="19"/>
       <c r="B956" s="19"/>
       <c r="C956" s="19"/>
@@ -36592,7 +36592,7 @@
       <c r="AI956" s="19"/>
       <c r="AJ956" s="20"/>
     </row>
-    <row r="957" spans="1:36" ht="8.25" customHeight="1">
+    <row r="957" spans="1:36" ht="10.5" customHeight="1">
       <c r="A957" s="19"/>
       <c r="B957" s="19"/>
       <c r="C957" s="19"/>
@@ -36630,7 +36630,7 @@
       <c r="AI957" s="19"/>
       <c r="AJ957" s="20"/>
     </row>
-    <row r="958" spans="1:36" ht="8.25" customHeight="1">
+    <row r="958" spans="1:36" ht="10.5" customHeight="1">
       <c r="A958" s="19"/>
       <c r="B958" s="19"/>
       <c r="C958" s="19"/>
@@ -36668,7 +36668,7 @@
       <c r="AI958" s="19"/>
       <c r="AJ958" s="20"/>
     </row>
-    <row r="959" spans="1:36" ht="8.25" customHeight="1">
+    <row r="959" spans="1:36" ht="10.5" customHeight="1">
       <c r="A959" s="19"/>
       <c r="B959" s="19"/>
       <c r="C959" s="19"/>
@@ -36706,7 +36706,7 @@
       <c r="AI959" s="19"/>
       <c r="AJ959" s="20"/>
     </row>
-    <row r="960" spans="1:36" ht="8.25" customHeight="1">
+    <row r="960" spans="1:36" ht="10.5" customHeight="1">
       <c r="A960" s="19"/>
       <c r="B960" s="19"/>
       <c r="C960" s="19"/>
@@ -36744,7 +36744,7 @@
       <c r="AI960" s="19"/>
       <c r="AJ960" s="20"/>
     </row>
-    <row r="961" spans="1:36" ht="8.25" customHeight="1">
+    <row r="961" spans="1:36" ht="10.5" customHeight="1">
       <c r="A961" s="19"/>
       <c r="B961" s="19"/>
       <c r="C961" s="19"/>
@@ -36782,7 +36782,7 @@
       <c r="AI961" s="19"/>
       <c r="AJ961" s="20"/>
     </row>
-    <row r="962" spans="1:36" ht="8.25" customHeight="1">
+    <row r="962" spans="1:36" ht="10.5" customHeight="1">
       <c r="A962" s="19"/>
       <c r="B962" s="19"/>
       <c r="C962" s="19"/>
@@ -36820,7 +36820,7 @@
       <c r="AI962" s="19"/>
       <c r="AJ962" s="20"/>
     </row>
-    <row r="963" spans="1:36" ht="8.25" customHeight="1">
+    <row r="963" spans="1:36" ht="10.5" customHeight="1">
       <c r="A963" s="19"/>
       <c r="B963" s="19"/>
       <c r="C963" s="19"/>
@@ -36858,7 +36858,7 @@
       <c r="AI963" s="19"/>
       <c r="AJ963" s="20"/>
     </row>
-    <row r="964" spans="1:36" ht="8.25" customHeight="1">
+    <row r="964" spans="1:36" ht="10.5" customHeight="1">
       <c r="A964" s="19"/>
       <c r="B964" s="19"/>
       <c r="C964" s="19"/>
@@ -36896,7 +36896,7 @@
       <c r="AI964" s="19"/>
       <c r="AJ964" s="20"/>
     </row>
-    <row r="965" spans="1:36" ht="8.25" customHeight="1">
+    <row r="965" spans="1:36" ht="10.5" customHeight="1">
       <c r="A965" s="19"/>
       <c r="B965" s="19"/>
       <c r="C965" s="19"/>
@@ -36934,7 +36934,7 @@
       <c r="AI965" s="19"/>
       <c r="AJ965" s="20"/>
     </row>
-    <row r="966" spans="1:36" ht="8.25" customHeight="1">
+    <row r="966" spans="1:36" ht="10.5" customHeight="1">
       <c r="A966" s="19"/>
       <c r="B966" s="19"/>
       <c r="C966" s="19"/>
@@ -36972,7 +36972,7 @@
       <c r="AI966" s="19"/>
       <c r="AJ966" s="20"/>
     </row>
-    <row r="967" spans="1:36" ht="8.25" customHeight="1">
+    <row r="967" spans="1:36" ht="10.5" customHeight="1">
       <c r="A967" s="19"/>
       <c r="B967" s="19"/>
       <c r="C967" s="19"/>
@@ -37010,7 +37010,7 @@
       <c r="AI967" s="19"/>
       <c r="AJ967" s="20"/>
     </row>
-    <row r="968" spans="1:36" ht="8.25" customHeight="1">
+    <row r="968" spans="1:36" ht="10.5" customHeight="1">
       <c r="A968" s="19"/>
       <c r="B968" s="19"/>
       <c r="C968" s="19"/>
@@ -37048,7 +37048,7 @@
       <c r="AI968" s="19"/>
       <c r="AJ968" s="20"/>
     </row>
-    <row r="969" spans="1:36" ht="8.25" customHeight="1">
+    <row r="969" spans="1:36" ht="10.5" customHeight="1">
       <c r="A969" s="19"/>
       <c r="B969" s="19"/>
       <c r="C969" s="19"/>
@@ -37086,7 +37086,7 @@
       <c r="AI969" s="19"/>
       <c r="AJ969" s="20"/>
     </row>
-    <row r="970" spans="1:36" ht="8.25" customHeight="1">
+    <row r="970" spans="1:36" ht="10.5" customHeight="1">
       <c r="A970" s="19"/>
       <c r="B970" s="19"/>
       <c r="C970" s="19"/>
@@ -37124,7 +37124,7 @@
       <c r="AI970" s="19"/>
       <c r="AJ970" s="20"/>
     </row>
-    <row r="971" spans="1:36" ht="8.25" customHeight="1">
+    <row r="971" spans="1:36" ht="10.5" customHeight="1">
       <c r="A971" s="19"/>
       <c r="B971" s="19"/>
       <c r="C971" s="19"/>
@@ -37162,7 +37162,7 @@
       <c r="AI971" s="19"/>
       <c r="AJ971" s="20"/>
     </row>
-    <row r="972" spans="1:36" ht="8.25" customHeight="1">
+    <row r="972" spans="1:36" ht="10.5" customHeight="1">
       <c r="A972" s="19"/>
       <c r="B972" s="19"/>
       <c r="C972" s="19"/>
@@ -37200,7 +37200,7 @@
       <c r="AI972" s="19"/>
       <c r="AJ972" s="20"/>
     </row>
-    <row r="973" spans="1:36" ht="8.25" customHeight="1">
+    <row r="973" spans="1:36" ht="10.5" customHeight="1">
       <c r="A973" s="19"/>
       <c r="B973" s="19"/>
       <c r="C973" s="19"/>
@@ -37238,7 +37238,7 @@
       <c r="AI973" s="19"/>
       <c r="AJ973" s="20"/>
     </row>
-    <row r="974" spans="1:36" ht="8.25" customHeight="1">
+    <row r="974" spans="1:36" ht="10.5" customHeight="1">
       <c r="A974" s="19"/>
       <c r="B974" s="19"/>
       <c r="C974" s="19"/>
@@ -37276,7 +37276,7 @@
       <c r="AI974" s="19"/>
       <c r="AJ974" s="20"/>
     </row>
-    <row r="975" spans="1:36" ht="8.25" customHeight="1">
+    <row r="975" spans="1:36" ht="10.5" customHeight="1">
       <c r="A975" s="19"/>
       <c r="B975" s="19"/>
       <c r="C975" s="19"/>
@@ -37481,7 +37481,7 @@
     <mergeCell ref="Q47:R47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>